--- a/data/02_intermediate/cleaned_Alpha_5.20_songs.xlsx
+++ b/data/02_intermediate/cleaned_Alpha_5.20_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Que les démons tremblent, mon royaume n'est pas de ce monde Désertez le rap et les jardins suspendus de Babylone Sku, sku Que les démons tremblent, mon royaume nest pas de ce monde Désertez le rap et les jardins suspendus de Babylone Mon hood réclame la peine de mort Dieu bénisse mes négros Gang, apatrides illégaux Enfants d'Afrique qui bravent le Nil mais finissent devant le métro Metro Comme le peuple de Moïse dans le désert béni errant Béni errant Retour aux pyramides, voleur d'obélisques, pouilleux étaient leurs vêtements Vêtements On est des Nubiens, on va pas se soumettre aux arabes libyens Libyens Mort sur les terrains Terrains, Marc Foé Vivien Vivien Règne suprême comme Souleiman le Magnifique Catherine, Julien ou Laurent de Medicis Que le feu de mes diatribes embrase les oreilles de lAntéchrist Les glaives de Dieu descendent du ciel puis bénirent toute l'Afrique Quatre heures du matin, j'me suis levé, devant mon Seigneur, j'paierai mes pêchés Vendre mon âme, vous faites que rêver, Satan a parlé, moi, j'ai refusé Tirez, tirez, videz mon sang, de martyr, j'suis élevé au rang L'État veut juste ruiner mes plans, pur re-noi armé de plomb Négro, sens-tu ma peine ? Négro, connais-tu le silence des agneaux ? Les Damnés de la Terre, du peu de la guerre, salaire est de misère Salaire est de misère Re-noi viril enceinteur de blonde de Bavière Blonde de Bavière Nos parents faisaient peur à Himmler, Hitler, Macron, Rothschild, Bernard Kouchner Kouchner, Kouchner You might also like J'suis le captif des paroles de Dieu, sa volonté, me défaire, je ne peux Jsuis le captif des paroles de Dieu, sa volonté, me défaire, je ne peux Jsuis le captif des paroles de Dieu, sa volonté, me défaire, je ne peux J'suis le captif des paroles de Dieu, sa volonté, me défaire, je ne peux Me défaire, je ne peux Freeze Corleone Mon hood réclame la peine de mort Peine de mort, peine de mort Mon hood réclame la peine de mort Peine de mort, peine de mort Mon hood réclame la peine de mort Peine de mort, peine de mort, ekip, ekip, ekip Mon hood réclame la peine de mort La putain de putain de peine de mort Han Peine de mort pour les pédérastes, négro, ça complote à Dakar sur les terrasses Concu, sans aucun stress, on les terrasse, berline noire sur noire comme un agent fédéral Sku Négro, pour percer, toi, t'attends un pacte, j'attends l'facteur négro, jattends un pack Cible dans l'viseur, j'appuie sur la gâchette, très loin négro donc j'attends l'impact Première année, nation nègre et culture, ils savent pourquoi ils ont cassé l'nez des sculptures Damn Au village pour ma sépulture, autour de moi, j'vois des snakes et des vultures Snakes Supra nègre comme Kémi, ils sont morts comme Kenny, sur la prod', découpe comme Eli Shii J'ai ma Ashanti comme Nelly, peine de mort pour les pédo-satanistes comme Kelly Ekip Ils font les thugs, on les voit comme les B2K Lin J'appelle YungMvX pour les glitches 2K Swish Pouvoir noir comme Marcus, négro Han J'ai la frappe comme Marcus, négro Han, réussir ou mourir comme Marcus, négro Han Que du sirop, négro, pas d'kasteel Lin, no cap, négro, pas d'casquette On les graille en balle comme quatre pastels, et des fois j'dérape comme Van Basten Sku, sku Connecté comme des rallonges Rallonges J'ai l'bras long, j'ai d'l'allonge, que le cash, bitch, donc s'te-plaît, allonge, ekip J'suis le captif des paroles de Dieu, sa volonté, me défaire, je ne peux J'suis le captif des paroles de Dieu, sa volonté, me défaire, je ne peux J'suis le captif des paroles de Dieu, sa volonté, me défaire, je ne peux J'suis le captif des paroles de Dieu, sa volonté, me défaire, je ne peux Mon hood réclame la peine de mort Peine de mort, peine de mort Mon hood réclame la peine de mort Peine de mort, peine de mort Mon hood réclame la peine de mort Peine de mort, peine de mort Mon hood réclame la peine de mort La putain de putain de peine de mort Hey, que l'Afrique soit bénie, prions pour nos ennemis J'te fouette quatre cents nuits, puis j'dis C'est du passé, faut qu't'oublies Hey, ils m'ont d'mandé c'que j'faisais dans la vie J'ai répondu j'suis un noir du lundi au lundi Ils veulent qu'on pue la défaite comme Bonaparte en Haïti C'est bien raconté, si, si, mais pour nous, t'es un tho-my t'es un tho-my On reviendra toujours comme Kenny Kenny Les soldats allemands nous prenaient pour des zombies Jette une liasse en l'air, j'veux les r'garder s'entre-tuer, ces niggas sont des pitres Des pitres, sont des pitres Le système t'a eu, mon frère, si naïvement, tu t'crois refait, à chaque litre que tu débites Même le ventre plein, ça leur fait mal, de constater que l'on graille, depuis tout p'tit, je cherche les failles J'te vois espérer leur amour, boy, faut qu'tu t'réveilles, autant sortir la nuit et chercher le soleil Soleil J'suis pas re-noi, moi, j'suis noir deux fois Tel Micah Xavier Johnson, j'en ai marre de tout ça Ils nous connaissent pas mais nous témoignent de la haine Ouvre pas ta gueule s'tu vas rien faire comme l'IGPN Délivrez-vous d'vos chaînes, j'ai du mépris, pas de peine Quand j'vois Jean Messiha à genoux, fier de lui d'vant le RN Qui tient les rennes ? Qui se délecte de nous voir nous fumer dans l'arène ? Choc de classes sociales esclaves qui ché-cra dans la reine Qui ché-cra dans la reine Africain du 9-3, boubou dans une McLaren, hey Mon hood réclame la peine de mort Peine de mort, peine de mort Mon hood réclame la peine de mort Peine de mort, peine de mort Mon hood réclame la peine de mort Peine de mort, peine de mort Mon hood réclame la peine de mort La putain de putain de peine de mort Que les démons tremblent, mon royaume n'est pas de ce monde Désertez le rap et les jardins suspendus de Babylone Sku, sku Que les démons tremblent, mon royaume n'est pas de ce monde Désertez le rap et les jardins suspendus de Babylone Que les démons tremblent, mon royaume n'est pas de ce monde Désertez le rap et les jardins suspendus de Babylone Sku, sku Que les démons tremblent, mon royaume n'est pas de ce monde Désertez le rap et les jardins suspendus de Babylone4</t>
+          <t>Que les démons tremblent, mon royaume n'est pas de ce monde Désertez le rap et les jardins suspendus de Babylone Sku, sku Que les démons tremblent, mon royaume nest pas de ce monde Désertez le rap et les jardins suspendus de Babylone Mon hood réclame la peine de mort Dieu bénisse mes négros Gang, apatrides illégaux Enfants d'Afrique qui bravent le Nil mais finissent devant le métro Metro Comme le peuple de Moïse dans le désert béni errant Béni errant Retour aux pyramides, voleur d'obélisques, pouilleux étaient leurs vêtements Vêtements On est des Nubiens, on va pas se soumettre aux arabes libyens Libyens Mort sur les terrains Terrains, Marc Foé Vivien Vivien Règne suprême comme Souleiman le Magnifique Catherine, Julien ou Laurent de Medicis Que le feu de mes diatribes embrase les oreilles de lAntéchrist Les glaives de Dieu descendent du ciel puis bénirent toute l'Afrique Quatre heures du matin, j'me suis levé, devant mon Seigneur, j'paierai mes pêchés Vendre mon âme, vous faites que rêver, Satan a parlé, moi, j'ai refusé Tirez, tirez, videz mon sang, de martyr, j'suis élevé au rang L'État veut juste ruiner mes plans, pur re-noi armé de plomb Négro, sens-tu ma peine ? Négro, connais-tu le silence des agneaux ? Les Damnés de la Terre, du peu de la guerre, salaire est de misère Salaire est de misère Re-noi viril enceinteur de blonde de Bavière Blonde de Bavière Nos parents faisaient peur à Himmler, Hitler, Macron, Rothschild, Bernard Kouchner Kouchner, Kouchner J'suis le captif des paroles de Dieu, sa volonté, me défaire, je ne peux Jsuis le captif des paroles de Dieu, sa volonté, me défaire, je ne peux Jsuis le captif des paroles de Dieu, sa volonté, me défaire, je ne peux J'suis le captif des paroles de Dieu, sa volonté, me défaire, je ne peux Me défaire, je ne peux Freeze Corleone Mon hood réclame la peine de mort Peine de mort, peine de mort Mon hood réclame la peine de mort Peine de mort, peine de mort Mon hood réclame la peine de mort Peine de mort, peine de mort, ekip, ekip, ekip Mon hood réclame la peine de mort La putain de putain de peine de mort Han Peine de mort pour les pédérastes, négro, ça complote à Dakar sur les terrasses Concu, sans aucun stress, on les terrasse, berline noire sur noire comme un agent fédéral Sku Négro, pour percer, toi, t'attends un pacte, j'attends l'facteur négro, jattends un pack Cible dans l'viseur, j'appuie sur la gâchette, très loin négro donc j'attends l'impact Première année, nation nègre et culture, ils savent pourquoi ils ont cassé l'nez des sculptures Damn Au village pour ma sépulture, autour de moi, j'vois des snakes et des vultures Snakes Supra nègre comme Kémi, ils sont morts comme Kenny, sur la prod', découpe comme Eli Shii J'ai ma Ashanti comme Nelly, peine de mort pour les pédo-satanistes comme Kelly Ekip Ils font les thugs, on les voit comme les B2K Lin J'appelle YungMvX pour les glitches 2K Swish Pouvoir noir comme Marcus, négro Han J'ai la frappe comme Marcus, négro Han, réussir ou mourir comme Marcus, négro Han Que du sirop, négro, pas d'kasteel Lin, no cap, négro, pas d'casquette On les graille en balle comme quatre pastels, et des fois j'dérape comme Van Basten Sku, sku Connecté comme des rallonges Rallonges J'ai l'bras long, j'ai d'l'allonge, que le cash, bitch, donc s'te-plaît, allonge, ekip J'suis le captif des paroles de Dieu, sa volonté, me défaire, je ne peux J'suis le captif des paroles de Dieu, sa volonté, me défaire, je ne peux J'suis le captif des paroles de Dieu, sa volonté, me défaire, je ne peux J'suis le captif des paroles de Dieu, sa volonté, me défaire, je ne peux Mon hood réclame la peine de mort Peine de mort, peine de mort Mon hood réclame la peine de mort Peine de mort, peine de mort Mon hood réclame la peine de mort Peine de mort, peine de mort Mon hood réclame la peine de mort La putain de putain de peine de mort Hey, que l'Afrique soit bénie, prions pour nos ennemis J'te fouette quatre cents nuits, puis j'dis C'est du passé, faut qu't'oublies Hey, ils m'ont d'mandé c'que j'faisais dans la vie J'ai répondu j'suis un noir du lundi au lundi Ils veulent qu'on pue la défaite comme Bonaparte en Haïti C'est bien raconté, si, si, mais pour nous, t'es un tho-my t'es un tho-my On reviendra toujours comme Kenny Kenny Les soldats allemands nous prenaient pour des zombies Jette une liasse en l'air, j'veux les r'garder s'entre-tuer, ces niggas sont des pitres Des pitres, sont des pitres Le système t'a eu, mon frère, si naïvement, tu t'crois refait, à chaque litre que tu débites Même le ventre plein, ça leur fait mal, de constater que l'on graille, depuis tout p'tit, je cherche les failles J'te vois espérer leur amour, boy, faut qu'tu t'réveilles, autant sortir la nuit et chercher le soleil Soleil J'suis pas re-noi, moi, j'suis noir deux fois Tel Micah Xavier Johnson, j'en ai marre de tout ça Ils nous connaissent pas mais nous témoignent de la haine Ouvre pas ta gueule s'tu vas rien faire comme l'IGPN Délivrez-vous d'vos chaînes, j'ai du mépris, pas de peine Quand j'vois Jean Messiha à genoux, fier de lui d'vant le RN Qui tient les rennes ? Qui se délecte de nous voir nous fumer dans l'arène ? Choc de classes sociales esclaves qui ché-cra dans la reine Qui ché-cra dans la reine Africain du 9-3, boubou dans une McLaren, hey Mon hood réclame la peine de mort Peine de mort, peine de mort Mon hood réclame la peine de mort Peine de mort, peine de mort Mon hood réclame la peine de mort Peine de mort, peine de mort Mon hood réclame la peine de mort La putain de putain de peine de mort Que les démons tremblent, mon royaume n'est pas de ce monde Désertez le rap et les jardins suspendus de Babylone Sku, sku Que les démons tremblent, mon royaume n'est pas de ce monde Désertez le rap et les jardins suspendus de Babylone Que les démons tremblent, mon royaume n'est pas de ce monde Désertez le rap et les jardins suspendus de Babylone Sku, sku Que les démons tremblent, mon royaume n'est pas de ce monde Désertez le rap et les jardins suspendus de Babylone4</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nuits fauves, flingues, chauve représente les pauvres Quand j'arrive dans la cité, boy retiens ton souffle Moitié homme, mi-animal, j'ai du crack sous la chair Esprit volatile et quelques zombies qui errent Avalanche, poudreuse, j'suis venu défoncer T'as de quoi m'payer, sinon tu fumes la télé J'vais te péter les veines jusquà te rendre accro Oublier tes enfants, rien dans leur frigo Appelle-moi Cocaïne, Crack, ou Ecstasy La mort en sachet, pilules d'amour, pharmacie Boy goutte le nirvana à la Kurt Cobain Tu seras invincible comme Saddam Hussein Puis jirai vendre du crack à ta femme enceinte Et tes mômes mort-nés, c'est tout le mal que je t'ai fait ! Qui t'a dit princesse que cétait facile de maimer ? Le temps guérit les blessures, alors tu vas me pardonner x2 C'est plus fort que la Musique, plus lourd que l'acier Embrouilles et trafics, frère ça c'est ma vie Entre le Dîn et le deal, jai dû faire un choix Mais Dieu seul jugera, frère, le mal qu'on a fait Quitter le monde avec une aiguille dans le bras Une balle dans le corps, sur le visage un grand drap C'est le drame, nos ruelles saupoudrées de kilogrammes De kilos Dollar, CFA ou narco-dinars Teenager, voyageur dans la soute Lorsque toi, enfant, tu mollardais dans la soupe LAfricaine Attitude titube les exclus Tu rends ta job, sans études, tu recules L'arme blanche inscrite au tableau noir Au marqueur, les victimes, bâtonnées par le trait noir Conventionnel, font des pleurs de nos mères un rituel Une musique douloureuse, habituelle Incriminé par un témoin oculaire À qui tu rêves déjà de couper lauriculaire Ne recule devant rien surtout pas devant les armes à feu Et à sang quitte à finir dans le feu You might also like x2 C'est plus fort que la Musique, plus lourd que l'acier Embrouilles et trafics, frère ça c'est ma vie Entre le Dîn et le deal, jai dû faire un choix Mais Dieu seul jugera, frère, le mal qu'on a fait Le mal triomphe partout, jsuis son messager Tel un ange tombé du ciel, jai commis des péchés Naïveté de ma mère, j'suis un fils exemplaire Moi j'ai vendu la douille qui a buté mon ptit frère Je l'ai vu par terre, agonisant, tremblant Implorant le Seigneur, mon image dans son sang Une balle n'a pas de cur, elle fauche femmes et enfants Laisse nos mères en deuil, mais ne part jamais seule C'est lEnfer sur Terre, hypocrisie des Hommes Cigarettes et alcools tuent plus vite que les armes Laisse pourrir mon âme, rongée par le cancer Grillée dans ce bas-monde ou dans les flammes de lEnfer Pulsions meurtrières, convictions intimes Moi aussi je fais le djihad, comme toi Médine ! Jvais niquer ces PD, oui les rendre infirmes De leur famille ne restera que des récits posthumes Costume de coronaire devant la porte à sa femme Orphelins, bâtard c'est tout le mal que je t'ai fait ! x2 C'est plus fort que la Musique, plus lourd que l'acier Embrouilles et trafics, frère ça c'est ma vie Entre le Dîn et le deal, jai dû faire un choix Mais Dieu seul jugera, frère, le mal qu'on a fait T'es gangster en boubou, jsuis coupable en kamis Les fusils à pompe n'ont vraiment pas de charisme Écoute le mal qu'on a fait avec nos mains Et quon regrette sur ce son, Médine, Alpha 5.20 J'suis gangster en boubou, tes coupable en kamis Les fusils à pompe n'ont vraiment pas de charisme Écoute le mal qu'on a fait avec nos mains Et quon regrette sur ce son, Médine, Alpha 5.203</t>
+          <t>Nuits fauves, flingues, chauve représente les pauvres Quand j'arrive dans la cité, boy retiens ton souffle Moitié homme, mi-animal, j'ai du crack sous la chair Esprit volatile et quelques zombies qui errent Avalanche, poudreuse, j'suis venu défoncer T'as de quoi m'payer, sinon tu fumes la télé J'vais te péter les veines jusquà te rendre accro Oublier tes enfants, rien dans leur frigo Appelle-moi Cocaïne, Crack, ou Ecstasy La mort en sachet, pilules d'amour, pharmacie Boy goutte le nirvana à la Kurt Cobain Tu seras invincible comme Saddam Hussein Puis jirai vendre du crack à ta femme enceinte Et tes mômes mort-nés, c'est tout le mal que je t'ai fait ! Qui t'a dit princesse que cétait facile de maimer ? Le temps guérit les blessures, alors tu vas me pardonner x2 C'est plus fort que la Musique, plus lourd que l'acier Embrouilles et trafics, frère ça c'est ma vie Entre le Dîn et le deal, jai dû faire un choix Mais Dieu seul jugera, frère, le mal qu'on a fait Quitter le monde avec une aiguille dans le bras Une balle dans le corps, sur le visage un grand drap C'est le drame, nos ruelles saupoudrées de kilogrammes De kilos Dollar, CFA ou narco-dinars Teenager, voyageur dans la soute Lorsque toi, enfant, tu mollardais dans la soupe LAfricaine Attitude titube les exclus Tu rends ta job, sans études, tu recules L'arme blanche inscrite au tableau noir Au marqueur, les victimes, bâtonnées par le trait noir Conventionnel, font des pleurs de nos mères un rituel Une musique douloureuse, habituelle Incriminé par un témoin oculaire À qui tu rêves déjà de couper lauriculaire Ne recule devant rien surtout pas devant les armes à feu Et à sang quitte à finir dans le feu x2 C'est plus fort que la Musique, plus lourd que l'acier Embrouilles et trafics, frère ça c'est ma vie Entre le Dîn et le deal, jai dû faire un choix Mais Dieu seul jugera, frère, le mal qu'on a fait Le mal triomphe partout, jsuis son messager Tel un ange tombé du ciel, jai commis des péchés Naïveté de ma mère, j'suis un fils exemplaire Moi j'ai vendu la douille qui a buté mon ptit frère Je l'ai vu par terre, agonisant, tremblant Implorant le Seigneur, mon image dans son sang Une balle n'a pas de cur, elle fauche femmes et enfants Laisse nos mères en deuil, mais ne part jamais seule C'est lEnfer sur Terre, hypocrisie des Hommes Cigarettes et alcools tuent plus vite que les armes Laisse pourrir mon âme, rongée par le cancer Grillée dans ce bas-monde ou dans les flammes de lEnfer Pulsions meurtrières, convictions intimes Moi aussi je fais le djihad, comme toi Médine ! Jvais niquer ces PD, oui les rendre infirmes De leur famille ne restera que des récits posthumes Costume de coronaire devant la porte à sa femme Orphelins, bâtard c'est tout le mal que je t'ai fait ! x2 C'est plus fort que la Musique, plus lourd que l'acier Embrouilles et trafics, frère ça c'est ma vie Entre le Dîn et le deal, jai dû faire un choix Mais Dieu seul jugera, frère, le mal qu'on a fait T'es gangster en boubou, jsuis coupable en kamis Les fusils à pompe n'ont vraiment pas de charisme Écoute le mal qu'on a fait avec nos mains Et quon regrette sur ce son, Médine, Alpha 5.20 J'suis gangster en boubou, tes coupable en kamis Les fusils à pompe n'ont vraiment pas de charisme Écoute le mal qu'on a fait avec nos mains Et quon regrette sur ce son, Médine, Alpha 5.203</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Hé boy fuck la musique, moi j'écoute les tam-tams À part ça bruits d'flingues, dans la rue c'est bam-bam Négros veulent ma peau, parlent mal sur oi-m Brandissent des armes, moi j'te dis come-come Hé boy fuck la musique, moi j'écoute les tam-tams À part ça bruits d'flingues, dans la rue c'est bam-bam C'est Alpha 5.20, le renoi le plus vrai Gangster en grand boubou mais il y a pas plus frais 9.3 Hustler, animal galeux Un million sous l'matelas, mais je suis un dalleux Laisse le shit aux tits-pe, moi je passe à la poudre Boy, tu peux m'critiquer mais j'en ai rien à foutre Et j'serai un gangster que j'sois pauvre ou riche Appétit de bastos, j'ai de quoi t'nourrir C'est pour ça qu'l'esprit est rongé de remords Et j'demande pardon dès qu'j'vois qu'j'ai tort Si je n'ai pas un flingue, négro j'ai un schlass Négros font du cinéma, puis me sortent leur flash Économise le chargeur ne gaspille pas tes douilles Moi j'esquive les balles, comme si j'étais dans Matrix You might also like Wesh Alpha c'est O'Rosko là Je suis aux puces là, je t'attends là Deuss-deuss Hé boy fuck la musique, moi j'écoute les tam-tams À part ça bruits d'flingues, dans la rue c'est bam-bam Négros veulent ma peau, parlent mal sur oi-m Brandissent des armes, moi j'te dis come-come Hé boy fuck la musique, moi j'écoute les tam-tams À part ça bruits d'flingues, dans la rue c'est bam-bam Négros veulent ma peau, parlent mal sur oi-m Brandissent des armes, moi j'te dis come-come Fais pas un sorte renoi que toi tu ne savais pas Mes flingues viennent d'Israël, mes meufs viennent de Gwada Pointe-à-Pitre, ragga, veulent que je devienne papa Mais à ce stade de ma vie, je m'en accable même pas Alpha le seul vrai depuis Black Jack des Bosquets 9.3 Épinay, devant le drive posté Arrête de suivre mes pas, par les keufs j'suis pisté Si je meurs renoi, Dakar va me manquer Trouve une meuf serre là, t'es un chien appelle là Si elle suce le premier jour moi j'te dis te-je là Et la gratte même pas, car la vie est une chienne Moi je garde la tête haute, boy comme un gratte-ciel Et j'écrase le building, plus le bodybuilder Porte haut mes couleurs, Dakar gangbanger Prêche tel un pasteur, mais tu ne m'écoutes même pas Et je marche deuspi la mort vient à grands pas Trouve moi à Bondy sinon à Épinay La mort toque à ma porte, j'vais pas m'cacher Et la vie n'est pas juste, pourquoi veux-tu que je le sois ? Mes potes s'font schlasser, puis viennent saigner dans mes bras Hé boy fuck la musique, moi j'écoute les tam-tams À part ça bruits d'flingues, dans la rue c'est bam-bam Negros veulent ma peau, parlent mal sur oi-m Brandissent des armes, moi j'te dis come-come Hé boy fuck la musique, moi j'écoute les tam-tams À part ça bruits d'flingues, dans la rue c'est bam-bam Negros veulent ma peau, parlent mal sur oi-m Brandissent des armes, moi j'te dis come-come C'est du ga-ga-gangsta C'est du ga-ga-gangsta C'est du ga-ga-gangsta2</t>
+          <t>Hé boy fuck la musique, moi j'écoute les tam-tams À part ça bruits d'flingues, dans la rue c'est bam-bam Négros veulent ma peau, parlent mal sur oi-m Brandissent des armes, moi j'te dis come-come Hé boy fuck la musique, moi j'écoute les tam-tams À part ça bruits d'flingues, dans la rue c'est bam-bam C'est Alpha 5.20, le renoi le plus vrai Gangster en grand boubou mais il y a pas plus frais 9.3 Hustler, animal galeux Un million sous l'matelas, mais je suis un dalleux Laisse le shit aux tits-pe, moi je passe à la poudre Boy, tu peux m'critiquer mais j'en ai rien à foutre Et j'serai un gangster que j'sois pauvre ou riche Appétit de bastos, j'ai de quoi t'nourrir C'est pour ça qu'l'esprit est rongé de remords Et j'demande pardon dès qu'j'vois qu'j'ai tort Si je n'ai pas un flingue, négro j'ai un schlass Négros font du cinéma, puis me sortent leur flash Économise le chargeur ne gaspille pas tes douilles Moi j'esquive les balles, comme si j'étais dans Matrix Wesh Alpha c'est O'Rosko là Je suis aux puces là, je t'attends là Deuss-deuss Hé boy fuck la musique, moi j'écoute les tam-tams À part ça bruits d'flingues, dans la rue c'est bam-bam Négros veulent ma peau, parlent mal sur oi-m Brandissent des armes, moi j'te dis come-come Hé boy fuck la musique, moi j'écoute les tam-tams À part ça bruits d'flingues, dans la rue c'est bam-bam Négros veulent ma peau, parlent mal sur oi-m Brandissent des armes, moi j'te dis come-come Fais pas un sorte renoi que toi tu ne savais pas Mes flingues viennent d'Israël, mes meufs viennent de Gwada Pointe-à-Pitre, ragga, veulent que je devienne papa Mais à ce stade de ma vie, je m'en accable même pas Alpha le seul vrai depuis Black Jack des Bosquets 9.3 Épinay, devant le drive posté Arrête de suivre mes pas, par les keufs j'suis pisté Si je meurs renoi, Dakar va me manquer Trouve une meuf serre là, t'es un chien appelle là Si elle suce le premier jour moi j'te dis te-je là Et la gratte même pas, car la vie est une chienne Moi je garde la tête haute, boy comme un gratte-ciel Et j'écrase le building, plus le bodybuilder Porte haut mes couleurs, Dakar gangbanger Prêche tel un pasteur, mais tu ne m'écoutes même pas Et je marche deuspi la mort vient à grands pas Trouve moi à Bondy sinon à Épinay La mort toque à ma porte, j'vais pas m'cacher Et la vie n'est pas juste, pourquoi veux-tu que je le sois ? Mes potes s'font schlasser, puis viennent saigner dans mes bras Hé boy fuck la musique, moi j'écoute les tam-tams À part ça bruits d'flingues, dans la rue c'est bam-bam Negros veulent ma peau, parlent mal sur oi-m Brandissent des armes, moi j'te dis come-come Hé boy fuck la musique, moi j'écoute les tam-tams À part ça bruits d'flingues, dans la rue c'est bam-bam Negros veulent ma peau, parlent mal sur oi-m Brandissent des armes, moi j'te dis come-come C'est du ga-ga-gangsta C'est du ga-ga-gangsta C'est du ga-ga-gangsta2</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>What up? Zeg P on the track baby Young Thug pédé Lil Uzi pédé Négro vas-tu céder ? Que des leggings serrés Rap français, déchets Négro vas-tu payer ? Affranchis Eh, négro, pour moi la mort n'est pas une fin Chevauché dans le sang jusqu'à la hauteur de mes reins Crépuscule des empires, cimetière des despotes Crachoir de la haine jusqu'à c'que la mort les emporte Et les vrais ne meurent pas, toujours à côté du juste J'ai tué un homme pour en sauver cent-mille Comme Charlotte Corday, à la patrie, je ne puis qu'offrir ma vie Passer à la guillotine, verser mon sang sur Paris Je suis dans la tourmente, dans le doute je marche à l'envers L'Enfer m'est-il réservé une fois le pont de la mort traversé ? Yeah renoi Combien de fois ont-ils exercé des pressions sur ma personne ? Affranchis You might also like Young Thug pédé. Lil Uzi pédé Young Thug pédé. Lil Uzi pédé Young Thug pédé. Lil Uzi pédé Négro, vas-tu céder ? ouais, ouais J'ai dit Young Thug pédé. Lil Uzi pédé Young Thug pédé. Lil Uzi pédé J'ai dit Young Thug pédé. Lil Uzi pédé Négro, vas-tu payer ? ish, ish Les PDG qui tapinent à ma solde Ghetto Fabulous, tu vois déjà la bande Au garage, ton petit rappeur à la mode Nique sa mère, j'ai mis tout le monde à l'amende Les mecs au pouvoir m'ont jeté au trou Maintenant, j'ai le pouvoir, j'déclenche des émeutes Les mecs de chez toi m'ont jeté aux loups Mais, poto, j'suis devenu le chef de la meute Tu peux laisser le monde s'écrouler autour J'ai prouvé, j'ai mis du sang sur le parvis Un pied dans la tombe, t'es sous les vautours Viens, serre-moi la main que j'te change ta vie C'est le braquage de France, attends que j'la descende Elle vide pas ses poches, rebeu, j'la secoue C'est Fianso, Alpha, Bureau des légendes Au final t'as moins de buzz que ma pe-cou Affranchis, Ghetto Fabulous Gang Affranchis, Ghetto Fabulous Gang Affranchis, Ghetto Fabulous Gang Affranchis, Ghetto Fabulous Gang Young Thug pédé. Lil Uzi pédé Young Thug pédé. Lil Uzi pédé Young Thug pédé. Lil Uzi pédé Négro, vas-tu céder ? ouais, ouais J'ai dit Young Thug pédé. Lil Uzi pédé Young Thug pédé. Lil Uzi pédé J'ai dit Young Thug pédé. Lil Uzi pédé Négro, vas-tu payer ? paw, paw Toujours ennemi d'État, Ousmane Badara Ma femme est déter comme la sur à Adama C'est islamique Dakar, Nouvelle-Calédonie Révolution kanake face à la gendarmerie Dieu m'a envoyé telle une punition pour les impies Comme Josué à Jéricho, Jérusalem j'ai envahi Que des renégats et des Végétas dans les rues obscures de Panama Tueur chante des sérénades, comme ennemis des Falashas Nan négro, je ne connais pas la mort à part au cinéma Toujours va-t-en-guerre contre Isabel la Católica Et mes ancêtres, des vagabonds coupeurs de routes et des pharaons J'suis de la race maudite idolâtrée par leurs rejetons Aborigène, j'attire la haine comme Donald Trump à Jérusalem Nan négro, je ne connais pas El Chapo ou Sean Penn Sortis de l'ombre, jailli en nombre, mes killers, que des talibés Le monde s'effondre, Paris à l'ombre, le flingue n'aime pas la parité Pacho Herrera, prison Bogota, négro, où sont les vrais ? La quali, la quali, la dope et les amis, frérot j'ai tiré un trait Dans les yeux regarde-moi, à Dakar évite-moi Si j'avance suivez-moi, si je recule tuez-moi1</t>
+          <t>What up? Zeg P on the track baby Young Thug pédé Lil Uzi pédé Négro vas-tu céder ? Que des leggings serrés Rap français, déchets Négro vas-tu payer ? Affranchis Eh, négro, pour moi la mort n'est pas une fin Chevauché dans le sang jusqu'à la hauteur de mes reins Crépuscule des empires, cimetière des despotes Crachoir de la haine jusqu'à c'que la mort les emporte Et les vrais ne meurent pas, toujours à côté du juste J'ai tué un homme pour en sauver cent-mille Comme Charlotte Corday, à la patrie, je ne puis qu'offrir ma vie Passer à la guillotine, verser mon sang sur Paris Je suis dans la tourmente, dans le doute je marche à l'envers L'Enfer m'est-il réservé une fois le pont de la mort traversé ? Yeah renoi Combien de fois ont-ils exercé des pressions sur ma personne ? Affranchis Young Thug pédé. Lil Uzi pédé Young Thug pédé. Lil Uzi pédé Young Thug pédé. Lil Uzi pédé Négro, vas-tu céder ? ouais, ouais J'ai dit Young Thug pédé. Lil Uzi pédé Young Thug pédé. Lil Uzi pédé J'ai dit Young Thug pédé. Lil Uzi pédé Négro, vas-tu payer ? ish, ish Les PDG qui tapinent à ma solde Ghetto Fabulous, tu vois déjà la bande Au garage, ton petit rappeur à la mode Nique sa mère, j'ai mis tout le monde à l'amende Les mecs au pouvoir m'ont jeté au trou Maintenant, j'ai le pouvoir, j'déclenche des émeutes Les mecs de chez toi m'ont jeté aux loups Mais, poto, j'suis devenu le chef de la meute Tu peux laisser le monde s'écrouler autour J'ai prouvé, j'ai mis du sang sur le parvis Un pied dans la tombe, t'es sous les vautours Viens, serre-moi la main que j'te change ta vie C'est le braquage de France, attends que j'la descende Elle vide pas ses poches, rebeu, j'la secoue C'est Fianso, Alpha, Bureau des légendes Au final t'as moins de buzz que ma pe-cou Affranchis, Ghetto Fabulous Gang Affranchis, Ghetto Fabulous Gang Affranchis, Ghetto Fabulous Gang Affranchis, Ghetto Fabulous Gang Young Thug pédé. Lil Uzi pédé Young Thug pédé. Lil Uzi pédé Young Thug pédé. Lil Uzi pédé Négro, vas-tu céder ? ouais, ouais J'ai dit Young Thug pédé. Lil Uzi pédé Young Thug pédé. Lil Uzi pédé J'ai dit Young Thug pédé. Lil Uzi pédé Négro, vas-tu payer ? paw, paw Toujours ennemi d'État, Ousmane Badara Ma femme est déter comme la sur à Adama C'est islamique Dakar, Nouvelle-Calédonie Révolution kanake face à la gendarmerie Dieu m'a envoyé telle une punition pour les impies Comme Josué à Jéricho, Jérusalem j'ai envahi Que des renégats et des Végétas dans les rues obscures de Panama Tueur chante des sérénades, comme ennemis des Falashas Nan négro, je ne connais pas la mort à part au cinéma Toujours va-t-en-guerre contre Isabel la Católica Et mes ancêtres, des vagabonds coupeurs de routes et des pharaons J'suis de la race maudite idolâtrée par leurs rejetons Aborigène, j'attire la haine comme Donald Trump à Jérusalem Nan négro, je ne connais pas El Chapo ou Sean Penn Sortis de l'ombre, jailli en nombre, mes killers, que des talibés Le monde s'effondre, Paris à l'ombre, le flingue n'aime pas la parité Pacho Herrera, prison Bogota, négro, où sont les vrais ? La quali, la quali, la dope et les amis, frérot j'ai tiré un trait Dans les yeux regarde-moi, à Dakar évite-moi Si j'avance suivez-moi, si je recule tuez-moi1</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Scarface d'Afrique, négro le monde est à moi J'irai au bout de mes rêves, je suis un hors-la-loi J'ai les mains faites pour l'or, mais elles sont dans la boue Les pieds trempés dans la merde, et des traces sur mon cou Scarface d'Afrique, négro le monde est à moi J'irai au bout de mes rêves, je suis un hors-la-loi J'ai les mains faites pour l'or, mais elles sont dans la boue Les pieds trempés dans la merde, et des traces sur mon cou Man il y a pas assez de place, au cimetière pour toutes mes cailles Mettez tous les pleins phares, le jour de mes funérailles Si t'as pas le million, t'es pas loin d'être un pauvre Et joue pas les musclors, pour nous t'es qu'un chippendale, Ces stupides de bâtards, réfléchissent avec leur bite Un coup de fusil ou une chatte, changent le cours de leur vie Je suis pas né à l'hôpital, moi je sors d'une bouilloire Chuchotant au parloir, dans la bouche un rasoir Vivre et mourir à Dakar, moi je n'ai jamais eu le choix Travailler comme un esclave man, manger comme un roi Illicite business, esquivant la T.V.A Jalousé comme au monarque, les négros veulent la tête du roi Un niggas en airmax, moi je viens d'Ethiopie Attirant les femmes blanches, avec mes cheveux crépus Ne sois pas si sûr de toi, quand le Ghetto Fab reviendra Les MCs raseront les murs puis nous demanderons pardon You might also like Scarface d'Afrique, négro le monde est à moi J'irai au bout de mes rêves, je suis un hors-la-loi J'ai les mains faites pour l'or, mais elles sont dans la boue Les pieds trempés dans la merde, et des traces sur mon cou Scarface d'Afrique, négro le monde est à moi J'irai au bout de mes rêves, je suis un hors-la-loi J'ai les mains faites pour l'or, mais elles sont dans la boue Les pieds trempés dans la merde, et des traces sur mon cou Qui a dit que la drogue, c'était de l'argent facile N'a rien compris à ma vie, mes ambiances nocturnes Economie souterraine mais pas sur le goudron Commis le pires des péchés, je demande pas pardon Et je regarde ma mère, car je l'aime tellement Elle a sourit puis après, elle a pleuré pour moi Man mon âme est possédée, gourmandise et luxure Cupidité et orgueil, appelez l'exorciste Nique les 35 heures, et la fonction publique Moi je lai fait en 2 jours, avec Raricim aux Puces Négro j'ai rien à perdre, mais beaucoup à prouver Et la coke autour de moi, n'est pas dur à trouver Donne-moi 10 grammes de coke, et je t'en fais 100 grammes de crack Laisse moi ton block 24 heures, après ce sera Fort Knox J'ai pas besoin de terreur, moi je suis détendu Mon bénéf' c'est 10 euros, pour chaque gramme de vendu Scarface d'Afrique, négro le monde est à moi J'irai au bout de mes rêves, je suis un hors-la-loi J'ai les mains faites pour l'or, mais elles sont dans la boue Les pieds trempés dans la merde, et des traces sur mon cou Scarface d'Afrique, négro le monde est à moi J'irai au bout de mes rêves, je suis un hors-la-loi J'ai les mains faites pour l'or, mais elles sont dans la boue Les pieds trempés dans la merde, et des traces sur mon cou Plein de coke autour de moi, moi j'habite la Maison Blanche 9.3 paye pas les taxes, appelle nous la zone franche, Every day I'm hustlin, je suis le roi des bicraveurs Vends la came, vends du shit, ça dépend de mon humeur J'ai pas de compte en banque, ma maille est dans les caves Un mandat Western Union, puis j'appelle la terre des braves Dakar ne baisse les stores, qu'à la prière du vendredi Drogue import-export, Universal-Vivendi Je connais des gangsters,clik-clik des vrais gangsters, clik-clik,boom Epinay-Orgemont jusqu'à Bagneux-Les Tertres Là où les balles se perdent, puis après les anges pleurent Les larmes tombent du ciel, un autre négro meurt L'univers carcéral, négro nous a jamais fait peur Pratiquant de l'Omertà, négro-négro ferme ta gueule Marche ou crève, c'est ce que la rue nous a laissé comme héritage Des statues remplies d'héro, d-d-d-dans mes bagages Scarface d'Afrique, négro le monde est à moi J'irai au bout de mes rêves, je suis un hors-la-loi J'ai les mains faites pour l'or, mais elles sont dans la boue Les pieds trempés dans la merde, et des traces sur mon cou Scarface d'Afrique, négro le monde est à moi J'irai au bout de mes rêves, je suis un hors-la-loi J'ai les mains faites pour l'or, mais elles sont dans la boue Les pieds trempés dans la merde, et des traces sur mon cou3</t>
+          <t>Scarface d'Afrique, négro le monde est à moi J'irai au bout de mes rêves, je suis un hors-la-loi J'ai les mains faites pour l'or, mais elles sont dans la boue Les pieds trempés dans la merde, et des traces sur mon cou Scarface d'Afrique, négro le monde est à moi J'irai au bout de mes rêves, je suis un hors-la-loi J'ai les mains faites pour l'or, mais elles sont dans la boue Les pieds trempés dans la merde, et des traces sur mon cou Man il y a pas assez de place, au cimetière pour toutes mes cailles Mettez tous les pleins phares, le jour de mes funérailles Si t'as pas le million, t'es pas loin d'être un pauvre Et joue pas les musclors, pour nous t'es qu'un chippendale, Ces stupides de bâtards, réfléchissent avec leur bite Un coup de fusil ou une chatte, changent le cours de leur vie Je suis pas né à l'hôpital, moi je sors d'une bouilloire Chuchotant au parloir, dans la bouche un rasoir Vivre et mourir à Dakar, moi je n'ai jamais eu le choix Travailler comme un esclave man, manger comme un roi Illicite business, esquivant la T.V.A Jalousé comme au monarque, les négros veulent la tête du roi Un niggas en airmax, moi je viens d'Ethiopie Attirant les femmes blanches, avec mes cheveux crépus Ne sois pas si sûr de toi, quand le Ghetto Fab reviendra Les MCs raseront les murs puis nous demanderons pardon Scarface d'Afrique, négro le monde est à moi J'irai au bout de mes rêves, je suis un hors-la-loi J'ai les mains faites pour l'or, mais elles sont dans la boue Les pieds trempés dans la merde, et des traces sur mon cou Scarface d'Afrique, négro le monde est à moi J'irai au bout de mes rêves, je suis un hors-la-loi J'ai les mains faites pour l'or, mais elles sont dans la boue Les pieds trempés dans la merde, et des traces sur mon cou Qui a dit que la drogue, c'était de l'argent facile N'a rien compris à ma vie, mes ambiances nocturnes Economie souterraine mais pas sur le goudron Commis le pires des péchés, je demande pas pardon Et je regarde ma mère, car je l'aime tellement Elle a sourit puis après, elle a pleuré pour moi Man mon âme est possédée, gourmandise et luxure Cupidité et orgueil, appelez l'exorciste Nique les 35 heures, et la fonction publique Moi je lai fait en 2 jours, avec Raricim aux Puces Négro j'ai rien à perdre, mais beaucoup à prouver Et la coke autour de moi, n'est pas dur à trouver Donne-moi 10 grammes de coke, et je t'en fais 100 grammes de crack Laisse moi ton block 24 heures, après ce sera Fort Knox J'ai pas besoin de terreur, moi je suis détendu Mon bénéf' c'est 10 euros, pour chaque gramme de vendu Scarface d'Afrique, négro le monde est à moi J'irai au bout de mes rêves, je suis un hors-la-loi J'ai les mains faites pour l'or, mais elles sont dans la boue Les pieds trempés dans la merde, et des traces sur mon cou Scarface d'Afrique, négro le monde est à moi J'irai au bout de mes rêves, je suis un hors-la-loi J'ai les mains faites pour l'or, mais elles sont dans la boue Les pieds trempés dans la merde, et des traces sur mon cou Plein de coke autour de moi, moi j'habite la Maison Blanche 9.3 paye pas les taxes, appelle nous la zone franche, Every day I'm hustlin, je suis le roi des bicraveurs Vends la came, vends du shit, ça dépend de mon humeur J'ai pas de compte en banque, ma maille est dans les caves Un mandat Western Union, puis j'appelle la terre des braves Dakar ne baisse les stores, qu'à la prière du vendredi Drogue import-export, Universal-Vivendi Je connais des gangsters,clik-clik des vrais gangsters, clik-clik,boom Epinay-Orgemont jusqu'à Bagneux-Les Tertres Là où les balles se perdent, puis après les anges pleurent Les larmes tombent du ciel, un autre négro meurt L'univers carcéral, négro nous a jamais fait peur Pratiquant de l'Omertà, négro-négro ferme ta gueule Marche ou crève, c'est ce que la rue nous a laissé comme héritage Des statues remplies d'héro, d-d-d-dans mes bagages Scarface d'Afrique, négro le monde est à moi J'irai au bout de mes rêves, je suis un hors-la-loi J'ai les mains faites pour l'or, mais elles sont dans la boue Les pieds trempés dans la merde, et des traces sur mon cou Scarface d'Afrique, négro le monde est à moi J'irai au bout de mes rêves, je suis un hors-la-loi J'ai les mains faites pour l'or, mais elles sont dans la boue Les pieds trempés dans la merde, et des traces sur mon cou3</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Hein hein hein, Alpha 5.20 Yeah yeah, Ghetto Fabulous Gang Hein hein hein, Alpha 5.20 Yeah yeah, Ghetto Fab... Yo ma conscience flotte, frère, jamais ne touche le sol Les anges me tendent la main jusquà ce que j'décolle Laisse pousser mes ailes, puis j'inhale la ganja Le jour mon anniversaire on déclenche la razzia Et tous mes ennemis sont morts, boy, excepté l'État Rien à foutre d'leurs icônes, De Gaulle et Gambetta Ils construisent des prisons mais oublient les écoles Éducation nationale, ZEP 93 Et ce n'est pas de ma faute, j'suis un gangster né Hustler dans l'âme, et j'embrasse ma femme Dites à ma mère que j'l'aime, si la rue m'retient Dans des contrées sauvages j'ai perdu trop de soutien Trop de peines à dire, ma plume perd d'sa sève Moi j'suis contre l'État, envers eux j'suis sévère Hein hein hein Alpha 5.20 Oh yeah yeah Ghetto Fabulous Gang C'est pas la France que je hais, mais juste les politiciens Avant d'arriver ici frère, moi je n'avais pas de sécu Hein hein hein Alpha 5.20 Oh yeah yeah Ghetto Fabulous Gang On est pauvres mais fiers, Dakar, Yarakh City Ils nous aiment pas re-noi, on les aime pas non plus You might also like Y'a pas d'paix chez nous, Dieu a quitté lAfrique J'arrive pas à pleurer, j'fais saigner mon Bic Atrocité de l'histoire, meurtres, viols et barbaries Moi j'vis un calvaire et ce n'est pas demain qu'c'est fini Articule bouffon ! J'arrive à peine à t'entendre Moi j'saigne à cur ouvert, à rien ne sert de m'entendre Sur les chemins d'la dignité un guerrier pour la paix Si j'm'en sors vainqueur, j'vais pas m'vanter Juste une mère qui pleure, un enfant qui meurt Et les mêmes bourreaux avec des tombes sans fleurs J'vais pas m'agenouiller devant l'or du Vatican Ils désertent la Thaïlande pour prostituer nos enfants Des champs de coton aux entrailles des usines On m'a jamais respecté pourtant moi j'ai combattu Libéré la France sans pouvoir défiler Sur les Champs-Élysées, j'étais un sans-papier Hein hein hein Alpha 5.20 Oh yeah yeah Ghetto Fabulous Gang C'est pas la France que je hais, mais juste les politiciens Avant d'arriver ici frère, moi je n'avais pas de sécu Hein hein hein Alpha 5.20 Oh yeah yeah Ghetto Fabulous Gang On est pauvres mais fiers, Dakar, Yarakh City Ils nous aiment pas renoi, on les aime pas non plus Yo, la caravane passe et les chiens m'écoutent Moi j'rappe pour les gens que les keufs dégoûtent Et la fierté métouffe, j'arrive pas à l'avaler C'est pour cela qu'j'm'embrouille négro, arrache ta seule gueule Béni soit les flingues négro que moi j'ai porté Maudit soit le sperme bâtard qu'ils ont créé Pour venir chez eux il nous faut un visa Mais pour rentrer chez nous ils déboulent en sandales Dans la cale d'un avion tu trouveras mon cadavre Et j'tape à leur porte depuis Gibraltar Et quelques-uns d'nos frères sont devenus des Judas Travaillent pour eux mais s'cachent dans nos cités À l'essence arrose-les, moi je te tends un briquet Et j'les laisse cramer comme Jeanne d'Arc ces pédés C'est pour tous nos frangins, nos cousins aux foyers Et pour tous mes oncles qui sont des sans-papiers Hein hein hein Alpha 5.20 Oh yeah yeah Ghetto Fabulous Gang C'est pas la France que je hais, mais juste les politiciens Avant d'arriver ici frère, moi je n'avais pas de sécu Hein hein hein Alpha 5.20 Oh yeah yeah Ghetto Fabulous Gang On est pauvres mais fiers, Dakar, Yarakh City Ils nous aiment pas renoi, on les aime pas non plus Yo, yo Jacques Chirac, mec ! Laisse-moi te rappeler l'histoire, mec Cinquième république française, boy Général de Gaulle, Georges Pompidou Valéry Giscard d'Estaing François Mitterrand deux fois et toi même cques-Ja deux fois Ils sont où mes droits, mon frère ? Ils sont où mes papiers, mon frère ? Le re-noi il reste ici dixans Il a qu'une carte de séjour de trois mois mon frère Récépissé... Fuck ça re-noi ! hein ? Yo Nicolas Sarkozy j'te parle même pas mec T'es même pas encore président, mon frère ! J'te connais même pas, mon frère ! Et fuck tous les re-nois et les re-beus qui collaborent, mon frère, avec l'État Fuck Gaston Kelman Fuck Calixthe Beyala Fuck Malek Boutih Fuck tous les autres motherfuckers qui sont avec la police, mon frère! Hein ?! Bitch ass niggas ! Alpha 5.20, hein hein2</t>
+          <t>Hein hein hein, Alpha 5.20 Yeah yeah, Ghetto Fabulous Gang Hein hein hein, Alpha 5.20 Yeah yeah, Ghetto Fab... Yo ma conscience flotte, frère, jamais ne touche le sol Les anges me tendent la main jusquà ce que j'décolle Laisse pousser mes ailes, puis j'inhale la ganja Le jour mon anniversaire on déclenche la razzia Et tous mes ennemis sont morts, boy, excepté l'État Rien à foutre d'leurs icônes, De Gaulle et Gambetta Ils construisent des prisons mais oublient les écoles Éducation nationale, ZEP 93 Et ce n'est pas de ma faute, j'suis un gangster né Hustler dans l'âme, et j'embrasse ma femme Dites à ma mère que j'l'aime, si la rue m'retient Dans des contrées sauvages j'ai perdu trop de soutien Trop de peines à dire, ma plume perd d'sa sève Moi j'suis contre l'État, envers eux j'suis sévère Hein hein hein Alpha 5.20 Oh yeah yeah Ghetto Fabulous Gang C'est pas la France que je hais, mais juste les politiciens Avant d'arriver ici frère, moi je n'avais pas de sécu Hein hein hein Alpha 5.20 Oh yeah yeah Ghetto Fabulous Gang On est pauvres mais fiers, Dakar, Yarakh City Ils nous aiment pas re-noi, on les aime pas non plus Y'a pas d'paix chez nous, Dieu a quitté lAfrique J'arrive pas à pleurer, j'fais saigner mon Bic Atrocité de l'histoire, meurtres, viols et barbaries Moi j'vis un calvaire et ce n'est pas demain qu'c'est fini Articule bouffon ! J'arrive à peine à t'entendre Moi j'saigne à cur ouvert, à rien ne sert de m'entendre Sur les chemins d'la dignité un guerrier pour la paix Si j'm'en sors vainqueur, j'vais pas m'vanter Juste une mère qui pleure, un enfant qui meurt Et les mêmes bourreaux avec des tombes sans fleurs J'vais pas m'agenouiller devant l'or du Vatican Ils désertent la Thaïlande pour prostituer nos enfants Des champs de coton aux entrailles des usines On m'a jamais respecté pourtant moi j'ai combattu Libéré la France sans pouvoir défiler Sur les Champs-Élysées, j'étais un sans-papier Hein hein hein Alpha 5.20 Oh yeah yeah Ghetto Fabulous Gang C'est pas la France que je hais, mais juste les politiciens Avant d'arriver ici frère, moi je n'avais pas de sécu Hein hein hein Alpha 5.20 Oh yeah yeah Ghetto Fabulous Gang On est pauvres mais fiers, Dakar, Yarakh City Ils nous aiment pas renoi, on les aime pas non plus Yo, la caravane passe et les chiens m'écoutent Moi j'rappe pour les gens que les keufs dégoûtent Et la fierté métouffe, j'arrive pas à l'avaler C'est pour cela qu'j'm'embrouille négro, arrache ta seule gueule Béni soit les flingues négro que moi j'ai porté Maudit soit le sperme bâtard qu'ils ont créé Pour venir chez eux il nous faut un visa Mais pour rentrer chez nous ils déboulent en sandales Dans la cale d'un avion tu trouveras mon cadavre Et j'tape à leur porte depuis Gibraltar Et quelques-uns d'nos frères sont devenus des Judas Travaillent pour eux mais s'cachent dans nos cités À l'essence arrose-les, moi je te tends un briquet Et j'les laisse cramer comme Jeanne d'Arc ces pédés C'est pour tous nos frangins, nos cousins aux foyers Et pour tous mes oncles qui sont des sans-papiers Hein hein hein Alpha 5.20 Oh yeah yeah Ghetto Fabulous Gang C'est pas la France que je hais, mais juste les politiciens Avant d'arriver ici frère, moi je n'avais pas de sécu Hein hein hein Alpha 5.20 Oh yeah yeah Ghetto Fabulous Gang On est pauvres mais fiers, Dakar, Yarakh City Ils nous aiment pas renoi, on les aime pas non plus Yo, yo Jacques Chirac, mec ! Laisse-moi te rappeler l'histoire, mec Cinquième république française, boy Général de Gaulle, Georges Pompidou Valéry Giscard d'Estaing François Mitterrand deux fois et toi même cques-Ja deux fois Ils sont où mes droits, mon frère ? Ils sont où mes papiers, mon frère ? Le re-noi il reste ici dixans Il a qu'une carte de séjour de trois mois mon frère Récépissé... Fuck ça re-noi ! hein ? Yo Nicolas Sarkozy j'te parle même pas mec T'es même pas encore président, mon frère ! J'te connais même pas, mon frère ! Et fuck tous les re-nois et les re-beus qui collaborent, mon frère, avec l'État Fuck Gaston Kelman Fuck Calixthe Beyala Fuck Malek Boutih Fuck tous les autres motherfuckers qui sont avec la police, mon frère! Hein ?! Bitch ass niggas ! Alpha 5.20, hein hein2</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cest dans la rue que tapprends boy qui sont tes amis Les ennemis viennent te voir avec le sourire aux lèvres Paradis des gangsters, Île-de-France ma zone Si tu veux pomper du crack, boy attends que la nuit tombe Le premier à sortir les derniers à partir 9.3 et Dakar on va pas tmentir Négro on vend du crack puis on va en prison Récidive après à moins que jpète un plomb Ok jgoum-goum, dans mon block zoum-zoum AK et UZI comme dans les rues dKhartoum Mélancolie mon hood, comme Oum Kalthoum Quelques-uns sont millionnaires mais tout ça en soum-soum Et létat nous épie, yo mes gestes sont traqués Ils veulent prendre mon âme, à défaut de m'braquer Moi j'ai jamais craqué sous la pression d'un autre Jusquà mon dernier soupir négro j'porte l'étoffe Tous ces négros voudraient être comme moi Devant l'bloc dans le hood comme moi Font d'la maille portent des flingues comme moi Mais dans la rue pharmacie c'est Alpha Tous ces négros voudraient être comme moi Devant l'bloc dans le hood comme moi Font d'la maille portent des flingues comme moi Mais dans la rue y'en a qu'un c'est Alpha You might also like Et j'vais en prison re-nois disent libérez Et j'retourne dans le bloc d'autres disent enfermez Barricade la cité, moi j'ai rien à perdre Et j'prie tous les jours pour qu'en France ça pète Envoyez les CRS et la Garde nationale Alpha ne bouge pas, moi j'nique le capital On chante pas la Marseillaise on est des sans-papiers Do or die yarakh, on n'est pas civilisés Laisse la rue fonce-dée comme Whitney et Bobby Plus on met la pression, comme des juifs en lobby Tu me connais maintenant, moi j'ai rempli tes veines Exta et héro violences urbaines Vois les keufs devant mon bloc moi j'avale mon crack Et j'parie que c'est eux, qui ont shooté 2Pac En pagaille ils s'servent, quand ils parlent de saisies Ils ont des képis, mais c'est juste des lers-dea Tous ces négros voudraient être comme moi Devant l'bloc dans le hood comme moi Font d'la maille portent des flingues comme moi Mais dans la rue pharmacie c'est Alpha Tous ces négros voudraient être comme moi Devant l'bloc dans le hood comme moi Font d'la maille portent des flingues comme moi Mais dans la rue y'en a qu'un c'est Alpha Moi je vis l'meilleur, je m'prépare au pire Toi t'es chaud comme une braise boy, ça nous fait rire Si y'a embrouille y'a embrouille, on va pas fayoter Jai pas peur de la police, j'sais comment les niquer Esprit volatile et j'dérange assez Alpha 5.20, ressuscite ton passé Et fuck le futur, moi je vis au jour le jour Même pas encore mort, mais je vois des vautours Et j't'emmerde négro, tu dépasses les bornes Boy c'est il pour il, tu peux devenir borgne Jai des flingues maintenant, j'ai des tass maintenant Tinquiète princesse, c'n'est plus comme avant Jai de la maille maintenant, j'ai de l'amour maintenant Et ce n'est plus d'l'argent sale que je donne à maman Moi j'ai trempé ma plume et je récite ma vie Plus ma peine est amour et ma haine suffit Tous ces négros voudraient être comme moi Devant l'bloc dans le hood comme moi Font d'la maille portent des flingues comme moi Mais dans la rue pharmacie c'est Alpha Tous ces négros voudraient être comme moi Devant l'bloc dans le hood comme moi Font d'la maille portent des flingues comme moi Mais dans la rue y'en a qu'un c'est Alpha Yeah re-noi, yeah re-noi, han Ma tête est mise à prix frère, comme Moussa Zarkaoui dans les rues de Bagdad boy Alpha 25, 25 millions de dollars Tu penses qu'avec ça les re-nois vont pas me trahir ? Cheh ! Bien sûr qu'ils vont m'trahir un jour mon frère Hey, sils pouvaient même me couper la tête et l'amener mon frère ils l'auraient fait négro Mais j'ai pas peur, je suis né pour mourir martyr À la 2Pac mec, à la 2Pac re-noi Hahahaha Ça t'fait mal hein ? Yeah Ça t'fait mal ! Je sais J'brille négro Hahahaha Yo what up ? Let's go ! What up, re-noi Holocost, re-noi D-d-d-d-d-d Han, han D-d-d-d Dakar Dakar Dakar Boum !1</t>
+          <t>Cest dans la rue que tapprends boy qui sont tes amis Les ennemis viennent te voir avec le sourire aux lèvres Paradis des gangsters, Île-de-France ma zone Si tu veux pomper du crack, boy attends que la nuit tombe Le premier à sortir les derniers à partir 9.3 et Dakar on va pas tmentir Négro on vend du crack puis on va en prison Récidive après à moins que jpète un plomb Ok jgoum-goum, dans mon block zoum-zoum AK et UZI comme dans les rues dKhartoum Mélancolie mon hood, comme Oum Kalthoum Quelques-uns sont millionnaires mais tout ça en soum-soum Et létat nous épie, yo mes gestes sont traqués Ils veulent prendre mon âme, à défaut de m'braquer Moi j'ai jamais craqué sous la pression d'un autre Jusquà mon dernier soupir négro j'porte l'étoffe Tous ces négros voudraient être comme moi Devant l'bloc dans le hood comme moi Font d'la maille portent des flingues comme moi Mais dans la rue pharmacie c'est Alpha Tous ces négros voudraient être comme moi Devant l'bloc dans le hood comme moi Font d'la maille portent des flingues comme moi Mais dans la rue y'en a qu'un c'est Alpha Et j'vais en prison re-nois disent libérez Et j'retourne dans le bloc d'autres disent enfermez Barricade la cité, moi j'ai rien à perdre Et j'prie tous les jours pour qu'en France ça pète Envoyez les CRS et la Garde nationale Alpha ne bouge pas, moi j'nique le capital On chante pas la Marseillaise on est des sans-papiers Do or die yarakh, on n'est pas civilisés Laisse la rue fonce-dée comme Whitney et Bobby Plus on met la pression, comme des juifs en lobby Tu me connais maintenant, moi j'ai rempli tes veines Exta et héro violences urbaines Vois les keufs devant mon bloc moi j'avale mon crack Et j'parie que c'est eux, qui ont shooté 2Pac En pagaille ils s'servent, quand ils parlent de saisies Ils ont des képis, mais c'est juste des lers-dea Tous ces négros voudraient être comme moi Devant l'bloc dans le hood comme moi Font d'la maille portent des flingues comme moi Mais dans la rue pharmacie c'est Alpha Tous ces négros voudraient être comme moi Devant l'bloc dans le hood comme moi Font d'la maille portent des flingues comme moi Mais dans la rue y'en a qu'un c'est Alpha Moi je vis l'meilleur, je m'prépare au pire Toi t'es chaud comme une braise boy, ça nous fait rire Si y'a embrouille y'a embrouille, on va pas fayoter Jai pas peur de la police, j'sais comment les niquer Esprit volatile et j'dérange assez Alpha 5.20, ressuscite ton passé Et fuck le futur, moi je vis au jour le jour Même pas encore mort, mais je vois des vautours Et j't'emmerde négro, tu dépasses les bornes Boy c'est il pour il, tu peux devenir borgne Jai des flingues maintenant, j'ai des tass maintenant Tinquiète princesse, c'n'est plus comme avant Jai de la maille maintenant, j'ai de l'amour maintenant Et ce n'est plus d'l'argent sale que je donne à maman Moi j'ai trempé ma plume et je récite ma vie Plus ma peine est amour et ma haine suffit Tous ces négros voudraient être comme moi Devant l'bloc dans le hood comme moi Font d'la maille portent des flingues comme moi Mais dans la rue pharmacie c'est Alpha Tous ces négros voudraient être comme moi Devant l'bloc dans le hood comme moi Font d'la maille portent des flingues comme moi Mais dans la rue y'en a qu'un c'est Alpha Yeah re-noi, yeah re-noi, han Ma tête est mise à prix frère, comme Moussa Zarkaoui dans les rues de Bagdad boy Alpha 25, 25 millions de dollars Tu penses qu'avec ça les re-nois vont pas me trahir ? Cheh ! Bien sûr qu'ils vont m'trahir un jour mon frère Hey, sils pouvaient même me couper la tête et l'amener mon frère ils l'auraient fait négro Mais j'ai pas peur, je suis né pour mourir martyr À la 2Pac mec, à la 2Pac re-noi Hahahaha Ça t'fait mal hein ? Yeah Ça t'fait mal ! Je sais J'brille négro Hahahaha Yo what up ? Let's go ! What up, re-noi Holocost, re-noi D-d-d-d-d-d Han, han D-d-d-d Dakar Dakar Dakar Boum !1</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dealer ouais, voleur ouais, braqueur ouais, racketteur ouais Dans mon secteur on est tous smokers d'inspecteurs Aatek saha khoya si tu braques, Brinks, tabac Mais si tu mets des big aasba caille-ra calibre-toi Demande à Alpha ici on a tous du 5.20 dans les couilles Sin-c' on a tous faim, alors on dépouille en faisant chanter les douilles J'viens planter mes couille et ma bite Illicite comme Dakar tu connais la crypte ouhhh Jointure sur jointure on baise la shmiture Et fracture leur p'tit cul avec leur petit gun Soumarak jdégéne et pac pac Mac passe le pack d'Heineken et j'fuck la Bac C'est fuck la Bac et leur GAV RG j'viens de baiser ta femme dans mes escaliers Pas de diplôme pas de love plein de haine Gomme-cogne dans le froc, faut que tu mènes Dur comme le roc dar ou champagne Vodka rhum c'était l'homme LIM C'est pour toutes nos caille-ra boy ki fume la ganja Délinquance juvénile, Ile-de-France gangsta Plein de drogue, plein de maille qu'on abrite dans notre four Pour ça que les keufs nous sautent, bienvenue dans le four ! C'est pour toutes nos caille-ra boy ki fume la ganja Délinquance juvénile, Ile-de-France gangsta Plein de drogue, plein de maille qu'on abrite dans notre four Pour ça que les keufs nous sautent, bienvenue dans le four ! You might also like C'est A L P H mother fucker A Semi-automatique flingue en bas tu resteras Terre de brave, DK, Yararh city mon hood Où c'est dur de dormir des cafard dans la bouche Touche pas à la maille sinon repose en paix L'espoir passe devant il nous laisse sur les quais Ok négros veulent ride sur moi Ni leur flingue ni leur shlass boy ne m'impressionne pas J'ai dompté Jo Black, connais l'horreur des khmers Baise le rap en bande boy appelle Shone et Ker Une parole d'ancien que je vis à l'école P'tit frère si je bicrave c'est pour que t'ailles à l'école C'est pour tous les frangins au tribunal de Bobigny Ce qui sautent par la fenêtre de Villepinte et Fleury Moi j'suis un mec du bled, bled, un mec de tess, tess En bas du bloc avec une 'tasse moi je crr crr T'entends les clik, clik, frère t'auras les claques, claques Enfoiré j'prends ton arme et j'te braque C'est pour toutes nos caille-ra boy ki fume la ganja Délinquance juvénile, Ile-de-France gangsta Plein de drogue, plein de maille qu'on abrite dans notre four Pour ça que les keufs nous sautent, bienvenue dans le four ! C'est pour toutes nos caille-ra boy ki fume la ganja Délinquance juvénile, Ile-de-France gangsta Plein de drogue, plein de maille qu'on abrite dans notre four Pour ça que les keufs nous sautent, bienvenue dans le four ! La criminalité a sa fête, son trophée, sa religion Tu nous parles de la jungle connard on est des lions T'as fermé la porte on l'a dé-dé-défoncé On est là, on s'en bat les couilles de c'que t'as pu penser Quand t'es 2, on est 4, quand t'es doux, on est dur Quand la rue faut la casser, on a ramené la soudure On a les dents énervés, on a la langue pendue On lui met la corde au coup le commercial s'est pendu On a les beats qui font mettre des bips aux radios et aux flics 16 mesures classiques on a le son du trafic Alibi, LIM sur l'album à Alpha Haïti, Algérie, Sénégal et y'a quoi ? Beaucoup plus loin que nos propres bleds On représente la chienneté qu'a pas trouvé de remède Pour tous mes ca-ca-ca-ca-cailles voici l'ak-ak-ak-ak-ak 47 Pas de carotte ça découpe sec C'est pour toutes nos caille-ra boy ki fume la ganja Délinquance juvénile, Ile-de-France gangsta Plein de drogue, plein de maille qu'on abrite dans notre four Pour ça que les keufs nous sautent, bienvenue dans le four ! C'est pour toutes nos caille-ra boy ki fume la ganja Délinquance juvénile, Ile-de-France gangsta Plein de drogue, plein de maille qu'on abrite dans notre four Pour ça que les keufs nous sautent, bienvenue dans le four ! Dealer ouais, voleur ouais, braqueur ouais, racketteur ouais Dans mon secteur on est tous smokeurs d'inspecteur d'inspecteur Dealer ouais, voleur ouais, braqueur ouais, racketteur ouais Dans mon secteur on est tous smokeurs d'inspecteur d'inspecteur</t>
+          <t>Dealer ouais, voleur ouais, braqueur ouais, racketteur ouais Dans mon secteur on est tous smokers d'inspecteurs Aatek saha khoya si tu braques, Brinks, tabac Mais si tu mets des big aasba caille-ra calibre-toi Demande à Alpha ici on a tous du 5.20 dans les couilles Sin-c' on a tous faim, alors on dépouille en faisant chanter les douilles J'viens planter mes couille et ma bite Illicite comme Dakar tu connais la crypte ouhhh Jointure sur jointure on baise la shmiture Et fracture leur p'tit cul avec leur petit gun Soumarak jdégéne et pac pac Mac passe le pack d'Heineken et j'fuck la Bac C'est fuck la Bac et leur GAV RG j'viens de baiser ta femme dans mes escaliers Pas de diplôme pas de love plein de haine Gomme-cogne dans le froc, faut que tu mènes Dur comme le roc dar ou champagne Vodka rhum c'était l'homme LIM C'est pour toutes nos caille-ra boy ki fume la ganja Délinquance juvénile, Ile-de-France gangsta Plein de drogue, plein de maille qu'on abrite dans notre four Pour ça que les keufs nous sautent, bienvenue dans le four ! C'est pour toutes nos caille-ra boy ki fume la ganja Délinquance juvénile, Ile-de-France gangsta Plein de drogue, plein de maille qu'on abrite dans notre four Pour ça que les keufs nous sautent, bienvenue dans le four ! C'est A L P H mother fucker A Semi-automatique flingue en bas tu resteras Terre de brave, DK, Yararh city mon hood Où c'est dur de dormir des cafard dans la bouche Touche pas à la maille sinon repose en paix L'espoir passe devant il nous laisse sur les quais Ok négros veulent ride sur moi Ni leur flingue ni leur shlass boy ne m'impressionne pas J'ai dompté Jo Black, connais l'horreur des khmers Baise le rap en bande boy appelle Shone et Ker Une parole d'ancien que je vis à l'école P'tit frère si je bicrave c'est pour que t'ailles à l'école C'est pour tous les frangins au tribunal de Bobigny Ce qui sautent par la fenêtre de Villepinte et Fleury Moi j'suis un mec du bled, bled, un mec de tess, tess En bas du bloc avec une 'tasse moi je crr crr T'entends les clik, clik, frère t'auras les claques, claques Enfoiré j'prends ton arme et j'te braque C'est pour toutes nos caille-ra boy ki fume la ganja Délinquance juvénile, Ile-de-France gangsta Plein de drogue, plein de maille qu'on abrite dans notre four Pour ça que les keufs nous sautent, bienvenue dans le four ! C'est pour toutes nos caille-ra boy ki fume la ganja Délinquance juvénile, Ile-de-France gangsta Plein de drogue, plein de maille qu'on abrite dans notre four Pour ça que les keufs nous sautent, bienvenue dans le four ! La criminalité a sa fête, son trophée, sa religion Tu nous parles de la jungle connard on est des lions T'as fermé la porte on l'a dé-dé-défoncé On est là, on s'en bat les couilles de c'que t'as pu penser Quand t'es 2, on est 4, quand t'es doux, on est dur Quand la rue faut la casser, on a ramené la soudure On a les dents énervés, on a la langue pendue On lui met la corde au coup le commercial s'est pendu On a les beats qui font mettre des bips aux radios et aux flics 16 mesures classiques on a le son du trafic Alibi, LIM sur l'album à Alpha Haïti, Algérie, Sénégal et y'a quoi ? Beaucoup plus loin que nos propres bleds On représente la chienneté qu'a pas trouvé de remède Pour tous mes ca-ca-ca-ca-cailles voici l'ak-ak-ak-ak-ak 47 Pas de carotte ça découpe sec C'est pour toutes nos caille-ra boy ki fume la ganja Délinquance juvénile, Ile-de-France gangsta Plein de drogue, plein de maille qu'on abrite dans notre four Pour ça que les keufs nous sautent, bienvenue dans le four ! C'est pour toutes nos caille-ra boy ki fume la ganja Délinquance juvénile, Ile-de-France gangsta Plein de drogue, plein de maille qu'on abrite dans notre four Pour ça que les keufs nous sautent, bienvenue dans le four ! Dealer ouais, voleur ouais, braqueur ouais, racketteur ouais Dans mon secteur on est tous smokeurs d'inspecteur d'inspecteur Dealer ouais, voleur ouais, braqueur ouais, racketteur ouais Dans mon secteur on est tous smokeurs d'inspecteur d'inspecteur</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>La vie me trompe souvent, moi j'la traite comme une chienne J'la baise dans les voitures puis j'la nique dans les tours Trois fois laissé pour mort, on m'a pas regretté Si les keufs me la prenne, ils seront pas inquiétés Certainement les hustlers diront repose en paix Alpha cétait un vrai, dans le bloc respecté Et y-a-t-il un paradis ? J'vis un enfer ici Amputé d'ceux qu'j'aimais depuis qu'j'étais tout petit Les gangsters pleurent aussi, mais sans faire de chichi Préfèrent s'éventrer, pour partir en martyr C'est une époque de fou, les dieux sont nus dans le stade Nos surs portent des strings au lieu de mettre des foulards En plus des curés pédophiles, des imams qui bicravent Plein d'négros blondinets, moi j'les trouve trop bizarres Y'a pas qu'les keufs qu'j'veux niquer, les autres sont des menteurs J'ai un fusil à pompe mais je suis pas un braqueur La faucheuse est passée puis les frères sont partis Des rafales dans le ciel, frère c'est quand les thugs prient J'dis qu'la mort est passée puis les frères sont partis Si je pars renoi, prie pour moi, prie pour moi La faucheuse est passée puis les frères sont partis Des rafales dans le ciel, frère c'est quand les thugs prient J'dis qu'la mort est passée puis les frères sont partis Si je pars renoi, prie pour moi, prie pour moi You might also like J'connaissais un renoi, une vraie star dans la cité Pharmacie devant l'bloc et les petits bicravaient Pensait être le roi du monde comme Tony Montana Sniffait sa propre came avec sa meuf Sandra Et pendant des années, il allait dans l'9.2 Pour pécho du matos, là-bas avec des rebeux Anthony, Les Baconnets pas loin de Bagneux Il portait toujours des flingues pas confiance en eux Confiait sa maille à sa meuf, pouvait pas l'garder Puis durant une perquis', frère cette pute a craqué À tord et à travers balance le nom des assoc' À sa sortie d'prison, elle était enceinte d'son pote C'est la honte dans la cité, tout l'monde crie vengeance Trouver les kamikazes, exécuter la sentence Tu peux pas arrêter le monde, frère c'est lui qui tarrête Il tua son pote, boy, d'une balle dans la tête La faucheuse est passée puis les frères sont partis Des rafales dans le ciel, frère c'est quand les thugs prient J'dis qu'la mort est passée puis les frères sont partis Si je pars renoi, prie pour moi, prie pour moi La faucheuse est passée puis les frères sont partis Des rafales dans le ciel, frère c'est quand les thugs prient J'dis qu'la mort est passée puis les frères sont partis Si je pars renoi, prie pour moi, prie pour moi J'croise mon voisin sans lui dire bonjour Depuis qu'j'sais qu'c'est Bush qu'a niqué les 2 tours J'peux pas avoir confiance ni sous-estimer les gens T'essaye de voler droit, ils arrivent en rampant Coupe court le gazon, imbibe le sol avec leur sang Y'a pas d'métis dans c'monde, soit t'es noir, soit t'es blanc J'attends rien d'un monde qui appelle au suicide Ils crucifient le Prophète puis ils veulent qu'on applaudisse Inventé l'sida juste pour niquer l'Afrique Maudites soient leurs terres, et bénies soient mes briques Le truc c'est si j'meurs, j'veux qu'mon corps soit momifié Scars-la dans la tess disent que j'étais un vrai renoi Si j'meurs négro, pleure pas mon négro Allume un bédo négro, tire en l'air mon négro Respect à Holocost, Raricim O'Rosko Tout Dakar stand up, j'ai besoin d'tous mes négros La faucheuse est passée puis les frères sont partis Des rafales dans le ciel, frère c'est quand les thugs prient J'dis qu'la mort est passée puis les frères sont partis Si je pars renoi, prie pour moi, prie pour moi La faucheuse est passée puis les frères sont partis Des rafales dans le ciel, frère c'est quand les thugs prient J'dis qu'la mort est passée puis les frères sont partis Si je pars renoi, prie pour moi, prie pour moi J'peux mourir bêtement, négro ça je l'sais Tu verras pas un renoi dire qu'il ma violé J'peux mourir bêtement, négro ça je l'sais Tu verras pas un renoi dire qu'il ma violé Ok, j'ai marché tout seul dans la vallée d'la mort, frère. J'ai pas eu peur, frère. Je sais qu'demain sera un beau jour pour moi. Repose en paix à tous les anciens mon frère, qui ont laissé leur vie dans le business raï. Repose en paix à mon petit frère Mamadou Kanté. Repose en paix à mamen Hervé. Repose en paix à mamen Senna d'Sarcelles. Repose en paix à mon renoi Prince aka Eric, man. Repose en paix à Ousmane. Repose en paix à Abdel. Repose en paix à Hicham de Blois, mec. Repose en paix à Alpha 5.20 car à chaque fois qu'un d'mes gars meurt c'est une partie d'moi qui est partie, mon pote. On s'voit au carrefour là-bas mec Crossroads, à la Bone négro</t>
+          <t>La vie me trompe souvent, moi j'la traite comme une chienne J'la baise dans les voitures puis j'la nique dans les tours Trois fois laissé pour mort, on m'a pas regretté Si les keufs me la prenne, ils seront pas inquiétés Certainement les hustlers diront repose en paix Alpha cétait un vrai, dans le bloc respecté Et y-a-t-il un paradis ? J'vis un enfer ici Amputé d'ceux qu'j'aimais depuis qu'j'étais tout petit Les gangsters pleurent aussi, mais sans faire de chichi Préfèrent s'éventrer, pour partir en martyr C'est une époque de fou, les dieux sont nus dans le stade Nos surs portent des strings au lieu de mettre des foulards En plus des curés pédophiles, des imams qui bicravent Plein d'négros blondinets, moi j'les trouve trop bizarres Y'a pas qu'les keufs qu'j'veux niquer, les autres sont des menteurs J'ai un fusil à pompe mais je suis pas un braqueur La faucheuse est passée puis les frères sont partis Des rafales dans le ciel, frère c'est quand les thugs prient J'dis qu'la mort est passée puis les frères sont partis Si je pars renoi, prie pour moi, prie pour moi La faucheuse est passée puis les frères sont partis Des rafales dans le ciel, frère c'est quand les thugs prient J'dis qu'la mort est passée puis les frères sont partis Si je pars renoi, prie pour moi, prie pour moi J'connaissais un renoi, une vraie star dans la cité Pharmacie devant l'bloc et les petits bicravaient Pensait être le roi du monde comme Tony Montana Sniffait sa propre came avec sa meuf Sandra Et pendant des années, il allait dans l'9.2 Pour pécho du matos, là-bas avec des rebeux Anthony, Les Baconnets pas loin de Bagneux Il portait toujours des flingues pas confiance en eux Confiait sa maille à sa meuf, pouvait pas l'garder Puis durant une perquis', frère cette pute a craqué À tord et à travers balance le nom des assoc' À sa sortie d'prison, elle était enceinte d'son pote C'est la honte dans la cité, tout l'monde crie vengeance Trouver les kamikazes, exécuter la sentence Tu peux pas arrêter le monde, frère c'est lui qui tarrête Il tua son pote, boy, d'une balle dans la tête La faucheuse est passée puis les frères sont partis Des rafales dans le ciel, frère c'est quand les thugs prient J'dis qu'la mort est passée puis les frères sont partis Si je pars renoi, prie pour moi, prie pour moi La faucheuse est passée puis les frères sont partis Des rafales dans le ciel, frère c'est quand les thugs prient J'dis qu'la mort est passée puis les frères sont partis Si je pars renoi, prie pour moi, prie pour moi J'croise mon voisin sans lui dire bonjour Depuis qu'j'sais qu'c'est Bush qu'a niqué les 2 tours J'peux pas avoir confiance ni sous-estimer les gens T'essaye de voler droit, ils arrivent en rampant Coupe court le gazon, imbibe le sol avec leur sang Y'a pas d'métis dans c'monde, soit t'es noir, soit t'es blanc J'attends rien d'un monde qui appelle au suicide Ils crucifient le Prophète puis ils veulent qu'on applaudisse Inventé l'sida juste pour niquer l'Afrique Maudites soient leurs terres, et bénies soient mes briques Le truc c'est si j'meurs, j'veux qu'mon corps soit momifié Scars-la dans la tess disent que j'étais un vrai renoi Si j'meurs négro, pleure pas mon négro Allume un bédo négro, tire en l'air mon négro Respect à Holocost, Raricim O'Rosko Tout Dakar stand up, j'ai besoin d'tous mes négros La faucheuse est passée puis les frères sont partis Des rafales dans le ciel, frère c'est quand les thugs prient J'dis qu'la mort est passée puis les frères sont partis Si je pars renoi, prie pour moi, prie pour moi La faucheuse est passée puis les frères sont partis Des rafales dans le ciel, frère c'est quand les thugs prient J'dis qu'la mort est passée puis les frères sont partis Si je pars renoi, prie pour moi, prie pour moi J'peux mourir bêtement, négro ça je l'sais Tu verras pas un renoi dire qu'il ma violé J'peux mourir bêtement, négro ça je l'sais Tu verras pas un renoi dire qu'il ma violé Ok, j'ai marché tout seul dans la vallée d'la mort, frère. J'ai pas eu peur, frère. Je sais qu'demain sera un beau jour pour moi. Repose en paix à tous les anciens mon frère, qui ont laissé leur vie dans le business raï. Repose en paix à mon petit frère Mamadou Kanté. Repose en paix à mamen Hervé. Repose en paix à mamen Senna d'Sarcelles. Repose en paix à mon renoi Prince aka Eric, man. Repose en paix à Ousmane. Repose en paix à Abdel. Repose en paix à Hicham de Blois, mec. Repose en paix à Alpha 5.20 car à chaque fois qu'un d'mes gars meurt c'est une partie d'moi qui est partie, mon pote. On s'voit au carrefour là-bas mec Crossroads, à la Bone négro</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Hey ! yo, j'avale de leau chaude avant daller aux embrouilles Rien ne sert de ler-par, j'te mets un coup si tu parles Timal check mon tier-quar, yarakh le rai banlieue On tire sur la volaille, juste en bas Cité de Dieu Nerveux comme un Baye Fall, islamique kelkal Putain de héros local, élevé dans un bocal Sous le seuil de pauvreté, c'est Dakar criminal En bas de la cité carter, face aux chiennes je parle mal Ok, tu parles de flingues mais t'es pas comme nous Ok, tu baises des tasses, mais c'était après nous À lhôtel formule1, là-bas à Clichy sous bois Et je sors des bosquets pourtant je ny habite pas Je suis venu pour la maille, pas gratter lamitié Si je meurs après ça que le seigneur ait pitié Sippe la Marguerita, là-bas, au Costa rica Et je fume des gares-ci avec des tasses au cul bas Homme de lombre 5.20, c'est le clash des titans ! Moi je désosse ta voiture puis je la vends aux gitans Juste en bas de Montreuil vers Lilas, Bagnolet Et ce sera pas de ma faute quand tu te feras gauler Et se faire violer derrière les portes dune prison Puis marcher en banlieue, négro sentir le savon On mattend au tournant, faudrait pas que je flanche Ile-de-France, guerre des gangs comme la Cité des anges Négro je porte des gants, laisse mon flingue au lieu du meurtre ! Négro je prends mon temps mais boy jamais je flirte ! Ambiance tropicale avec des meufs gwada Je les ai toutes serrées et je parle pas le mwen-ka Stéréotype renoi avec un big bangala Et je tire au hasard comme si jétais au tombola Moi je sème ma haine je veux devenir riche Bientôt millionnaire et jaurai pas 30 piges Yo ! ny comptes même pas que tu vas nous rotte-ca Tu peux aller te faire mettre comme ces bitchs Roll K Et je passe mon temps à corriger mes erreurs Depuis que je sais que ces mômes me citent par cur Un parcours de combattant depuis Afrika Bambaaataa Et je flow historique Original Bombattack Renoi Renoi You might also like Et Clichy sous bou ça c'est gangsta gangsta Et Aulnay sous bou ça c'est gangsta gangsta Word up Montfermeil ça c'est gangsta gangsta Mais Dakar yarakh ça c'est bête de gangsta 77 Meaux ça c'est gansta gangsta Mantes-la - jolie ça c'est gangsta gangsta Trappes et Mureaux ça c'est gangsta gangsta Mais Dakar yarakh ça c'est bête de gangsta Yeah Yeah Les renois vont rien faire à part parler parler Les renois vont pas venir dans mon quartier quartier C'est tout boy, Yarahkh Stand-up ! C'est pas 93 frère c'est yarkh, frère Là ou les taximan ne sarrêtent pas Là où y a pas d'autobus, mon frère Yeah Yeah Yeah Yeah Négro Nigga Nigga Yeah Ghetto fabulous gang</t>
+          <t>Hey ! yo, j'avale de leau chaude avant daller aux embrouilles Rien ne sert de ler-par, j'te mets un coup si tu parles Timal check mon tier-quar, yarakh le rai banlieue On tire sur la volaille, juste en bas Cité de Dieu Nerveux comme un Baye Fall, islamique kelkal Putain de héros local, élevé dans un bocal Sous le seuil de pauvreté, c'est Dakar criminal En bas de la cité carter, face aux chiennes je parle mal Ok, tu parles de flingues mais t'es pas comme nous Ok, tu baises des tasses, mais c'était après nous À lhôtel formule1, là-bas à Clichy sous bois Et je sors des bosquets pourtant je ny habite pas Je suis venu pour la maille, pas gratter lamitié Si je meurs après ça que le seigneur ait pitié Sippe la Marguerita, là-bas, au Costa rica Et je fume des gares-ci avec des tasses au cul bas Homme de lombre 5.20, c'est le clash des titans ! Moi je désosse ta voiture puis je la vends aux gitans Juste en bas de Montreuil vers Lilas, Bagnolet Et ce sera pas de ma faute quand tu te feras gauler Et se faire violer derrière les portes dune prison Puis marcher en banlieue, négro sentir le savon On mattend au tournant, faudrait pas que je flanche Ile-de-France, guerre des gangs comme la Cité des anges Négro je porte des gants, laisse mon flingue au lieu du meurtre ! Négro je prends mon temps mais boy jamais je flirte ! Ambiance tropicale avec des meufs gwada Je les ai toutes serrées et je parle pas le mwen-ka Stéréotype renoi avec un big bangala Et je tire au hasard comme si jétais au tombola Moi je sème ma haine je veux devenir riche Bientôt millionnaire et jaurai pas 30 piges Yo ! ny comptes même pas que tu vas nous rotte-ca Tu peux aller te faire mettre comme ces bitchs Roll K Et je passe mon temps à corriger mes erreurs Depuis que je sais que ces mômes me citent par cur Un parcours de combattant depuis Afrika Bambaaataa Et je flow historique Original Bombattack Renoi Renoi Et Clichy sous bou ça c'est gangsta gangsta Et Aulnay sous bou ça c'est gangsta gangsta Word up Montfermeil ça c'est gangsta gangsta Mais Dakar yarakh ça c'est bête de gangsta 77 Meaux ça c'est gansta gangsta Mantes-la - jolie ça c'est gangsta gangsta Trappes et Mureaux ça c'est gangsta gangsta Mais Dakar yarakh ça c'est bête de gangsta Yeah Yeah Les renois vont rien faire à part parler parler Les renois vont pas venir dans mon quartier quartier C'est tout boy, Yarahkh Stand-up ! C'est pas 93 frère c'est yarkh, frère Là ou les taximan ne sarrêtent pas Là où y a pas d'autobus, mon frère Yeah Yeah Yeah Yeah Négro Nigga Nigga Yeah Ghetto fabulous gang</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>J'suis en mode baille frère Toi-meme tu sais très bien alpha 5.20 C'est la famille frère Tu vois , trop de rappeurs qui n'ont pas assez de vécu C'est nous les vrais pour te dire la vérité Tu vois , la souffrance , la colère , manque de fric La misère ,frère Par rapport moi et tout , ou par rapport toi et alpha C'est qui le bon ? c'est nous T'es qu'une bite , qu'une seule chose à dire Si tu respectes pas les blédards C'est que t'as pas le respect pour ton père Ni ta mère , ni ton oncle ,ni ton arrière grand-père Car c'est des blédards ,donc une seule chose a te dire La famille réunie on baise l'ennemi , mais si toi T'es la famille tu fais l'ami de l'ennemi Frère , on t'baises c'est tout Hey , oh , Alpha ! Ouais Ouais, sisi ingé ! Laisses moi vider mes poches khey Sisi , sortir mes clés Le phone-tél , toute la maille qu'il y a la-dedans You might also likeAlpha ! Alpha ! Tentacules d'une pieuvre , appelle la mafia En bas de marseille ,j'suis à la Ciotat Mon assiette est remplie , variété fruits de mer Mais ces putes bourgeoises me regardent de travers J'suis dans mon monde ,rien ne m'impressionne Laisse les négros parler , j'vais creuser leurs tombes Enfants de travlos , et des races de batards 4025 ans , ils ont ça de retard Enterré vivant ,sorti des décombres Gisement de pétrol , seul j'ai creusé dans l'ombre Dakar met la pression et le monde s'effondre Dès qu'ils sortent leurs griffes, on va jaillir en nombre La dalle en nous, pas le temps de dormir Tant q'y'aura d'la maille et des flingues à sortir ALPHA ! ALPHA ! Fils de pute négro , dépenses pas tout s'que t'as C'est la recession , réflechis mon renoi T'as beau être sappé , comme papa Wemba Ils te traitent comme un singe , ils rigolent sur toi J'suis du côté obscur , entouré des ordures Capuché a la bombe , attend juste l'ouverture L'intérêt est miné , plus rien à tirer 25 bicraveurs ,pour un seul cricket Arrêtez de mentir , genre vous niquez l'état que chez skyrock , vous ne sucez pas Causer l'arrêt cardiaque d'Africa bambaataa Blasphémer l'honneur de soundiata keita Pas pire qu'un homme sans dignité mon frère Niquez tous vos races , moi j'suis noir et fier ! Ouais Ouais...</t>
+          <t>J'suis en mode baille frère Toi-meme tu sais très bien alpha 5.20 C'est la famille frère Tu vois , trop de rappeurs qui n'ont pas assez de vécu C'est nous les vrais pour te dire la vérité Tu vois , la souffrance , la colère , manque de fric La misère ,frère Par rapport moi et tout , ou par rapport toi et alpha C'est qui le bon ? c'est nous T'es qu'une bite , qu'une seule chose à dire Si tu respectes pas les blédards C'est que t'as pas le respect pour ton père Ni ta mère , ni ton oncle ,ni ton arrière grand-père Car c'est des blédards ,donc une seule chose a te dire La famille réunie on baise l'ennemi , mais si toi T'es la famille tu fais l'ami de l'ennemi Frère , on t'baises c'est tout Hey , oh , Alpha ! Ouais Ouais, sisi ingé ! Laisses moi vider mes poches khey Sisi , sortir mes clés Le phone-tél , toute la maille qu'il y a la-dedans Alpha ! Alpha ! Tentacules d'une pieuvre , appelle la mafia En bas de marseille ,j'suis à la Ciotat Mon assiette est remplie , variété fruits de mer Mais ces putes bourgeoises me regardent de travers J'suis dans mon monde ,rien ne m'impressionne Laisse les négros parler , j'vais creuser leurs tombes Enfants de travlos , et des races de batards 4025 ans , ils ont ça de retard Enterré vivant ,sorti des décombres Gisement de pétrol , seul j'ai creusé dans l'ombre Dakar met la pression et le monde s'effondre Dès qu'ils sortent leurs griffes, on va jaillir en nombre La dalle en nous, pas le temps de dormir Tant q'y'aura d'la maille et des flingues à sortir ALPHA ! ALPHA ! Fils de pute négro , dépenses pas tout s'que t'as C'est la recession , réflechis mon renoi T'as beau être sappé , comme papa Wemba Ils te traitent comme un singe , ils rigolent sur toi J'suis du côté obscur , entouré des ordures Capuché a la bombe , attend juste l'ouverture L'intérêt est miné , plus rien à tirer 25 bicraveurs ,pour un seul cricket Arrêtez de mentir , genre vous niquez l'état que chez skyrock , vous ne sucez pas Causer l'arrêt cardiaque d'Africa bambaataa Blasphémer l'honneur de soundiata keita Pas pire qu'un homme sans dignité mon frère Niquez tous vos races , moi j'suis noir et fier ! Ouais Ouais...</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ça se passe dans le quartier mon pote Tu connais le dièze ... vit et crève comme des soldats Un vrai renoi ne meurt pas ... Représente ta rue, Rimes et gloire à fond dans le Clio ... J'ai des frères au card-pla Le manque d'oseille ... Sans pitié avec tous mes ennemis Ils veulent ma mort comme John Kennedy Que Dieu me protège frère d mes amis Six pieds sous terr qui s'occupera de ma famille ? Sans pitié avec tous mes ennemis Ils veulent ma mort comme John Kennedy Que Dieu me protège frère de mes amis Six pieds sous terre qui s'occupera de ma famille ? Pourquoi les négros se complaisent dans la misère ? Lentement ils amorcent leur descente aux enfers Dieu m'a donné la vie donc elle est sacrée Par tous les moyens je dois la protéger Porter un flingue on en est tous capables Mais prendre une vie en es tu responsable ? Joue pas les oufs chez nous tu vas mourir bêtement Puis ta soeur se faire dévierger malement Je roule avec des gangsters mais aussi des étudiants Qui baisent l'État légalement, des criminels en col blanc Ghetto Cac40 maille dans les hautes sphères Sécurise le terter, recrute des gangsters Parfois on est craint, parfois vénéré Ile de France Ghetto ... préféré Viens pas tout seul y'a de la racaille ici Petit frère je te dis que mourir c'est easy You might also like Sans pitié avec tous mes ennemis Ils veulent ma mort comme John Kennedy Que Dieu me protège frère de mes amis Six pieds sous terre qui s'occupera de ma famille ? Sans pitié avec tous mes ennemis Ils veulent ma mort comme John Kennedy Que Dieu me protège frère de mes amis Six pieds sous terre qui s'occupera de ma famille ? Au seuil de cet enfer qui m'a été promis ... Sans pitié avec tous mes ennemis Ils veulent ma mort comme John Kennedy Que Dieu me protège frère de mes amis Six pieds sous terre qui s'occupera de ma famille ? Sans pitié avec tous mes ennemis Ils veulent ma mort comme John Kennedy Que Dieu me protège frère de mes amis Six pieds sous terre qui s'occupera de ma famille ?</t>
+          <t>Ça se passe dans le quartier mon pote Tu connais le dièze ... vit et crève comme des soldats Un vrai renoi ne meurt pas ... Représente ta rue, Rimes et gloire à fond dans le Clio ... J'ai des frères au card-pla Le manque d'oseille ... Sans pitié avec tous mes ennemis Ils veulent ma mort comme John Kennedy Que Dieu me protège frère d mes amis Six pieds sous terr qui s'occupera de ma famille ? Sans pitié avec tous mes ennemis Ils veulent ma mort comme John Kennedy Que Dieu me protège frère de mes amis Six pieds sous terre qui s'occupera de ma famille ? Pourquoi les négros se complaisent dans la misère ? Lentement ils amorcent leur descente aux enfers Dieu m'a donné la vie donc elle est sacrée Par tous les moyens je dois la protéger Porter un flingue on en est tous capables Mais prendre une vie en es tu responsable ? Joue pas les oufs chez nous tu vas mourir bêtement Puis ta soeur se faire dévierger malement Je roule avec des gangsters mais aussi des étudiants Qui baisent l'État légalement, des criminels en col blanc Ghetto Cac40 maille dans les hautes sphères Sécurise le terter, recrute des gangsters Parfois on est craint, parfois vénéré Ile de France Ghetto ... préféré Viens pas tout seul y'a de la racaille ici Petit frère je te dis que mourir c'est easy Sans pitié avec tous mes ennemis Ils veulent ma mort comme John Kennedy Que Dieu me protège frère de mes amis Six pieds sous terre qui s'occupera de ma famille ? Sans pitié avec tous mes ennemis Ils veulent ma mort comme John Kennedy Que Dieu me protège frère de mes amis Six pieds sous terre qui s'occupera de ma famille ? Au seuil de cet enfer qui m'a été promis ... Sans pitié avec tous mes ennemis Ils veulent ma mort comme John Kennedy Que Dieu me protège frère de mes amis Six pieds sous terre qui s'occupera de ma famille ? Sans pitié avec tous mes ennemis Ils veulent ma mort comme John Kennedy Que Dieu me protège frère de mes amis Six pieds sous terre qui s'occupera de ma famille ?</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz Banlieusards tous pop les gunz reste tranquille khey Tu pourrais finir le coffre d'une Benz ou d'un Clio Les bails sont simples il n'y aura pas de suspense Une balle dans ton crâne ... Avant les armes négro la fierté tue ... Banlieusards tous pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz Ça pop les guns que ce soit dans les provinces ou les banlieues Les guns, les larmes sont les mêmes khey tout ce qui change c'est le lieu La balle s'est calée tout droit ... Mon sourire ne reflète mon état d'esprit en rien ... Si logique pour moi qu'après la balle arrivent les premiers soins You might also like 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz</t>
+          <t>93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz Banlieusards tous pop les gunz reste tranquille khey Tu pourrais finir le coffre d'une Benz ou d'un Clio Les bails sont simples il n'y aura pas de suspense Une balle dans ton crâne ... Avant les armes négro la fierté tue ... Banlieusards tous pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz Ça pop les guns que ce soit dans les provinces ou les banlieues Les guns, les larmes sont les mêmes khey tout ce qui change c'est le lieu La balle s'est calée tout droit ... Mon sourire ne reflète mon état d'esprit en rien ... Si logique pour moi qu'après la balle arrivent les premiers soins 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz Banlieusards tous pop les gunz reste tranquille khey Tu pourrais finir le coffre d'une Benz ou d'un Clio Les bails sont simples il n'y aura pas de suspense Une balle dans ton crâne ... Avant les armes négro la fierté tue ... Banlieusards tous pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz Ça pop les guns que ce soit dans les provinces ou les banlieues Les guns, les larmes sont les mêmes khey tout ce qui change c'est le lieu La balle s'est calée tout droit ... Mon sourire ne reflète mon état d'esprit en rien ... Si logique pour moi qu'après la balle arrivent les premiers soins You might also like 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz</t>
+          <t>93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz Banlieusards tous pop les gunz reste tranquille khey Tu pourrais finir le coffre d'une Benz ou d'un Clio Les bails sont simples il n'y aura pas de suspense Une balle dans ton crâne ... Avant les armes négro la fierté tue ... Banlieusards tous pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz Ça pop les guns que ce soit dans les provinces ou les banlieues Les guns, les larmes sont les mêmes khey tout ce qui change c'est le lieu La balle s'est calée tout droit ... Mon sourire ne reflète mon état d'esprit en rien ... Si logique pour moi qu'après la balle arrivent les premiers soins 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Adrénaline renoi, Rush Violence negro, Ghetto Fabulous Gang Cherche pas d'embrouille il y aura pas d'embrouille 93 banlieue, frère c'est la cité de fou Adrénaline renoi, Rush Violence negro, Ghetto Fabulous Gang Cherche pas d'embrouille il y aura pas d'embrouille 93 banlieue, frère c'est la cité de fou Ecoute le son écoute le Glock ça c'est ma vie Et je passe mes journées au-dessus des Kawasaki Puis le soir après la maille c'est Monica Lewinsky On passe un pied dans la cave déjà elle se déshabille Moi je suis explosif on m'a nourri au C-4 Du mal à me contrôler on m'a classé P4 Stop devant le bloc prends la maille c'est parti Humeur alligator c'est Crocodile Dundee Ceux qui n'aiment pas Dakar sont forcément mes ennemis Peu importe leur carrure frère leur armurerie Peuvent venir armés Allah va m'épargner Moi je suis comme Suge Knight ? condamné Pas loin des flics donc si proche des bavures Et mes potes achètent des flingues comme ils achètent des chaussures Tu vas niquer personne même pas blesser une sentinelle Tu peux venir négocier comme Samuel Lee Jackson Le flingue sur ta bouche le temps que tu fermes les pupilles Va pas crever comme un chien qui sera pas un martyr Adrénaline renoi Adrénaline You might also like Adrénaline renoi, Rush Violence negro, Ghetto Fabulous Gang Cherche pas d'embrouille il y aura pas d'embrouille 93 banlieue, frère c'est la cité de fou Adrénaline renoi, Rush Violence negro, Ghetto Fabulous Gang Cherche pas d'embrouille il y aura pas d'embrouille 93 banlieue, frère c'est la cité de fou Adrénaline, adrénaline Adrénaline, adrénaline Adrénaline Négro casse-toi de là A l'ancienne khey les keufs nous calculaient pas Ils venaient dans la té-c' puis nous parlaient même pas Maintenant ils prennent confiance installent des commissariats ? nos parents et s'excusent même pas Jette des pavés sur eux 14ème caillasse les Chourave leur flingue avant d'aller braquer Ils ont peur de la vie ils se tailladent les veines Et leur meuf les trompent mais devine avec qui Les gangsters comme moi ne roulent pas en Porsche Moi je descends d'une Ford entouré de roumains Et petit n'arrache pas la graille de la bouche d'un lion Tu vas finir sur le billard avec une balle dans le fion Maintenant je rentre en boîte avec mon grand boubou Et ma pute cache mon flingue sous son grand son-blou Et je dis bonjour aux mecs que je connais même pas Et depuis je fais l'amour aux meufs que j'aimais même pas Apocalypse maintenant négro t'es con ou quoi Faudra plus que ta té-c' pour niquer Alpha pour niquer Alpha Adrénaline renoi, Rush Violence negro, Ghetto Fabulous Gang Cherche pas d'embrouille il y aura pas d'embrouille 93 banlieue, frère c'est la cité de fou Adrénaline renoi, Rush Violence negro, Ghetto Fabulous Gang Cherche pas d'embrouille il y aura pas d'embrouille 93 banlieue, frère c'est la cité de fou</t>
+          <t>Adrénaline renoi, Rush Violence negro, Ghetto Fabulous Gang Cherche pas d'embrouille il y aura pas d'embrouille 93 banlieue, frère c'est la cité de fou Adrénaline renoi, Rush Violence negro, Ghetto Fabulous Gang Cherche pas d'embrouille il y aura pas d'embrouille 93 banlieue, frère c'est la cité de fou Ecoute le son écoute le Glock ça c'est ma vie Et je passe mes journées au-dessus des Kawasaki Puis le soir après la maille c'est Monica Lewinsky On passe un pied dans la cave déjà elle se déshabille Moi je suis explosif on m'a nourri au C-4 Du mal à me contrôler on m'a classé P4 Stop devant le bloc prends la maille c'est parti Humeur alligator c'est Crocodile Dundee Ceux qui n'aiment pas Dakar sont forcément mes ennemis Peu importe leur carrure frère leur armurerie Peuvent venir armés Allah va m'épargner Moi je suis comme Suge Knight ? condamné Pas loin des flics donc si proche des bavures Et mes potes achètent des flingues comme ils achètent des chaussures Tu vas niquer personne même pas blesser une sentinelle Tu peux venir négocier comme Samuel Lee Jackson Le flingue sur ta bouche le temps que tu fermes les pupilles Va pas crever comme un chien qui sera pas un martyr Adrénaline renoi Adrénaline Adrénaline renoi, Rush Violence negro, Ghetto Fabulous Gang Cherche pas d'embrouille il y aura pas d'embrouille 93 banlieue, frère c'est la cité de fou Adrénaline renoi, Rush Violence negro, Ghetto Fabulous Gang Cherche pas d'embrouille il y aura pas d'embrouille 93 banlieue, frère c'est la cité de fou Adrénaline, adrénaline Adrénaline, adrénaline Adrénaline Négro casse-toi de là A l'ancienne khey les keufs nous calculaient pas Ils venaient dans la té-c' puis nous parlaient même pas Maintenant ils prennent confiance installent des commissariats ? nos parents et s'excusent même pas Jette des pavés sur eux 14ème caillasse les Chourave leur flingue avant d'aller braquer Ils ont peur de la vie ils se tailladent les veines Et leur meuf les trompent mais devine avec qui Les gangsters comme moi ne roulent pas en Porsche Moi je descends d'une Ford entouré de roumains Et petit n'arrache pas la graille de la bouche d'un lion Tu vas finir sur le billard avec une balle dans le fion Maintenant je rentre en boîte avec mon grand boubou Et ma pute cache mon flingue sous son grand son-blou Et je dis bonjour aux mecs que je connais même pas Et depuis je fais l'amour aux meufs que j'aimais même pas Apocalypse maintenant négro t'es con ou quoi Faudra plus que ta té-c' pour niquer Alpha pour niquer Alpha Adrénaline renoi, Rush Violence negro, Ghetto Fabulous Gang Cherche pas d'embrouille il y aura pas d'embrouille 93 banlieue, frère c'est la cité de fou Adrénaline renoi, Rush Violence negro, Ghetto Fabulous Gang Cherche pas d'embrouille il y aura pas d'embrouille 93 banlieue, frère c'est la cité de fou</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Ambiance thug et ghetto, le plus gros des succès Bi-bi-bicrave le bédo mais pas la CC Bi-bi-biatch après ce morceau, viens pas nous sucer Je mélange mes factures avec mes billets J'suis déter, déterminé à briller Briser, brasser le rap français, j'vais le ressusciter J'marche toujours avec 2 ou 3 immigrés Dis à Mégret que je m'en bats les couilles de m'intégrer C'est pour mes refrés qui baisent les poults Qui font des boule-dés, qui vont te dépouillr Dans les cités aulnaysiennes y'a un flow à la Lil Wayne De la cocaïne et de la résine marocaine ... Augmente le taux de crime de la métropole Moi le rap je m'en branle moi je gère le succès Tellement de tasspés j'arrive plus à compter Ghetto Fab Vendetta sans remords ni pitié On a des tass qui bicravent, des clandos qui font le guet Mate les rues de ma zone Clicli bicrave T'es pas à l'abri d'un schlass qui sort de nulle part Les braves qui n'hésitent pas à tirer sur le videur C'est la peine capitale 9.3 le secteur West side négro ... renoi ... Ouvre le coffre frérot c'est la banque populaire ... rap pour cacher la misère You might also like Ça sent la cojones à plein nez ... Ah frère l'enfer et ses flammes m'effleurent ... Pendant qu'on m'enregistre ma reum a peur Car la police fait l'amalgame entre dealer et rappeur ... ... 93 c'est le chiffre Platinum Grillz c'est la mif Un pour les mans qui sont tombés ... ... ...</t>
+          <t>Ambiance thug et ghetto, le plus gros des succès Bi-bi-bicrave le bédo mais pas la CC Bi-bi-biatch après ce morceau, viens pas nous sucer Je mélange mes factures avec mes billets J'suis déter, déterminé à briller Briser, brasser le rap français, j'vais le ressusciter J'marche toujours avec 2 ou 3 immigrés Dis à Mégret que je m'en bats les couilles de m'intégrer C'est pour mes refrés qui baisent les poults Qui font des boule-dés, qui vont te dépouillr Dans les cités aulnaysiennes y'a un flow à la Lil Wayne De la cocaïne et de la résine marocaine ... Augmente le taux de crime de la métropole Moi le rap je m'en branle moi je gère le succès Tellement de tasspés j'arrive plus à compter Ghetto Fab Vendetta sans remords ni pitié On a des tass qui bicravent, des clandos qui font le guet Mate les rues de ma zone Clicli bicrave T'es pas à l'abri d'un schlass qui sort de nulle part Les braves qui n'hésitent pas à tirer sur le videur C'est la peine capitale 9.3 le secteur West side négro ... renoi ... Ouvre le coffre frérot c'est la banque populaire ... rap pour cacher la misère Ça sent la cojones à plein nez ... Ah frère l'enfer et ses flammes m'effleurent ... Pendant qu'on m'enregistre ma reum a peur Car la police fait l'amalgame entre dealer et rappeur ... ... 93 c'est le chiffre Platinum Grillz c'est la mif Un pour les mans qui sont tombés ... ... ...</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Depuis que la bac nous hessess ... Chaque jour que Dieu fait c'est amertume et souffrance De plus la France veut me niquer mes chances ... Dans le hall à bicrave peu importe la saison J'garde encore espoir mais y'a rien à l'horizon ... Chaque fois j'entends dire que Balastik ton style est pérave ... Chaque jour que Dieu fait c'est amertume et souffrance De plus la France veut me niquer mes chances ... Dans le hall à bicrave peu importe la saison J'garde encore espoir mais y'a rien à l'horizon ... Est plutôt élevé à l'air libre renoi Démographie galopante comme le peuple chinois Défonce les portes de l'Espagne, c'est Dieu qui nous envoie Mange avec des pygmées dans les rues du 9.3 La cité m'a avalé, j'ai fait un trou dans son ventre Sorti d'un cercueil, réincarné en prophète Ma poésie reflète ce que mon peuple endure Et ma plume est trempée sur le sang des martyrs Je te dis qu'en France rien ne change depuis le temps Maurice Papon est mort mais le Pen est vivant Trop facile de nous haïr, on est des boucs émissaires La haine on vocifère, la droite jamais ne nous tolère Même avec des diplômes, on a le profil douteux J'irai jamais pointer devant leur ANPE Frère le sang des sacrifices coule en bas de la Seine Bicarbonate dans leurs veines, ils peuvent pas sentir ma peine You might also like Chaque jour que Dieu fait c'est amertume et souffrance De plus la France veut me niquer mes chances ... Dans le hall à bicrave peu importe la saison J'garde encore espoir mais y'a rien à l'horizon ...</t>
+          <t>Depuis que la bac nous hessess ... Chaque jour que Dieu fait c'est amertume et souffrance De plus la France veut me niquer mes chances ... Dans le hall à bicrave peu importe la saison J'garde encore espoir mais y'a rien à l'horizon ... Chaque fois j'entends dire que Balastik ton style est pérave ... Chaque jour que Dieu fait c'est amertume et souffrance De plus la France veut me niquer mes chances ... Dans le hall à bicrave peu importe la saison J'garde encore espoir mais y'a rien à l'horizon ... Est plutôt élevé à l'air libre renoi Démographie galopante comme le peuple chinois Défonce les portes de l'Espagne, c'est Dieu qui nous envoie Mange avec des pygmées dans les rues du 9.3 La cité m'a avalé, j'ai fait un trou dans son ventre Sorti d'un cercueil, réincarné en prophète Ma poésie reflète ce que mon peuple endure Et ma plume est trempée sur le sang des martyrs Je te dis qu'en France rien ne change depuis le temps Maurice Papon est mort mais le Pen est vivant Trop facile de nous haïr, on est des boucs émissaires La haine on vocifère, la droite jamais ne nous tolère Même avec des diplômes, on a le profil douteux J'irai jamais pointer devant leur ANPE Frère le sang des sacrifices coule en bas de la Seine Bicarbonate dans leurs veines, ils peuvent pas sentir ma peine Chaque jour que Dieu fait c'est amertume et souffrance De plus la France veut me niquer mes chances ... Dans le hall à bicrave peu importe la saison J'garde encore espoir mais y'a rien à l'horizon ...</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Tu fais l'dur, parce que t'as un schlass dans ton fut' C'est la rue qui te parle, p'tit fils de pute Ma vérité s'mélange à mes insultes Tu connais ma ville, c'est Aulnay sous Bois 3000 C'est quoi l'deal ? C'est une transac de rimes ou de kil' C'est Un gyrophare bleu, un nègre en train d'pisser Si tu veux de la beuh viens me voir tu seras pas déçu Nan, nan À ce qu'il parait, t'as la gachette facile En ture-voi tu pines, tu fais des têtes à queue T's qu'une schmetta boy, tu fais jamais feu Tu fuck avc mon putain d' Merde arrete de faire le dingue Chez nous ausis y a des schlass des flingues Mais te stopper, balles et pistolets J'te sers, tu nies tu finis par dire qu'tu rigolais Fais gaffe tu vas finir dans un coffre bien isolé C'est KHF, toujours dans le ter-ter Depuis crimes et broliques y a rien, toujours a-l pépère Laisse moi t'dire renoi à quoi ressemble ma vie Du berceau jusqu'à la tombe gardien de mon frère Laisse moi t'dire renoi laisse moi te dire hey Île de France la jungle moi j'suis un animal Laisse moi t'dire renoi à quoi ressemble ma vie Du berceau jusqu'à la tombe gardien de mon frère Laisse moi t'dire renoi laisse moi te dire hey Île de France la jungle moi j'suis un animal You might also like Moi, je marche avec les lions nage avec des requins Garde la tête hors de l'eau frère, comme Flipper le dauphin Négros parlent mal finissent en nourriture de poisson C'est Islamic Dakar boy pas d'alcool dans nos boissons Rude boy té-ma les bijoux et la montre que j'porte Depuis le temps d'la bicrave, la rue nous tient à la gorge Dix kilos dans ma Ford, et les keufs au rétro Lâche ma caisse à la gare, puis je descends au métro Boy fuck la muscu, achète des flingues négro S'il y embrouille, dégaine-les, puis tu tires sur moi Juste moi et ma pute, elle s'appelle Gladys Moi, je l'aime jusqu'à la mort, elle m'a jamais trahi Elle m'a dit Alpha, moi je t'aime tant À force de parler, toi, tu glaces mon sang Amène-moi dans la cité, j'te ferai tout c'que tu veux Vient-on claque une barre, j'sais qu'toi, tu peux Paragraphes meutriers, c'est du rap de zonard Au milieu des escrocs, des voleurs et taulards Boy sent la patate, Bondy, Noisy, Bobigny France, Villepainte, Montfermeil, Clichy Les cités-dortoirs à Épinay-sur-Seine, 11 000 dans les geôles Ry-fleu ou à Fresnes et que Dieu nous pardonne On manigance et complote Puis on tue nos propres frères comme les Khmers et Pol Pot Laisse moi t'dire renoi à quoi ressemble ma vie Du berceau jusqu'à la tombe gardien de mon frère Laisse moi t'dire renoi laisse moi te dire hey Île de France la jungle moi j'suis un animal Laisse moi t'dire renoi à quoi ressemble ma vie Du berceau jusqu'à la tombe gardien de mon frère Laisse moi t'dire renoi laisse moi te dire hey Île de France la jungle moi j'suis un animal Yeah, yeah renoi Tu dois être un loup mec Un loup mec Pour vivre parmis nous Hey Aulnay-sous-Bois, Dakar Hey Yeah</t>
+          <t>Tu fais l'dur, parce que t'as un schlass dans ton fut' C'est la rue qui te parle, p'tit fils de pute Ma vérité s'mélange à mes insultes Tu connais ma ville, c'est Aulnay sous Bois 3000 C'est quoi l'deal ? C'est une transac de rimes ou de kil' C'est Un gyrophare bleu, un nègre en train d'pisser Si tu veux de la beuh viens me voir tu seras pas déçu Nan, nan À ce qu'il parait, t'as la gachette facile En ture-voi tu pines, tu fais des têtes à queue T's qu'une schmetta boy, tu fais jamais feu Tu fuck avc mon putain d' Merde arrete de faire le dingue Chez nous ausis y a des schlass des flingues Mais te stopper, balles et pistolets J'te sers, tu nies tu finis par dire qu'tu rigolais Fais gaffe tu vas finir dans un coffre bien isolé C'est KHF, toujours dans le ter-ter Depuis crimes et broliques y a rien, toujours a-l pépère Laisse moi t'dire renoi à quoi ressemble ma vie Du berceau jusqu'à la tombe gardien de mon frère Laisse moi t'dire renoi laisse moi te dire hey Île de France la jungle moi j'suis un animal Laisse moi t'dire renoi à quoi ressemble ma vie Du berceau jusqu'à la tombe gardien de mon frère Laisse moi t'dire renoi laisse moi te dire hey Île de France la jungle moi j'suis un animal Moi, je marche avec les lions nage avec des requins Garde la tête hors de l'eau frère, comme Flipper le dauphin Négros parlent mal finissent en nourriture de poisson C'est Islamic Dakar boy pas d'alcool dans nos boissons Rude boy té-ma les bijoux et la montre que j'porte Depuis le temps d'la bicrave, la rue nous tient à la gorge Dix kilos dans ma Ford, et les keufs au rétro Lâche ma caisse à la gare, puis je descends au métro Boy fuck la muscu, achète des flingues négro S'il y embrouille, dégaine-les, puis tu tires sur moi Juste moi et ma pute, elle s'appelle Gladys Moi, je l'aime jusqu'à la mort, elle m'a jamais trahi Elle m'a dit Alpha, moi je t'aime tant À force de parler, toi, tu glaces mon sang Amène-moi dans la cité, j'te ferai tout c'que tu veux Vient-on claque une barre, j'sais qu'toi, tu peux Paragraphes meutriers, c'est du rap de zonard Au milieu des escrocs, des voleurs et taulards Boy sent la patate, Bondy, Noisy, Bobigny France, Villepainte, Montfermeil, Clichy Les cités-dortoirs à Épinay-sur-Seine, 11 000 dans les geôles Ry-fleu ou à Fresnes et que Dieu nous pardonne On manigance et complote Puis on tue nos propres frères comme les Khmers et Pol Pot Laisse moi t'dire renoi à quoi ressemble ma vie Du berceau jusqu'à la tombe gardien de mon frère Laisse moi t'dire renoi laisse moi te dire hey Île de France la jungle moi j'suis un animal Laisse moi t'dire renoi à quoi ressemble ma vie Du berceau jusqu'à la tombe gardien de mon frère Laisse moi t'dire renoi laisse moi te dire hey Île de France la jungle moi j'suis un animal Yeah, yeah renoi Tu dois être un loup mec Un loup mec Pour vivre parmis nous Hey Aulnay-sous-Bois, Dakar Hey Yeah</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Miséricorde du Seigneur, j'ai perdu mon père A l'âge de quinze ans, seul avec ma mère Dans les rues de Dakar vols et petits larcins Tentation extrême mais y avait pas de vaccins À l'école, j'ai appris Aimé Césaire et Senghor La négritude dans mes gênes, jamais je changerai de bord Je connais rien de ta vie mais la mienne est douloureuse Telle une vierge qui déprime d'une déception amoureuse Imagine toi négro que douze grammes de C.C Peuvent nourrir mon quartier entièrement une journée Je veux pas te baratiner, tu taffes pas, tu manges pas Réchauffement planétaire mais mon coeur devient froid Et la mort à un pas, j'entends les sirènes hurler Le proc' toque à ma porte, je vais devoir te quitter Dis leur que personne ici n'a peur des autorités Je fais des queues de poissons aux brigades motorisés Trop de-spee est ma vie dès que mes antécédents Quand le feu devient vert, je passe de 0 à 100 Dans mes fouilles, 10 000 euros, un tournevis, un cran d'arrêt Verse une goutte de mon sang, le lendemain je me vengerais Trop de-spee est ma vie dès que mes antécédents Quand le feu devient vert, je passe de 0 à 100 Dans mes fouilles, 10 000 euros, un tournevis, un cran d'arrêt Verse une goutte de mon sang, le lendemain je me vengerais You might also like Et ma haine ne bouge pas, tu vois les flammes dans mes yeux Je bicrave ici bas mais mon coeur est dans les cieux Tel un prophète négro, je peux marcher sur l'eau C'est un miracle, mes mots guerissent les séropo Mon esprit est confiné, l'esclavage est mental Et la truie n'a pas de place dans ma vie brutale Y avait rien à manger sur la table à part Deux bouts de pain tartinés à la putain de moutarde Trop de nuits de la Croix Rouge, des crêpes aux anchois Maintenant j'ai du caviars, princesse régale toi Je veut que tu me pardonnes quand je te fais avorter Toute ma vie cet enfant va devoir me hanter Ne vois-tu pas beauté que j'essaye de me racheter ? Mais la plaie est si profonde qu'elle va jamais se refermer On guérit pas le cancer avec des cachets d'aspirines L'argent me fais tourner la tête, c'est pour cela que je déprime Trop de-spee est ma vie dès que mes antécédents Quand le feu devient vert, je passe de 0 à 100 Dans mes fouilles, 10 000 euros, un tournevis, un cran d'arrêt Verse une goutte de mon sang, le lendemain je me vengerais Trop de-spee est ma vie dès que mes antécédents Quand le feu devient vert, je passe de 0 à 100 Dans mes fouilles, 10 000 euros, un tournevis, un cran d'arrêt Verse une goutte de mon sang, le lendemain je me vengerais Et ma ville ne dort pas, Dakar city bang bang Trempés dans l'acier et nos testicules et nos flingues Que la main du Seigneur évacue la misère C'est pour cela qu'on passe du temps dans des halls à vicère Primaire instinct, mes idoles des marchands d'armes À la Yuri Orlov frère, la mort j'incarne J'essaye de prêcher le bien mais les négros piquent Une tete vers le mal, cette vie te mène dans la street Sur l'autoroute de l'illicite, combien ont pris le virage ? Puis s'en rendus compte qu'au bout c'était le naufrage Laisse les rappeurs jacter avec leur ptain bracos Financièrement, ils valent pas mieux que des taffeurs au Mac Do La prison et les casiers, on va jamais s'en vanter C'est comme manquer de respect aux frères rester planqués Dans des cellules infâmes à purger des décennies Restés otage de l'état sans avoir de compromis Trop de-spee est ma vie dès que mes antécédents Quand le feu devient vert, je passe de 0 à 100 Dans mes fouilles, 10 000 euros, un tournevis, un cran d'arrêt Verse une goutte de mon sang, le lendemain je me vengerais Trop de-spee est ma vie dès que mes antécédents Quand le feu devient vert, je passe de 0 à 100 Dans mes fouilles, 10 000 euros, un tournevis, un cran d'arrêt Verse une goutte de mon sang, le lendemain je me vengerais</t>
+          <t>Miséricorde du Seigneur, j'ai perdu mon père A l'âge de quinze ans, seul avec ma mère Dans les rues de Dakar vols et petits larcins Tentation extrême mais y avait pas de vaccins À l'école, j'ai appris Aimé Césaire et Senghor La négritude dans mes gênes, jamais je changerai de bord Je connais rien de ta vie mais la mienne est douloureuse Telle une vierge qui déprime d'une déception amoureuse Imagine toi négro que douze grammes de C.C Peuvent nourrir mon quartier entièrement une journée Je veux pas te baratiner, tu taffes pas, tu manges pas Réchauffement planétaire mais mon coeur devient froid Et la mort à un pas, j'entends les sirènes hurler Le proc' toque à ma porte, je vais devoir te quitter Dis leur que personne ici n'a peur des autorités Je fais des queues de poissons aux brigades motorisés Trop de-spee est ma vie dès que mes antécédents Quand le feu devient vert, je passe de 0 à 100 Dans mes fouilles, 10 000 euros, un tournevis, un cran d'arrêt Verse une goutte de mon sang, le lendemain je me vengerais Trop de-spee est ma vie dès que mes antécédents Quand le feu devient vert, je passe de 0 à 100 Dans mes fouilles, 10 000 euros, un tournevis, un cran d'arrêt Verse une goutte de mon sang, le lendemain je me vengerais Et ma haine ne bouge pas, tu vois les flammes dans mes yeux Je bicrave ici bas mais mon coeur est dans les cieux Tel un prophète négro, je peux marcher sur l'eau C'est un miracle, mes mots guerissent les séropo Mon esprit est confiné, l'esclavage est mental Et la truie n'a pas de place dans ma vie brutale Y avait rien à manger sur la table à part Deux bouts de pain tartinés à la putain de moutarde Trop de nuits de la Croix Rouge, des crêpes aux anchois Maintenant j'ai du caviars, princesse régale toi Je veut que tu me pardonnes quand je te fais avorter Toute ma vie cet enfant va devoir me hanter Ne vois-tu pas beauté que j'essaye de me racheter ? Mais la plaie est si profonde qu'elle va jamais se refermer On guérit pas le cancer avec des cachets d'aspirines L'argent me fais tourner la tête, c'est pour cela que je déprime Trop de-spee est ma vie dès que mes antécédents Quand le feu devient vert, je passe de 0 à 100 Dans mes fouilles, 10 000 euros, un tournevis, un cran d'arrêt Verse une goutte de mon sang, le lendemain je me vengerais Trop de-spee est ma vie dès que mes antécédents Quand le feu devient vert, je passe de 0 à 100 Dans mes fouilles, 10 000 euros, un tournevis, un cran d'arrêt Verse une goutte de mon sang, le lendemain je me vengerais Et ma ville ne dort pas, Dakar city bang bang Trempés dans l'acier et nos testicules et nos flingues Que la main du Seigneur évacue la misère C'est pour cela qu'on passe du temps dans des halls à vicère Primaire instinct, mes idoles des marchands d'armes À la Yuri Orlov frère, la mort j'incarne J'essaye de prêcher le bien mais les négros piquent Une tete vers le mal, cette vie te mène dans la street Sur l'autoroute de l'illicite, combien ont pris le virage ? Puis s'en rendus compte qu'au bout c'était le naufrage Laisse les rappeurs jacter avec leur ptain bracos Financièrement, ils valent pas mieux que des taffeurs au Mac Do La prison et les casiers, on va jamais s'en vanter C'est comme manquer de respect aux frères rester planqués Dans des cellules infâmes à purger des décennies Restés otage de l'état sans avoir de compromis Trop de-spee est ma vie dès que mes antécédents Quand le feu devient vert, je passe de 0 à 100 Dans mes fouilles, 10 000 euros, un tournevis, un cran d'arrêt Verse une goutte de mon sang, le lendemain je me vengerais Trop de-spee est ma vie dès que mes antécédents Quand le feu devient vert, je passe de 0 à 100 Dans mes fouilles, 10 000 euros, un tournevis, un cran d'arrêt Verse une goutte de mon sang, le lendemain je me vengerais</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Han ! Hey ! Hey ! Je sors de Blancok, je mange à Villiers Île-de-France c'est ma maison, moi j'suis un pilier Les ailes de l'enfer, le feu je verse-tra Légende urbaine, la mort je connais pas L'intelligence se mesure à la hauteur du ciel Pas une goutte de mon sang n'est homosexuel J'attends mon tour impatiemment devant le four frère Les chats s'prennent pour des lions avec des revolvers Excuse du peu négro, y'a pas damour ici Sport favori délation, hypocrisie Fini le temps de paix, jélève des charognards Et des vautours qui mangeront le reste de ton cadavre Bâtards de flicaille cest la loi du plus fort Dérange la daronne, soulève tes pompes quand tu dors Devant le block frère, dents blanches trafiquants Je suis déter comme le dernier des mohicans Que des récits funestes que ma rue murmure Et dans nos taffs frère que des séances de tortures Y a-t-il un négro plus vrai que moi ? Non, non, non, y en a pas ! Non, non, non, y en a pas ! Animal du Sénegal frère jai plus damour La bicrave est dans ma tête frère tous les jours À part Dieu sur terre ne crains personne Cric-cric La détonation dun vrai Smith Wesson Pow! Animal du Sénegal frère jai plus damour La bicrave est dans ma tête frère tous les jours À part Dieu sur terre ne crains personne Cric-cric La détonation dun vrai Smith Wesson Pow! You might also like Pull up!</t>
+          <t>Han ! Hey ! Hey ! Je sors de Blancok, je mange à Villiers Île-de-France c'est ma maison, moi j'suis un pilier Les ailes de l'enfer, le feu je verse-tra Légende urbaine, la mort je connais pas L'intelligence se mesure à la hauteur du ciel Pas une goutte de mon sang n'est homosexuel J'attends mon tour impatiemment devant le four frère Les chats s'prennent pour des lions avec des revolvers Excuse du peu négro, y'a pas damour ici Sport favori délation, hypocrisie Fini le temps de paix, jélève des charognards Et des vautours qui mangeront le reste de ton cadavre Bâtards de flicaille cest la loi du plus fort Dérange la daronne, soulève tes pompes quand tu dors Devant le block frère, dents blanches trafiquants Je suis déter comme le dernier des mohicans Que des récits funestes que ma rue murmure Et dans nos taffs frère que des séances de tortures Y a-t-il un négro plus vrai que moi ? Non, non, non, y en a pas ! Non, non, non, y en a pas ! Animal du Sénegal frère jai plus damour La bicrave est dans ma tête frère tous les jours À part Dieu sur terre ne crains personne Cric-cric La détonation dun vrai Smith Wesson Pow! Animal du Sénegal frère jai plus damour La bicrave est dans ma tête frère tous les jours À part Dieu sur terre ne crains personne Cric-cric La détonation dun vrai Smith Wesson Pow! Pull up!</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Faudrait pas nous prendre pour des cons on fait les comptes Non mieux vaut les laisser voler pour les coller en flag Golri je vous écrase toi et ton auréole falsh J'ai trop la tête sur les trapèzes pour gober vos phases Là c'est S.Pi ... Ah ouais moi j'suis sorti bien assez vite ... V'là le remix pour les bougs de la rue Toujours debout, ça fait boum quand j'allume J'ai coché nos lacunes et en tout cas Je sais qu'on peut pas décrocher la lune avec un bazooka C'est pas du zouk ou du mapuka Zoom sur les pushka c'est Babylone Zoo qui m'a poucave Zoulou na sur mon éducation Afrika Bambataa MC marginal bercé à l'Original Bombattak Contre-attaque renaissance du phoenix On mixe dans un bidon d'essence, c'est l'Apologie remix C'est pour les reufs reufs, trop bizarre pour les keufs keufs C'est Youssoupha banlieusard du 9.9 Livre mon seum, signe que le sheytan prescrit en somme ... You might also like Dan débarque dans un 605 pimpé couleur Coca Cola Light Siège incliné genre ... J'représente pire qu'un lieutenant appelé sous le drapeau ... Marche contre moi je dirai que t'es qu'un zombie en sursis J'ramène la délinquance du Zaïre en France Avance comme les tsunamis, baise tout comme le dirty south à Miami Poison la seringue t'es en manque Viens je te mets bien, 9e le CD comme les putes comme à Saint Domingue J'attends que le rap m'embrasse le pénis ... ... Outre le bal renoi c'est la vie après la mort Paradis fiscal mais les claques ... Criblé au volant, historique comme 2pac Devant le four ou chez les bourges, Alpha porte ses 2 glocks Les négros qui nous haïssent ne méritent même pas de vivre Moi je vis avec les porcs essuyant mes putains de vitres Canicule au micro, Dakar sous les charbons Nous on baise les poulets juste après les pigeons Vivre et mourir à Dakar tu peux pas tester le boss Moi je bicrave tous les jours, Hustlin' comme Rick Ross Boy boy c'est Alpha pharmacie who's up who's up Un son de grand frère, les gangsters pull up pull up J'ai le verbe assassin et si je brûle tout comme un ...</t>
+          <t>Faudrait pas nous prendre pour des cons on fait les comptes Non mieux vaut les laisser voler pour les coller en flag Golri je vous écrase toi et ton auréole falsh J'ai trop la tête sur les trapèzes pour gober vos phases Là c'est S.Pi ... Ah ouais moi j'suis sorti bien assez vite ... V'là le remix pour les bougs de la rue Toujours debout, ça fait boum quand j'allume J'ai coché nos lacunes et en tout cas Je sais qu'on peut pas décrocher la lune avec un bazooka C'est pas du zouk ou du mapuka Zoom sur les pushka c'est Babylone Zoo qui m'a poucave Zoulou na sur mon éducation Afrika Bambataa MC marginal bercé à l'Original Bombattak Contre-attaque renaissance du phoenix On mixe dans un bidon d'essence, c'est l'Apologie remix C'est pour les reufs reufs, trop bizarre pour les keufs keufs C'est Youssoupha banlieusard du 9.9 Livre mon seum, signe que le sheytan prescrit en somme ... Dan débarque dans un 605 pimpé couleur Coca Cola Light Siège incliné genre ... J'représente pire qu'un lieutenant appelé sous le drapeau ... Marche contre moi je dirai que t'es qu'un zombie en sursis J'ramène la délinquance du Zaïre en France Avance comme les tsunamis, baise tout comme le dirty south à Miami Poison la seringue t'es en manque Viens je te mets bien, 9e le CD comme les putes comme à Saint Domingue J'attends que le rap m'embrasse le pénis ... ... Outre le bal renoi c'est la vie après la mort Paradis fiscal mais les claques ... Criblé au volant, historique comme 2pac Devant le four ou chez les bourges, Alpha porte ses 2 glocks Les négros qui nous haïssent ne méritent même pas de vivre Moi je vis avec les porcs essuyant mes putains de vitres Canicule au micro, Dakar sous les charbons Nous on baise les poulets juste après les pigeons Vivre et mourir à Dakar tu peux pas tester le boss Moi je bicrave tous les jours, Hustlin' comme Rick Ross Boy boy c'est Alpha pharmacie who's up who's up Un son de grand frère, les gangsters pull up pull up J'ai le verbe assassin et si je brûle tout comme un ...</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mes G'z G'z, Dakar Gangsta West Side poto, toujours hors-la-loi Anti-porc jusqu'à, la mort du commissaire Qui voulait de mon délai, la Ghetto Fab filière Je suis sur écoute négro, çà c'est vrai Des photos du stand, çà aussi c'est vrai Ils pensent que je suis, armé et dangereux Mais prêcher le vrai, frère c'est tout ce que je veux Enfant du ghetto, la détente je presse Pour mes gars du square, à la OGS Un stress permanent pour les gardiens de la paix Gyrophares bruyants, quand ils dévalent l'allée Trafic d'influence, corruption active Faire sauter les PV, moi je paye un flic 100 euros négro, pour un point de permis Ils en veulent 500 pour un kilo de t-shi Saisie à la douane, ici il y a pas de bananes Et tu paies comptant, dans les rues de Paname Gangster en lambo, gangster en féfé Et leur putain de pavillon?, une portière sous les fesses? Si t'as un bout fumons, appelle-moi négro Des plans des y'a zga, appelle-moi négro Des embrouilles mon frère, je serai la négro Mais traîner en boîte, pas le temps négro T'as des plans tasse-pé, appelle-moi négro Des flingues à revendre, appelle-moi négro T'as perdu une gare-ba, c'est rien mon négro L'important c'est la riposte pas la défaite mon négro You might also like Je regarde la France, puis je dis quel gâchis Comment peut-on nommer comme chef d'état Sarkozy Sa meuf l'a trompé, après son succès Les marins-pêcheurs, l'ont traité d'enculé Ils sont au frais tous les jours, je vais voir mon épée Et mon trône est perché, sur des têtes coupées L'homme-fauve du désert, je suis né sous les palmes? En compagnie des lions, farouches aux yeux calmes Puis au bord du chemin, parle avec Oussama Me demande pas ce que je pense du port de la burqa Autour de moi que des traîtres comme Mohammed Sifaoui Infiltré par l'Etat mais je m'en bats les glawis Celle-ci c'est pour mes anciens les tirailleurs sénégalais Même si dans Indigènes on nous a pas trop mentionné Trop fractionnée, la cité pleure c'est mort L'emblème du croissant, et de l'Afrique j'arbore Si t'as un bout fumons, appelle-moi négro Des plans des y'a zga, appelle-moi négro Des embrouilles mon frère, je serai la négro Mais traîner en boîte, pas le temps négro T'as des plans tasse-pé, appelle-moi négro Des flingues à revendre, appelle-moi négro T'as perdu une gare-ba, c'est rien mon négro L'important c'est la riposte pas la défaite mon négro</t>
+          <t>Mes G'z G'z, Dakar Gangsta West Side poto, toujours hors-la-loi Anti-porc jusqu'à, la mort du commissaire Qui voulait de mon délai, la Ghetto Fab filière Je suis sur écoute négro, çà c'est vrai Des photos du stand, çà aussi c'est vrai Ils pensent que je suis, armé et dangereux Mais prêcher le vrai, frère c'est tout ce que je veux Enfant du ghetto, la détente je presse Pour mes gars du square, à la OGS Un stress permanent pour les gardiens de la paix Gyrophares bruyants, quand ils dévalent l'allée Trafic d'influence, corruption active Faire sauter les PV, moi je paye un flic 100 euros négro, pour un point de permis Ils en veulent 500 pour un kilo de t-shi Saisie à la douane, ici il y a pas de bananes Et tu paies comptant, dans les rues de Paname Gangster en lambo, gangster en féfé Et leur putain de pavillon?, une portière sous les fesses? Si t'as un bout fumons, appelle-moi négro Des plans des y'a zga, appelle-moi négro Des embrouilles mon frère, je serai la négro Mais traîner en boîte, pas le temps négro T'as des plans tasse-pé, appelle-moi négro Des flingues à revendre, appelle-moi négro T'as perdu une gare-ba, c'est rien mon négro L'important c'est la riposte pas la défaite mon négro Je regarde la France, puis je dis quel gâchis Comment peut-on nommer comme chef d'état Sarkozy Sa meuf l'a trompé, après son succès Les marins-pêcheurs, l'ont traité d'enculé Ils sont au frais tous les jours, je vais voir mon épée Et mon trône est perché, sur des têtes coupées L'homme-fauve du désert, je suis né sous les palmes? En compagnie des lions, farouches aux yeux calmes Puis au bord du chemin, parle avec Oussama Me demande pas ce que je pense du port de la burqa Autour de moi que des traîtres comme Mohammed Sifaoui Infiltré par l'Etat mais je m'en bats les glawis Celle-ci c'est pour mes anciens les tirailleurs sénégalais Même si dans Indigènes on nous a pas trop mentionné Trop fractionnée, la cité pleure c'est mort L'emblème du croissant, et de l'Afrique j'arbore Si t'as un bout fumons, appelle-moi négro Des plans des y'a zga, appelle-moi négro Des embrouilles mon frère, je serai la négro Mais traîner en boîte, pas le temps négro T'as des plans tasse-pé, appelle-moi négro Des flingues à revendre, appelle-moi négro T'as perdu une gare-ba, c'est rien mon négro L'important c'est la riposte pas la défaite mon négro</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>On a d'la maille négro, on a des armes à feu Tu veux nous faire la guerre boy, tu fais la queue 78 Mantes-la', fonce-dé a la beuh Mais qu'ils se battyman, qu'ils se battyman frère On a d'la maille négro, on a des armes à feu Tu veux nous faire la guerre boy, tu fais la queue 78 Mantes-la', fonce-dé a la beuh Mais qu'ils se battyman, qu'ils se battyman frère J'baisse pas le kefro, même si j'ai pas d'kefri J'ai le R.A.P qui kefo, les trous de balles et les kefli Rap criminel boy, de nous faut qu'tu t'méfies Nous, tester au mic, mec oublie ce défi Très loin dêtre fashion et encore moins facho Mais l'R.A.P c'est Hashum y a trop de putes et d'travlo J'suis pas une re-sta, j'rap pour mes frères au reschta Pour Alpha 5.20 U. Hp la beuh et ses rastas Man qu'est-ce t'as j'rap ghetto comme Old Dirty Bastard J'représente le 7.8 l'Africa, mes potes et puis basta Donc depuis ma naissance moi j'étais déjà mort Décapité à Bagdad, frère mate le décor Ils demandent aux porcs c'est quoi l'prix d'ma vie Et ma rime, c'est violence, drogues, mailles, homophobie Celui qui vit dans la peur va mourir comme un lâche Dans les écritures saintes, ma vérité est palpable Ma patience a des limites et ma haine justifiable Bloc 93 fréro c'est moi l'boss Tu peux m'voir aux 3000, tu peux m'voir aux Bedottes Mais jamais avec les keufs si j'ai pas les menottes Le courage des anciens, mais j'suis pas un quin-re Vicieux, itinéraire de jeune noir ambitieux J'ai pas peur d'mourir, moi, j'ai fait mes prières Avant d'aller dormir, à Bondy la Briere C'est Alpha 5.20, j'fais pas de t'minik Et j'fume des gares-ci, gros, qu'on m'ramène de Dominique Les renois sont des rookies, camés comme le Pookie Veulent jouer les gangsters, ils regardent New Jack City Ninho Brown en personne, mais changent de géographie Sale 93 département de trafic You might also like Union Hp le blase c'est, n'essaie pas de clasher On arrive trop fâchés, on a trouvé l'accès Percer l'abcès pour nos talents gâchés On va péter, slasher pour nos frères attachés Le truc, c'est d'avoir un peu d'succès, sans trahir sans sucer Pour la rime, la gloire même sans succès Élémentaire, Loopy, Essely enterrent Tous les wacks MC'S à terre pour le Ghetto Fab les vrais frères Soldats d'la rime préparez les pare-balles, y a des décès par balles Des victimes à terre qu'on enterre par quatre Issus d'un endroit où les gosses Te mettront bien des coups de crosses gratos Ici, on veut tous ces putains d'pesos Mantes-la-Jolie Soit pas étonné si on est si insolents, dans nos lyrics MC quand j'viens chez toi ta go nous suce la bite Mantes-la-Jolie Fier de ma ville, ici ça deal, ici kill, ici c'est pire qu'un asile débile 78 On a connu les guerres, mais il nous manque le succès Ici pétés au sky, les flics cherchent de quoi fumer 78 Le ralice, c'est la première chose pour chaque ennemi complice T'as beau crier, t'as beau crier police On baise les flics Y a qu'ici que Sarkozy prend ses jambes à son cou Chirac mange des mollards, Alpha demande à mes gars On baise les flics Là où des frères nous soutiennent, et d'autres veulent nous ken Coincés dans un monopole rempli de haine Mantes-la-Jolie C'est dans la BX à Diabolo que j'cherche l'inspi Comme DJ Ready D accroché à mon joint 78 Nous, on respecte tout ce qui est père mère Cache ton oin-j y à les bons côtés, croit pas qu'on flaire Mantes-la-Jolie On est aussi respectueux devant une mère ou un vieux père Crois pas qu'on flaire, cache ton oin-j devant les petits frères Mantes-la-Jolie Y a plus de frères en taule que dehors dans cette Gaule Contrôles ras-le-bol, la fume l'alcool Les go qui t'donnent la gaule Mantes-la-Jolie 2005, M.L.J, capitale des braquos J'dédicace à tout nos refrés derrière les barreaux On a d'la maille négro, on a des armes à feu Tu veux nous faire la guerre boy, tu fais la queue 78 Mantes-la', fonce-dé a la beuh Mais qu'ils se battyman, qu'ils se battyman frère On a d'la maille négro, on a des armes à feu Tu veux nous faire la guerre boy, tu fais la queue 78 Mantes-la', fonce-dé a la beuh Mais qu'ils se battyman, qu'ils se battyman frère Ouais c'est le VF Gang l'union HP Ghetto Fabulous Gang Orosko ...</t>
+          <t>On a d'la maille négro, on a des armes à feu Tu veux nous faire la guerre boy, tu fais la queue 78 Mantes-la', fonce-dé a la beuh Mais qu'ils se battyman, qu'ils se battyman frère On a d'la maille négro, on a des armes à feu Tu veux nous faire la guerre boy, tu fais la queue 78 Mantes-la', fonce-dé a la beuh Mais qu'ils se battyman, qu'ils se battyman frère J'baisse pas le kefro, même si j'ai pas d'kefri J'ai le R.A.P qui kefo, les trous de balles et les kefli Rap criminel boy, de nous faut qu'tu t'méfies Nous, tester au mic, mec oublie ce défi Très loin dêtre fashion et encore moins facho Mais l'R.A.P c'est Hashum y a trop de putes et d'travlo J'suis pas une re-sta, j'rap pour mes frères au reschta Pour Alpha 5.20 U. Hp la beuh et ses rastas Man qu'est-ce t'as j'rap ghetto comme Old Dirty Bastard J'représente le 7.8 l'Africa, mes potes et puis basta Donc depuis ma naissance moi j'étais déjà mort Décapité à Bagdad, frère mate le décor Ils demandent aux porcs c'est quoi l'prix d'ma vie Et ma rime, c'est violence, drogues, mailles, homophobie Celui qui vit dans la peur va mourir comme un lâche Dans les écritures saintes, ma vérité est palpable Ma patience a des limites et ma haine justifiable Bloc 93 fréro c'est moi l'boss Tu peux m'voir aux 3000, tu peux m'voir aux Bedottes Mais jamais avec les keufs si j'ai pas les menottes Le courage des anciens, mais j'suis pas un quin-re Vicieux, itinéraire de jeune noir ambitieux J'ai pas peur d'mourir, moi, j'ai fait mes prières Avant d'aller dormir, à Bondy la Briere C'est Alpha 5.20, j'fais pas de t'minik Et j'fume des gares-ci, gros, qu'on m'ramène de Dominique Les renois sont des rookies, camés comme le Pookie Veulent jouer les gangsters, ils regardent New Jack City Ninho Brown en personne, mais changent de géographie Sale 93 département de trafic Union Hp le blase c'est, n'essaie pas de clasher On arrive trop fâchés, on a trouvé l'accès Percer l'abcès pour nos talents gâchés On va péter, slasher pour nos frères attachés Le truc, c'est d'avoir un peu d'succès, sans trahir sans sucer Pour la rime, la gloire même sans succès Élémentaire, Loopy, Essely enterrent Tous les wacks MC'S à terre pour le Ghetto Fab les vrais frères Soldats d'la rime préparez les pare-balles, y a des décès par balles Des victimes à terre qu'on enterre par quatre Issus d'un endroit où les gosses Te mettront bien des coups de crosses gratos Ici, on veut tous ces putains d'pesos Mantes-la-Jolie Soit pas étonné si on est si insolents, dans nos lyrics MC quand j'viens chez toi ta go nous suce la bite Mantes-la-Jolie Fier de ma ville, ici ça deal, ici kill, ici c'est pire qu'un asile débile 78 On a connu les guerres, mais il nous manque le succès Ici pétés au sky, les flics cherchent de quoi fumer 78 Le ralice, c'est la première chose pour chaque ennemi complice T'as beau crier, t'as beau crier police On baise les flics Y a qu'ici que Sarkozy prend ses jambes à son cou Chirac mange des mollards, Alpha demande à mes gars On baise les flics Là où des frères nous soutiennent, et d'autres veulent nous ken Coincés dans un monopole rempli de haine Mantes-la-Jolie C'est dans la BX à Diabolo que j'cherche l'inspi Comme DJ Ready D accroché à mon joint 78 Nous, on respecte tout ce qui est père mère Cache ton oin-j y à les bons côtés, croit pas qu'on flaire Mantes-la-Jolie On est aussi respectueux devant une mère ou un vieux père Crois pas qu'on flaire, cache ton oin-j devant les petits frères Mantes-la-Jolie Y a plus de frères en taule que dehors dans cette Gaule Contrôles ras-le-bol, la fume l'alcool Les go qui t'donnent la gaule Mantes-la-Jolie 2005, M.L.J, capitale des braquos J'dédicace à tout nos refrés derrière les barreaux On a d'la maille négro, on a des armes à feu Tu veux nous faire la guerre boy, tu fais la queue 78 Mantes-la', fonce-dé a la beuh Mais qu'ils se battyman, qu'ils se battyman frère On a d'la maille négro, on a des armes à feu Tu veux nous faire la guerre boy, tu fais la queue 78 Mantes-la', fonce-dé a la beuh Mais qu'ils se battyman, qu'ils se battyman frère Ouais c'est le VF Gang l'union HP Ghetto Fabulous Gang Orosko ...</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Des exclus sur des instrus T'aimes pas ce que je ais-f, pourquoi vouloir qu'on me baise, t'es une racaille ? Dans mon staff y'a des tasses, y'a des tess, c'est pas du rap pour ess' C'est du french touch ... voici le king entouré de fous cavaliers pions Échec et mat ... Pendant des années fréquenté des dames Fils en Dolce Gabbana ... Fait d'ambition extrême ... Vivre sa vie ou mourir comme un autre Négro moi j'ai grandi au milieu des pauvrs Des rêves brisés en bas ds Champs Elysées Après la pluie c'est l'orage c'est ça qu'ils nous prédisaient ... Après les chaînes les menottes c'est ça qu'ils nous prédisaientYou might also like</t>
+          <t>Des exclus sur des instrus T'aimes pas ce que je ais-f, pourquoi vouloir qu'on me baise, t'es une racaille ? Dans mon staff y'a des tasses, y'a des tess, c'est pas du rap pour ess' C'est du french touch ... voici le king entouré de fous cavaliers pions Échec et mat ... Pendant des années fréquenté des dames Fils en Dolce Gabbana ... Fait d'ambition extrême ... Vivre sa vie ou mourir comme un autre Négro moi j'ai grandi au milieu des pauvrs Des rêves brisés en bas ds Champs Elysées Après la pluie c'est l'orage c'est ça qu'ils nous prédisaient ... Après les chaînes les menottes c'est ça qu'ils nous prédisaient</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Je vois pas la lumière du jour et je sais pas quel jour on est Mon chemin c'est des marécages, la route n'est pas goudronnée J'ai de l'afghan, du paki mais j'ai pas de poudre au nez Taux élevé de THC, sûr que ça va te foudroyer J'ai les manches retroussées car y'a trop de porcs à mes trousses Y'a qu'au fin fond de mon bled que là tu pourras me ver-trou Démarre le moteur du V12, on accepte pas de pédale douce Quand t'as ls roues dans la boue, attends toi qu ça éclabousse Wesh parle bien avec ta bouche au tribunal de Boboch' Ton baveux balourd d'office arrive les mains dans les poches Ce son là c'est pour mes apaches qui se prennent pas pour Al Pac' Même installé au Cap d'Agde dans ma tête c'est Bagdad Petit frère d'Oussama soit ça casse ou ça marche On se met bien on s'acharne et on s'endort dans le vacarme C'est le ghetto qui parle car j'ai le ghetto dans l'âme Vraiment tout ce qu'on réclame c'est l'ordre et le calme Avant le 11 septembre j'étais avec Oussama Je préparais les bonbonnes pour niquer la CIA Crasher Montparnasse, crasher la Défense Venu venger l'Afrique et ses victimes innocentes Avant le 11 septembre j'étais avec Oussama Je préparais les bonbonnes pour niquer la CIA Crasher Montparnasse, crasher la Défense Venu venger l'Afrique et ses victimes innocentes You might also like Autour de nous trop de poucaves de fils de pute Font des appels anonymes et parlent de nos transactions aux stups Jamais jamais je baisserai mon pantalon Même si je n'avais pas le talent Les gros travelots d'MC's mettent des talons Alors que chez eux c'est leur pute qui met le caleçon Derrière le micro ils nous font croire qu'ils bibi des tonnes de pilon ... Ze-Ze-Zehef Morsay Alpha Car c'est nous les fils d'Oussama Avant le 11 septembre j'étais avec Oussama Je préparais les bonbonnes pour niquer la CIA Crasher Montparnasse, crasher la Défense Venu venger l'Afrique et ses victimes innocentes Avant le 11 septembre j'étais avec Oussama Je préparais les bonbonnes pour niquer la CIA Crasher Montparnasse, crasher la Défense Venu venger l'Afrique et ses victimes innocentes Celle ci pour l'Afrique, celle ci pour l'Asie Petit frère d'Oussama là où t'es longue vie Celle ci pour l'Afrique, celle ci pour l'Asie Petit frère d'Oussama là où t'es longue vie Le Coran ne rentre pas dans la tête d'une poule Après mon passage tout leur monde s'écroule Dakar crève la dalle négro ça c'est vrai Y'a pas encore de Nutella dans nos petits déjeuners On a dit aux colombiens Donnez nous de la dope Depuis qu'ils nous ont claqué frère les portes de l'Europe On arrive en masse bientôt 2 milliards Sans exagérer frère plus nombreux que les cafards Et ma haine n'a égal que leur ministère D'identité nationale ils veulent remplir leurs charters ...</t>
+          <t>Je vois pas la lumière du jour et je sais pas quel jour on est Mon chemin c'est des marécages, la route n'est pas goudronnée J'ai de l'afghan, du paki mais j'ai pas de poudre au nez Taux élevé de THC, sûr que ça va te foudroyer J'ai les manches retroussées car y'a trop de porcs à mes trousses Y'a qu'au fin fond de mon bled que là tu pourras me ver-trou Démarre le moteur du V12, on accepte pas de pédale douce Quand t'as ls roues dans la boue, attends toi qu ça éclabousse Wesh parle bien avec ta bouche au tribunal de Boboch' Ton baveux balourd d'office arrive les mains dans les poches Ce son là c'est pour mes apaches qui se prennent pas pour Al Pac' Même installé au Cap d'Agde dans ma tête c'est Bagdad Petit frère d'Oussama soit ça casse ou ça marche On se met bien on s'acharne et on s'endort dans le vacarme C'est le ghetto qui parle car j'ai le ghetto dans l'âme Vraiment tout ce qu'on réclame c'est l'ordre et le calme Avant le 11 septembre j'étais avec Oussama Je préparais les bonbonnes pour niquer la CIA Crasher Montparnasse, crasher la Défense Venu venger l'Afrique et ses victimes innocentes Avant le 11 septembre j'étais avec Oussama Je préparais les bonbonnes pour niquer la CIA Crasher Montparnasse, crasher la Défense Venu venger l'Afrique et ses victimes innocentes Autour de nous trop de poucaves de fils de pute Font des appels anonymes et parlent de nos transactions aux stups Jamais jamais je baisserai mon pantalon Même si je n'avais pas le talent Les gros travelots d'MC's mettent des talons Alors que chez eux c'est leur pute qui met le caleçon Derrière le micro ils nous font croire qu'ils bibi des tonnes de pilon ... Ze-Ze-Zehef Morsay Alpha Car c'est nous les fils d'Oussama Avant le 11 septembre j'étais avec Oussama Je préparais les bonbonnes pour niquer la CIA Crasher Montparnasse, crasher la Défense Venu venger l'Afrique et ses victimes innocentes Avant le 11 septembre j'étais avec Oussama Je préparais les bonbonnes pour niquer la CIA Crasher Montparnasse, crasher la Défense Venu venger l'Afrique et ses victimes innocentes Celle ci pour l'Afrique, celle ci pour l'Asie Petit frère d'Oussama là où t'es longue vie Celle ci pour l'Afrique, celle ci pour l'Asie Petit frère d'Oussama là où t'es longue vie Le Coran ne rentre pas dans la tête d'une poule Après mon passage tout leur monde s'écroule Dakar crève la dalle négro ça c'est vrai Y'a pas encore de Nutella dans nos petits déjeuners On a dit aux colombiens Donnez nous de la dope Depuis qu'ils nous ont claqué frère les portes de l'Europe On arrive en masse bientôt 2 milliards Sans exagérer frère plus nombreux que les cafards Et ma haine n'a égal que leur ministère D'identité nationale ils veulent remplir leurs charters ...</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Quand les pleurs sont bouleversés par les souffrances Quand la peur surgit, arrive dans tous les sens Y'a que ton côté man n3al sheytan qui t'épaule Y'a que ton mental sur qui tu comptes et qui te fera vivre en taule Nous parle pas de chance, de rêve ou de projet Chez nous c'est la violence, les traîtres et les drogués 24 balais passés dans la violence et cette pute d'injustice 24 balles que tu peux te prendre pour une histoire de biz J'écris, j'écris ma haine sur ce putain de disque Je prie pour éviter tous les dangers et les risques On sait d'où on vient c'est hami Nique la sère-mi, les ennemis, le tard-mi La mort nous guette, à tout moment se retrouve devant ton seuil L'amour nous gâte, le lendemain elle fait son deuil J'viens de là où les frères militent, militent De là ou on échappe aux menottes, de là où l'argent n'est pas un mérite A quoi ressemble ta vie ? Frère la mienne est vraie Si les renois veulent ma vie, mourir je suis prêt Toutes façons on sait que les bons meurent jeunes Alors si je cane, qu'on m'enterre avec mon gun A quoi ressemble ta vie ? Frère la mienne est vraie Si les renois veulent ma vie, mourir je suis prêt Toutes façons on sait que les bons meurent jeunes Alors si je cane, qu'on m'enterre avec mon gun You might also like West Side Criminal, que des flingues et des battes Les keufs font des barrages, interdisent nos plaques On les prend en tournante, pour nous c'est juste des chattes Et si embrouille y'a, ça fera RATATATA 2 heures du mat', mange une crêpe à Montmartre Les autostoppeuses je les ramène à la cave Seine-Saint-Denis, Val d'Oise on est les princes de la ville Baise plein de tasspés dans nos automobiles File l'amour parfait entre crime et délit Marijuana, alcool largement on débite C'est pour tous nos petits frères qui commettent des larcins Devant les cars de CRS envoient des parpaings A Noël jamais reçu de cadeau sous le sapin Victime car l'Etat a le mot de la fin On trouve la vie trop courte, on est mort depuis le début Ils s'étonnent après qu'on soit tous barbus A quoi ressemble ta vie ? Frère la mienne est vraie Si les renois veulent ma vie, mourir je suis prêt Toutes façons on sait que les bons meurent jeunes Alors si je cane, qu'on m'enterre avec mon gun A quoi ressemble ta vie ? Frère la mienne est vraie Si les renois veulent ma vie, mourir je suis prêt Toutes façons on sait que les bons meurent jeunes Alors si je cane, qu'on m'enterre avec mon gun ... A quoi ressemble ta vie ? Frère la mienne est vraie Si les renois veulent ma vie, mourir je suis prêt Toutes façons on sait que les bons meurent jeunes Alors si je cane, qu'on m'enterre avec mon gun A quoi ressemble ta vie ? Frère la mienne est vraie Si les renois veulent ma vie, mourir je suis prêt Toutes façons on sait que les bons meurent jeunes Alors si je cane, qu'on m'enterre avec mon gun Traîne sur Paname avec ... J'mets des bananes j'suis un Z de Queensbridge Chez moi tout se vend tout se téache ... Si t'as un plan mets moi au jus Et si tu veux me boycott j'vais faire du sale sur ta jupe ...</t>
+          <t>Quand les pleurs sont bouleversés par les souffrances Quand la peur surgit, arrive dans tous les sens Y'a que ton côté man n3al sheytan qui t'épaule Y'a que ton mental sur qui tu comptes et qui te fera vivre en taule Nous parle pas de chance, de rêve ou de projet Chez nous c'est la violence, les traîtres et les drogués 24 balais passés dans la violence et cette pute d'injustice 24 balles que tu peux te prendre pour une histoire de biz J'écris, j'écris ma haine sur ce putain de disque Je prie pour éviter tous les dangers et les risques On sait d'où on vient c'est hami Nique la sère-mi, les ennemis, le tard-mi La mort nous guette, à tout moment se retrouve devant ton seuil L'amour nous gâte, le lendemain elle fait son deuil J'viens de là où les frères militent, militent De là ou on échappe aux menottes, de là où l'argent n'est pas un mérite A quoi ressemble ta vie ? Frère la mienne est vraie Si les renois veulent ma vie, mourir je suis prêt Toutes façons on sait que les bons meurent jeunes Alors si je cane, qu'on m'enterre avec mon gun A quoi ressemble ta vie ? Frère la mienne est vraie Si les renois veulent ma vie, mourir je suis prêt Toutes façons on sait que les bons meurent jeunes Alors si je cane, qu'on m'enterre avec mon gun West Side Criminal, que des flingues et des battes Les keufs font des barrages, interdisent nos plaques On les prend en tournante, pour nous c'est juste des chattes Et si embrouille y'a, ça fera RATATATA 2 heures du mat', mange une crêpe à Montmartre Les autostoppeuses je les ramène à la cave Seine-Saint-Denis, Val d'Oise on est les princes de la ville Baise plein de tasspés dans nos automobiles File l'amour parfait entre crime et délit Marijuana, alcool largement on débite C'est pour tous nos petits frères qui commettent des larcins Devant les cars de CRS envoient des parpaings A Noël jamais reçu de cadeau sous le sapin Victime car l'Etat a le mot de la fin On trouve la vie trop courte, on est mort depuis le début Ils s'étonnent après qu'on soit tous barbus A quoi ressemble ta vie ? Frère la mienne est vraie Si les renois veulent ma vie, mourir je suis prêt Toutes façons on sait que les bons meurent jeunes Alors si je cane, qu'on m'enterre avec mon gun A quoi ressemble ta vie ? Frère la mienne est vraie Si les renois veulent ma vie, mourir je suis prêt Toutes façons on sait que les bons meurent jeunes Alors si je cane, qu'on m'enterre avec mon gun ... A quoi ressemble ta vie ? Frère la mienne est vraie Si les renois veulent ma vie, mourir je suis prêt Toutes façons on sait que les bons meurent jeunes Alors si je cane, qu'on m'enterre avec mon gun A quoi ressemble ta vie ? Frère la mienne est vraie Si les renois veulent ma vie, mourir je suis prêt Toutes façons on sait que les bons meurent jeunes Alors si je cane, qu'on m'enterre avec mon gun Traîne sur Paname avec ... J'mets des bananes j'suis un Z de Queensbridge Chez moi tout se vend tout se téache ... Si t'as un plan mets moi au jus Et si tu veux me boycott j'vais faire du sale sur ta jupe ...</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Mais quelle est la vie d'un caïd de Dakar ? Tous célèbrent la vie et j'allume des cigares Pour l'honneur négro moi je défie la mort Peu importe la maille je veux le respect d'abord Devant le port de Dakar j'suis avec des amis Et j'attends un container en provenance de Miami On a de la colombienne péruvienne nectar ... les chiens de la douane Je glisse une liasse à un flic corrompu Eh tonton fais comme si t'avais rien vu La famine est trop loin moi je gère la crise Société écran Ghetto Fabulous Biz J'ai les mains en sang comme Vladimir Poutine Avec des pierres précieuses quand je sors de la mine Angola Mozambique jusqu'à la Sierra Leone Autoroute de pillard cherche le blood diamond Soweto lève le flingue bad boy Et Dakar ouvre le feu bad boy ... Tah les affranchis moi j'suis comme Boli J'aime pas les ... j'aime pas les on dit Les actrices de porno dès la nuit tombée Elles ont des airbags et des lourds tarpés Nagent dans le plaisir je les appelle des sirènes Moi j'suis qu'un prédateur qui veut juste tout ken Piétiner les colons à la Robert Mugabe Puis leur dire après Quittez le Zimbabwe ! Au dessus des lois African Gangster African outlaw fait peur à Hitler ...You might also like</t>
+          <t>Mais quelle est la vie d'un caïd de Dakar ? Tous célèbrent la vie et j'allume des cigares Pour l'honneur négro moi je défie la mort Peu importe la maille je veux le respect d'abord Devant le port de Dakar j'suis avec des amis Et j'attends un container en provenance de Miami On a de la colombienne péruvienne nectar ... les chiens de la douane Je glisse une liasse à un flic corrompu Eh tonton fais comme si t'avais rien vu La famine est trop loin moi je gère la crise Société écran Ghetto Fabulous Biz J'ai les mains en sang comme Vladimir Poutine Avec des pierres précieuses quand je sors de la mine Angola Mozambique jusqu'à la Sierra Leone Autoroute de pillard cherche le blood diamond Soweto lève le flingue bad boy Et Dakar ouvre le feu bad boy ... Tah les affranchis moi j'suis comme Boli J'aime pas les ... j'aime pas les on dit Les actrices de porno dès la nuit tombée Elles ont des airbags et des lourds tarpés Nagent dans le plaisir je les appelle des sirènes Moi j'suis qu'un prédateur qui veut juste tout ken Piétiner les colons à la Robert Mugabe Puis leur dire après Quittez le Zimbabwe ! Au dessus des lois African Gangster African outlaw fait peur à Hitler ...</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Hé man tout ce que j'écoute c'est Ben Laden Music Anti-porc renoi appelle ça Crack Music De quoi faire kiffer mes gangsters et mes salauds Ceux qui font du business font briller mon ghetto What-up Hé man tout ce que j'écoute c'est Ben Laden Music Anti-porc renoi appelle ça Crack Music De quoi faire kiffer mes gangsters et mes salauds Ceux qui font du business font briller mon ghetto What-up Boy arrête ton cinéma boy arrête la comédie Moi je te dit que t'es pas un vrai ça c'est juste mon point de vue Négro fuck ton casier, viens ter-ma l'curriculum Ben Laden Music aux puces et toujours platinum Puis éteins la lumière, sors du bloc, fais d'la maille frère Grand boubou en teflon Alpha reste un gangster Qu'est ce tu veux du crack frère ? 30E c'est l'gramme frère Lâche la maille puis après ça moi je te dis tu t'casses négro Provenance illicite, les flingues sont Yougoslaves Nuit glaciale, quand je dis meurtre, dis bonjour à Borislav Moi j'pétarde à tout va même pas peur des porc-épic Peuvent tous niquer leurs mères pour moi c'est juste des fils de putes Fil de putes, fils de putes nos ambiances sont volcaniques 93 clic clic bla géographie Balkanique C'est Alpha le boss des boss, yalar des kalachnikovs Dans un état éthylique pas une goute de Smirnoff Immatriculé ruskov mais les douilles sont bilingues Dakar peine capitale, t'ouvre les veines comme une seringue Moi je tire sur les négro puis j'attends qu'ils ri-ripostent Hé posté devant la brinks avec Holo-Holocost You might also like Hé man tout ce que j'écoute c'est Ben Laden Music Anti-porc renoi appelle ça Crack Music De quoi faire kiffer mes gangsters et mes salauds Ceux qui font du business font briller mon ghetto What-up Hé man tout ce que j'écoute c'est Ben Laden Music Anti-porc renoi appelle ça Crack Music De quoi faire kiffer mes gangsters et mes salauds Ceux qui font du business font briller mon ghetto What-up Si ton biz fonctionne mal qu'on te dise que ton trafic n'a plus le moral Écoute du Ben Laden Music c'est ghetto fab mentalité brutal C'est physique, c'est mental, c'est tout ce qui fait que t'as la dalle Ben Laden Music anti-pédale à scandale Je convois jamais de coke, dans sa barbe même après une visite médicale Il reste propre comme Avant d'rapper viennent salir le hip hop Galope grosse salope y a Ben Laden avec ses gants Qui vient piller les Fnac et ses financements Une grosse nace-me pour les Etats-Unis, les maisons de disques Quand ça pète ils veulent discuter Ben Laden Music ne discute pas Si t'as le cul entre deux bombes cherche pas Les deux sont chargées tinquiète pas Nos banlieues sont des bunkers nos caves ont les connait par cur Entre casse-cous cherche moi c'est game-on Hé man tout ce que j'écoute c'est Ben Laden Music Anti-porc renoi appelle ça Crack Music De quoi faire kiffer mes gangsters et mes salauds Ceux qui font du business font briller mon ghetto Hé man tout ce que j'écoute c'est Ben Laden Music Anti-porc renoi appelle ça Crack Music De quoi faire kiffer mes gangsters et mes salauds Ceux qui font du business font briller mon ghetto What-up Dans ma vie ou sur, l'texte, la brinks s'fait viser Trop d'anciens sont sous Butex, par la rue, baisés Baisés BL Music, enculé, j'te le dis ouvertement j'aimerais reprendre l'collège Juste pour gifler deux-trois profs, ca m'aiderait à mieux ronfler Mais bouffe-les tes bracelets sale condé J'ai l'flow gonflé comme la basse du caisson Comme un banlieusard en GAV Garçon, chargés seront les gares-ci Dix de seum, dans c'putain d'caisson Les yeux grillés comme un vil-ci, ici tonton hey On a tellement l'habitude, ça fait plus vraiment mal quand quelqu'un béton Attitude, attitude caille-ra, banlieusard, voyou, Ben Laden Music grand boubou, les travs, c'est à Boubou Ici, c'est Clichy-sous-Bois, Montfermeil Dans l'hall, toujours debout Hé man tout ce que j'écoute c'est Ben Laden Music Anti-porc renoi appelle ça Crack Music De quoi faire kiffer mes gangsters et mes salauds Ceux qui font du business font briller mon ghetto Oh yeah Hey yo George Bush mec Nous on sait là où se cache Oussama mec Mais on va jamais te l'dire boy 93 hospitalité frère Ça c'est pour tous les boys qui font de la Ben Laden Music man Maroc stick frère Alpha Co frère Co Tous les boys qui sont d'la racaille frère Tous les petits groupes du 93 frère Tous les boys man, qui ont de la peine mon frère, de sortir leur CD man Ben Laden Music yeah Faboulous Gang Ghetto Faboulous Gang</t>
+          <t>Hé man tout ce que j'écoute c'est Ben Laden Music Anti-porc renoi appelle ça Crack Music De quoi faire kiffer mes gangsters et mes salauds Ceux qui font du business font briller mon ghetto What-up Hé man tout ce que j'écoute c'est Ben Laden Music Anti-porc renoi appelle ça Crack Music De quoi faire kiffer mes gangsters et mes salauds Ceux qui font du business font briller mon ghetto What-up Boy arrête ton cinéma boy arrête la comédie Moi je te dit que t'es pas un vrai ça c'est juste mon point de vue Négro fuck ton casier, viens ter-ma l'curriculum Ben Laden Music aux puces et toujours platinum Puis éteins la lumière, sors du bloc, fais d'la maille frère Grand boubou en teflon Alpha reste un gangster Qu'est ce tu veux du crack frère ? 30E c'est l'gramme frère Lâche la maille puis après ça moi je te dis tu t'casses négro Provenance illicite, les flingues sont Yougoslaves Nuit glaciale, quand je dis meurtre, dis bonjour à Borislav Moi j'pétarde à tout va même pas peur des porc-épic Peuvent tous niquer leurs mères pour moi c'est juste des fils de putes Fil de putes, fils de putes nos ambiances sont volcaniques 93 clic clic bla géographie Balkanique C'est Alpha le boss des boss, yalar des kalachnikovs Dans un état éthylique pas une goute de Smirnoff Immatriculé ruskov mais les douilles sont bilingues Dakar peine capitale, t'ouvre les veines comme une seringue Moi je tire sur les négro puis j'attends qu'ils ri-ripostent Hé posté devant la brinks avec Holo-Holocost Hé man tout ce que j'écoute c'est Ben Laden Music Anti-porc renoi appelle ça Crack Music De quoi faire kiffer mes gangsters et mes salauds Ceux qui font du business font briller mon ghetto What-up Hé man tout ce que j'écoute c'est Ben Laden Music Anti-porc renoi appelle ça Crack Music De quoi faire kiffer mes gangsters et mes salauds Ceux qui font du business font briller mon ghetto What-up Si ton biz fonctionne mal qu'on te dise que ton trafic n'a plus le moral Écoute du Ben Laden Music c'est ghetto fab mentalité brutal C'est physique, c'est mental, c'est tout ce qui fait que t'as la dalle Ben Laden Music anti-pédale à scandale Je convois jamais de coke, dans sa barbe même après une visite médicale Il reste propre comme Avant d'rapper viennent salir le hip hop Galope grosse salope y a Ben Laden avec ses gants Qui vient piller les Fnac et ses financements Une grosse nace-me pour les Etats-Unis, les maisons de disques Quand ça pète ils veulent discuter Ben Laden Music ne discute pas Si t'as le cul entre deux bombes cherche pas Les deux sont chargées tinquiète pas Nos banlieues sont des bunkers nos caves ont les connait par cur Entre casse-cous cherche moi c'est game-on Hé man tout ce que j'écoute c'est Ben Laden Music Anti-porc renoi appelle ça Crack Music De quoi faire kiffer mes gangsters et mes salauds Ceux qui font du business font briller mon ghetto Hé man tout ce que j'écoute c'est Ben Laden Music Anti-porc renoi appelle ça Crack Music De quoi faire kiffer mes gangsters et mes salauds Ceux qui font du business font briller mon ghetto What-up Dans ma vie ou sur, l'texte, la brinks s'fait viser Trop d'anciens sont sous Butex, par la rue, baisés Baisés BL Music, enculé, j'te le dis ouvertement j'aimerais reprendre l'collège Juste pour gifler deux-trois profs, ca m'aiderait à mieux ronfler Mais bouffe-les tes bracelets sale condé J'ai l'flow gonflé comme la basse du caisson Comme un banlieusard en GAV Garçon, chargés seront les gares-ci Dix de seum, dans c'putain d'caisson Les yeux grillés comme un vil-ci, ici tonton hey On a tellement l'habitude, ça fait plus vraiment mal quand quelqu'un béton Attitude, attitude caille-ra, banlieusard, voyou, Ben Laden Music grand boubou, les travs, c'est à Boubou Ici, c'est Clichy-sous-Bois, Montfermeil Dans l'hall, toujours debout Hé man tout ce que j'écoute c'est Ben Laden Music Anti-porc renoi appelle ça Crack Music De quoi faire kiffer mes gangsters et mes salauds Ceux qui font du business font briller mon ghetto Oh yeah Hey yo George Bush mec Nous on sait là où se cache Oussama mec Mais on va jamais te l'dire boy 93 hospitalité frère Ça c'est pour tous les boys qui font de la Ben Laden Music man Maroc stick frère Alpha Co frère Co Tous les boys qui sont d'la racaille frère Tous les petits groupes du 93 frère Tous les boys man, qui ont de la peine mon frère, de sortir leur CD man Ben Laden Music yeah Faboulous Gang Ghetto Faboulous Gang</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Han, han, sisi, sisi, ouais ouais Alpha 4025 Yo Après la mif j'aime la bicrave La maille et les flingues juste avant les chattes J'me suis fait tout seul sans suce bitage Vendu d'la came sous des passages Obscure, ma rime reflète mon vécu Fait des gros trous comme à la sécu Alpha 5.20 au nombre de paix Sortit de l'ordinaire tel un conte de fées Vas-y négro, tu peux critiquer Mais juste après, tu viendras sucer T'a rien saisis t'es qu'un étranger Fantasmant sur la vie d'cité Le droit d'savoir boy et ces clichés MC sans quête, exclusivité Nos conditions d'vie se sont dégradées Mais j'suis pas la pour me lamenter Ma priorité frère, c'est d'éviter D'vivre comme une star trop médiatisée Puis-je vivre négro sans être harcelé J'veux juste bicrave, pas ton amitié Sert moi juste la main puis après rhlass J'aime pas les paillettes, j'aime pas les strass Abandonné tel un enfant d'la DASS J'me suis cranponné au seigneur et sa grace You might also like Bicraveur substantiel, mailler, baiser, c'est l'essentiel Bicraveur, bicraveur moi j'suis qu'un putain de bicraveur Bicraveur substantiel, mailler, baiser, c'est l'essentiel Bicraveur, bicraveur moi j'suis qu'un putain de bicraveu Sisi, sisi, ouais, ouais négro Sur la vie de tout c'que tu veux négro, moi, j'suis un bicraveur Tu vois, c'est la appât du gain qui m'a conduit au rap cousin Tu vois y aurait pas de maille cousin, j'aurais même pas dit une putain d'bar cousin Tu vois mon attitude, ça été toujours été fuck le rap cousin Mais tu vois le hasard fait bien les choses khey J'ai rencontré des frérots cousin, on n'a pas grandi ensemble, mais le hasard l'a fait frère Moi, O'rosko Raricim, Shone, Ker éké Ei, l'indétrônable Ghetto Fabulous Gang, tu sais qui nous sommes cousin Et maintenant Hors La Loi Music, Sambastos, Lik-Ma Bledoss, VF gang et la famille est grande, cousin Mais les négros, ils savent qui j'suis cousin, un putain de solitaire cousin Ouais ouais, j'aime la solitude, j'aime pas mon frère, l'effet de groupe J'aime pas être avec plein de négros ça m'rend nerveux, cousin, fuck this shit Parce que les négros, ils font les bourrés, tu vois genre, ils sont en effet de groupe, gars, ils s'retrouvent le courage cousin Cousin si tu m'fais quelque chose, j'ai pas besoin d'envoyer quelqu'un pour te la faire J'viendrais chez toi, j'serais pas capuché, j'serais pas ganté, j'ferais juste ce que j'ai à faire Ce qui est bien à Dakar, c'est que nous, on est des vrais gangsters cousin Jsais bien, ils disent ouais dans l'rap il y a pas de gangster mais moi, j'suis un putain de gangster cousin Tu m'fais chose-quel' ? J'te fais chose-quel' Mais tu sais les bails, fuck mon frère, m'en bas les couilles d'où tu viens, m'en bas les couilles c'que t'as fait, tu respires le même air que moi cousin Tu saignes comme moi Vas-y cousin, reste tranquille hahahahahahahaha Vas-y cousin, reste tranquille hahahahahahahaha Reste tranquille renoi, reste tranquille renoi C'est tout, c'est tout Motherfucker, motherfucker</t>
+          <t>Han, han, sisi, sisi, ouais ouais Alpha 4025 Yo Après la mif j'aime la bicrave La maille et les flingues juste avant les chattes J'me suis fait tout seul sans suce bitage Vendu d'la came sous des passages Obscure, ma rime reflète mon vécu Fait des gros trous comme à la sécu Alpha 5.20 au nombre de paix Sortit de l'ordinaire tel un conte de fées Vas-y négro, tu peux critiquer Mais juste après, tu viendras sucer T'a rien saisis t'es qu'un étranger Fantasmant sur la vie d'cité Le droit d'savoir boy et ces clichés MC sans quête, exclusivité Nos conditions d'vie se sont dégradées Mais j'suis pas la pour me lamenter Ma priorité frère, c'est d'éviter D'vivre comme une star trop médiatisée Puis-je vivre négro sans être harcelé J'veux juste bicrave, pas ton amitié Sert moi juste la main puis après rhlass J'aime pas les paillettes, j'aime pas les strass Abandonné tel un enfant d'la DASS J'me suis cranponné au seigneur et sa grace Bicraveur substantiel, mailler, baiser, c'est l'essentiel Bicraveur, bicraveur moi j'suis qu'un putain de bicraveur Bicraveur substantiel, mailler, baiser, c'est l'essentiel Bicraveur, bicraveur moi j'suis qu'un putain de bicraveu Sisi, sisi, ouais, ouais négro Sur la vie de tout c'que tu veux négro, moi, j'suis un bicraveur Tu vois, c'est la appât du gain qui m'a conduit au rap cousin Tu vois y aurait pas de maille cousin, j'aurais même pas dit une putain d'bar cousin Tu vois mon attitude, ça été toujours été fuck le rap cousin Mais tu vois le hasard fait bien les choses khey J'ai rencontré des frérots cousin, on n'a pas grandi ensemble, mais le hasard l'a fait frère Moi, O'rosko Raricim, Shone, Ker éké Ei, l'indétrônable Ghetto Fabulous Gang, tu sais qui nous sommes cousin Et maintenant Hors La Loi Music, Sambastos, Lik-Ma Bledoss, VF gang et la famille est grande, cousin Mais les négros, ils savent qui j'suis cousin, un putain de solitaire cousin Ouais ouais, j'aime la solitude, j'aime pas mon frère, l'effet de groupe J'aime pas être avec plein de négros ça m'rend nerveux, cousin, fuck this shit Parce que les négros, ils font les bourrés, tu vois genre, ils sont en effet de groupe, gars, ils s'retrouvent le courage cousin Cousin si tu m'fais quelque chose, j'ai pas besoin d'envoyer quelqu'un pour te la faire J'viendrais chez toi, j'serais pas capuché, j'serais pas ganté, j'ferais juste ce que j'ai à faire Ce qui est bien à Dakar, c'est que nous, on est des vrais gangsters cousin Jsais bien, ils disent ouais dans l'rap il y a pas de gangster mais moi, j'suis un putain de gangster cousin Tu m'fais chose-quel' ? J'te fais chose-quel' Mais tu sais les bails, fuck mon frère, m'en bas les couilles d'où tu viens, m'en bas les couilles c'que t'as fait, tu respires le même air que moi cousin Tu saignes comme moi Vas-y cousin, reste tranquille hahahahahahahaha Vas-y cousin, reste tranquille hahahahahahahaha Reste tranquille renoi, reste tranquille renoi C'est tout, c'est tout Motherfucker, motherfucker</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Produit par la ... C'est Pikatchu A.K.A pierre précieuse comme une émeraude ... Bienvenue dans la jungle, j'avoue ça schlingue Les gens deviennent dingues pour rien ça bang bang bang Boum dans le rap je m'accroche comme une épingle Je prends l'instru comme munition et le micro comme un flingue Criminologie rap ma vie et ma peine 3 lettres Ghetto Fabulous Gang On va à la banque, on évite le shtar Mecs de tess cramés on est pas des stars Jugé à la barre, Nanterre ou Versailles Mantes la, Mureaux, Chanteloup racailles Vocifère la haine, gerbe sur les bleus Y'aura jamais de paix dans la street avec eux ...You might also like</t>
+          <t>Produit par la ... C'est Pikatchu A.K.A pierre précieuse comme une émeraude ... Bienvenue dans la jungle, j'avoue ça schlingue Les gens deviennent dingues pour rien ça bang bang bang Boum dans le rap je m'accroche comme une épingle Je prends l'instru comme munition et le micro comme un flingue Criminologie rap ma vie et ma peine 3 lettres Ghetto Fabulous Gang On va à la banque, on évite le shtar Mecs de tess cramés on est pas des stars Jugé à la barre, Nanterre ou Versailles Mantes la, Mureaux, Chanteloup racailles Vocifère la haine, gerbe sur les bleus Y'aura jamais de paix dans la street avec eux ...</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Stupides et mécréants parlent mal sur moi Négro, j'ai plus de couilles que tout ton département J'rase pas les murs, moi j'suis en bas des blocs Evite de trop l'ouvrir sinon j'te montre le bout du glock C'est Dakar Philosophie, fils de pute tu gobes Moi je bois du Pepsi, mes potes coupent de la coke Et les rues que je traverse sont remplies de faux types Remplies de fausses putes qui veulent niquer mon gazoil Mes voitures sont rapides et ma musique est lente Style de vie Gangsta, frère, c'est tout ce que je prêche Jusqu'au jour où j'crêve, Dakar au bout de ma langue Ou allaiter mon sang, Ghetto Gabulous Gang On a tous qu'un rêve, c'est de niquer Marianne Lui bicrave de la cèze devant la porte de Jean-Marie C'est de la dette coloniale, pas de l'argent sale Comparé à l'esclavage, moi, le crack c'est légal Et le petit Sarko, pour moi, n'est qu'une pédale Sa meuf se fait fourrer mais lui il reste àl Envie de tout baiser, les Judas veulent me freiner Et mes sapes à l'essence sont toujours imprégnées Me laisse pas au Panthéon, j'suis pas un vendu Ghetto Fabulous Gang, c'est la maille saison Et le hood c'est hood, et la tess c'est tess Ils viennent d'où ces renois, je les connais même pas Faudrait pas mélanger les lions et les chats Moi j'suis qu'un rageux à la recherche d'une proie Et le hood c'est hood, et la tess c'est tess Ils viennent d'où ces renois, je les connais même pas Faudrait pas mélanger les lions et les chats Moi j'suis qu'un rageux à la recherche d'une proie You might also like ...</t>
+          <t>Stupides et mécréants parlent mal sur moi Négro, j'ai plus de couilles que tout ton département J'rase pas les murs, moi j'suis en bas des blocs Evite de trop l'ouvrir sinon j'te montre le bout du glock C'est Dakar Philosophie, fils de pute tu gobes Moi je bois du Pepsi, mes potes coupent de la coke Et les rues que je traverse sont remplies de faux types Remplies de fausses putes qui veulent niquer mon gazoil Mes voitures sont rapides et ma musique est lente Style de vie Gangsta, frère, c'est tout ce que je prêche Jusqu'au jour où j'crêve, Dakar au bout de ma langue Ou allaiter mon sang, Ghetto Gabulous Gang On a tous qu'un rêve, c'est de niquer Marianne Lui bicrave de la cèze devant la porte de Jean-Marie C'est de la dette coloniale, pas de l'argent sale Comparé à l'esclavage, moi, le crack c'est légal Et le petit Sarko, pour moi, n'est qu'une pédale Sa meuf se fait fourrer mais lui il reste àl Envie de tout baiser, les Judas veulent me freiner Et mes sapes à l'essence sont toujours imprégnées Me laisse pas au Panthéon, j'suis pas un vendu Ghetto Fabulous Gang, c'est la maille saison Et le hood c'est hood, et la tess c'est tess Ils viennent d'où ces renois, je les connais même pas Faudrait pas mélanger les lions et les chats Moi j'suis qu'un rageux à la recherche d'une proie Et le hood c'est hood, et la tess c'est tess Ils viennent d'où ces renois, je les connais même pas Faudrait pas mélanger les lions et les chats Moi j'suis qu'un rageux à la recherche d'une proie ...</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Masta Masta. Seth Gueko Néochrome. Le Barillet plein. Sinik, Alibi Montana, Alpha 5.20 Yo yo, 2005, Tu m'appelles pour les keufs mec, tu t'es pas trompé Buena id au micro, mais dis-moi qui peut stopper J'aime pas les keufs, faut du rouge sur leurs gueules Alibi, Gueko, pour ça pas besoin de single Numéro de portable, numéro d'écrou Sale flic ripou, tu veux mon fusil à 12 coups Tu peux pas test mes amis, ma racaillerie Inspecteur de mes couilles, va te faire hara-kiri Crois-moi, ma voix recrache tout cquelle voit Mes gars sont derrière moi, me suivent comme un convoi A la Courneuve on a brulé le comico Demande à certains agents où sont passés leurs chicots Jsuis illicite, dans ma vie et dans mes textes Commissaire Moulin, vas-y viens bouffer mon sexe ! Pas la peine de rapper en mentant J'aime pas ces putains dflics, tant mieux si tu m'entends Ile de France banlieue, Chez nous c'est Boys in the Hood Juste moi et mes potes, on ssert les coudes Si y'a embrouille y'a embrouille on va pas fayoter J'ai pas peur de la police, jsais comment les niquer Ile de France banlieue, Chez nous c'est Boys in the Hood Juste moi et mes potes, on ssert les coudes Si y'a embrouille y'a embrouille on va pas fayoter J'ai pas peur de la police, jsais comment les niquer You might also like Ma vie srésume à faire des pesetas, laisser lEtat dans un piteux état Les tass, les baiser trash, et qules PDG clamsent Rien dconfidentiel, si ya des ke-fli au Paradis Sur ma vie quyaura du conflit dans lciel Gloire à Dieu ! Mon père nest pas une tapette de flic Jpeux trefuser un feat, mais pas une barquette de frites Aucune émotion face à un flic mourant Ces pédés mettent du coton pour avoir un slip moulant Jarpente les rues, à laffut des gros culs Reconnu comme Rocco nu Tu connais la répute, ma colère narrête plus Si un flic de touche, le choléra débute Ma bite fait fantasmer les flikettes cochonnes Pour ça quses collègues me matraquent au sol Plutôt qude rouler en Subaru Jpréfère rouler en Deux Chevaux avec un cadavre de flic sous la roue Ile de France banlieue, Chez nous c'est Boys in the Hood Juste moi et mes potes, on ssert les coudes Si y'a embrouille y'a embrouille on va pas fayoter J'ai pas peur de la police, jsais comment les niquer Ile de France banlieue, Chez nous c'est Boys in the Hood Juste moi et mes potes, on ssert les coudes Si y'a embrouille y'a embrouille on va pas fayoter J'ai pas peur de la police, jsais comment les niquer Tous mes amis m'appellent le tsunami Les flics me fouillent, le shit est planqué sous ma bite tant de choses à dire sur ma vie Quand les fumées nocives développent mon odorat Evite de clash car je ne suis pas ce gros connard de Matt Pokora Je voudrais juste rester debout Le trafic rapporte plus de soucis que de sous Le mitard et la geôle, le juge à mis la dose Dans mes aventures, j'ai beaucoup moins de chance qu'Indiana Jones Droit dans les yeux, que tu comprennes de quoi jparle Dans tier-quar un jour tu prends deux baffes, un jour tu prends deux balles Mes vieux démons me hantent, la délinquance me tente He yo ! La rue me plante, les amis disparus me manquent A regarder, je fais dla peine Tu peux crever dans ta cellule, le surveillant ne répond plus quand tu l'appelles La liberté ne sera jamais cantinable, aux élections du meilleur fils de pute le juge est candidat Ile de France banlieue, Chez nous c'est Boys in the Hood Juste moi et mes potes, on ssert les coudes Si y'a embrouille y'a embrouille on va pas fayoter J'ai pas peur de la police, jsais comment les niquer Ile de France banlieue, Chez nous c'est Boys in the Hood Juste moi et mes potes, on ssert les coudes Si y'a embrouille y'a embrouille on va pas fayoter J'ai pas peur de la police, jsais comment les niquer Yo yo ! Seth Gueko Néochrome. Masta Masta. 2005, jremets tout le monde d'accord. BLaaaah2</t>
+          <t>Masta Masta. Seth Gueko Néochrome. Le Barillet plein. Sinik, Alibi Montana, Alpha 5.20 Yo yo, 2005, Tu m'appelles pour les keufs mec, tu t'es pas trompé Buena id au micro, mais dis-moi qui peut stopper J'aime pas les keufs, faut du rouge sur leurs gueules Alibi, Gueko, pour ça pas besoin de single Numéro de portable, numéro d'écrou Sale flic ripou, tu veux mon fusil à 12 coups Tu peux pas test mes amis, ma racaillerie Inspecteur de mes couilles, va te faire hara-kiri Crois-moi, ma voix recrache tout cquelle voit Mes gars sont derrière moi, me suivent comme un convoi A la Courneuve on a brulé le comico Demande à certains agents où sont passés leurs chicots Jsuis illicite, dans ma vie et dans mes textes Commissaire Moulin, vas-y viens bouffer mon sexe ! Pas la peine de rapper en mentant J'aime pas ces putains dflics, tant mieux si tu m'entends Ile de France banlieue, Chez nous c'est Boys in the Hood Juste moi et mes potes, on ssert les coudes Si y'a embrouille y'a embrouille on va pas fayoter J'ai pas peur de la police, jsais comment les niquer Ile de France banlieue, Chez nous c'est Boys in the Hood Juste moi et mes potes, on ssert les coudes Si y'a embrouille y'a embrouille on va pas fayoter J'ai pas peur de la police, jsais comment les niquer Ma vie srésume à faire des pesetas, laisser lEtat dans un piteux état Les tass, les baiser trash, et qules PDG clamsent Rien dconfidentiel, si ya des ke-fli au Paradis Sur ma vie quyaura du conflit dans lciel Gloire à Dieu ! Mon père nest pas une tapette de flic Jpeux trefuser un feat, mais pas une barquette de frites Aucune émotion face à un flic mourant Ces pédés mettent du coton pour avoir un slip moulant Jarpente les rues, à laffut des gros culs Reconnu comme Rocco nu Tu connais la répute, ma colère narrête plus Si un flic de touche, le choléra débute Ma bite fait fantasmer les flikettes cochonnes Pour ça quses collègues me matraquent au sol Plutôt qude rouler en Subaru Jpréfère rouler en Deux Chevaux avec un cadavre de flic sous la roue Ile de France banlieue, Chez nous c'est Boys in the Hood Juste moi et mes potes, on ssert les coudes Si y'a embrouille y'a embrouille on va pas fayoter J'ai pas peur de la police, jsais comment les niquer Ile de France banlieue, Chez nous c'est Boys in the Hood Juste moi et mes potes, on ssert les coudes Si y'a embrouille y'a embrouille on va pas fayoter J'ai pas peur de la police, jsais comment les niquer Tous mes amis m'appellent le tsunami Les flics me fouillent, le shit est planqué sous ma bite tant de choses à dire sur ma vie Quand les fumées nocives développent mon odorat Evite de clash car je ne suis pas ce gros connard de Matt Pokora Je voudrais juste rester debout Le trafic rapporte plus de soucis que de sous Le mitard et la geôle, le juge à mis la dose Dans mes aventures, j'ai beaucoup moins de chance qu'Indiana Jones Droit dans les yeux, que tu comprennes de quoi jparle Dans tier-quar un jour tu prends deux baffes, un jour tu prends deux balles Mes vieux démons me hantent, la délinquance me tente He yo ! La rue me plante, les amis disparus me manquent A regarder, je fais dla peine Tu peux crever dans ta cellule, le surveillant ne répond plus quand tu l'appelles La liberté ne sera jamais cantinable, aux élections du meilleur fils de pute le juge est candidat Ile de France banlieue, Chez nous c'est Boys in the Hood Juste moi et mes potes, on ssert les coudes Si y'a embrouille y'a embrouille on va pas fayoter J'ai pas peur de la police, jsais comment les niquer Ile de France banlieue, Chez nous c'est Boys in the Hood Juste moi et mes potes, on ssert les coudes Si y'a embrouille y'a embrouille on va pas fayoter J'ai pas peur de la police, jsais comment les niquer Yo yo ! Seth Gueko Néochrome. Masta Masta. 2005, jremets tout le monde d'accord. BLaaaah2</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>À COMPLÉTERYou might also like</t>
+          <t>À COMPLÉTER</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Han, hey, wow, north side C'est l'bail du gangsta, OG Meurtrier, 93 de sortie Les flics fouillent ma voiture Espèrent trouver un gun Mon mode de vie est étrange J't'lai dit comme Baroude en solitaire telle une espèce en danger Instinct de survie mon flingue j'ai pas besoin de l'cacher Coronaire c'est la famille, C4X c'est la famille GFG, HLM, nique l reste j'ai pas d'ami Assoc' de malfrats t'imagin pas c'qu'on a sous les parquas Dans des endroits insalubres, planque le toss-ma 93 terre des morts vivants Dynamite leur tombe même quand on est aux arrivants on est les monuments Gros bonnets, caïds, juvénile délinquants Dans n'importe quel département on a un pied à terre Galoche pas les biatchs, on sait pas où leurs bouches trainent Matériel de guerre, viens nous chercher avec tes poulets La mort avant le déshonneur mais certains vont y rester Car peut tuer, la tradition Jamais trahir nos convictions Leur putain de fonction- Publique, n'est pas mon ambition You might also likeFrère !</t>
+          <t>Han, hey, wow, north side C'est l'bail du gangsta, OG Meurtrier, 93 de sortie Les flics fouillent ma voiture Espèrent trouver un gun Mon mode de vie est étrange J't'lai dit comme Baroude en solitaire telle une espèce en danger Instinct de survie mon flingue j'ai pas besoin de l'cacher Coronaire c'est la famille, C4X c'est la famille GFG, HLM, nique l reste j'ai pas d'ami Assoc' de malfrats t'imagin pas c'qu'on a sous les parquas Dans des endroits insalubres, planque le toss-ma 93 terre des morts vivants Dynamite leur tombe même quand on est aux arrivants on est les monuments Gros bonnets, caïds, juvénile délinquants Dans n'importe quel département on a un pied à terre Galoche pas les biatchs, on sait pas où leurs bouches trainent Matériel de guerre, viens nous chercher avec tes poulets La mort avant le déshonneur mais certains vont y rester Car peut tuer, la tradition Jamais trahir nos convictions Leur putain de fonction- Publique, n'est pas mon ambition Frère !</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Alpha 5.20 Sisi oui oui ! Oui oui! 59 g, F.A.R.I.D, wallas big boy Dakar 25 pharmacies, ghetto fab, cac 40, racaille Gizup, Gizup !! Frère !!! Fianso On mène une vie d'racaille, de délinquant d'puis enfant On baise la flicaille et met la France en sang On débarque du nord mec ta reconnus l'accent Alma-gare c'est l'Del Bor, ça raquette les passants Cest nous les racailles, sorties du ghetto Frère on veut dla maille mais l'état resserre l'étau Alors on crame le couteau et découpe la plaquette On prépare nos coups tôt, et sur notre dos ça enquête Il parait qu'on est dingue, qu'on sort d'une autre planète Le visage balafré ils disent quon nest pas net C'est l'59 grammes 2.0.0.7 Vas-y compte Am stram gram, au mic attaque au lance-roquette Sur rakaille 4 p4, fait tourner ta catin On la met a 4 pattes, pas là pour faire des câlins Clichy sous-bois, alma on fout l'halla Ghetto fab 5-9 9-3 ca fait pah pah !!! You might also likeWallas Dakar Wallas Dakar vs sarko, tu veux nous expulser Moi j'fais du rap 200 pulsions, comme cible sarko génération Wallas Dakar sur rakaille 4 ouvre le feu sans somation Violent comme une baffe d'un maton Coup d'batte a Messi, coup d'batte au maton Sarko décrit au talkie, Sierra Alpha Romeo Kilo Oméga Jaloux dnos alfas Romeo Opel oméga, j'fais l'appel à mes gars T'écrase comme un mégot, rêve du magot 5-9 100 giga, 59G, alpha 5.20, R.O.2.T.K Sort ton 47 AK faut du dégâts Trop tar-tar , bar-bar tirailleur berbère Sarko mon son t'casse les tympans, t'bouches tes artères Mon son t'fait mal comme l'uppercut d'hurricane carter Pour nous tu veux lcachot, nous couchez, nous cochez Nous faire avalez du cochon Alpha 5.20 refrain x2 Négros de banlieue on a des carabines Connecté avec des arabes et des asiatiques Nos citées dortoirs sont des pompes a frics On balance des frigos sur les cars des flics Yazoo Faut qu'ca saigne comme les porcs, moi jt'enseigne tout dabord, la rue c'est gore ça pue la taule et la mort Ça pue les stups la levée, l'héro les putes la levrette Le shit livrer ou vendu à la sauvette La coke sur lterrain, le glock près des reins Trop haineux handek a pas t'prendre un coup d'surin Et c'est sur hein ! , sur un beat j'pars comme une r1 Algérien pur et dur moi j'joue pas l'parrain Donc fait pas l'tare tu trouveras plus fou qu'toi Ta beau être carré, arme on t'baisera 59 Megra, c'est la haine qui rend ingrat Sa s'lit sur nos yeux putain sa d'viens ve-gra C'est un lyrical braquage YZ j'ai trop d'haine Quand jpense aux frères en cage qui par semaine rentre par centaines F.a.r.i.d L'alma là où on réside, là où mes frères se tuent a la résine Ou y'a pas d'putes en bas résille, que des 6.35 et des rafales de uzi , demande a 5.20 cousin on braque notre destins L'avenir est restreint on cavale comme merin Vendeur de barrettes sur l'terrain Roubaix 5.9.1.0.0 , paris 9.3 pour les bracos Sur rakaille ca mitraille , ca rafale les hatay Apelle la balistique pour ramasser les douilles quand ca tire Ficher au central , tes empreintes a lADN Les gyrophares on remplacer ehden violent la vie qu'on mène Trafiques d'armes et d'seum, traine les halls a couper J'décris s'couplet hardcore, comme un rail de cc Descente aux enfers, Roubaix on guette et on opère En évitant les barreaux, la gamelle, la galère Rafale de balles on t'enterre, à Clichy sous nos cagoules Qu'on magouille les keufs on les douilles 59 G Alpha 5.20 refrain x2 Négros de banlieue on a des carabines Connecté avec des arabes et des asiatiques Nos cités dortoirs sont des pompes à frics On balance des frigos sur les cars des flics Alpha 5.20 59 grammes et wallas Dakar Basané viking évasion d'barbare Eh ! Ta les gunzs ? Ta les cracks? Ta les tass en bas des blocks qui nous matent ? Zeubi y a pas d'maille ici tout l'monde veut per-ra tout le monde veut der-gra Dl hameçon moi j'arrache l'appât sans m'faire piéger moi je suis un cal-cha De l'alma cité les briques rouge ou les gangsters, négros bouge !! Alpha 5.20 refrain x2 Négros de banlieue on a des carabines Connecté avec des arabes et des asiatiques Nos cités dortoirs sont des pompes a frics On balance des frigos sur les cars des flics</t>
+          <t>Alpha 5.20 Sisi oui oui ! Oui oui! 59 g, F.A.R.I.D, wallas big boy Dakar 25 pharmacies, ghetto fab, cac 40, racaille Gizup, Gizup !! Frère !!! Fianso On mène une vie d'racaille, de délinquant d'puis enfant On baise la flicaille et met la France en sang On débarque du nord mec ta reconnus l'accent Alma-gare c'est l'Del Bor, ça raquette les passants Cest nous les racailles, sorties du ghetto Frère on veut dla maille mais l'état resserre l'étau Alors on crame le couteau et découpe la plaquette On prépare nos coups tôt, et sur notre dos ça enquête Il parait qu'on est dingue, qu'on sort d'une autre planète Le visage balafré ils disent quon nest pas net C'est l'59 grammes 2.0.0.7 Vas-y compte Am stram gram, au mic attaque au lance-roquette Sur rakaille 4 p4, fait tourner ta catin On la met a 4 pattes, pas là pour faire des câlins Clichy sous-bois, alma on fout l'halla Ghetto fab 5-9 9-3 ca fait pah pah !!! Wallas Dakar Wallas Dakar vs sarko, tu veux nous expulser Moi j'fais du rap 200 pulsions, comme cible sarko génération Wallas Dakar sur rakaille 4 ouvre le feu sans somation Violent comme une baffe d'un maton Coup d'batte a Messi, coup d'batte au maton Sarko décrit au talkie, Sierra Alpha Romeo Kilo Oméga Jaloux dnos alfas Romeo Opel oméga, j'fais l'appel à mes gars T'écrase comme un mégot, rêve du magot 5-9 100 giga, 59G, alpha 5.20, R.O.2.T.K Sort ton 47 AK faut du dégâts Trop tar-tar , bar-bar tirailleur berbère Sarko mon son t'casse les tympans, t'bouches tes artères Mon son t'fait mal comme l'uppercut d'hurricane carter Pour nous tu veux lcachot, nous couchez, nous cochez Nous faire avalez du cochon Alpha 5.20 refrain x2 Négros de banlieue on a des carabines Connecté avec des arabes et des asiatiques Nos citées dortoirs sont des pompes a frics On balance des frigos sur les cars des flics Yazoo Faut qu'ca saigne comme les porcs, moi jt'enseigne tout dabord, la rue c'est gore ça pue la taule et la mort Ça pue les stups la levée, l'héro les putes la levrette Le shit livrer ou vendu à la sauvette La coke sur lterrain, le glock près des reins Trop haineux handek a pas t'prendre un coup d'surin Et c'est sur hein ! , sur un beat j'pars comme une r1 Algérien pur et dur moi j'joue pas l'parrain Donc fait pas l'tare tu trouveras plus fou qu'toi Ta beau être carré, arme on t'baisera 59 Megra, c'est la haine qui rend ingrat Sa s'lit sur nos yeux putain sa d'viens ve-gra C'est un lyrical braquage YZ j'ai trop d'haine Quand jpense aux frères en cage qui par semaine rentre par centaines F.a.r.i.d L'alma là où on réside, là où mes frères se tuent a la résine Ou y'a pas d'putes en bas résille, que des 6.35 et des rafales de uzi , demande a 5.20 cousin on braque notre destins L'avenir est restreint on cavale comme merin Vendeur de barrettes sur l'terrain Roubaix 5.9.1.0.0 , paris 9.3 pour les bracos Sur rakaille ca mitraille , ca rafale les hatay Apelle la balistique pour ramasser les douilles quand ca tire Ficher au central , tes empreintes a lADN Les gyrophares on remplacer ehden violent la vie qu'on mène Trafiques d'armes et d'seum, traine les halls a couper J'décris s'couplet hardcore, comme un rail de cc Descente aux enfers, Roubaix on guette et on opère En évitant les barreaux, la gamelle, la galère Rafale de balles on t'enterre, à Clichy sous nos cagoules Qu'on magouille les keufs on les douilles 59 G Alpha 5.20 refrain x2 Négros de banlieue on a des carabines Connecté avec des arabes et des asiatiques Nos cités dortoirs sont des pompes à frics On balance des frigos sur les cars des flics Alpha 5.20 59 grammes et wallas Dakar Basané viking évasion d'barbare Eh ! Ta les gunzs ? Ta les cracks? Ta les tass en bas des blocks qui nous matent ? Zeubi y a pas d'maille ici tout l'monde veut per-ra tout le monde veut der-gra Dl hameçon moi j'arrache l'appât sans m'faire piéger moi je suis un cal-cha De l'alma cité les briques rouge ou les gangsters, négros bouge !! Alpha 5.20 refrain x2 Négros de banlieue on a des carabines Connecté avec des arabes et des asiatiques Nos cités dortoirs sont des pompes a frics On balance des frigos sur les cars des flics</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>De la bouche du métro au ter-ter du clando Pour nous coucher négro faudra c'lever tôt Mon ADN est partout dans les rues de Clicli J'ai les poches remplies de pierre c'est reparti comme E.T Les puces de Clicli notre plaque tournante On fait que de gonfler nos comptes en banque On Bi-Bicrave de tout d'la jelaba jusqu'au boubou On fait que du zebi viens nous pépom le zebi On trempe ta voiture y'a nos empreinte dessus Et des trucs que j'peux pas dire dans cette putain de zikmu Nique la police j'ai une seringue pleine de H.I.V Pour tous les fils de pute qui pensent qu'a nous sucer Regarde ton placard y'a que des sapes de Clicli Même les refré au placard veulent des fausses sapes Gucci Truand de la Galère, Ghetto Fab Ferme leur bouche devant la licepo, quitte a finir en zonpri C'est la plaque tournante illicite mon nezbi Vous êtes loin de savoir ce qu'on cache à Clicli Ceux qui kiff les embrouilles et les chants des fusils Vous êtes loin de savoir ce qu'on cache à Clicli Des darones qui bicrave tout prêt de l'armurerie Vous êtes loin de savoir ce qu'on cache à Clicli Tu peut perdre un oeil peut être même ta vie Et t'es loin de savoir ce qu'on à Clicli You might also like Little Dakar négro c'est la plaque tournante T'imagine pas combien de maille ils ont à la brocante Viens braqué les truands repars en chaise roulante Clash pas les gangsters, taura une mort très lente On taff qu'avec du liquide Pas de preuve pas de poucave sinon on t'lapide On connais pas la carte bleue et son queché L'URSSAF on la baise, on est venu pour la quécho Hé je suis le produit de mon environnement Réservé moi une place au cimetière musulman Au bled des villas avec des statues en marbre Des box à la villette remplies de sac a cadavre J't'invite a voir l'autre coté du décor Tout les 2 mois ont sort un putain de CD hardcore Les p'tits frère font des chouara avec nos pull sombre a puchca Sors le pouchka C'est la plaque tournante illicite mon nezbi Vous êtes loin de savoir ce qu'on cache à Clicli Ceux qui kiff les embrouilles et les chants des fusils Vous êtes loin de savoir ce qu'on cache à Clicli Des darones qui bicrave tout prêt de l'armurerie Vous êtes loin de savoir ce qu'on cache à Clicli Tu peut perdre un oeil peut être même ta vie Et t'es loin de savoir ce qu'on à Clicli Gangster en boubou nique sa mère Mesrine Nous on encule sec ton faux caïd sans vaseline Ennemis public sa dépend pour qui On décime ta cité et toute ton écurie Les clando vi-ser de faux sac louis vuitton Sorti tout droit du rocma Les joueurs de carte ont 3 complices et te mette la la rotteca Tas rien compris connard Tafiole commence la guerre mais n'assume pas après Qui veut monter au charbon frère écoute mon CD Porter ghetto fab tels un prédateur Clicli les sisgro boloss ton bicraveur Notre plaque tournante te tourmente Depuis le début on es fidèle à nos poste d'indépendant Certaine salope dise que nos textes sont bandants Que clicli est devenu notre plaque tournante C'est la plaque tournante illicite mon nezbi Vous êtes loin de savoir ce qu'on cache à Clicli Ceux qui kiff les embrouilles et les chants des fusils Vous êtes loin de savoir ce qu'on cache à Clicli Des darones qui bicrave tout prêt de l'armurerie Vous êtes loin de savoir ce qu'on cache à Clicli Tu peut perdre un oeil peut être même ta vie Et t'es loin de savoir ce qu'on à Clicli C'est la plaque tournante illicite mon nezbi Vous êtes loin de savoir ce qu'on cache à Clicli Ceux qui kiff les embrouilles et les chants des fusils Vous êtes loin de savoir ce qu'on cache à Clicli Des darones qui bicrave tout prêt de l'armurerie Vous êtes loin de savoir ce qu'on cache à Clicli Tu peut perdre un oeil peut être même ta vie Et t'es loin de savoir ce qu'on à Clicli</t>
+          <t>De la bouche du métro au ter-ter du clando Pour nous coucher négro faudra c'lever tôt Mon ADN est partout dans les rues de Clicli J'ai les poches remplies de pierre c'est reparti comme E.T Les puces de Clicli notre plaque tournante On fait que de gonfler nos comptes en banque On Bi-Bicrave de tout d'la jelaba jusqu'au boubou On fait que du zebi viens nous pépom le zebi On trempe ta voiture y'a nos empreinte dessus Et des trucs que j'peux pas dire dans cette putain de zikmu Nique la police j'ai une seringue pleine de H.I.V Pour tous les fils de pute qui pensent qu'a nous sucer Regarde ton placard y'a que des sapes de Clicli Même les refré au placard veulent des fausses sapes Gucci Truand de la Galère, Ghetto Fab Ferme leur bouche devant la licepo, quitte a finir en zonpri C'est la plaque tournante illicite mon nezbi Vous êtes loin de savoir ce qu'on cache à Clicli Ceux qui kiff les embrouilles et les chants des fusils Vous êtes loin de savoir ce qu'on cache à Clicli Des darones qui bicrave tout prêt de l'armurerie Vous êtes loin de savoir ce qu'on cache à Clicli Tu peut perdre un oeil peut être même ta vie Et t'es loin de savoir ce qu'on à Clicli Little Dakar négro c'est la plaque tournante T'imagine pas combien de maille ils ont à la brocante Viens braqué les truands repars en chaise roulante Clash pas les gangsters, taura une mort très lente On taff qu'avec du liquide Pas de preuve pas de poucave sinon on t'lapide On connais pas la carte bleue et son queché L'URSSAF on la baise, on est venu pour la quécho Hé je suis le produit de mon environnement Réservé moi une place au cimetière musulman Au bled des villas avec des statues en marbre Des box à la villette remplies de sac a cadavre J't'invite a voir l'autre coté du décor Tout les 2 mois ont sort un putain de CD hardcore Les p'tits frère font des chouara avec nos pull sombre a puchca Sors le pouchka C'est la plaque tournante illicite mon nezbi Vous êtes loin de savoir ce qu'on cache à Clicli Ceux qui kiff les embrouilles et les chants des fusils Vous êtes loin de savoir ce qu'on cache à Clicli Des darones qui bicrave tout prêt de l'armurerie Vous êtes loin de savoir ce qu'on cache à Clicli Tu peut perdre un oeil peut être même ta vie Et t'es loin de savoir ce qu'on à Clicli Gangster en boubou nique sa mère Mesrine Nous on encule sec ton faux caïd sans vaseline Ennemis public sa dépend pour qui On décime ta cité et toute ton écurie Les clando vi-ser de faux sac louis vuitton Sorti tout droit du rocma Les joueurs de carte ont 3 complices et te mette la la rotteca Tas rien compris connard Tafiole commence la guerre mais n'assume pas après Qui veut monter au charbon frère écoute mon CD Porter ghetto fab tels un prédateur Clicli les sisgro boloss ton bicraveur Notre plaque tournante te tourmente Depuis le début on es fidèle à nos poste d'indépendant Certaine salope dise que nos textes sont bandants Que clicli est devenu notre plaque tournante C'est la plaque tournante illicite mon nezbi Vous êtes loin de savoir ce qu'on cache à Clicli Ceux qui kiff les embrouilles et les chants des fusils Vous êtes loin de savoir ce qu'on cache à Clicli Des darones qui bicrave tout prêt de l'armurerie Vous êtes loin de savoir ce qu'on cache à Clicli Tu peut perdre un oeil peut être même ta vie Et t'es loin de savoir ce qu'on à Clicli C'est la plaque tournante illicite mon nezbi Vous êtes loin de savoir ce qu'on cache à Clicli Ceux qui kiff les embrouilles et les chants des fusils Vous êtes loin de savoir ce qu'on cache à Clicli Des darones qui bicrave tout prêt de l'armurerie Vous êtes loin de savoir ce qu'on cache à Clicli Tu peut perdre un oeil peut être même ta vie Et t'es loin de savoir ce qu'on à Clicli</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Killa killa Dakar Yeah Killa killa Phnom Penh Yeah Mais compte les bastos boy Alpha et K.E.R Si tu veux la paix frère prépare la guerre Homme d'honneur négro ma parole est sacrée Dès que je vois les traîtres frère je vais cracher 9.3 délinquance jamais en bas de l'échelle Nous on t'ouvre l'estomac juste avec un opinel Putain les négros pensent être comme nous Mais ils savent même pas que les kufs ont peur de nous De Dakar au Cambodg changement de fuseau horaire Tu peux venir par charter ou bien en RER C'est KER A.K.A le Mero Mero 25 A.KA. Pharmacie négro Téma comment je traîne la vie par le chignon sur 10 mètres ...You might also like</t>
+          <t>Killa killa Dakar Yeah Killa killa Phnom Penh Yeah Mais compte les bastos boy Alpha et K.E.R Si tu veux la paix frère prépare la guerre Homme d'honneur négro ma parole est sacrée Dès que je vois les traîtres frère je vais cracher 9.3 délinquance jamais en bas de l'échelle Nous on t'ouvre l'estomac juste avec un opinel Putain les négros pensent être comme nous Mais ils savent même pas que les kufs ont peur de nous De Dakar au Cambodg changement de fuseau horaire Tu peux venir par charter ou bien en RER C'est KER A.K.A le Mero Mero 25 A.KA. Pharmacie négro Téma comment je traîne la vie par le chignon sur 10 mètres ...</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>... ... Dioxyde, Dioxyde Alpha 5.20, Alpha 5.20 Fini le temps des opérations coup de poing C'est le temps des coups de crosse en pleine tête Dioxyde, Dioxyde Alpha 5.20, Alpha 5.20 Fini le temps des opérations coup de poing Cest le temps des coups de crosse en pleine tête Négro j'suis chaud comme l'Ouest de lArizona Je regarde autour de moi et je vois que ds piranhas Descendant de colon, volur de Ghana Esclave solo eux ma liberté ils l'auront pas Je temporise ma haine, essaye d'y voir plus clair Y'a plus d'air je suffoque puis crache la misère Quand ça tourne au vinaigre les rats quittent le navire Abandonnent sans pitié les vestiges de l'empire Ma voix parasite les fréquences hertziennes Éjacule même au fond du trou de leurs lesbiennes Même quand je mens c'est vrai, Scarface d'Afrique Star locale ... de fric sale Je prêche la paix mais je connais la guerre Tu me dis que ton taudis ma jamais impressionné Qui brise tes rêves dans les cages descalier Des paliers dans les crimes maintenant ils veulent tous monter You might also like Dioxyde, Dioxyde Alpha 5.20, Alpha 5.20 Fini le temps des opérations coup de poing C'est le temps des coups de crosse en pleine tête Dioxyde, Dioxyde Alpha 5.20, Alpha 5.20 Fini le temps des opérations coup de poing Cest le temps des coups de crosse en pleine tête ... Affronter le chaudron c'est comme ça que le métier rentre Comme Aniki boy qu'est ce que t'as dans le ventre ? Je plante le drapeau en fer, lève létendard ... Dioxyde, Dioxyde Alpha 5.20, Alpha 5.20 Fini le temps des opérations coup de poing C'est le temps des coups de crosse en pleine tête Dioxyde, Dioxyde Alpha 5.20, Alpha 5.20 Fini le temps des opérations coup de poing C'est le temps des coups de crosse en pleine tête</t>
+          <t>... ... Dioxyde, Dioxyde Alpha 5.20, Alpha 5.20 Fini le temps des opérations coup de poing C'est le temps des coups de crosse en pleine tête Dioxyde, Dioxyde Alpha 5.20, Alpha 5.20 Fini le temps des opérations coup de poing Cest le temps des coups de crosse en pleine tête Négro j'suis chaud comme l'Ouest de lArizona Je regarde autour de moi et je vois que ds piranhas Descendant de colon, volur de Ghana Esclave solo eux ma liberté ils l'auront pas Je temporise ma haine, essaye d'y voir plus clair Y'a plus d'air je suffoque puis crache la misère Quand ça tourne au vinaigre les rats quittent le navire Abandonnent sans pitié les vestiges de l'empire Ma voix parasite les fréquences hertziennes Éjacule même au fond du trou de leurs lesbiennes Même quand je mens c'est vrai, Scarface d'Afrique Star locale ... de fric sale Je prêche la paix mais je connais la guerre Tu me dis que ton taudis ma jamais impressionné Qui brise tes rêves dans les cages descalier Des paliers dans les crimes maintenant ils veulent tous monter Dioxyde, Dioxyde Alpha 5.20, Alpha 5.20 Fini le temps des opérations coup de poing C'est le temps des coups de crosse en pleine tête Dioxyde, Dioxyde Alpha 5.20, Alpha 5.20 Fini le temps des opérations coup de poing Cest le temps des coups de crosse en pleine tête ... Affronter le chaudron c'est comme ça que le métier rentre Comme Aniki boy qu'est ce que t'as dans le ventre ? Je plante le drapeau en fer, lève létendard ... Dioxyde, Dioxyde Alpha 5.20, Alpha 5.20 Fini le temps des opérations coup de poing C'est le temps des coups de crosse en pleine tête Dioxyde, Dioxyde Alpha 5.20, Alpha 5.20 Fini le temps des opérations coup de poing C'est le temps des coups de crosse en pleine tête</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>, Pink Kalash, - Un clip, comme le tien, où on est dans une cité, avec des Arabes et des Noirs, qui affirment leur homosexualité... - The hip-hop community is most likely owned by gay. To be honest, it's owned by gays. I always thought there is a gay mafia in hip-hop, not rapers. Presidents of magazines, the PD's and radio stations, the people giving you awards and award shows ... this is a fucking gay mafia my man - Hein, 9.2, 9.3, 9.4, tous mes vrais gars, sont à quatre pattes - They tryna make everyone gay. That's why I think they're putting it on our culture, they'r putting it on, they're putting evrywhere, gay, gay stuff everywhere, you know. You know, you got cartoons, there's gay. And cartoons like these are for kids ! Let kids make their own decisions and they wanna go their way ! RAHHH LuxrayBeats Young Thug pédé Lil Uzi pédé Négro vas-tu céder, céder, céder ? Que des leggings serrés Rap français, déchets Négro vas-tu payer, payer, payer ? Eh, négro, pour moi la mort n'est pas une fin Chevauché dans le sang jusqu'à la hauteur de mes reins Crépuscule des empires, cimetière des despotes Crachoir de la haine jusqu'à c'que la mort les emporte Et les vrais ne meurent pas, toujours à côté du juste J'ai tué un homme pour en sauver cent-mille Comme Charlotte Corday, à la patrie, je ne puis qu'offrir ma vie Passer à la guillotine, verser mon sang sur Paris Je suis dans la tourmente, dans le doute je marche à l'envers L'Enfer m'est-il réservé une fois le pont de la mort traversé ? Yeah renoi Combien de fois ont-ils exercé des pressions sur ma personne ? Afin que mes nerfs lachent ou que mon corps andonne Le fruit de mon jeûne est plus délicieux que le festins des rois Bannis les boissons ennivrantes de tout ce que tu bois Des hyènes sacrilèges blasphèment Chantent sous les flammes comme Néron Je les maudis de ma tour, éclairé par des senons Béni soit mon prénom Ousmane le troisième calife Rappelle toi que face à lui les anges étaient timides, les anges étaient timides You might also like C'est pas des rappeurs c'est des sodomites Que des danseurs de Logobi, depuis la mort de 2Pac Négro y'a plus de politique, Arabes et Juifs investissent Faux négros pleurent pour des pyramides et de rituels que de satanistes C'est pas des rappeurs c'est des sodomites Que des danseurs de Logobi, depuis la mort de 2Pac Négro y'a plus de politique, Arabes et Juifs investissent Faux négros pleurent pour des pyramides et de rituels que de satanistes Toujours ennemi d'État, Ousmane Badara Ma femme est déter comme la sur à Adama C'est islamique Dakar, Nouvelle-Calédonie Révolution kanak face à la gendarmerie Dieu m'a envoyé telle une punition pour les impies Comme Josué à Jéricho, Jérusalem j'ai envahi Que des renégats et des Vegetas dans les rues obscures de Panama Tueur chante des sérénades, comme ennemis des Falashas Nan négro, je ne connais pas la mort à part au cinéma Toujours va-t-en-guerre contre Isabela Católica Et mes ancêtres, des vagabonds coupeurs de routes et des pharaons J'suis de la race maudite idolâtrée par leurs rejetons Aborigène, j'attire la haine comme Donald Trump à Jérusalem Nan négro, je ne connais pas El Chapo ou Sean Penn paw Sortis de l'ombre, jailli en nombre, mes killers, que des talibés Le monde s'effondre, Paris à l'ombre, le flingue n'aime pas la parité Pacho Herrera, prison Bogota, négro, où sont les vrais ? oh La quali, la quali, la dope et les amis, frérot j'ai tiré un trait Dans les yeux regarde-moi, à Dakar évite-moi Si j'avance suivez-moi, si je recule tuez-moi C'est pas des rappeurs c'est des sodomites Que des danseurs de Logobi, depuis la mort de 2Pac Négro y'a plus de politique, Arabes et Juifs investissent Faux négros pleurent pour des pyramides et de rituels que de satanistes C'est pas des rappeurs c'est des sodomites Que des danseurs de Logobi, depuis la mort de 2Pac Négro y'a plus de politique, Arabes et Juifs investissent Faux négros pleurent pour des pyramides et de rituels que de satanistes Young Thug pédé Lil Uzi pédé Négro vas-tu céder, céder, céder ? Que des leggings serrés Rap français, déchets Négro vas-tu payer, payer, payer ? Ils disent que les prophètes viennent tous de la maison d'Israël J'en connais des goudronneux dans les contrées du Sahel Début de l'humanité affaire Cain et Abel L'homme est trop ignorant, c'est un corbeau qui te l'enseigne Matérialisme, destruction de la cellule familiale Tout est corrompu, tout est gay my nigga Musique ,films, jeux-vidéos, , pubs, télé, et même les dessins animés Tout est corrompu my nigga, tout est gay Ils veulent réduire, limiter, controler les naissances Israël stérilise les femmes noires d'Ethiopie La LGBT veut que j'change de bord, tous les rebeux et Noirs virils sur Paris Retire l'image mon négro, Omar le gangster dans le Wire Re-noi, tu saisis ? La revanche de notre peuple sera le ventre de nos femmes, comme le disait Houari Cette musique est dédiée à tous ceux qui sont restés debout, sans changer d'bord Les acharnés qui refusent de se soumettre, ceux qui refusent de mourir, je vous aime Que la paix soit avec vous salam Tu penses que j'suis complexé parce qu'j'ai prié un Arabe J'peux pas t'en vouloir, ton cur est malade C'est toujours la même histoire, rien n'tachera ma gloire Parasité par les diables, mais j'refuse de te croire nigga</t>
+          <t>, Pink Kalash, - Un clip, comme le tien, où on est dans une cité, avec des Arabes et des Noirs, qui affirment leur homosexualité... - The hip-hop community is most likely owned by gay. To be honest, it's owned by gays. I always thought there is a gay mafia in hip-hop, not rapers. Presidents of magazines, the PD's and radio stations, the people giving you awards and award shows ... this is a fucking gay mafia my man - Hein, 9.2, 9.3, 9.4, tous mes vrais gars, sont à quatre pattes - They tryna make everyone gay. That's why I think they're putting it on our culture, they'r putting it on, they're putting evrywhere, gay, gay stuff everywhere, you know. You know, you got cartoons, there's gay. And cartoons like these are for kids ! Let kids make their own decisions and they wanna go their way ! RAHHH LuxrayBeats Young Thug pédé Lil Uzi pédé Négro vas-tu céder, céder, céder ? Que des leggings serrés Rap français, déchets Négro vas-tu payer, payer, payer ? Eh, négro, pour moi la mort n'est pas une fin Chevauché dans le sang jusqu'à la hauteur de mes reins Crépuscule des empires, cimetière des despotes Crachoir de la haine jusqu'à c'que la mort les emporte Et les vrais ne meurent pas, toujours à côté du juste J'ai tué un homme pour en sauver cent-mille Comme Charlotte Corday, à la patrie, je ne puis qu'offrir ma vie Passer à la guillotine, verser mon sang sur Paris Je suis dans la tourmente, dans le doute je marche à l'envers L'Enfer m'est-il réservé une fois le pont de la mort traversé ? Yeah renoi Combien de fois ont-ils exercé des pressions sur ma personne ? Afin que mes nerfs lachent ou que mon corps andonne Le fruit de mon jeûne est plus délicieux que le festins des rois Bannis les boissons ennivrantes de tout ce que tu bois Des hyènes sacrilèges blasphèment Chantent sous les flammes comme Néron Je les maudis de ma tour, éclairé par des senons Béni soit mon prénom Ousmane le troisième calife Rappelle toi que face à lui les anges étaient timides, les anges étaient timides C'est pas des rappeurs c'est des sodomites Que des danseurs de Logobi, depuis la mort de 2Pac Négro y'a plus de politique, Arabes et Juifs investissent Faux négros pleurent pour des pyramides et de rituels que de satanistes C'est pas des rappeurs c'est des sodomites Que des danseurs de Logobi, depuis la mort de 2Pac Négro y'a plus de politique, Arabes et Juifs investissent Faux négros pleurent pour des pyramides et de rituels que de satanistes Toujours ennemi d'État, Ousmane Badara Ma femme est déter comme la sur à Adama C'est islamique Dakar, Nouvelle-Calédonie Révolution kanak face à la gendarmerie Dieu m'a envoyé telle une punition pour les impies Comme Josué à Jéricho, Jérusalem j'ai envahi Que des renégats et des Vegetas dans les rues obscures de Panama Tueur chante des sérénades, comme ennemis des Falashas Nan négro, je ne connais pas la mort à part au cinéma Toujours va-t-en-guerre contre Isabela Católica Et mes ancêtres, des vagabonds coupeurs de routes et des pharaons J'suis de la race maudite idolâtrée par leurs rejetons Aborigène, j'attire la haine comme Donald Trump à Jérusalem Nan négro, je ne connais pas El Chapo ou Sean Penn paw Sortis de l'ombre, jailli en nombre, mes killers, que des talibés Le monde s'effondre, Paris à l'ombre, le flingue n'aime pas la parité Pacho Herrera, prison Bogota, négro, où sont les vrais ? oh La quali, la quali, la dope et les amis, frérot j'ai tiré un trait Dans les yeux regarde-moi, à Dakar évite-moi Si j'avance suivez-moi, si je recule tuez-moi C'est pas des rappeurs c'est des sodomites Que des danseurs de Logobi, depuis la mort de 2Pac Négro y'a plus de politique, Arabes et Juifs investissent Faux négros pleurent pour des pyramides et de rituels que de satanistes C'est pas des rappeurs c'est des sodomites Que des danseurs de Logobi, depuis la mort de 2Pac Négro y'a plus de politique, Arabes et Juifs investissent Faux négros pleurent pour des pyramides et de rituels que de satanistes Young Thug pédé Lil Uzi pédé Négro vas-tu céder, céder, céder ? Que des leggings serrés Rap français, déchets Négro vas-tu payer, payer, payer ? Ils disent que les prophètes viennent tous de la maison d'Israël J'en connais des goudronneux dans les contrées du Sahel Début de l'humanité affaire Cain et Abel L'homme est trop ignorant, c'est un corbeau qui te l'enseigne Matérialisme, destruction de la cellule familiale Tout est corrompu, tout est gay my nigga Musique ,films, jeux-vidéos, , pubs, télé, et même les dessins animés Tout est corrompu my nigga, tout est gay Ils veulent réduire, limiter, controler les naissances Israël stérilise les femmes noires d'Ethiopie La LGBT veut que j'change de bord, tous les rebeux et Noirs virils sur Paris Retire l'image mon négro, Omar le gangster dans le Wire Re-noi, tu saisis ? La revanche de notre peuple sera le ventre de nos femmes, comme le disait Houari Cette musique est dédiée à tous ceux qui sont restés debout, sans changer d'bord Les acharnés qui refusent de se soumettre, ceux qui refusent de mourir, je vous aime Que la paix soit avec vous salam Tu penses que j'suis complexé parce qu'j'ai prié un Arabe J'peux pas t'en vouloir, ton cur est malade C'est toujours la même histoire, rien n'tachera ma gloire Parasité par les diables, mais j'refuse de te croire nigga</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ok c'est Alpha dans le bloc intouchable Pas besoin de m'juger, moi j'plaide coupable Dans la cité au quotidien moi j'ramasse les douilles Issues des fusils à pompe juste après les embrouilles 93 hardcore, je suis pas Tandem Moi je baise la France, pas besoin qu'elle m'aime J'la lui mets profond, frère jusqu'à l'extrême Ouvre la boîte à gants, puis j'attrape un flingue Et ma peine indivisible pour les arabes et les noirs Des darons qui s'lèvent tôt, puis ne rentrent que l'soir Moi j'exporte mes fonds, j'prie pour mes défunts 9.3 et Sénégal on a les mains trop sales Gangsta Jackpot fumeur de garces qui crapotent L'arrêt crache devant la boîte avec la meuf d'ton pote Peu importe la mort, j'irai rejoindre mon père Du moment que la famille sera ici pépère J'suis un boss négro, ne me touches pas ! Tu parles fort mais au fond de toi tu bouges pas T'es qui toi pour nous parler boy comme ça ?! Dakar blood, Dakar blood J'suis un boss négro, ne me touches pas ! Tu parles fort mais au fond de toi tu bouges pas T'es qui toi pour nous parler boy comme ça ?! Dakar blood, Dakar blood You might also like Ici ça fouette le 93, bolosse molotov 4 Travos Quand j'cause prends ta pause, j'pose Un air connu comme le p'tit kahlouch d'Albert de Monaco Renié, parce que sa mère vient du Togo Bingo, c'est Sefyu pine-co, avec Alpha Dis moi c'est qui qui baise, c'est qui qui pine qui ? Sous les re-cui, y a que des bikinis vous - êtes des grosses bananes quoi ?! Tu gueules en cabine et dans la rue tu bouquines ! Eh, le rêve Américain suce la queue au cauchemar Africain Sénégalo Ruskov, t'en connais qu'un ! Jéternue comme ça moi ah tchoin !! Caractère-r-r up Stand up Comme Bob Marley car ici y'a qu'des what up J'te verrai bien dans le clip ah lalala de Still Dre À l'arrière, fais pas style avec ton string ficelle, pupupu pucelle ! C'est l'matos, j'mets le carbu dans le 5.20 Quand j'viens, demande pas on est combien On sera p'tetre 20 ou bien 93 Sefyu, G8, Aulnay-sous les bois J'suis un boss négro, ne me touches pas ! Tu parles fort mais au fond de toi tu bouges pas T'es qui toi pour nous parler boy comme ça ?! Dakar blood, Dakar blood J'suis un boss négro, ne me touches pas ! Tu parles fort mais au fond de toi tu bouges pas T'es qui toi pour nous parler boy comme ça ?! Dakar blood, Dakar blood Trouves moi au foyer, moi je vends du maïs Et l'soir dans un hall, j'vais guer-lar du cannabis Eh boy je sens le souffre, j'ai du mal à m'en découdre Résidu de cocaïne, dans mes ongles re-noi Et la tête qui pendouille, à larrière d'une Ford Brandissant un uzi, dis bonjour à la mort Aucune pitié pour ta famille ils veulent attenter ma vie Si tu vois la faucheuse, dis lui qu'je suis parti Bien, quoi bien ? Enculer d'ta race tu me serres la main Tu mens, le même qui m'laisse dans la de-mer sans coups de main ! Lahchouma en plus tu reviens le lendemain Une fois que t'as parlé d'moi aux miens Heureusement que tu pue d'la gueule quand tu ments je l'sens 93 600, style essence nique les rabat-joie ! Ce qui on le zerheff quand tu pleures de joie C'est-c'est zerheffyou, 5.20 en live de la cave, crouille ! On s'en bah les couille d'être en cours, poucave ! J'suis un boss négro, ne me touches pas ! Tu parles fort mais au fond de toi tu bouges pas T'es qui toi pour nous parler boy comme ça ?! Dakar blood, Dakar blood J'suis un boss négro, ne me touches pas ! Tu parles fort mais au fond de toi tu bouges pas T'es qui toi pour nous parler boy comme ça ?! Dakar blood, Dakar blood Hé boy,</t>
+          <t>Ok c'est Alpha dans le bloc intouchable Pas besoin de m'juger, moi j'plaide coupable Dans la cité au quotidien moi j'ramasse les douilles Issues des fusils à pompe juste après les embrouilles 93 hardcore, je suis pas Tandem Moi je baise la France, pas besoin qu'elle m'aime J'la lui mets profond, frère jusqu'à l'extrême Ouvre la boîte à gants, puis j'attrape un flingue Et ma peine indivisible pour les arabes et les noirs Des darons qui s'lèvent tôt, puis ne rentrent que l'soir Moi j'exporte mes fonds, j'prie pour mes défunts 9.3 et Sénégal on a les mains trop sales Gangsta Jackpot fumeur de garces qui crapotent L'arrêt crache devant la boîte avec la meuf d'ton pote Peu importe la mort, j'irai rejoindre mon père Du moment que la famille sera ici pépère J'suis un boss négro, ne me touches pas ! Tu parles fort mais au fond de toi tu bouges pas T'es qui toi pour nous parler boy comme ça ?! Dakar blood, Dakar blood J'suis un boss négro, ne me touches pas ! Tu parles fort mais au fond de toi tu bouges pas T'es qui toi pour nous parler boy comme ça ?! Dakar blood, Dakar blood Ici ça fouette le 93, bolosse molotov 4 Travos Quand j'cause prends ta pause, j'pose Un air connu comme le p'tit kahlouch d'Albert de Monaco Renié, parce que sa mère vient du Togo Bingo, c'est Sefyu pine-co, avec Alpha Dis moi c'est qui qui baise, c'est qui qui pine qui ? Sous les re-cui, y a que des bikinis vous - êtes des grosses bananes quoi ?! Tu gueules en cabine et dans la rue tu bouquines ! Eh, le rêve Américain suce la queue au cauchemar Africain Sénégalo Ruskov, t'en connais qu'un ! Jéternue comme ça moi ah tchoin !! Caractère-r-r up Stand up Comme Bob Marley car ici y'a qu'des what up J'te verrai bien dans le clip ah lalala de Still Dre À l'arrière, fais pas style avec ton string ficelle, pupupu pucelle ! C'est l'matos, j'mets le carbu dans le 5.20 Quand j'viens, demande pas on est combien On sera p'tetre 20 ou bien 93 Sefyu, G8, Aulnay-sous les bois J'suis un boss négro, ne me touches pas ! Tu parles fort mais au fond de toi tu bouges pas T'es qui toi pour nous parler boy comme ça ?! Dakar blood, Dakar blood J'suis un boss négro, ne me touches pas ! Tu parles fort mais au fond de toi tu bouges pas T'es qui toi pour nous parler boy comme ça ?! Dakar blood, Dakar blood Trouves moi au foyer, moi je vends du maïs Et l'soir dans un hall, j'vais guer-lar du cannabis Eh boy je sens le souffre, j'ai du mal à m'en découdre Résidu de cocaïne, dans mes ongles re-noi Et la tête qui pendouille, à larrière d'une Ford Brandissant un uzi, dis bonjour à la mort Aucune pitié pour ta famille ils veulent attenter ma vie Si tu vois la faucheuse, dis lui qu'je suis parti Bien, quoi bien ? Enculer d'ta race tu me serres la main Tu mens, le même qui m'laisse dans la de-mer sans coups de main ! Lahchouma en plus tu reviens le lendemain Une fois que t'as parlé d'moi aux miens Heureusement que tu pue d'la gueule quand tu ments je l'sens 93 600, style essence nique les rabat-joie ! Ce qui on le zerheff quand tu pleures de joie C'est-c'est zerheffyou, 5.20 en live de la cave, crouille ! On s'en bah les couille d'être en cours, poucave ! J'suis un boss négro, ne me touches pas ! Tu parles fort mais au fond de toi tu bouges pas T'es qui toi pour nous parler boy comme ça ?! Dakar blood, Dakar blood J'suis un boss négro, ne me touches pas ! Tu parles fort mais au fond de toi tu bouges pas T'es qui toi pour nous parler boy comme ça ?! Dakar blood, Dakar blood Hé boy,</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>93800, rap SL d'un 600 Dakar jusqu'à Aulnay négro c'est trop puissant Comme le disait Booba enlève au moins 10 ans C'est sanglant frérot comme du pétrole gisant Au fond d'un trou nuancé je connais le ghetto français Libère mes reufs du placard renoi on va avancer Tu connais ma ville Dakar c'est sur mon passeport Médine à Yarakh, Dumble jusqu'à Castor Ma vie un blood sport, un fight club en fausses cordes Appelle moi Moïse, toi tu prêches le veau d'or Silhouette à la craie je mets ta vie en danger Illégal mais correct ça fallait y penser Ma famill et le Coran renoi c'st tout ce que j'ai Sens ma peine caillera ici tout se paie Regarde le monde à travers les yeuz d'un négro Tu veux me caler pétasse t'as qu'à te lever tôt Et je garde un peu de liqueur pour 2pac et Biggie Ma routine de dealer dans le ghetto tu sais qui Niggaz gazent maintenant partent les pieds devant Blah blah blah blah Le rap d'aujourd'hui renoi se bat de l'aile À part moi et Booba ... fais du zèle Dakar big boy toute ma jeunesse Mon tshirt est blanc mec à Los Angeles Pour mes cailleras de Pierrefitte à Sarcelles Toutes mes tassepés en bas Villiers le bel Mon coeur est froid t'es l'ennemi d'un lascar ... comme du plasma Boss des boss mec dans ma rue c'est comme ça T'as des couilles mec sors ton gun ne parle pas ... Faut que Alpha graille faut que Dakar graille Aucune chance que Paris nique Guediawaye Niggaz gazent maintenant ...You might also like</t>
+          <t>93800, rap SL d'un 600 Dakar jusqu'à Aulnay négro c'est trop puissant Comme le disait Booba enlève au moins 10 ans C'est sanglant frérot comme du pétrole gisant Au fond d'un trou nuancé je connais le ghetto français Libère mes reufs du placard renoi on va avancer Tu connais ma ville Dakar c'est sur mon passeport Médine à Yarakh, Dumble jusqu'à Castor Ma vie un blood sport, un fight club en fausses cordes Appelle moi Moïse, toi tu prêches le veau d'or Silhouette à la craie je mets ta vie en danger Illégal mais correct ça fallait y penser Ma famill et le Coran renoi c'st tout ce que j'ai Sens ma peine caillera ici tout se paie Regarde le monde à travers les yeuz d'un négro Tu veux me caler pétasse t'as qu'à te lever tôt Et je garde un peu de liqueur pour 2pac et Biggie Ma routine de dealer dans le ghetto tu sais qui Niggaz gazent maintenant partent les pieds devant Blah blah blah blah Le rap d'aujourd'hui renoi se bat de l'aile À part moi et Booba ... fais du zèle Dakar big boy toute ma jeunesse Mon tshirt est blanc mec à Los Angeles Pour mes cailleras de Pierrefitte à Sarcelles Toutes mes tassepés en bas Villiers le bel Mon coeur est froid t'es l'ennemi d'un lascar ... comme du plasma Boss des boss mec dans ma rue c'est comme ça T'as des couilles mec sors ton gun ne parle pas ... Faut que Alpha graille faut que Dakar graille Aucune chance que Paris nique Guediawaye Niggaz gazent maintenant ...</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Matricule DK, 5.20 le retour T'aimes pas mais renoi frère me dis pas bonjour A part la rue fiston t'es loin d'être comme nous Nous on est des gangsters avec des grands boubous Coupe coupe je pavane dans les rues de Yarakh Et Dakar c'est la jungle négro mate l'impact Mafia Africaine comme les mecs de Vitry Sauf que nous c'est Sous Bois Aulnay Clichy 9.3 finest mec Epinay sur Seine Après la bicrave on va te piner sur scène De l'autr coté de la rue quelqus uns m'ont trahi Renoi sois pas ébahi moi je dors avec des ennemis Je t'avais je t'avais dit frérot Ces négros sont des tass frérot ... ... 9.1 mes soldats quand j'arrive à Évry ..You might also like</t>
+          <t>Matricule DK, 5.20 le retour T'aimes pas mais renoi frère me dis pas bonjour A part la rue fiston t'es loin d'être comme nous Nous on est des gangsters avec des grands boubous Coupe coupe je pavane dans les rues de Yarakh Et Dakar c'est la jungle négro mate l'impact Mafia Africaine comme les mecs de Vitry Sauf que nous c'est Sous Bois Aulnay Clichy 9.3 finest mec Epinay sur Seine Après la bicrave on va te piner sur scène De l'autr coté de la rue quelqus uns m'ont trahi Renoi sois pas ébahi moi je dors avec des ennemis Je t'avais je t'avais dit frérot Ces négros sont des tass frérot ... ... 9.1 mes soldats quand j'arrive à Évry ..</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Faut pas envier la réussite d'un frère Provoquer le Seigneur, le ciel et sa colère HLM Dakar, Yarakh City ma terre Plaisir charnel dans un monde éphémère Ouais ouais négro on est tous de sortie 0.9 produit, Scarface mes envies Vous êtes loin de savoir ce qu'on cache à Clicli Little Dakar GZ up à mort les ennemis Alpha 5.20 caillera de Dakar Explose les compteurs, flashé au radar Bad trip négro guerrier de la nuit Et je marche au flair tel une chauve souris Fleury Osny Fresnes et Bois d'Arcy Nanterre Villepinte j'ai laissé mes empreintes Carbure à la haine, rien n'égale ma peine Des cellules terroristes, partout des antennes Porter des macaques à l'arrière des soupapes Tasspé ne se déflaque dans des Benz rougeâtres Pharmacie G's pop, microphone massacre 9.3 coup de shlass découverte macabreYou might also like</t>
+          <t>Faut pas envier la réussite d'un frère Provoquer le Seigneur, le ciel et sa colère HLM Dakar, Yarakh City ma terre Plaisir charnel dans un monde éphémère Ouais ouais négro on est tous de sortie 0.9 produit, Scarface mes envies Vous êtes loin de savoir ce qu'on cache à Clicli Little Dakar GZ up à mort les ennemis Alpha 5.20 caillera de Dakar Explose les compteurs, flashé au radar Bad trip négro guerrier de la nuit Et je marche au flair tel une chauve souris Fleury Osny Fresnes et Bois d'Arcy Nanterre Villepinte j'ai laissé mes empreintes Carbure à la haine, rien n'égale ma peine Des cellules terroristes, partout des antennes Porter des macaques à l'arrière des soupapes Tasspé ne se déflaque dans des Benz rougeâtres Pharmacie G's pop, microphone massacre 9.3 coup de shlass découverte macabre</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Je parle comme un flingue renoi, fais pas le petit con Laisse ... passer comme sur un passage piéton Yo ma ville c'est Dakar et mon nom c'est Alpha Plus mon groupe t'assasssine comme si je m'appelais Booba Écoute ça 9.3 on crèche du mauvais côte Épinay Sur Seine négro ça c'est des mecs opé Un escalier groupé ... pour des groupies Sous des blocks ou leurs poufs négro je t'ai dit comme Woopy Écoute ça négro je t'ai dit le rap c'est du sport Et je parle mal aux keufs renoi car ce sont des porcs Je viens de là où le sang du Christ continue à couler Pas confiance en toi mec tu parles encore aux poulets Et je hais les femmes blanches qui prennent de l'ecstasy Après avoir baisé bébé j'suis un ex ami Des flingues et des roses sous des ghetto tragédies Pour l'amour du ciel négro ... Toutes façons face à moi tu seras qu'un protégé Amène ta clique tu verras combien de potes j'ai Tout le monde sait qu'on se pique pas on bicrave la came Négro qu'est ce tu dis de ça ? C'est Boss 2 Paname Et je vadrouille sans pitié négro j'ai trop souffert Laisse mes ennemis meurtris avec un oeil ouvert Nigga gaze pas si on ne passe pas, Drive by's en Classe A Négro qu'est ce tu dis de ça ? Ici le boss c'est Alpha You might also like 9.3 négro 9.5 négro Holla back négro c'est Dakar négro On suce pas négro on vend des CD's négro Vis ta vie négro jusqu'au bout négro ! 9.3 négro 9.5 négro Holla back négro c'est Dakar négro On suce pas négro on vend des CD's négro Vis ta vie négro jusqu'au bout négro ! Yeah ça c'est pour les soldats dans le 78 ! ...</t>
+          <t>Je parle comme un flingue renoi, fais pas le petit con Laisse ... passer comme sur un passage piéton Yo ma ville c'est Dakar et mon nom c'est Alpha Plus mon groupe t'assasssine comme si je m'appelais Booba Écoute ça 9.3 on crèche du mauvais côte Épinay Sur Seine négro ça c'est des mecs opé Un escalier groupé ... pour des groupies Sous des blocks ou leurs poufs négro je t'ai dit comme Woopy Écoute ça négro je t'ai dit le rap c'est du sport Et je parle mal aux keufs renoi car ce sont des porcs Je viens de là où le sang du Christ continue à couler Pas confiance en toi mec tu parles encore aux poulets Et je hais les femmes blanches qui prennent de l'ecstasy Après avoir baisé bébé j'suis un ex ami Des flingues et des roses sous des ghetto tragédies Pour l'amour du ciel négro ... Toutes façons face à moi tu seras qu'un protégé Amène ta clique tu verras combien de potes j'ai Tout le monde sait qu'on se pique pas on bicrave la came Négro qu'est ce tu dis de ça ? C'est Boss 2 Paname Et je vadrouille sans pitié négro j'ai trop souffert Laisse mes ennemis meurtris avec un oeil ouvert Nigga gaze pas si on ne passe pas, Drive by's en Classe A Négro qu'est ce tu dis de ça ? Ici le boss c'est Alpha 9.3 négro 9.5 négro Holla back négro c'est Dakar négro On suce pas négro on vend des CD's négro Vis ta vie négro jusqu'au bout négro ! 9.3 négro 9.5 négro Holla back négro c'est Dakar négro On suce pas négro on vend des CD's négro Vis ta vie négro jusqu'au bout négro ! Yeah ça c'est pour les soldats dans le 78 ! ...</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Du biff Du biff Dakar veut du biff Du biff Du biff Dakar veut du biff J'ai des tanks maintenant à la place des uzis Mon schlass peut laisser ta cité abasourdie ... négro, garder ton sang froid Quand les lâches viendront à plus de 20 sur toi Avaler la défaite, préparer la vengeance Dans l'honneur négro la mort est une délivrance Postillons au mic' et je dis ce que je pense Raricim' mais vrai, Holocost est vrai Je me demande parfois, le monde est-il vrai ? Ghetto Fab Vendetta, blédard razzia Héritir de 2pac, on est des hors-la-loi Blankok VM Malik Bldoss La vie aiguise nos dents comme des rhinocéros J'ai besoin d'espace pour voir mes ennemis 100 euros à Dakar, c'est le prix de leur vie Les vrais savent que le silence n'est pas un oubli Ce n'est pas du racisme mais de l'homophobie You might also like Du biff Du biff Dakar veut du biff Du biff Du biff Dakar veut du biff Moi je serre beaucoup de mains mais je parle trop peu Parle plus au phone-tél', mes négros sont douteux J'ai de la maille à faire moi j'ai rien à chercher Des tass et des armes moi je peux les tirer Moi je serre beaucoup de mains mais je parle trop peu Parle plus au phone-tél', mes négros sont douteux J'ai de la maille à faire moi j'ai rien à chercher Des tass et des armes moi je peux les tirer Yeah du biff frère International trafic d'armes Liberia, Zimbabwe, Zaïre, Rwanda Trafic international cocaïne Guinée Bissau, Dakar et le Cap Vert hahahaha Du biff Du biff Dakar veut du biff Du biff Du biff Dakar veut du biff</t>
+          <t>Du biff Du biff Dakar veut du biff Du biff Du biff Dakar veut du biff J'ai des tanks maintenant à la place des uzis Mon schlass peut laisser ta cité abasourdie ... négro, garder ton sang froid Quand les lâches viendront à plus de 20 sur toi Avaler la défaite, préparer la vengeance Dans l'honneur négro la mort est une délivrance Postillons au mic' et je dis ce que je pense Raricim' mais vrai, Holocost est vrai Je me demande parfois, le monde est-il vrai ? Ghetto Fab Vendetta, blédard razzia Héritir de 2pac, on est des hors-la-loi Blankok VM Malik Bldoss La vie aiguise nos dents comme des rhinocéros J'ai besoin d'espace pour voir mes ennemis 100 euros à Dakar, c'est le prix de leur vie Les vrais savent que le silence n'est pas un oubli Ce n'est pas du racisme mais de l'homophobie Du biff Du biff Dakar veut du biff Du biff Du biff Dakar veut du biff Moi je serre beaucoup de mains mais je parle trop peu Parle plus au phone-tél', mes négros sont douteux J'ai de la maille à faire moi j'ai rien à chercher Des tass et des armes moi je peux les tirer Moi je serre beaucoup de mains mais je parle trop peu Parle plus au phone-tél', mes négros sont douteux J'ai de la maille à faire moi j'ai rien à chercher Des tass et des armes moi je peux les tirer Yeah du biff frère International trafic d'armes Liberia, Zimbabwe, Zaïre, Rwanda Trafic international cocaïne Guinée Bissau, Dakar et le Cap Vert hahahaha Du biff Du biff Dakar veut du biff Du biff Du biff Dakar veut du biff</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Dallas Boys Dallas Boys Dallas Boys Dallas Boys Banlieue Nord familly Thug, Thug Val d'Oise familly Thug, Thug 9 3 familly Thug, Thug Dakar Blood familly Thug, Thug Pharmacie, j'ai une boite plein de médicaments J'suis au dallas avec des meufs de Perpignan Té-ma les 10, té-ma les bails, té-ma les fils de pute Té-ma les autres ber-flam comme des barils de bruts Mais le général maille quelle que soit la saison Baye Fall avec des kalash devant ma maison Animosité oblige Dakar a sortir le fer Des racailles avec des machettes venus du Cap Vert Illégales activités, résidence secondaire Dans le sud avec des potos a bout de nerf J'suis au bord de la mer, n'essaye pas de m'la mettre Ne vois tu pas qu'j'suis a deux doigts de t'niquer ta mère Aux frontière de l'Espagne, moi j'cherche une porteuse Illicite substance, kilos d'coke avaleuse Une mule qui n'a peur de rien surtout pas d'la Guardia Civil garde le morceau face au flics jamais ne ché-cra You might also like Banlieue Nord familly Thug, Thug Val d'Oise familly Thug, Thug 9 3 familly Thug, Thug Dakar Blood familly Thug, Thug</t>
+          <t>Dallas Boys Dallas Boys Dallas Boys Dallas Boys Banlieue Nord familly Thug, Thug Val d'Oise familly Thug, Thug 9 3 familly Thug, Thug Dakar Blood familly Thug, Thug Pharmacie, j'ai une boite plein de médicaments J'suis au dallas avec des meufs de Perpignan Té-ma les 10, té-ma les bails, té-ma les fils de pute Té-ma les autres ber-flam comme des barils de bruts Mais le général maille quelle que soit la saison Baye Fall avec des kalash devant ma maison Animosité oblige Dakar a sortir le fer Des racailles avec des machettes venus du Cap Vert Illégales activités, résidence secondaire Dans le sud avec des potos a bout de nerf J'suis au bord de la mer, n'essaye pas de m'la mettre Ne vois tu pas qu'j'suis a deux doigts de t'niquer ta mère Aux frontière de l'Espagne, moi j'cherche une porteuse Illicite substance, kilos d'coke avaleuse Une mule qui n'a peur de rien surtout pas d'la Guardia Civil garde le morceau face au flics jamais ne ché-cra Banlieue Nord familly Thug, Thug Val d'Oise familly Thug, Thug 9 3 familly Thug, Thug Dakar Blood familly Thug, Thug</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Hey comment c'est gangster Comment c'est gangster Comment c'est gangster hey Comment c'est gangster Y'a pas de doute négro toutes mes tass sont bonnes Si elles pensent que je vais les marier c'est qu'elles doivent être connes Man Alpha est solitaire a peur de personne Shoote les traîtres à Dakar, ils vont saigner dans l'Essonne Pop les gunz négro, filtrez mes paroles Pas besoin d'amis j'suis proche du pactole Attitude musulmane, jamais ne touche à l'alcool Ottoman est en sang mais n'oublie pas le protocole C'est pour tous les anciens qui veulent tendre un guet apens Tu vas te faire niquer devant ta femme et tes enfants Paname c'est trop petit, on finit par se croiser Tes menaces ne tiennent pas, frère je vais t'humilier Je vends des armes aux petits qui veulent tuer leur prof Et du crack sans souci à la sortie des écoles On est la race la plus haïe, rien à foutre de ton amour À défaut d'avoir mon honneur ils ont ma carte de séjour Oublie la taule fais de la maille d'où tu viens mon renoi ? J'ai été partout mais Dakar est dans mon coeur Oublie la taule fais de la maille d'où tu viens mon renoi ? J'ai été partout mais Dakar est dans mon coeur Oublie les armes fais de la maille d'où tu viens mon renoi ? J'ai été partout mais Dakar est dans mon coeur Oublie les armes fais de la maille d'où tu viens mon renoi ? J'ai été partout mais Dakar est dans mon coeur You might also like Et j'adresse un message à tous les petits qui parlent mal Demande à ton grand frère c'est qui qui niquait ta soeur Man t'es pas un gangster t'es juste un footballeur J'fais des bails en bas du bloc on peut se voir tout à l'heure Viens voir la mort je vais t'apprendre la politesse J'irai dire des mots doux aux oreilles de ta princesse La seule loi que je respecte c'est celle du châtiment À force de voir des putes j'ai affaibli mes sentiments Man Alpha vide les caisses comme Pascal Lissouba Tous les jours bien sapé comme si j'étais Zaïrois Nourri au charbon mélangé au goudron Partenaires gitans désosseurs de camions Receleur de cargaisons aux puces de Montreuil Clicli c'est grillé, les keufs ont le mauvais oeil Entouré de bicraveurs qui veulent se repentir Mode de vie étrange comme Seven 1korruptible Oublie la taule fais de la maille d'où tu viens mon renoi ? J'ai été partout mais Dakar est dans mon coeur Oublie la taule fais de la maille d'où tu viens mon renoi ? J'ai été partout mais Dakar est dans mon coeur Oublie les armes fais de la maille d'où tu viens mon renoi ? J'ai été partout mais Dakar est dans mon coeur Oublie les armes fais de la maille d'où tu viens mon renoi ? J'ai été partout mais Dakar est dans mon coeur</t>
+          <t>Hey comment c'est gangster Comment c'est gangster Comment c'est gangster hey Comment c'est gangster Y'a pas de doute négro toutes mes tass sont bonnes Si elles pensent que je vais les marier c'est qu'elles doivent être connes Man Alpha est solitaire a peur de personne Shoote les traîtres à Dakar, ils vont saigner dans l'Essonne Pop les gunz négro, filtrez mes paroles Pas besoin d'amis j'suis proche du pactole Attitude musulmane, jamais ne touche à l'alcool Ottoman est en sang mais n'oublie pas le protocole C'est pour tous les anciens qui veulent tendre un guet apens Tu vas te faire niquer devant ta femme et tes enfants Paname c'est trop petit, on finit par se croiser Tes menaces ne tiennent pas, frère je vais t'humilier Je vends des armes aux petits qui veulent tuer leur prof Et du crack sans souci à la sortie des écoles On est la race la plus haïe, rien à foutre de ton amour À défaut d'avoir mon honneur ils ont ma carte de séjour Oublie la taule fais de la maille d'où tu viens mon renoi ? J'ai été partout mais Dakar est dans mon coeur Oublie la taule fais de la maille d'où tu viens mon renoi ? J'ai été partout mais Dakar est dans mon coeur Oublie les armes fais de la maille d'où tu viens mon renoi ? J'ai été partout mais Dakar est dans mon coeur Oublie les armes fais de la maille d'où tu viens mon renoi ? J'ai été partout mais Dakar est dans mon coeur Et j'adresse un message à tous les petits qui parlent mal Demande à ton grand frère c'est qui qui niquait ta soeur Man t'es pas un gangster t'es juste un footballeur J'fais des bails en bas du bloc on peut se voir tout à l'heure Viens voir la mort je vais t'apprendre la politesse J'irai dire des mots doux aux oreilles de ta princesse La seule loi que je respecte c'est celle du châtiment À force de voir des putes j'ai affaibli mes sentiments Man Alpha vide les caisses comme Pascal Lissouba Tous les jours bien sapé comme si j'étais Zaïrois Nourri au charbon mélangé au goudron Partenaires gitans désosseurs de camions Receleur de cargaisons aux puces de Montreuil Clicli c'est grillé, les keufs ont le mauvais oeil Entouré de bicraveurs qui veulent se repentir Mode de vie étrange comme Seven 1korruptible Oublie la taule fais de la maille d'où tu viens mon renoi ? J'ai été partout mais Dakar est dans mon coeur Oublie la taule fais de la maille d'où tu viens mon renoi ? J'ai été partout mais Dakar est dans mon coeur Oublie les armes fais de la maille d'où tu viens mon renoi ? J'ai été partout mais Dakar est dans mon coeur Oublie les armes fais de la maille d'où tu viens mon renoi ? J'ai été partout mais Dakar est dans mon coeur</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Ok, on est à panam donc je vais pas faire du Dirty South Non, non! On est pas à Atlanta, je vais faire du Dirty Crouille Et Alpha, il fera du Dirty Clicli, ok ? Ouais, ouais! C'est un coup de pare choc dans les radios, jette ton rap de là là là J'suis boycotté dans l'son comme Dieudo face aux chalala J'suis trop lourd comme un tam-tam, j'fais bouger les nuques, yeah Sale pute tu fais du pied, tu suces comme Laurent Ruquier La rafale vient du .25, demande à Alpha 25 Gangsta en boubou, coup d'boule dans les enceintes Boum, boum, aïaïaï, j'suis Jedi, t'es Padawan Toi t'es passée sous l'bureau, le DA t'as dit Taille la oim T'es en vente sur E-Bay, moi j'suis un produit prohibé Everyday I'm Husltin, la rue m'a imbibé C'est la street credibility, j'suis un sbire palestinien Inutile de militier face au clan des Siciliens Les flics nous ont en visu Parce qu'on bizgo de la musique et des jeans Evisu Inévitable, ça vient du bled, wanted Ennemi d'État Coupable avant de l'être, à la Mohammed Atta Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou You might also like Gangsta gangsta Dakar, où les négros prient Traversent des océans, pour fuir la zermi Attitude sismique quand il s'agit d'embrouilles À défaut de flingues frère, on a des shlass qui rouillent Souillent le sol de l'occident jusqu'à la Norvège On a marché sur l'eau, on peut tenir sous la neige Pharmacie c'est le bloodsport, en bas du bloc c'est le drugstore Laisse moi, laisse moi faire de la maille, objectif niquer le score Sans pitié comme Keyser Söze, pour l'État c'est Usual Suspect Plein d'échos sur mon téléphone, moi je te dis que j'ai dû esquiver Vivre et mourir à Dakar, tu peux pas tester le boss Moi je bicrave tous les jours, Hustlin' comme Rick Ross Les négros qui nous haïssent ne méritent même pas de vivre Je les ai vu avec les porcs, essuyant nos putains de vitres Violence vive, faim de maille, stupéfiants au détail XX-93, ouvre le bal des racailles Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Seven! C'est du Dirtizidakar Ouais mec, on est les plus grands de la cité mon frère! C'est Dakar-Tizi Ouzou mon pote, ouais ouais! Ceux qui font de la maille mon pote, sisi!</t>
+          <t>Ok, on est à panam donc je vais pas faire du Dirty South Non, non! On est pas à Atlanta, je vais faire du Dirty Crouille Et Alpha, il fera du Dirty Clicli, ok ? Ouais, ouais! C'est un coup de pare choc dans les radios, jette ton rap de là là là J'suis boycotté dans l'son comme Dieudo face aux chalala J'suis trop lourd comme un tam-tam, j'fais bouger les nuques, yeah Sale pute tu fais du pied, tu suces comme Laurent Ruquier La rafale vient du .25, demande à Alpha 25 Gangsta en boubou, coup d'boule dans les enceintes Boum, boum, aïaïaï, j'suis Jedi, t'es Padawan Toi t'es passée sous l'bureau, le DA t'as dit Taille la oim T'es en vente sur E-Bay, moi j'suis un produit prohibé Everyday I'm Husltin, la rue m'a imbibé C'est la street credibility, j'suis un sbire palestinien Inutile de militier face au clan des Siciliens Les flics nous ont en visu Parce qu'on bizgo de la musique et des jeans Evisu Inévitable, ça vient du bled, wanted Ennemi d'État Coupable avant de l'être, à la Mohammed Atta Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Gangsta gangsta Dakar, où les négros prient Traversent des océans, pour fuir la zermi Attitude sismique quand il s'agit d'embrouilles À défaut de flingues frère, on a des shlass qui rouillent Souillent le sol de l'occident jusqu'à la Norvège On a marché sur l'eau, on peut tenir sous la neige Pharmacie c'est le bloodsport, en bas du bloc c'est le drugstore Laisse moi, laisse moi faire de la maille, objectif niquer le score Sans pitié comme Keyser Söze, pour l'État c'est Usual Suspect Plein d'échos sur mon téléphone, moi je te dis que j'ai dû esquiver Vivre et mourir à Dakar, tu peux pas tester le boss Moi je bicrave tous les jours, Hustlin' comme Rick Ross Les négros qui nous haïssent ne méritent même pas de vivre Je les ai vu avec les porcs, essuyant nos putains de vitres Violence vive, faim de maille, stupéfiants au détail XX-93, ouvre le bal des racailles Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Seven! C'est du Dirtizidakar Ouais mec, on est les plus grands de la cité mon frère! C'est Dakar-Tizi Ouzou mon pote, ouais ouais! Ceux qui font de la maille mon pote, sisi!</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Truc de ouf truc de dingue Ma confiance je la donne qu'à mon flingue Truc de ouf truc de dingue Ma confiance je la donne qu'à mon flingue Bienvenue dans mon monde négro Yarakh City Blood Gang négro Ghetto Fabulous Ground Zero La vérité du berceau au tombeau Bienvenue dans mon monde négro Yarakh City Blood Gang négro Ghetto Fabulous Ground Zero La vérité du berceau au tombeau Truc de ouf truc de dingue Ma confiance je la donne qu'à mon flingue Truc de ouf truc de dingue Ma confianc je la donne qu'à mon flingue Binvenue dans mon monde négro Yarakh City Blood Gang négro Ghetto Fabulous Ground Zero La vérité du berceau au tombeau Bienvenue dans mon monde négro Yarakh City Blood Gang négro Ghetto Fabulous Ground Zero La vérité du berceau au tombeau You might also like Truc de ouf truc de dingue Ma confiance je la donne qu'à mon flingue Truc de ouf truc de dingue Ma confiance je la donne qu'à mon flingue</t>
+          <t>Truc de ouf truc de dingue Ma confiance je la donne qu'à mon flingue Truc de ouf truc de dingue Ma confiance je la donne qu'à mon flingue Bienvenue dans mon monde négro Yarakh City Blood Gang négro Ghetto Fabulous Ground Zero La vérité du berceau au tombeau Bienvenue dans mon monde négro Yarakh City Blood Gang négro Ghetto Fabulous Ground Zero La vérité du berceau au tombeau Truc de ouf truc de dingue Ma confiance je la donne qu'à mon flingue Truc de ouf truc de dingue Ma confianc je la donne qu'à mon flingue Binvenue dans mon monde négro Yarakh City Blood Gang négro Ghetto Fabulous Ground Zero La vérité du berceau au tombeau Bienvenue dans mon monde négro Yarakh City Blood Gang négro Ghetto Fabulous Ground Zero La vérité du berceau au tombeau Truc de ouf truc de dingue Ma confiance je la donne qu'à mon flingue Truc de ouf truc de dingue Ma confiance je la donne qu'à mon flingue</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>J'ai pas peur des négros, j'ai pas peur des arabes J'ai pas peur des gitans, m'en bats les couilles de toutes les races Crapule en boubou Ghetto Fab logo Porte pas de G-Star ça c'est pour les homos Otage de la rue jusqu'à que le rap ... Avec des prêtres vaudous qui éloignent les zombies ... Y'a quoi mon négro moi j'suis en bas du hall Faut qu'on soit enfouraillés juste avant qu'on sorte Mais nique le freefight et les sports de combat Y'a embrouille sors un flingue puis tu tires sur moi Y'a quoi mon négro moi j'suis en bas du hall Faut qu'on soit enfouraillés juste avant qu'on sorte Mais nique le freefight et les sports de combat Y'a embrouille sors un schlass puis boy plante moi Moi je bibi sur la prose, 0.9 c'est la dose Ghetto Fab c'est la cause, en drive by on t'explose ... Y'a quoi mon négro moi j'suis en bas du hall Faut qu'on soit enfouraillés juste avant qu'on sorte Mais nique le freefight et les sports de combat Y'a embrouille sors un flingue puis tu tires sur moi Y'a quoi mon négro moi j'suis en bas du hall Faut qu'on soit enfouraillés juste avant qu'on sorte Mais nique le freefight et les sports de combat Y'a embrouille sors un schlass puis boy plante moi You might also like Si je combats au quotidien frère c'est pour nourrir la mifa Si on m'appelle le philosophe c'est pas pour rien demande à Alpha ... Y'a quoi mon négro moi j'suis en bas du hall Faut qu'on soit enfouraillés juste avant qu'on sorte Mais nique le freefight et les sports de combat Y'a embrouille sors un flingue puis tu tires sur moi Y'a quoi mon négro moi j'suis en bas du hall Faut qu'on soit enfouraillés juste avant qu'on sorte Mais nique le freefight et les sports de combat Y'a embrouille sors un schlass puis boy plante moi</t>
+          <t>J'ai pas peur des négros, j'ai pas peur des arabes J'ai pas peur des gitans, m'en bats les couilles de toutes les races Crapule en boubou Ghetto Fab logo Porte pas de G-Star ça c'est pour les homos Otage de la rue jusqu'à que le rap ... Avec des prêtres vaudous qui éloignent les zombies ... Y'a quoi mon négro moi j'suis en bas du hall Faut qu'on soit enfouraillés juste avant qu'on sorte Mais nique le freefight et les sports de combat Y'a embrouille sors un flingue puis tu tires sur moi Y'a quoi mon négro moi j'suis en bas du hall Faut qu'on soit enfouraillés juste avant qu'on sorte Mais nique le freefight et les sports de combat Y'a embrouille sors un schlass puis boy plante moi Moi je bibi sur la prose, 0.9 c'est la dose Ghetto Fab c'est la cause, en drive by on t'explose ... Y'a quoi mon négro moi j'suis en bas du hall Faut qu'on soit enfouraillés juste avant qu'on sorte Mais nique le freefight et les sports de combat Y'a embrouille sors un flingue puis tu tires sur moi Y'a quoi mon négro moi j'suis en bas du hall Faut qu'on soit enfouraillés juste avant qu'on sorte Mais nique le freefight et les sports de combat Y'a embrouille sors un schlass puis boy plante moi Si je combats au quotidien frère c'est pour nourrir la mifa Si on m'appelle le philosophe c'est pas pour rien demande à Alpha ... Y'a quoi mon négro moi j'suis en bas du hall Faut qu'on soit enfouraillés juste avant qu'on sorte Mais nique le freefight et les sports de combat Y'a embrouille sors un flingue puis tu tires sur moi Y'a quoi mon négro moi j'suis en bas du hall Faut qu'on soit enfouraillés juste avant qu'on sorte Mais nique le freefight et les sports de combat Y'a embrouille sors un schlass puis boy plante moi</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Street life, bling bling, voitures Flicaille, gyrophares et bavures J'ai de l'amour pour mes reufs, ils en ont pour moi Négro fuck la volaille, ils ont la haine pourquoi ? Street life, bling bling, voitures Flicaille, gyrophares et bavures J'ai de l'amour pour mes reufs, ils en ont pour moi Négro nique les jaloux, ils ont la haine pourquoi ? Tasse-pé ne pense pas que moi je vais te nourrir Au pire, je peux te payer juste un McDo Boss P deux fois, j'ai parlé à Jennifer Elle a pas répondu, lle a pris la grosse tête Ell m'a dit Alpha toi t'es trop gangster Je lui dis, mais regarde tes ventes croulent par terre En dehors du ter-ter, j'suis dans le 9.3 Avec une meuf toute fraîche, à côté de chez moi J'ai pas besoin d'Merco pour serrer des tasses-pé J'leur retourne le cerveau, j'y place mes disquettes Alpha est un mac, dans l'esprit des jeunes filles Karima du 9.2, Aïssata du 9.4 Stéréotype banlieue, boy, c'est tout ce qu'elles veulent Un voyou qui parle mal, moi j'men bas la race Mon temps est précieux, et je perds patience Bitch ouvre la porte et tu montes dans la Ford You might also like Street life, bling bling, voitures Flicaille, gyrophares et bavures J'ai de l'amour pour mes reufs, ils en ont pour moi Négro fuck la volaille, ils ont la haine pourquoi ? Street life, bling bling, voitures Flicaille, gyrophares et bavures J'ai de l'amour pour mes reufs, ils en ont pour moi Négro nique les jaloux, ils ont la haine pourquoi ? Que tu prennes le métro ou qu'tu roules en Smart M'demande pas du respect, toi, tu squattes les boîtes J'aime pas les meufs plates avec plein de chichis Qui sont belles qu'la nuit que quand elles s'maquillent Kiffe les surs galsen avec une dent en or Princesse de Gwada parfumée Christian Dior Je veux que tu restes tranquille, quand j'suis en gardav Et qu'tu caches mes flingues quand ils tapent la perquise Cuisine de chez-moi Thiéboudiène et Yassa Pas de poisson pané, purée aux petits-pois Adoucissent les négros puis les rendent faiblards C'est pour ça que des gangsters maintenant jouent les canards Moi, je tâte le terrain, hustler chicots d'requin Rentre en boite puis j'ressors avec un mannequin Biatch fuck l'hôtel, moi jt'ramene dans le 93 Au parc de Villepinte pas loin d'Aulnay-sous-Bois Street life, bling bling, voitures Flicaille, gyrophares et bavures J'ai de l'amour pour mes reufs, ils en ont pour moi Négro fuck la volaille, ils ont la haine pourquoi ? Street life, bling bling, voitures Flicaille, gyrophares et bavures J'ai de l'amour pour mes reufs, ils en ont pour moi Négro nique les jaloux, ils ont la haine pourquoi ?</t>
+          <t>Street life, bling bling, voitures Flicaille, gyrophares et bavures J'ai de l'amour pour mes reufs, ils en ont pour moi Négro fuck la volaille, ils ont la haine pourquoi ? Street life, bling bling, voitures Flicaille, gyrophares et bavures J'ai de l'amour pour mes reufs, ils en ont pour moi Négro nique les jaloux, ils ont la haine pourquoi ? Tasse-pé ne pense pas que moi je vais te nourrir Au pire, je peux te payer juste un McDo Boss P deux fois, j'ai parlé à Jennifer Elle a pas répondu, lle a pris la grosse tête Ell m'a dit Alpha toi t'es trop gangster Je lui dis, mais regarde tes ventes croulent par terre En dehors du ter-ter, j'suis dans le 9.3 Avec une meuf toute fraîche, à côté de chez moi J'ai pas besoin d'Merco pour serrer des tasses-pé J'leur retourne le cerveau, j'y place mes disquettes Alpha est un mac, dans l'esprit des jeunes filles Karima du 9.2, Aïssata du 9.4 Stéréotype banlieue, boy, c'est tout ce qu'elles veulent Un voyou qui parle mal, moi j'men bas la race Mon temps est précieux, et je perds patience Bitch ouvre la porte et tu montes dans la Ford Street life, bling bling, voitures Flicaille, gyrophares et bavures J'ai de l'amour pour mes reufs, ils en ont pour moi Négro fuck la volaille, ils ont la haine pourquoi ? Street life, bling bling, voitures Flicaille, gyrophares et bavures J'ai de l'amour pour mes reufs, ils en ont pour moi Négro nique les jaloux, ils ont la haine pourquoi ? Que tu prennes le métro ou qu'tu roules en Smart M'demande pas du respect, toi, tu squattes les boîtes J'aime pas les meufs plates avec plein de chichis Qui sont belles qu'la nuit que quand elles s'maquillent Kiffe les surs galsen avec une dent en or Princesse de Gwada parfumée Christian Dior Je veux que tu restes tranquille, quand j'suis en gardav Et qu'tu caches mes flingues quand ils tapent la perquise Cuisine de chez-moi Thiéboudiène et Yassa Pas de poisson pané, purée aux petits-pois Adoucissent les négros puis les rendent faiblards C'est pour ça que des gangsters maintenant jouent les canards Moi, je tâte le terrain, hustler chicots d'requin Rentre en boite puis j'ressors avec un mannequin Biatch fuck l'hôtel, moi jt'ramene dans le 93 Au parc de Villepinte pas loin d'Aulnay-sous-Bois Street life, bling bling, voitures Flicaille, gyrophares et bavures J'ai de l'amour pour mes reufs, ils en ont pour moi Négro fuck la volaille, ils ont la haine pourquoi ? Street life, bling bling, voitures Flicaille, gyrophares et bavures J'ai de l'amour pour mes reufs, ils en ont pour moi Négro nique les jaloux, ils ont la haine pourquoi ?</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Hey Ghetto Fabulous Gang Barricade la Tess, c'est Alpha l'ouragan Moi je nique ta ville, comme la Nouvelle-Orléans Evacuez la Louisiane avant mon arrivé Little Dakar Cli-Cli, je suis le vengeur masqué Et peur de personne, surtout pas des anciens Qui se la racontent poto, mais boy ne font rien Flaire l'odeur de la mort, enfouraillé pépère J'attend le jour des embrouilles pour calibrer ta mère Tu croyais quoi négro, que j'avais peur de la taule A 13 piges déjà, c'était ma seconde piaule Capitale de la coke, après Bogota On distribue la poudre, sans l'avis de Sosa Enterre tes pensées et la vie de quiconque cli-cli, moi je suis Nino Brown Plus je regarde ma ville, plus je vois des miracles Plus je garde mon flingue, plus j'ai des obstacles Mais d'où tu viens négro c'est Dakar Mais d'où tu sors ce flow de batard Et l'Alfa-Roméo toute noire Tu dois cacher chose-quel c'est bizarre Ghetto Fabulous Gang Raricim O'rosko Hors la loi music Holocost fréro You might also likeYeai Ca c'est pour mes fréros d'armes cousin VF Gang, Nikma Bledos Tout le motherfucking implacable infernal Ghetto Fabulous Gang Hors la loi, le boy sans bastos Tout mes négros là-bas à Grigny Blankok, Aulnay, Vran-Se, Epinay sur Seine Tout mes boys sur la côte d'azur, Seine sur Mer Sans oublier les boy là bas South Side Haut de Seine, , Bagneux</t>
+          <t>Hey Ghetto Fabulous Gang Barricade la Tess, c'est Alpha l'ouragan Moi je nique ta ville, comme la Nouvelle-Orléans Evacuez la Louisiane avant mon arrivé Little Dakar Cli-Cli, je suis le vengeur masqué Et peur de personne, surtout pas des anciens Qui se la racontent poto, mais boy ne font rien Flaire l'odeur de la mort, enfouraillé pépère J'attend le jour des embrouilles pour calibrer ta mère Tu croyais quoi négro, que j'avais peur de la taule A 13 piges déjà, c'était ma seconde piaule Capitale de la coke, après Bogota On distribue la poudre, sans l'avis de Sosa Enterre tes pensées et la vie de quiconque cli-cli, moi je suis Nino Brown Plus je regarde ma ville, plus je vois des miracles Plus je garde mon flingue, plus j'ai des obstacles Mais d'où tu viens négro c'est Dakar Mais d'où tu sors ce flow de batard Et l'Alfa-Roméo toute noire Tu dois cacher chose-quel c'est bizarre Ghetto Fabulous Gang Raricim O'rosko Hors la loi music Holocost fréro Yeai Ca c'est pour mes fréros d'armes cousin VF Gang, Nikma Bledos Tout le motherfucking implacable infernal Ghetto Fabulous Gang Hors la loi, le boy sans bastos Tout mes négros là-bas à Grigny Blankok, Aulnay, Vran-Se, Epinay sur Seine Tout mes boys sur la côte d'azur, Seine sur Mer Sans oublier les boy là bas South Side Haut de Seine, , Bagneux</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Génération Scarface, territoire 9.3 Boy si t'es un bon guetteur viens tafer pour moi Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Territoire sensible, pas de mal renoi De bis-canna de bis-canna de bis-canna frérot Ne nous pointe pas du doigt on est les premiers sur le terrain Génération Scarface, plein de noirs et maghrébins Des noichs qui bicravent, Orly par Gonesse Dans le ghetto c'est carnage Sevran 93 Et de retour à Orgemont réunion de gangstas Super M Hood Boss taxiphone rue du ... Boy boy trouve ta meuf à l'hôtel avec moi Elle répond pas au phonetél elle parle mal sur toi Continue à l'appeler toi t'es trop sensible Plus t'écoutes mon rap sauve ta vie comme la Bible C'est Alpha 5.20 dans une Alpha Romeo kahlouch Mitraillettes toujours pleines 93 cartouches Négro parle mal moi j'suis comme Lucky Luke Garde mes nerfs à vif juste comme Jo Dalton boy You might also like Blackill c'est dangereux ... Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Génération Scarface, territoire 9.3 Boy si t'es un bon guetteur viens tafer pour moi Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Territoire sensible, pas de mal renoi De bis-canna de bis-canna de bis-canna frérot Je trouve la paix que quand je fais la guerre ... ... Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Génération Scarface, territoire 9.3 Boy si t'es un bon guetteur viens tafer pour moi Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Territoire sensible, pas de mal renoi De bis-canna de bis-canna de bis-canna frérot</t>
+          <t>Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Génération Scarface, territoire 9.3 Boy si t'es un bon guetteur viens tafer pour moi Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Territoire sensible, pas de mal renoi De bis-canna de bis-canna de bis-canna frérot Ne nous pointe pas du doigt on est les premiers sur le terrain Génération Scarface, plein de noirs et maghrébins Des noichs qui bicravent, Orly par Gonesse Dans le ghetto c'est carnage Sevran 93 Et de retour à Orgemont réunion de gangstas Super M Hood Boss taxiphone rue du ... Boy boy trouve ta meuf à l'hôtel avec moi Elle répond pas au phonetél elle parle mal sur toi Continue à l'appeler toi t'es trop sensible Plus t'écoutes mon rap sauve ta vie comme la Bible C'est Alpha 5.20 dans une Alpha Romeo kahlouch Mitraillettes toujours pleines 93 cartouches Négro parle mal moi j'suis comme Lucky Luke Garde mes nerfs à vif juste comme Jo Dalton boy Blackill c'est dangereux ... Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Génération Scarface, territoire 9.3 Boy si t'es un bon guetteur viens tafer pour moi Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Territoire sensible, pas de mal renoi De bis-canna de bis-canna de bis-canna frérot Je trouve la paix que quand je fais la guerre ... ... Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Génération Scarface, territoire 9.3 Boy si t'es un bon guetteur viens tafer pour moi Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Territoire sensible, pas de mal renoi De bis-canna de bis-canna de bis-canna frérot</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Génération Scarface, territoire 9.3 Boy si t'es un bon guetteur viens tafer pour moi Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Territoire sensible, pas de mal renoi De bis-canna de bis-canna de bis-canna frérot Ne nous pointe pas du doigt on est les premiers sur le terrain Génération Scarface, plein de noirs et maghrébins Des noichs qui bicravent, Orly par Gonesse Dans le ghetto c'est carnage Sevran 93 Et de retour à Orgemont réunion de gangstas Super M Hood Boss taxiphone rue du ... Boy boy trouve ta meuf à l'hôtel avec moi Elle répond pas au phonetél elle parle mal sur toi Continue à l'appeler toi t'es trop sensible Plus t'écoutes mon rap sauve ta vie comme la Bible C'est Alpha 5.20 dans une Alpha Romeo kahlouch Mitraillettes toujours pleines 93 cartouches Négro parle mal moi j'suis comme Lucky Luke Garde mes nerfs à vif juste comme Jo Dalton boy You might also like Blackill c'est dangereux ... Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Génération Scarface, territoire 9.3 Boy si t'es un bon guetteur viens tafer pour moi Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Territoire sensible, pas de mal renoi De bis-canna de bis-canna de bis-canna frérot Je trouve la paix que quand je fais la guerre ... ... Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Génération Scarface, territoire 9.3 Boy si t'es un bon guetteur viens tafer pour moi Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Territoire sensible, pas de mal renoi De bis-canna de bis-canna de bis-canna frérot</t>
+          <t>Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Génération Scarface, territoire 9.3 Boy si t'es un bon guetteur viens tafer pour moi Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Territoire sensible, pas de mal renoi De bis-canna de bis-canna de bis-canna frérot Ne nous pointe pas du doigt on est les premiers sur le terrain Génération Scarface, plein de noirs et maghrébins Des noichs qui bicravent, Orly par Gonesse Dans le ghetto c'est carnage Sevran 93 Et de retour à Orgemont réunion de gangstas Super M Hood Boss taxiphone rue du ... Boy boy trouve ta meuf à l'hôtel avec moi Elle répond pas au phonetél elle parle mal sur toi Continue à l'appeler toi t'es trop sensible Plus t'écoutes mon rap sauve ta vie comme la Bible C'est Alpha 5.20 dans une Alpha Romeo kahlouch Mitraillettes toujours pleines 93 cartouches Négro parle mal moi j'suis comme Lucky Luke Garde mes nerfs à vif juste comme Jo Dalton boy Blackill c'est dangereux ... Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Génération Scarface, territoire 9.3 Boy si t'es un bon guetteur viens tafer pour moi Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Territoire sensible, pas de mal renoi De bis-canna de bis-canna de bis-canna frérot Je trouve la paix que quand je fais la guerre ... ... Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Génération Scarface, territoire 9.3 Boy si t'es un bon guetteur viens tafer pour moi Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Territoire sensible, pas de mal renoi De bis-canna de bis-canna de bis-canna frérot</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Réussir ou mourir comme 50 cent Si j'échoue négro pas de retour au bled Killa killa Alpha c'est la maille saison Président du ghetto comme Bill Clinton Boy le flow est nerveux, handicape les MC's Pénible est la sanction et les keufs en faction Appelle Julie Lescaut pour me sucer négro Puis je retourne dans la cave bicrave crack et popo Poto c'est comme ça que les gangsters roulent Depuis les Démocrates D on a toujours été physique Rarement émotif quand il s'agit de poucaves Nous on aime les millionnaires qui squattent les kebabs 9.3 négro nous on n'aime pas les clashs Mais si un bouffon parle mal on le remet à sa place Suggère aux MC's de nous laisser tranquille J'ai planqué quelques uzis à l'arrière de ma voiture Ghetto Fabulous Gang, négros savent qui nous sommes Clicli pépère nous on tue Mesrine Ghetto Fabulous Gang, mec personne nous emmerde Comme à l'époque des requins nous c'est Hoodie Hoodie Sors le uzi bloc rougi rougi Montana renoi dis bonjour à Tony hey You might also like Couz' j'suis dans l'islam avec le hram on ne couche pas Pour le hlel on se couche tard Nous on hel hel les mouchards, efface tes empreintes avec un mouchoir Boycotté comme Dead Prez Des blancs sataniques sur des belles fresques Tout est planifié, tu veux qu'on quitte sur des belles fesses ? Starf'ullah Des bêtes sur vestes et des bêtes de festins Quand on pèche on se confesse, inspiré du sacré Conscient dans ce qu'on fait, méthodique comme Scofield Nos plans se peaufinent, on a diabolisé mon profil Comme si j'étais l'ennemi de Buffy, mais à qui ça profite ? J'suis un de ces beurs fit, loin des Shop Coffee Mais qui contrôle der Hannan Koffi ? La rage comme si je vivais dans un champ de coton La mécréance en cloque, un avenir méchant dans un cocon Le bien le mal en conflit, on est proche du bûcher Loin du buffet, du canard confit, on t'a fait bouffer, oublié de grailler en un boucher Moi je taffe mon QI, comme un manouche je tape le cuivre La vérité se mange cru, la coke se cuit La soif d'oseille te court-cuite, avec Sheitan c'est course poursuite Ghetto Fabulous Gang, mec personne nous emmerde Comme à l'époque des requins nous c'est Hoodie Hoodie Sors le uzi bloc rougi rougi Montana renoi dis bonjour à Tony Ghetto Fabulous Gang, mec personne nous emmerde Comme à l'époque des requins nous c'est Hoodie Hoodie Sors le uzi bloc rougi rougi Montana renoi dis bonjour à Tony hey Street life fait de spliff et de pillave ...</t>
+          <t>Réussir ou mourir comme 50 cent Si j'échoue négro pas de retour au bled Killa killa Alpha c'est la maille saison Président du ghetto comme Bill Clinton Boy le flow est nerveux, handicape les MC's Pénible est la sanction et les keufs en faction Appelle Julie Lescaut pour me sucer négro Puis je retourne dans la cave bicrave crack et popo Poto c'est comme ça que les gangsters roulent Depuis les Démocrates D on a toujours été physique Rarement émotif quand il s'agit de poucaves Nous on aime les millionnaires qui squattent les kebabs 9.3 négro nous on n'aime pas les clashs Mais si un bouffon parle mal on le remet à sa place Suggère aux MC's de nous laisser tranquille J'ai planqué quelques uzis à l'arrière de ma voiture Ghetto Fabulous Gang, négros savent qui nous sommes Clicli pépère nous on tue Mesrine Ghetto Fabulous Gang, mec personne nous emmerde Comme à l'époque des requins nous c'est Hoodie Hoodie Sors le uzi bloc rougi rougi Montana renoi dis bonjour à Tony hey Couz' j'suis dans l'islam avec le hram on ne couche pas Pour le hlel on se couche tard Nous on hel hel les mouchards, efface tes empreintes avec un mouchoir Boycotté comme Dead Prez Des blancs sataniques sur des belles fresques Tout est planifié, tu veux qu'on quitte sur des belles fesses ? Starf'ullah Des bêtes sur vestes et des bêtes de festins Quand on pèche on se confesse, inspiré du sacré Conscient dans ce qu'on fait, méthodique comme Scofield Nos plans se peaufinent, on a diabolisé mon profil Comme si j'étais l'ennemi de Buffy, mais à qui ça profite ? J'suis un de ces beurs fit, loin des Shop Coffee Mais qui contrôle der Hannan Koffi ? La rage comme si je vivais dans un champ de coton La mécréance en cloque, un avenir méchant dans un cocon Le bien le mal en conflit, on est proche du bûcher Loin du buffet, du canard confit, on t'a fait bouffer, oublié de grailler en un boucher Moi je taffe mon QI, comme un manouche je tape le cuivre La vérité se mange cru, la coke se cuit La soif d'oseille te court-cuite, avec Sheitan c'est course poursuite Ghetto Fabulous Gang, mec personne nous emmerde Comme à l'époque des requins nous c'est Hoodie Hoodie Sors le uzi bloc rougi rougi Montana renoi dis bonjour à Tony Ghetto Fabulous Gang, mec personne nous emmerde Comme à l'époque des requins nous c'est Hoodie Hoodie Sors le uzi bloc rougi rougi Montana renoi dis bonjour à Tony hey Street life fait de spliff et de pillave ...</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>C'est Dakar Maki, West Side Kaki Dans le hood où je vis, là où Yarakh ma vie Casse toi bouffon tu me rends nerveux Ou appelle tes potes ouais cest ça morveux Et tu fermes ta gueule, tu veux pas d'embrouilles Viens pas à Dakar si t'as pas damour Tant de haine à cracher que Satan s'étonne Yo Epinay Orgemont, dans le four je bétonne Ce qu'il faut dans le coffre, des outils et des hommes Si tu paies plus cher, moi je sors les bonbonnes A 2 doigts de la mort frère regarde devant toi T'aimes pas Alpha mais qu'est ce que t'as après ça ? Je suis pas fair play, j'ai 4 as au poker Yo si t'as rien saisi, prends toi un joker Cest le bled en France depuis ma date de naissance Sodomise le système avec un bidon dessence Si je meurs c'est rien, que le fusil du destin Et les keufs et les poucaves vont se faire un festin Instinct de fauve repli, moi je marche seul Jai jamais vu un négro, j'ai le sang peul Touche ap renoi, couche oit renoi C'est ma maille négro alors frère ne touche pas yeahYou might also like</t>
+          <t>C'est Dakar Maki, West Side Kaki Dans le hood où je vis, là où Yarakh ma vie Casse toi bouffon tu me rends nerveux Ou appelle tes potes ouais cest ça morveux Et tu fermes ta gueule, tu veux pas d'embrouilles Viens pas à Dakar si t'as pas damour Tant de haine à cracher que Satan s'étonne Yo Epinay Orgemont, dans le four je bétonne Ce qu'il faut dans le coffre, des outils et des hommes Si tu paies plus cher, moi je sors les bonbonnes A 2 doigts de la mort frère regarde devant toi T'aimes pas Alpha mais qu'est ce que t'as après ça ? Je suis pas fair play, j'ai 4 as au poker Yo si t'as rien saisi, prends toi un joker Cest le bled en France depuis ma date de naissance Sodomise le système avec un bidon dessence Si je meurs c'est rien, que le fusil du destin Et les keufs et les poucaves vont se faire un festin Instinct de fauve repli, moi je marche seul Jai jamais vu un négro, j'ai le sang peul Touche ap renoi, couche oit renoi C'est ma maille négro alors frère ne touche pas yeah</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>T'es toujours dans la course refré ? On sera toujours là pour te visser ... Dakar Dakar pas une cité comme la mienne .. Nos vies sont plongées dans l'illégal, l'illégal casse des gueules ... ... Northside northside Ghetto Fabulous Gang 9.3 zone de guerre frère on est tous degs Ça bicrave ça deale comme Capone Chicago Embrouilles et trafics martial KO ... Me pousse pas à l'extrême j'suis au bord de la dérive Juste en haut des tours jumlles puis je me jtte dans le vide Fahrenheit 911 on fait trembler New York Ghetto Fabulous Gang renois savent qui nous sommes Frère la vie est dure mais la mort est facile Loge une balle dans ton crâne puis je rentre à Dakar ... Terre des braves stand up au dessus des lois Viens en paix négro sinon reste chez toi You might also like Dakar Dakar pas une cité comme la mienne Même si les fourgons sont vides on les braque quand même Fahrenheit 911 boy un son de bâtard ...</t>
+          <t>T'es toujours dans la course refré ? On sera toujours là pour te visser ... Dakar Dakar pas une cité comme la mienne .. Nos vies sont plongées dans l'illégal, l'illégal casse des gueules ... ... Northside northside Ghetto Fabulous Gang 9.3 zone de guerre frère on est tous degs Ça bicrave ça deale comme Capone Chicago Embrouilles et trafics martial KO ... Me pousse pas à l'extrême j'suis au bord de la dérive Juste en haut des tours jumlles puis je me jtte dans le vide Fahrenheit 911 on fait trembler New York Ghetto Fabulous Gang renois savent qui nous sommes Frère la vie est dure mais la mort est facile Loge une balle dans ton crâne puis je rentre à Dakar ... Terre des braves stand up au dessus des lois Viens en paix négro sinon reste chez toi Dakar Dakar pas une cité comme la mienne Même si les fourgons sont vides on les braque quand même Fahrenheit 911 boy un son de bâtard ...</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Premier chapitre soyez les bienvenus, ma vie ne sent pas l'eau de rose J'compose explose dose, une bastos j'vous baise tous C'est pas l'homme qui prend la mer, c'est la merde tout court En tête à tête avec l'instru, t'es qu'un pédé si tu cours J'rappe ma vie poto, j'garde la pêche et le noyau J'persévère, j'rappe même si j'ai rien dans les boyaux J'baill au M.I.C écoute couz' j'vous mets des coups d coude Voici le son qui tourne en MJC ... Yo des blocs de l'Essonne au drugstore du 9.3 J'ai de l'amour frérot si t'en as pour moi Ghetto Fabulous Gang ken des keufs renoi Fumeur de volaille Sarko tu vas nous faire quoi ? ... ...You might also like</t>
+          <t>Premier chapitre soyez les bienvenus, ma vie ne sent pas l'eau de rose J'compose explose dose, une bastos j'vous baise tous C'est pas l'homme qui prend la mer, c'est la merde tout court En tête à tête avec l'instru, t'es qu'un pédé si tu cours J'rappe ma vie poto, j'garde la pêche et le noyau J'persévère, j'rappe même si j'ai rien dans les boyaux J'baill au M.I.C écoute couz' j'vous mets des coups d coude Voici le son qui tourne en MJC ... Yo des blocs de l'Essonne au drugstore du 9.3 J'ai de l'amour frérot si t'en as pour moi Ghetto Fabulous Gang ken des keufs renoi Fumeur de volaille Sarko tu vas nous faire quoi ? ... ...</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Quelques bonhommes et trop de pédés putain si j'avais su ... Dans la rue c'est nous dans le bloc c'est nous Dans les stades c'est nous mais sur Sky c'est vous ... Ne me teste même pas je te déteste même pas .. Dans la rue c'est nous dans le bloc c'est nous Dans les stades c'est nous mais sur Sky c'est vous La maille c'est rien mais le respect c'est tout Mieux vaut mourir que de vivre à gnoux Dans la rue c'est nous dans le bloc c'st nous Dans les stades c'est nous mais sur Sky c'est vous La maille c'est rien mais le respect c'est tout Mieux vaut mourir que de vivre à genoux La plume sur le macadam ... You might also like Dans la rue c'est nous dans le bloc c'est nous Dans les stades c'est nous mais sur Sky c'est vous La maille c'est rien mais le respect c'est tout Mieux vaut mourir que de vivre à genoux Dans la rue c'est nous dans le bloc c'est nous Dans les stades c'est nous mais sur Sky c'est vous La maille c'est rien mais le respect c'est tout Mieux vaut mourir que de vivre à genoux</t>
+          <t>Quelques bonhommes et trop de pédés putain si j'avais su ... Dans la rue c'est nous dans le bloc c'est nous Dans les stades c'est nous mais sur Sky c'est vous ... Ne me teste même pas je te déteste même pas .. Dans la rue c'est nous dans le bloc c'est nous Dans les stades c'est nous mais sur Sky c'est vous La maille c'est rien mais le respect c'est tout Mieux vaut mourir que de vivre à gnoux Dans la rue c'est nous dans le bloc c'st nous Dans les stades c'est nous mais sur Sky c'est vous La maille c'est rien mais le respect c'est tout Mieux vaut mourir que de vivre à genoux La plume sur le macadam ... Dans la rue c'est nous dans le bloc c'est nous Dans les stades c'est nous mais sur Sky c'est vous La maille c'est rien mais le respect c'est tout Mieux vaut mourir que de vivre à genoux Dans la rue c'est nous dans le bloc c'est nous Dans les stades c'est nous mais sur Sky c'est vous La maille c'est rien mais le respect c'est tout Mieux vaut mourir que de vivre à genoux</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Le cash dans la bouche des mômes depuis la crèche Le cash, cette gue-dro qu'on cache pas dans la tess Pour du cash, certains crachent sur leur dignité Un coup par ci, un coup par là, faut pas imiter Réellement j'veux palper en culbutant J'suis pas le genre de type qui prend des thunes en boîtant Certains ont sucé la bite à Satan Juste pour une avance ces enculés prennent des clans Y'a que les putes qui se font de l'argent fils La patience paie donc mourir tôt j'évite ... On est tous dans le rap pour baiser ce biz Pourquoi depuis la naissance je voulais déjà un kalash Ici on me check depuis le décollage ... Mais juste nostal Sauvage est mon continent sache le maintenant ... Sens la rage sens la haine dans nos gènes ... On frappe pas à la porte, on les défonce puis on rentre You might also like Tu peux m'appeler le magicien je fais des tours affolants D'un seul coup j'ai transformé le commissarait en cerf volant ... Je vends les plaquettes ou les barettes en édition limitée bref Foncedé sous Marie Jeanne ... Ma colère a Attends je finis ma bouteille puis je te la casse dans la tête Ça c'est pour mes gars sous l'oeil de la caméra ... ... ... ... ... J'ai plongé en apnée sans oxygène ni scaphandre ... Et comme 2pac all eyez on me ... ...</t>
+          <t>Le cash dans la bouche des mômes depuis la crèche Le cash, cette gue-dro qu'on cache pas dans la tess Pour du cash, certains crachent sur leur dignité Un coup par ci, un coup par là, faut pas imiter Réellement j'veux palper en culbutant J'suis pas le genre de type qui prend des thunes en boîtant Certains ont sucé la bite à Satan Juste pour une avance ces enculés prennent des clans Y'a que les putes qui se font de l'argent fils La patience paie donc mourir tôt j'évite ... On est tous dans le rap pour baiser ce biz Pourquoi depuis la naissance je voulais déjà un kalash Ici on me check depuis le décollage ... Mais juste nostal Sauvage est mon continent sache le maintenant ... Sens la rage sens la haine dans nos gènes ... On frappe pas à la porte, on les défonce puis on rentre Tu peux m'appeler le magicien je fais des tours affolants D'un seul coup j'ai transformé le commissarait en cerf volant ... Je vends les plaquettes ou les barettes en édition limitée bref Foncedé sous Marie Jeanne ... Ma colère a Attends je finis ma bouteille puis je te la casse dans la tête Ça c'est pour mes gars sous l'oeil de la caméra ... ... ... ... ... J'ai plongé en apnée sans oxygène ni scaphandre ... Et comme 2pac all eyez on me ... ...</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>C'est trop violent, fat Urban insolent, ne jure pas sur le Coran Déodorant, ça schlingue les collants Euros convertis en francs Renoi mes centimes àl, Praz voilà ma team Kill sans mes-ar, peace Respire ouvre les yeux man Quand la violence atteint son paroxysme, les darons siestent Ne pleure pas, 1 de perdue, 10 du vice dans le sang Du style dans mes rimes, 1 bloc dans mes jeans A la Mesrine cogite ... taper la tête contre les murs ... Mets ta ceinture, brave les interdits Qu'on me pardonne mes fautes d'orthographe et de grammaire Vers conjugué en hommage à mes confrères, force Yo les fleurs ne poussent pas, que du béton armé Rosko et Alpha gangsters incarnés La Praz des soldats, 3keus et Aulnay Renois savent maintenant, Clichy Montfermeil Yo les fleurs ne poussent pas, que du béton armé Rosko et Alpha gangsters incarnés La Praz des soldats, 3keus et Aulnay Renois savent maintenant, Clichy Montfermeil You might also like Sale pédé sache que les choses sont ainsi ... Même en stard-co j'ai la délinquance dans le sang ... Tire pas de balle à blanc même si tu fais pas la rregue putain ... ... Yo les fleurs ne poussent pas, que du béton armé Rosko et Alpha gangsters incarnés La Praz des soldats, 3keus et Aulnay Renois savent maintenant, Clichy Montfermeil Yo les fleurs ne poussent pas, que du béton armé Rosko et Alpha gangsters incarnés La Praz des soldats, 3keus et Aulnay Renois savent maintenant, Clichy Montfermeil</t>
+          <t>C'est trop violent, fat Urban insolent, ne jure pas sur le Coran Déodorant, ça schlingue les collants Euros convertis en francs Renoi mes centimes àl, Praz voilà ma team Kill sans mes-ar, peace Respire ouvre les yeux man Quand la violence atteint son paroxysme, les darons siestent Ne pleure pas, 1 de perdue, 10 du vice dans le sang Du style dans mes rimes, 1 bloc dans mes jeans A la Mesrine cogite ... taper la tête contre les murs ... Mets ta ceinture, brave les interdits Qu'on me pardonne mes fautes d'orthographe et de grammaire Vers conjugué en hommage à mes confrères, force Yo les fleurs ne poussent pas, que du béton armé Rosko et Alpha gangsters incarnés La Praz des soldats, 3keus et Aulnay Renois savent maintenant, Clichy Montfermeil Yo les fleurs ne poussent pas, que du béton armé Rosko et Alpha gangsters incarnés La Praz des soldats, 3keus et Aulnay Renois savent maintenant, Clichy Montfermeil Sale pédé sache que les choses sont ainsi ... Même en stard-co j'ai la délinquance dans le sang ... Tire pas de balle à blanc même si tu fais pas la rregue putain ... ... Yo les fleurs ne poussent pas, que du béton armé Rosko et Alpha gangsters incarnés La Praz des soldats, 3keus et Aulnay Renois savent maintenant, Clichy Montfermeil Yo les fleurs ne poussent pas, que du béton armé Rosko et Alpha gangsters incarnés La Praz des soldats, 3keus et Aulnay Renois savent maintenant, Clichy Montfermeil</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Aux deurs-vi de boîte je ne parle pas Et j'achète tout le bar mais je bois pas Originale caillera vient du 93 Tamponne les tasses mais sans constat Ghetto Fabulous Gang invasion Dans le block frère même dans les pavillons Broliqué, sans papiers Tu veux la guerre avec t'es nous ? T'es niqué ! 93 tous les jours frères gunz UP Afrique noire, Maghreb stand UP La maille avant les tassepés d'abord Crapules à enfermer dehors Bicraveur substanciel Maillr, baiser c'est l'essntiel Starfuckeuse, caillera baiseuse Dakar brigade anti crasseuses ...You might also like</t>
+          <t>Aux deurs-vi de boîte je ne parle pas Et j'achète tout le bar mais je bois pas Originale caillera vient du 93 Tamponne les tasses mais sans constat Ghetto Fabulous Gang invasion Dans le block frère même dans les pavillons Broliqué, sans papiers Tu veux la guerre avec t'es nous ? T'es niqué ! 93 tous les jours frères gunz UP Afrique noire, Maghreb stand UP La maille avant les tassepés d'abord Crapules à enfermer dehors Bicraveur substanciel Maillr, baiser c'est l'essntiel Starfuckeuse, caillera baiseuse Dakar brigade anti crasseuses ...</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Aux deurs-vi de boîte je ne parle pas Et j'achète tout le bar mais je bois pas Originale caillera vient du 93 Tamponne les tasses mais sans constat Ghetto Fabulous Gang invasion Dans le block frère même dans les pavillons Broliqué, sans papiers Tu veux la guerre avec t'es nous ? T'es niqué ! 93 tous les jours frères gunz UP Afrique noire, Maghreb stand UP La maille avant les tassepés d'abord Crapules à enfermer dehors Bicraveur substanciel Mailler, baiser c'est l'essentiel Starfuckeuse, caillera baiseuse Dakar brigade anti crasseuses ...You might also like</t>
+          <t>Aux deurs-vi de boîte je ne parle pas Et j'achète tout le bar mais je bois pas Originale caillera vient du 93 Tamponne les tasses mais sans constat Ghetto Fabulous Gang invasion Dans le block frère même dans les pavillons Broliqué, sans papiers Tu veux la guerre avec t'es nous ? T'es niqué ! 93 tous les jours frères gunz UP Afrique noire, Maghreb stand UP La maille avant les tassepés d'abord Crapules à enfermer dehors Bicraveur substanciel Mailler, baiser c'est l'essentiel Starfuckeuse, caillera baiseuse Dakar brigade anti crasseuses ...</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Hey, hey! Seine-Saint-Denis! Hey, hey hey, gremlins Mais boy, quoi ? Quoi ? D'où tu viens ? Viens ? Neuf-trois, trois, lâche rien, rien Sodomise le rap, mais pas encore de disque d'or Depuis la préhistoire, les négros savent qu'on a le mort Mais boy, quoi ? Quoi ? D'où tu viens ? Viens ? Neuf-trois, trois, lâche rien, rien Sodomise le rap, mais pas encore de disque d'or Depuis la préhistoire, les négros savent qu'on a le mort Peine dans le crime, jamais dans la frime Fais monter en flèche le taux du banditisme Violence gratuite dans le hall des gares Je parle pas des branleurs qui agressent les femmes Je parle de meurtriers, je parle de tueurs Je parle de receleurs, je parle de bicraveurs Je parle de truands, je parle de braqueurs Bonhomme, tu sais le 93, c'est murder Ça tire à Bondy, un meurtre à Noisy Les balles perdues, c'est la guerre de l'héroïne Je parle de Cité Rose, je parle de CSL Je parle d'Orgemont, je parle de Super M Je parle de Pavé Neuf, et Villetaneuse NSL, All Star City Ne parle pas de nous dans tes mixtapes Tes albums de merde, ici, on n'est pas aux states You might also like Mais boy, quoi ? Quoi ? D'où tu viens ? Viens ? Neuf-trois, trois, lâche rien, rien Sodomise le rap, mais pas encore de disque d'or Depuis la préhistoire, les négros savent qu'on a le mort Mais boy, quoi ? Quoi ? D'où tu viens ? Viens ? Neuf-trois, trois, lâche rien, rien Sodomise le rap, mais pas encore de disque d'or Depuis la préhistoire, les négros savent qu'on a le mort Je parle d'embrouilles, je parle de barres de fer Je parle de ceux qui maillent capuchés en hiver J'suis comme Djibril, j'ai du seum bien visser Ça va de Tremblay, Villepinte jusqu'aux Courtillières Mais tranquille frère, n'attire pas la foudre Le canon à poudre, ou sinon ta bouche mousse Je parle de malfrats, comploteurs de parkings Et pour nous l'état, c'est bourgeoisie casting Je parle de frères muz, ghetto islamiste Je parle d'auto-défense, ils appellent ça terrorisme Je parle de cuisiniers, trois-étoiles pas d'chimistes Mortalité infantile comme au tiers-monde Je parle d'HIV, taux élevé de SIDA Même à genoux boy, nous jamais on baisse les bras Palais de justice, abonnés aux assises On saute par la fenêtre, négro nique leur verdict Mais boy, quoi ? Quoi ? D'où tu viens ? Viens ? Neuf-trois, trois, lâche rien, rien Sodomise le rap, mais pas encore de disque d'or Depuis la préhistoire, les négros savent qu'on a le mort Mais boy, quoi ? Quoi ? D'où tu viens ? Viens ? Neuf-trois, trois, lâche rien, rien Sodomise le rap, mais pas encore de disque d'or Depuis la préhistoire, les négros savent qu'on a le mort Mais 93, c'est la secte, le mal te guette Tous condamnés à mort comme la ligne verte On a joué dans La Horde, on a joué dans Go Fast Slalomé devant les balles comme dans les rues de Belfast Je parle de Sevran, je parle de Livry, les souvenirs de John Travolta à Clichy Monfermeil, aka la tess de Ben Lade Mollah Omar, frère, mentalité schizophrène 93 zoo, man nique tout Rosny-sous, Aulnay-sous, que des chiens fous! Je parle de Blanc-Mesnil, Bourget, Drancy Je parle des Lilas, Bagnolet et Saint-Denis Villemomble et Raincy, Auber et Saint-Ouen Little Bamako, Montreuil, frère on lâche rien Touché, couché par les douilles de mon équipe pas facile d'imiter Touché, couché par les douilles de mon équipe pas facile d'imiter Mais difficile de buter, mec toutes les putes, tu le sais qu'on les a remis de côté, côté Touché, couché par les douilles de mon équipe pas facile d'imiter Touché, couché par les douilles de mon équipe pas facile d'imiter Mais difficile de buter, mec toutes les putes, tu le sais qu'on les a remis de côté, côté Brah brah brah braaah</t>
+          <t>Hey, hey! Seine-Saint-Denis! Hey, hey hey, gremlins Mais boy, quoi ? Quoi ? D'où tu viens ? Viens ? Neuf-trois, trois, lâche rien, rien Sodomise le rap, mais pas encore de disque d'or Depuis la préhistoire, les négros savent qu'on a le mort Mais boy, quoi ? Quoi ? D'où tu viens ? Viens ? Neuf-trois, trois, lâche rien, rien Sodomise le rap, mais pas encore de disque d'or Depuis la préhistoire, les négros savent qu'on a le mort Peine dans le crime, jamais dans la frime Fais monter en flèche le taux du banditisme Violence gratuite dans le hall des gares Je parle pas des branleurs qui agressent les femmes Je parle de meurtriers, je parle de tueurs Je parle de receleurs, je parle de bicraveurs Je parle de truands, je parle de braqueurs Bonhomme, tu sais le 93, c'est murder Ça tire à Bondy, un meurtre à Noisy Les balles perdues, c'est la guerre de l'héroïne Je parle de Cité Rose, je parle de CSL Je parle d'Orgemont, je parle de Super M Je parle de Pavé Neuf, et Villetaneuse NSL, All Star City Ne parle pas de nous dans tes mixtapes Tes albums de merde, ici, on n'est pas aux states Mais boy, quoi ? Quoi ? D'où tu viens ? Viens ? Neuf-trois, trois, lâche rien, rien Sodomise le rap, mais pas encore de disque d'or Depuis la préhistoire, les négros savent qu'on a le mort Mais boy, quoi ? Quoi ? D'où tu viens ? Viens ? Neuf-trois, trois, lâche rien, rien Sodomise le rap, mais pas encore de disque d'or Depuis la préhistoire, les négros savent qu'on a le mort Je parle d'embrouilles, je parle de barres de fer Je parle de ceux qui maillent capuchés en hiver J'suis comme Djibril, j'ai du seum bien visser Ça va de Tremblay, Villepinte jusqu'aux Courtillières Mais tranquille frère, n'attire pas la foudre Le canon à poudre, ou sinon ta bouche mousse Je parle de malfrats, comploteurs de parkings Et pour nous l'état, c'est bourgeoisie casting Je parle de frères muz, ghetto islamiste Je parle d'auto-défense, ils appellent ça terrorisme Je parle de cuisiniers, trois-étoiles pas d'chimistes Mortalité infantile comme au tiers-monde Je parle d'HIV, taux élevé de SIDA Même à genoux boy, nous jamais on baisse les bras Palais de justice, abonnés aux assises On saute par la fenêtre, négro nique leur verdict Mais boy, quoi ? Quoi ? D'où tu viens ? Viens ? Neuf-trois, trois, lâche rien, rien Sodomise le rap, mais pas encore de disque d'or Depuis la préhistoire, les négros savent qu'on a le mort Mais boy, quoi ? Quoi ? D'où tu viens ? Viens ? Neuf-trois, trois, lâche rien, rien Sodomise le rap, mais pas encore de disque d'or Depuis la préhistoire, les négros savent qu'on a le mort Mais 93, c'est la secte, le mal te guette Tous condamnés à mort comme la ligne verte On a joué dans La Horde, on a joué dans Go Fast Slalomé devant les balles comme dans les rues de Belfast Je parle de Sevran, je parle de Livry, les souvenirs de John Travolta à Clichy Monfermeil, aka la tess de Ben Lade Mollah Omar, frère, mentalité schizophrène 93 zoo, man nique tout Rosny-sous, Aulnay-sous, que des chiens fous! Je parle de Blanc-Mesnil, Bourget, Drancy Je parle des Lilas, Bagnolet et Saint-Denis Villemomble et Raincy, Auber et Saint-Ouen Little Bamako, Montreuil, frère on lâche rien Touché, couché par les douilles de mon équipe pas facile d'imiter Touché, couché par les douilles de mon équipe pas facile d'imiter Mais difficile de buter, mec toutes les putes, tu le sais qu'on les a remis de côté, côté Touché, couché par les douilles de mon équipe pas facile d'imiter Touché, couché par les douilles de mon équipe pas facile d'imiter Mais difficile de buter, mec toutes les putes, tu le sais qu'on les a remis de côté, côté Brah brah brah braaah</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Hein, Rakailles 4 boy, 5.20, Sambastos Zehef, hein, ok, hein Ça reste d'la classe boy, écoute-ça, hein Sambastos l'gang, Rakailles 4, Ghetto Fab' les MC's ont les glandes, ils vont sucer mon gland Criminel au microphone, j'fais du taf ou du cash Faut des tass, dédicace aux petits d'la tess Ce qu'je vise t'en fais pas ils s'reconnaissent C'est la crise, c'est la hess mais malgré ça on progresse On avance calmement, fait les bails à la Saï Saï On détale à la et on encule les hatailles 95 Val-d'Oise capitale des agressions Les pédés nous payent la rançon, nous envoie en prison Mon 240 il est pas encore dead Les MC's ont besoin d'aide pendant qu'dans la street ça s'achève Jamais en crève, la devise c'est marche ou crève Tu veux ma mort, vas-y creuse alors après j'pousse la Dis-leur Alpha, on a pas l'temps pour les faux Le micro c'est un nympho, en 16 mesures il est K.O Et, et man l'amour y'en a pas Les sentiments moi j'les cache ici-bas Marche ou crève la devise des gangsters Y'aura jamais d'paix sans guerre gunz pop Et man l'amour y'en a pas Les sentiments moi j'les cache ici-bas Marche ou crève la devise des gangsters Y'aura jamais d'paix sans guerre You might also like Si tu nous vois rôder en RS4, trouve ça normal Truand d'la Galère représente sur Rakailles 4 si si Moi j'mets pas d'salope à quatre pattes Tu peux m'voir avec des frères qui font la salat Comme avec des frères qui sont H.24 rhabats Ici y'a pas de re-sta, c'est bien pour ça qu'on baise tout 95, 93, banlieue nord sur tous les réseaux Certains des frères perdent la raison et finissent avec des cachetons On veut notre cachet tout en esquivant le cachot Vends, vends du pilon, n'oublie jamais de pas dire où tu l'as caché Devant les hnouchas ferme ta gueule, on va te coucher Truand d'la Galère, Ghetto Fab' Bon, moi j'rappe pas j'veux vous expliquer juste un truc C'est truand d'la Galère, Morsay avec Ghetto Fabulous Gang pour Rakailles 4 Hey, à tous les fils de putes de fachos j'vous nique vos mères la pute Hey on est aux Puces à Clignancourt, on s'en bat les couilles Nique les skins en quantité et on vous rentre des fusils à pompe dans l'cul Nique les keufs, nique tout l'monde Hey on s'en bat les couilles nous, on fait pas d'la musique pour rigoler, on fait d'la revendication On vous baise bande de putes Hey on s'en bat les couilles, nique toutes les Fnac de France On vend aux Puces à Clignancourt Ghetto Fab' et Alpha, Zehef de Truand On est les boss cousin, hey Nique les skins nique tout l'monde Et j'baise Génération aussi, oublis pas Skyrock et tous les bâtards qui boycottent On vous baise, on vend mieux qu'vous tous bande de putes Et, et man l'amour y'en a pas Les sentiments moi j'les cache ici-bas Marche ou crève la devise des gangsters Y'aura jamais d'paix sans guerre gunz pop Et man l'amour y'en a pas Sambastos Les sentiments Zehef moi j'les cache ici-bas Morsay Marche ou crève la devise des gangsters Y'aura jamais d'paix sans guerre On a fumé trop d'mecs d'Epinay à Stains On a des tass bourgeoises à Enghien-les-Bains Charbon en solo puis on lave les mains Reste froid mais calme comme à Saint-Gratien Et les rues de Sarcelles ne sont pas étrangères Val-d'Oise c'est la famille mais Dakar c'est ma terre Banlieue nord négro, nous on suce personne Quand il s'agit d'embrouille on a gagner la coupe de monde Dans le R.E.R B, dans le R.E.R C Dans le R.E.R D, laisse les keufs plantés C'est la loi du talion, boy il pour il Seine-Saint-Denis jusqu'à la gare de Creil Pas de doutes négro, nous on a les bails 9.3 capitale des racailles Scar-la capuché bicrave à l'ancienne On visser les boloss boy en file indienne Et, et man l'amour y'en a pas Les sentiments moi j'les cache ici-bas Marche ou crève la devise des gangsters Y'aura jamais d'paix sans guerre Et man l'amour y'en a pas Les sentiments moi j'les cache ici-bas Marche ou crève la devise des gangsters Y'aura jamais d'paix sans guerre1</t>
+          <t>Hein, Rakailles 4 boy, 5.20, Sambastos Zehef, hein, ok, hein Ça reste d'la classe boy, écoute-ça, hein Sambastos l'gang, Rakailles 4, Ghetto Fab' les MC's ont les glandes, ils vont sucer mon gland Criminel au microphone, j'fais du taf ou du cash Faut des tass, dédicace aux petits d'la tess Ce qu'je vise t'en fais pas ils s'reconnaissent C'est la crise, c'est la hess mais malgré ça on progresse On avance calmement, fait les bails à la Saï Saï On détale à la et on encule les hatailles 95 Val-d'Oise capitale des agressions Les pédés nous payent la rançon, nous envoie en prison Mon 240 il est pas encore dead Les MC's ont besoin d'aide pendant qu'dans la street ça s'achève Jamais en crève, la devise c'est marche ou crève Tu veux ma mort, vas-y creuse alors après j'pousse la Dis-leur Alpha, on a pas l'temps pour les faux Le micro c'est un nympho, en 16 mesures il est K.O Et, et man l'amour y'en a pas Les sentiments moi j'les cache ici-bas Marche ou crève la devise des gangsters Y'aura jamais d'paix sans guerre gunz pop Et man l'amour y'en a pas Les sentiments moi j'les cache ici-bas Marche ou crève la devise des gangsters Y'aura jamais d'paix sans guerre Si tu nous vois rôder en RS4, trouve ça normal Truand d'la Galère représente sur Rakailles 4 si si Moi j'mets pas d'salope à quatre pattes Tu peux m'voir avec des frères qui font la salat Comme avec des frères qui sont H.24 rhabats Ici y'a pas de re-sta, c'est bien pour ça qu'on baise tout 95, 93, banlieue nord sur tous les réseaux Certains des frères perdent la raison et finissent avec des cachetons On veut notre cachet tout en esquivant le cachot Vends, vends du pilon, n'oublie jamais de pas dire où tu l'as caché Devant les hnouchas ferme ta gueule, on va te coucher Truand d'la Galère, Ghetto Fab' Bon, moi j'rappe pas j'veux vous expliquer juste un truc C'est truand d'la Galère, Morsay avec Ghetto Fabulous Gang pour Rakailles 4 Hey, à tous les fils de putes de fachos j'vous nique vos mères la pute Hey on est aux Puces à Clignancourt, on s'en bat les couilles Nique les skins en quantité et on vous rentre des fusils à pompe dans l'cul Nique les keufs, nique tout l'monde Hey on s'en bat les couilles nous, on fait pas d'la musique pour rigoler, on fait d'la revendication On vous baise bande de putes Hey on s'en bat les couilles, nique toutes les Fnac de France On vend aux Puces à Clignancourt Ghetto Fab' et Alpha, Zehef de Truand On est les boss cousin, hey Nique les skins nique tout l'monde Et j'baise Génération aussi, oublis pas Skyrock et tous les bâtards qui boycottent On vous baise, on vend mieux qu'vous tous bande de putes Et, et man l'amour y'en a pas Les sentiments moi j'les cache ici-bas Marche ou crève la devise des gangsters Y'aura jamais d'paix sans guerre gunz pop Et man l'amour y'en a pas Sambastos Les sentiments Zehef moi j'les cache ici-bas Morsay Marche ou crève la devise des gangsters Y'aura jamais d'paix sans guerre On a fumé trop d'mecs d'Epinay à Stains On a des tass bourgeoises à Enghien-les-Bains Charbon en solo puis on lave les mains Reste froid mais calme comme à Saint-Gratien Et les rues de Sarcelles ne sont pas étrangères Val-d'Oise c'est la famille mais Dakar c'est ma terre Banlieue nord négro, nous on suce personne Quand il s'agit d'embrouille on a gagner la coupe de monde Dans le R.E.R B, dans le R.E.R C Dans le R.E.R D, laisse les keufs plantés C'est la loi du talion, boy il pour il Seine-Saint-Denis jusqu'à la gare de Creil Pas de doutes négro, nous on a les bails 9.3 capitale des racailles Scar-la capuché bicrave à l'ancienne On visser les boloss boy en file indienne Et, et man l'amour y'en a pas Les sentiments moi j'les cache ici-bas Marche ou crève la devise des gangsters Y'aura jamais d'paix sans guerre Et man l'amour y'en a pas Les sentiments moi j'les cache ici-bas Marche ou crève la devise des gangsters Y'aura jamais d'paix sans guerre1</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>J'suis un guerrier guerrier, guerrier Alpha 5.20 Mac Kregor Mystik C'est des guerriers Les players disent que la vie est une pute J'la considère comme une lutte J'suis un guerrier, un guerrier Un guerrier Mémoire d'esclave, j'suis un rancunier À Dakar, moi je zone avec mes meurtriers J'attends pas l'retour du Christ pour sauver ma vie Ma ligne de vie est courte selon mon astrologie Et mes balles te surprennent, elles viennent par derrière Défouraille ton sommeil, tu vas mourir trop calme Cachée sous des napalms, 9-3 zone de guerre Botte le cul du G.I. comme la guerre du Vietnam Dans les ghettos d'Afrique, j'viens prêcher la paix Dans l'Moyen-Orient, j'réciterai l'Coran En France j'veux tout, excepté m'intégrer J'peux pas voter alors j'irai frauder Ils nous cassent les couilles avec Harry Roselmack Discrimination positive à la place du toubab Brûle, brûle Clichy, mes racailles sont XXX Viens rejoindre le maquis, j'apporterai d'l'essence, frère You might also like Les players disent que la vie est une pute J'la considère comme une lutte J'suis un guerrier, un guerrier Un guerrier Maintenant qu'vous savez qu'pour moi, c'est d'jà un blaze trop lourd à porter J'vais pas t'mentir sur ma rue, sur mes putes ou sur mes tunes, OK Ça t'paraît cru d'voir un nègre de plus à l'affût Sur ton ter-ter de merde, tu vois qu'j'suis véner Moi j'suis pas un Cerbère, j'vais pas t'mentir C'que j'ai construit c'est dans la sueur, dans l'sang d'autrui mais jamais dans la rumeur Touche à la mif tu meurs, c'est clair et net Continue d'taper des haltères, car dehors c'est l'fusil ou XXX frère Parle pas d'sère-mi, tu vis en pays riche Vis pas la rue en théorie, viens vivre la mienne comme c'est horrible C'est Aubervilliers qui une fois d'plus vient et t'corrige Nous on pointe dans les cages à la Thierry Henry Rap irritable pour tes pores, ça vient d'la Terre-mère Le capitalisme m'a rendu cette fierté qui maintenant t'emmerde OK, jacte pas trop longtemps sur tes exactions 2007, on passe à l'action Les players disent que la vie est une pute J'la considère comme une lutte J'suis un guerrier, un guerrier Un guerrier Tu sais c'que c'est d'avoir un frigo vide, en chien dans la rue À pillave devant l'radiateur, rien dans l'bide Personne n'est à l'abri, problèmes existentiels T'as plus d'taf, un loyer trop cher, ça va trop vite Tu parles de la rue, connard, va au bord d'la Seine En plein hiver, putain d'froid d'canard En c'qui m'concerne, j'ai pas toujours fait c'qu'il fallait Mais j'garde le sourire même au bord d'la falaise Le poids était trop lourd, j'ai failli m'tirer une balle, que Dieu m'pardonne Mental guerrier mais j'suis qu'un homme Ça m'véner quand j'entends dire le rap c'est un game C'est Mystik, Ghetto Fab, Mac Kregor Tandem Nos parents ont cru que la France c'était bon port On s'est fait ber-bar, on veut du cash pour conjurer l'sort Mecs de tess, on va pas s'mentir, on aime briller Si on fait du rap, c'est pour les futurs guerriers</t>
+          <t>J'suis un guerrier guerrier, guerrier Alpha 5.20 Mac Kregor Mystik C'est des guerriers Les players disent que la vie est une pute J'la considère comme une lutte J'suis un guerrier, un guerrier Un guerrier Mémoire d'esclave, j'suis un rancunier À Dakar, moi je zone avec mes meurtriers J'attends pas l'retour du Christ pour sauver ma vie Ma ligne de vie est courte selon mon astrologie Et mes balles te surprennent, elles viennent par derrière Défouraille ton sommeil, tu vas mourir trop calme Cachée sous des napalms, 9-3 zone de guerre Botte le cul du G.I. comme la guerre du Vietnam Dans les ghettos d'Afrique, j'viens prêcher la paix Dans l'Moyen-Orient, j'réciterai l'Coran En France j'veux tout, excepté m'intégrer J'peux pas voter alors j'irai frauder Ils nous cassent les couilles avec Harry Roselmack Discrimination positive à la place du toubab Brûle, brûle Clichy, mes racailles sont XXX Viens rejoindre le maquis, j'apporterai d'l'essence, frère Les players disent que la vie est une pute J'la considère comme une lutte J'suis un guerrier, un guerrier Un guerrier Maintenant qu'vous savez qu'pour moi, c'est d'jà un blaze trop lourd à porter J'vais pas t'mentir sur ma rue, sur mes putes ou sur mes tunes, OK Ça t'paraît cru d'voir un nègre de plus à l'affût Sur ton ter-ter de merde, tu vois qu'j'suis véner Moi j'suis pas un Cerbère, j'vais pas t'mentir C'que j'ai construit c'est dans la sueur, dans l'sang d'autrui mais jamais dans la rumeur Touche à la mif tu meurs, c'est clair et net Continue d'taper des haltères, car dehors c'est l'fusil ou XXX frère Parle pas d'sère-mi, tu vis en pays riche Vis pas la rue en théorie, viens vivre la mienne comme c'est horrible C'est Aubervilliers qui une fois d'plus vient et t'corrige Nous on pointe dans les cages à la Thierry Henry Rap irritable pour tes pores, ça vient d'la Terre-mère Le capitalisme m'a rendu cette fierté qui maintenant t'emmerde OK, jacte pas trop longtemps sur tes exactions 2007, on passe à l'action Les players disent que la vie est une pute J'la considère comme une lutte J'suis un guerrier, un guerrier Un guerrier Tu sais c'que c'est d'avoir un frigo vide, en chien dans la rue À pillave devant l'radiateur, rien dans l'bide Personne n'est à l'abri, problèmes existentiels T'as plus d'taf, un loyer trop cher, ça va trop vite Tu parles de la rue, connard, va au bord d'la Seine En plein hiver, putain d'froid d'canard En c'qui m'concerne, j'ai pas toujours fait c'qu'il fallait Mais j'garde le sourire même au bord d'la falaise Le poids était trop lourd, j'ai failli m'tirer une balle, que Dieu m'pardonne Mental guerrier mais j'suis qu'un homme Ça m'véner quand j'entends dire le rap c'est un game C'est Mystik, Ghetto Fab, Mac Kregor Tandem Nos parents ont cru que la France c'était bon port On s'est fait ber-bar, on veut du cash pour conjurer l'sort Mecs de tess, on va pas s'mentir, on aime briller Si on fait du rap, c'est pour les futurs guerriers</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Guns poppin', hood patron Dis aux boys qui parlaient mal de dmander pardon Plus d'amour frère, dans les rues du neuf-trois Renoi tue des renois, rabzas tuent des rabzas Ouais ouais ouais ouais, peur de personne Y'a haja, jy vais moi-même, j'attends personne 2ème album, The Massacre, Curtis Jackson 50 Cent c'est rien, car les armes fonctionnent Cas d'embrouille, ouvre le coffre, sors mes outils Et meurtrière, s'ra après, la cérémonie Trop parler peut tuer comme Manny et Juicy Sous surveillance est toujours ma téléphonie Conflit de terrain, sur fond de poudreuse Trop de maille sale, le bled c'est ma lessiveuse Bracelet d'argent, sur une peau toute noire Les murs moites de leurs taules m'ont rendu plus vicelard Cest quoi les bidi-bails, cest quoi les bidi-bails Gunz poppin, hood boss c'est Alpha Cest quoi les bidi-bails, c'est quoi les bidi-bails Comera boyz Grigny gang, frère ne joue pas C'est quoi les bidi-bails, c'est quoi les bidi-bails Dans le neuf-trois, pharmacie cest Alpha C'est quoi les bidi-bails, c'est quoi les bidi-bails Boulogne Boy, Hauts-De-Seine frère c'est gangsta You might also like Yeah putain 5.20 Alpha moi j'viens d'loin, Dakar, Bamako C'est cinq cinq ou bang bang, j'parle pas T'as la dernière caisse, bien bien mashallah Les miens roulent des joints d'dingue tah sah Yeah, ça fait bili-bam, c'est ça les bili-bails 9mm, coke pure en milligrammes Dis-moi c'est qui qui graille, qui fait des mimiques, braille Ca fait bili-bam-bam dili-drive-by T'es fou man, la vie n'est pas pour les faibles Tu veux faire un clash ? T'auras ma Tour Eiffel dans le trou d'balle Nous on charbonne, nous, comme Pac on l'ouvre Tu joues les hommes, désolé man t'es pas comme nous Qui dit faux qui dit vrai? J'porte un Levi's j'suis discret On oublie pas on est des fils d'immigrés Demande à Malik Bledoss C'était Salif on met le khaliss d'té-co pour la famille C'est quoi les bidi-bails, c'est quoi les bidi-bails Gunz poppin, hood boss c'est Alpha C'est quoi les bidi-bails, c'est quoi les bidi-bails Comera boyz Grigny gang, frère ne joue pas C'est quoi les bidi-bails, c'est quoi les bidi-bails Dans le neuf-trois, pharmacie c'est Alpha C'est quoi les bidi-bails, c'est quoi les bidi-bails Boulogne Boy, Hauts-De-Seine frère c'est gangsta International, LC woo négro, j'ai bien dit L Mais tu crois test qui ? Tu blesses qui ? l'équipe à Frantz qui peut ? Y'a la rue qu'a écrit notre blaze en bas d'son dos à côté d'la seuf Le rap Français on le rend frais, on lui à acheté des baskets neuves ouais Nan, cette fois-ci on fait pas d'cadeaux Tellement la dalle qu'a 15 piges on fait les braquages en vélo C'est la rue en V.O, M.O.G ah bon ! T.O.N.Y trop chaud International, LC woo négro, j'ai bien dit LC Mais tu crois test qui ? Tu blesses qui ? Toi-même tu sais qui c'est Pas l'intention d'se calmer Tire à balles réelles, sur les keufs, Grigny capitale des pavés C'est les bails de mecs porte-flingues et de 5.20 et d'LC Y'a fusil à pompe qui pompe sur la gov' de la B.A.C Criminel au ruelles de Dakar à Grigny gang star Les bleus tournent, la blanche tourne, le rouge ratatata woo woo Quand ça quand ça tire on aime, quand ça quand ça tire on reste Peu importe les problèmes qu'on s'a- qu'on s'attire Rien à foutre de tout, M.O shoot tout l'temps shoot, toi Bouffe de ma Comera, lyricale colère ah Dans ta ville tu me blesses, dans ma ville je te tue J'suis une racaille car pour racaille 4 l'instru je le tue M.O thug, croise moi à la peupleraie avenue Avenue de tess des négros qui t'la mettent dans l'cul C'est quoi les bidi-bails c'est quoi les bidi-bails Gunz poppin, hood boss c'est Alpha C'est quoi les bidi-bails c'est quoi les bidi-bails Comera boyz Grigny gang, frère ne joue pas C'est quoi les bidi-bails c'est quoi les bidi-bails Dans le neuf-trois, pharmacie c'est Alpha C'est quoi les bidi-bails c'est quoi les bidi-bails Boulogne Boy, Hauts-De-Seine frère c'est gangsta Illégal renoi Grigny family, GB Comera boyz Wut up wut up wut up Boulogne Boy, Lif-Sa, wassup négro ? Pharmacie, guns poppin' Alpha, représente Dakar, 9-3 La crasse du monde entier, frère frère</t>
+          <t>Guns poppin', hood patron Dis aux boys qui parlaient mal de dmander pardon Plus d'amour frère, dans les rues du neuf-trois Renoi tue des renois, rabzas tuent des rabzas Ouais ouais ouais ouais, peur de personne Y'a haja, jy vais moi-même, j'attends personne 2ème album, The Massacre, Curtis Jackson 50 Cent c'est rien, car les armes fonctionnent Cas d'embrouille, ouvre le coffre, sors mes outils Et meurtrière, s'ra après, la cérémonie Trop parler peut tuer comme Manny et Juicy Sous surveillance est toujours ma téléphonie Conflit de terrain, sur fond de poudreuse Trop de maille sale, le bled c'est ma lessiveuse Bracelet d'argent, sur une peau toute noire Les murs moites de leurs taules m'ont rendu plus vicelard Cest quoi les bidi-bails, cest quoi les bidi-bails Gunz poppin, hood boss c'est Alpha Cest quoi les bidi-bails, c'est quoi les bidi-bails Comera boyz Grigny gang, frère ne joue pas C'est quoi les bidi-bails, c'est quoi les bidi-bails Dans le neuf-trois, pharmacie cest Alpha C'est quoi les bidi-bails, c'est quoi les bidi-bails Boulogne Boy, Hauts-De-Seine frère c'est gangsta Yeah putain 5.20 Alpha moi j'viens d'loin, Dakar, Bamako C'est cinq cinq ou bang bang, j'parle pas T'as la dernière caisse, bien bien mashallah Les miens roulent des joints d'dingue tah sah Yeah, ça fait bili-bam, c'est ça les bili-bails 9mm, coke pure en milligrammes Dis-moi c'est qui qui graille, qui fait des mimiques, braille Ca fait bili-bam-bam dili-drive-by T'es fou man, la vie n'est pas pour les faibles Tu veux faire un clash ? T'auras ma Tour Eiffel dans le trou d'balle Nous on charbonne, nous, comme Pac on l'ouvre Tu joues les hommes, désolé man t'es pas comme nous Qui dit faux qui dit vrai? J'porte un Levi's j'suis discret On oublie pas on est des fils d'immigrés Demande à Malik Bledoss C'était Salif on met le khaliss d'té-co pour la famille C'est quoi les bidi-bails, c'est quoi les bidi-bails Gunz poppin, hood boss c'est Alpha C'est quoi les bidi-bails, c'est quoi les bidi-bails Comera boyz Grigny gang, frère ne joue pas C'est quoi les bidi-bails, c'est quoi les bidi-bails Dans le neuf-trois, pharmacie c'est Alpha C'est quoi les bidi-bails, c'est quoi les bidi-bails Boulogne Boy, Hauts-De-Seine frère c'est gangsta International, LC woo négro, j'ai bien dit L Mais tu crois test qui ? Tu blesses qui ? l'équipe à Frantz qui peut ? Y'a la rue qu'a écrit notre blaze en bas d'son dos à côté d'la seuf Le rap Français on le rend frais, on lui à acheté des baskets neuves ouais Nan, cette fois-ci on fait pas d'cadeaux Tellement la dalle qu'a 15 piges on fait les braquages en vélo C'est la rue en V.O, M.O.G ah bon ! T.O.N.Y trop chaud International, LC woo négro, j'ai bien dit LC Mais tu crois test qui ? Tu blesses qui ? Toi-même tu sais qui c'est Pas l'intention d'se calmer Tire à balles réelles, sur les keufs, Grigny capitale des pavés C'est les bails de mecs porte-flingues et de 5.20 et d'LC Y'a fusil à pompe qui pompe sur la gov' de la B.A.C Criminel au ruelles de Dakar à Grigny gang star Les bleus tournent, la blanche tourne, le rouge ratatata woo woo Quand ça quand ça tire on aime, quand ça quand ça tire on reste Peu importe les problèmes qu'on s'a- qu'on s'attire Rien à foutre de tout, M.O shoot tout l'temps shoot, toi Bouffe de ma Comera, lyricale colère ah Dans ta ville tu me blesses, dans ma ville je te tue J'suis une racaille car pour racaille 4 l'instru je le tue M.O thug, croise moi à la peupleraie avenue Avenue de tess des négros qui t'la mettent dans l'cul C'est quoi les bidi-bails c'est quoi les bidi-bails Gunz poppin, hood boss c'est Alpha C'est quoi les bidi-bails c'est quoi les bidi-bails Comera boyz Grigny gang, frère ne joue pas C'est quoi les bidi-bails c'est quoi les bidi-bails Dans le neuf-trois, pharmacie c'est Alpha C'est quoi les bidi-bails c'est quoi les bidi-bails Boulogne Boy, Hauts-De-Seine frère c'est gangsta Illégal renoi Grigny family, GB Comera boyz Wut up wut up wut up Boulogne Boy, Lif-Sa, wassup négro ? Pharmacie, guns poppin' Alpha, représente Dakar, 9-3 La crasse du monde entier, frère frère</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Ne venez pas chercher les négros les plus oufs Hey Ne venez pas chercher les négros les plus oufs Han Ne venez pas chercher les négros les plus oufs Ghetto Fab frère Ne venez pas chercher, ne venez pas chercher, ne venez pas chercher les négros les plus oufs J'ai le coeur d'un lion, la cause d'un noir Le bruit que t'entends vient du fond du couloir Nos cités et dortoirs sont juste des mouroirs Plans de illasse-ca, guet-apens et traquenards Ignorant le symbole l'état ne m'a pas nourri Arnaqueur et débrouillard ont forgé mon esprit Ton putain de Rmi je le fume en 1 heure En dessous de 1000 euros par jour pour moi c'est mineur Killa killa, nord de, nord de Dakar En haut de Sète sur les murs faut cramer tout ses bâtards Flingue sur mon abdomen, naturel phénomène Puisse dieu nous préserver négro tu diras Amen Le prophète des bicraveurs j'ai 4025 ans Et tout ce temps le crime m'attire frère tel un aimant Mais laisse moi frère dans mes pensées criminelles Quand j's'rais en bas boy me s'ra tu fidèle ? Et les gunz gunz c'est ça le sport à Islamic Dakar Nos ennemis morflent en douce regarde ils s'égarent J'ai pas de temps a perdre frère je suis un hustler Mon crack c'est comme mes Cds dans l'ghetto best seller Et les gunz gunz c'est ça le sport à Islamic Dakar Nos ennemis morflent en douce regarde ils s'égarent J'ai pas de temps a perdre frère je suis un hustler Mon crack c'est comme mes Cds dans l'ghetto best seller You might also like J'aime les femmes elles sont plus intelligentes que les hommes Portent la vie donc supportent la peine plus que personne Ma conscience se cramponne derrière des idées figées Principes et lois que l'ghetto a érigé J'ai vu des amitiés s'nouer puis s'défaire Des frères voir la vérité en face mais s'tairent Vivre un enfer pour avoir le paradis Et rime de gangster mais c'était qu'des parodies Je prie puis je parie avec de l'argent sale Maintenant j'tape les renois la où ça fait le plus mal Est ce ma faute si la rue m'a plébiscité Ils m'ont tué physiquement mais dieu m'a ressuscité Gravite tel un astre loin de tout désastre Renois viennent renois partent mais j'en ai rien a battre Alpha Escobar aka black César Posté à la fenêtre comme Malcom renois savent Et les gunz gunz c'est ça le sport à Islamic Dakar Nos ennemis morflent en douce regarde ils s'égarent J'ai pas de temps a perdre frère je suis un hustler Mon crack c'est comme mes Cds dans l'ghetto best seller Et les gunz gunz c'est ça le sport à Islamic Dakar Nos ennemis morflent en douce regarde ils s'égarent J'ai pas de temps a perdre frère je suis un hustler Mon crack c'est comme mes Cds dans l'ghetto best seller Hey toute ma vie est gangsta, gangsta Yarakh city gangta, gangsta Ghetto Fab gangsta, gangsta Wesh négro j'm'arrête la, j'm'arrête la Ne venez pas chercher les négros les plus oufs Ne venez pas chercher les négros les plus oufs Ne venez pas chercher les négros les plus oufs Ne venez pas chercher les négros les plus oufs</t>
+          <t>Ne venez pas chercher les négros les plus oufs Hey Ne venez pas chercher les négros les plus oufs Han Ne venez pas chercher les négros les plus oufs Ghetto Fab frère Ne venez pas chercher, ne venez pas chercher, ne venez pas chercher les négros les plus oufs J'ai le coeur d'un lion, la cause d'un noir Le bruit que t'entends vient du fond du couloir Nos cités et dortoirs sont juste des mouroirs Plans de illasse-ca, guet-apens et traquenards Ignorant le symbole l'état ne m'a pas nourri Arnaqueur et débrouillard ont forgé mon esprit Ton putain de Rmi je le fume en 1 heure En dessous de 1000 euros par jour pour moi c'est mineur Killa killa, nord de, nord de Dakar En haut de Sète sur les murs faut cramer tout ses bâtards Flingue sur mon abdomen, naturel phénomène Puisse dieu nous préserver négro tu diras Amen Le prophète des bicraveurs j'ai 4025 ans Et tout ce temps le crime m'attire frère tel un aimant Mais laisse moi frère dans mes pensées criminelles Quand j's'rais en bas boy me s'ra tu fidèle ? Et les gunz gunz c'est ça le sport à Islamic Dakar Nos ennemis morflent en douce regarde ils s'égarent J'ai pas de temps a perdre frère je suis un hustler Mon crack c'est comme mes Cds dans l'ghetto best seller Et les gunz gunz c'est ça le sport à Islamic Dakar Nos ennemis morflent en douce regarde ils s'égarent J'ai pas de temps a perdre frère je suis un hustler Mon crack c'est comme mes Cds dans l'ghetto best seller J'aime les femmes elles sont plus intelligentes que les hommes Portent la vie donc supportent la peine plus que personne Ma conscience se cramponne derrière des idées figées Principes et lois que l'ghetto a érigé J'ai vu des amitiés s'nouer puis s'défaire Des frères voir la vérité en face mais s'tairent Vivre un enfer pour avoir le paradis Et rime de gangster mais c'était qu'des parodies Je prie puis je parie avec de l'argent sale Maintenant j'tape les renois la où ça fait le plus mal Est ce ma faute si la rue m'a plébiscité Ils m'ont tué physiquement mais dieu m'a ressuscité Gravite tel un astre loin de tout désastre Renois viennent renois partent mais j'en ai rien a battre Alpha Escobar aka black César Posté à la fenêtre comme Malcom renois savent Et les gunz gunz c'est ça le sport à Islamic Dakar Nos ennemis morflent en douce regarde ils s'égarent J'ai pas de temps a perdre frère je suis un hustler Mon crack c'est comme mes Cds dans l'ghetto best seller Et les gunz gunz c'est ça le sport à Islamic Dakar Nos ennemis morflent en douce regarde ils s'égarent J'ai pas de temps a perdre frère je suis un hustler Mon crack c'est comme mes Cds dans l'ghetto best seller Hey toute ma vie est gangsta, gangsta Yarakh city gangta, gangsta Ghetto Fab gangsta, gangsta Wesh négro j'm'arrête la, j'm'arrête la Ne venez pas chercher les négros les plus oufs Ne venez pas chercher les négros les plus oufs Ne venez pas chercher les négros les plus oufs Ne venez pas chercher les négros les plus oufs</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Tous mes renois sont fiers Etendard Clichy Monterfermeil Etendard Murder murder Dakar Etendard Gunz up gunz up Tous mes renois sont fiers Etendard Clichy Monterfermeil Etendard Murder murder Dakar Etendard Gunz up gunz up Yo renois ont des flingues mais sont pas stupides Yo renois ont de la maille mais sont pas cupides Murder murder Dakar dirty 93 Nous on a de la maille, la police on baise Y'a embrouille tous les jours comme ... Tous mes renois sont fiers Etendard Clichy Monterfermeil Etendard Murder murder Dakar Etendard Gunz up gunz up Tous mes renois sont fiers Etendard Clichy Monterfermeil Etendard Murder murder Dakar Etendard Gunz up gunz up You might also like ...</t>
+          <t>Tous mes renois sont fiers Etendard Clichy Monterfermeil Etendard Murder murder Dakar Etendard Gunz up gunz up Tous mes renois sont fiers Etendard Clichy Monterfermeil Etendard Murder murder Dakar Etendard Gunz up gunz up Yo renois ont des flingues mais sont pas stupides Yo renois ont de la maille mais sont pas cupides Murder murder Dakar dirty 93 Nous on a de la maille, la police on baise Y'a embrouille tous les jours comme ... Tous mes renois sont fiers Etendard Clichy Monterfermeil Etendard Murder murder Dakar Etendard Gunz up gunz up Tous mes renois sont fiers Etendard Clichy Monterfermeil Etendard Murder murder Dakar Etendard Gunz up gunz up ...</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Mes Gz Up ! Ghetto Fab Gang Gz Up ! Ghetto Fab Gang Gz Up ! Ghetto Fab Gang Pour les mecs de Tess, pour les mecs des halls Aulnay-Sous-Bois, brûle enfoiré brûle Sevran Bedottes, brûle enfoiré brûle Clichy Montfermeil, brûle enfoiré brûle Bondy Nord, frère, brûle enfoiré brûle Te convertit pas à lIslam frère pour être comme nous Juste après la prière, on remet nos cagoules Des minuscules au golgoth on a lesprit en compote Au bord de la rupture frère, garde mes nerfs à vif Et les flingues quon porte automatique ou semi Et les meufs que j'préfère Sénégal ou Mali Elles me prennent pas la tête, je suis pas leur mari Puis ne haussent pas le ton, je suis pas leur ami Moi je marche tout seul dans la vallée d'la mort Boy sans avoir peur, mais je tremble encore Négro, jai un peu froid, normal Dakar, cest chaud Boy, récite la Fatiha puis jattaque le convoi Et j'dis repose en paix à Ziyed et Bouna Traoré family là-bas à Clichy-sous-Bois La volaille peut plus rire négro, nous on pleure pas Leur putain de Marseillaise, moi j'la chanterai pas You might also like Mes Gz Up ! Ghetto Fab Gang Gz Up ! Ghetto Fab Gang Gz Up ! Ghetto Fab Gang Pour les mecs de Tess, pour les mecs des halls Epinay-sur-Seine, brûle enfoiré brûle La Courneuve, frère, brûle enfoiré brûle Mantes-La et Murreaux, brûle enfoiré brûle Toute la Province, brûle enfoiré brûle J'suis d'la race inférieure négro, jai rien à perdre À lui seul mon grand-père, a niqué Hitler Toujours en ligne de front putain de chair à canon Et sans nous, la France aurait été sous les ponts Taurais parlé allemand, ton prénom serait Wolfgang Sauveteur de ta vie, Ghetto Fabulous Gang Puis demande au général quand il y eut '44 On ma pas encore payé la France nous doit une dette Celui qui touche à un juif, boy, il touche à la France Jette un noir dans la Seine Cest l'grand pardon Caricature du prophète, le monde brûle après Je suis pas Tony M. ce que je dis, cest vrai Et ils disent que les noirs ne savent faire que danser Puis ils cachent leurs femmes, on va pas les violer Boy, FN et Sarko maintenant me mènent la vie dure Moi, je tire ma dernière balle puis après ça je méclipse yeah ! Mes Gz Up ! Ghetto Fab Gang Gz Up ! Ghetto Fab Gang Gz Up ! Ghetto Fab Gang Pour les mecs de Tess, pour les mecs des halls Blankok Nord, brûle enfoiré brûle Val dOise, frère, brûle enfoiré brûle Seine et Marne, Boy, brûle enfoiré brûle 91 Essonne, brûle enfoiré brûle Notre musique nest pas faite pour les stups, pas faite pour les stups Hait par les juges hait par les juges Notre musique nest pas faite pour les stups, pas faite pour les stups Hait par les juges hait par les juges Ghetto Fabulous Gang Y a pas de justice y a pas de paix Et je prie tous les jours pour que la paix se propage dans nos quartiers frère Alpha 5.20 Boy Je suis pas un vendu moi jaime les miens boy La loi du plus fort vivre et mourir arh arh What up what up Ghetto fab ghetto fab Ghetto fab gang Ghetto fab ghetto fab ghe-ghe-ghe-ghetto fab Ghetto fab ghetto fab Ghetto fab gang Ghetto fab ghetto fab ghe-ghe-ghe-ghetto fab</t>
+          <t>Mes Gz Up ! Ghetto Fab Gang Gz Up ! Ghetto Fab Gang Gz Up ! Ghetto Fab Gang Pour les mecs de Tess, pour les mecs des halls Aulnay-Sous-Bois, brûle enfoiré brûle Sevran Bedottes, brûle enfoiré brûle Clichy Montfermeil, brûle enfoiré brûle Bondy Nord, frère, brûle enfoiré brûle Te convertit pas à lIslam frère pour être comme nous Juste après la prière, on remet nos cagoules Des minuscules au golgoth on a lesprit en compote Au bord de la rupture frère, garde mes nerfs à vif Et les flingues quon porte automatique ou semi Et les meufs que j'préfère Sénégal ou Mali Elles me prennent pas la tête, je suis pas leur mari Puis ne haussent pas le ton, je suis pas leur ami Moi je marche tout seul dans la vallée d'la mort Boy sans avoir peur, mais je tremble encore Négro, jai un peu froid, normal Dakar, cest chaud Boy, récite la Fatiha puis jattaque le convoi Et j'dis repose en paix à Ziyed et Bouna Traoré family là-bas à Clichy-sous-Bois La volaille peut plus rire négro, nous on pleure pas Leur putain de Marseillaise, moi j'la chanterai pas Mes Gz Up ! Ghetto Fab Gang Gz Up ! Ghetto Fab Gang Gz Up ! Ghetto Fab Gang Pour les mecs de Tess, pour les mecs des halls Epinay-sur-Seine, brûle enfoiré brûle La Courneuve, frère, brûle enfoiré brûle Mantes-La et Murreaux, brûle enfoiré brûle Toute la Province, brûle enfoiré brûle J'suis d'la race inférieure négro, jai rien à perdre À lui seul mon grand-père, a niqué Hitler Toujours en ligne de front putain de chair à canon Et sans nous, la France aurait été sous les ponts Taurais parlé allemand, ton prénom serait Wolfgang Sauveteur de ta vie, Ghetto Fabulous Gang Puis demande au général quand il y eut '44 On ma pas encore payé la France nous doit une dette Celui qui touche à un juif, boy, il touche à la France Jette un noir dans la Seine Cest l'grand pardon Caricature du prophète, le monde brûle après Je suis pas Tony M. ce que je dis, cest vrai Et ils disent que les noirs ne savent faire que danser Puis ils cachent leurs femmes, on va pas les violer Boy, FN et Sarko maintenant me mènent la vie dure Moi, je tire ma dernière balle puis après ça je méclipse yeah ! Mes Gz Up ! Ghetto Fab Gang Gz Up ! Ghetto Fab Gang Gz Up ! Ghetto Fab Gang Pour les mecs de Tess, pour les mecs des halls Blankok Nord, brûle enfoiré brûle Val dOise, frère, brûle enfoiré brûle Seine et Marne, Boy, brûle enfoiré brûle 91 Essonne, brûle enfoiré brûle Notre musique nest pas faite pour les stups, pas faite pour les stups Hait par les juges hait par les juges Notre musique nest pas faite pour les stups, pas faite pour les stups Hait par les juges hait par les juges Ghetto Fabulous Gang Y a pas de justice y a pas de paix Et je prie tous les jours pour que la paix se propage dans nos quartiers frère Alpha 5.20 Boy Je suis pas un vendu moi jaime les miens boy La loi du plus fort vivre et mourir arh arh What up what up Ghetto fab ghetto fab Ghetto fab gang Ghetto fab ghetto fab ghe-ghe-ghe-ghetto fab Ghetto fab ghetto fab Ghetto fab gang Ghetto fab ghetto fab ghe-ghe-ghe-ghetto fab</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>OK mec c'est Alpha 5.20 a.k.a. le renoi le plus vrai d'la Cinquième République Française mon pote t'as vu Là ça c'est l'album mon frère, c'est ma peine c'est ma souffrance mon pote t'as vu Vivre et motherfucking mourir à Dakar mon pote t'as vu La loi du plus fort khay t'entends? Tu vois? Nous on représente mon frère la France des quartiers, la France du Tiers-Monde pas la France d'en bas, on s'en bat les couille mon frère Ca c'est des cultivateurs, ds viticulteurs mon frère on s'en bat ls reins mon frère Nous on est la France des quartiers, la France du Tiers-Monde, la France d'Afrique mon frère T'entends? Les bicraveurs, les voleurs, les dealers, les étudiants mon frère qui ont des diplômes mais qui n'ont jamais d'taff mon frère c'est ça c'qu'on représente mon frère Contre le motherfucking pouvoir du Chicken Little a.k.a. Nicolas Sarkozy mon frère On s'en bat les couilles de toi mon pote Ce p'tit pédé là il sort des lois sur les rappeurs, des lois sur les bicraveurs, des lois sur les tass-pé mon frère, des lois sur des sans-papiers Puis il va à la télé là-bas mon frère pleurer, genre sa meuf elle l'a trompé mon pote Tu peux même pas gérer ta meuf, comment tu peux gérer la tess mon pote? J'appelle toute la jeunesse mon frère, tous c'qui ont leur carte mon frère à aller voter mon frère Pour lui barrer la route mon frère tu vois J'sais bien qu'ils sont tous pourris, je l's... Je l'sais très bien mon frère Mais faut voter mon frère, pour l'moins pourri mon frère Faut pas qu'Sarko il passe mon frère Personne ne l'aime ici mon frère. Fuck Sarko. Fuck Jean-Marie Le Pen et sa fille Marine mon frère. Baise sa race à Philippe de Villiers. Et nique sa mère à tous les Boulogne Boys mon frère Walaye un jour tous les renois et tous les rebeus faut qu'ils se regroupent mon frère. Ils partent là-bas au Parc des Princes mon frère niquer leurs mères à ces Boulogne Boys là mon pote t'as vu? Et paix à toutes nos surs mon frère, qui s'marrient avec des blédards pour leurs donner des papiers Même si c'est pour l'argent mon frère c'est pas grave, même si t'as pas d'amour pour le blédard Tu peux l'aider pour avoir ses papiers mon frère, aide-le mon frère C'est pour c'la qu'on est là t'as vu Ghetto Fabulous Gang, on est venus tacler Florent Pagny, Johnny Hallyday, Mylène Farmer mon frère Tout ça sur la motherfucking Top-IFOP On est déjà au Top-IFOP des puces tous les jours Maintenant on va baiser le Top-IFOP mon frère Faire cette putain d'maille mon frère Ghetto Fab' Building, Ghetto fab' Coca-Cola, Ghetto Fab' Industry, Ghetto Fab' Bourse mon frère T'as vu Raricim O'Rosko il arrive, Holocost il arrive mon frère, 93 Etendard il arrive mon frère, et mon prochain DVD il arrive mon frère Wrup wrup wrup AllahYou might also like</t>
+          <t>OK mec c'est Alpha 5.20 a.k.a. le renoi le plus vrai d'la Cinquième République Française mon pote t'as vu Là ça c'est l'album mon frère, c'est ma peine c'est ma souffrance mon pote t'as vu Vivre et motherfucking mourir à Dakar mon pote t'as vu La loi du plus fort khay t'entends? Tu vois? Nous on représente mon frère la France des quartiers, la France du Tiers-Monde pas la France d'en bas, on s'en bat les couille mon frère Ca c'est des cultivateurs, ds viticulteurs mon frère on s'en bat ls reins mon frère Nous on est la France des quartiers, la France du Tiers-Monde, la France d'Afrique mon frère T'entends? Les bicraveurs, les voleurs, les dealers, les étudiants mon frère qui ont des diplômes mais qui n'ont jamais d'taff mon frère c'est ça c'qu'on représente mon frère Contre le motherfucking pouvoir du Chicken Little a.k.a. Nicolas Sarkozy mon frère On s'en bat les couilles de toi mon pote Ce p'tit pédé là il sort des lois sur les rappeurs, des lois sur les bicraveurs, des lois sur les tass-pé mon frère, des lois sur des sans-papiers Puis il va à la télé là-bas mon frère pleurer, genre sa meuf elle l'a trompé mon pote Tu peux même pas gérer ta meuf, comment tu peux gérer la tess mon pote? J'appelle toute la jeunesse mon frère, tous c'qui ont leur carte mon frère à aller voter mon frère Pour lui barrer la route mon frère tu vois J'sais bien qu'ils sont tous pourris, je l's... Je l'sais très bien mon frère Mais faut voter mon frère, pour l'moins pourri mon frère Faut pas qu'Sarko il passe mon frère Personne ne l'aime ici mon frère. Fuck Sarko. Fuck Jean-Marie Le Pen et sa fille Marine mon frère. Baise sa race à Philippe de Villiers. Et nique sa mère à tous les Boulogne Boys mon frère Walaye un jour tous les renois et tous les rebeus faut qu'ils se regroupent mon frère. Ils partent là-bas au Parc des Princes mon frère niquer leurs mères à ces Boulogne Boys là mon pote t'as vu? Et paix à toutes nos surs mon frère, qui s'marrient avec des blédards pour leurs donner des papiers Même si c'est pour l'argent mon frère c'est pas grave, même si t'as pas d'amour pour le blédard Tu peux l'aider pour avoir ses papiers mon frère, aide-le mon frère C'est pour c'la qu'on est là t'as vu Ghetto Fabulous Gang, on est venus tacler Florent Pagny, Johnny Hallyday, Mylène Farmer mon frère Tout ça sur la motherfucking Top-IFOP On est déjà au Top-IFOP des puces tous les jours Maintenant on va baiser le Top-IFOP mon frère Faire cette putain d'maille mon frère Ghetto Fab' Building, Ghetto fab' Coca-Cola, Ghetto Fab' Industry, Ghetto Fab' Bourse mon frère T'as vu Raricim O'Rosko il arrive, Holocost il arrive mon frère, 93 Etendard il arrive mon frère, et mon prochain DVD il arrive mon frère Wrup wrup wrup Allah</t>
         </is>
       </c>
     </row>
@@ -1685,11 +1685,7 @@
           <t>Intro</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>You might also like</t>
-        </is>
-      </c>
+      <c r="C74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1704,7 +1700,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Qu'est ce qu'il y a ? C'est Shone d'Holocost quoi tu me connais pas ? C'est le mec qui parle mal ... Enfin il sait mais si peu d'espèces ... Il méprise le FISC ... Nos bigos sonnent derrière leurs barbelés ... Sale chien j'ai trop pissé dans la chicha ... Okay l'État nous prend frère et nous marginalise ... C'est dans ça qu'on évolue ouais comme les drogues ... Eh ma vie entière est un défaut ... 93 rue de l'émeute les keufs savent où j'habite ... Tu comprends ça ? Rabzas renois se vatent-sa ... ... J'encaisse cette putain de vie par un joint épaulé Mes frères s'accrochent au RMI ça donne de quoi picoler J'ai trop besoin d'un yébi la mif est grave paumée Les yeux foncedés en bas du bloc je regarde ...You might also like</t>
+          <t>Qu'est ce qu'il y a ? C'est Shone d'Holocost quoi tu me connais pas ? C'est le mec qui parle mal ... Enfin il sait mais si peu d'espèces ... Il méprise le FISC ... Nos bigos sonnent derrière leurs barbelés ... Sale chien j'ai trop pissé dans la chicha ... Okay l'État nous prend frère et nous marginalise ... C'est dans ça qu'on évolue ouais comme les drogues ... Eh ma vie entière est un défaut ... 93 rue de l'émeute les keufs savent où j'habite ... Tu comprends ça ? Rabzas renois se vatent-sa ... ... J'encaisse cette putain de vie par un joint épaulé Mes frères s'accrochent au RMI ça donne de quoi picoler J'ai trop besoin d'un yébi la mif est grave paumée Les yeux foncedés en bas du bloc je regarde ...</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1717,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>J'vais même pas te dire que la vie est une chienne J'l'ai niquée partout mais au fond moi je l'aime J'ai vendu toutes sortes de drogues, porté tous genres de flingues J'suis une caille négro mais je veux m'en sortir ! J'vais même pas te dire que la vie est une chienne J'l'ai niquée partout mais au fond moi je l'aime J'ai vendu toutes sortes de drogus, porté tous genres de flingus J'suis une caille renoi mais je veux m'en sortir ! Je cherche à respirer avant d'expirer Le ghetto c'est chez moi mais je te le dis franchement je vais me tirer J'ai pas que ça à foutre, j'ai été créé pour fourrer Le paradis m'attend car ici l'enfer m'a saoulé Complètement fauché, je m'exprime façon fâché Je paye en billets froissés à force de trop les toucher J'aime trop le pognon, c'est vital comme les poumons J'serais en train de dépouiller si j'avais pas le pilon RMI et quette-quette pour payer les factures J'suis victime de racket, on m'enferme comme ... Sincèrement, j'suis pas ici pour charmer Devant vous je prête serment que j'mens pas sur ... j'suis l'ennemi des servants J'vais même pas te dire que la vie est une chienne J'l'ai niquée partout mais au fond moi je l'aime J'ai vendu toutes sortes de drogues, porté tous genres de flingues J'suis une caille négro mais je veux m'en sortir ! J'vais même pas te dire que la vie est une chienne J'l'ai niquée partout mais au fond moi je l'aime J'ai vendu toutes sortes de drogues, porté tous genres de flingues J'suis une caille renoi mais je veux m'en sortir ! You might also like Whoop whoop négro c'est le son de la police Alertez les guetteurs fermez le four ça urge J'vends du rap tous les jours et le crack de temps en temps Boy ils savent tous les jours la bicrave est dans mon sang J'ai la peau trop chère, moi j'suis un caïman Et c'est dur de résister aux tentations de l'argent Sur l'autoroute de l'illicite j'ai tracé mon couloir L'Etat veut m'effacer, j'suis une marée noire Entouré de rapaces ici c'est chacun pour soi Tu vas pleurer tout seul mais tu peux rire avec moi Man depuis le début frère l'amour y'en a pas C'est pour cela que les sentiments je les cache ici bas Marche ou crève mon pote c'est la devise des gangsters Car y'aura jamais de paix dans la rue sans guerre Marche ou crève mon pote c'est la devise des gangsters Y'aura jamais de paix dans la rue sans guerre J'vais même pas te dire que la vie est une chienne J'l'ai niquée partout mais au fond moi je l'aime J'ai vendu toutes sortes de drogues, porté tous genres de flingues J'suis une caille négro mais je veux m'en sortir ! J'vais même pas te dire que la vie est une chienne J'l'ai niquée partout mais au fond moi je l'aime J'ai vendu toutes sortes de drogues, porté tous genres de flingues J'suis une caille renoi mais je veux m'en sortir ! J'ai pas à me justifier, mon chemin j'ai tissé Ok mon temps j'ai tisé mais je me suis pas activé Comme ces ploucs d'MC's qu'on peut pas identifier Tous se sont glissés dans ce biz' pour s'empiffrer Je veux le pouvoir et je veux le garder comme Castro J'suis pas dans ce délire où je fais des tubes en parlant de gastro ...</t>
+          <t>J'vais même pas te dire que la vie est une chienne J'l'ai niquée partout mais au fond moi je l'aime J'ai vendu toutes sortes de drogues, porté tous genres de flingues J'suis une caille négro mais je veux m'en sortir ! J'vais même pas te dire que la vie est une chienne J'l'ai niquée partout mais au fond moi je l'aime J'ai vendu toutes sortes de drogus, porté tous genres de flingus J'suis une caille renoi mais je veux m'en sortir ! Je cherche à respirer avant d'expirer Le ghetto c'est chez moi mais je te le dis franchement je vais me tirer J'ai pas que ça à foutre, j'ai été créé pour fourrer Le paradis m'attend car ici l'enfer m'a saoulé Complètement fauché, je m'exprime façon fâché Je paye en billets froissés à force de trop les toucher J'aime trop le pognon, c'est vital comme les poumons J'serais en train de dépouiller si j'avais pas le pilon RMI et quette-quette pour payer les factures J'suis victime de racket, on m'enferme comme ... Sincèrement, j'suis pas ici pour charmer Devant vous je prête serment que j'mens pas sur ... j'suis l'ennemi des servants J'vais même pas te dire que la vie est une chienne J'l'ai niquée partout mais au fond moi je l'aime J'ai vendu toutes sortes de drogues, porté tous genres de flingues J'suis une caille négro mais je veux m'en sortir ! J'vais même pas te dire que la vie est une chienne J'l'ai niquée partout mais au fond moi je l'aime J'ai vendu toutes sortes de drogues, porté tous genres de flingues J'suis une caille renoi mais je veux m'en sortir ! Whoop whoop négro c'est le son de la police Alertez les guetteurs fermez le four ça urge J'vends du rap tous les jours et le crack de temps en temps Boy ils savent tous les jours la bicrave est dans mon sang J'ai la peau trop chère, moi j'suis un caïman Et c'est dur de résister aux tentations de l'argent Sur l'autoroute de l'illicite j'ai tracé mon couloir L'Etat veut m'effacer, j'suis une marée noire Entouré de rapaces ici c'est chacun pour soi Tu vas pleurer tout seul mais tu peux rire avec moi Man depuis le début frère l'amour y'en a pas C'est pour cela que les sentiments je les cache ici bas Marche ou crève mon pote c'est la devise des gangsters Car y'aura jamais de paix dans la rue sans guerre Marche ou crève mon pote c'est la devise des gangsters Y'aura jamais de paix dans la rue sans guerre J'vais même pas te dire que la vie est une chienne J'l'ai niquée partout mais au fond moi je l'aime J'ai vendu toutes sortes de drogues, porté tous genres de flingues J'suis une caille négro mais je veux m'en sortir ! J'vais même pas te dire que la vie est une chienne J'l'ai niquée partout mais au fond moi je l'aime J'ai vendu toutes sortes de drogues, porté tous genres de flingues J'suis une caille renoi mais je veux m'en sortir ! J'ai pas à me justifier, mon chemin j'ai tissé Ok mon temps j'ai tisé mais je me suis pas activé Comme ces ploucs d'MC's qu'on peut pas identifier Tous se sont glissés dans ce biz' pour s'empiffrer Je veux le pouvoir et je veux le garder comme Castro J'suis pas dans ce délire où je fais des tubes en parlant de gastro ...</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1734,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's ... Tout ce que je veux savoir négro c'est où sont les G's ? Tout c que je veux savoir négro c'st où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's ... You might also like Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's</t>
+          <t>Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's ... Tout ce que je veux savoir négro c'est où sont les G's ? Tout c que je veux savoir négro c'st où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's ... Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1751,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's ... Tout ce que je veux savoir négro c'est où sont les G's ? Tout c que je veux savoir négro c'st où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's ... You might also like Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's</t>
+          <t>Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's ... Tout ce que je veux savoir négro c'est où sont les G's ? Tout c que je veux savoir négro c'st où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's ... Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1768,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Soir ce je kicke sur l'album de Seth Bête de scène big big big bonne recette Wesh les mecs faut arrêter de sucer les U.S De porter du XXL ou tailler du S Représente l'espèce mec de tess Pris par la poisse sans pour autant penser que Dieu les déteste 9.4 MC c'est comme ça que l'on me nomme Hardcore comme ton fils qui t'annonce qu'il aime un homme T'as vendu quelques grammes de cocaïne Bah c'est pas chez moi que tu passeras pour un gros caïd Caillera mais sous les casquettes dans le rap y'a trop de tapettes De grandes gueules qui ont vite fini victimes de racket Ah c'est le vent qui parle tu l'as ressenti Gentil mais pas le temps de faire acte de plaisanterie Anti porcs braque ces fils de chien Pour mon groupe de taulards cailles rappeurs d'instinct Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères You might also like Rien ne peut m'arrêter à part la chaude pisse Ma vie ne tient qu'à un fil comme un parachutiste Caillera caillera rien ne m'arrêtera à part un supplice Ça fait 3 semaines qu'on piste une recette à Saint Sulpice On enchaîne les délits de fuite et ainsi de suite Dans mes yeux c'est mai 1.9.6.8 Depuis que j'ai baisé le rap tu files vite On aime les cartes bancaires qui font ... Caillera caillera on met du cavier dans le mafé et le couscous On fait du rap Ernesto ... Gangster en boubou des pochons dans le survet coton Wesh Le Pen surveille ton nez de cochon Depuis que nous sommes nés on croque ap J'aurais du appeler mon album Néochrome 4 Ça fait ZBLEX ça vient de Saint Ouen l'Aumône parc wesh C'est le son des grosses cojones ... Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères Caillera caillera j'ai le mot discret comme alias Tellement sous marin que tu sauras jamais d'où sort ma liasse Je tente pas le tout pour le rien cousin Ne crois surtout pas que si tu m'enlèves le rap je deviens un vaurien Devant le bloc poto ce qui fait un homme c'est pas la pipe sur les photos ... C'est qui les feuchés ? Les arracheurs de neuchés qui font la veuch et les faux queuchés Qui ont des kilogrammes de coke ... Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères</t>
+          <t>Soir ce je kicke sur l'album de Seth Bête de scène big big big bonne recette Wesh les mecs faut arrêter de sucer les U.S De porter du XXL ou tailler du S Représente l'espèce mec de tess Pris par la poisse sans pour autant penser que Dieu les déteste 9.4 MC c'est comme ça que l'on me nomme Hardcore comme ton fils qui t'annonce qu'il aime un homme T'as vendu quelques grammes de cocaïne Bah c'est pas chez moi que tu passeras pour un gros caïd Caillera mais sous les casquettes dans le rap y'a trop de tapettes De grandes gueules qui ont vite fini victimes de racket Ah c'est le vent qui parle tu l'as ressenti Gentil mais pas le temps de faire acte de plaisanterie Anti porcs braque ces fils de chien Pour mon groupe de taulards cailles rappeurs d'instinct Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères Rien ne peut m'arrêter à part la chaude pisse Ma vie ne tient qu'à un fil comme un parachutiste Caillera caillera rien ne m'arrêtera à part un supplice Ça fait 3 semaines qu'on piste une recette à Saint Sulpice On enchaîne les délits de fuite et ainsi de suite Dans mes yeux c'est mai 1.9.6.8 Depuis que j'ai baisé le rap tu files vite On aime les cartes bancaires qui font ... Caillera caillera on met du cavier dans le mafé et le couscous On fait du rap Ernesto ... Gangster en boubou des pochons dans le survet coton Wesh Le Pen surveille ton nez de cochon Depuis que nous sommes nés on croque ap J'aurais du appeler mon album Néochrome 4 Ça fait ZBLEX ça vient de Saint Ouen l'Aumône parc wesh C'est le son des grosses cojones ... Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères Caillera caillera j'ai le mot discret comme alias Tellement sous marin que tu sauras jamais d'où sort ma liasse Je tente pas le tout pour le rien cousin Ne crois surtout pas que si tu m'enlèves le rap je deviens un vaurien Devant le bloc poto ce qui fait un homme c'est pas la pipe sur les photos ... C'est qui les feuchés ? Les arracheurs de neuchés qui font la veuch et les faux queuchés Qui ont des kilogrammes de coke ... Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1785,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Si ça marche pour nous c'est qu'on a bien communiqué Le train de vie la zèremi qu'on ne cesse de revendiquer Positif négatif tant qu'y'a le biff, des préservatifs Pour se préserver de ce monde qui pense qu'à forniquer Si ça marche pour nous c'est qu'on a bien communiqué Le train de vie la zèremi qu'on ne cesse de revendiquer Positif négatif tant qu'y'a le biff, des présrvatifs Pour se préserver d ce monde qui pense qu'à forniquer C'est pour mes boys boys comme ... Si ça marche pour nous c'est qu'on a bien communiqué Le train de vie la zèremi qu'on ne cesse de revendiquer Positif négatif tant qu'y'a le biff, des préservatifs Pour se préserver de ce monde qui pense qu'à forniquer Si ça marche pour nous c'est qu'on a bien communiqué Le train de vie la zèremi qu'on ne cesse de revendiquer Positif négatif tant qu'y'a le biff, des préservatifs Pour se préserver de ce monde qui pense qu'à forniquerYou might also like</t>
+          <t>Si ça marche pour nous c'est qu'on a bien communiqué Le train de vie la zèremi qu'on ne cesse de revendiquer Positif négatif tant qu'y'a le biff, des préservatifs Pour se préserver de ce monde qui pense qu'à forniquer Si ça marche pour nous c'est qu'on a bien communiqué Le train de vie la zèremi qu'on ne cesse de revendiquer Positif négatif tant qu'y'a le biff, des présrvatifs Pour se préserver d ce monde qui pense qu'à forniquer C'est pour mes boys boys comme ... Si ça marche pour nous c'est qu'on a bien communiqué Le train de vie la zèremi qu'on ne cesse de revendiquer Positif négatif tant qu'y'a le biff, des préservatifs Pour se préserver de ce monde qui pense qu'à forniquer Si ça marche pour nous c'est qu'on a bien communiqué Le train de vie la zèremi qu'on ne cesse de revendiquer Positif négatif tant qu'y'a le biff, des préservatifs Pour se préserver de ce monde qui pense qu'à forniquer</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1802,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Ecoute bien Holocost part du principe de pas se projeter Combien sont partis pour tout niquer ? Se sont retrouvés dans une rue froc baissé veste retournée Et entre vie et mort, trop de décès pour t'assassiner Shone et KER carrément ça gueule 5.20 O'Rosko carrément ça kille Shone et KER carrément ça gueule 5.20 O'Rosko carrément ça kille On saigne tous les mêmes veines, rappe tous la même haine Négro check mon passeport tu vois qu'on a les mêmes peines ... là bas au Burkina Faso ... À part le Tout Puissant pour nous personne d'autre n'est patron Algérie ses combattants et Bamako ses soldats Tous mes hommes connectés Dakar jusqu'à Gwada ... Tous les mans Burkina frère c'est kill kill kill Tiers monde Cambodge frère c'est kill kill kill Et viens à Dakar renoi c'est kill kill kill Afrique et Gwada renoi c'est kill kill kill Tous les mans Burkina frère c'est kill kill kill Tiers monde Cambodge frère c'est kill kill kill Et viens à Dakar renoi c'est kill kill kill Afrique et Gwada renoi c'est kill kill kill You might also like Tu veux mettre la pilule à qui ? Aux sales gosses ... ... Tous les mans Burkina frère c'est kill kill kill Tiers monde Cambodge frère c'est kill kill kill Et viens à Dakar renoi c'est kill kill kill Afrique et Gwada renoi c'est kill kill kill Tous les mans Burkina frère c'est kill kill kill Tiers monde Cambodge frère c'est kill kill kill Et viens à Dakar renoi c'est kill kill kill Afrique et Gwada renoi c'est kill kill kill</t>
+          <t>Ecoute bien Holocost part du principe de pas se projeter Combien sont partis pour tout niquer ? Se sont retrouvés dans une rue froc baissé veste retournée Et entre vie et mort, trop de décès pour t'assassiner Shone et KER carrément ça gueule 5.20 O'Rosko carrément ça kille Shone et KER carrément ça gueule 5.20 O'Rosko carrément ça kille On saigne tous les mêmes veines, rappe tous la même haine Négro check mon passeport tu vois qu'on a les mêmes peines ... là bas au Burkina Faso ... À part le Tout Puissant pour nous personne d'autre n'est patron Algérie ses combattants et Bamako ses soldats Tous mes hommes connectés Dakar jusqu'à Gwada ... Tous les mans Burkina frère c'est kill kill kill Tiers monde Cambodge frère c'est kill kill kill Et viens à Dakar renoi c'est kill kill kill Afrique et Gwada renoi c'est kill kill kill Tous les mans Burkina frère c'est kill kill kill Tiers monde Cambodge frère c'est kill kill kill Et viens à Dakar renoi c'est kill kill kill Afrique et Gwada renoi c'est kill kill kill Tu veux mettre la pilule à qui ? Aux sales gosses ... ... Tous les mans Burkina frère c'est kill kill kill Tiers monde Cambodge frère c'est kill kill kill Et viens à Dakar renoi c'est kill kill kill Afrique et Gwada renoi c'est kill kill kill Tous les mans Burkina frère c'est kill kill kill Tiers monde Cambodge frère c'est kill kill kill Et viens à Dakar renoi c'est kill kill kill Afrique et Gwada renoi c'est kill kill kill</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1819,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Hé, hé, hein Ok, ok Hein Dans ma tête... Fait pas en sorte que je parle mal devant ta mère Vas-y je vais le faire alors va niquer ta mère Dakar sors le Gomm Cogne, handicape les videurs Défourailles en boîte puis jméclipse avec les tireurs On a des fusils à pompes, négro mate le teaser Plus envie de vivre, frère, il mreste que dla fureur Jferais en sorte que ma ville soit phénoménal Brille comme le soleil, ne brasse que dloseille, frère Devant la Banque Populaire, lexécution est sommaire Naturellement bouillant car chez nous ya pas lhiver On aime les flingues et les kr-kr qui vont avec Laisse pas traîner ta sur sinon tassume les conséquences Puis oublie les embrouilles quand les ghettos balivernent Si les négros parlent mal, cest quau fond ils nous craignent Jeune négro millionnaire au crane bousillé La haine est un grenade que jai déjà dégoupillé, frère La bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête Tous les jours, frère la bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête La bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête Tous les jours, frère la bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête You might also like Les colombiens sont de retour, la qualité irréprochable Coupé à l'ammoniac, au laxatif ou du lait en poudre Fuck leurs imitations de tess, nous on roule à 300 Si tu pécho à Cli-Cli, n'oublie pas ton canon à poudre Le O.9, crack musique fais clignoter les piranhas Pose ton cul sur la banquette, on temmène au nirvana Ghetto Fab' ton cauchemar, cache bien ton tos-ma On baise la route de la chance, au fond te met des tos-ba Les braises du four sont volcaniques, la marmite pond des cristaux Ils sont où les junkies ? On va en faire des fistons Ces petits pédés font les chauds mais se font dépucelés par des trav' Vas-y trace-la, crase le blédard est d'la sale race Cogne dur comme le tigre , t'approches pas d'la surface Les macaques sont défoncés, font du bruit dans la jungle Les gros pleurent, la pluie tombe, les héros meurent, les chauds succombent C'est ma vague de mélancolie pour tout mes qui succombent La bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête Tous les jours, frère la bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête La bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête Tous les jours, frère la bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête J'veux d'l'oseille, khey, la bicrave est dans ma tête L'oseille essaye de le sortir de là khey, c'est pas la peine Je ne dors pas, je ne pense qu'à faire du billet Mes proches le savent ça, petite mon temps n'est à gaspiller Simple est le choix, je préfère fourrer ma queue dans une sse-lia M'éloigner à cent lieux pour détailler non, négro ça c'est rien Sérial bicraveur, on bi-bi-bi tout soeur Passe au stand, je te mets à l'heure, onze heures, tu pris devant le videur La bicrave est dans ma tête, j'ai besoin de biff, sur Enfin j'ai lascenseur, retiens juste ta respi', v'là l'odeur Avant la bicrave, je n'avais pas de couleur préférées À présent j'en ai trois c'est le vert, jaune et le violet Couleur des billets, la pauvreté au quartier tout l'été Me demande pas où j'étais, j'suis resté gratter un billet La bicrave est dans ma tête tous les jours, frère Sa mère, elle ne profites qu'à mes problèmes judiciaires Gear La bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête Tous les jours, frère la bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête La bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête Tous les jours, frère la bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête1</t>
+          <t>Hé, hé, hein Ok, ok Hein Dans ma tête... Fait pas en sorte que je parle mal devant ta mère Vas-y je vais le faire alors va niquer ta mère Dakar sors le Gomm Cogne, handicape les videurs Défourailles en boîte puis jméclipse avec les tireurs On a des fusils à pompes, négro mate le teaser Plus envie de vivre, frère, il mreste que dla fureur Jferais en sorte que ma ville soit phénoménal Brille comme le soleil, ne brasse que dloseille, frère Devant la Banque Populaire, lexécution est sommaire Naturellement bouillant car chez nous ya pas lhiver On aime les flingues et les kr-kr qui vont avec Laisse pas traîner ta sur sinon tassume les conséquences Puis oublie les embrouilles quand les ghettos balivernent Si les négros parlent mal, cest quau fond ils nous craignent Jeune négro millionnaire au crane bousillé La haine est un grenade que jai déjà dégoupillé, frère La bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête Tous les jours, frère la bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête La bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête Tous les jours, frère la bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête Les colombiens sont de retour, la qualité irréprochable Coupé à l'ammoniac, au laxatif ou du lait en poudre Fuck leurs imitations de tess, nous on roule à 300 Si tu pécho à Cli-Cli, n'oublie pas ton canon à poudre Le O.9, crack musique fais clignoter les piranhas Pose ton cul sur la banquette, on temmène au nirvana Ghetto Fab' ton cauchemar, cache bien ton tos-ma On baise la route de la chance, au fond te met des tos-ba Les braises du four sont volcaniques, la marmite pond des cristaux Ils sont où les junkies ? On va en faire des fistons Ces petits pédés font les chauds mais se font dépucelés par des trav' Vas-y trace-la, crase le blédard est d'la sale race Cogne dur comme le tigre , t'approches pas d'la surface Les macaques sont défoncés, font du bruit dans la jungle Les gros pleurent, la pluie tombe, les héros meurent, les chauds succombent C'est ma vague de mélancolie pour tout mes qui succombent La bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête Tous les jours, frère la bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête La bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête Tous les jours, frère la bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête J'veux d'l'oseille, khey, la bicrave est dans ma tête L'oseille essaye de le sortir de là khey, c'est pas la peine Je ne dors pas, je ne pense qu'à faire du billet Mes proches le savent ça, petite mon temps n'est à gaspiller Simple est le choix, je préfère fourrer ma queue dans une sse-lia M'éloigner à cent lieux pour détailler non, négro ça c'est rien Sérial bicraveur, on bi-bi-bi tout soeur Passe au stand, je te mets à l'heure, onze heures, tu pris devant le videur La bicrave est dans ma tête, j'ai besoin de biff, sur Enfin j'ai lascenseur, retiens juste ta respi', v'là l'odeur Avant la bicrave, je n'avais pas de couleur préférées À présent j'en ai trois c'est le vert, jaune et le violet Couleur des billets, la pauvreté au quartier tout l'été Me demande pas où j'étais, j'suis resté gratter un billet La bicrave est dans ma tête tous les jours, frère Sa mère, elle ne profites qu'à mes problèmes judiciaires Gear La bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête Tous les jours, frère la bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête La bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête Tous les jours, frère la bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête1</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1836,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Négro ne soit pas ridicule fait pas comme l'Ourson Puis demande à LIM Alpha pisse du balcon Rempli ton verre d'urine tu peux en boire petite salope Casting Laurent Bouneau et maintenant tu galope Oké, ké ké tu veux la guerre avec moi ? Rapper avec Tandem... Mais ici on n'kiffe pas Kill Bill Mesrine frère, Les Puces jamais ne sucent Remplissent la Fnac et sa sur Virgin Maintenant applaudissez le météore et Sarko Moi j'le baise dans Rakailles faites péter la sono Leur logo sur mon auto leur slip dans mon coffre Séquestration dans la cave jusquà qu'il paye la rançon N'appelle pas la PJ boy, viens à Clicli Alpha est gangster comme feu Eazy E Pas besoin de gamos pour serrer des pétasses J'peux aimer 3 femmes moi j'suis un polygame Ouais Dakar baise les fous ça cache le comble du Pantheon Ouest Side c'est nous jamais on baisse le pantalon Seine Saint Denis criminal avec des haches à l'Autopsie 93 tu peux pas teste même la ville de Raincy Ces p'tits pédés parlent mal qui nous traitent de clochards Ghetto Fab avant l'rap avait déjà du gen-ar Negros jouent les gangsters mais se font caillasser Avec des ufs pourris au milieu de leur cité Boy ramasse la savonnette lubrifiant dans ma poche O'Rosko ouvre la boite à gants passe moi les capotes Et des pire rimes et gloire moi je marche sur des cadavres Fait 14 de millions avec boss de Panam Boy évite le Mauvais Oeil puis je marque le Temps Mort Fuck fuck fuck Booba Aka le Météore You might also like J'commence pas la guerre j'la fini négro Que ça soit avec les flingues ou avec le micro Quand les tirs retentissent et les cieux deviennent gris Miséricorde du seigneur il est temps que tu pries ! J'commence pas la guerre j'la fini négro Que ça soit avec les flingues ou avec le micro Quand les tirs retentissent et les cieux deviennent gris Miséricorde du seigneur il est temps que tu pries ! Booba ! La duchesse de Boulogne1</t>
+          <t>Négro ne soit pas ridicule fait pas comme l'Ourson Puis demande à LIM Alpha pisse du balcon Rempli ton verre d'urine tu peux en boire petite salope Casting Laurent Bouneau et maintenant tu galope Oké, ké ké tu veux la guerre avec moi ? Rapper avec Tandem... Mais ici on n'kiffe pas Kill Bill Mesrine frère, Les Puces jamais ne sucent Remplissent la Fnac et sa sur Virgin Maintenant applaudissez le météore et Sarko Moi j'le baise dans Rakailles faites péter la sono Leur logo sur mon auto leur slip dans mon coffre Séquestration dans la cave jusquà qu'il paye la rançon N'appelle pas la PJ boy, viens à Clicli Alpha est gangster comme feu Eazy E Pas besoin de gamos pour serrer des pétasses J'peux aimer 3 femmes moi j'suis un polygame Ouais Dakar baise les fous ça cache le comble du Pantheon Ouest Side c'est nous jamais on baisse le pantalon Seine Saint Denis criminal avec des haches à l'Autopsie 93 tu peux pas teste même la ville de Raincy Ces p'tits pédés parlent mal qui nous traitent de clochards Ghetto Fab avant l'rap avait déjà du gen-ar Negros jouent les gangsters mais se font caillasser Avec des ufs pourris au milieu de leur cité Boy ramasse la savonnette lubrifiant dans ma poche O'Rosko ouvre la boite à gants passe moi les capotes Et des pire rimes et gloire moi je marche sur des cadavres Fait 14 de millions avec boss de Panam Boy évite le Mauvais Oeil puis je marque le Temps Mort Fuck fuck fuck Booba Aka le Météore J'commence pas la guerre j'la fini négro Que ça soit avec les flingues ou avec le micro Quand les tirs retentissent et les cieux deviennent gris Miséricorde du seigneur il est temps que tu pries ! J'commence pas la guerre j'la fini négro Que ça soit avec les flingues ou avec le micro Quand les tirs retentissent et les cieux deviennent gris Miséricorde du seigneur il est temps que tu pries ! Booba ! La duchesse de Boulogne1</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1853,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>... Sors du block sans escorte, écoute du Balastik Dogg Et ce n'est pas parce qu'on se parle mec qu'on est des potes Juste moi et mes proches, plein de maille dans mes poches Un sticker Rimes gloire tout autour de mon glock Si t'as de l'amour pour mon clan frère c'est réciproque Si t'as de la haine comme un bâtard mieux vaut user du cross Tels des chiens aux abois, les frères n'ont jamais grandi 30 piges dans la cité puis embrouilles d petits Moi je vis ma vie t je dois rien à personne Excepté à Fredo, mon rap coûte bédo 93 c'est le ghetto, on ride toute la soirée Dis à ta meuf de ne pas venir sinon je vais la serrer Boy j'aime les meufs rebeues mais galsen j'kiffe plus Aïssata, Jennaba, fallait pas tout des puces Celles qui font mon mafé, évitent de se faire baffer Celles qui m'appellent papa, caressent ma graine de café Ses premiers pas dans le club et les tasses s'agrippent Ghetto Fabulous Thug boy ni Blood ni Crips Boy nous on squatte les chars, just give me the light Plus nous on serre les rates, plus que Monseigneur Mike Si au club y'a fight, laisse ça aux macaques Quand la bac matraque ces renois sont des toubabs You might also like Batty boy, batty boy, batty boy ... Batty boy, batty boy, batty boy ...</t>
+          <t>... Sors du block sans escorte, écoute du Balastik Dogg Et ce n'est pas parce qu'on se parle mec qu'on est des potes Juste moi et mes proches, plein de maille dans mes poches Un sticker Rimes gloire tout autour de mon glock Si t'as de l'amour pour mon clan frère c'est réciproque Si t'as de la haine comme un bâtard mieux vaut user du cross Tels des chiens aux abois, les frères n'ont jamais grandi 30 piges dans la cité puis embrouilles d petits Moi je vis ma vie t je dois rien à personne Excepté à Fredo, mon rap coûte bédo 93 c'est le ghetto, on ride toute la soirée Dis à ta meuf de ne pas venir sinon je vais la serrer Boy j'aime les meufs rebeues mais galsen j'kiffe plus Aïssata, Jennaba, fallait pas tout des puces Celles qui font mon mafé, évitent de se faire baffer Celles qui m'appellent papa, caressent ma graine de café Ses premiers pas dans le club et les tasses s'agrippent Ghetto Fabulous Thug boy ni Blood ni Crips Boy nous on squatte les chars, just give me the light Plus nous on serre les rates, plus que Monseigneur Mike Si au club y'a fight, laisse ça aux macaques Quand la bac matraque ces renois sont des toubabs Batty boy, batty boy, batty boy ... Batty boy, batty boy, batty boy ...</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1870,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>I'm rich bitch ! Hey hey hey, anhan ! Hey hey heyyyy jure, jure ! Hey ! Braah ! Jure ! Ahhh ! Ahh ! Hey ! Braaah ! Suffit pas d'avoir un flingue, négro fais peser tes couilles Les gangsters font de la maille puis l'Etat se mange des douilles Casse des banques voitures béliers, c'est la loi du plus fort J'suis un négro criminel, peux pas te dire là où je dors Suffit pas d'avoir un flingue, négro fais peser tes couilles Les gangsters font de la maille puis l'Etat se mange des douilles Casse des banques voitures béliers, c'est la loi du plus fort J'suis un négro criminel, peux pas te dire là où je dors Trouve moi à la prière pas loin de Bondy Nord Passe mon temps à maudir le drapeau tricolore D'humeur parano je suis un peu crispé L'attitude de mes négros les rend tous suspects De ma fenêtre ça défouraille sur la voiture d'Esther 93 Clichy Sous-B' jusqu'à Epinay, mon secteur Si la mort advient, frère que DIEU NOUS PARDONNE Mes négros sont incassables, comme Samuel Lee Jackson Ta fin d'vie sur mon portable, comme la mort à Saddam Vingt-cinq ans dans un bunker, boy téma l'retour de flamme Brise la nuit tel un éclair, négro j'ai un chalumeau Tresse en O ma crinière, j'suis le roi des animaux Impossible de nous baiser, comme une pute de lesbienne Reste à ta place négrillon, moi j'te dit que c'est pas la peine La vengeance est un plat, et j'dévore ça tout froid Si la patience est une vertu j'suis trop attendu mon renoi You might also like Suffit pas d'avoir un flingue, négro fais peser tes couilles Les gangsters font de la maille puis l'Etat se mange des douilles Casse des banques voitures béliers, c'est la loi du plus fort J'suis un négro criminel, peux pas te dire là où je dors Suffit pas d'avoir un flingue, négro fais peser tes couilles Les gangsters font de la maille puis l'Etat se mange des douilles Casse des banques voitures béliers, c'est la loi du plus fort J'suis un négro criminel, peux pas te dire là où je dors Moi je ride, criminal sur la Nationale 3 Ta meuf comme passagère, sexuels sont nos débats Elle prétend être une vierge, je lui dis descends en bas ! Pratiquement elle aspire fait monter la crème en moi Moi je joue avec le temps, regarde le monde différemment Cache mon flingue là où se trouvent les airbags évidemment Les gunz gunz c'est ça le sport à Islamique Dakar Nos ennemis morflant tous regarde ils s'égarent J'ai pas de temps à perdre frère je suis un hustler Mon crack c'est comme mes CD dans le ghetto best seller Mon esprit est blessé, mon âme incarcérée Barrage de keuf man refus dobtempérer Dans le 93, à Boboche ils veulent mon ADN Ma pute, ma clique, mes empreintes, puis ma dégaine Appelle moi majesté si t'as besoin de fric J'suis le prochain président des Etats-Unis d'Afrique Suffit pas d'avoir un flingue, négro fais peser tes couilles Les gangsters font de la maille puis l'Etat se mange des douilles Casse des banques voitures béliers, c'est la loi du plus fort J'suis un négro criminel, peux pas te dire là où je dors Suffit pas d'avoir un flingue, négro fais peser tes couilles Les gangsters font de la maille puis l'Etat se mange des douilles Casse des banques voitures béliers, c'est la loi du plus fort J'suis un négro criminel, peux pas te dire là où je dors Hey !</t>
+          <t>I'm rich bitch ! Hey hey hey, anhan ! Hey hey heyyyy jure, jure ! Hey ! Braah ! Jure ! Ahhh ! Ahh ! Hey ! Braaah ! Suffit pas d'avoir un flingue, négro fais peser tes couilles Les gangsters font de la maille puis l'Etat se mange des douilles Casse des banques voitures béliers, c'est la loi du plus fort J'suis un négro criminel, peux pas te dire là où je dors Suffit pas d'avoir un flingue, négro fais peser tes couilles Les gangsters font de la maille puis l'Etat se mange des douilles Casse des banques voitures béliers, c'est la loi du plus fort J'suis un négro criminel, peux pas te dire là où je dors Trouve moi à la prière pas loin de Bondy Nord Passe mon temps à maudir le drapeau tricolore D'humeur parano je suis un peu crispé L'attitude de mes négros les rend tous suspects De ma fenêtre ça défouraille sur la voiture d'Esther 93 Clichy Sous-B' jusqu'à Epinay, mon secteur Si la mort advient, frère que DIEU NOUS PARDONNE Mes négros sont incassables, comme Samuel Lee Jackson Ta fin d'vie sur mon portable, comme la mort à Saddam Vingt-cinq ans dans un bunker, boy téma l'retour de flamme Brise la nuit tel un éclair, négro j'ai un chalumeau Tresse en O ma crinière, j'suis le roi des animaux Impossible de nous baiser, comme une pute de lesbienne Reste à ta place négrillon, moi j'te dit que c'est pas la peine La vengeance est un plat, et j'dévore ça tout froid Si la patience est une vertu j'suis trop attendu mon renoi Suffit pas d'avoir un flingue, négro fais peser tes couilles Les gangsters font de la maille puis l'Etat se mange des douilles Casse des banques voitures béliers, c'est la loi du plus fort J'suis un négro criminel, peux pas te dire là où je dors Suffit pas d'avoir un flingue, négro fais peser tes couilles Les gangsters font de la maille puis l'Etat se mange des douilles Casse des banques voitures béliers, c'est la loi du plus fort J'suis un négro criminel, peux pas te dire là où je dors Moi je ride, criminal sur la Nationale 3 Ta meuf comme passagère, sexuels sont nos débats Elle prétend être une vierge, je lui dis descends en bas ! Pratiquement elle aspire fait monter la crème en moi Moi je joue avec le temps, regarde le monde différemment Cache mon flingue là où se trouvent les airbags évidemment Les gunz gunz c'est ça le sport à Islamique Dakar Nos ennemis morflant tous regarde ils s'égarent J'ai pas de temps à perdre frère je suis un hustler Mon crack c'est comme mes CD dans le ghetto best seller Mon esprit est blessé, mon âme incarcérée Barrage de keuf man refus dobtempérer Dans le 93, à Boboche ils veulent mon ADN Ma pute, ma clique, mes empreintes, puis ma dégaine Appelle moi majesté si t'as besoin de fric J'suis le prochain président des Etats-Unis d'Afrique Suffit pas d'avoir un flingue, négro fais peser tes couilles Les gangsters font de la maille puis l'Etat se mange des douilles Casse des banques voitures béliers, c'est la loi du plus fort J'suis un négro criminel, peux pas te dire là où je dors Suffit pas d'avoir un flingue, négro fais peser tes couilles Les gangsters font de la maille puis l'Etat se mange des douilles Casse des banques voitures béliers, c'est la loi du plus fort J'suis un négro criminel, peux pas te dire là où je dors Hey !</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1887,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Ghetto Fab Gang, si-si Dakar, Dakar, Yarakh 93 yeah yeah Trop célèbre man pour courir J'peux pas rester là négro à subir Sors ton flingue, tir en l'air mon négro Si t'aime comme moi les trafics en gros Trop célèbre man pour courir J'peux pas rester là négro à subir Et j'te dis écoute moi khouya Faut pas abuser dans cette putain d'dounya Hé mwen pou parlé pa bokou Mwen ké envoyer des boyz killa you Mwen venir Alfa Romeo Toquer à la porte chez mama yo Mwen tirer partir cagoulé Haitian killa mwen sans pitié Comme Roger le jour du grand pardon Mes ennemis essuient des coups de canon J'ai d'la haine, la rage à revendre Juste la mort que ma haine engendre Oeil pour oeil, dent pour dent Si il le faut j'irais verser mon sang De Sarcelle jusqu'à Aubervilliers 45 l'homme de l'ombre 93 man terre des gang C'est sans remord qu'on tire sur Babylon You might also like Trop célèbre man pour courir J'peux pas rester là négro à subir Sors ton flingue, tir en l'air mon négro Si t'aime comme moi les trafics en gros Trop célèbre man pour courir J'peux pas rester là négro à subir Et j'te dis écoute moi khouya Faut pas abuser dans cette putain d'dounya Alpha tout seul, guet-apens les poulets J'envoie des cocktail dans leur salle à manger Molotovs d'Ukraine comme le frère Sefyu Sors le Glock et j'te dis Assalam Aleykoum Islamique Dakar contre le monde entier Mes journées sont chaudes, mes nuits ensanglantées Homosexualité dans le rap français J'ai retenu mes larmes, bloqué mes pensées Et depuis l'début, pointé du doigt Descendant de macaque, de Dakar jusqu'au Rwanda De retour dans la jungle y a pas mieux que chez soi C'est la loi des plus forts, fréro écoute moi Crucifie ma vie, tu pourras vivre après Si tu négro je viendrais te hanter Dakar aime les embrouilles, coffrer les millions Et les armes pour nous c'est une seconde religion Trop célèbre man pour courir J'peux pas rester là négro à subir Sors ton flingue, tir en l'air mon négro Si t'aime comme moi les trafics en gros Trop célèbre man pour courir J'peux pas rester là négro à subir Et j'te dis écoute moi khouya Faut pas abuser dans cette putain d'dounya Sakamaché boyz Gwada Sakamaché les frères Madinina Sakamaché les boys d'Algérie Sakamaché my little Dakar Bangs Bangs Crack Crack trafic de stup man 93 Banlieue nord, criminelle Jamais à l'abri on paye des sentinelles Détermination discipline travail L'argent c'est rien, le respect c'est tout khay Ghetto Fab, ma famille Jusqu'à la mort, négro t'as compris Trop célèbre man pour courir J'peux pas rester là négro à subir Sors ton flingue, tir en l'air mon négro Si t'aime comme moi les trafics en gros Trop célèbre man pour courir J'peux pas rester là négro à subir Et j'te dis écoute moi khouya Faut pas abuser dans cette putain d'dounya</t>
+          <t>Ghetto Fab Gang, si-si Dakar, Dakar, Yarakh 93 yeah yeah Trop célèbre man pour courir J'peux pas rester là négro à subir Sors ton flingue, tir en l'air mon négro Si t'aime comme moi les trafics en gros Trop célèbre man pour courir J'peux pas rester là négro à subir Et j'te dis écoute moi khouya Faut pas abuser dans cette putain d'dounya Hé mwen pou parlé pa bokou Mwen ké envoyer des boyz killa you Mwen venir Alfa Romeo Toquer à la porte chez mama yo Mwen tirer partir cagoulé Haitian killa mwen sans pitié Comme Roger le jour du grand pardon Mes ennemis essuient des coups de canon J'ai d'la haine, la rage à revendre Juste la mort que ma haine engendre Oeil pour oeil, dent pour dent Si il le faut j'irais verser mon sang De Sarcelle jusqu'à Aubervilliers 45 l'homme de l'ombre 93 man terre des gang C'est sans remord qu'on tire sur Babylon Trop célèbre man pour courir J'peux pas rester là négro à subir Sors ton flingue, tir en l'air mon négro Si t'aime comme moi les trafics en gros Trop célèbre man pour courir J'peux pas rester là négro à subir Et j'te dis écoute moi khouya Faut pas abuser dans cette putain d'dounya Alpha tout seul, guet-apens les poulets J'envoie des cocktail dans leur salle à manger Molotovs d'Ukraine comme le frère Sefyu Sors le Glock et j'te dis Assalam Aleykoum Islamique Dakar contre le monde entier Mes journées sont chaudes, mes nuits ensanglantées Homosexualité dans le rap français J'ai retenu mes larmes, bloqué mes pensées Et depuis l'début, pointé du doigt Descendant de macaque, de Dakar jusqu'au Rwanda De retour dans la jungle y a pas mieux que chez soi C'est la loi des plus forts, fréro écoute moi Crucifie ma vie, tu pourras vivre après Si tu négro je viendrais te hanter Dakar aime les embrouilles, coffrer les millions Et les armes pour nous c'est une seconde religion Trop célèbre man pour courir J'peux pas rester là négro à subir Sors ton flingue, tir en l'air mon négro Si t'aime comme moi les trafics en gros Trop célèbre man pour courir J'peux pas rester là négro à subir Et j'te dis écoute moi khouya Faut pas abuser dans cette putain d'dounya Sakamaché boyz Gwada Sakamaché les frères Madinina Sakamaché les boys d'Algérie Sakamaché my little Dakar Bangs Bangs Crack Crack trafic de stup man 93 Banlieue nord, criminelle Jamais à l'abri on paye des sentinelles Détermination discipline travail L'argent c'est rien, le respect c'est tout khay Ghetto Fab, ma famille Jusqu'à la mort, négro t'as compris Trop célèbre man pour courir J'peux pas rester là négro à subir Sors ton flingue, tir en l'air mon négro Si t'aime comme moi les trafics en gros Trop célèbre man pour courir J'peux pas rester là négro à subir Et j'te dis écoute moi khouya Faut pas abuser dans cette putain d'dounya</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1904,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Comme une GLOCK, TEC, UZI et AK Vas-y montre un flingue frère que nous, on n'a pas À mon tour de briller, je tranche tel un rasoir Flaques de sang partout tout au long du couloir Comme une GLOCK, TEC, UZI et AK Vas-y montre un flingue frère que nous, on n'a pas En avance sur mon temps, j'suis un prématuré Bain de sang en Afrique, j'suis un enfant mort-né Sur le champ de bataille, la mort avant le déshonneur Dakar soldat, la mort avant le déshonneur Derrière les barreaux, la mort avant le déshonneur Fuck les battyboys, la mort avant le déshonneur Sur le champ de bataille, demande pas la clémence Ma rime un mélange de folie et de démence Vas-y tente ta chance, on ne meurt qu'une fois Et t'auras beaucoup de buzz si tu niques Alpha 5.20 pharmacie le roi des bandits Si tu tires sur moi, ta tess en sort grandie Brandir un flingue, mais ne jamais tirer T'as quoi dans la tête ? Tu veux juste frimer Dans le gang-banging hey, négros savent Et dans le crack slanging boy, négros savent J'ai regardé l'ciel puis après, j'ai prié Marché sur la terre puis l'sang s'est versé Blindé mon cur dans ce putain de désert Dès la nuit tombée, sortez les vipères Scorpions s'accouplaient au fond des cratères Et des lions ont poussé, à fond les altères Hey You might also like Dakar Gs, Dakar Gs, Dakar Gs Hey, Hey Comme une GLOCK, TEC, UZI et AK Vas-y montre un flingue frère que nous, on n'a pas À mon tour de briller, je tranche tel un rasoir Flaques de sang partout tout au long du couloir Comme une GLOCK, TEC, UZI et AK Vas-y montre un flingue frère que nous, on n'a pas En avance sur mon temps, j'suis un prématuré Bain de sang en Afrique, j'suis un enfant mort-né Sur le champ de bataille, la mort avant le déshonneur Dakar soldat, la mort avant le déshonneur Derrière les barreaux, la mort avant le déshonneur Fuck les battyboys, la mort avant le déshonneur</t>
+          <t>Comme une GLOCK, TEC, UZI et AK Vas-y montre un flingue frère que nous, on n'a pas À mon tour de briller, je tranche tel un rasoir Flaques de sang partout tout au long du couloir Comme une GLOCK, TEC, UZI et AK Vas-y montre un flingue frère que nous, on n'a pas En avance sur mon temps, j'suis un prématuré Bain de sang en Afrique, j'suis un enfant mort-né Sur le champ de bataille, la mort avant le déshonneur Dakar soldat, la mort avant le déshonneur Derrière les barreaux, la mort avant le déshonneur Fuck les battyboys, la mort avant le déshonneur Sur le champ de bataille, demande pas la clémence Ma rime un mélange de folie et de démence Vas-y tente ta chance, on ne meurt qu'une fois Et t'auras beaucoup de buzz si tu niques Alpha 5.20 pharmacie le roi des bandits Si tu tires sur moi, ta tess en sort grandie Brandir un flingue, mais ne jamais tirer T'as quoi dans la tête ? Tu veux juste frimer Dans le gang-banging hey, négros savent Et dans le crack slanging boy, négros savent J'ai regardé l'ciel puis après, j'ai prié Marché sur la terre puis l'sang s'est versé Blindé mon cur dans ce putain de désert Dès la nuit tombée, sortez les vipères Scorpions s'accouplaient au fond des cratères Et des lions ont poussé, à fond les altères Hey Dakar Gs, Dakar Gs, Dakar Gs Hey, Hey Comme une GLOCK, TEC, UZI et AK Vas-y montre un flingue frère que nous, on n'a pas À mon tour de briller, je tranche tel un rasoir Flaques de sang partout tout au long du couloir Comme une GLOCK, TEC, UZI et AK Vas-y montre un flingue frère que nous, on n'a pas En avance sur mon temps, j'suis un prématuré Bain de sang en Afrique, j'suis un enfant mort-né Sur le champ de bataille, la mort avant le déshonneur Dakar soldat, la mort avant le déshonneur Derrière les barreaux, la mort avant le déshonneur Fuck les battyboys, la mort avant le déshonneur</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1921,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>... ... Dis moi comment tu m'aimes mon frère Parfois je me sens abandonné À quel point tu peux tuer mon frère ? À quel point ton amour peut me donner ? ... ... Enfant du ghetto commençant la prière Afin que les mécréants puissent mordre la poussière Ghetto Fabulous Gang et Truand 2 la galère On est comme des pieuvres à 1000 lieues sous la mer Nique la chatte à ta mère qu'est ce tu croyais bouffon ? On boit pas de l'alcool mais cul sec le goudron Décime la concurrence Clicli c'est Zehef T'arrives lucide chez nous mais tu repars khabbat La France a peur de nous Sénégal et Algérie Businessman et barbu Skyrock se chie dessus ... au terter mais boycotté à la FNAC Territoire occupé comme Yasser Arafat Rendez nous Dakar on rendra Clicli Réalité française comme le frère Nessbeal Gunz pop Alpha j'ai de l'amour pour mes frères Compagnon de la misère Dakar Yarakh noir et fier You might also like Dis moi comment tu m'aimes</t>
+          <t>... ... Dis moi comment tu m'aimes mon frère Parfois je me sens abandonné À quel point tu peux tuer mon frère ? À quel point ton amour peut me donner ? ... ... Enfant du ghetto commençant la prière Afin que les mécréants puissent mordre la poussière Ghetto Fabulous Gang et Truand 2 la galère On est comme des pieuvres à 1000 lieues sous la mer Nique la chatte à ta mère qu'est ce tu croyais bouffon ? On boit pas de l'alcool mais cul sec le goudron Décime la concurrence Clicli c'est Zehef T'arrives lucide chez nous mais tu repars khabbat La France a peur de nous Sénégal et Algérie Businessman et barbu Skyrock se chie dessus ... au terter mais boycotté à la FNAC Territoire occupé comme Yasser Arafat Rendez nous Dakar on rendra Clicli Réalité française comme le frère Nessbeal Gunz pop Alpha j'ai de l'amour pour mes frères Compagnon de la misère Dakar Yarakh noir et fier Dis moi comment tu m'aimes</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1938,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Tony, Tony, le boss veut te voir Capone, le boss veut te voir Snoop Dogg, le boss veut te voir Fifty, le boss veut te voir Dans ma vie c'est rien, que des flingues et des roses Des boloss devant le four, qui attendent leur dose Moi je baise gratos, mais l'amour y'en a pas Ta princesse avec moi, elle pense qu'j'suis une reu-sta J'ai le corps percé, comme Amadou Diallo Ma voix résonne de l'au-delà, écoute moi frérot J'représente les gangsters qui veulent pas balancer Et toutes nos surs enceintes, qui veulent pas avorter Loin d'être un clodo, j'suis toujours aux Puces À bicrave sous la neige, en doudoune et capuche Meurtrier aux Puces, délinquance juvénile Vend plus que la Fnac et sa sur Virgin J'représente Ben Laden ou Tony Montana Afrique de l'ouest, Burkina à la Thomas Sankara Les gangsters ne dansent pas, préfèrent prendre que des balles C'est pour ça que Ghetto Fab' négro ne tourne pas en boite You might also like Mesrine, le boss veut te voir Ferrara, le boss veut te voir Fofana, le boss veut te voir Alpha, le boss veut te voir Y'a du biff à faire, pas de crise ce qui dise y'en a marre, moi le biff, j'le maîtrise ça c'est faux faux que des bêtises, s'il le faut-faut je me déguise Le boss veut te voir mec Boos-P, Alpha fuckin 5.20 mec Vivre et mourir Le boss veut te voir, veut te voir, veut te voir Le boss veut te voir, le boss veut te voir Le boss veut te voir, veut te voir, veut te voir Pablo Escobar, Manuel Noriega, Suge Knight, Boualem, Khaled Kelkal1</t>
+          <t>Tony, Tony, le boss veut te voir Capone, le boss veut te voir Snoop Dogg, le boss veut te voir Fifty, le boss veut te voir Dans ma vie c'est rien, que des flingues et des roses Des boloss devant le four, qui attendent leur dose Moi je baise gratos, mais l'amour y'en a pas Ta princesse avec moi, elle pense qu'j'suis une reu-sta J'ai le corps percé, comme Amadou Diallo Ma voix résonne de l'au-delà, écoute moi frérot J'représente les gangsters qui veulent pas balancer Et toutes nos surs enceintes, qui veulent pas avorter Loin d'être un clodo, j'suis toujours aux Puces À bicrave sous la neige, en doudoune et capuche Meurtrier aux Puces, délinquance juvénile Vend plus que la Fnac et sa sur Virgin J'représente Ben Laden ou Tony Montana Afrique de l'ouest, Burkina à la Thomas Sankara Les gangsters ne dansent pas, préfèrent prendre que des balles C'est pour ça que Ghetto Fab' négro ne tourne pas en boite Mesrine, le boss veut te voir Ferrara, le boss veut te voir Fofana, le boss veut te voir Alpha, le boss veut te voir Y'a du biff à faire, pas de crise ce qui dise y'en a marre, moi le biff, j'le maîtrise ça c'est faux faux que des bêtises, s'il le faut-faut je me déguise Le boss veut te voir mec Boos-P, Alpha fuckin 5.20 mec Vivre et mourir Le boss veut te voir, veut te voir, veut te voir Le boss veut te voir, le boss veut te voir Le boss veut te voir, veut te voir, veut te voir Pablo Escobar, Manuel Noriega, Suge Knight, Boualem, Khaled Kelkal1</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1955,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Quitter le monde avec une aiguille dans le bras Une balle dans le corps, sur le visage un grand drap C'est le drame, nos ruelles saupoudrées de kilogrammes De kilos Dollar, CFA ou narco-dinars Teenager, voyageur dans la soute Lorsque toi, enfant, tu mollardais dans la soupe LAfricaine Attitude titube les exclus Tu rends ta job, sans études, tu recules L'arme blanche inscrite au tableau noir Au marqueur, les victimes, bâtonnées par le trait noir Conventionnel, font des pleurs de nos mères un rituel Une musique douloureuse, habituelle Incriminé par un témoin oculaire À qui tu rêves déjà de couper lauriculaire Ne recule devant rien surtout pas devant les armes à feu Et à sang quitte à finir dans le feu x2 C'est plus fort que la Musique, plus lourd que l'acier Embrouilles et trafics, frère ça c'est ma vie Entre le Dîn et le deal, jai dû faire un choix Mais Dieu seul jugera, frère, le mal qu'on a fait You might also likeMedine Je recrache mes couplets, ne rappe que sous la contrainte Je noircis ma feuille avec un canon posé sur ma tempe Et pourtant je ne porterais pas plainte, de l'idée derrière le gun car ce combat je le chante Banlieue, cité de pierres qui oppresse, une prison de tour à qui je témoigne de la tendresse Des costumes cravates veulent te passer le savon Ouvrir les vannes, dénonce l'incendie comme en temps d'exclusion Comme en temps de discrimination, comme en temps de ségrégation raciale communautaire Comme en temps où nos pères combattaient leurs commandants Commentant l'actu, c'est par cette voix qu'on m'entend Si vivre en quartier tourne à la prise d'otage Pas de Bruce Willis pour éviter le carnage Opération à cur ouvert sur un 45 tours En quarantaine dans les tours c'est Médine Bétancourt Otage par le corps, otage par l'esprit Otage d'un ravisseur qui nous prend de sympathie Le regard masculin est otage du décolleté Plus d'une vie otage, tant d'argent salement récolté Le ghetto ne fait que peu de rescapés Et ce peu de rescapé y retourne comme Buscapé Nous sommes les enfants de Beslan en Ossétie Assis sur la même chaise que Thimothy dOklahoma City Si le passé parasite le présent Le syndrome de Stockholm remplira leur prison Dis au quai dOrsay au 36 quai des orfèvres Qu'on se souviendra de l'histoire le canon entre les lèvres Refrain On a pour syndrome la capitale de Suède On réunit les causes comme le canal de Suez Banlieue, maison darrêt à ciel ouvert Banlieusard sur brancard, opération à cur ouvert Stockholm, un syndrome sans sérum C'est l'industrie du ghetto dupliquer sur un album On compatit avec le preneur d'otage Lui sert de bouclier humain le soir du carnage Tant que le monde dérapera, qu'Al Jazeera rapportera Du théâtre de Moscou jusqu'à l'hôtel Opéra, Médine rappera Opération entre les coudes chez Virgin Mégastore Et sur table d'écoute Si François Grosdidier nous emprisonne Moi j'rapperai mon album comme Shyne au téléphone Beaucoup trop téléphoné est ton rap Teletubbies Mes couplets te rattrapent comme les base-ball furies Ce qui ne tue pas nous rend beaucoup plus forts Alors pour être invincibles, on se mutilera le corps Dîn Records, toujours debout parmi les corps Je suis Mohammed Ali, le R.A.P est dans mes cordes vocales Les yeux sont mon combat lyrical Mené depuis mon havre de paix local Ma région pour berceau et l'islam pour lanterne J'ai un détonateur pour horloge interne Remonter la minuterie du R.A.P de Monoprix Indépendant de toute patrie depuis l'retrait des colonies L'Élysée nous traite en pestiférés Voici la rue en direct et non pas en différé</t>
+          <t>Quitter le monde avec une aiguille dans le bras Une balle dans le corps, sur le visage un grand drap C'est le drame, nos ruelles saupoudrées de kilogrammes De kilos Dollar, CFA ou narco-dinars Teenager, voyageur dans la soute Lorsque toi, enfant, tu mollardais dans la soupe LAfricaine Attitude titube les exclus Tu rends ta job, sans études, tu recules L'arme blanche inscrite au tableau noir Au marqueur, les victimes, bâtonnées par le trait noir Conventionnel, font des pleurs de nos mères un rituel Une musique douloureuse, habituelle Incriminé par un témoin oculaire À qui tu rêves déjà de couper lauriculaire Ne recule devant rien surtout pas devant les armes à feu Et à sang quitte à finir dans le feu x2 C'est plus fort que la Musique, plus lourd que l'acier Embrouilles et trafics, frère ça c'est ma vie Entre le Dîn et le deal, jai dû faire un choix Mais Dieu seul jugera, frère, le mal qu'on a fait Medine Je recrache mes couplets, ne rappe que sous la contrainte Je noircis ma feuille avec un canon posé sur ma tempe Et pourtant je ne porterais pas plainte, de l'idée derrière le gun car ce combat je le chante Banlieue, cité de pierres qui oppresse, une prison de tour à qui je témoigne de la tendresse Des costumes cravates veulent te passer le savon Ouvrir les vannes, dénonce l'incendie comme en temps d'exclusion Comme en temps de discrimination, comme en temps de ségrégation raciale communautaire Comme en temps où nos pères combattaient leurs commandants Commentant l'actu, c'est par cette voix qu'on m'entend Si vivre en quartier tourne à la prise d'otage Pas de Bruce Willis pour éviter le carnage Opération à cur ouvert sur un 45 tours En quarantaine dans les tours c'est Médine Bétancourt Otage par le corps, otage par l'esprit Otage d'un ravisseur qui nous prend de sympathie Le regard masculin est otage du décolleté Plus d'une vie otage, tant d'argent salement récolté Le ghetto ne fait que peu de rescapés Et ce peu de rescapé y retourne comme Buscapé Nous sommes les enfants de Beslan en Ossétie Assis sur la même chaise que Thimothy dOklahoma City Si le passé parasite le présent Le syndrome de Stockholm remplira leur prison Dis au quai dOrsay au 36 quai des orfèvres Qu'on se souviendra de l'histoire le canon entre les lèvres Refrain On a pour syndrome la capitale de Suède On réunit les causes comme le canal de Suez Banlieue, maison darrêt à ciel ouvert Banlieusard sur brancard, opération à cur ouvert Stockholm, un syndrome sans sérum C'est l'industrie du ghetto dupliquer sur un album On compatit avec le preneur d'otage Lui sert de bouclier humain le soir du carnage Tant que le monde dérapera, qu'Al Jazeera rapportera Du théâtre de Moscou jusqu'à l'hôtel Opéra, Médine rappera Opération entre les coudes chez Virgin Mégastore Et sur table d'écoute Si François Grosdidier nous emprisonne Moi j'rapperai mon album comme Shyne au téléphone Beaucoup trop téléphoné est ton rap Teletubbies Mes couplets te rattrapent comme les base-ball furies Ce qui ne tue pas nous rend beaucoup plus forts Alors pour être invincibles, on se mutilera le corps Dîn Records, toujours debout parmi les corps Je suis Mohammed Ali, le R.A.P est dans mes cordes vocales Les yeux sont mon combat lyrical Mené depuis mon havre de paix local Ma région pour berceau et l'islam pour lanterne J'ai un détonateur pour horloge interne Remonter la minuterie du R.A.P de Monoprix Indépendant de toute patrie depuis l'retrait des colonies L'Élysée nous traite en pestiférés Voici la rue en direct et non pas en différé</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1972,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Un jour un p'tit m'a demandé Comment j'me suis mit à rapper Très calmement j'lui ai répondu qu'j'ai du quitter la rue mon frère La mort me va si bien, la vie aussi tristement célèbre Mon blaze t'es stupide ou quoi testicules pleines Ptète pas mec de tess O'rosko Raricim mon gars j'suis comme chez oim j'mange des kébabs La vérité tu l'entends j't'explique j'suis un bonhomme n'recule devant rien devant quiconque Les MC tous ds pédés comme des S-A-lope quand ça tir ça lope-ga J'ai été en enfer maintenant je suis de retour Et j'chante la haine car je manque d'amour Et les mêmes renois qui parlaient mal sur oi-m Veulent me serrer la main sale pédé reste calme On était des frères jusquà qu'la mort nous sépare Pour la maille ils m'ont trahis puis mon laissé par terre Juste moi et ma mère récitant l'Coran Quand j'srais d'retour yarahr va fleurir Ne pense pas qu'ta cité c'est l'début d'la misère On remplit les prisons, les hôpitaux et les cimetières Et le monde entier est un ghetto mon frère Des guerres civiles en Afrique aux camps de Guantánamo. What-up Ne pense pas qu'ta cité c'est l'début d'la misère On remplit les prisons, les hôpitaux et les cimetières Et le monde entier est un ghetto mon frère Des guerres civiles en Afrique aux camps de Guantánamo You might also like Y a pas d'amour négro, dans le coeur d'la ville Juste après les mosquées c'est nos maisons qui brulent J'vends plus d'la poudre moi j'vends d'l'éspoir Pour nos têtes cramées boy au fond du couloir Enfant d'la cité Ghetto Fabulous Gang nous on vient d'Afrique pas les fils d'la France Et je rentre en trance juste après la prière miséricorde du seigneur me guide vers la lumière Yeah parrain Ghetto Fabulous Gang, Raricim Alpha toute la meute a la rage du sang Déjà sur écoute sur les ondes les RG en plus sur ma puce négros j'suis comme le 113 Prince de la ville en plus personne peut m'test Gueule pas tu s'ra mignonne sale p'tite garce Arrête de bédave t'aura un peu la tête sur les épaules Le réveil t'casse, tant qu'beuh et Cess qui t'parlent Ne pense pas qu'ta cité c'est l'début d'la misère On remplit les prisons, les hôpitaux et les cimetières Et le monde entier est un ghetto mon frère Des guerres civiles en Afrique aux camps de Guantánamo Ne pense pas qu'ta cité c'est l'début d'la misère On remplit les prisons, les hôpitaux et les cimetières Et le monde entier est un ghetto mon frère Des guerres civiles en Afrique aux camps de Guantánamo Yeah, ça sonne trop cité c'est pas du rap boy Ma violence dépasse les bornes boy Les frontières irréelles c'est l'ange de l'Apocalypse Raricim O'Rosko évite le contact 77 000 degrés à l'ombre, où la violence atteind son paroxisme Évite le contact, mise à l'amende mise à la mort J'attaque à la gorge, j'représente Ghetto Fabulous Gang P'tit frère moi j'te dis évite de suivre nos pas Même si on a le même sang comme S.I.N.I.K Alpha et Rosko c'est comme Nas et Jay-Z Aucun MC sur terre nous arrive à la ch'ville Gaspille pas ta salive à raconter d'la merde Nous jalouser négro, boy ça sert à rien Ghetto Fab mafia on a les mains trop sales Mais le coeur trop propre, une équipe trop bad Ne pense pas qu'ta cité c'est l'début d'la misère On remplit les prisons, les hôpitaux et les cimetières Et le monde entier est un ghetto mon frère Des guerres civiles en Afrique aux camps de Guantánamo Ne pense pas qu'ta cité c'est l'début d'la misère On remplit les prisons, les hôpitaux et les cimetières Et le monde entier est un ghetto mon frère Des guerres civiles en Afrique aux camps de Guantánamo Shiiit les deux météores de la cité frère Alpha, Raricim a.k.a l'ange de l'apocalypse frère Dédicace a tous les gangsters, tous voleurs de banque, braqueur, tout les étudiants qui sont dans le ghetto, tout les business-man même tout ceux qui sont pas dans le ghetto du moment que c'est des bonhommes rayyy ... Ghetto Fabulous gang... Afrique de l'ouest re-noi, tiers-monde, caraïbes Ghetto ghetto tiers monde Ghetto ghetto tiers monde</t>
+          <t>Un jour un p'tit m'a demandé Comment j'me suis mit à rapper Très calmement j'lui ai répondu qu'j'ai du quitter la rue mon frère La mort me va si bien, la vie aussi tristement célèbre Mon blaze t'es stupide ou quoi testicules pleines Ptète pas mec de tess O'rosko Raricim mon gars j'suis comme chez oim j'mange des kébabs La vérité tu l'entends j't'explique j'suis un bonhomme n'recule devant rien devant quiconque Les MC tous ds pédés comme des S-A-lope quand ça tir ça lope-ga J'ai été en enfer maintenant je suis de retour Et j'chante la haine car je manque d'amour Et les mêmes renois qui parlaient mal sur oi-m Veulent me serrer la main sale pédé reste calme On était des frères jusquà qu'la mort nous sépare Pour la maille ils m'ont trahis puis mon laissé par terre Juste moi et ma mère récitant l'Coran Quand j'srais d'retour yarahr va fleurir Ne pense pas qu'ta cité c'est l'début d'la misère On remplit les prisons, les hôpitaux et les cimetières Et le monde entier est un ghetto mon frère Des guerres civiles en Afrique aux camps de Guantánamo. What-up Ne pense pas qu'ta cité c'est l'début d'la misère On remplit les prisons, les hôpitaux et les cimetières Et le monde entier est un ghetto mon frère Des guerres civiles en Afrique aux camps de Guantánamo Y a pas d'amour négro, dans le coeur d'la ville Juste après les mosquées c'est nos maisons qui brulent J'vends plus d'la poudre moi j'vends d'l'éspoir Pour nos têtes cramées boy au fond du couloir Enfant d'la cité Ghetto Fabulous Gang nous on vient d'Afrique pas les fils d'la France Et je rentre en trance juste après la prière miséricorde du seigneur me guide vers la lumière Yeah parrain Ghetto Fabulous Gang, Raricim Alpha toute la meute a la rage du sang Déjà sur écoute sur les ondes les RG en plus sur ma puce négros j'suis comme le 113 Prince de la ville en plus personne peut m'test Gueule pas tu s'ra mignonne sale p'tite garce Arrête de bédave t'aura un peu la tête sur les épaules Le réveil t'casse, tant qu'beuh et Cess qui t'parlent Ne pense pas qu'ta cité c'est l'début d'la misère On remplit les prisons, les hôpitaux et les cimetières Et le monde entier est un ghetto mon frère Des guerres civiles en Afrique aux camps de Guantánamo Ne pense pas qu'ta cité c'est l'début d'la misère On remplit les prisons, les hôpitaux et les cimetières Et le monde entier est un ghetto mon frère Des guerres civiles en Afrique aux camps de Guantánamo Yeah, ça sonne trop cité c'est pas du rap boy Ma violence dépasse les bornes boy Les frontières irréelles c'est l'ange de l'Apocalypse Raricim O'Rosko évite le contact 77 000 degrés à l'ombre, où la violence atteind son paroxisme Évite le contact, mise à l'amende mise à la mort J'attaque à la gorge, j'représente Ghetto Fabulous Gang P'tit frère moi j'te dis évite de suivre nos pas Même si on a le même sang comme S.I.N.I.K Alpha et Rosko c'est comme Nas et Jay-Z Aucun MC sur terre nous arrive à la ch'ville Gaspille pas ta salive à raconter d'la merde Nous jalouser négro, boy ça sert à rien Ghetto Fab mafia on a les mains trop sales Mais le coeur trop propre, une équipe trop bad Ne pense pas qu'ta cité c'est l'début d'la misère On remplit les prisons, les hôpitaux et les cimetières Et le monde entier est un ghetto mon frère Des guerres civiles en Afrique aux camps de Guantánamo Ne pense pas qu'ta cité c'est l'début d'la misère On remplit les prisons, les hôpitaux et les cimetières Et le monde entier est un ghetto mon frère Des guerres civiles en Afrique aux camps de Guantánamo Shiiit les deux météores de la cité frère Alpha, Raricim a.k.a l'ange de l'apocalypse frère Dédicace a tous les gangsters, tous voleurs de banque, braqueur, tout les étudiants qui sont dans le ghetto, tout les business-man même tout ceux qui sont pas dans le ghetto du moment que c'est des bonhommes rayyy ... Ghetto Fabulous gang... Afrique de l'ouest re-noi, tiers-monde, caraïbes Ghetto ghetto tiers monde Ghetto ghetto tiers monde</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1989,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Mais règne le 6.6.6 Palais de justice-tice-tice Négros crisent-crisent-crisent Dans mon district-strict-strict Mais règne le 6.6.6 Palais de justice-tice-tice Négros crisent-crisent-crisent Dans mon district-strict-strict ... j'suis au téléphone ... fils de pute si elle est bonne C'est la loi du plus fort y'a pas de démocratie J'ai déserté le cirque je fais pas d'acrobatie Le prêtre prie que se produise un miracle Attend la résurrection mais c'st juste un mirage ...You might also like</t>
+          <t>Mais règne le 6.6.6 Palais de justice-tice-tice Négros crisent-crisent-crisent Dans mon district-strict-strict Mais règne le 6.6.6 Palais de justice-tice-tice Négros crisent-crisent-crisent Dans mon district-strict-strict ... j'suis au téléphone ... fils de pute si elle est bonne C'est la loi du plus fort y'a pas de démocratie J'ai déserté le cirque je fais pas d'acrobatie Le prêtre prie que se produise un miracle Attend la résurrection mais c'st juste un mirage ...</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2006,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Jen ai rien à foutre frère que t'aies d'la maille Rien à foutre d'ta tè-c' ou qutes potes soient des 'cailles C'est Alpha 5.20 alias arme fatale Et ça bipe dès que je passe au détecteur d'métal Moi je suis un gangster, dans le club je danse pas Il y aura pas dembrouille si tes potes ne parlent pas Moi jai tendu la main mais les nègres veulent mon bras Maintenant ils veulent me sucer mais je bande même pas Ghetto Faboulous Gang, Independance Day Dès que la ligne est noire boy appuie sur play Reste en bas du bloc, écoute les Gangsta Music hey Ride renoi, tu sais que le crime paie Mon loyer, 9.3 le foyer, joue pas les voyeurs, on tarrache les boyaux Bâtard regarde-toi, regarde-moi en face Black mixtape, 5.20 c'est le blaze Là où les gangsters ne dansent dans les clubs frérot On arrive pe-sa et puis les 'tasses on pé-cho C'est qui ça ? C'est qui ça ? C'est qui ça ? C'est qui ça Nous ! C'est les rabzas, les renois, les chinois, les touco, touco C'est l'Holocost qui cherche à t'mettre à té-cô Mec c'est cru, pas de vacances à Pattaya C'est la galère à la té-c', wesh re-frè faut pas tailler Faut pas tailler, ne rappe pas l'ghetto parce que c'est tendance négro Ne rappe pas l'ghetto pour la maille négro nan Ils ont peur parce que notre son les fait quer-cra Parce que ils veulent pas quon vienne quer-cro mais sur ma vie on les kickera Holocost clic, créé lémeute clic, clic, Holocost Ghetto Fab' paraît que le rap craque, craque Peu dimportance tu nous portais A présent comme plus dun dans le buzz tu veux exporter LHolocost ça y est maintenant t'as vu qu'on pèse La base, le biz, le buzz Les soi-disant boss, ignorant quça fait des piges qu'on blesse Comme un délinquant qui brasse, mate jamais notre froc se baisse You might also like Jvis bien maintenant, les frères ont de la haine D'autres jouent les chauds mais m'font dla peine Tapent leur ce-vi mais qu'à cela n'tienne Baisent leur vie juste comme une chienne Moi je kiffe les embrouilles où je crosse les bâtards Leurs euros en C.F.A, je les ramène à Dakar Puis y'a qu'les putes qui parlent mal sur moi Mais les vrais gangsters respectent Alpha cest quoi ton putain d'problème ? Alpha et Rosko un putain d'tandem Défouraille 7.7, défouraille 9.3 Défouraille Ile-de-France, défouraille Dakar Fuck ton rap de merde, t'es bon pour la casse Je t'expose comme une pute sur mon tableau de chasse Comme OlKainry sur les chemins de la dignité Et je porte une Breitling, boy viens me braquer</t>
+          <t>Jen ai rien à foutre frère que t'aies d'la maille Rien à foutre d'ta tè-c' ou qutes potes soient des 'cailles C'est Alpha 5.20 alias arme fatale Et ça bipe dès que je passe au détecteur d'métal Moi je suis un gangster, dans le club je danse pas Il y aura pas dembrouille si tes potes ne parlent pas Moi jai tendu la main mais les nègres veulent mon bras Maintenant ils veulent me sucer mais je bande même pas Ghetto Faboulous Gang, Independance Day Dès que la ligne est noire boy appuie sur play Reste en bas du bloc, écoute les Gangsta Music hey Ride renoi, tu sais que le crime paie Mon loyer, 9.3 le foyer, joue pas les voyeurs, on tarrache les boyaux Bâtard regarde-toi, regarde-moi en face Black mixtape, 5.20 c'est le blaze Là où les gangsters ne dansent dans les clubs frérot On arrive pe-sa et puis les 'tasses on pé-cho C'est qui ça ? C'est qui ça ? C'est qui ça ? C'est qui ça Nous ! C'est les rabzas, les renois, les chinois, les touco, touco C'est l'Holocost qui cherche à t'mettre à té-cô Mec c'est cru, pas de vacances à Pattaya C'est la galère à la té-c', wesh re-frè faut pas tailler Faut pas tailler, ne rappe pas l'ghetto parce que c'est tendance négro Ne rappe pas l'ghetto pour la maille négro nan Ils ont peur parce que notre son les fait quer-cra Parce que ils veulent pas quon vienne quer-cro mais sur ma vie on les kickera Holocost clic, créé lémeute clic, clic, Holocost Ghetto Fab' paraît que le rap craque, craque Peu dimportance tu nous portais A présent comme plus dun dans le buzz tu veux exporter LHolocost ça y est maintenant t'as vu qu'on pèse La base, le biz, le buzz Les soi-disant boss, ignorant quça fait des piges qu'on blesse Comme un délinquant qui brasse, mate jamais notre froc se baisse Jvis bien maintenant, les frères ont de la haine D'autres jouent les chauds mais m'font dla peine Tapent leur ce-vi mais qu'à cela n'tienne Baisent leur vie juste comme une chienne Moi je kiffe les embrouilles où je crosse les bâtards Leurs euros en C.F.A, je les ramène à Dakar Puis y'a qu'les putes qui parlent mal sur moi Mais les vrais gangsters respectent Alpha cest quoi ton putain d'problème ? Alpha et Rosko un putain d'tandem Défouraille 7.7, défouraille 9.3 Défouraille Ile-de-France, défouraille Dakar Fuck ton rap de merde, t'es bon pour la casse Je t'expose comme une pute sur mon tableau de chasse Comme OlKainry sur les chemins de la dignité Et je porte une Breitling, boy viens me braquer</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2023,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Le jour du jugement dernier, que vas-tu dire au Seigneur? Remonte à la surface, vite, l'enfer c'est la terreur T'entends les pas repartir de ce qui venait t'enterrer Seul, entre quatre planches, tu t'es mis à pleurer Devant le bourreau la victime se présenta Pourquoi t'as pris ma vie? Seul Dieu en a le droit Lugubre est la voie qui mène droit dans les flammes De l'enfer éternel, lien de sang ou fraternel C'est Satan, c'est le Mal, c'est le vice qui t'implique C'est la rue, c'est la taule, t'es un Blood, t'es un Crip Je m'en bats les couilles de ce que vous dites, dans mon équipe, que des nigguz Dakar Blood, jamais de Crips, phrase de mal que je débite Comme Snoop dans un clip, t'as des pétasses, sacs de fric Les criminels ne durent pas, Saddam à fini avec un slip Dans une grotte, affamé, capturé comme un paria Vendu par ses proches pour une poignée de dollars Ta race, ta religion, ton vécu ne m'impressionnent pas Khoroto c'est comme ça, tant que le monde tourne Je pardonne pas une virgule de ta poésie C'est comme ils disent, la rue est l'assiette de la vie Je prends en amuse-gueules les dealers et les MC Arrêtez de confondre rap et religion Les actes ne valent que par leurs intentions L'enfer c'est les autres, seuls les vrais sont mes frères Qui m'aime me suivra, moi je ne prêche que pour ma Terre Ma chapelle c'est l'Afrique, c'est Dakar, c'est Memphis Jusqu'au jour où la Terre se comblera de Justice You might also like Killuminati, en guerre contre les infidèles La peine de mort pour les apostats et criminels La fin des temps commence par la guerre en Israël Ce monde est éphémère, je veux la vie éternelle Killuminati, en guerre contre les infidèles La peine de mort pour les apostats et criminels La fin des temps commence par la guerre en Israël Ce monde est éphémère, je veux la vie éternelle Yeah! Killuminati Alpha Guerres d'Apostasie J'ai traversé la mort comme Moïse la Mer Rouge Comme du bétail, marqué mon peuple au fer rouge Rencontré des peuplades, Sodome et Gomorrhe Ils m'ont dit Ça te fait quoi d'avoir comme religion la même que Ben Laden? Je leur ai dit Ça vous fait quoi d'avoir la même religion qu'Hitler ou Jean-Marie Lepen? Puisse Dieu me pardonner, il m'appartient de juger aucun être humain sur cette Terre Légitime défense, c'est tout Que Dieu bénisse l'Afrique et tout personne, croyante ou pas, qui uvre pour la paix Saoldat d'Afrique, soldat d'Islam Yeah! À mort le communisme! À mort le capitalisme! À mort le Darwinisme! À mort le matérialisme! Et bien sûr à mort le sionisme! Soldats de Gog et Magog Ils assassinent tous les habitants de la Terre, ils prennent leurs arcs, ils tirent vers les Cieux Genre ils vont tuer aussi les habitants des Cieux Dieu leur retournera leurs arcs remplis de sang Il les décime en un clin d'il Que Dieu maudisse le nouvel ordre mondial Que Dieu maudisse les présidents africains, larbins de l'État français et de la franc-maçonnerie Que Dieu vous maudisse vous tous! Que Dieu bénisse l'Afrique, que Dieu bénisse l'Afrique, que Dieu bénisse l'Afrique Et tous les opprimés du monde entier Amen!</t>
+          <t>Le jour du jugement dernier, que vas-tu dire au Seigneur? Remonte à la surface, vite, l'enfer c'est la terreur T'entends les pas repartir de ce qui venait t'enterrer Seul, entre quatre planches, tu t'es mis à pleurer Devant le bourreau la victime se présenta Pourquoi t'as pris ma vie? Seul Dieu en a le droit Lugubre est la voie qui mène droit dans les flammes De l'enfer éternel, lien de sang ou fraternel C'est Satan, c'est le Mal, c'est le vice qui t'implique C'est la rue, c'est la taule, t'es un Blood, t'es un Crip Je m'en bats les couilles de ce que vous dites, dans mon équipe, que des nigguz Dakar Blood, jamais de Crips, phrase de mal que je débite Comme Snoop dans un clip, t'as des pétasses, sacs de fric Les criminels ne durent pas, Saddam à fini avec un slip Dans une grotte, affamé, capturé comme un paria Vendu par ses proches pour une poignée de dollars Ta race, ta religion, ton vécu ne m'impressionnent pas Khoroto c'est comme ça, tant que le monde tourne Je pardonne pas une virgule de ta poésie C'est comme ils disent, la rue est l'assiette de la vie Je prends en amuse-gueules les dealers et les MC Arrêtez de confondre rap et religion Les actes ne valent que par leurs intentions L'enfer c'est les autres, seuls les vrais sont mes frères Qui m'aime me suivra, moi je ne prêche que pour ma Terre Ma chapelle c'est l'Afrique, c'est Dakar, c'est Memphis Jusqu'au jour où la Terre se comblera de Justice Killuminati, en guerre contre les infidèles La peine de mort pour les apostats et criminels La fin des temps commence par la guerre en Israël Ce monde est éphémère, je veux la vie éternelle Killuminati, en guerre contre les infidèles La peine de mort pour les apostats et criminels La fin des temps commence par la guerre en Israël Ce monde est éphémère, je veux la vie éternelle Yeah! Killuminati Alpha Guerres d'Apostasie J'ai traversé la mort comme Moïse la Mer Rouge Comme du bétail, marqué mon peuple au fer rouge Rencontré des peuplades, Sodome et Gomorrhe Ils m'ont dit Ça te fait quoi d'avoir comme religion la même que Ben Laden? Je leur ai dit Ça vous fait quoi d'avoir la même religion qu'Hitler ou Jean-Marie Lepen? Puisse Dieu me pardonner, il m'appartient de juger aucun être humain sur cette Terre Légitime défense, c'est tout Que Dieu bénisse l'Afrique et tout personne, croyante ou pas, qui uvre pour la paix Saoldat d'Afrique, soldat d'Islam Yeah! À mort le communisme! À mort le capitalisme! À mort le Darwinisme! À mort le matérialisme! Et bien sûr à mort le sionisme! Soldats de Gog et Magog Ils assassinent tous les habitants de la Terre, ils prennent leurs arcs, ils tirent vers les Cieux Genre ils vont tuer aussi les habitants des Cieux Dieu leur retournera leurs arcs remplis de sang Il les décime en un clin d'il Que Dieu maudisse le nouvel ordre mondial Que Dieu maudisse les présidents africains, larbins de l'État français et de la franc-maçonnerie Que Dieu vous maudisse vous tous! Que Dieu bénisse l'Afrique, que Dieu bénisse l'Afrique, que Dieu bénisse l'Afrique Et tous les opprimés du monde entier Amen!</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2040,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>La nuit tombe comme un rideau après un KO Monde parallèle sans issue comme une putain de caravelle La ville est sous le choc les bourgs les toxs les sirènes ... On est la race la plus haïe mais la plus résistante On a déjà trop gobé leur histoire de l'Iran Ghetto Fabulous Gang couleur rouge affiliée On pulvérise leurs monuments, nos bouches sont des mortiers African West Coast nocturne et sanguinaire On est pas dans la savane, violenc héréditaire Les porcs font des diagonals puis me trouvent au centre Respire la poudre négro avant d'aller se détendre S'attaquer aux plus faibles frère j'ai mieux à faire J'ai plein de tasses et des clients boy à satisfaire Communication primaire guette les signaux de feu Dis aux frères de Champigny que je serai au Bois sous peu La rue on rôde fume tue ... Chez nous c'est Gangsta Life Ghetto Fab Ghetto Fab La résistance ou le bruit des balles, les boss de Paname Putain de Gangsta Life Ghetto Fab Ghetto Fab ... Écoute la tragédie des hyènes You might also like On traîne en bande dans la pénombre On ère dans les rues une paire de Nike Air aux pieds regard de travers ... Encore un son pour la France qui se lève tard qui baise les stars Qui sont toujours devant quand y'a la ... ... Chez nous c'est Gangsta Life Ghetto Fab Ghetto Fab ...</t>
+          <t>La nuit tombe comme un rideau après un KO Monde parallèle sans issue comme une putain de caravelle La ville est sous le choc les bourgs les toxs les sirènes ... On est la race la plus haïe mais la plus résistante On a déjà trop gobé leur histoire de l'Iran Ghetto Fabulous Gang couleur rouge affiliée On pulvérise leurs monuments, nos bouches sont des mortiers African West Coast nocturne et sanguinaire On est pas dans la savane, violenc héréditaire Les porcs font des diagonals puis me trouvent au centre Respire la poudre négro avant d'aller se détendre S'attaquer aux plus faibles frère j'ai mieux à faire J'ai plein de tasses et des clients boy à satisfaire Communication primaire guette les signaux de feu Dis aux frères de Champigny que je serai au Bois sous peu La rue on rôde fume tue ... Chez nous c'est Gangsta Life Ghetto Fab Ghetto Fab La résistance ou le bruit des balles, les boss de Paname Putain de Gangsta Life Ghetto Fab Ghetto Fab ... Écoute la tragédie des hyènes On traîne en bande dans la pénombre On ère dans les rues une paire de Nike Air aux pieds regard de travers ... Encore un son pour la France qui se lève tard qui baise les stars Qui sont toujours devant quand y'a la ... ... Chez nous c'est Gangsta Life Ghetto Fab Ghetto Fab ...</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2057,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Les rappeurs sont des chattes, Les rappeurs sont des chattes Devant Laurent Bouneau les jambes ils écartent Je n'ai pas besoin de sky, je n'ai pas besoin de majors Ghetto Fabolous Gang poto indépendant jusqu'à la mort Les rappeurs sont des chattes, les rappeurs sont des chiennes Ils critiquent puis après ils vont sucer les mêmes Les rappeurs parlent de té-c' pour moi c'est des chapelles Les rappeurs vont en taules pour moi c'est des hôtels Soupé avec le diable j'ai pris une grosse cuillère Pavé de bonnes intentions est le chemin de l'enfer Les rappeurs n'ont pas de maille, leurs voitures sont des loques Les rappeurs n'ont pas de flingues ils en prennent à leurs potes Les rappeurs sont dragons les rappeurs sont requins Mais y'en a pas un qui va se battre pour le Bénin Et je suis comme Yves Levand, Ouais! Un vrai black panther Salam à tous les anciens les autres n'ont qu'à se taire Les rappeurs sont maintenant des enfants de harkis Qui jurent sur le coran avec des bouteilles de whisky Les rappeurs sont des chattes, Les rappeurs sont des chattes Devant Laurent Bouneau les jambes ils écartent Je n'ai pas besoin de sky, je n'ai pas besoin de majors Ghetto Fabolous Gang poto indépendant jusqu'à la mort Les rappeurs sont des chattes, Les rappeurs sont des chattes Devant Laurent Bouneau les jambes ils écartent Je n'ai pas besoin de sky, je n'ai pas besoin de majors Ghetto Fabolous Gang poto indépendant jusqu'à la mort You might also like Les rappeurs ont une vie de clash et de fausses bastons En prison vous laverez mes chaussettes et mes caleçons Mon récit manifeste ce que je vis et j'ai entendu Ma musique est sincère mon âme je l'ai pas vendue Venez me faire la peau je veux mourir comme Pac Dans la BM de Suge quand les vitres éclatent Quand les rues s'embrasent ça tire à Las Vegas C'est une légende qui meurt l'industrie est un rapace Yeah chacal la rue m'a rendue ivre Comme C-Murder en boîte je tire et puis je m'éclipse Les rappeurs viennent te sucer pour un featuring Leur trahison n'est pas loin j'aperçois des signes Mensonges dans leurs yeux hypocrisie dans leurs gestes Maintenant qu'ils sont en chien tous te parle du bled De la scène d'autopsie moi je rappe comme C-Bo West side crippin' comme les frères de Sacramento Les rappeurs sont des chattes, Les rappeurs sont des chattes Devant Laurent Bouneau les jambes ils écartent Je n'ai pas besoin de sky, je n'ai pas besoin de majors Ghetto Fabolous Gang poto indépendant jusqu'à la mort Les rappeurs sont des chattes, Les rappeurs sont des chattes Devant Laurent Bouneau les jambes ils écartent Je n'ai pas besoin de sky, je n'ai pas besoin de majors Ghetto Fabolous Gang poto indépendant jusqu'à la mort Avant tout d'abord, un gros Big-Up à mon négro, Master P. Je te préfère à 2Pac négro, c'est toi le boss de l'indépendance, roi de la Nouvelle-Orléans, c'est pas Lil Wayne Quoi de neuf C-Murder? Yeah chacal! Big-Up au negro Eazy-E, et les Bone Thugs, vous m'avez grave influencé khey J'oublie pas mon négro Spice 1, mon negro MCH. Yeah! Above the law Et je vais, Californie du nord, Sacramento, quoi de neuf C-Bo, G-Mack, Killa Tay, Brotha Lynch? Et j'en passe cousin Californie du sud, San Diego, quoi de neuf Mitchy Slick? Blood nigga! Et je vais dans dans Memphis, Tennessee, dire bonjour à mes négros Three Six, C-Black, G-Boo han! Crunchy what up? Quoi de neuf à mon négro Tony ride Skinny Pimp Scarface Al Capone? Sans pour oublier pour moi le meilleur rappeur du monde Scarface et les Geto Boys, Bushwick Bill, Willie D, quoi de neuf 2Pac? T'es mon frère aussi Retour en France, Lino, Oxmo, légendaire Mafia K1-Fry, Iron et les frères Sy motherfucker! Democrates D! Les autres rappeurs, qui sont dans l'underground aussi Big-Up Seven, Zesau, 400 Hyènes, Youssef de rédemption, légendaire 93, Casey et Tandem Yvelines Crapule, Expression Direkt, Escobar Macson, Sefyu et tous les autres groupes qui font du sale! Respect Et si tes fâché et que j'ai pas mentionné ton nom, cousin je m'en bats les glawis tout simplement Alpha 25 pharmacie khey! Gangsta!2</t>
+          <t>Les rappeurs sont des chattes, Les rappeurs sont des chattes Devant Laurent Bouneau les jambes ils écartent Je n'ai pas besoin de sky, je n'ai pas besoin de majors Ghetto Fabolous Gang poto indépendant jusqu'à la mort Les rappeurs sont des chattes, les rappeurs sont des chiennes Ils critiquent puis après ils vont sucer les mêmes Les rappeurs parlent de té-c' pour moi c'est des chapelles Les rappeurs vont en taules pour moi c'est des hôtels Soupé avec le diable j'ai pris une grosse cuillère Pavé de bonnes intentions est le chemin de l'enfer Les rappeurs n'ont pas de maille, leurs voitures sont des loques Les rappeurs n'ont pas de flingues ils en prennent à leurs potes Les rappeurs sont dragons les rappeurs sont requins Mais y'en a pas un qui va se battre pour le Bénin Et je suis comme Yves Levand, Ouais! Un vrai black panther Salam à tous les anciens les autres n'ont qu'à se taire Les rappeurs sont maintenant des enfants de harkis Qui jurent sur le coran avec des bouteilles de whisky Les rappeurs sont des chattes, Les rappeurs sont des chattes Devant Laurent Bouneau les jambes ils écartent Je n'ai pas besoin de sky, je n'ai pas besoin de majors Ghetto Fabolous Gang poto indépendant jusqu'à la mort Les rappeurs sont des chattes, Les rappeurs sont des chattes Devant Laurent Bouneau les jambes ils écartent Je n'ai pas besoin de sky, je n'ai pas besoin de majors Ghetto Fabolous Gang poto indépendant jusqu'à la mort Les rappeurs ont une vie de clash et de fausses bastons En prison vous laverez mes chaussettes et mes caleçons Mon récit manifeste ce que je vis et j'ai entendu Ma musique est sincère mon âme je l'ai pas vendue Venez me faire la peau je veux mourir comme Pac Dans la BM de Suge quand les vitres éclatent Quand les rues s'embrasent ça tire à Las Vegas C'est une légende qui meurt l'industrie est un rapace Yeah chacal la rue m'a rendue ivre Comme C-Murder en boîte je tire et puis je m'éclipse Les rappeurs viennent te sucer pour un featuring Leur trahison n'est pas loin j'aperçois des signes Mensonges dans leurs yeux hypocrisie dans leurs gestes Maintenant qu'ils sont en chien tous te parle du bled De la scène d'autopsie moi je rappe comme C-Bo West side crippin' comme les frères de Sacramento Les rappeurs sont des chattes, Les rappeurs sont des chattes Devant Laurent Bouneau les jambes ils écartent Je n'ai pas besoin de sky, je n'ai pas besoin de majors Ghetto Fabolous Gang poto indépendant jusqu'à la mort Les rappeurs sont des chattes, Les rappeurs sont des chattes Devant Laurent Bouneau les jambes ils écartent Je n'ai pas besoin de sky, je n'ai pas besoin de majors Ghetto Fabolous Gang poto indépendant jusqu'à la mort Avant tout d'abord, un gros Big-Up à mon négro, Master P. Je te préfère à 2Pac négro, c'est toi le boss de l'indépendance, roi de la Nouvelle-Orléans, c'est pas Lil Wayne Quoi de neuf C-Murder? Yeah chacal! Big-Up au negro Eazy-E, et les Bone Thugs, vous m'avez grave influencé khey J'oublie pas mon négro Spice 1, mon negro MCH. Yeah! Above the law Et je vais, Californie du nord, Sacramento, quoi de neuf C-Bo, G-Mack, Killa Tay, Brotha Lynch? Et j'en passe cousin Californie du sud, San Diego, quoi de neuf Mitchy Slick? Blood nigga! Et je vais dans dans Memphis, Tennessee, dire bonjour à mes négros Three Six, C-Black, G-Boo han! Crunchy what up? Quoi de neuf à mon négro Tony ride Skinny Pimp Scarface Al Capone? Sans pour oublier pour moi le meilleur rappeur du monde Scarface et les Geto Boys, Bushwick Bill, Willie D, quoi de neuf 2Pac? T'es mon frère aussi Retour en France, Lino, Oxmo, légendaire Mafia K1-Fry, Iron et les frères Sy motherfucker! Democrates D! Les autres rappeurs, qui sont dans l'underground aussi Big-Up Seven, Zesau, 400 Hyènes, Youssef de rédemption, légendaire 93, Casey et Tandem Yvelines Crapule, Expression Direkt, Escobar Macson, Sefyu et tous les autres groupes qui font du sale! Respect Et si tes fâché et que j'ai pas mentionné ton nom, cousin je m'en bats les glawis tout simplement Alpha 25 pharmacie khey! Gangsta!2</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2074,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Teste pas, ne nous parle pas, on est drogué au combat Plein de traîtres et de Judas veulent nous tirer vers le bas Pour cela que je suis armé, munitions je suis bardé L'esprit de vengeance incarné, mes flingues je les ai gardés De Dakar jusqu'à Epinay, combien de flingues j'ai tiré Combien de tasses j'ai fourré ? Meurtrière est la virée Négro écoute la seule voix, après la guerre y'aura la paix Tendre la joue c'est pas la peine, tes flingues les nôtres sont pas les mêmes Reste tranquille, ouvre pas ta gueule derrière les portes d'une prison En Ile-de-France niquer Alpha, dar est la mission J'attends juste au tournant, négro j'suis trop gourmand La rue a versé mon sang, j'aimerais marquer mon temps Dans le dictionnaire des gangsters, y'aura mon image en grand Règne en rouge comme Suge Knight, fait la pluie et le beau temps Dakar n'a rien à envier aux ghettos de Sao Paulo Mes soldats viennent de Burkina, Haïti, Guinée Bissau Clignancourt Little Dakar, Clignancourt Little Dakar Clignancourt Little Dakar, man viens demander Alpha Clignancourt, Clignancourt, Clignancourt Little Dakar Man viens demander Alpha, boy viens demander Alpha Clignancourt Little Dakar, Clignancourt Little Dakar Clignancourt Little Dakar, man viens demander Alpha Clignancourt Little Dakar, man viens demander Alpha Man viens demander Alpha, man viens demander Alpha You might also like C'est pour mes thugs trafiquants qui attendent sous le pont Même devant les flics bicravent des faux sacs Louis Vuitton Bienvenue à Clignancourt, ce n'est pas la France ici Et je t'assure que Rocancourt ne fera pas long feu ici On a des armes, on a des armes de première catégorie Des écrans plasma qu'on a volé à moitié prix J'suis le roi des insoumis, j'ai pas de pierre sous mon trône Niquer l'Etat tous les jours, la seule valeur que nous on prône Ghetto Fabulous Gang, négros savent qu'on a souffert Casino ambulant, tous les jours on est ouvert Man appelle le commissaire, on lui paye un pot de vin Nos ennemis sous le périph, on les allonge à coups de surin On vise la lune, on vise la lune, regarde le monde de travers 93, Seine et Marne A.K.A hommes des cavernes Moi je crache la crème du crime, puis après l'industrie pleure Bienvenue à Clignancourt, paradis des receleurs Clignancourt Little Dakar, Clignancourt Little Dakar Clignancourt Little Dakar, man viens demander Alpha Clignancourt, Clignancourt, Clignancourt Little Dakar Man viens demander Alpha, boy viens demander Alpha Clignancourt Little Dakar, Clignancourt Little Dakar Clignancourt Little Dakar, man viens demander Alpha Clignancourt Little Dakar, man viens demander Alpha Man viens demander Alpha, man viens demander Alpha</t>
+          <t>Teste pas, ne nous parle pas, on est drogué au combat Plein de traîtres et de Judas veulent nous tirer vers le bas Pour cela que je suis armé, munitions je suis bardé L'esprit de vengeance incarné, mes flingues je les ai gardés De Dakar jusqu'à Epinay, combien de flingues j'ai tiré Combien de tasses j'ai fourré ? Meurtrière est la virée Négro écoute la seule voix, après la guerre y'aura la paix Tendre la joue c'est pas la peine, tes flingues les nôtres sont pas les mêmes Reste tranquille, ouvre pas ta gueule derrière les portes d'une prison En Ile-de-France niquer Alpha, dar est la mission J'attends juste au tournant, négro j'suis trop gourmand La rue a versé mon sang, j'aimerais marquer mon temps Dans le dictionnaire des gangsters, y'aura mon image en grand Règne en rouge comme Suge Knight, fait la pluie et le beau temps Dakar n'a rien à envier aux ghettos de Sao Paulo Mes soldats viennent de Burkina, Haïti, Guinée Bissau Clignancourt Little Dakar, Clignancourt Little Dakar Clignancourt Little Dakar, man viens demander Alpha Clignancourt, Clignancourt, Clignancourt Little Dakar Man viens demander Alpha, boy viens demander Alpha Clignancourt Little Dakar, Clignancourt Little Dakar Clignancourt Little Dakar, man viens demander Alpha Clignancourt Little Dakar, man viens demander Alpha Man viens demander Alpha, man viens demander Alpha C'est pour mes thugs trafiquants qui attendent sous le pont Même devant les flics bicravent des faux sacs Louis Vuitton Bienvenue à Clignancourt, ce n'est pas la France ici Et je t'assure que Rocancourt ne fera pas long feu ici On a des armes, on a des armes de première catégorie Des écrans plasma qu'on a volé à moitié prix J'suis le roi des insoumis, j'ai pas de pierre sous mon trône Niquer l'Etat tous les jours, la seule valeur que nous on prône Ghetto Fabulous Gang, négros savent qu'on a souffert Casino ambulant, tous les jours on est ouvert Man appelle le commissaire, on lui paye un pot de vin Nos ennemis sous le périph, on les allonge à coups de surin On vise la lune, on vise la lune, regarde le monde de travers 93, Seine et Marne A.K.A hommes des cavernes Moi je crache la crème du crime, puis après l'industrie pleure Bienvenue à Clignancourt, paradis des receleurs Clignancourt Little Dakar, Clignancourt Little Dakar Clignancourt Little Dakar, man viens demander Alpha Clignancourt, Clignancourt, Clignancourt Little Dakar Man viens demander Alpha, boy viens demander Alpha Clignancourt Little Dakar, Clignancourt Little Dakar Clignancourt Little Dakar, man viens demander Alpha Clignancourt Little Dakar, man viens demander Alpha Man viens demander Alpha, man viens demander Alpha</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2091,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Issu des quartiers meurtriers, là où le meurtre y est trop fréquent La vie de you-voi et ses conséquences J'raconte les trips du ghetto, ses ambiances louches Quand sonne le fusil à pompe, tout le monde se couche Pas un voyou qui fasse long feu t'es prévenu À peine tu viens d'ouvrir les yeux que t'es détenu La mort ou la prison t'as que deux issues L'histoire s'répète et tu crois être le plus vicieux Tu veux grimper par nimporte quel procédé Tes donc sujet à de judiciaires procédures La rue te guette, mec, les flics aussi Tas peut-être déjà vendu une barrette à un vil-ci Entre les traîtres et les balances tu te balances comme sur un fil Ta carrière peut prendre fin sur un coup de fil dune balance Un mec se tient mal et passe à table Ton numéro décrou remplace celui de ton portable Là, tu connais lenvers du décor La prison et son univers hardcore Faut qu't'assumes, même si son atmosphère t'asphyxie Le juge tallume et fait ber-tom ton sursis Affaibli malgré ton moral dacier Leurs barreaux, tu souhaiterais pouvoir les scier Maintenant que la parole devient l'encre Tu te rends compte qu'il y a peu de gens pour qui tu comptes Peu de courriers et encore moins de mandats Quest-ce que tu crois ? Pour survivre tes pas assisté Ta mère na que ses yeux pour pleurer Le cur serré tant que son fils est incarcéré Ébranlée par cette douloureuse conviction Quelle a échoué, manqué à ton éducation Et dès que tes sorti ça y est tes reparti Puis tes reparti dès qu t es sorti Les plus jeunes te prennent pour modèle Ils comptent sur toi pour que tu leur fasses prendre de loseille Ça tarranges vu qu t as les flics sur les reins Tu nhésites pas, les mômes tu les fous sur le terrain Tu veux pour eux cque tu ne voudrais pas pour ton fils Et ta morale ne lemporte pas sur ton vice Te remettre en question, pour toi pas question Tu te fous du monde des flics et de leurs questions Tu te méfies de tout même des sourires Tu sais quen prison beaucoup voudraient te voir pourrir Dautres te voir mourir après tavoir fait courir Pour parvenir à cela ils seraient même prêts à te nourrir You might also like Ma définition, jen veux toujours plus Jattends pas leur putain dpaye ou leur putain dbus Insoumis, jfais des sous bêtement Parce que jveux voir cpays en sous-vêtements Jvoulais savoir pourquoi lAfrique vit malement Du CP à la seconde ils mparlent dla Joconde et des Allemands Ici le diable racole, fuis son rodéo Tattache dans lhall avec d'la coke, pisse sur ton auréole Delabel, Sony ou Virgin Vous comprenez, mon style na pas besoin d'vigiles Des plaques et des plaques, si cporc dChirac était black J'suis obscur, dors dun il comme un missile scud Jsuis pas le bienvenu, mais jsuis là Reprends cquon ma enlevé, jsuis venu manger et chier là Plongé dans la tourmente quand les fonds manquent À force de mplaindre, jattends plus largent, jvais lprendre Dérivé trop jeune, jpeux plus redescendre Et jessaie d'pas dêtre en chien djanvier à décembre Ou jte fais jouir ou jte fais mal, cest très simple Ma définition avec des textes à prendre à 1 degré 5 Jviens des Hauts dSeine, obscène est mon style, mon comportement Jsuis instable au micro, et dans la rue jvis nimporte comment Jmen bats la race sauf des potes, la famille et lcash Y faut dla maille, plein dsky, faut qujgraille, non ? Écoute, goûte mon flow, fils, car jai pas bsoin dsponsor Le rap, mon crew et lvice, cest comme ça qujmen sors Connu pour tuer les M.I.C. dici à NYC Du sang, des risques et du son ma définition Puisque la vie n'est remplie que de tard-bâ Tel que ces profs qui avant d'avoir des preuves me montraient du doigt J'm'en vais combattre le mal par le mal Accompagné de... armé de... et me voi-al Je guette ma proie près du distributeur Patiemment, je suis, et j'attends mon heure Puis vient un moment où les choses se précipitent Mais qu'est-ce qui se passe ? Ferme ta gueule, passes-moi l'argent Tout va trop vite Les coups fusent, c'est le rite lorsque la victime résiste On ne se retourne jamais, c'est juste une autre sur la liste Mais cette fois-ci, malheureusement, les choses ont mal tourné Me voilà prisonnier, arrêté, gardé en GAV Les inspecteurs essayent en vain de me faire cracher le morceau Utilisent la menace pour que je craque, balance mes pains-co Mais pas question, les vrais nhommes-bo ne balancent pas Alors je ferme ma gueule, j'assume et j'reste froid Devant les insultes répétées des policiers Me rappelant, soudainement, qu'ici je n'suis qu'un étranger Et obligé, on passe, photos, empreintes, photos, empreintes Traité en K'1-Fry Mafioso, fait en moi monter la crainte L'algérien d'à côté voudrait seulement fumer Mais à force d'être insulté il voudrait même se suicider Ils rentrent à huit dans la cellule, le tabassent à mort Ce fils de pute m'a sali dit un keuf à qui je souhaite la mort À qui le tour, peut-être à moi ce jour J'ai senti la patate, mais crois-moi regarde moi j'suis pas Rodney King De plus j'n'ai commis qu'un petit délit 48 heures qu'on me garde ici sûr, putain, je pète un plomb En plus ils croient que j'vais donner des noms S'ils savaient qu'ils perdraient beaucoup moins d'temps en me suçant la bite C'est direct Maintenant tu sais qu'où j'habite le 9.4.310 Avec nous il n'y a pas de peace Connu pour tuer les M.I.C. dici à NYC Du sang, des risques et du son ma définition Jviens des Hauts dSeine, obscène est mon style, mon comportement Jsuis instable au micro, et dans la rue jvis nimporte comment Jmen bats la race sauf des potes, la famille et lcash Y faut dla maille, plein dsky, faut qujgraille, non ? Écoute, goûte mon flow, fils, car jai pas bsoin dsponsor Le rap, mon crew et lvice, cest comme ça qujmen sors Connu pour tuer les M.I.C. dici à NYC Du sang, des risques et du son ma définition Écoute, regarde, pour une poignée de dollars Les jeunes du ghetto sont prêts à aller au placard Deal, biz, braquage en temps de crise Espèce de connard, accuse le pouvoir, écoute..</t>
+          <t>Issu des quartiers meurtriers, là où le meurtre y est trop fréquent La vie de you-voi et ses conséquences J'raconte les trips du ghetto, ses ambiances louches Quand sonne le fusil à pompe, tout le monde se couche Pas un voyou qui fasse long feu t'es prévenu À peine tu viens d'ouvrir les yeux que t'es détenu La mort ou la prison t'as que deux issues L'histoire s'répète et tu crois être le plus vicieux Tu veux grimper par nimporte quel procédé Tes donc sujet à de judiciaires procédures La rue te guette, mec, les flics aussi Tas peut-être déjà vendu une barrette à un vil-ci Entre les traîtres et les balances tu te balances comme sur un fil Ta carrière peut prendre fin sur un coup de fil dune balance Un mec se tient mal et passe à table Ton numéro décrou remplace celui de ton portable Là, tu connais lenvers du décor La prison et son univers hardcore Faut qu't'assumes, même si son atmosphère t'asphyxie Le juge tallume et fait ber-tom ton sursis Affaibli malgré ton moral dacier Leurs barreaux, tu souhaiterais pouvoir les scier Maintenant que la parole devient l'encre Tu te rends compte qu'il y a peu de gens pour qui tu comptes Peu de courriers et encore moins de mandats Quest-ce que tu crois ? Pour survivre tes pas assisté Ta mère na que ses yeux pour pleurer Le cur serré tant que son fils est incarcéré Ébranlée par cette douloureuse conviction Quelle a échoué, manqué à ton éducation Et dès que tes sorti ça y est tes reparti Puis tes reparti dès qu t es sorti Les plus jeunes te prennent pour modèle Ils comptent sur toi pour que tu leur fasses prendre de loseille Ça tarranges vu qu t as les flics sur les reins Tu nhésites pas, les mômes tu les fous sur le terrain Tu veux pour eux cque tu ne voudrais pas pour ton fils Et ta morale ne lemporte pas sur ton vice Te remettre en question, pour toi pas question Tu te fous du monde des flics et de leurs questions Tu te méfies de tout même des sourires Tu sais quen prison beaucoup voudraient te voir pourrir Dautres te voir mourir après tavoir fait courir Pour parvenir à cela ils seraient même prêts à te nourrir Ma définition, jen veux toujours plus Jattends pas leur putain dpaye ou leur putain dbus Insoumis, jfais des sous bêtement Parce que jveux voir cpays en sous-vêtements Jvoulais savoir pourquoi lAfrique vit malement Du CP à la seconde ils mparlent dla Joconde et des Allemands Ici le diable racole, fuis son rodéo Tattache dans lhall avec d'la coke, pisse sur ton auréole Delabel, Sony ou Virgin Vous comprenez, mon style na pas besoin d'vigiles Des plaques et des plaques, si cporc dChirac était black J'suis obscur, dors dun il comme un missile scud Jsuis pas le bienvenu, mais jsuis là Reprends cquon ma enlevé, jsuis venu manger et chier là Plongé dans la tourmente quand les fonds manquent À force de mplaindre, jattends plus largent, jvais lprendre Dérivé trop jeune, jpeux plus redescendre Et jessaie d'pas dêtre en chien djanvier à décembre Ou jte fais jouir ou jte fais mal, cest très simple Ma définition avec des textes à prendre à 1 degré 5 Jviens des Hauts dSeine, obscène est mon style, mon comportement Jsuis instable au micro, et dans la rue jvis nimporte comment Jmen bats la race sauf des potes, la famille et lcash Y faut dla maille, plein dsky, faut qujgraille, non ? Écoute, goûte mon flow, fils, car jai pas bsoin dsponsor Le rap, mon crew et lvice, cest comme ça qujmen sors Connu pour tuer les M.I.C. dici à NYC Du sang, des risques et du son ma définition Puisque la vie n'est remplie que de tard-bâ Tel que ces profs qui avant d'avoir des preuves me montraient du doigt J'm'en vais combattre le mal par le mal Accompagné de... armé de... et me voi-al Je guette ma proie près du distributeur Patiemment, je suis, et j'attends mon heure Puis vient un moment où les choses se précipitent Mais qu'est-ce qui se passe ? Ferme ta gueule, passes-moi l'argent Tout va trop vite Les coups fusent, c'est le rite lorsque la victime résiste On ne se retourne jamais, c'est juste une autre sur la liste Mais cette fois-ci, malheureusement, les choses ont mal tourné Me voilà prisonnier, arrêté, gardé en GAV Les inspecteurs essayent en vain de me faire cracher le morceau Utilisent la menace pour que je craque, balance mes pains-co Mais pas question, les vrais nhommes-bo ne balancent pas Alors je ferme ma gueule, j'assume et j'reste froid Devant les insultes répétées des policiers Me rappelant, soudainement, qu'ici je n'suis qu'un étranger Et obligé, on passe, photos, empreintes, photos, empreintes Traité en K'1-Fry Mafioso, fait en moi monter la crainte L'algérien d'à côté voudrait seulement fumer Mais à force d'être insulté il voudrait même se suicider Ils rentrent à huit dans la cellule, le tabassent à mort Ce fils de pute m'a sali dit un keuf à qui je souhaite la mort À qui le tour, peut-être à moi ce jour J'ai senti la patate, mais crois-moi regarde moi j'suis pas Rodney King De plus j'n'ai commis qu'un petit délit 48 heures qu'on me garde ici sûr, putain, je pète un plomb En plus ils croient que j'vais donner des noms S'ils savaient qu'ils perdraient beaucoup moins d'temps en me suçant la bite C'est direct Maintenant tu sais qu'où j'habite le 9.4.310 Avec nous il n'y a pas de peace Connu pour tuer les M.I.C. dici à NYC Du sang, des risques et du son ma définition Jviens des Hauts dSeine, obscène est mon style, mon comportement Jsuis instable au micro, et dans la rue jvis nimporte comment Jmen bats la race sauf des potes, la famille et lcash Y faut dla maille, plein dsky, faut qujgraille, non ? Écoute, goûte mon flow, fils, car jai pas bsoin dsponsor Le rap, mon crew et lvice, cest comme ça qujmen sors Connu pour tuer les M.I.C. dici à NYC Du sang, des risques et du son ma définition Écoute, regarde, pour une poignée de dollars Les jeunes du ghetto sont prêts à aller au placard Deal, biz, braquage en temps de crise Espèce de connard, accuse le pouvoir, écoute..</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2108,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Mon combat c'est pas de killer, par le crime apprêté Racaille depuis la naissance, ma maille je l'ai rejetée Dans les pesas, les CD puis après les bâtiments T'as vu mon DVD, tu peux pas dire maintenant Alpha tu mens Okay négros connaissent ma vie mais rien à ma peine La bicrave est dans ma tête, la négritude dans mes gênes ... comment mon coeur est devenu froid Tel un bloc de glace plongé dans le désarroi J'suis au dessus de toi, j'suis au dessus des lois J'suis au dessus des ..., j'suis au dessus des rois Le droit chemin à dos le flingue sous mon coussin J'arrive pas à dormir je dois garder mon butin Putain tous les négros veulent ma vie ou ma bourse Ils veulent même savoir où ma femme fait ses courses Les flics écoutent mon phone espèrent avoir des infos sur Shone Assoc' de malfrats Ghetto Fab nous on prône La mort des fils de pute qui déshonorent l'Afrique À qui la guerre profite alimente les trafics Dans les rues d'Abidjan j'suis comme ... Avec une hache dans la main ... Mais pourquoi les négros se complaisent dans la misère ? ... You might also like Et c'est réel négro ma vie n'est pas un film ...</t>
+          <t>Mon combat c'est pas de killer, par le crime apprêté Racaille depuis la naissance, ma maille je l'ai rejetée Dans les pesas, les CD puis après les bâtiments T'as vu mon DVD, tu peux pas dire maintenant Alpha tu mens Okay négros connaissent ma vie mais rien à ma peine La bicrave est dans ma tête, la négritude dans mes gênes ... comment mon coeur est devenu froid Tel un bloc de glace plongé dans le désarroi J'suis au dessus de toi, j'suis au dessus des lois J'suis au dessus des ..., j'suis au dessus des rois Le droit chemin à dos le flingue sous mon coussin J'arrive pas à dormir je dois garder mon butin Putain tous les négros veulent ma vie ou ma bourse Ils veulent même savoir où ma femme fait ses courses Les flics écoutent mon phone espèrent avoir des infos sur Shone Assoc' de malfrats Ghetto Fab nous on prône La mort des fils de pute qui déshonorent l'Afrique À qui la guerre profite alimente les trafics Dans les rues d'Abidjan j'suis comme ... Avec une hache dans la main ... Mais pourquoi les négros se complaisent dans la misère ? ... Et c'est réel négro ma vie n'est pas un film ...</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2125,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Ok, mec de tess remix, niggas Alkpote, nigga, rull up Salif, rull up Ritmo de la noche, rull up Escobar Matson, 9-3, rull up Alpha 5.20, masqué, rull up Ghetto Fab' Gang Partout, les mecs de tess yeah C'est pour les mecs qu'ont grandi à 10 dans un HLM 2 pièces C'est pour les mecs de tess qui purgent des peines de hebs Si tu viens d'te branler, prends pas la peine de m'check Les mecs baisent le tier-qu's avec des bêtes de seize yeah Faut qu'j'sorte ma mère d'la se-cri Tu pourras m'croiser avec une paire de Nike Air tah pe-cli Les mecs fument et comme le concorde décolle Les p'tits cons sortent d'l'école et jouent les Don Corleone Mec de tess, mais qu'est-ce tu veux qu'j't'dise, moi ? On fait du bus', on les baise, demande à Isma' Trop d'flics au tier-quar', trop d'kilos d'ses-lar C'sont plus les voisins mais les potos qui bigo les shtars Si si, c'est Évry au mic, pull et bioman On écrit nos rap entre des kilogrammes et des prises d'otages salope Mec de tess régional, mafieux comme Ray Liotta Respecte ceux qui font la ière-pri au taf si si On excite vos 'tasses, demande à Poison Violent comme 91 bites en érection, j'braque la réception Y a pas d'déception ou d'vie imaginaire Pour les mecs de tess sombres qui dealent la zipette Sale p'tite merde, j'peux te satisfaire Dans les sanitaires, j'ai la flèche du Sagittaire voilà La jarre du Verseau, la moustache à Hitler S'agit d'faire les choses bien, faut rester sage, p'tit frère You might also like Partout près d'chez toi, y a toujours des mecs de tess Dans les grecs et les sex shop, y a toujours des mecs de tess Tu vas sucer et re-sucer car y a toujours des mecs de tess En G.A.V, mecs de tess, en son-pri, mecs de tess Ils vivent de l'économie souterraine, des mecs de tess Le crime organisé nous parraine, des mecs de tess À qui on disait je t'aime avec une ceinture, des mecs de tess Élevé à la dure, mecs de tess, une valeur sûre, mecs de tess E.S.C.O.B.A.R Macson, du lourd comme un toc Docteur Koen, arrache mes boules, greffe-moi des boules de pétanques Kori dans la zup, Tony Bamboula, j'reste audible Le Sheitan me hais parce que j'suis crédible Compte jusqu'à 7 comme mes pêchés, 7 comme mes lettres 7 comme cette bastos que j'te foutrais dans l'crâne au ghetto 100 moins 7 Macson, agit quand les pédés parlent tous Ils perdent leur temps, comme arroser des feuilles mortes pour qu'elles poussent Mec de tess de Villetaneuve à Créteil, les chars passant par Kinshasa T'obtiens que dalle si tu croises les chiens et les chats Mon slogan Rap, escroquerie, botanique, le canon au bout du gland Ma musique, c'est la cagoule avec les gants À c't heure-ci, tout l'monde s'est mis à la bicrave Dans mon ghetto, le sida tourne et les p'tits putes kiffent la bite crade Pas b'soin d'Hannibal comme Tom Dans ma tête, c'est drive by comme à Compton, j'viens d'sortir d'ma tombe J'ai mis mon boule sur la photo d'mon C.V Sorti le brolique, la cagoule pour taffer à E.D Itinéraire de mauvais garçon, le 44 dans l'blouson J'ai la colère comme le réveil d'un maçon J'joue l'Tony Montana, Poison a.k.a Santana J't'étranglerais avec ma ceinture Gabbana Mec de tess, que les biatch lèchent nos sexes C'est un putain d'drive by, niggas, en Mercedes-Benz Partout près d'chez toi, y a toujours des mecs de tess Dans les grecs et les sex shop, y a toujours des mecs de tess Tu vas sucer et re-sucer car y a toujours des mecs de tess En G.A.V, mecs de tess, en son-pri, mecs de tess Ils vivent de l'économie souterraine, des mecs de tess Le crime organisé nous parraine, des mecs de tess À qui on disait je t'aime avec une ceinture, des mecs de tess Élevé à la dure, mecs de tess, une valeur sûre, mecs de tess Prends mon rap de volley comme un quaterback Uzi circulaire à l'Ombak, pas d'combat, fais-moi d'la place dans les bacs Boum ! J'apparais dans l'rap game, gamin Tu s'ras absorbé dans nos rayons gamma Les mecs de tess ont plus l'shtar comme Ol'Dirty Bastard Connard, achète mes cahiers, y a les enfants dans l'square Garde ton self-contrôle, un mec de tess nous contrôle À la maison, j'ai déjà ler-vo pour nous faire esquiver la taule Le temps presse, prépare les compresses C'est l'Âge de pierre, retour au silex, la pièce maîtresse Le mec de tess dans la débrouillardise reste adroit Le mec de tess ne veut pas d'venir la soirée d'Soulpra Fuck tous tes gens, amène le liquide Dakar commet des meurtres puis maquille ça en suicide C'est pour les mecs de tess et les mecs du bled Sans pitié avec les porcs, toujours manger du quer-n' Les frères s'en battent, qui refusent de se soumettre Les syndicats de plus enculent l'État et les traîtres Internal réflexion comme mon cous' Kouali Sors la hache après le droit qu'on m'allie J'suis au fond du gouffre, me tends pas la main J'sors de l'autoroute, sanguinaire sera le bain M'éloigne des humains pour gagner le Divin Scène du crime, 9-3, criminal surhomme Partout près d'chez toi, y a toujours des mecs de tess Dans les grecs et les sex shop, y a toujours des mecs de tess Tu vas sucer et re-sucer car y a toujours des mecs de tess En G.A.V, mecs de tess, en son-pri, mecs de tess Ils vivent de l'économie souterraine, des mecs de tess Le crime organisé nous parraine, des mecs de tess À qui on disait je t'aime avec une ceinture, des mecs de tess Élevé à la dure, mecs de tess, une valeur sûre, mecs de tess Partout près d'chez toi, y a toujours des mecs de tess Dans les grecs et les sex shop, y a toujours des mecs de tess Tu vas sucer et re-sucer car y a toujours des mecs de tess En G.A.V, mecs de tess, en son-pri, mecs de tess Ils vivent de l'économie souterraine, des mecs de tess Le crime organisé nous parraine, des mecs de tess À qui on disait je t'aime avec une ceinture, des mecs de tess Élevé à la dure, mecs de tess, une valeur sûre, mecs de tess</t>
+          <t>Ok, mec de tess remix, niggas Alkpote, nigga, rull up Salif, rull up Ritmo de la noche, rull up Escobar Matson, 9-3, rull up Alpha 5.20, masqué, rull up Ghetto Fab' Gang Partout, les mecs de tess yeah C'est pour les mecs qu'ont grandi à 10 dans un HLM 2 pièces C'est pour les mecs de tess qui purgent des peines de hebs Si tu viens d'te branler, prends pas la peine de m'check Les mecs baisent le tier-qu's avec des bêtes de seize yeah Faut qu'j'sorte ma mère d'la se-cri Tu pourras m'croiser avec une paire de Nike Air tah pe-cli Les mecs fument et comme le concorde décolle Les p'tits cons sortent d'l'école et jouent les Don Corleone Mec de tess, mais qu'est-ce tu veux qu'j't'dise, moi ? On fait du bus', on les baise, demande à Isma' Trop d'flics au tier-quar', trop d'kilos d'ses-lar C'sont plus les voisins mais les potos qui bigo les shtars Si si, c'est Évry au mic, pull et bioman On écrit nos rap entre des kilogrammes et des prises d'otages salope Mec de tess régional, mafieux comme Ray Liotta Respecte ceux qui font la ière-pri au taf si si On excite vos 'tasses, demande à Poison Violent comme 91 bites en érection, j'braque la réception Y a pas d'déception ou d'vie imaginaire Pour les mecs de tess sombres qui dealent la zipette Sale p'tite merde, j'peux te satisfaire Dans les sanitaires, j'ai la flèche du Sagittaire voilà La jarre du Verseau, la moustache à Hitler S'agit d'faire les choses bien, faut rester sage, p'tit frère Partout près d'chez toi, y a toujours des mecs de tess Dans les grecs et les sex shop, y a toujours des mecs de tess Tu vas sucer et re-sucer car y a toujours des mecs de tess En G.A.V, mecs de tess, en son-pri, mecs de tess Ils vivent de l'économie souterraine, des mecs de tess Le crime organisé nous parraine, des mecs de tess À qui on disait je t'aime avec une ceinture, des mecs de tess Élevé à la dure, mecs de tess, une valeur sûre, mecs de tess E.S.C.O.B.A.R Macson, du lourd comme un toc Docteur Koen, arrache mes boules, greffe-moi des boules de pétanques Kori dans la zup, Tony Bamboula, j'reste audible Le Sheitan me hais parce que j'suis crédible Compte jusqu'à 7 comme mes pêchés, 7 comme mes lettres 7 comme cette bastos que j'te foutrais dans l'crâne au ghetto 100 moins 7 Macson, agit quand les pédés parlent tous Ils perdent leur temps, comme arroser des feuilles mortes pour qu'elles poussent Mec de tess de Villetaneuve à Créteil, les chars passant par Kinshasa T'obtiens que dalle si tu croises les chiens et les chats Mon slogan Rap, escroquerie, botanique, le canon au bout du gland Ma musique, c'est la cagoule avec les gants À c't heure-ci, tout l'monde s'est mis à la bicrave Dans mon ghetto, le sida tourne et les p'tits putes kiffent la bite crade Pas b'soin d'Hannibal comme Tom Dans ma tête, c'est drive by comme à Compton, j'viens d'sortir d'ma tombe J'ai mis mon boule sur la photo d'mon C.V Sorti le brolique, la cagoule pour taffer à E.D Itinéraire de mauvais garçon, le 44 dans l'blouson J'ai la colère comme le réveil d'un maçon J'joue l'Tony Montana, Poison a.k.a Santana J't'étranglerais avec ma ceinture Gabbana Mec de tess, que les biatch lèchent nos sexes C'est un putain d'drive by, niggas, en Mercedes-Benz Partout près d'chez toi, y a toujours des mecs de tess Dans les grecs et les sex shop, y a toujours des mecs de tess Tu vas sucer et re-sucer car y a toujours des mecs de tess En G.A.V, mecs de tess, en son-pri, mecs de tess Ils vivent de l'économie souterraine, des mecs de tess Le crime organisé nous parraine, des mecs de tess À qui on disait je t'aime avec une ceinture, des mecs de tess Élevé à la dure, mecs de tess, une valeur sûre, mecs de tess Prends mon rap de volley comme un quaterback Uzi circulaire à l'Ombak, pas d'combat, fais-moi d'la place dans les bacs Boum ! J'apparais dans l'rap game, gamin Tu s'ras absorbé dans nos rayons gamma Les mecs de tess ont plus l'shtar comme Ol'Dirty Bastard Connard, achète mes cahiers, y a les enfants dans l'square Garde ton self-contrôle, un mec de tess nous contrôle À la maison, j'ai déjà ler-vo pour nous faire esquiver la taule Le temps presse, prépare les compresses C'est l'Âge de pierre, retour au silex, la pièce maîtresse Le mec de tess dans la débrouillardise reste adroit Le mec de tess ne veut pas d'venir la soirée d'Soulpra Fuck tous tes gens, amène le liquide Dakar commet des meurtres puis maquille ça en suicide C'est pour les mecs de tess et les mecs du bled Sans pitié avec les porcs, toujours manger du quer-n' Les frères s'en battent, qui refusent de se soumettre Les syndicats de plus enculent l'État et les traîtres Internal réflexion comme mon cous' Kouali Sors la hache après le droit qu'on m'allie J'suis au fond du gouffre, me tends pas la main J'sors de l'autoroute, sanguinaire sera le bain M'éloigne des humains pour gagner le Divin Scène du crime, 9-3, criminal surhomme Partout près d'chez toi, y a toujours des mecs de tess Dans les grecs et les sex shop, y a toujours des mecs de tess Tu vas sucer et re-sucer car y a toujours des mecs de tess En G.A.V, mecs de tess, en son-pri, mecs de tess Ils vivent de l'économie souterraine, des mecs de tess Le crime organisé nous parraine, des mecs de tess À qui on disait je t'aime avec une ceinture, des mecs de tess Élevé à la dure, mecs de tess, une valeur sûre, mecs de tess Partout près d'chez toi, y a toujours des mecs de tess Dans les grecs et les sex shop, y a toujours des mecs de tess Tu vas sucer et re-sucer car y a toujours des mecs de tess En G.A.V, mecs de tess, en son-pri, mecs de tess Ils vivent de l'économie souterraine, des mecs de tess Le crime organisé nous parraine, des mecs de tess À qui on disait je t'aime avec une ceinture, des mecs de tess Élevé à la dure, mecs de tess, une valeur sûre, mecs de tess</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2142,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Mecs de tess qui assument la chute quelle que soit la somme Ça boit, fume, drague, goume, goûte et cogne crack Serre les mains pour faire passer les grammes ou le billet pédé Y'a pas de délire bi pour toucher le billet Mecs de tess qui assument la chute quelle que soit la somme Ça boit, fume, drague, goume, goûte et cogne crack Serre les mains pour faire passer les grammes ou le billet pédé Y'a pas de délire bi pour toucher le billet Sa jeunesse file en R1, centre de détention puis centre aéré Au tribunal ahuri, le mec de tess boum t'inquiète ça ira Assume même si sa peine l'assomme, braquage raté L'seum si tu connaissais la somme putain Portable, mouchard dans la cime On se croit toujours malin et du jour au lendemain le bagne te signe hein Les mecs de tess ont planté leur tente devant la barre Ne vivent que pour la barre d'euros, manient le crick ou bien la barre T'agressent, démarrent au crick et se barrent Eh c'est la jeunesse barbare Celle qui t'arrache ton portable, ton véhicule Celle qui t'arrache à tes fils maman pour que dans l'extrême violence ils basculent Mecs de tess qui assument la chute quelle que soit la somme Ça boit, fume, drague, goume, goûte et cogne crack Serre les mains pour faire passer les grammes ou le billet pédé Y'a pas de délire bi pour toucher le billet Mecs de tess qui assument la chute quelle que soit la somme Ça boit, fume, drague, goume, goûte et cogne crack Serre les mains pour faire passer les grammes ou le billet pédé Y'a pas de délire bi pour toucher le billet You might also like Arrive j'porte welcome to the hood 911 sur le bitume Sur la voie rapide ride j'm'en fous moi J'suis trop racaille ça peut se lire dans les yeux bouffon Tu peux pas test tu peux finir dans le feu Toujours à consommer avec modération Raricim O'Rosko pour l'opération Ça fait mal dès je commence, shoote après on parle J'verse-tra le fic-tra pour la Colombie Cannabis, cocaïne et kilos d'héroïne Importés des Caraïbes sur la terre ferme Sévère comme le daron, ferme comme le daron O'Rosko Raricim ferme ta gueule donc je disais ... Mecs de tess qui assument la chute quelle que soit la somme Ça boit, fume, drague, goume, goûte et cogne crack Serre les mains pour faire passer les grammes ou le billet pédé Y'a pas de délire bi pour toucher le billet Mecs de tess qui assument la chute quelle que soit la somme Ça boit, fume, drague, goume, goûte et cogne crack Serre les mains pour faire passer les grammes ou le billet pédé Y'a pas de délire bi pour toucher le billet C'est Alpha 5.20 A.K.A Pharmacie A.K.A Drug Store A.K.A Réservoir A.K.A le Général plus le pote à O'Rosko Boss.P Platinum, Rimes et gloire c'est roro Okay c'est tentant, faire du rap, baiser des tassepés Quelques grandes gueules parlent mal et veulent te nace-me A poil dans mon salon frère j'ai des couilles en acier Quelques idées malsaines pour gratter le billet Brûler le terrain jusqu'au sang moi je calcine 9.3 c'est le goudron où la mort se dessine Partir en soldat sinon vivre comme un chien J'ai du faire mon choix, je peux décorer ma tombe HLM parqué, carabine chargée Attitude charbon, on est des noirs foncés 10 piges en métropole et pas encore mes papiers Je serai le premier blédard frère qu'ils vont respecter hey Mecs de tess qui assument la chute quelle que soit la somme Ça boit, fume, drague, goume, goûte et cogne crack Serre les mains pour faire passer les grammes ou le billet pédé Y'a pas de délire bi pour toucher le billet Mecs de tess qui assument la chute quelle que soit la somme Ça boit, fume, drague, goume, goûte et cogne crack Serre les mains pour faire passer les grammes ou le billet pédé Y'a pas de dpour toucher le billet</t>
+          <t>Mecs de tess qui assument la chute quelle que soit la somme Ça boit, fume, drague, goume, goûte et cogne crack Serre les mains pour faire passer les grammes ou le billet pédé Y'a pas de délire bi pour toucher le billet Mecs de tess qui assument la chute quelle que soit la somme Ça boit, fume, drague, goume, goûte et cogne crack Serre les mains pour faire passer les grammes ou le billet pédé Y'a pas de délire bi pour toucher le billet Sa jeunesse file en R1, centre de détention puis centre aéré Au tribunal ahuri, le mec de tess boum t'inquiète ça ira Assume même si sa peine l'assomme, braquage raté L'seum si tu connaissais la somme putain Portable, mouchard dans la cime On se croit toujours malin et du jour au lendemain le bagne te signe hein Les mecs de tess ont planté leur tente devant la barre Ne vivent que pour la barre d'euros, manient le crick ou bien la barre T'agressent, démarrent au crick et se barrent Eh c'est la jeunesse barbare Celle qui t'arrache ton portable, ton véhicule Celle qui t'arrache à tes fils maman pour que dans l'extrême violence ils basculent Mecs de tess qui assument la chute quelle que soit la somme Ça boit, fume, drague, goume, goûte et cogne crack Serre les mains pour faire passer les grammes ou le billet pédé Y'a pas de délire bi pour toucher le billet Mecs de tess qui assument la chute quelle que soit la somme Ça boit, fume, drague, goume, goûte et cogne crack Serre les mains pour faire passer les grammes ou le billet pédé Y'a pas de délire bi pour toucher le billet Arrive j'porte welcome to the hood 911 sur le bitume Sur la voie rapide ride j'm'en fous moi J'suis trop racaille ça peut se lire dans les yeux bouffon Tu peux pas test tu peux finir dans le feu Toujours à consommer avec modération Raricim O'Rosko pour l'opération Ça fait mal dès je commence, shoote après on parle J'verse-tra le fic-tra pour la Colombie Cannabis, cocaïne et kilos d'héroïne Importés des Caraïbes sur la terre ferme Sévère comme le daron, ferme comme le daron O'Rosko Raricim ferme ta gueule donc je disais ... Mecs de tess qui assument la chute quelle que soit la somme Ça boit, fume, drague, goume, goûte et cogne crack Serre les mains pour faire passer les grammes ou le billet pédé Y'a pas de délire bi pour toucher le billet Mecs de tess qui assument la chute quelle que soit la somme Ça boit, fume, drague, goume, goûte et cogne crack Serre les mains pour faire passer les grammes ou le billet pédé Y'a pas de délire bi pour toucher le billet C'est Alpha 5.20 A.K.A Pharmacie A.K.A Drug Store A.K.A Réservoir A.K.A le Général plus le pote à O'Rosko Boss.P Platinum, Rimes et gloire c'est roro Okay c'est tentant, faire du rap, baiser des tassepés Quelques grandes gueules parlent mal et veulent te nace-me A poil dans mon salon frère j'ai des couilles en acier Quelques idées malsaines pour gratter le billet Brûler le terrain jusqu'au sang moi je calcine 9.3 c'est le goudron où la mort se dessine Partir en soldat sinon vivre comme un chien J'ai du faire mon choix, je peux décorer ma tombe HLM parqué, carabine chargée Attitude charbon, on est des noirs foncés 10 piges en métropole et pas encore mes papiers Je serai le premier blédard frère qu'ils vont respecter hey Mecs de tess qui assument la chute quelle que soit la somme Ça boit, fume, drague, goume, goûte et cogne crack Serre les mains pour faire passer les grammes ou le billet pédé Y'a pas de délire bi pour toucher le billet Mecs de tess qui assument la chute quelle que soit la somme Ça boit, fume, drague, goume, goûte et cogne crack Serre les mains pour faire passer les grammes ou le billet pédé Y'a pas de dpour toucher le billet</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2159,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Pas d'sentiments, pas d'amour, on a rien en retour Pas d'sentiments, pas d'amour, on a rien en retour Pas d'sentiments, pas d'amour, on a rien en retour J'démarre sur les chapeaux d'roues, mes salauds souffrent, veulent le salaire à Govou J'en place une pour mes gars au trou Sur moi, ça parle beaucoup salope Mais c'est que d'la publicité que me font ces sales grosses poufs si si C'est trop vénéneux mon vieux, y'aura pas d'cessez l'feu quoi ? C'est trop ténébreux, mes haineux vont t'crever tes pneus Y'a ma voix dans ta ture-voi, je baise ta ronne-da Si tu m'vois, ne pleure pas, j'suis un lyrical queur-bra pah pah J'ai d'la bonne came à des prix abordables Là où l'Diable danse comme Travolta Aujourd'hui, c'est l'paradis, ça s'ra l'Enfer demain Bois un verre de vin ou alors sniffe un rail entre une paire de sein salope C'est normal pour les morfales, j'ai un trésor rap comme Method Man ou Resord Charles Je déconne pas, j'suis raisonnable 2007, mec, les carabines sont chargées Les tirs sont cadrés et les filles sont charmées J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came Va au Diable et danse comme Travolta You might also like Température Pôle Nord, comme le cur d'une pute À Dakar, nous, on sait comment corrompre les flics Distribue ma boue, sans remords, ni regrets J'ai une lame sous la gorge, et j'n'ai pas flanché eh J'ai la passion du Christ, parti d'néant Assez d'hormones, comme le corps d'un géant Des petites pointures, parlent à tort et travers J'les ai mis au monde, maintenant, ils veulent tuer leur père La famille avant la France, coup d'boule de Zizou Humilie l'Italie, nique Berlusconi Plein d'négros pensent que j'vais pas mourir vieux J'ai prié l'Seigneur, négro, demain s'ra mieux On peut s'ouvrir à tout l'monde mais confiance à personne La famille, toujours la même, Holocost, O'Rosko Négros savent que j'ride, Alpha Roméo Négros veulent ma peau, mitraillette Scorpion blah J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came Va au Diable et danse comme Travolta</t>
+          <t>Pas d'sentiments, pas d'amour, on a rien en retour Pas d'sentiments, pas d'amour, on a rien en retour Pas d'sentiments, pas d'amour, on a rien en retour J'démarre sur les chapeaux d'roues, mes salauds souffrent, veulent le salaire à Govou J'en place une pour mes gars au trou Sur moi, ça parle beaucoup salope Mais c'est que d'la publicité que me font ces sales grosses poufs si si C'est trop vénéneux mon vieux, y'aura pas d'cessez l'feu quoi ? C'est trop ténébreux, mes haineux vont t'crever tes pneus Y'a ma voix dans ta ture-voi, je baise ta ronne-da Si tu m'vois, ne pleure pas, j'suis un lyrical queur-bra pah pah J'ai d'la bonne came à des prix abordables Là où l'Diable danse comme Travolta Aujourd'hui, c'est l'paradis, ça s'ra l'Enfer demain Bois un verre de vin ou alors sniffe un rail entre une paire de sein salope C'est normal pour les morfales, j'ai un trésor rap comme Method Man ou Resord Charles Je déconne pas, j'suis raisonnable 2007, mec, les carabines sont chargées Les tirs sont cadrés et les filles sont charmées J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came Va au Diable et danse comme Travolta Température Pôle Nord, comme le cur d'une pute À Dakar, nous, on sait comment corrompre les flics Distribue ma boue, sans remords, ni regrets J'ai une lame sous la gorge, et j'n'ai pas flanché eh J'ai la passion du Christ, parti d'néant Assez d'hormones, comme le corps d'un géant Des petites pointures, parlent à tort et travers J'les ai mis au monde, maintenant, ils veulent tuer leur père La famille avant la France, coup d'boule de Zizou Humilie l'Italie, nique Berlusconi Plein d'négros pensent que j'vais pas mourir vieux J'ai prié l'Seigneur, négro, demain s'ra mieux On peut s'ouvrir à tout l'monde mais confiance à personne La famille, toujours la même, Holocost, O'Rosko Négros savent que j'ride, Alpha Roméo Négros veulent ma peau, mitraillette Scorpion blah J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came Va au Diable et danse comme Travolta</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2176,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Pas d'sentiments, pas d'amour, on a rien en retour Pas d'sentiments, pas d'amour, on a rien en retour Pas d'sentiments, pas d'amour, on a rien en retour J'démarre sur les chapeaux d'roues, mes salauds souffrent, veulent le salaire à Govou J'en place une pour mes gars au trou Sur moi, ça parle beaucoup salope Mais c'est que d'la publicité que me font ces sales grosses poufs si si C'est trop vénéneux mon vieux, y'aura pas d'cessez l'feu quoi ? C'est trop ténébreux, mes haineux vont t'crever tes pneus Y'a ma voix dans ta ture-voi, je baise ta ronne-da Si tu m'vois, ne pleure pas, j'suis un lyrical queur-bra pah pah J'ai d'la bonne came à des prix abordables Là où l'Diable danse comme Travolta Aujourd'hui, c'est l'paradis, ça s'ra l'Enfer demain Bois un verre de vin ou alors sniffe un rail entre une paire de sein salope C'est normal pour les morfales, j'ai un trésor rap comme Method Man ou Resord Charles Je déconne pas, j'suis raisonnable 2007, mec, les carabines sont chargées Les tirs sont cadrés et les filles sont charmées J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came Va au Diable et danse comme Travolta You might also like Température Pôle Nord, comme le cur d'une pute À Dakar, nous, on sait comment corrompre les flics Distribue ma boue, sans remords, ni regrets J'ai une lame sous la gorge, et j'n'ai pas flanché eh J'ai la passion du Christ, parti d'néant Assez d'hormones, comme le corps d'un géant Des petites pointures, parlent à tort et travers J'les ai mis au monde, maintenant, ils veulent tuer leur père La famille avant la France, coup d'boule de Zizou Humilie l'Italie, nique Berlusconi Plein d'négros pensent que j'vais pas mourir vieux J'ai prié l'Seigneur, négro, demain s'ra mieux On peut s'ouvrir à tout l'monde mais confiance à personne La famille, toujours la même, Holocost, O'Rosko Négros savent que j'ride, Alpha Roméo Négros veulent ma peau, mitraillette Scorpion blah J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came Va au Diable et danse comme Travolta</t>
+          <t>Pas d'sentiments, pas d'amour, on a rien en retour Pas d'sentiments, pas d'amour, on a rien en retour Pas d'sentiments, pas d'amour, on a rien en retour J'démarre sur les chapeaux d'roues, mes salauds souffrent, veulent le salaire à Govou J'en place une pour mes gars au trou Sur moi, ça parle beaucoup salope Mais c'est que d'la publicité que me font ces sales grosses poufs si si C'est trop vénéneux mon vieux, y'aura pas d'cessez l'feu quoi ? C'est trop ténébreux, mes haineux vont t'crever tes pneus Y'a ma voix dans ta ture-voi, je baise ta ronne-da Si tu m'vois, ne pleure pas, j'suis un lyrical queur-bra pah pah J'ai d'la bonne came à des prix abordables Là où l'Diable danse comme Travolta Aujourd'hui, c'est l'paradis, ça s'ra l'Enfer demain Bois un verre de vin ou alors sniffe un rail entre une paire de sein salope C'est normal pour les morfales, j'ai un trésor rap comme Method Man ou Resord Charles Je déconne pas, j'suis raisonnable 2007, mec, les carabines sont chargées Les tirs sont cadrés et les filles sont charmées J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came Va au Diable et danse comme Travolta Température Pôle Nord, comme le cur d'une pute À Dakar, nous, on sait comment corrompre les flics Distribue ma boue, sans remords, ni regrets J'ai une lame sous la gorge, et j'n'ai pas flanché eh J'ai la passion du Christ, parti d'néant Assez d'hormones, comme le corps d'un géant Des petites pointures, parlent à tort et travers J'les ai mis au monde, maintenant, ils veulent tuer leur père La famille avant la France, coup d'boule de Zizou Humilie l'Italie, nique Berlusconi Plein d'négros pensent que j'vais pas mourir vieux J'ai prié l'Seigneur, négro, demain s'ra mieux On peut s'ouvrir à tout l'monde mais confiance à personne La famille, toujours la même, Holocost, O'Rosko Négros savent que j'ride, Alpha Roméo Négros veulent ma peau, mitraillette Scorpion blah J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came Va au Diable et danse comme Travolta</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2193,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Shone pue le quartier comme n'importe lequel de ses 16 Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Shone pue le quartier comme n'importe lequel de ses 16 Je viens du Sénégal, je suis un animal Dans le 93 tous mes potes sont cannibales Y'a une peine à subir, elle doit être capitale Plus d'amour dans mon coeur négro ça c'est radical Je paie pas les impôts ni les charges patronales L'argent tourne autour de moi j'suis un négro illégal Tous les jours au charbon comme si j'étais dans Germinal J'ai les poumons percés, j'suis en phase terminale Ambiance scandale, danse avec les vandales Je suis pas de Marseille mais ma musique est marginale Du bon côté du flingue, Seine-Saint-Denis criminal Alpha 5.20 négro pas sentimental Je bois de l'eau chaude, moi j'suis un Baye Fall Sur le banc des accusés, Bobigny Tribunal La crème du crime te heurte tel un choc frontal Holocost à contresens baise la police nationale You might also like Le rap çais-fran me dégoûte comme un schmitt écoute Shone Écoute le banlieusard accent, si tu parles ghetto ma petite baisse ma braguette ... Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Shone pue le quartier comme n'importe lequel de ses 16 Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Shone pue le quartier comme n'importe lequel de ses 16 Tiens au micro comme la mort à ... L'industrie reste en alerte La crème du crime déchaîne les sirènes ... Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Shone pue le quartier comme n'importe lequel de ses 16 Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Shone pue le quartier comme n'importe lequel de ses 16 ... ... Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Shone pue le quartier comme n'importe lequel de ses 16 Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Shone pue le quartier comme n'importe lequel de ses 16</t>
+          <t>Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Shone pue le quartier comme n'importe lequel de ses 16 Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Shone pue le quartier comme n'importe lequel de ses 16 Je viens du Sénégal, je suis un animal Dans le 93 tous mes potes sont cannibales Y'a une peine à subir, elle doit être capitale Plus d'amour dans mon coeur négro ça c'est radical Je paie pas les impôts ni les charges patronales L'argent tourne autour de moi j'suis un négro illégal Tous les jours au charbon comme si j'étais dans Germinal J'ai les poumons percés, j'suis en phase terminale Ambiance scandale, danse avec les vandales Je suis pas de Marseille mais ma musique est marginale Du bon côté du flingue, Seine-Saint-Denis criminal Alpha 5.20 négro pas sentimental Je bois de l'eau chaude, moi j'suis un Baye Fall Sur le banc des accusés, Bobigny Tribunal La crème du crime te heurte tel un choc frontal Holocost à contresens baise la police nationale Le rap çais-fran me dégoûte comme un schmitt écoute Shone Écoute le banlieusard accent, si tu parles ghetto ma petite baisse ma braguette ... Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Shone pue le quartier comme n'importe lequel de ses 16 Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Shone pue le quartier comme n'importe lequel de ses 16 Tiens au micro comme la mort à ... L'industrie reste en alerte La crème du crime déchaîne les sirènes ... Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Shone pue le quartier comme n'importe lequel de ses 16 Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Shone pue le quartier comme n'importe lequel de ses 16 ... ... Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Shone pue le quartier comme n'importe lequel de ses 16 Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Shone pue le quartier comme n'importe lequel de ses 16</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2210,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Ils m'ont dit que l'rap doit rester une passion J'leur ai dit qu'j'veux d'la maille, pas une voiture en location Ok ! Indé 10 euros l'CD Si j'en vends 15 000, j'aurai leur p'tain de disque d'or Moi je voulais grailler comme Rohff et Booba Maisons de disques et majors, frère ne veulent pas d'moi Garde mon cul vissé sur la chaise électrique Mes rimes sentent le roussi, frère n'soit pas étonné C'n'est plus un secret, j'suis le roi d'la cité J'ai baisé quelques meufs biens, maintenant j'retourne aux tasses-pé Pleins d're-nois pédés comme le Moulin Rouge Et dit leur que Alpha va les niquer tous ! En concert à Dakar, puis après moi j'bouge Et j'déclare la guerre comme l'a fait Georges Bush Si j'sors de chez moi, c'est pour aller à la morgue Et enterrer Skyrock, plus tous leurs potes Et t'inquiète Alpha, est sur sable mouvant Je suis pas un rappeur, j'ai pas besoin du mouvement ! Moi j'vide mon sac, faut qu'tu voies ma peine Plein de négros sucent, mais ils vendent à peine Skyrock ou pas, moi j'veux bicrave Si le rap ne marche pas, faut qu'j'tourne la page Moi j'vide mon sac, faut qu'tu voies ma peine Plein d'négros sucent, mais ils vendent à peine Skyrock ou pas, moi j'veux bicrave Si le rap ne marche pas, j'irai vendre mon crack You might also like Les casiers vierges veulent être, des cas sociaux, voyons ! C'est du suicide comme trop parler au ballon, voyou ! L'Etat nous veut, on refuse l'Etat nous vole C'est fini l'école, à ne-Fres on t'colle, ou on t'colle une balle par accident C'est toi l'coupable, t'as eu des antécédents Les cailles tombent et meurent avec la garde Un doigt sur la gâchette, heureux avec la barbe Tous les pauvres sont dans une tranchée Là-bas t'es notre pigeon si t'es pas affranchi On marche, en file indienne pour qu'on croit qu'on est qu'un Le visage figé, les yeux rouges on nous craint On crie pas, même si la douleur est forte On règle seul nos problèmes, on n'a pas besoin d'escorte On s'porte garant, de toute notre famille Pour eux soit on taffe, soit on vole, soit on crave-bi, j't'ai dis J'dédie c'morceau à tous mes frérots ceux partis trop tôt ou derrière des barreaux, ouais ! Moi j'vide mon sac, faut qu'tu voies ma peine Plein de négros sucent, mais ils vendent à peine Skyrock ou pas, moi j'veux bicrave Si le rap ne marche pas, faut qu'j'tourne la page Moi j'vide mon sac, faut qu'tu voies ma peine Plein d'négros sucent, mais ils vendent à peine Skyrock ou pas, moi j'veux bicrave Si le rap ne marche pas, j'irai vendre mon crack 95 nectar, en live d'la scène du crime, au mic fait des larsenes C'est d'la lave ma salive brule, l'industrie j'la saigne J'danse, en équilibre sur un rasoir bang, bang ! Trop malsaine sur les ondes, ma musique choque tu peux t'rassoir Tu danseras pas sur c'son, mec tu peux m'croire J'suis v'nu foutre le boxon, fais juste ton signe de croix c'est ma seule consigne Le mic j'le crame, sans combustibles En grammes j'compte plus, j'parle en kil' quand j'vends du style Merde ! C'est Bors' la tour de contrôle Zone de turbulence ma rage sort de tôle C'est la faucheuse qui conduit l'ambulance J'arrache ton sourire dès la première mesure Lâche la purée dès la s'conde, tu m'croirai pas même si j'le jure Demande-toi pourquoi tu m'aimes ? J'rappe et les accros abondent, j'suis de la cocaïne sous forme humaine Une blonde, deux feuilles, j'ai la drogue fais-moi un filtre ! T'es vrai, si mes lyrics reflètent la vie qu'tu mènes C'est pas film ! J'étais là avant les contrats et j's'rai là après ! Même quand l'industrie trace nos destins à la craie Moi j'vide mon sac, faut qu'tu voies ma peine Plein de négros sucent, mais ils vendent à peine Skyrock ou pas, moi j'veux bicrave Si le rap ne marche pas, faut qu'j'tourne la page Moi j'vide mon sac, faut qu'tu voies ma peine Plein d'négros sucent, mais ils vendent à peine Skyrock ou pas, moi j'veux bicrave Si le rap ne marche pas, j'irai vendre mon crack Ha ! Ha ! Bien sûr ! Ca c'est sûr ! Hey, le rap il est à nous ! Qui peut le prendre ? Qui ? Les mauvais sont dans l'mouv' et veulent baiser la rue C'est nous le hip-hop le break, le scratch Tous ça là on l'a inventé ! Les médias veulent ber-bar notre musique mon frère C'est trop la merde ! Qu'ils arrêtent hein ! T'façon on va remettre les choses dans l'ordre Ah ouais ? On arrive ! On arrive ! Aussi violent qu'le Dass mon pote ! T'inquiète Iron ! La famille c'est la famille jusqu'à la mort négro ! J'suis content qu'tu sois disque d'or mon négro ! Au moins si t'as sauvé ta famille ! J'suis content pour toi ! T'es pas comme ces autres trous du cul qui ont oublié la famille Fuck y'all sale bâtard ! Yeah ! Yeah ! Lino ! Lino ! Demande aux tox' ! Yeah ! renoi Black killa, what up' yeah What up' What up' What up' yeah Si le rap ne marche pas j'irai vendre mon crack Si le rap ne marche pas j'irai vendre mon crack Renoi Si le rap ne marche pas j'irai vendre mon crack Yeah Ok Ghetto Fabulous Gang ! 5.20 Faut qu'tu voies ma peine !</t>
+          <t>Ils m'ont dit que l'rap doit rester une passion J'leur ai dit qu'j'veux d'la maille, pas une voiture en location Ok ! Indé 10 euros l'CD Si j'en vends 15 000, j'aurai leur p'tain de disque d'or Moi je voulais grailler comme Rohff et Booba Maisons de disques et majors, frère ne veulent pas d'moi Garde mon cul vissé sur la chaise électrique Mes rimes sentent le roussi, frère n'soit pas étonné C'n'est plus un secret, j'suis le roi d'la cité J'ai baisé quelques meufs biens, maintenant j'retourne aux tasses-pé Pleins d're-nois pédés comme le Moulin Rouge Et dit leur que Alpha va les niquer tous ! En concert à Dakar, puis après moi j'bouge Et j'déclare la guerre comme l'a fait Georges Bush Si j'sors de chez moi, c'est pour aller à la morgue Et enterrer Skyrock, plus tous leurs potes Et t'inquiète Alpha, est sur sable mouvant Je suis pas un rappeur, j'ai pas besoin du mouvement ! Moi j'vide mon sac, faut qu'tu voies ma peine Plein de négros sucent, mais ils vendent à peine Skyrock ou pas, moi j'veux bicrave Si le rap ne marche pas, faut qu'j'tourne la page Moi j'vide mon sac, faut qu'tu voies ma peine Plein d'négros sucent, mais ils vendent à peine Skyrock ou pas, moi j'veux bicrave Si le rap ne marche pas, j'irai vendre mon crack Les casiers vierges veulent être, des cas sociaux, voyons ! C'est du suicide comme trop parler au ballon, voyou ! L'Etat nous veut, on refuse l'Etat nous vole C'est fini l'école, à ne-Fres on t'colle, ou on t'colle une balle par accident C'est toi l'coupable, t'as eu des antécédents Les cailles tombent et meurent avec la garde Un doigt sur la gâchette, heureux avec la barbe Tous les pauvres sont dans une tranchée Là-bas t'es notre pigeon si t'es pas affranchi On marche, en file indienne pour qu'on croit qu'on est qu'un Le visage figé, les yeux rouges on nous craint On crie pas, même si la douleur est forte On règle seul nos problèmes, on n'a pas besoin d'escorte On s'porte garant, de toute notre famille Pour eux soit on taffe, soit on vole, soit on crave-bi, j't'ai dis J'dédie c'morceau à tous mes frérots ceux partis trop tôt ou derrière des barreaux, ouais ! Moi j'vide mon sac, faut qu'tu voies ma peine Plein de négros sucent, mais ils vendent à peine Skyrock ou pas, moi j'veux bicrave Si le rap ne marche pas, faut qu'j'tourne la page Moi j'vide mon sac, faut qu'tu voies ma peine Plein d'négros sucent, mais ils vendent à peine Skyrock ou pas, moi j'veux bicrave Si le rap ne marche pas, j'irai vendre mon crack 95 nectar, en live d'la scène du crime, au mic fait des larsenes C'est d'la lave ma salive brule, l'industrie j'la saigne J'danse, en équilibre sur un rasoir bang, bang ! Trop malsaine sur les ondes, ma musique choque tu peux t'rassoir Tu danseras pas sur c'son, mec tu peux m'croire J'suis v'nu foutre le boxon, fais juste ton signe de croix c'est ma seule consigne Le mic j'le crame, sans combustibles En grammes j'compte plus, j'parle en kil' quand j'vends du style Merde ! C'est Bors' la tour de contrôle Zone de turbulence ma rage sort de tôle C'est la faucheuse qui conduit l'ambulance J'arrache ton sourire dès la première mesure Lâche la purée dès la s'conde, tu m'croirai pas même si j'le jure Demande-toi pourquoi tu m'aimes ? J'rappe et les accros abondent, j'suis de la cocaïne sous forme humaine Une blonde, deux feuilles, j'ai la drogue fais-moi un filtre ! T'es vrai, si mes lyrics reflètent la vie qu'tu mènes C'est pas film ! J'étais là avant les contrats et j's'rai là après ! Même quand l'industrie trace nos destins à la craie Moi j'vide mon sac, faut qu'tu voies ma peine Plein de négros sucent, mais ils vendent à peine Skyrock ou pas, moi j'veux bicrave Si le rap ne marche pas, faut qu'j'tourne la page Moi j'vide mon sac, faut qu'tu voies ma peine Plein d'négros sucent, mais ils vendent à peine Skyrock ou pas, moi j'veux bicrave Si le rap ne marche pas, j'irai vendre mon crack Ha ! Ha ! Bien sûr ! Ca c'est sûr ! Hey, le rap il est à nous ! Qui peut le prendre ? Qui ? Les mauvais sont dans l'mouv' et veulent baiser la rue C'est nous le hip-hop le break, le scratch Tous ça là on l'a inventé ! Les médias veulent ber-bar notre musique mon frère C'est trop la merde ! Qu'ils arrêtent hein ! T'façon on va remettre les choses dans l'ordre Ah ouais ? On arrive ! On arrive ! Aussi violent qu'le Dass mon pote ! T'inquiète Iron ! La famille c'est la famille jusqu'à la mort négro ! J'suis content qu'tu sois disque d'or mon négro ! Au moins si t'as sauvé ta famille ! J'suis content pour toi ! T'es pas comme ces autres trous du cul qui ont oublié la famille Fuck y'all sale bâtard ! Yeah ! Yeah ! Lino ! Lino ! Demande aux tox' ! Yeah ! renoi Black killa, what up' yeah What up' What up' What up' yeah Si le rap ne marche pas j'irai vendre mon crack Si le rap ne marche pas j'irai vendre mon crack Renoi Si le rap ne marche pas j'irai vendre mon crack Yeah Ok Ghetto Fabulous Gang ! 5.20 Faut qu'tu voies ma peine !</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2227,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Pour certains c'étaient des potes, et pour d'autres des p'tits d'la cité Mais seulement un sur trois a survécu dans l'électricité Ça a été une réalité dure à accepter Le 27 octobre, Zyed et Bouna nous ont quittés Dix-sept ans et quinze ans, eh, trop jeunes pour partir Trop jeunes pour dire à tout l'monde On se reverra qu'en dehors de cette terre Vu qu'on est tous des hommes, on passera tous, tôt ou tard, par la mort mes frères Quand des mômes fuient la police par peur jusqu'à perdre la vie On doit s'poser des questions, moi j'suis juste un mec qui donne son avis J'suis là pour, on a tous vu au moins une fois les civils Déraper comme des barges dans la cour On s'comprend plus, de là tout part Quand même nos ministres désignent les gosses innocents coupables Aujourd'hui j'frémis parce que j'ai trois enfants Et garde ce dernier vers, car je sais c'que sentent les parents Mon Dieu, j'pense à Zyed et son accent blédard Son sourire gentil, et son pull à capuche Tim noir Toujours serviable et jamais en colère On l'appelait Lance-Pierres, il avait une force d'homme frère J'pense à Bouna, toujours avec Harouna Tout l'temps au Chêne Pointu, pourtant il habitait la PAMA Respect aux familles Traoré et Benna Le ghetto est en pleurs, j'en perds mes mots, Allah y rahmou You might also like On veut savoir ce qu'il s'est passé On veut nous cacher la vérité Toute une communauté sous haute tension Deux vies gâchées sans explication Une famille perd son enfant Impossible d'oublier, même avec le temps Bouna, Zyed, paix à vos âmes, paix à vos âmes Oh, paix à vos âmes, oh yeah Sur ce son, on rappe, on dédie cette zik à Bouna et Zyed Non j'ai du mal à croire J'ai du mal à voir ton blaze Bouna, gravé sur du marbre Tu t'en rappelles, chaque soir des bêtes de darka sur une rocade Histoire d'être capital, t'avais une tête de plus que moi Amateur de moto, danseur de XXX À fond dans les govas et les gos, de jour en jour je deviens fou Dans ma tête, de bons moment en boucle Demande à tous, depuis qu't'es parti je ris mais y a plus goût à rire Tu manques à la famille À chaque yer-pri, je prie que Dieu vous ouvre les portes du Paradis Sur ce, j'ai les nerfs, B2G, courageux, parole de frère Hier, j'ai croisé l'émotion, elle touchait le fond J'ai croisé des jeunes et j'ai croisé des mères, donc j'ai croisé le monde J'ai croisé les doigts, crois-moi j'ai prié ma sur J'ai pris ma feuille, j'ai pris mon cur et puis j'ai crié ma peur L'amour est fiable et tu l'sais, la guerre est bad Elle et lui vous êtes Bouna, toi et moi, on est Zyed On est des anges, on est des grands, on est les enfants qui dérangent Avec le cur en sang, on chante pour tous ceux qui nous manquent Nous sommes épuisés par les pleurs, à peine quinze ans, à fleur de vie Bouna, ça fait drôle de plus t'voir en roue arrière sur ton vélo Boucle d'oreille, sapé goss'bo J'ai lancé des projectiles pour vous venger Mais rien n'vous a réveillé, Zyed, où est passée ta tête Qui nous écoutait l'soir à la fenêtre du premier étage ? Parlais pas trop, trop sage Tristesse, dépit, faiblesse nous ont envahis La France est en deuil, le ghetto pleure deux des siens La colère dans les yeux, deux enfants sont morts pour rien Une pensée pour eux, lions nos deux mains Que Dieu leur ouvre la porte des cieux et qu'ça n'arrive plus demain Y a des écoles qui brûlent et des voitures s'embrasent OK brûlons-la mais pas l'histoire de base Bouna et Zyed, deux enfants morts avant l'âge Rien qu'd'y penser, moi ça m'fout la rage, hmm Hommage à mes deux potos, qui sont partis trop tôt Quand j'regarde leurs photos, un frisson me monte au dos On n'vous verra plus en mode peace à la cité Ça fera bizarre mais c'est une triste réalité Zyed et Bouna, malheureusement, nous ont quittés Qu'ils demeurent au Paradis pour l'éternité En attendant j'ai perdu deux d'mes res-frè Si c'était à refaire, ce couplet ben je l'referais À mes potes, Zyed et Bouna Reposez en paix Allah y rahmou Pensée pour Muhittin Ma présence n'a rien d'honorable, elle est juste normale J'serai toujours auprès des miens tant qu'ils auront mal C'que j'vois dans le studio, c'est beau, c'est grand Les miens se sont unis mais pas dans l'autodestruction Parce que les miens ont une force qu'il sont les seuls à ignorer J'attends l'jour où ils vont s'lever, s'élever dans le respect Que Dieu fasse miséricorde à nos frères Zyed et Bouna Faut voir comment respecter leur mémoire Pour Bouna et Zyed Je prends ma plume en versant quelques larmes Partageant la douleur La souffrance des familles qui les pleurent Comprendre ce qu'il s'est passé Exposer la vérité au grand jour Que ce fardeau soit moins lourd, oh yeah Bouna et Zyed restent dans nos curs à tout jamais C'est pour nos minots que j'retranscris mes larmes du bout d'mon stylo Pourquoi dans nos trous à rats, s'en sortent qu'une mino' J'tire le signal d'alarme avant d'en venir aux armes Paix à vos âmes et à vos XXX Morts pour rien, c'est l'slogan qui fera p't-être réagir ceux qui siègent à l'Assemblée Nous on s'est rassemblés pour rendre hommage à nos morts C'est à eux qu'on a dédié l'ceau-mor Traoré et Benna, c'est à vous qu'on a dédié l'ceau-mor Le cur serré devant ma feuille blanche La main tremblante, mal au crâne de voir qu'on nous écoute que quand les coins crament Toujours la même, c'est la merde, ainsi d'suite On veut fuir la misère à chaque course-poursuite Que Dieu donne la force aux familles en deuil À leurs proches pour surmonter cette dure épreuve Dites à Nicolas que malheureusement, derrière les voitures qui brûlent C'est la détresse des quartiers qui hurle J'lève la main en l'air à la mémoire de nos p'tits frères J'lève la main en l'air pour leurs pères et pour leurs mères J'parle avec le cur au nom d'une jeunesse en détresse Vas-y cours petit, cours, pour fuir la tristesse Qu'Allah leur pardonne d'avoir provoqué un drame Aujourd'hui j'appelle au calme, il faudrait éteindre les flammes L'âme est touchée mais le corps se relèvera Je demande aux miens de ne jamais baisser les bras Mourir d'sa belle mort est la chose la plus belle au monde Mais l'destin en a voulu autrement, quelle chose immonde Fin d'une vie humaine et des plaisirs éphémères d'la vie Nos curs pleurent de désespoir et la haine nous envahit Enivrés d'tristesse, leur non-présence nous blesse sans cesse L'ciel a voulu qu'ils décèdent, guettent dans l'au-delà mais laisse Une pensée à ces hommes qui n'vivent plus qu'dans nos mémoires Quelques temps d'silence à leurs personnes XXX La disparition de deux êtres innocents et honnêtes A provoqué beaucoup de rivières de larmes sur les pommettes Adolescents laissant derrière leur dos Des centaines de pleurs, des curs blessés et c'est en s'en- Traidant, en se serrant les coudes Que l'on peut rester forts quand la mort fait escale chez nous Salam à vous, tenez le coup, uvrez dans l'bien Difficile pour une famille d'avancer avec un membre en moins J'commence en faisant deux mesures de silence pour les enfances perdues En guise d'insulte pour tous les esprits tordus ... Sa mère! J'ai les nerfs de voir nos pères en larmes J'ai les nerfs de voir mes frères s'noyer dans l'drame Et lors d'un banal contrôle dans nos halls on a le rôle d'un animal pour la Gaule De vandales pour les héritiers d'De Gaulle XXX La France pays de rencontres XXX XXX La douleur parle, nous on perd des frères C'est juste un appel au calme dans cette époque de merde Paix à la famille, laissez-la faire son deuil J'verse une goutte sur l'sol et vers l'ciel j'jette un il Ça fait mal quand quelqu'un part mais c'est Dieu qui décide On s'retrouvera plus tard, sur la route sur laquelle on s'destine Morts pour rien, pour vous on a beaucoup d'estime Que Dieu vous garde, OK, reposez en paix À nos frères morts violemment, aux plus jeunes qui prouvent qu'on peut réussir brillamment Le plus important, l'dîn, on veut tous partir dignement Rattraper nos péchés, à part les drames, rien pour nous unir C'est c'qui nous manque, combien passeront la barre des trente Vies courtes mais intenses, profite des tiens, porte avec honneur toutes nos valeurs Décharger les mamas du poids d'nos malheurs Dramatique pour les familles blessées dans l'âme Résister pour exister, wesh les p'tits frères, faut éviter l'haram Y a trop d'souffrances au cur des abysses dans les quartiers d'France Alerte maximum pour les mômes, état d'urgence J'porte des fleurs pour les morts, faut qu'on y pense Et qu'on sème de l'espoir pour le futur Même si la poisse rend l'quotidien trop dur, même si les pleurs parlent quand des gosses partent N'oublions pas qu'les anges ne meurent pas C'est juste quelques mots en votre mémoire Votre histoire gravée sur le marbre, un hommage pour dire qu'y en a marre Un hommage à Benna, Traoré Deux p'tits frangins Allah y rahmou, qui sont partis haja Morts pour rien, là où vous êtes Inch'Allah vous êtes bien Beau temps, mauvais temps, vous étiez toujours contents J'ai du mal à réaliser qu'le temps nous a séparés Le mal qu'ils nous ont fait, ils pourront jamais le réparer XXX, Traoré Quelle époque nous vivons, quelle époque C'est pour XXX Quelle époque nous vivons, perdre sa vie sans raison Sans explication, la banlieue pleure à l'unisson Mais quelle époque nous vivons? On veut savoir le pourquoi du comment Dialogue de sourds, on nous répond en nous insultant Mais quelle époque nous vivons? Trop p'tits pour partir d'nos rangs Pas assez d'mots pour apaiser les parents Mais quelle époque nous vivons? D'autres agissent en cassant Manière douce, nous on transforme notre rage en chanson J'connais l'respect, pas celui qui sort d'la bouche des autres Celui qu'on m'a appris depuis tout gosse mais on est tous des hommes Ça m'désole et on s'demande que faire face à tout c'désordre Et pour s'faire entendre, faut qu'la voix d'mes couz' résonne Plus rien n'est sûr quand y a l'sheitan et ses miss qui zonent Mais qu'ils ont, à croire que ça leur plaît d'voir une enfance qui XXX Pendant qu'les best pigeonnent, j'vois le reste qui chôme Nous on est jeunes, plein d'avenir et c'est toute ma tristesse qui somme Dites-moi comment régler les problèmes en supprimant les solutions Ce système a trop sous-estimé sa population L'oppression a une faille, nous a enlevé deux de nos frères C'est les larmes aux yeux que l'on pratique notre prière 93, volcan en éruption, banlieue poudrière On n'éteint pas notre flamme, c'est jusqu'à la mort qu'on sera solidaire Tremblay en hommage, ma ville crame, lâchez les Canadair Y a rien à dire, dors avant d'partir en guerre Histoire triste, j'suis pas là pour m'faire d'la pub Les chtars guidés par Ibliss frère, ici ça devient rude Perdre deux d'nos proches pendant l'ramdam Une pensée hardcore pour les rents-pa qui pleurent l'âme I.S.L.A.M., ma source vitale Apprendre la mauvaise nouvelle d'un mort, mon frère, ça on l'vit tous mal J'accepte plus l'mektoub, les soucis ressurgissent Combien d'enfants avec une tombe avant qu'la France agisse Respect aux familles, aux amis, aux manifestants Existants, restant résistants Et exigeant, détestant les forces, les testant Et quel ordre? C'est l'désordre qui est présent Fort déplaisant, unis dans tous les sens Munis d'encre ou d'essence personne n'est perso Ou hésitant, devant c't accident attristant A cité ta cité s'assistant Tata nzambé XXX bongo XXX Benna, Traoré Ouais, c'est du meurtre, qu'c'est l'humeur vraie tumeur En attendant, s'rassemblant dans la lueur, truc flambant XXX tata na bisso Dynam, ouais ouais ouais ouais, hein C'est trop hard d'être morts pour rien ghetto hardcore cousin XXX com si cété ti moun a mwen Ka ressenti douleur là tout au fond a chair mwen Lé pa imaginé sa k'arrivé des frew mwen Des jeunes XXX morts XXX pour rien Allez XXX maman Traoré Famille Benna XXX j'en ai oublié Tou lé -XXX toujou là, pas la France XXX sa An juste ka espérer XXX Le mal au moment qu'tu ressens parce que t'es blessé par le mal qui ronge Tu tombes dans la dépression parce que les événements pour toi sont étranges Pour tous mes frères qui sont victimes d'avoir perdu un être cher Parce que le fruit d'un amour fraternel vient de disparaître J'ai reflété un mal de vivre parce que mes nerfs sont devenus ivres Parce que les gens ne m'épargnent pas, j'ai dû survivre Un petit sourire levé vers l'ciel, une éclaircie, l'soleil Ça prouve qu'on doit sécher nos larmes parce que nos âmes sont éternelles Dur d'clamer la paix alors qu'la liste ne fait qu's'allonger Ça m'enrage que nos vies s'embrasent pendant qu'Arnaud rêve à la vie d'Pete Sampras Les meilleurs s'en vont toujours les premiers, c'est pas d'leur faute Les prolos s'lavent les mains dans l'sang des nôtres Arrête de foutre le feu chez nos daronnes, déjà qu'elles sont mal logées Au fond, ça n'arrangera rien, tu sais Pense à nos martyrs et rappelle-toi qu'avant d'partir Il te faudra chérir la mif, qu'on arrête de courir car tu peux mourir vite Même un daron du bled fier ne peut retenir ses larmes Face à des mères accablées comme celles de Bouna et Zyed L'insomnie s'empare des familles du défunt Mais des fois, il n'y a pas de douleur que le sommeil sache vaincre Hache de guerre à gauche frolo pour un effort de paix C'est l'9-3 qui pleure quand Clichy-sous-Bois est en deuil J'ai de la peine car le décès de certains me reviennent en tête Les frères, laissez-vous bercer par la tristesse Sauvons les deux âmes Comment résister, honorer son charme Zyed et Bouna Nous restons sans voix Quelle choc de ne plus vous revoir Sur mon visage ne cessent de couler les larmes Que Dieu vous garde pour l'éternité J'ai l'cur brisé, car j'ai souvent rêvé d'un monde meilleur Que la guérilla urbaine et d'enterrer deux frères Traoré Benna, que Dieu vous pardonne Que Dieu vous ouvre les portes du Paradis Que la tension se calme ici-bas J'suis un frère parmi tant d'autres J'voulais faire passer un message de paix Mon phrasé porte le deuil On vient d'perdre deux âmes fraîches, deux anges On vient encore d'perdre deux p'tits frères On leur rend hommage le cur noyé dans nos larmes Nos plumes portent nos peines et les blessures de nos âmes Les cris sincères, ouala j'ai mal La douleur est intense et même le silence pleure Pas là pour condamner l'coupable, Dieu l'fera Lui-même Et qu'la paix soit avec la famille d'ces deux lumières Deux gouttes qui débordent le vase, écoute Le mal se disperse, les man se disent prêts à agir et à serrer les coudes Les poings en l'air et même sur les I Quand on est solidaire, qu'on attise la flamme et à deux morts on l'dédie Trop d'sirènes, pompiers flics et ambulances Qu'on allume un cierge au lieu d'ces ambiances brûlantes La délinquance n'est pas une profession dans la street Qu'ils arrêtent leurs étiquettes et d'nous classer dans leurs putain d'statistiques 271005, c'est la fin d'une vie, les larmes d'une mère Le calvaire d'un père et l'combat d'un grand frère Une sur perdue qui voit son frère partir au plus jeune âge Une mort incomprise et toute une tess qui prend la rage Un événement qui prend une tournure grave, des nuits d'émeute Avec une seule idée en tête, faut qu'y en ait un qui crève On veut la vérité pour Zyed et Bouna Une forte pensée pour les familles, Traoré Benna Crois-moi, j'ai eu froid dans le dos En entendant les commentaires de politiques au lendemain du drame Quand la loi et l'ordre font peur à des gosses et que le pire se passe Le respect, c'était de faire profil bas Il nous faut des responsables, ça doit pas toujours marcher dans un sens Parce que c'qu'il s'est passé n'a pas d'sens Mes pensées vont aux familles, alors rest in peace Mon Dieu, entends nos prières, c'est pas juste c'qui arrive Deux frères partent, des curs fanent, la violence pour morphine, frère Mon cur saigne, mon cur parle, mon cur aime, mon cur bat Aussi vite que l'approche de la vérité, donc militer Pour la même cause, même veine, même combat Familles Traoré et Benna Beaucoup d'force et beaucoup d'chance pour la suite frères, pour tous les miens On a les mains réanimées par les armes Ensanglantées mais vite lavées par les larmes, paix à leurs âmes Nettoyer les gouttes et lâche même des gouttes et Les frères sont dégoûtés, les parents sont alarmés Morts pour rien, seul l'avenir nous l'dira Ou en tirer une leçon les jours à venir on verra Pour l'heure, une prière pour les p'tits frères Une pensée à leurs parents en espérant d'meilleurs moments Né d'une mort, l'espoir vit, restons forts Clichy-sous-Bois Montfermeil présentent leur reconnaissance Des adolescents parés Pour cette oppression incessante, donc une vie de tarés Grandir sous l'enseigne Montfermeil Clichy Mon cur saigne, tu sais, tant de gâchis Re-fré, réfléchis, deux vies ont fléchi Ils ont dit qu'on agissait par haine Plus rien ne sert de défendre une vie déjà vaine Mais allez dire ça aux mères Que leurs fils méritait une vie éphémère XXX Parce qu'on nous a traités d'vauriens J'dédicace aux gosses morts pour rien Seule la violence du désespoir dégage cette odeur de peur Quand un jeune des ghettos meurt, je pleure De colère, c'est ça qui fait brûler les voitures Saoulé d'devoir enterrer les nôtres, vois-tu Français, écoute pas leurs putain d'histoires Si on agit ainsi c'est par la force du désespoir Comme à Clichy quand la mort t'électrocute Et combien d'raisons justifie leur mort? Aucune Le ghetto parle, le ghetto chante, le ghetto pleure Des larmes de peine C'est triste à dire, qu'il faille le pire Pour qu'on écoute nos curs qui saignent Mes pensées vont vers les familles Benna et Traoré, yeah Le ghetto pleure ces deux adolescents Un message de paix dans toute cette effervescence J'parle au nom du 7-7 Mes amitié pour les familles des défunts, c'est pour ces jeunes qu'on s'mobilise Une prose contre une rose Hommage à Bouna et Zyed, nos banlieues pleurent L'onde de choc retentit, j'crie ma douleur Un requiem pour ceux qu'on aime Nos HLM sont en berne, trop d'pertes et d'chrysanthèmes J'veux pas finir dans les bras du système Électrocuté ou cané, alors j'tire la sonnette d'alerte La mort ne donne jamais de rendez-vous Les khos, levez vos index dès que vous savez qu'elle va venir à vous J'avoue, ça fait si mal d'voir partir des p'tits et des fillettes De voir que de drames, la vie est ainsi faite Qu'Allah fasse miséricodre à Bouna et à Zyed Ils voudraient nous étouffer pour mieux nous avaler comme le ferait un boa La tasse ils veulent nous faire boire Paix à nos morts, d'ici à Clichy-sous-Bois Ils sont morts, ma voix gèle, j'suis rouge, tout est pêle-mêle J'vous connaissais pas mais au fond vous êtes une partie d'moi Moi j'pleure, rien que j'pleure C'est dur, la France a peur, comprenez notre émotion Trop d'nos frères à terre, deux ouais, ils étaient deux Pour le troisième, j'remercie Dieu Hein, sois fort Muhittin J't'assure, sois fort C'est pour nos deux p'tits frères, rest in peace Que j'lance d'ici, d'Évry-Courcouronnes à Clichy Si si, à prendre les jeunes pour des imbéciles C'est la douleur du ghetto qui se transforme en missile Et la banlieue ne veut plus lécher la vitrine Elle est brisée, et c'est la vérité que l'on vise La rue a mal, mais pas que depuis hier Et aujourd'hui les pierres ont remplacé les prières Hommage aux familles blessées Agressées dans leur chair, Seigneur dissipe leur gêne et le poids de leur détresse Chéris nos p'tits frères partis jeunes Pendant ce saint mois d'jeûne On en a marre de cette animosité qui règne, nous divise et nous trahit Mitraillés dans cette lutte perpétuelle qu'est la quête de notre salut Bouna et Zyed, dans nos mémoires à jamais gravés Pour Bouna, Zyed, j'ai l'cur qui palpite J'ai mal quand sans état d'âme, on prend l'âme À deux d'mes frères, RR, j'ai la rage Quand les larmes ressortent sur un drame Dans l'9-3 c'est ça, c'est cette situation qu'j'condamne J'rends hommage aux familles, j'prends mon briquet, j'allume la flamme Pour qu'tu voies d'en-haut ma tristesse pendant la salate J'fais une dou3a pour qu'tu partes en paix, refré Négro, on était en exode Mais j'pense qu'ils veulent nous voir visés, nos phases macabres et nos XXX XXX faut canaliser Gardez la foi mais faut que j'aie ce condé parce que nos vies sont jeu d'l'oie Prie pour pas tomber sur la case d'un colt Une mauvaise phrase comme nos refrés jouent à Liberté ou Volt On sait comment ça finit Un clash, une course-poursuite, un crash, la suite, un putain d'incendie Deux âmes partent, un mot d'provoc' et la France crame Sarko en tête des sondages, man, à qui profite le scandale? Malaise perceptible, chômage trafic et vente d'armes Tout l'monde s'affole parce que notre rap c'est pas du France Gall Anti flics et gendarmes, politique, chantage Contrôle où les képis semblent avoir dix ans d'âge Les deuils tournent dans les p'tites villes et grands axes Comme toute tragédie, l'histoire est triste et la fin semblable J'comprends pas pourquoi la vie est si dure, man Comment ça se fait, on peut perdre sa vie bêtement Combien de temps ils vont faire pleurer nos mamans Combien de temps ils vont nous marcher sur les pieds, man Traoré et Benna ne méritaient pas ça Mouille avec la peur au ventre pour une histoire de balles Y en a marre d'être mal catalogués Le ghetto pleure c'est la rue cette réalité Cause conséquence, voilà l'revers d'la médaille Les chèques d'assurance nous ramèneront pas les deux p'tits frères die 27105, Zyed, Bouna rendent leur âme Parole de grand, personne n'oubliera cette date, ce drame Maximum respect, pensée pour leurs milles-fa Leurs proches amis pour qui ça doit vraiment pas être cile-fa Perdre un être cher aussi jeune, c'est trop dar J'pose huit roses en leur mémoire, car trop tard C'est envers mes frères que je m'adresse car cette histoire m'attriste et blesse Mon cur saigne mais seule l'encre de ma plume se verse C'est d'la haine que tu peux lire dans mes yeux Mais c'est avec le cur serré qu'j'écris, un regard vers les cieux Allah! On m'a dit d'calmer donc j'garde la rage en moi Parce qu'un Black reste un Black, même vénère il reste une proie J'ai mal mais remplace mon arme par des larmes Car les flammes qu'il peut ne feront jamais revenir vos âmes Il n'y a pas pire enfer que d'penser qu'le Paradis n'existe pas En c'moment-même, les esprits des défunts nous hantent Ambiance de paix car j'ai le mal de guerre De quartier en quartier ça brûle parce que ce sont nos frères On va laisser les rancunes en route Apporter des gerbes de fleurs aux textes pour apaiser les têtes Chaque jour, des bougies s'allument et s'éteignent Bouna et Zyed, de leurs lueurs on s'imprègne Tout arrive par ici On envisage le pire Tous en état de crise Bouna, Zyed, martyrs La violence contre l'innocence Les héros n'existent plus depuis longtemps Ils ont bafoué votre enfance Gardez-nous une place, on vient dans peu de temps Oh, tous les quartiers ont les larmes aux yeux Trop de larmes pouvant éteindre le feu qui leur traversait l'corps En traversant mon cur, mon sentiment fut renversé Par un poids-lourd immatriculé par la mort L'amour et la mort, des extrêmes qui s'kiffent à mort Zyed, Bouna, destins liés par des câbles Si mon cur aurait eu des yeux, tu l'aurais vu saigner Benna,Traoré, Allah y rahmou, Sefyu Coupés dans leur élan, trop tôt ces jeunes sont die Deux familles, toute une génération en deuil, ma gueule Ç'aurait pu être un d'tes frelons, un d'mes frelons L'idée fait froid dans l'dos alors qu'j'suis pas tant qu'ça un frileux Vu qu'j'fais partie des cibles, il est donc impossible Qu'j'y sois insensible, des familles pleurent Bouna, Zyed, partez en paix vers l'ciel Nous on continue l'combat, qu'vous soyez pas morts dans l'zef C'est avec peine et haine que j'prends c'putain d'micro Car au-devant d'la scène, t'as la mort d'mes deux frelos À qui j'dédie c'morceau pendant ce temps d'fléau Ça vient du cur khey, j't'assure qu'c'est pas du mytho En bref, malgré ma froideur, sur c'beat j'ouvre mon cur Pour rejoindre les deux familles dans leur propre douleur Et quoi qu'il arrive, pour nous, vous êtes toujours là À jamais gravés dans nos curs, Zyed et Bouna J'remplace l'alcool par de l'eau céleste, le bédo par une datte On s'connaît pas mais c'est pour Bouna et Zyed À c'que j'vois, vous aviez des potes et des gens qui vous aiment Depuis votre mort, les jeunes ont déployé leurs ailes J'ai le cur noué, Bellahi je le jure c'est vrai À nous tous, ça peut tous nous arriver J'envoie des dou3as pour vos familles, vos larmes inondent toutes nos villes Et votre mort résonne dans toutes nos vies J'peux pas camoufler ma peine, j'peux pas camoufler ma haine Hémorragie interne, j'me porte bien mais l'cur saigne Une flamme subsiste pour Bouna et Zyed Siaka, Biggie, Montfermeil Clichy Maillot, Silly, Sur-Marne-Neuilly Sachez qu'le 9-3 côté Est ne vous oublie La Tunisie, la Mauritanie aussi, ces lignes vous sont dédiées À vous et vos familles, pour vous, j'garderai bonne mine, promis Ma plume se plie, les mots sont trop lourds Des actes injustifiés qui emmènent des conséquences trop lourdes Conscients que le temps passe, de nos esprits rien ne s'efface Mes frères, je vous embrasse, nos vies s'éteignent, les frères j'vous rends hommage Le remède c'est qu'on s'entraide Tu sais pour qui on plaide, il était une fois Bouna et Zyed Partis trop tôt, Allah y rahmou, message de paix en votre mémoire Vos noms sont gravés à jamais dans notre histoire Mort subite que nous n'oublieront jamais reste gravée dans nos mémoires On peut pas s'en débarrasser comme le reflet d'un miroir Accrochés à la réalité, mes reufs s'en sortiront Triste destinée, pour réussir prêts à se prosterner Consternés par la tournure des choses Mourir, ou lutter tous pour nos familles et disparus Korozeef, message du cur Ceci nous rappelle que toute âme revient au Créateur Ouais J'ai le cur qui saigne Tant de compassion s'imprègne Au-dedans de moi, des choses me font perdre la foi De voir des jeunes s'en aller aussi souvent que ça Je compatis, c'est si triste La justice grise, nos ciels sans couleurs Un venin de couleuvre Déjà trop dans nos vies, détruit nos frères et surs Ils nous brutalisent, la justice couvre La presse se rend complice et personne ne l'ouvre La pensée réactionnaire connaît des joies intenses Quelles sont les premières victimes en proie à la violence? Ceux qui ravalent leurs mots jusqu'à vomir des pierres Ceux qu'on réprime dans le sang comme en temps de guerre Bouna et Zyed, juste jeunes et envie de vivre Qui n'en demeurent pas moins des exemples à suivre Bouna, en entendant ton nom ou en voyant ta photo Des milliers de flashbacks me remontent au cerveau Je t'avais appris à nager Je me rappelle ce jour-là, t'as failli te noyer Je t'ai côtoyé depuis ta tendre enfance Je me rappelle de toi, m'étant décroché avec la plus grande aisance La BDS a shooté votre crew Mais avec le temps cette équipe s'est dissoute Biggie, Kahi, mon p'tit frère est parti Que Allah lui ouvre les portes du paradis Encore des anges qui partent trop tôt dans l'ghetto Et la tristesse fait couler l'encre de mon stylo C'est avec la main sur l'cur que j'lâche mes mots J'ai d'la rage, j'ai d'la haine, j'ai d'la peine et j'n'arrêterai pas s'il faut Ça a toujours été nous contre eux On est rien dans c'bas monde, que Dieu vous garde Nous on restera sur nos gardes C'est dans les cieux que vos frères et surs vous regardent, Zyed et Bouna Une mesure de silence Pour nos frères Bouna, Zyed auxquels on pense À l'heure actuelle, vos noms sont gravés dans nos têtes Que vos âmes reposent en paix, c'est tout c'qu'on souhaite La main sur l'cur, la mille-fa plongée dans la douleur Triste sort, la mort est venue frapper à leur porte de bonne heure Sous nos bonnets on a d'la peine Comme tu l'sais, dans nos quartiers, seule la mort règne et les curs saignent Encore deux d'nos p'tits partis, ça suffit Pour Bouna, Zyed avec qui j'avais pas encore d'affinités C'qui n'empêche pas d'témoigner ma solidarité Militer afin d'limiter, les saignements d'nos curs déjà irrités D'une tristesse profonde, on est tous héritiers Une larme tombe, mais peut-on les éviter J'ai un frère du même âge, voilà la vérité À vous et vos familles, j'rends hommage avec sincérité J'viens rendre hommage, Mister Daï De Neuilly-sur-Marne à Clichy, j'vous épargne mes analyses car l'résultat sera l'même Ça m'fait mal, j'ai d'la peine, alors ma haine j'la canalise Rien ne pourra faire qu'ils nous reviennent, j'en ai les membres qui s'paralysent Le poing gauche serré, la tête baissée, la main droite sur l'cur J'en place une pour la famille qui auront toujours ce mal au cur J'm'exprime en leur mémoire parce qu'ils manqueront jamais à l'appel Que leur flamme s'éteigne en paix, que leurs âmes reposent en paix Une couronne de fleurs pour Zyed et Bouna Ça fait mal au cur, on ne peut que supporter leur mille-fa Difficile de consoler après la mort Sur la tombe d'un proche, c'est tellement dur de rester fort Obligé de contenir ma pensée Par respect pour leur mémoire, donc je vais me contrôler La vérité n'est jamais facile à dire Attendons de la savoir, pour l'instant calmons les tirs D'abord mes condoléances aux frères, aux surs, aux rent-p's Aux amis qui étaient si chers au cur de Zyed et Bouna Pour lesquels je cace-dédi ce rap, même si j'les connaissais as-p Mec, je suis à-l, ouais, à cent pour cent avec eux, avec mon cur et mon âme Pour que ce genre d'événement ne se perpétue as-p On tue les jeunes dans nos tiers-quar, tis-gra Faudrait qu'ça cesse parce qu'on commence à en avoir vraiment marre J'ai le cur en sang, j'ai du mal à caresser J'ai des sentiments bloqués XXX des petits frères sont die Pour m'en remettre faut plus qu'une douille, khey Je suis banlieusard, blesse pas les mêmes même si l'envie de mitraille Graille, y a cette envie de tout fumer Mais au fond ça sert à rien maintenant comme notre quartier est cramé Pour les madres, poto, fais preuve de respect Tout se paie, que leurs âmes reposent en paix Dur d'en parler sans offenser vu qu'la douleur est encore vive Ce rap est une prière pour nos deux frères partis trop vite Que Dieu les garde, que Dieu protège leurs familles Que Dieu leur donne d'la force et du courage pour affronter la vie Paix à leurs amis, soyez gardiens d'leur souvenir D'leurs visages, d'leurs sourires, sachez qu'on est tous avec vous Même si c'est l'mektoub, on s'demande quand même XXX C'est pour Zyed et Bouna, Allah y Rahmo XXX Si la douleur noyait nos âmes Si les pleurs nous arrachaient nos dernières armes Si l'on avait pris la vie de nos enfants XXX Si la douleur noyait nos âmes Si les pleurs nous arrachaient nos dernières armes Si l'on avait pris la vie de vos enfants Dans l'ghetto, on a perdu l'sourire, on n'arrive même plus à rire On a vu des frères partir et plus jamais revenir La haine, la rage, la tristesse dans nos yeux, ça m'fait tellement réfléchir Mais qui accuser, Dieu l'a voulu Il crée des trucs, comment puis-je Avoir la haine envers mon Créateur, c'est cru J'n'arrive même plus à fermer les yeux Les souvenirs du passé n'cessent de me hanter Ça m'fait bizarre d'ressasser le passé J'rends hommage à ces p'tits partis trop tôt, partis pour rien Une pensée aux familles c'est 15-24 soutien Un départ prématuré, ils sont privés de c'monde pourri On est blessés à jamais, que leurs esprits reposent en paix C'est dommage, surtout à leur âge Et j'me demande encore pourquoi on n'est pas tous devenus sages Mais l'seul message, c'est qu'y a encore des parents Qui ont perdu leurs enfants, et ça tirons-en un enseignement La vie est bien trop courte pour qu'on s'fasse la guerre La vie est bien trop courte, profitons d'nos frères S'mobiliser, c'est bien, changer les choses c'est mieux Instant d'paix en espérant qu'on vivra tous vieux Quoi qu'il arrive, on doit rendre des comptes Pose pas la question pourquoi, on y passe tous Qu'la vie soit longue ou XXX Mais la mémoire elle reste, comme quand on s'pose Y a la dignité d'deux êtres qui s'impose Quelques mesures pour la mesure du monde immonde Où on traîne nos corps en attendant la suite Que vos noms soient jamais oubliés Bouna, Zyed, c'est nous pour vous à jamais Demande du calme, ne transformons pas notre deuil en drame Laissons couler nos larmes, demande la paix face aux armes Mais t'es un fou, renoi c'est nos p'tits frères qui sont partis pour rien Toujours nos mères qui pleurent, toujours cette putain de haine au cur Cesse tes rancurs, on a l'devoir de calmer la rage Avec un grand cur, nous sommes unis pour faire un hommage Ça sera toujours les mêmes personnes qui y laisseront des plumes Notre quartier fume, il faudra bien que quelqu'un l'assume Qu'on s'le dise, y aura pas d'paix sans l'mot respect Zyed et Bouna, que vos âmes reposent en paix Négro c'est l'deuil, coupe le moteur de l'YZ Mon stylo pleure d'l'acide au nom d'Bouna et Zyed Tristesse et rage, jeunesse arrachée par la Faucheuse La mort n'attend personne et on confie son âme à Dieu Saluer la République, y a pas moyen Tout c'que j'ai retenu d'la Marseillaise,</t>
+          <t>Pour certains c'étaient des potes, et pour d'autres des p'tits d'la cité Mais seulement un sur trois a survécu dans l'électricité Ça a été une réalité dure à accepter Le 27 octobre, Zyed et Bouna nous ont quittés Dix-sept ans et quinze ans, eh, trop jeunes pour partir Trop jeunes pour dire à tout l'monde On se reverra qu'en dehors de cette terre Vu qu'on est tous des hommes, on passera tous, tôt ou tard, par la mort mes frères Quand des mômes fuient la police par peur jusqu'à perdre la vie On doit s'poser des questions, moi j'suis juste un mec qui donne son avis J'suis là pour, on a tous vu au moins une fois les civils Déraper comme des barges dans la cour On s'comprend plus, de là tout part Quand même nos ministres désignent les gosses innocents coupables Aujourd'hui j'frémis parce que j'ai trois enfants Et garde ce dernier vers, car je sais c'que sentent les parents Mon Dieu, j'pense à Zyed et son accent blédard Son sourire gentil, et son pull à capuche Tim noir Toujours serviable et jamais en colère On l'appelait Lance-Pierres, il avait une force d'homme frère J'pense à Bouna, toujours avec Harouna Tout l'temps au Chêne Pointu, pourtant il habitait la PAMA Respect aux familles Traoré et Benna Le ghetto est en pleurs, j'en perds mes mots, Allah y rahmou On veut savoir ce qu'il s'est passé On veut nous cacher la vérité Toute une communauté sous haute tension Deux vies gâchées sans explication Une famille perd son enfant Impossible d'oublier, même avec le temps Bouna, Zyed, paix à vos âmes, paix à vos âmes Oh, paix à vos âmes, oh yeah Sur ce son, on rappe, on dédie cette zik à Bouna et Zyed Non j'ai du mal à croire J'ai du mal à voir ton blaze Bouna, gravé sur du marbre Tu t'en rappelles, chaque soir des bêtes de darka sur une rocade Histoire d'être capital, t'avais une tête de plus que moi Amateur de moto, danseur de XXX À fond dans les govas et les gos, de jour en jour je deviens fou Dans ma tête, de bons moment en boucle Demande à tous, depuis qu't'es parti je ris mais y a plus goût à rire Tu manques à la famille À chaque yer-pri, je prie que Dieu vous ouvre les portes du Paradis Sur ce, j'ai les nerfs, B2G, courageux, parole de frère Hier, j'ai croisé l'émotion, elle touchait le fond J'ai croisé des jeunes et j'ai croisé des mères, donc j'ai croisé le monde J'ai croisé les doigts, crois-moi j'ai prié ma sur J'ai pris ma feuille, j'ai pris mon cur et puis j'ai crié ma peur L'amour est fiable et tu l'sais, la guerre est bad Elle et lui vous êtes Bouna, toi et moi, on est Zyed On est des anges, on est des grands, on est les enfants qui dérangent Avec le cur en sang, on chante pour tous ceux qui nous manquent Nous sommes épuisés par les pleurs, à peine quinze ans, à fleur de vie Bouna, ça fait drôle de plus t'voir en roue arrière sur ton vélo Boucle d'oreille, sapé goss'bo J'ai lancé des projectiles pour vous venger Mais rien n'vous a réveillé, Zyed, où est passée ta tête Qui nous écoutait l'soir à la fenêtre du premier étage ? Parlais pas trop, trop sage Tristesse, dépit, faiblesse nous ont envahis La France est en deuil, le ghetto pleure deux des siens La colère dans les yeux, deux enfants sont morts pour rien Une pensée pour eux, lions nos deux mains Que Dieu leur ouvre la porte des cieux et qu'ça n'arrive plus demain Y a des écoles qui brûlent et des voitures s'embrasent OK brûlons-la mais pas l'histoire de base Bouna et Zyed, deux enfants morts avant l'âge Rien qu'd'y penser, moi ça m'fout la rage, hmm Hommage à mes deux potos, qui sont partis trop tôt Quand j'regarde leurs photos, un frisson me monte au dos On n'vous verra plus en mode peace à la cité Ça fera bizarre mais c'est une triste réalité Zyed et Bouna, malheureusement, nous ont quittés Qu'ils demeurent au Paradis pour l'éternité En attendant j'ai perdu deux d'mes res-frè Si c'était à refaire, ce couplet ben je l'referais À mes potes, Zyed et Bouna Reposez en paix Allah y rahmou Pensée pour Muhittin Ma présence n'a rien d'honorable, elle est juste normale J'serai toujours auprès des miens tant qu'ils auront mal C'que j'vois dans le studio, c'est beau, c'est grand Les miens se sont unis mais pas dans l'autodestruction Parce que les miens ont une force qu'il sont les seuls à ignorer J'attends l'jour où ils vont s'lever, s'élever dans le respect Que Dieu fasse miséricorde à nos frères Zyed et Bouna Faut voir comment respecter leur mémoire Pour Bouna et Zyed Je prends ma plume en versant quelques larmes Partageant la douleur La souffrance des familles qui les pleurent Comprendre ce qu'il s'est passé Exposer la vérité au grand jour Que ce fardeau soit moins lourd, oh yeah Bouna et Zyed restent dans nos curs à tout jamais C'est pour nos minots que j'retranscris mes larmes du bout d'mon stylo Pourquoi dans nos trous à rats, s'en sortent qu'une mino' J'tire le signal d'alarme avant d'en venir aux armes Paix à vos âmes et à vos XXX Morts pour rien, c'est l'slogan qui fera p't-être réagir ceux qui siègent à l'Assemblée Nous on s'est rassemblés pour rendre hommage à nos morts C'est à eux qu'on a dédié l'ceau-mor Traoré et Benna, c'est à vous qu'on a dédié l'ceau-mor Le cur serré devant ma feuille blanche La main tremblante, mal au crâne de voir qu'on nous écoute que quand les coins crament Toujours la même, c'est la merde, ainsi d'suite On veut fuir la misère à chaque course-poursuite Que Dieu donne la force aux familles en deuil À leurs proches pour surmonter cette dure épreuve Dites à Nicolas que malheureusement, derrière les voitures qui brûlent C'est la détresse des quartiers qui hurle J'lève la main en l'air à la mémoire de nos p'tits frères J'lève la main en l'air pour leurs pères et pour leurs mères J'parle avec le cur au nom d'une jeunesse en détresse Vas-y cours petit, cours, pour fuir la tristesse Qu'Allah leur pardonne d'avoir provoqué un drame Aujourd'hui j'appelle au calme, il faudrait éteindre les flammes L'âme est touchée mais le corps se relèvera Je demande aux miens de ne jamais baisser les bras Mourir d'sa belle mort est la chose la plus belle au monde Mais l'destin en a voulu autrement, quelle chose immonde Fin d'une vie humaine et des plaisirs éphémères d'la vie Nos curs pleurent de désespoir et la haine nous envahit Enivrés d'tristesse, leur non-présence nous blesse sans cesse L'ciel a voulu qu'ils décèdent, guettent dans l'au-delà mais laisse Une pensée à ces hommes qui n'vivent plus qu'dans nos mémoires Quelques temps d'silence à leurs personnes XXX La disparition de deux êtres innocents et honnêtes A provoqué beaucoup de rivières de larmes sur les pommettes Adolescents laissant derrière leur dos Des centaines de pleurs, des curs blessés et c'est en s'en- Traidant, en se serrant les coudes Que l'on peut rester forts quand la mort fait escale chez nous Salam à vous, tenez le coup, uvrez dans l'bien Difficile pour une famille d'avancer avec un membre en moins J'commence en faisant deux mesures de silence pour les enfances perdues En guise d'insulte pour tous les esprits tordus ... Sa mère! J'ai les nerfs de voir nos pères en larmes J'ai les nerfs de voir mes frères s'noyer dans l'drame Et lors d'un banal contrôle dans nos halls on a le rôle d'un animal pour la Gaule De vandales pour les héritiers d'De Gaulle XXX La France pays de rencontres XXX XXX La douleur parle, nous on perd des frères C'est juste un appel au calme dans cette époque de merde Paix à la famille, laissez-la faire son deuil J'verse une goutte sur l'sol et vers l'ciel j'jette un il Ça fait mal quand quelqu'un part mais c'est Dieu qui décide On s'retrouvera plus tard, sur la route sur laquelle on s'destine Morts pour rien, pour vous on a beaucoup d'estime Que Dieu vous garde, OK, reposez en paix À nos frères morts violemment, aux plus jeunes qui prouvent qu'on peut réussir brillamment Le plus important, l'dîn, on veut tous partir dignement Rattraper nos péchés, à part les drames, rien pour nous unir C'est c'qui nous manque, combien passeront la barre des trente Vies courtes mais intenses, profite des tiens, porte avec honneur toutes nos valeurs Décharger les mamas du poids d'nos malheurs Dramatique pour les familles blessées dans l'âme Résister pour exister, wesh les p'tits frères, faut éviter l'haram Y a trop d'souffrances au cur des abysses dans les quartiers d'France Alerte maximum pour les mômes, état d'urgence J'porte des fleurs pour les morts, faut qu'on y pense Et qu'on sème de l'espoir pour le futur Même si la poisse rend l'quotidien trop dur, même si les pleurs parlent quand des gosses partent N'oublions pas qu'les anges ne meurent pas C'est juste quelques mots en votre mémoire Votre histoire gravée sur le marbre, un hommage pour dire qu'y en a marre Un hommage à Benna, Traoré Deux p'tits frangins Allah y rahmou, qui sont partis haja Morts pour rien, là où vous êtes Inch'Allah vous êtes bien Beau temps, mauvais temps, vous étiez toujours contents J'ai du mal à réaliser qu'le temps nous a séparés Le mal qu'ils nous ont fait, ils pourront jamais le réparer XXX, Traoré Quelle époque nous vivons, quelle époque C'est pour XXX Quelle époque nous vivons, perdre sa vie sans raison Sans explication, la banlieue pleure à l'unisson Mais quelle époque nous vivons? On veut savoir le pourquoi du comment Dialogue de sourds, on nous répond en nous insultant Mais quelle époque nous vivons? Trop p'tits pour partir d'nos rangs Pas assez d'mots pour apaiser les parents Mais quelle époque nous vivons? D'autres agissent en cassant Manière douce, nous on transforme notre rage en chanson J'connais l'respect, pas celui qui sort d'la bouche des autres Celui qu'on m'a appris depuis tout gosse mais on est tous des hommes Ça m'désole et on s'demande que faire face à tout c'désordre Et pour s'faire entendre, faut qu'la voix d'mes couz' résonne Plus rien n'est sûr quand y a l'sheitan et ses miss qui zonent Mais qu'ils ont, à croire que ça leur plaît d'voir une enfance qui XXX Pendant qu'les best pigeonnent, j'vois le reste qui chôme Nous on est jeunes, plein d'avenir et c'est toute ma tristesse qui somme Dites-moi comment régler les problèmes en supprimant les solutions Ce système a trop sous-estimé sa population L'oppression a une faille, nous a enlevé deux de nos frères C'est les larmes aux yeux que l'on pratique notre prière 93, volcan en éruption, banlieue poudrière On n'éteint pas notre flamme, c'est jusqu'à la mort qu'on sera solidaire Tremblay en hommage, ma ville crame, lâchez les Canadair Y a rien à dire, dors avant d'partir en guerre Histoire triste, j'suis pas là pour m'faire d'la pub Les chtars guidés par Ibliss frère, ici ça devient rude Perdre deux d'nos proches pendant l'ramdam Une pensée hardcore pour les rents-pa qui pleurent l'âme I.S.L.A.M., ma source vitale Apprendre la mauvaise nouvelle d'un mort, mon frère, ça on l'vit tous mal J'accepte plus l'mektoub, les soucis ressurgissent Combien d'enfants avec une tombe avant qu'la France agisse Respect aux familles, aux amis, aux manifestants Existants, restant résistants Et exigeant, détestant les forces, les testant Et quel ordre? C'est l'désordre qui est présent Fort déplaisant, unis dans tous les sens Munis d'encre ou d'essence personne n'est perso Ou hésitant, devant c't accident attristant A cité ta cité s'assistant Tata nzambé XXX bongo XXX Benna, Traoré Ouais, c'est du meurtre, qu'c'est l'humeur vraie tumeur En attendant, s'rassemblant dans la lueur, truc flambant XXX tata na bisso Dynam, ouais ouais ouais ouais, hein C'est trop hard d'être morts pour rien ghetto hardcore cousin XXX com si cété ti moun a mwen Ka ressenti douleur là tout au fond a chair mwen Lé pa imaginé sa k'arrivé des frew mwen Des jeunes XXX morts XXX pour rien Allez XXX maman Traoré Famille Benna XXX j'en ai oublié Tou lé -XXX toujou là, pas la France XXX sa An juste ka espérer XXX Le mal au moment qu'tu ressens parce que t'es blessé par le mal qui ronge Tu tombes dans la dépression parce que les événements pour toi sont étranges Pour tous mes frères qui sont victimes d'avoir perdu un être cher Parce que le fruit d'un amour fraternel vient de disparaître J'ai reflété un mal de vivre parce que mes nerfs sont devenus ivres Parce que les gens ne m'épargnent pas, j'ai dû survivre Un petit sourire levé vers l'ciel, une éclaircie, l'soleil Ça prouve qu'on doit sécher nos larmes parce que nos âmes sont éternelles Dur d'clamer la paix alors qu'la liste ne fait qu's'allonger Ça m'enrage que nos vies s'embrasent pendant qu'Arnaud rêve à la vie d'Pete Sampras Les meilleurs s'en vont toujours les premiers, c'est pas d'leur faute Les prolos s'lavent les mains dans l'sang des nôtres Arrête de foutre le feu chez nos daronnes, déjà qu'elles sont mal logées Au fond, ça n'arrangera rien, tu sais Pense à nos martyrs et rappelle-toi qu'avant d'partir Il te faudra chérir la mif, qu'on arrête de courir car tu peux mourir vite Même un daron du bled fier ne peut retenir ses larmes Face à des mères accablées comme celles de Bouna et Zyed L'insomnie s'empare des familles du défunt Mais des fois, il n'y a pas de douleur que le sommeil sache vaincre Hache de guerre à gauche frolo pour un effort de paix C'est l'9-3 qui pleure quand Clichy-sous-Bois est en deuil J'ai de la peine car le décès de certains me reviennent en tête Les frères, laissez-vous bercer par la tristesse Sauvons les deux âmes Comment résister, honorer son charme Zyed et Bouna Nous restons sans voix Quelle choc de ne plus vous revoir Sur mon visage ne cessent de couler les larmes Que Dieu vous garde pour l'éternité J'ai l'cur brisé, car j'ai souvent rêvé d'un monde meilleur Que la guérilla urbaine et d'enterrer deux frères Traoré Benna, que Dieu vous pardonne Que Dieu vous ouvre les portes du Paradis Que la tension se calme ici-bas J'suis un frère parmi tant d'autres J'voulais faire passer un message de paix Mon phrasé porte le deuil On vient d'perdre deux âmes fraîches, deux anges On vient encore d'perdre deux p'tits frères On leur rend hommage le cur noyé dans nos larmes Nos plumes portent nos peines et les blessures de nos âmes Les cris sincères, ouala j'ai mal La douleur est intense et même le silence pleure Pas là pour condamner l'coupable, Dieu l'fera Lui-même Et qu'la paix soit avec la famille d'ces deux lumières Deux gouttes qui débordent le vase, écoute Le mal se disperse, les man se disent prêts à agir et à serrer les coudes Les poings en l'air et même sur les I Quand on est solidaire, qu'on attise la flamme et à deux morts on l'dédie Trop d'sirènes, pompiers flics et ambulances Qu'on allume un cierge au lieu d'ces ambiances brûlantes La délinquance n'est pas une profession dans la street Qu'ils arrêtent leurs étiquettes et d'nous classer dans leurs putain d'statistiques 271005, c'est la fin d'une vie, les larmes d'une mère Le calvaire d'un père et l'combat d'un grand frère Une sur perdue qui voit son frère partir au plus jeune âge Une mort incomprise et toute une tess qui prend la rage Un événement qui prend une tournure grave, des nuits d'émeute Avec une seule idée en tête, faut qu'y en ait un qui crève On veut la vérité pour Zyed et Bouna Une forte pensée pour les familles, Traoré Benna Crois-moi, j'ai eu froid dans le dos En entendant les commentaires de politiques au lendemain du drame Quand la loi et l'ordre font peur à des gosses et que le pire se passe Le respect, c'était de faire profil bas Il nous faut des responsables, ça doit pas toujours marcher dans un sens Parce que c'qu'il s'est passé n'a pas d'sens Mes pensées vont aux familles, alors rest in peace Mon Dieu, entends nos prières, c'est pas juste c'qui arrive Deux frères partent, des curs fanent, la violence pour morphine, frère Mon cur saigne, mon cur parle, mon cur aime, mon cur bat Aussi vite que l'approche de la vérité, donc militer Pour la même cause, même veine, même combat Familles Traoré et Benna Beaucoup d'force et beaucoup d'chance pour la suite frères, pour tous les miens On a les mains réanimées par les armes Ensanglantées mais vite lavées par les larmes, paix à leurs âmes Nettoyer les gouttes et lâche même des gouttes et Les frères sont dégoûtés, les parents sont alarmés Morts pour rien, seul l'avenir nous l'dira Ou en tirer une leçon les jours à venir on verra Pour l'heure, une prière pour les p'tits frères Une pensée à leurs parents en espérant d'meilleurs moments Né d'une mort, l'espoir vit, restons forts Clichy-sous-Bois Montfermeil présentent leur reconnaissance Des adolescents parés Pour cette oppression incessante, donc une vie de tarés Grandir sous l'enseigne Montfermeil Clichy Mon cur saigne, tu sais, tant de gâchis Re-fré, réfléchis, deux vies ont fléchi Ils ont dit qu'on agissait par haine Plus rien ne sert de défendre une vie déjà vaine Mais allez dire ça aux mères Que leurs fils méritait une vie éphémère XXX Parce qu'on nous a traités d'vauriens J'dédicace aux gosses morts pour rien Seule la violence du désespoir dégage cette odeur de peur Quand un jeune des ghettos meurt, je pleure De colère, c'est ça qui fait brûler les voitures Saoulé d'devoir enterrer les nôtres, vois-tu Français, écoute pas leurs putain d'histoires Si on agit ainsi c'est par la force du désespoir Comme à Clichy quand la mort t'électrocute Et combien d'raisons justifie leur mort? Aucune Le ghetto parle, le ghetto chante, le ghetto pleure Des larmes de peine C'est triste à dire, qu'il faille le pire Pour qu'on écoute nos curs qui saignent Mes pensées vont vers les familles Benna et Traoré, yeah Le ghetto pleure ces deux adolescents Un message de paix dans toute cette effervescence J'parle au nom du 7-7 Mes amitié pour les familles des défunts, c'est pour ces jeunes qu'on s'mobilise Une prose contre une rose Hommage à Bouna et Zyed, nos banlieues pleurent L'onde de choc retentit, j'crie ma douleur Un requiem pour ceux qu'on aime Nos HLM sont en berne, trop d'pertes et d'chrysanthèmes J'veux pas finir dans les bras du système Électrocuté ou cané, alors j'tire la sonnette d'alerte La mort ne donne jamais de rendez-vous Les khos, levez vos index dès que vous savez qu'elle va venir à vous J'avoue, ça fait si mal d'voir partir des p'tits et des fillettes De voir que de drames, la vie est ainsi faite Qu'Allah fasse miséricodre à Bouna et à Zyed Ils voudraient nous étouffer pour mieux nous avaler comme le ferait un boa La tasse ils veulent nous faire boire Paix à nos morts, d'ici à Clichy-sous-Bois Ils sont morts, ma voix gèle, j'suis rouge, tout est pêle-mêle J'vous connaissais pas mais au fond vous êtes une partie d'moi Moi j'pleure, rien que j'pleure C'est dur, la France a peur, comprenez notre émotion Trop d'nos frères à terre, deux ouais, ils étaient deux Pour le troisième, j'remercie Dieu Hein, sois fort Muhittin J't'assure, sois fort C'est pour nos deux p'tits frères, rest in peace Que j'lance d'ici, d'Évry-Courcouronnes à Clichy Si si, à prendre les jeunes pour des imbéciles C'est la douleur du ghetto qui se transforme en missile Et la banlieue ne veut plus lécher la vitrine Elle est brisée, et c'est la vérité que l'on vise La rue a mal, mais pas que depuis hier Et aujourd'hui les pierres ont remplacé les prières Hommage aux familles blessées Agressées dans leur chair, Seigneur dissipe leur gêne et le poids de leur détresse Chéris nos p'tits frères partis jeunes Pendant ce saint mois d'jeûne On en a marre de cette animosité qui règne, nous divise et nous trahit Mitraillés dans cette lutte perpétuelle qu'est la quête de notre salut Bouna et Zyed, dans nos mémoires à jamais gravés Pour Bouna, Zyed, j'ai l'cur qui palpite J'ai mal quand sans état d'âme, on prend l'âme À deux d'mes frères, RR, j'ai la rage Quand les larmes ressortent sur un drame Dans l'9-3 c'est ça, c'est cette situation qu'j'condamne J'rends hommage aux familles, j'prends mon briquet, j'allume la flamme Pour qu'tu voies d'en-haut ma tristesse pendant la salate J'fais une dou3a pour qu'tu partes en paix, refré Négro, on était en exode Mais j'pense qu'ils veulent nous voir visés, nos phases macabres et nos XXX XXX faut canaliser Gardez la foi mais faut que j'aie ce condé parce que nos vies sont jeu d'l'oie Prie pour pas tomber sur la case d'un colt Une mauvaise phrase comme nos refrés jouent à Liberté ou Volt On sait comment ça finit Un clash, une course-poursuite, un crash, la suite, un putain d'incendie Deux âmes partent, un mot d'provoc' et la France crame Sarko en tête des sondages, man, à qui profite le scandale? Malaise perceptible, chômage trafic et vente d'armes Tout l'monde s'affole parce que notre rap c'est pas du France Gall Anti flics et gendarmes, politique, chantage Contrôle où les képis semblent avoir dix ans d'âge Les deuils tournent dans les p'tites villes et grands axes Comme toute tragédie, l'histoire est triste et la fin semblable J'comprends pas pourquoi la vie est si dure, man Comment ça se fait, on peut perdre sa vie bêtement Combien de temps ils vont faire pleurer nos mamans Combien de temps ils vont nous marcher sur les pieds, man Traoré et Benna ne méritaient pas ça Mouille avec la peur au ventre pour une histoire de balles Y en a marre d'être mal catalogués Le ghetto pleure c'est la rue cette réalité Cause conséquence, voilà l'revers d'la médaille Les chèques d'assurance nous ramèneront pas les deux p'tits frères die 27105, Zyed, Bouna rendent leur âme Parole de grand, personne n'oubliera cette date, ce drame Maximum respect, pensée pour leurs milles-fa Leurs proches amis pour qui ça doit vraiment pas être cile-fa Perdre un être cher aussi jeune, c'est trop dar J'pose huit roses en leur mémoire, car trop tard C'est envers mes frères que je m'adresse car cette histoire m'attriste et blesse Mon cur saigne mais seule l'encre de ma plume se verse C'est d'la haine que tu peux lire dans mes yeux Mais c'est avec le cur serré qu'j'écris, un regard vers les cieux Allah! On m'a dit d'calmer donc j'garde la rage en moi Parce qu'un Black reste un Black, même vénère il reste une proie J'ai mal mais remplace mon arme par des larmes Car les flammes qu'il peut ne feront jamais revenir vos âmes Il n'y a pas pire enfer que d'penser qu'le Paradis n'existe pas En c'moment-même, les esprits des défunts nous hantent Ambiance de paix car j'ai le mal de guerre De quartier en quartier ça brûle parce que ce sont nos frères On va laisser les rancunes en route Apporter des gerbes de fleurs aux textes pour apaiser les têtes Chaque jour, des bougies s'allument et s'éteignent Bouna et Zyed, de leurs lueurs on s'imprègne Tout arrive par ici On envisage le pire Tous en état de crise Bouna, Zyed, martyrs La violence contre l'innocence Les héros n'existent plus depuis longtemps Ils ont bafoué votre enfance Gardez-nous une place, on vient dans peu de temps Oh, tous les quartiers ont les larmes aux yeux Trop de larmes pouvant éteindre le feu qui leur traversait l'corps En traversant mon cur, mon sentiment fut renversé Par un poids-lourd immatriculé par la mort L'amour et la mort, des extrêmes qui s'kiffent à mort Zyed, Bouna, destins liés par des câbles Si mon cur aurait eu des yeux, tu l'aurais vu saigner Benna,Traoré, Allah y rahmou, Sefyu Coupés dans leur élan, trop tôt ces jeunes sont die Deux familles, toute une génération en deuil, ma gueule Ç'aurait pu être un d'tes frelons, un d'mes frelons L'idée fait froid dans l'dos alors qu'j'suis pas tant qu'ça un frileux Vu qu'j'fais partie des cibles, il est donc impossible Qu'j'y sois insensible, des familles pleurent Bouna, Zyed, partez en paix vers l'ciel Nous on continue l'combat, qu'vous soyez pas morts dans l'zef C'est avec peine et haine que j'prends c'putain d'micro Car au-devant d'la scène, t'as la mort d'mes deux frelos À qui j'dédie c'morceau pendant ce temps d'fléau Ça vient du cur khey, j't'assure qu'c'est pas du mytho En bref, malgré ma froideur, sur c'beat j'ouvre mon cur Pour rejoindre les deux familles dans leur propre douleur Et quoi qu'il arrive, pour nous, vous êtes toujours là À jamais gravés dans nos curs, Zyed et Bouna J'remplace l'alcool par de l'eau céleste, le bédo par une datte On s'connaît pas mais c'est pour Bouna et Zyed À c'que j'vois, vous aviez des potes et des gens qui vous aiment Depuis votre mort, les jeunes ont déployé leurs ailes J'ai le cur noué, Bellahi je le jure c'est vrai À nous tous, ça peut tous nous arriver J'envoie des dou3as pour vos familles, vos larmes inondent toutes nos villes Et votre mort résonne dans toutes nos vies J'peux pas camoufler ma peine, j'peux pas camoufler ma haine Hémorragie interne, j'me porte bien mais l'cur saigne Une flamme subsiste pour Bouna et Zyed Siaka, Biggie, Montfermeil Clichy Maillot, Silly, Sur-Marne-Neuilly Sachez qu'le 9-3 côté Est ne vous oublie La Tunisie, la Mauritanie aussi, ces lignes vous sont dédiées À vous et vos familles, pour vous, j'garderai bonne mine, promis Ma plume se plie, les mots sont trop lourds Des actes injustifiés qui emmènent des conséquences trop lourdes Conscients que le temps passe, de nos esprits rien ne s'efface Mes frères, je vous embrasse, nos vies s'éteignent, les frères j'vous rends hommage Le remède c'est qu'on s'entraide Tu sais pour qui on plaide, il était une fois Bouna et Zyed Partis trop tôt, Allah y rahmou, message de paix en votre mémoire Vos noms sont gravés à jamais dans notre histoire Mort subite que nous n'oublieront jamais reste gravée dans nos mémoires On peut pas s'en débarrasser comme le reflet d'un miroir Accrochés à la réalité, mes reufs s'en sortiront Triste destinée, pour réussir prêts à se prosterner Consternés par la tournure des choses Mourir, ou lutter tous pour nos familles et disparus Korozeef, message du cur Ceci nous rappelle que toute âme revient au Créateur Ouais J'ai le cur qui saigne Tant de compassion s'imprègne Au-dedans de moi, des choses me font perdre la foi De voir des jeunes s'en aller aussi souvent que ça Je compatis, c'est si triste La justice grise, nos ciels sans couleurs Un venin de couleuvre Déjà trop dans nos vies, détruit nos frères et surs Ils nous brutalisent, la justice couvre La presse se rend complice et personne ne l'ouvre La pensée réactionnaire connaît des joies intenses Quelles sont les premières victimes en proie à la violence? Ceux qui ravalent leurs mots jusqu'à vomir des pierres Ceux qu'on réprime dans le sang comme en temps de guerre Bouna et Zyed, juste jeunes et envie de vivre Qui n'en demeurent pas moins des exemples à suivre Bouna, en entendant ton nom ou en voyant ta photo Des milliers de flashbacks me remontent au cerveau Je t'avais appris à nager Je me rappelle ce jour-là, t'as failli te noyer Je t'ai côtoyé depuis ta tendre enfance Je me rappelle de toi, m'étant décroché avec la plus grande aisance La BDS a shooté votre crew Mais avec le temps cette équipe s'est dissoute Biggie, Kahi, mon p'tit frère est parti Que Allah lui ouvre les portes du paradis Encore des anges qui partent trop tôt dans l'ghetto Et la tristesse fait couler l'encre de mon stylo C'est avec la main sur l'cur que j'lâche mes mots J'ai d'la rage, j'ai d'la haine, j'ai d'la peine et j'n'arrêterai pas s'il faut Ça a toujours été nous contre eux On est rien dans c'bas monde, que Dieu vous garde Nous on restera sur nos gardes C'est dans les cieux que vos frères et surs vous regardent, Zyed et Bouna Une mesure de silence Pour nos frères Bouna, Zyed auxquels on pense À l'heure actuelle, vos noms sont gravés dans nos têtes Que vos âmes reposent en paix, c'est tout c'qu'on souhaite La main sur l'cur, la mille-fa plongée dans la douleur Triste sort, la mort est venue frapper à leur porte de bonne heure Sous nos bonnets on a d'la peine Comme tu l'sais, dans nos quartiers, seule la mort règne et les curs saignent Encore deux d'nos p'tits partis, ça suffit Pour Bouna, Zyed avec qui j'avais pas encore d'affinités C'qui n'empêche pas d'témoigner ma solidarité Militer afin d'limiter, les saignements d'nos curs déjà irrités D'une tristesse profonde, on est tous héritiers Une larme tombe, mais peut-on les éviter J'ai un frère du même âge, voilà la vérité À vous et vos familles, j'rends hommage avec sincérité J'viens rendre hommage, Mister Daï De Neuilly-sur-Marne à Clichy, j'vous épargne mes analyses car l'résultat sera l'même Ça m'fait mal, j'ai d'la peine, alors ma haine j'la canalise Rien ne pourra faire qu'ils nous reviennent, j'en ai les membres qui s'paralysent Le poing gauche serré, la tête baissée, la main droite sur l'cur J'en place une pour la famille qui auront toujours ce mal au cur J'm'exprime en leur mémoire parce qu'ils manqueront jamais à l'appel Que leur flamme s'éteigne en paix, que leurs âmes reposent en paix Une couronne de fleurs pour Zyed et Bouna Ça fait mal au cur, on ne peut que supporter leur mille-fa Difficile de consoler après la mort Sur la tombe d'un proche, c'est tellement dur de rester fort Obligé de contenir ma pensée Par respect pour leur mémoire, donc je vais me contrôler La vérité n'est jamais facile à dire Attendons de la savoir, pour l'instant calmons les tirs D'abord mes condoléances aux frères, aux surs, aux rent-p's Aux amis qui étaient si chers au cur de Zyed et Bouna Pour lesquels je cace-dédi ce rap, même si j'les connaissais as-p Mec, je suis à-l, ouais, à cent pour cent avec eux, avec mon cur et mon âme Pour que ce genre d'événement ne se perpétue as-p On tue les jeunes dans nos tiers-quar, tis-gra Faudrait qu'ça cesse parce qu'on commence à en avoir vraiment marre J'ai le cur en sang, j'ai du mal à caresser J'ai des sentiments bloqués XXX des petits frères sont die Pour m'en remettre faut plus qu'une douille, khey Je suis banlieusard, blesse pas les mêmes même si l'envie de mitraille Graille, y a cette envie de tout fumer Mais au fond ça sert à rien maintenant comme notre quartier est cramé Pour les madres, poto, fais preuve de respect Tout se paie, que leurs âmes reposent en paix Dur d'en parler sans offenser vu qu'la douleur est encore vive Ce rap est une prière pour nos deux frères partis trop vite Que Dieu les garde, que Dieu protège leurs familles Que Dieu leur donne d'la force et du courage pour affronter la vie Paix à leurs amis, soyez gardiens d'leur souvenir D'leurs visages, d'leurs sourires, sachez qu'on est tous avec vous Même si c'est l'mektoub, on s'demande quand même XXX C'est pour Zyed et Bouna, Allah y Rahmo XXX Si la douleur noyait nos âmes Si les pleurs nous arrachaient nos dernières armes Si l'on avait pris la vie de nos enfants XXX Si la douleur noyait nos âmes Si les pleurs nous arrachaient nos dernières armes Si l'on avait pris la vie de vos enfants Dans l'ghetto, on a perdu l'sourire, on n'arrive même plus à rire On a vu des frères partir et plus jamais revenir La haine, la rage, la tristesse dans nos yeux, ça m'fait tellement réfléchir Mais qui accuser, Dieu l'a voulu Il crée des trucs, comment puis-je Avoir la haine envers mon Créateur, c'est cru J'n'arrive même plus à fermer les yeux Les souvenirs du passé n'cessent de me hanter Ça m'fait bizarre d'ressasser le passé J'rends hommage à ces p'tits partis trop tôt, partis pour rien Une pensée aux familles c'est 15-24 soutien Un départ prématuré, ils sont privés de c'monde pourri On est blessés à jamais, que leurs esprits reposent en paix C'est dommage, surtout à leur âge Et j'me demande encore pourquoi on n'est pas tous devenus sages Mais l'seul message, c'est qu'y a encore des parents Qui ont perdu leurs enfants, et ça tirons-en un enseignement La vie est bien trop courte pour qu'on s'fasse la guerre La vie est bien trop courte, profitons d'nos frères S'mobiliser, c'est bien, changer les choses c'est mieux Instant d'paix en espérant qu'on vivra tous vieux Quoi qu'il arrive, on doit rendre des comptes Pose pas la question pourquoi, on y passe tous Qu'la vie soit longue ou XXX Mais la mémoire elle reste, comme quand on s'pose Y a la dignité d'deux êtres qui s'impose Quelques mesures pour la mesure du monde immonde Où on traîne nos corps en attendant la suite Que vos noms soient jamais oubliés Bouna, Zyed, c'est nous pour vous à jamais Demande du calme, ne transformons pas notre deuil en drame Laissons couler nos larmes, demande la paix face aux armes Mais t'es un fou, renoi c'est nos p'tits frères qui sont partis pour rien Toujours nos mères qui pleurent, toujours cette putain de haine au cur Cesse tes rancurs, on a l'devoir de calmer la rage Avec un grand cur, nous sommes unis pour faire un hommage Ça sera toujours les mêmes personnes qui y laisseront des plumes Notre quartier fume, il faudra bien que quelqu'un l'assume Qu'on s'le dise, y aura pas d'paix sans l'mot respect Zyed et Bouna, que vos âmes reposent en paix Négro c'est l'deuil, coupe le moteur de l'YZ Mon stylo pleure d'l'acide au nom d'Bouna et Zyed Tristesse et rage, jeunesse arrachée par la Faucheuse La mort n'attend personne et on confie son âme à Dieu Saluer la République, y a pas moyen Tout c'que j'ai retenu d'la Marseillaise, c'est aux armes, ci</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2244,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>... Même les mecs des blocs ils ont faim ... ... M Dakar contrebande toujours anti forces de l'ordre Nous on vit le jour mais la nuit on fait du troc Baise ma vie de négro dès que je sors de l'autoroute Les soldats que j'écoute c'est Balastik puis Snoop Et je mens tasspé cherche des échappatoires J'hallucine quand le juge me parle de liberté provisoire Sors un rasoir tranche une gorge puis après une langue Y'en a trop qui parlent mal sur Ghtto Fab Gang Okay-kay-kay je paie la caution et la dot à ta sour Je fais des bails, on se voit en bas du bloc tout à l'heure ... Je vais boire du Hennesy avec les mecs de Grigny Une parole de travers et je t'arrache à la vie Éternellement tu roupilles frère avec les momies C'est quoi les bails négro ? Moi j'entends que bruit Si le glock te tue pas ce sera bientôt le UZI You might also like ... Même les mecs des blocs ils ont faim</t>
+          <t>... Même les mecs des blocs ils ont faim ... ... M Dakar contrebande toujours anti forces de l'ordre Nous on vit le jour mais la nuit on fait du troc Baise ma vie de négro dès que je sors de l'autoroute Les soldats que j'écoute c'est Balastik puis Snoop Et je mens tasspé cherche des échappatoires J'hallucine quand le juge me parle de liberté provisoire Sors un rasoir tranche une gorge puis après une langue Y'en a trop qui parlent mal sur Ghtto Fab Gang Okay-kay-kay je paie la caution et la dot à ta sour Je fais des bails, on se voit en bas du bloc tout à l'heure ... Je vais boire du Hennesy avec les mecs de Grigny Une parole de travers et je t'arrache à la vie Éternellement tu roupilles frère avec les momies C'est quoi les bails négro ? Moi j'entends que bruit Si le glock te tue pas ce sera bientôt le UZI ... Même les mecs des blocs ils ont faim</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2261,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Je parle pour de vrai, maille pour de vrai T'entends le bruit du fer, tu sais que c'est un vrai Les billets dans mon clip, frère sont des vrais Gangster en grand boubou, ça aussi c'est vrai Dakar pharmacie, bosse pour de vrai plus de 100 000 albums, vendus pour de vrai Les rares de ma cité racaillent pour de vrai Joue pas les och' ici, tu meurs pour de vrai En avance sur mon temps, je suis un prématuré Plein de sang en Afrique, je suis un enfant mort-né Elucider le mystère, de quelques négros suspects Comme Moïse au Mont Sinaï frérot je viens te guider Passant par la Casamance, et le Bois Sacré Maquisards et rebelles, sud sénégalais Trafiquants en tout genre, héroïne et cc Pas un métier dans le crime, qu'on a pas exercé frère! On vit dans des réserves, parqués comme des animaux On veut de la viande fraîche, pas des haricots Dakar libre-échange, recel et contrebande Les corones pleines, nique le reste du monde Viens apprendre l'Islam, je ne suis pas un exemple N'écoute pas mon pe-ra, boy écoute les imams Prêcher dans le rap, déjà c'est haram, à part les rues de Dakar, je pourrais rien t'apprendre C'est la famille mon négro, au royaume des lionceaux Psychopathe comme Hannibal, dans le Silence Des Agneaux J'entends l'air dans ma cage, laisse la gorge trouée Je m'en bas les couilles si après, l'Etat voudra m'écrouer Maintenant ils veulent m'expulser puisque je dis la vérité Devant le palais de justice, m'humilier me traîner Ils vont jusqu'à collaborer, avec les traîtres de la cité Qui jouent les gangsters, mais le soir vont tapiner Devant les keufs c'est pas du bluff, ouais négro ils donnent leur 'ssef Pour une poignet de dollar, balance le nom de ton reuf' J'irais faire ma peine, j'irais cracher ma haine, en ? ou dans les rues de Cayenne Frère ! You might also like On vit dans des réserves, parqués comme des animaux On veut de la viande fraîche, pas des haricots Dakar libre-échange, recel et contrebande Les corones pleines, nique le reste du monde</t>
+          <t>Je parle pour de vrai, maille pour de vrai T'entends le bruit du fer, tu sais que c'est un vrai Les billets dans mon clip, frère sont des vrais Gangster en grand boubou, ça aussi c'est vrai Dakar pharmacie, bosse pour de vrai plus de 100 000 albums, vendus pour de vrai Les rares de ma cité racaillent pour de vrai Joue pas les och' ici, tu meurs pour de vrai En avance sur mon temps, je suis un prématuré Plein de sang en Afrique, je suis un enfant mort-né Elucider le mystère, de quelques négros suspects Comme Moïse au Mont Sinaï frérot je viens te guider Passant par la Casamance, et le Bois Sacré Maquisards et rebelles, sud sénégalais Trafiquants en tout genre, héroïne et cc Pas un métier dans le crime, qu'on a pas exercé frère! On vit dans des réserves, parqués comme des animaux On veut de la viande fraîche, pas des haricots Dakar libre-échange, recel et contrebande Les corones pleines, nique le reste du monde Viens apprendre l'Islam, je ne suis pas un exemple N'écoute pas mon pe-ra, boy écoute les imams Prêcher dans le rap, déjà c'est haram, à part les rues de Dakar, je pourrais rien t'apprendre C'est la famille mon négro, au royaume des lionceaux Psychopathe comme Hannibal, dans le Silence Des Agneaux J'entends l'air dans ma cage, laisse la gorge trouée Je m'en bas les couilles si après, l'Etat voudra m'écrouer Maintenant ils veulent m'expulser puisque je dis la vérité Devant le palais de justice, m'humilier me traîner Ils vont jusqu'à collaborer, avec les traîtres de la cité Qui jouent les gangsters, mais le soir vont tapiner Devant les keufs c'est pas du bluff, ouais négro ils donnent leur 'ssef Pour une poignet de dollar, balance le nom de ton reuf' J'irais faire ma peine, j'irais cracher ma haine, en ? ou dans les rues de Cayenne Frère ! On vit dans des réserves, parqués comme des animaux On veut de la viande fraîche, pas des haricots Dakar libre-échange, recel et contrebande Les corones pleines, nique le reste du monde</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2278,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Sens le meurtre frérot à chaque fois que je parle Et je plaide coupable juste comme Lee Oswald Ambiance western et le flingue étincelle Moi je plante l'épée juste comme ... Reste à terre tocard droit comme une flatline J'étais à l'ancienne négro c'est Rapline Meurtri frérot Kennedy à Dallas Y'a pas eu de héros depuis moi dans ma race Niggaz die pour moi, d'autres rident pour moi ... C'est oeil pour oeil dent pour dent mon renoi Tu shootes sur moi, moi je shoote sur toi ! T'as des flingues mon frère j'ai des flingues comme toi ... C'est Dakar sniper au bout du rouleau compresseur Les yeux bandés à fond dans une compressor ... C'est oeil pour oeil dent pour dent mon renoi Tu shootes sur moi, moi je shoote sur toi ! T'as des flingues mon frère j'ai des flingues comme toi ...You might also like</t>
+          <t>Sens le meurtre frérot à chaque fois que je parle Et je plaide coupable juste comme Lee Oswald Ambiance western et le flingue étincelle Moi je plante l'épée juste comme ... Reste à terre tocard droit comme une flatline J'étais à l'ancienne négro c'est Rapline Meurtri frérot Kennedy à Dallas Y'a pas eu de héros depuis moi dans ma race Niggaz die pour moi, d'autres rident pour moi ... C'est oeil pour oeil dent pour dent mon renoi Tu shootes sur moi, moi je shoote sur toi ! T'as des flingues mon frère j'ai des flingues comme toi ... C'est Dakar sniper au bout du rouleau compresseur Les yeux bandés à fond dans une compressor ... C'est oeil pour oeil dent pour dent mon renoi Tu shootes sur moi, moi je shoote sur toi ! T'as des flingues mon frère j'ai des flingues comme toi ...</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2295,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Ghetto Fabulous Gang frère Dakar Yarakh Bing bing 93 One Beat renoi ! Y a qu'une vie à vivre, moi j'la vis pleinement Dehors pleins de poucaves j'peux pas être clément Ghetto Fabulous Gang, boy à quoi tu t'attends ? Viens pas tout blanc, on est déjà rouge-sang La cité en personne, Dakar au mieux de sa forme Une jeunesse passée à haïr tout c'qui est uniforme J'peux plus dormir car la tess' m'appelle Une fausse plaque négro, les keufs sont juste derrière Ils voient rien dans mes yeux, essayent d'infiltrer mon coeur De plus l'Ange d'la Mort nettoie mon rétroviseur S'il te plait négro, me racontes pas ta vie Moi je crible ta caisse comme 2pac et Biggie C'est Alpha 5.20 en direct des toilettes Où je doigte la Joconde et Marie-Antoinette Et les cris qu'elles poussent ressemblent à ceux des macaques Avec lesquels j'ai grandis dans ma jungle natale Boy Dakar Dakar, les arènes de la mort Sacrifie les taureaux, moi j'suis un matador Tempère mon attitude, écoute les paroles divines En dehors du peu-ra mes paroles sont minimes ! You might also like Y a qu'une vie à vivre, moi j'la vis pleinement Dehors pleins de poucaves j'peux pas être clément Ghetto Fabulous Gang, boy à quoi tu t'attends ? Viens pas tout blanc, on est déjà rouge-sang J'suis venu, j'ai vu puis après j'ai vaincu Ton rappeur favoris pour moi n'est qu'une groupie biatch ! Et j'pris le Seigneur, tête baissée, coeur humble Conversation intime Aide moi s'il te plait ! Parfois moi je pense que c'est mieux de mourir 29 piges ma vie, le 28 était triste J'étais mort mille fois j'veux renaître maintenant Avoir plein de sentiments, j'viens avec des enfants Mais c'est dur de résister aux tentations de l'argent Toute ma vie les poings liés, négro tu me comprends Un animal dans la jungle, un cannibale avec un flingue Au point de non-retour comme la racaille d'Afrique Négros pensent qu'leur cité peuvent heurter mes finances Négros pensent qu'leurs flingues peuvent adoucir mes tendances Suicidaire et esseulé j'maîtrise l'art de Guerre L'art de manier les armes, l'art de repérer les traîtres frère ! Y a qu'une vie à vivre, moi j'la vis pleinement Dehors pleins de poucaves j'peux pas être clément Ghetto Fabulous Gang, boy à quoi tu t'attends ? Viens pas tout blanc, on est déjà rouge-sang Et tu parles, et tu parles Ghetto Fabulous Gang Et bicrave, et bicrave, viens nous voir bolosse Et tu parles, et tu parles Ghetto Fabulous Gang Et bicrave, et bicrave, viens nous voir bolosse Shoot les MC mec One Beat mon frère, c'est l'projet frère J'suis en compétition qu'avec moi-même mon frère L'excellence mon frère Quand il s'agit de Gangsta Shit mon frère Tu peux pas faire mieux qu'la Pharmacie Drugstore, Spike Miller, Deadline frère ! Ghetto Fabulous Gang Et tu parles, et tu parles Ghetto Fabulous Gang Et bicrave, et bicrave, viens nous voir bolosse Et tu parles, et tu parles Fermes ta gueule !</t>
+          <t>Ghetto Fabulous Gang frère Dakar Yarakh Bing bing 93 One Beat renoi ! Y a qu'une vie à vivre, moi j'la vis pleinement Dehors pleins de poucaves j'peux pas être clément Ghetto Fabulous Gang, boy à quoi tu t'attends ? Viens pas tout blanc, on est déjà rouge-sang La cité en personne, Dakar au mieux de sa forme Une jeunesse passée à haïr tout c'qui est uniforme J'peux plus dormir car la tess' m'appelle Une fausse plaque négro, les keufs sont juste derrière Ils voient rien dans mes yeux, essayent d'infiltrer mon coeur De plus l'Ange d'la Mort nettoie mon rétroviseur S'il te plait négro, me racontes pas ta vie Moi je crible ta caisse comme 2pac et Biggie C'est Alpha 5.20 en direct des toilettes Où je doigte la Joconde et Marie-Antoinette Et les cris qu'elles poussent ressemblent à ceux des macaques Avec lesquels j'ai grandis dans ma jungle natale Boy Dakar Dakar, les arènes de la mort Sacrifie les taureaux, moi j'suis un matador Tempère mon attitude, écoute les paroles divines En dehors du peu-ra mes paroles sont minimes ! Y a qu'une vie à vivre, moi j'la vis pleinement Dehors pleins de poucaves j'peux pas être clément Ghetto Fabulous Gang, boy à quoi tu t'attends ? Viens pas tout blanc, on est déjà rouge-sang J'suis venu, j'ai vu puis après j'ai vaincu Ton rappeur favoris pour moi n'est qu'une groupie biatch ! Et j'pris le Seigneur, tête baissée, coeur humble Conversation intime Aide moi s'il te plait ! Parfois moi je pense que c'est mieux de mourir 29 piges ma vie, le 28 était triste J'étais mort mille fois j'veux renaître maintenant Avoir plein de sentiments, j'viens avec des enfants Mais c'est dur de résister aux tentations de l'argent Toute ma vie les poings liés, négro tu me comprends Un animal dans la jungle, un cannibale avec un flingue Au point de non-retour comme la racaille d'Afrique Négros pensent qu'leur cité peuvent heurter mes finances Négros pensent qu'leurs flingues peuvent adoucir mes tendances Suicidaire et esseulé j'maîtrise l'art de Guerre L'art de manier les armes, l'art de repérer les traîtres frère ! Y a qu'une vie à vivre, moi j'la vis pleinement Dehors pleins de poucaves j'peux pas être clément Ghetto Fabulous Gang, boy à quoi tu t'attends ? Viens pas tout blanc, on est déjà rouge-sang Et tu parles, et tu parles Ghetto Fabulous Gang Et bicrave, et bicrave, viens nous voir bolosse Et tu parles, et tu parles Ghetto Fabulous Gang Et bicrave, et bicrave, viens nous voir bolosse Shoot les MC mec One Beat mon frère, c'est l'projet frère J'suis en compétition qu'avec moi-même mon frère L'excellence mon frère Quand il s'agit de Gangsta Shit mon frère Tu peux pas faire mieux qu'la Pharmacie Drugstore, Spike Miller, Deadline frère ! Ghetto Fabulous Gang Et tu parles, et tu parles Ghetto Fabulous Gang Et bicrave, et bicrave, viens nous voir bolosse Et tu parles, et tu parles Fermes ta gueule !</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2312,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Yo je viens du hood, Dakar no good Là où on vend du crack à l'arrière des fast food Kilos de ganja, bocal de ... Des ..., des Tidiane puis des Baye Fall Ecorché vif car l'Etat nous mène la vie dure Big up Dakar à chaque fois dans nos 16 mesures Peur de la mort mais de finir comme un lâche La pauvreté est un crime, trop de bouches à nourrir La mélodie des briques endurcit mon mental Venu brûler l'Europe, négro baise leur morale Plus rude est la bataille plus est la victoire Passe mon temps à tracer les autoroutes de l'espoir Ma poésie reflète ce que mon peuple endure Et ma plume est trempée sur le sang des martyrs Alpha 5.20 pas loin du rivage Ma dernière défaite remonte à l'esclavage En lettres d'or mon nom dans les rues gravé Et je prie le Dieu du rap de ne jamais changer Demande à Mokobé, parole de soninké On est venu ramasser puis après se barrer En lettres d'or mon nom dans les rues gravé Et je prie le Dieu du rap de ne jamais changer Demande à Mokobé, parole de soninké On est venu ramasser puis après se barrer You might also like Pas besoin de présentation Mokobé Alpha 5.20 On se connaît très bien avant même l'époque du 3 litres 20 Moi je pratique le hip hop de Bruce, machette à la main Découpe les têtes des MC's qui racontent que de la merde Pendant qu'on nous prend pour de la chair à canon électorale Frère sillonne les rues d'un instinct animal Qu'ils arrêtent de prendre l'Afrique pour la poubelle de l'Europe Les bâtiments, le goudron, les routes c'est qui ? C'est nos rents- p' ! T'étonne pas que la parole d'escroc se ressent dans notre attitude Se sentir au dessus des lois devient une habitude Ghetto Fabulous Gang, Mafia k1fry Un point en commun on représente toujours pour les cainfris A une époque où on bascule entre le mal et le bien L'important c'est pas de savoir où tu vas mais d'où tu viens Paroles d'escroc Skaner, parole de soninké Parole de peul, wolof, Malik Bledoss Alpha 5.20 En lettres d'or mon nom dans les rues gravé Et je prie le Dieu du rap de ne jamais changer Demande à Mokobé, parole de soninké On est venu ramasser puis après se barrer En lettres d'or mon nom dans les rues gravé Et je prie le Dieu du rap de ne jamais changer Demande à Mokobé, parole de soninké On est venu ramasser puis après se barrer Sisi 2007 nouvel an je reste toujours le même Fils de t'as vu j'ai pas changé d'emblème Et d'emblée la donne a changé Plus de problèmes je me frotte plus les yeux j'ai tout remis à Dieu Boy Dakar négro sans tatoo De 0.7 à 0.9 y'aura pas de tabou Le monde tourne poto la table aussi Moi j'ouvre des tonnes et une bonne pussy Me casser dans mon île cousin sans souci Mais dans cette vie de pute j'ai choisi nègre attitude ... En lettres d'or mon nom dans les rues gravé Et je prie le Dieu du rap de ne jamais changer Demande à Mokobé, parole de soninké On est venu ramasser puis après se barrer En lettres d'or mon nom dans les rues gravé Et je prie le Dieu du rap de ne jamais changer Demande à Mokobé, parole de soninké On est venu ramasser puis après se barrer</t>
+          <t>Yo je viens du hood, Dakar no good Là où on vend du crack à l'arrière des fast food Kilos de ganja, bocal de ... Des ..., des Tidiane puis des Baye Fall Ecorché vif car l'Etat nous mène la vie dure Big up Dakar à chaque fois dans nos 16 mesures Peur de la mort mais de finir comme un lâche La pauvreté est un crime, trop de bouches à nourrir La mélodie des briques endurcit mon mental Venu brûler l'Europe, négro baise leur morale Plus rude est la bataille plus est la victoire Passe mon temps à tracer les autoroutes de l'espoir Ma poésie reflète ce que mon peuple endure Et ma plume est trempée sur le sang des martyrs Alpha 5.20 pas loin du rivage Ma dernière défaite remonte à l'esclavage En lettres d'or mon nom dans les rues gravé Et je prie le Dieu du rap de ne jamais changer Demande à Mokobé, parole de soninké On est venu ramasser puis après se barrer En lettres d'or mon nom dans les rues gravé Et je prie le Dieu du rap de ne jamais changer Demande à Mokobé, parole de soninké On est venu ramasser puis après se barrer Pas besoin de présentation Mokobé Alpha 5.20 On se connaît très bien avant même l'époque du 3 litres 20 Moi je pratique le hip hop de Bruce, machette à la main Découpe les têtes des MC's qui racontent que de la merde Pendant qu'on nous prend pour de la chair à canon électorale Frère sillonne les rues d'un instinct animal Qu'ils arrêtent de prendre l'Afrique pour la poubelle de l'Europe Les bâtiments, le goudron, les routes c'est qui ? C'est nos rents- p' ! T'étonne pas que la parole d'escroc se ressent dans notre attitude Se sentir au dessus des lois devient une habitude Ghetto Fabulous Gang, Mafia k1fry Un point en commun on représente toujours pour les cainfris A une époque où on bascule entre le mal et le bien L'important c'est pas de savoir où tu vas mais d'où tu viens Paroles d'escroc Skaner, parole de soninké Parole de peul, wolof, Malik Bledoss Alpha 5.20 En lettres d'or mon nom dans les rues gravé Et je prie le Dieu du rap de ne jamais changer Demande à Mokobé, parole de soninké On est venu ramasser puis après se barrer En lettres d'or mon nom dans les rues gravé Et je prie le Dieu du rap de ne jamais changer Demande à Mokobé, parole de soninké On est venu ramasser puis après se barrer Sisi 2007 nouvel an je reste toujours le même Fils de t'as vu j'ai pas changé d'emblème Et d'emblée la donne a changé Plus de problèmes je me frotte plus les yeux j'ai tout remis à Dieu Boy Dakar négro sans tatoo De 0.7 à 0.9 y'aura pas de tabou Le monde tourne poto la table aussi Moi j'ouvre des tonnes et une bonne pussy Me casser dans mon île cousin sans souci Mais dans cette vie de pute j'ai choisi nègre attitude ... En lettres d'or mon nom dans les rues gravé Et je prie le Dieu du rap de ne jamais changer Demande à Mokobé, parole de soninké On est venu ramasser puis après se barrer En lettres d'or mon nom dans les rues gravé Et je prie le Dieu du rap de ne jamais changer Demande à Mokobé, parole de soninké On est venu ramasser puis après se barrer</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2329,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Gangster Gangster Gangster Gangster C'est pour les gangsters qui enculent la justice Puis après slaloment devant les balles de la police Aiment les lance-roquettes et les pains de plastique Casseurs de bijouteries avec des armes factices Une pensée pour l'Afrique, on aime les arithmétiques Les butin à 6 chiffres pour les enfants de la ZUP Partage à parts égales fait partie du principe L'islam en pratique mais on monte au charbon Embrouille une bande rivale, on va faire un carton Mauvais garçon toujours serviable envers les frères Les mères les petites soeurs j'te fais une petite fleur Rappe ma vie comme tu l'as jamais entendue Téma frère ... quand mon disque a fondu La coke est pure comme la neige du Canada On a ouvert des restos là bas à Pattaya Hors la loi ... bicrave vole braque et tue Gangster Gangster Gangster Gangster Gangster Gangster Gangster Gangster You might also like Dès que le soleil montre un signe de faiblesse Ma tête émerge de l'eau avec beaucoup de noblesse Mec de tess accompagné d'une déesse noire Du côté passager Aminata la tigresse Les vrais gangsters ne meurent pas à la fin du film On répond toujours présent boy à l'heure du crime Pisse en boîte quand les videurs nous recalent Balafrer le physio puis après on décale Flaque de sang comme Freddy dans les griffes de la nuit Scène d'horreur à domicile dans la jungle je suis Comme Tarzan sur un T-Max avec un bidon d'essence Et dans la bouche d'incendie tu sentiras ma présence J'ai pas besoin d'un flingue j'ai des poupées vaudous Et des armes perdues j'en ai violé beaucoup Pôle Nord prototype les critiques me touchent pas Monstre du Loch Ness dans les abysses je combats Gangster Gangster Gangster Gangster Gangster Gangster Gangster Gangster J'espère que t'écoutes bien négro ... Yeah renoi 4.0.2.5 quoi de neuf pédé ? ...</t>
+          <t>Gangster Gangster Gangster Gangster C'est pour les gangsters qui enculent la justice Puis après slaloment devant les balles de la police Aiment les lance-roquettes et les pains de plastique Casseurs de bijouteries avec des armes factices Une pensée pour l'Afrique, on aime les arithmétiques Les butin à 6 chiffres pour les enfants de la ZUP Partage à parts égales fait partie du principe L'islam en pratique mais on monte au charbon Embrouille une bande rivale, on va faire un carton Mauvais garçon toujours serviable envers les frères Les mères les petites soeurs j'te fais une petite fleur Rappe ma vie comme tu l'as jamais entendue Téma frère ... quand mon disque a fondu La coke est pure comme la neige du Canada On a ouvert des restos là bas à Pattaya Hors la loi ... bicrave vole braque et tue Gangster Gangster Gangster Gangster Gangster Gangster Gangster Gangster Dès que le soleil montre un signe de faiblesse Ma tête émerge de l'eau avec beaucoup de noblesse Mec de tess accompagné d'une déesse noire Du côté passager Aminata la tigresse Les vrais gangsters ne meurent pas à la fin du film On répond toujours présent boy à l'heure du crime Pisse en boîte quand les videurs nous recalent Balafrer le physio puis après on décale Flaque de sang comme Freddy dans les griffes de la nuit Scène d'horreur à domicile dans la jungle je suis Comme Tarzan sur un T-Max avec un bidon d'essence Et dans la bouche d'incendie tu sentiras ma présence J'ai pas besoin d'un flingue j'ai des poupées vaudous Et des armes perdues j'en ai violé beaucoup Pôle Nord prototype les critiques me touchent pas Monstre du Loch Ness dans les abysses je combats Gangster Gangster Gangster Gangster Gangster Gangster Gangster Gangster J'espère que t'écoutes bien négro ... Yeah renoi 4.0.2.5 quoi de neuf pédé ? ...</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2346,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Je continue à combattre les lois, dans ma vie j'suis hors la loi J'fais l'oseille avec le majeur, la France fait du racolage Elle tapine sur les boulevards ... ... C'est le pied aucun obstacle à part l'Etat négro ... Je continue à combattre les lois, dans ma vie j'suis hors la loi J'fais l'oseille avec le majeur, la France fait du racolage Elle tapine sur les boulevards ... Assis sur un volcan, Ile de France brûlant Venu boire de la lave en compagnie des dragons J'apprécie l'amitié avec modération Mais les armes je les aime avec consummation Ma passion est sans limite, elle est comme celle du Christ Ghetto Fab c'est mes apôtres je me sens moins triste ... Je continue à combattre les lois, dans ma vie j'suis hors la loi J'fais l'oseille avec le majeur, la France fait du racolage Elle tapine sur les boulevards ... You might also like 77 sent la mort, la faucheuse rode dans les parages On croise les puceaux et pucelles ...</t>
+          <t>Je continue à combattre les lois, dans ma vie j'suis hors la loi J'fais l'oseille avec le majeur, la France fait du racolage Elle tapine sur les boulevards ... ... C'est le pied aucun obstacle à part l'Etat négro ... Je continue à combattre les lois, dans ma vie j'suis hors la loi J'fais l'oseille avec le majeur, la France fait du racolage Elle tapine sur les boulevards ... Assis sur un volcan, Ile de France brûlant Venu boire de la lave en compagnie des dragons J'apprécie l'amitié avec modération Mais les armes je les aime avec consummation Ma passion est sans limite, elle est comme celle du Christ Ghetto Fab c'est mes apôtres je me sens moins triste ... Je continue à combattre les lois, dans ma vie j'suis hors la loi J'fais l'oseille avec le majeur, la France fait du racolage Elle tapine sur les boulevards ... 77 sent la mort, la faucheuse rode dans les parages On croise les puceaux et pucelles ...</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2363,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Hey, hey, hey Frère, frère, frère Mais dis moi, où est ton cur négro? Moi j'crois que t'as peur négro Quand les embrouilles viennent les lâches rasent les murs Dès que je sors la lame de mon blouson cuir Mais dis moi, où est ton cur négro? Moi j'crois que t'as peur négro Quand les embrouilles viennent les lâches rasent les murs Dès que je sors la lame de mon blouson cuir Islamic Dakar où le soleil se couche pas Je t'enterre sale bâtard là où les keufs te trouvent pas De l'arme blanche au grigri, on est jamais en manque À visage découvert venu défoncer la banque Tous les jours je change de planque l'état me suit au pas Quelques porcs en faction prennent des photos de moi Commission rogatoire, des écoutes au cellulaire Une grenade dans ma poche, mon attitude est suicidaire Moi je tire à tout va, des ennemis à l'affut Rends les négros immobiles, juste comme des statues Depuis ma tendre enfance, j'ai appris à gruger Gratter le billet, rien laisser aux poulets Devant ma chambre à coucher, ils tissent leurs filets Je sauterai par ma fenêtre en portant mon gilet Crève, crève sale porc, l'État va pleurer La pension de ta veuve, j'irai pas la payer You might also like Mais dis moi, où est ton cur négro? Moi j'crois que t'as peur négro Quand les embrouilles viennent les lâches rasent les murs Dès que je sors la lame de mon blouson cuir Mais dis moi, où est ton cur négro? Moi j'crois que t'as peur négro Quand les embrouilles viennent les lâches rasent les murs Dès que je sors la lame de mon blouson cuir Négros veulent que j'aille en guerre, puis clasher l'ourson Me la jouer comme Georges Bush, appuyer sur le bouton Tout ceci est enfantin j'ai pas le temps pour ça Chaque seconde que je perds ici un enfant meurt chez moi J'suis le roi des sous-sols, même si je vends des CD Dakar hémisphère ouest, chez nous y'a pas de PD De tout le reste isolé, en quarantaine comme la peste Sans goutte d'eau dans le désert, j'ai marché en solitaire Entendant la rue refuser nos prières Dieu m'a versé de l'eau, l'homme a donné de la bière En qui avoir confiance, dans ce monde corrompu? Quelques-uns de mes proches sont devenus des ennemis J'ai l'acier qui gratte, l'index qui démange Si je tire sur un keuf légitime défense J'ai l'acier qui gratte, l'index qui démange Si je tire sur un keuf légitime défense Frère! Mais dis moi, où est ton cur négro? Moi j'crois que t'as peur négro Quand les embrouilles viennent les lâches rasent les murs Dès que je sors la lame de mon blouson cuir Mais dis moi, où est ton cur négro? Moi j'crois que t'as peur négro Quand les embrouilles viennent les lâches rasent les murs Dès que je sors la lame de mon blouson cuir C'est Alpha 5.20, en direct des toilettes Où je doigte la Joconde et Marie-Antoinette Et les cris qu'elles poussent ressemblent à ceux des macaques Avec lesquels j'ai grandi dans ma jungle natale Couleur sang, rouge vif, sacrifie le taureau Dans l'arène tout seul, matador négro Baise l'année fiscale, comme Florent Pagny Blood Dakar Dakar, je planque mes Ferraris Quand je rap le temps s'arrête, puis la terre tremble Les oiseaux fredonnent Ghetto Fabulous Gang Les anges pleurent puis après, les larmes tombent du ciel Touchent la terre mais après ça, prennent une forme humaine 93 négro, on n'est jamais au garde-à-vous Ghetto Fabulous Gang, même les keufs ont peur de nous 93 négro, on n'est jamais au garde-à-vous Ghetto Fabulous Gang, même les keufs ont peur de nous Mais dis moi, où est ton cur négro? Moi j'crois que t'as peur négro Quand les embrouilles viennent les lâches rasent les murs Dès que je sors la lame de mon blouson cuir Mais dis moi, où est ton cur négro? Moi j'crois que t'as peur négro Quand les embrouilles viennent les lâches rasent les murs Dès que je sors la lame de mon blouson cuir 93, ouais ouais ouais Île de France, négro paie! 93, ouais ouais ouais Île de France, négro paie! 93, ouais ouais ouais Île de France, négro paie!</t>
+          <t>Hey, hey, hey Frère, frère, frère Mais dis moi, où est ton cur négro? Moi j'crois que t'as peur négro Quand les embrouilles viennent les lâches rasent les murs Dès que je sors la lame de mon blouson cuir Mais dis moi, où est ton cur négro? Moi j'crois que t'as peur négro Quand les embrouilles viennent les lâches rasent les murs Dès que je sors la lame de mon blouson cuir Islamic Dakar où le soleil se couche pas Je t'enterre sale bâtard là où les keufs te trouvent pas De l'arme blanche au grigri, on est jamais en manque À visage découvert venu défoncer la banque Tous les jours je change de planque l'état me suit au pas Quelques porcs en faction prennent des photos de moi Commission rogatoire, des écoutes au cellulaire Une grenade dans ma poche, mon attitude est suicidaire Moi je tire à tout va, des ennemis à l'affut Rends les négros immobiles, juste comme des statues Depuis ma tendre enfance, j'ai appris à gruger Gratter le billet, rien laisser aux poulets Devant ma chambre à coucher, ils tissent leurs filets Je sauterai par ma fenêtre en portant mon gilet Crève, crève sale porc, l'État va pleurer La pension de ta veuve, j'irai pas la payer Mais dis moi, où est ton cur négro? Moi j'crois que t'as peur négro Quand les embrouilles viennent les lâches rasent les murs Dès que je sors la lame de mon blouson cuir Mais dis moi, où est ton cur négro? Moi j'crois que t'as peur négro Quand les embrouilles viennent les lâches rasent les murs Dès que je sors la lame de mon blouson cuir Négros veulent que j'aille en guerre, puis clasher l'ourson Me la jouer comme Georges Bush, appuyer sur le bouton Tout ceci est enfantin j'ai pas le temps pour ça Chaque seconde que je perds ici un enfant meurt chez moi J'suis le roi des sous-sols, même si je vends des CD Dakar hémisphère ouest, chez nous y'a pas de PD De tout le reste isolé, en quarantaine comme la peste Sans goutte d'eau dans le désert, j'ai marché en solitaire Entendant la rue refuser nos prières Dieu m'a versé de l'eau, l'homme a donné de la bière En qui avoir confiance, dans ce monde corrompu? Quelques-uns de mes proches sont devenus des ennemis J'ai l'acier qui gratte, l'index qui démange Si je tire sur un keuf légitime défense J'ai l'acier qui gratte, l'index qui démange Si je tire sur un keuf légitime défense Frère! Mais dis moi, où est ton cur négro? Moi j'crois que t'as peur négro Quand les embrouilles viennent les lâches rasent les murs Dès que je sors la lame de mon blouson cuir Mais dis moi, où est ton cur négro? Moi j'crois que t'as peur négro Quand les embrouilles viennent les lâches rasent les murs Dès que je sors la lame de mon blouson cuir C'est Alpha 5.20, en direct des toilettes Où je doigte la Joconde et Marie-Antoinette Et les cris qu'elles poussent ressemblent à ceux des macaques Avec lesquels j'ai grandi dans ma jungle natale Couleur sang, rouge vif, sacrifie le taureau Dans l'arène tout seul, matador négro Baise l'année fiscale, comme Florent Pagny Blood Dakar Dakar, je planque mes Ferraris Quand je rap le temps s'arrête, puis la terre tremble Les oiseaux fredonnent Ghetto Fabulous Gang Les anges pleurent puis après, les larmes tombent du ciel Touchent la terre mais après ça, prennent une forme humaine 93 négro, on n'est jamais au garde-à-vous Ghetto Fabulous Gang, même les keufs ont peur de nous 93 négro, on n'est jamais au garde-à-vous Ghetto Fabulous Gang, même les keufs ont peur de nous Mais dis moi, où est ton cur négro? Moi j'crois que t'as peur négro Quand les embrouilles viennent les lâches rasent les murs Dès que je sors la lame de mon blouson cuir Mais dis moi, où est ton cur négro? Moi j'crois que t'as peur négro Quand les embrouilles viennent les lâches rasent les murs Dès que je sors la lame de mon blouson cuir 93, ouais ouais ouais Île de France, négro paie! 93, ouais ouais ouais Île de France, négro paie! 93, ouais ouais ouais Île de France, négro paie!</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2380,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Yo le rap c'est comme du crack frère, la concurrence est rude Moi je porte un flingue juste au coin d'la bite Juste au cas où un pitre parle mal et gesticule Si t'es noir comme un cafard, boy évite les pesticides P'tite fiotte, ne mords pas la main qui t'a nourri Dakar né, grandi, sale racaille moisie Au milieu des escrocs moi je traîne qu'avec des hyènes Retour en esclavage j'ai brisé mes propres chaînes Un putain de nègre marron, pas Jacky et Ben-J France most wanted comme l'a été Kenzy Traite mes nég' comme mes reufs, je les aime et respecte Traite mes 'tasses comme mes flingues, j'les tire et j'les jette Et boy t'es pas au courant, on exporte la Fnac aux puces Moi je parle mal puis je traite les femmes sur mes disques Arrose mes plantes au sky, négro moi je pisse debout A cette heure-ci je sais même plus si ça vaut le coup Pour passer sur Sky négro j'ai dû me taper Diam's Crois pas que ça m'a adouci boy, face à moi tu clamses La vengeance est mienne c'est ce qu'a dit le Seigneur Renois t'appellent frère mais t'oublient quand ils sont au beurre Peur d'étaler ma vie, moi je garde mes secrets Plus le monde est tout petit pas, plus grand qu'Épinay-sur-Seine Moi je tue comme Youssou N'Dour à Bercy Défonce les portes, jette des pavés, ça c'est pas vrai Et tout ce que t'entends c'est Alpha faut pas nous caner Man je suis un bad boy, je suis un bad boy You might also like On arrive dans le bloc battymen son dead Moi je pop mon hood dans le bâtiment D Chacune de mes rimes est une vérité que j'ai traversé Boy ouvre la pharmacie, bicrave et je m'en vais</t>
+          <t>Yo le rap c'est comme du crack frère, la concurrence est rude Moi je porte un flingue juste au coin d'la bite Juste au cas où un pitre parle mal et gesticule Si t'es noir comme un cafard, boy évite les pesticides P'tite fiotte, ne mords pas la main qui t'a nourri Dakar né, grandi, sale racaille moisie Au milieu des escrocs moi je traîne qu'avec des hyènes Retour en esclavage j'ai brisé mes propres chaînes Un putain de nègre marron, pas Jacky et Ben-J France most wanted comme l'a été Kenzy Traite mes nég' comme mes reufs, je les aime et respecte Traite mes 'tasses comme mes flingues, j'les tire et j'les jette Et boy t'es pas au courant, on exporte la Fnac aux puces Moi je parle mal puis je traite les femmes sur mes disques Arrose mes plantes au sky, négro moi je pisse debout A cette heure-ci je sais même plus si ça vaut le coup Pour passer sur Sky négro j'ai dû me taper Diam's Crois pas que ça m'a adouci boy, face à moi tu clamses La vengeance est mienne c'est ce qu'a dit le Seigneur Renois t'appellent frère mais t'oublient quand ils sont au beurre Peur d'étaler ma vie, moi je garde mes secrets Plus le monde est tout petit pas, plus grand qu'Épinay-sur-Seine Moi je tue comme Youssou N'Dour à Bercy Défonce les portes, jette des pavés, ça c'est pas vrai Et tout ce que t'entends c'est Alpha faut pas nous caner Man je suis un bad boy, je suis un bad boy On arrive dans le bloc battymen son dead Moi je pop mon hood dans le bâtiment D Chacune de mes rimes est une vérité que j'ai traversé Boy ouvre la pharmacie, bicrave et je m'en vais</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2397,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Guerre de tess, guerre de bizz C'est une mère qui enterre son fils Frôle la crise, les rues te disent 3, 5, 7, tu finis aux assises C'est ça la devise. Négro tu le paies Combien de chacals sont morts pour l'oseille ? On a la mentale, craint pas les balles Peine à deux chiffres au tribunal Fusil à pompe pour ramasser les douilles Je vais au Dallas me vider les couilles Enfant du Ghetto comme à Soweto Rien à prouver je sais ce que je vaux De serrer les plots ce qu'il me faut C'est la putain de maille ! Diezes et des bails - Cagoulé comme les négros de nigrailles - Trouver les failles si je le peux Et si je-je meurs c'est Dieu qui le veut Pas de boussole je sais où je vais Monter au ciel et reposer en paix Parler aux anges de tous mes méfaits La vie ici bas m'a trop sidéré Pas de boussole je sais où je vais Monter au ciel et reposer en paix Parler aux anges de tous mes méfaits La vie ici bas m'a trop sidéré You might also like Frôler la mort et échapper de peu En bas des comicos j'allume le feu J'attire les yeux, ce qui ne veut Pas dire que je vais mourir vieux Si si chacal l'Etat nous la mise Tellement si profond que çà nous divise Evry, Canal, jusqu'aux Pyramides Tarterêts, Zoo jusqu'à là où j'habite Bondy, La Bruyère ne suce pas des bites ! Toujours au charbon, le fond on attise Économise ! Tony Montana on sodo-domise Contre le système ! Ceux qui me gêne, ceux qui me peinent Guerre de cocaïne à Épinay-sur-Seine Clos Saint-Lazare te pique dans les veines Clos Saint-Lazare te pique dans les veines Pas de boussole je sais où je vais Monter au ciel et reposer en paix Parler aux anges de tous mes méfaits La vie ici bas m'a trop sidéré Pas de boussole je sais où je vais Monter au ciel et reposer en paix Parler aux anges de tous mes méfaits La vie ici bas m'a trop sidéré Parler de braquos mais ré-pleu à Fresnes Rêver d'évasion, de briser les chaînes Trucs bizarres à se couper les veines Doubler les capotes, c'est qu'une chienne Esquiver les balles quand il pleut Moi je n'ai peur que de Dieu La mort n'est qu'un jeu La honte à tous ceux Qui pensaient l'éviter, poucaves et balances Mon sang coagule devant l'ignorance Faites ce qui vous lance, la femme se vend Aux enchères, au plus offrant Parler de cagoules, parler de gants Négro, ce n'est que du vent Parler de cagoules, parler de gants Négro, ce n'est que du vent Pas de boussole je sais où je vais Monter au ciel et reposer en paix Parler aux anges de tous mes méfaits La vie ici bas m'a trop sidéré Pas de boussole je sais où je vais Monter au ciel et reposer en paix Parler aux anges de tous mes méfaits La vie ici bas m'a trop sidéré La marche des vertueux est semée dobstacles qui sont les entreprises égoïstes que fait sans fin, surgir luvre du malin. Béni soit-il lhomme de bonne volonté qui, au nom de la charité se fait le berger des faibles quil guide dans la vallée dombre de la mort et des larmes, car il est le gardien de son frère et la providence des enfants égarés. Jabattrai alors le bras dune terrible colère, dune vengeance furieuse et effrayante sur les hordes impies qui pourchassent et réduisent à néant les brebis de Dieu. Et tu connaîtras pourquoi mon nom est léternel quand, sur toi, sabattra la vengeance du Tout-Puissant !</t>
+          <t>Guerre de tess, guerre de bizz C'est une mère qui enterre son fils Frôle la crise, les rues te disent 3, 5, 7, tu finis aux assises C'est ça la devise. Négro tu le paies Combien de chacals sont morts pour l'oseille ? On a la mentale, craint pas les balles Peine à deux chiffres au tribunal Fusil à pompe pour ramasser les douilles Je vais au Dallas me vider les couilles Enfant du Ghetto comme à Soweto Rien à prouver je sais ce que je vaux De serrer les plots ce qu'il me faut C'est la putain de maille ! Diezes et des bails - Cagoulé comme les négros de nigrailles - Trouver les failles si je le peux Et si je-je meurs c'est Dieu qui le veut Pas de boussole je sais où je vais Monter au ciel et reposer en paix Parler aux anges de tous mes méfaits La vie ici bas m'a trop sidéré Pas de boussole je sais où je vais Monter au ciel et reposer en paix Parler aux anges de tous mes méfaits La vie ici bas m'a trop sidéré Frôler la mort et échapper de peu En bas des comicos j'allume le feu J'attire les yeux, ce qui ne veut Pas dire que je vais mourir vieux Si si chacal l'Etat nous la mise Tellement si profond que çà nous divise Evry, Canal, jusqu'aux Pyramides Tarterêts, Zoo jusqu'à là où j'habite Bondy, La Bruyère ne suce pas des bites ! Toujours au charbon, le fond on attise Économise ! Tony Montana on sodo-domise Contre le système ! Ceux qui me gêne, ceux qui me peinent Guerre de cocaïne à Épinay-sur-Seine Clos Saint-Lazare te pique dans les veines Clos Saint-Lazare te pique dans les veines Pas de boussole je sais où je vais Monter au ciel et reposer en paix Parler aux anges de tous mes méfaits La vie ici bas m'a trop sidéré Pas de boussole je sais où je vais Monter au ciel et reposer en paix Parler aux anges de tous mes méfaits La vie ici bas m'a trop sidéré Parler de braquos mais ré-pleu à Fresnes Rêver d'évasion, de briser les chaînes Trucs bizarres à se couper les veines Doubler les capotes, c'est qu'une chienne Esquiver les balles quand il pleut Moi je n'ai peur que de Dieu La mort n'est qu'un jeu La honte à tous ceux Qui pensaient l'éviter, poucaves et balances Mon sang coagule devant l'ignorance Faites ce qui vous lance, la femme se vend Aux enchères, au plus offrant Parler de cagoules, parler de gants Négro, ce n'est que du vent Parler de cagoules, parler de gants Négro, ce n'est que du vent Pas de boussole je sais où je vais Monter au ciel et reposer en paix Parler aux anges de tous mes méfaits La vie ici bas m'a trop sidéré Pas de boussole je sais où je vais Monter au ciel et reposer en paix Parler aux anges de tous mes méfaits La vie ici bas m'a trop sidéré La marche des vertueux est semée dobstacles qui sont les entreprises égoïstes que fait sans fin, surgir luvre du malin. Béni soit-il lhomme de bonne volonté qui, au nom de la charité se fait le berger des faibles quil guide dans la vallée dombre de la mort et des larmes, car il est le gardien de son frère et la providence des enfants égarés. Jabattrai alors le bras dune terrible colère, dune vengeance furieuse et effrayante sur les hordes impies qui pourchassent et réduisent à néant les brebis de Dieu. Et tu connaîtras pourquoi mon nom est léternel quand, sur toi, sabattra la vengeance du Tout-Puissant !</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2414,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Peu importe l'ampleur de mes crimes Peu importe la tailles de mes rimes Les négros ouvrent leurs gueules, grattent comme ils peuvent De love je me nourris et de haine je m'abreuve Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs Que les haineux se la mettent dans la seuf Mister Ol'Kainryn moi je peux dead pour le boug Je connais tous les textes par cur, non j'peux dead pour le boug Depuis Au-delà Des Apparences son blaze je peux le crier même Le bougzere a dead, a représenté le C.N.L Ma parole c'est un bon, du rap pour les gros Sur Chemins de la Dignité, des punchlines de la bombe J'suis dingue faut m'interner, j'achète ça les yeux fermés Il rappe comme pas permis, l'explosion va pas trainer Pas mal, pas mal j'apprécie son grain de voix En termes de prod, je n'aurais pas fait les mêmes choix J'avoue que son flow glisse bien sur le charley La diction est bonne mais les punchlines sont cramées Franchement c'est vrai, les lyrics sont pas riches Il est plus frais en solo qu'avec le Factor X Faut qu'il choisisse son camp à faire des boum boum, des pom pom Le mec est plus opé' en bails de zoulous et de gomme-cogne You might also like Peu importe l'ampleur de mes crimes Peu importe la tailles de mes rimes Les négros ouvrent leurs gueules, grattent comme ils peuvent De love je me nourris et de haine je m'abreuve Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs Que les haineux se la mettent dans la seuf Vas y, j'suis yombe de lui c'est un chien Si il est pas content il vient, il a oublié les siens T'façon si j'le croise, j'lui serrerais pas la main Le mec est blindé de thunes, même pas il nous met bien Même pas il ouvre un resto ou un bar dans le tiekson Il roule en Merco, il aime seulement se la jouer ce con Fait même pas qué-cro, nous on est là en dalo Vas-y j'm'en bats moi j'suis pas un jaloux Moi j'connais pas Ol'Kainry, moi j'connais bien Freddy Le p'tit jeune qui trainait dans les ruelles dÉvry J'l'ai vu débuter quand il a commencé à rapper Aujourd'hui j'suis fier qu'il fasse briller le nom du quartier J'le voyais dans les embrouilles, il tournait mal Je lui ai dit arrête tes conneries avant que tu trouves une balle Il calculait toujours les conseils que j'lui lançais Dyf c'est un bon p'tit, il respecte les anciens Peu importe l'ampleur de mes crimes Peu importe la tailles de mes rimes Les négros ouvrent leurs gueules, grattent comme ils peuvent De love je me nourris et de haine je m'abreuve Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs Que les haineux se la mettent dans la seuf Franchement c'est pas mal, j'aime bien son flow En plus il est pas mal et il est bien costaud Moi j'connaissais pas, j'avais jamais entendu Mais rien que mon p'tit frère il pouvait dead pour lui Ma préférée c'est celle où il parle du divorce Y a aussi crie mon nom là où il jouait le boss Ouais avec sa petite bouille, il a une tête de nounours Nan franchement j'aime bien en plus il connait Kamnouze À l'ancienne là-uiss, j'l'avais grillé aux arrivants Rien pour cantiner, pas une thune pas un rond Fleury-Mérogis, bâtiment D3 deuxième gauche On balance la gamelle aux corbeaux et aux gros chats On a mis bien le re-noi en canette ou en PQ Ici on kiffe depuis Abattu du Vécu On va cantiner son troisième album En plus, il en place toujours une pour ses frères en taule Peu importe l'ampleur de mes crimes Peu importe la tailles de mes rimes Les négros ouvrent leurs gueules, grattent comme ils peuvent De love je me nourris et de haine je m'abreuve Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs Que les haineux se la mettent dans la seuf Bande de fils de lâches, c'est quoi les bails? Tu connais rien d'moi, même pas mon sourire enfoiré J'ai assez d'punchlines pour casser la bouche de n'importe quel MC dans c'bled, sachez-le J'baise des tites-pe qu'ont l'pelage Cherokee Même toi j't'enfourche normal, hatay Fais pas ton Materazzi, imprime le dièze J'emmerde votre game de merde 91 Essonne, Demolition Man</t>
+          <t>Peu importe l'ampleur de mes crimes Peu importe la tailles de mes rimes Les négros ouvrent leurs gueules, grattent comme ils peuvent De love je me nourris et de haine je m'abreuve Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs Que les haineux se la mettent dans la seuf Mister Ol'Kainryn moi je peux dead pour le boug Je connais tous les textes par cur, non j'peux dead pour le boug Depuis Au-delà Des Apparences son blaze je peux le crier même Le bougzere a dead, a représenté le C.N.L Ma parole c'est un bon, du rap pour les gros Sur Chemins de la Dignité, des punchlines de la bombe J'suis dingue faut m'interner, j'achète ça les yeux fermés Il rappe comme pas permis, l'explosion va pas trainer Pas mal, pas mal j'apprécie son grain de voix En termes de prod, je n'aurais pas fait les mêmes choix J'avoue que son flow glisse bien sur le charley La diction est bonne mais les punchlines sont cramées Franchement c'est vrai, les lyrics sont pas riches Il est plus frais en solo qu'avec le Factor X Faut qu'il choisisse son camp à faire des boum boum, des pom pom Le mec est plus opé' en bails de zoulous et de gomme-cogne Peu importe l'ampleur de mes crimes Peu importe la tailles de mes rimes Les négros ouvrent leurs gueules, grattent comme ils peuvent De love je me nourris et de haine je m'abreuve Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs Que les haineux se la mettent dans la seuf Vas y, j'suis yombe de lui c'est un chien Si il est pas content il vient, il a oublié les siens T'façon si j'le croise, j'lui serrerais pas la main Le mec est blindé de thunes, même pas il nous met bien Même pas il ouvre un resto ou un bar dans le tiekson Il roule en Merco, il aime seulement se la jouer ce con Fait même pas qué-cro, nous on est là en dalo Vas-y j'm'en bats moi j'suis pas un jaloux Moi j'connais pas Ol'Kainry, moi j'connais bien Freddy Le p'tit jeune qui trainait dans les ruelles dÉvry J'l'ai vu débuter quand il a commencé à rapper Aujourd'hui j'suis fier qu'il fasse briller le nom du quartier J'le voyais dans les embrouilles, il tournait mal Je lui ai dit arrête tes conneries avant que tu trouves une balle Il calculait toujours les conseils que j'lui lançais Dyf c'est un bon p'tit, il respecte les anciens Peu importe l'ampleur de mes crimes Peu importe la tailles de mes rimes Les négros ouvrent leurs gueules, grattent comme ils peuvent De love je me nourris et de haine je m'abreuve Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs Que les haineux se la mettent dans la seuf Franchement c'est pas mal, j'aime bien son flow En plus il est pas mal et il est bien costaud Moi j'connaissais pas, j'avais jamais entendu Mais rien que mon p'tit frère il pouvait dead pour lui Ma préférée c'est celle où il parle du divorce Y a aussi crie mon nom là où il jouait le boss Ouais avec sa petite bouille, il a une tête de nounours Nan franchement j'aime bien en plus il connait Kamnouze À l'ancienne là-uiss, j'l'avais grillé aux arrivants Rien pour cantiner, pas une thune pas un rond Fleury-Mérogis, bâtiment D3 deuxième gauche On balance la gamelle aux corbeaux et aux gros chats On a mis bien le re-noi en canette ou en PQ Ici on kiffe depuis Abattu du Vécu On va cantiner son troisième album En plus, il en place toujours une pour ses frères en taule Peu importe l'ampleur de mes crimes Peu importe la tailles de mes rimes Les négros ouvrent leurs gueules, grattent comme ils peuvent De love je me nourris et de haine je m'abreuve Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs Que les haineux se la mettent dans la seuf Bande de fils de lâches, c'est quoi les bails? Tu connais rien d'moi, même pas mon sourire enfoiré J'ai assez d'punchlines pour casser la bouche de n'importe quel MC dans c'bled, sachez-le J'baise des tites-pe qu'ont l'pelage Cherokee Même toi j't'enfourche normal, hatay Fais pas ton Materazzi, imprime le dièze J'emmerde votre game de merde 91 Essonne, Demolition Man</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2431,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Mais tu veux pas, tu veux pas de problème ? J'sais que tu veux pas, tu veux pas de problème Mais tu veux pas te tter-fro avec nous Ghetto Fab Gang frère sortie 9.3 Zoo Mais tu veux pas, tu veux pas de problème ? J'sais que tu veux pas, tu veux pas de problème Mais tu veux pas te tter-fro avec nous LMC Click frère 9.1 Grigny Zoo Ils vivent bien et nous on vit le mal et bien S'accaparent leurs biens, s'enrichissent par ... Mais tu veux pas, tu vux pas de problème ? J'sais que tu vux pas, tu veux pas de problème Mais tu veux pas te tter-fro avec nous Ghetto Fab Gang frère sortie 9.3 Zoo Mais tu veux pas, tu veux pas de problème ? J'sais que tu veux pas, tu veux pas de problème Mais tu veux pas te tter-fro avec nous LMC Click frère 9.1 Grigny Zoo Juicy Juicy P ... You might also like ... J'ai 10 d'amour le reste je sais même pas ...</t>
+          <t>Mais tu veux pas, tu veux pas de problème ? J'sais que tu veux pas, tu veux pas de problème Mais tu veux pas te tter-fro avec nous Ghetto Fab Gang frère sortie 9.3 Zoo Mais tu veux pas, tu veux pas de problème ? J'sais que tu veux pas, tu veux pas de problème Mais tu veux pas te tter-fro avec nous LMC Click frère 9.1 Grigny Zoo Ils vivent bien et nous on vit le mal et bien S'accaparent leurs biens, s'enrichissent par ... Mais tu veux pas, tu vux pas de problème ? J'sais que tu vux pas, tu veux pas de problème Mais tu veux pas te tter-fro avec nous Ghetto Fab Gang frère sortie 9.3 Zoo Mais tu veux pas, tu veux pas de problème ? J'sais que tu veux pas, tu veux pas de problème Mais tu veux pas te tter-fro avec nous LMC Click frère 9.1 Grigny Zoo Juicy Juicy P ... ... J'ai 10 d'amour le reste je sais même pas ...</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2448,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Le drame de l'Afrique, c'est que l'Homme africain n'est pas assez rentré dans l'histoire Baby you understand me now If sometimes you see that I'm mad Don't you know no one alive can always be an angel? When everything goes wrong, you see some bad But I'm just a soul whose intentions are good Oh Lord, please don't let me be misunderstood J'ai rêvé de mourir avant l'âge de 30 ans Mais Dieu n'a pas voulu, j'ai réécrit mon testament Lecture aléatoire laisse-moi t'expliquer Que la peine du Négro, boy, a assez duré J'ai prié cinq fois, mais j'ai pêché mille fois Vu des négros mourir, boy, à cause du SIDA Des caïds de la tess devenir des shlags Et les reines du trottoir porter des foulards Plus rien ne m'étonne, frère, dans ce bas-monde Le dernier des Mohicans il est rare, c'est des monuments Dans mon putain de miroir, 'vu le visage de Satan Bouts de verre incrustés dans ma chair et dans mon sang Flottant entre ciel et terre, défie la gravité Tel un baobab, mesure ma témérité Ces vérités de propos rend les négros méfiants Immersion dans mon monde rempli de stupéfiants Traffics trop denses, voies nasales bouchées Hanté par le remord de ce qu'on fait des OD Narcotique trophée dans la rue j'ai trôné Insaisissable et sournois, tu m'as vu arriver Au Trésor Public, des lois j'ai enfreints Laisse-moi te dire que l'Homme Noir n'est pas ici pour rien Laisse-moi te dire que des balles ont traversé mon corps Ricoché sur un mur, mais j'suis pas encore mort Magie noire et esprits m'ont jeté le mauvais sort Tu m'jalouses fils de pute, j'suis même pas disque d'or Sisi You might also like Ouais, ouais J'm'adresse à toi, Nicolas Sarkozy. Ou j'devrais dire Monsieur le Président de la République française... Monsieur Nicolas Sarkozy J't'ai vu aller à Dakar dire que l'Afrique n'est pas encore rentrée dans l'Histoire... Laisse-moi te dire que l'Homme Noir a commencé l'Histoire. Si 'y avait pas l'Afrique, 'y aurait pas le reste du monde, et tu le sais. L'or, le pétrole, les diamants, l'uranium avec lequel tu fais tes réacteurs nucléaires... tu sais c'est qui qui l'a, cousin. Un jour ou l'autre, tu devras nous présenter des excuses mon pote. J'm'en bats les couilles, j't'appelle comme j'veux... Tu vois ? Tu penses que toi t'es rentré dans l'histoire, toi ? Moi, j'pense pas, nan. T'es le premier président que sa meuf a trompé, t'es le premier président qu'est célibataire, frère, on n'a jamais vu ça ! Si c'est ça rentrer dans l'Histoire, nous on va s'en sortir, cousin, mon pote... Tu sais, Dakar n'a jamais élevé des balances, mon pote. On dit ce qu'on pense aux frères de la tess, au Président de la République... on courbe pas l'échine. On dit ce qu'on a à dire puis khrass. Peu importe les conséquences, cousin. La fierté, mon frère, est pleine. La tête est pleine... J'te parle pas de flingue parce que j'sais qu't'en as plus que nous, donc on peut pas s'battre. J'ai rien contre toi, ça veut rien dire... Mais le mental, il est là, cousin. Tu peux tuer un Homme, mais tu peux pas tuer ses idées, cousin Dakar c'est militant Dakar c'est la bicrave Dakar c'est gangsta Dakar n'a peur de personne Tu sais, tu t'es excusé face aux Juifs, aussi. Un jour faudra qu'tu t'excuses face aux Algériens, pour la Guerre d'Algérie Mais faudra qu'tu t'excuses à nous, surtout, pour l'Esclavage. Plus de 100 000 000 de morts, cousin. Faudra indemniser, putain... En 2050, en Afrique, on sera Un milliard, cousin. Héhé... On sera plus nombreux que les Noich, cousin. Putain ! Tout le monde va devenir métissé ou négro, cousin. Foncé, noir comme du mazout cousin... On a subi l'Esclavage on n'a pas disparu On a subi la Colonisation on n'a pas disparu On a subi la Néo-colonisation on n'a pas disparu Tu nous as apporté la prostitution, tourisme sexuel, tout ça on n'a pas disparu Regarde les Indiens, les Américains ils sont allés là-bas ils ont disparu, maintenant ils sont dans des réserves... mais les Négros ils sont là, ils résistent, cousin Ils ont pris le SIDA, ils l'ont amené en Afrique... Y a des pays, mon pote, presque 25 des mecs ils ont le SIDA, mais on est là, cousin. On résiste, mon pote. En Europe, un mec il a le SIDA il crève tout de suite. On meurt pas, cousin. Ils peuvent nous ramener toutes les maladies qu'ils veulent ! Eh paludisme, malaria, choléra, cousin... Tout ce que tu veux, cousin, même les guerres civiles ! Mais on meurt pas, cousin. Car le Vrai Négro ne meurt pas immunité, cousin. Vas-y, envoie la putain de bombe nucléaire ! On sera comme des putain de cafards à Hiroshima, mais on meurt pas, cousin ! Héhéhéhéhé... Hé ouais ! Tu pensais pas qu'un Négro allait dire ça, hein ? J'suis pas les leaders politiques, j'suis pas tout ça. J'suis juste un jeune négro qui n'en a rien à foutre. C'est tout Ha ouais. Vivre et mourir à Dakar, mon pote ! J'suis plus qu'un mec de tess', j'suis un mec de bled. Un frérot déterminé, cousin. J'veux vendre la musique, j'veux pas vendre mon âme, cousin. Sisi sisi Prends-le comme tu veux, monsieur le Président. J'ai fini mon discours. Vas-y, maintenant, laisse la femme chanter... But I'm just a soul whose intentions are good Oh Lord, please don't let me be misunderstood</t>
+          <t>Le drame de l'Afrique, c'est que l'Homme africain n'est pas assez rentré dans l'histoire Baby you understand me now If sometimes you see that I'm mad Don't you know no one alive can always be an angel? When everything goes wrong, you see some bad But I'm just a soul whose intentions are good Oh Lord, please don't let me be misunderstood J'ai rêvé de mourir avant l'âge de 30 ans Mais Dieu n'a pas voulu, j'ai réécrit mon testament Lecture aléatoire laisse-moi t'expliquer Que la peine du Négro, boy, a assez duré J'ai prié cinq fois, mais j'ai pêché mille fois Vu des négros mourir, boy, à cause du SIDA Des caïds de la tess devenir des shlags Et les reines du trottoir porter des foulards Plus rien ne m'étonne, frère, dans ce bas-monde Le dernier des Mohicans il est rare, c'est des monuments Dans mon putain de miroir, 'vu le visage de Satan Bouts de verre incrustés dans ma chair et dans mon sang Flottant entre ciel et terre, défie la gravité Tel un baobab, mesure ma témérité Ces vérités de propos rend les négros méfiants Immersion dans mon monde rempli de stupéfiants Traffics trop denses, voies nasales bouchées Hanté par le remord de ce qu'on fait des OD Narcotique trophée dans la rue j'ai trôné Insaisissable et sournois, tu m'as vu arriver Au Trésor Public, des lois j'ai enfreints Laisse-moi te dire que l'Homme Noir n'est pas ici pour rien Laisse-moi te dire que des balles ont traversé mon corps Ricoché sur un mur, mais j'suis pas encore mort Magie noire et esprits m'ont jeté le mauvais sort Tu m'jalouses fils de pute, j'suis même pas disque d'or Sisi Ouais, ouais J'm'adresse à toi, Nicolas Sarkozy. Ou j'devrais dire Monsieur le Président de la République française... Monsieur Nicolas Sarkozy J't'ai vu aller à Dakar dire que l'Afrique n'est pas encore rentrée dans l'Histoire... Laisse-moi te dire que l'Homme Noir a commencé l'Histoire. Si 'y avait pas l'Afrique, 'y aurait pas le reste du monde, et tu le sais. L'or, le pétrole, les diamants, l'uranium avec lequel tu fais tes réacteurs nucléaires... tu sais c'est qui qui l'a, cousin. Un jour ou l'autre, tu devras nous présenter des excuses mon pote. J'm'en bats les couilles, j't'appelle comme j'veux... Tu vois ? Tu penses que toi t'es rentré dans l'histoire, toi ? Moi, j'pense pas, nan. T'es le premier président que sa meuf a trompé, t'es le premier président qu'est célibataire, frère, on n'a jamais vu ça ! Si c'est ça rentrer dans l'Histoire, nous on va s'en sortir, cousin, mon pote... Tu sais, Dakar n'a jamais élevé des balances, mon pote. On dit ce qu'on pense aux frères de la tess, au Président de la République... on courbe pas l'échine. On dit ce qu'on a à dire puis khrass. Peu importe les conséquences, cousin. La fierté, mon frère, est pleine. La tête est pleine... J'te parle pas de flingue parce que j'sais qu't'en as plus que nous, donc on peut pas s'battre. J'ai rien contre toi, ça veut rien dire... Mais le mental, il est là, cousin. Tu peux tuer un Homme, mais tu peux pas tuer ses idées, cousin Dakar c'est militant Dakar c'est la bicrave Dakar c'est gangsta Dakar n'a peur de personne Tu sais, tu t'es excusé face aux Juifs, aussi. Un jour faudra qu'tu t'excuses face aux Algériens, pour la Guerre d'Algérie Mais faudra qu'tu t'excuses à nous, surtout, pour l'Esclavage. Plus de 100 000 000 de morts, cousin. Faudra indemniser, putain... En 2050, en Afrique, on sera Un milliard, cousin. Héhé... On sera plus nombreux que les Noich, cousin. Putain ! Tout le monde va devenir métissé ou négro, cousin. Foncé, noir comme du mazout cousin... On a subi l'Esclavage on n'a pas disparu On a subi la Colonisation on n'a pas disparu On a subi la Néo-colonisation on n'a pas disparu Tu nous as apporté la prostitution, tourisme sexuel, tout ça on n'a pas disparu Regarde les Indiens, les Américains ils sont allés là-bas ils ont disparu, maintenant ils sont dans des réserves... mais les Négros ils sont là, ils résistent, cousin Ils ont pris le SIDA, ils l'ont amené en Afrique... Y a des pays, mon pote, presque 25 des mecs ils ont le SIDA, mais on est là, cousin. On résiste, mon pote. En Europe, un mec il a le SIDA il crève tout de suite. On meurt pas, cousin. Ils peuvent nous ramener toutes les maladies qu'ils veulent ! Eh paludisme, malaria, choléra, cousin... Tout ce que tu veux, cousin, même les guerres civiles ! Mais on meurt pas, cousin. Car le Vrai Négro ne meurt pas immunité, cousin. Vas-y, envoie la putain de bombe nucléaire ! On sera comme des putain de cafards à Hiroshima, mais on meurt pas, cousin ! Héhéhéhéhé... Hé ouais ! Tu pensais pas qu'un Négro allait dire ça, hein ? J'suis pas les leaders politiques, j'suis pas tout ça. J'suis juste un jeune négro qui n'en a rien à foutre. C'est tout Ha ouais. Vivre et mourir à Dakar, mon pote ! J'suis plus qu'un mec de tess', j'suis un mec de bled. Un frérot déterminé, cousin. J'veux vendre la musique, j'veux pas vendre mon âme, cousin. Sisi sisi Prends-le comme tu veux, monsieur le Président. J'ai fini mon discours. Vas-y, maintenant, laisse la femme chanter... But I'm just a soul whose intentions are good Oh Lord, please don't let me be misunderstood</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2465,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Négro j'ai peur de personne et je m'en bats les couilles 93 banlieue, capitale des embrouilles Fuck avec nous, c'est du sang que tu pisseras On est des thugs frérot seul Dieu nous jugera Négro j'ai peur de personne et je m'en bats les couilles 93 banlieue, capitale des embrouilles Fuck avec nous, c'est du sang que tu pisseras On est des thugs frérot seul Dieu nous jugera C'est hood boss patronat, Ghetto Fab immobilier Val d'Oise intouchable de Sarcelles à Villiers Meurtri devant le bloc, plein de frères m'ont trahi Ils ont poucave, pris des peines maintenant ils rament comme des chiens Boy boy Sénégal dans le biz jamais s'égare Mais toujours la même histoire, les flingues et la maille Pour la maille négro je mets un prix sur ta tête Ile de France 93 boy chez t'es wanted Pour la maille négro ils ont tué mon pote La bicrave c'est pas bon mais je squatte encore le bloc Economie parallèle, on fabrique de la neige Et l'amour est mort ici c'est marche ou crève Rodéo avec les keufs, bloc 93 Petits frères sont fonce-dés, souffrance qu'on abrège Tu peux venir faire du ski mais n'oublie pas tes billets Sinon c'est l'ange de la mort qui guide nos canons sciés You might also like Négro j'ai peur de personne et je m'en bats les couilles 93 banlieue, capitale des embrouilles Fuck avec nous, c'est du sang que tu pisseras On est des thugs frérot seul Dieu nous jugera Négro j'ai peur de personne et je m'en bats les couilles 93 banlieue, capitale des embrouilles Fuck avec nous, c'est du sang que tu pisseras On est des thugs frérot seul Dieu nous jugera J'viens revendiquer la tête, préviens les tous c'est Niakovitch RS4 c'est ma troupe, j'ai le rap dans mes tripes ... Négro j'ai peur de personne et je m'en bats les couilles 93 banlieue, capitale des embrouilles Fuck avec nous, c'est du sang que tu pisseras On est des thugs frérot seul Dieu nous jugera Négro j'ai peur de personne et je m'en bats les couilles 93 banlieue, capitale des embrouilles Fuck avec nous, c'est du sang que tu pisseras On est des thugs frérot seul Dieu nous jugera</t>
+          <t>Négro j'ai peur de personne et je m'en bats les couilles 93 banlieue, capitale des embrouilles Fuck avec nous, c'est du sang que tu pisseras On est des thugs frérot seul Dieu nous jugera Négro j'ai peur de personne et je m'en bats les couilles 93 banlieue, capitale des embrouilles Fuck avec nous, c'est du sang que tu pisseras On est des thugs frérot seul Dieu nous jugera C'est hood boss patronat, Ghetto Fab immobilier Val d'Oise intouchable de Sarcelles à Villiers Meurtri devant le bloc, plein de frères m'ont trahi Ils ont poucave, pris des peines maintenant ils rament comme des chiens Boy boy Sénégal dans le biz jamais s'égare Mais toujours la même histoire, les flingues et la maille Pour la maille négro je mets un prix sur ta tête Ile de France 93 boy chez t'es wanted Pour la maille négro ils ont tué mon pote La bicrave c'est pas bon mais je squatte encore le bloc Economie parallèle, on fabrique de la neige Et l'amour est mort ici c'est marche ou crève Rodéo avec les keufs, bloc 93 Petits frères sont fonce-dés, souffrance qu'on abrège Tu peux venir faire du ski mais n'oublie pas tes billets Sinon c'est l'ange de la mort qui guide nos canons sciés Négro j'ai peur de personne et je m'en bats les couilles 93 banlieue, capitale des embrouilles Fuck avec nous, c'est du sang que tu pisseras On est des thugs frérot seul Dieu nous jugera Négro j'ai peur de personne et je m'en bats les couilles 93 banlieue, capitale des embrouilles Fuck avec nous, c'est du sang que tu pisseras On est des thugs frérot seul Dieu nous jugera J'viens revendiquer la tête, préviens les tous c'est Niakovitch RS4 c'est ma troupe, j'ai le rap dans mes tripes ... Négro j'ai peur de personne et je m'en bats les couilles 93 banlieue, capitale des embrouilles Fuck avec nous, c'est du sang que tu pisseras On est des thugs frérot seul Dieu nous jugera Négro j'ai peur de personne et je m'en bats les couilles 93 banlieue, capitale des embrouilles Fuck avec nous, c'est du sang que tu pisseras On est des thugs frérot seul Dieu nous jugera</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2482,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Y'a trop de fiottes dans le rap frère écoute moi Et si je mens dans ce vers boy coupe moi Trop de rumeurs de fils de pute qui circulent Tends l'oreille frère mais garde l'esprit critique Les négros de ta cité manquent de principes Ils font du biff mais c'est même pas eux qui décident Les trafiquants et les dealers écoutent ma musique Y'a embrouille frère l'attitude est sismique Ils ont des flingues mais pour moi c'est du cinéma Zahma eux tous c'est des hors la loi Avis aux mecs de tess qui à Dakar jouent les chauds On va te niquer ta mère ici c'est pas ton ghetto Tu danses à poil sous la menace du coupe coupe Je claque des doigts et ... J'suis un fatigué, j'suis au fond du gouffre Et si je perds frère tous mes gars souffrent Plus de mailles, plus de meurtres, plus d'homicides Mes négros s'infiltrent dans ton domicile Les casse-pipes, la loi du fer j'en connais un bout Du crépuscule jusqu'à l'aube j'suis encore deboutYou might also like</t>
+          <t>Y'a trop de fiottes dans le rap frère écoute moi Et si je mens dans ce vers boy coupe moi Trop de rumeurs de fils de pute qui circulent Tends l'oreille frère mais garde l'esprit critique Les négros de ta cité manquent de principes Ils font du biff mais c'est même pas eux qui décident Les trafiquants et les dealers écoutent ma musique Y'a embrouille frère l'attitude est sismique Ils ont des flingues mais pour moi c'est du cinéma Zahma eux tous c'est des hors la loi Avis aux mecs de tess qui à Dakar jouent les chauds On va te niquer ta mère ici c'est pas ton ghetto Tu danses à poil sous la menace du coupe coupe Je claque des doigts et ... J'suis un fatigué, j'suis au fond du gouffre Et si je perds frère tous mes gars souffrent Plus de mailles, plus de meurtres, plus d'homicides Mes négros s'infiltrent dans ton domicile Les casse-pipes, la loi du fer j'en connais un bout Du crépuscule jusqu'à l'aube j'suis encore debout</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2499,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Y'a trop de fiottes dans le rap frère écoute moi Et si je mens dans ce vers boy coupe moi Trop de rumeurs de fils de pute qui circulent Tends l'oreille frère mais garde l'esprit critique Les négros de ta cité manquent de principes Ils font du biff mais c'est même pas eux qui décident Les trafiquants et les dealers écoutent ma musique Y'a embrouille frère l'attitud est sismique Ils ont des flingus mais pour moi c'est du cinéma Zahma eux tous c'est des hors la loi Avis aux mecs de tess qui à Dakar jouent les chauds On va te niquer ta mère ici c'est pas ton ghetto Tu danses à poil sous la menace du coupe coupe Je claque des doigts et ... J'suis un fatigué, j'suis au fond du gouffre Et si je perds frère tous mes gars souffrent Plus de mailles, plus de meurtres, plus d'homicides Mes négros s'infiltrent dans ton domicile Les casse-pipes, la loi du fer j'en connais un bout Du crépuscule jusqu'à l'aube j'suis encore debout Plus de mailles, plus de meurtres, plus d'homicides Mes négros s'infiltrent dans ton domicile Les casse-pipes, la loi du fer j'en connais un bout Du crépuscule jusqu'à l'aube j'suis encore debout You might also like J'ai de la maille, j'ai des armes, j'ai des soldats Pas de place dans mon coeur pour les ingrats Au tribunal frère j'ai des juifs avocats Demande à quiconque, la maille ne change pas Je viens de Dakar loin d'Hollywood Injection léthale moi j'suis comme Ice Cube Bandana rouge frère ... Tir à volonté, Yarakh City East Wood Le restant de la famille vient de Mantes-La Ils attendent mon signal pour tirer sur toi T'es pas de Blankok, t'es pas de Montfermeil T'es pas de Clichy-Sous, t'es pas d'Epinay Orgemont ...</t>
+          <t>Y'a trop de fiottes dans le rap frère écoute moi Et si je mens dans ce vers boy coupe moi Trop de rumeurs de fils de pute qui circulent Tends l'oreille frère mais garde l'esprit critique Les négros de ta cité manquent de principes Ils font du biff mais c'est même pas eux qui décident Les trafiquants et les dealers écoutent ma musique Y'a embrouille frère l'attitud est sismique Ils ont des flingus mais pour moi c'est du cinéma Zahma eux tous c'est des hors la loi Avis aux mecs de tess qui à Dakar jouent les chauds On va te niquer ta mère ici c'est pas ton ghetto Tu danses à poil sous la menace du coupe coupe Je claque des doigts et ... J'suis un fatigué, j'suis au fond du gouffre Et si je perds frère tous mes gars souffrent Plus de mailles, plus de meurtres, plus d'homicides Mes négros s'infiltrent dans ton domicile Les casse-pipes, la loi du fer j'en connais un bout Du crépuscule jusqu'à l'aube j'suis encore debout Plus de mailles, plus de meurtres, plus d'homicides Mes négros s'infiltrent dans ton domicile Les casse-pipes, la loi du fer j'en connais un bout Du crépuscule jusqu'à l'aube j'suis encore debout J'ai de la maille, j'ai des armes, j'ai des soldats Pas de place dans mon coeur pour les ingrats Au tribunal frère j'ai des juifs avocats Demande à quiconque, la maille ne change pas Je viens de Dakar loin d'Hollywood Injection léthale moi j'suis comme Ice Cube Bandana rouge frère ... Tir à volonté, Yarakh City East Wood Le restant de la famille vient de Mantes-La Ils attendent mon signal pour tirer sur toi T'es pas de Blankok, t'es pas de Montfermeil T'es pas de Clichy-Sous, t'es pas d'Epinay Orgemont ...</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2516,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Police murderer, police killer killer Police murderer, police killer killer Police murderer, police killer killer Police murderer, murderer murderer Police murderer, police killer killer Police murderer, police killer killer Police murderer, police killer killr Police murderer, murdrer murderer J'suis encore un esclave, seul mon prix est plus cher Jusqu'au jour où Allah me réduira en poussière Ma vie sur Terre, la rage de Black Panther L'idéal de Ben Laden et de Martin Luther Rêve de guerre en temps de paix, le silence est d'or Embrouille de trafiquants, on peut régler ça dehors L'Ile de France c'est l'axe du mal, on fait trembler l'Amérique Comme les essais nucléaires, pression atmosphérique La vie d'une balance vaut au moins que celle d'un chien Apprendre ça frère, au fond de moi m'a fait du bienYou might also like</t>
+          <t>Police murderer, police killer killer Police murderer, police killer killer Police murderer, police killer killer Police murderer, murderer murderer Police murderer, police killer killer Police murderer, police killer killer Police murderer, police killer killr Police murderer, murdrer murderer J'suis encore un esclave, seul mon prix est plus cher Jusqu'au jour où Allah me réduira en poussière Ma vie sur Terre, la rage de Black Panther L'idéal de Ben Laden et de Martin Luther Rêve de guerre en temps de paix, le silence est d'or Embrouille de trafiquants, on peut régler ça dehors L'Ile de France c'est l'axe du mal, on fait trembler l'Amérique Comme les essais nucléaires, pression atmosphérique La vie d'une balance vaut au moins que celle d'un chien Apprendre ça frère, au fond de moi m'a fait du bien</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2533,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz Banlieusards tous pop les gunz reste tranquille khey Tu pourrais finir le coffre d'une Benz ou d'un Clio Les bails sont simples il n'y aura pas de suspense Une balle dans ton crâne ... Avant les armes négro la fierté tue ... Banlieusards tous pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz Ça pop les guns que ce soit dans les provinces ou les banlieues Les guns, les larmes sont les mêmes khey tout ce qui change c'est le lieu La balle s'est calée tout droit ... Mon sourire ne reflète mon état d'esprit en rien ... Si logique pour moi qu'après la balle arrivent les premiers soins You might also like 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz</t>
+          <t>93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz Banlieusards tous pop les gunz reste tranquille khey Tu pourrais finir le coffre d'une Benz ou d'un Clio Les bails sont simples il n'y aura pas de suspense Une balle dans ton crâne ... Avant les armes négro la fierté tue ... Banlieusards tous pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz Ça pop les guns que ce soit dans les provinces ou les banlieues Les guns, les larmes sont les mêmes khey tout ce qui change c'est le lieu La balle s'est calée tout droit ... Mon sourire ne reflète mon état d'esprit en rien ... Si logique pour moi qu'après la balle arrivent les premiers soins 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2550,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Ghetto Fabulous Gang en attendant le DVD C'est pour mes rebeux trafiquants qui attendent sous le pont Même devant les flics bicravent des faux sacs Louis Vuitton Bienvenue à Clignancourt ce n'est pas la France ici Et je t'assure que Rocancourt ne fera pas long feu ici On a des armes, on a des armes de première catégorie Des écrans plasma qu'on a volé à moitié prix J'suis le roi des insoumis, j'ai pas de pierre sur mon trôn Niquer l'Etat tous les jours, la seul valeur que nous on prône Ghetto Fabulous Gang, négros savent qu'on a souffert Casino ambulant, tous les jours on est ouvert Man appelle le commissaire, on lui paye un pot de vin Nos ennemis sous le périph, on les allonge à coup de surin On vise la lune, on vise la lune, regarde le monde de travers 93, Seine et Marne A.K.A hommes des cavernes Moi je crache la crème du crime, puis après l'industrie pleure Bienvenue à Clignancourt, paradis des receleurs hey Je viens de Dakar mais 9.3 je représente Les dealers, vendeurs de drogue je représente Les hustlers dans la tess man je représente Bienvenue à Clicli nous aussi on représénte Les braqueurs de banque négro moi je représente Les hustlers dans le bloc man je représente Bienvenue à Clicli ... on représente You might also like ...</t>
+          <t>Ghetto Fabulous Gang en attendant le DVD C'est pour mes rebeux trafiquants qui attendent sous le pont Même devant les flics bicravent des faux sacs Louis Vuitton Bienvenue à Clignancourt ce n'est pas la France ici Et je t'assure que Rocancourt ne fera pas long feu ici On a des armes, on a des armes de première catégorie Des écrans plasma qu'on a volé à moitié prix J'suis le roi des insoumis, j'ai pas de pierre sur mon trôn Niquer l'Etat tous les jours, la seul valeur que nous on prône Ghetto Fabulous Gang, négros savent qu'on a souffert Casino ambulant, tous les jours on est ouvert Man appelle le commissaire, on lui paye un pot de vin Nos ennemis sous le périph, on les allonge à coup de surin On vise la lune, on vise la lune, regarde le monde de travers 93, Seine et Marne A.K.A hommes des cavernes Moi je crache la crème du crime, puis après l'industrie pleure Bienvenue à Clignancourt, paradis des receleurs hey Je viens de Dakar mais 9.3 je représente Les dealers, vendeurs de drogue je représente Les hustlers dans la tess man je représente Bienvenue à Clicli nous aussi on représénte Les braqueurs de banque négro moi je représente Les hustlers dans le bloc man je représente Bienvenue à Clicli ... on représente ...</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2567,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Du liquide du liquide niggaz On les kill on les brûle niggaz Position de force niggaz Sortez tous vos glocks niggaz Du liquide du liquide niggaz On les kill on les brûle niggaz Position de force niggaz Sortez tous vos glocks niggaz Raricim 100 un pur sang un étalon ... Du liquide du liquide niggaz On les kill on les brûle niggaz Position de force niggaz Sortez tous vos glocks niggaz Du liquide du liquide niggaz On les kill on les brûle niggaz Position de force niggaz Sortez tous vos glocks niggaz ... You might also like Du liquide du liquide niggaz On les kill on les brûle niggaz Position de force niggaz Sortez tous vos glocks niggaz Du liquide du liquide niggaz On ls kill on les brûle niggaz Position de forc niggaz Sortez tous vos glocks niggaz Ça c'est le son pour les bandits banlieusards reurtis ... ... Du liquide du liquide niggaz On les kill on les brûle niggaz Position de force niggaz Sortez tous vos glocks niggaz Du liquide du liquide niggaz On les kill on les brûle niggaz Position de force niggaz Sortez tous vos glocks niggaz</t>
+          <t>Du liquide du liquide niggaz On les kill on les brûle niggaz Position de force niggaz Sortez tous vos glocks niggaz Du liquide du liquide niggaz On les kill on les brûle niggaz Position de force niggaz Sortez tous vos glocks niggaz Raricim 100 un pur sang un étalon ... Du liquide du liquide niggaz On les kill on les brûle niggaz Position de force niggaz Sortez tous vos glocks niggaz Du liquide du liquide niggaz On les kill on les brûle niggaz Position de force niggaz Sortez tous vos glocks niggaz ... Du liquide du liquide niggaz On les kill on les brûle niggaz Position de force niggaz Sortez tous vos glocks niggaz Du liquide du liquide niggaz On ls kill on les brûle niggaz Position de forc niggaz Sortez tous vos glocks niggaz Ça c'est le son pour les bandits banlieusards reurtis ... ... Du liquide du liquide niggaz On les kill on les brûle niggaz Position de force niggaz Sortez tous vos glocks niggaz Du liquide du liquide niggaz On les kill on les brûle niggaz Position de force niggaz Sortez tous vos glocks niggaz</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2584,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Petite fiotte ... Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Temporise ... On est pas les plus à plaindre mais les plus à craindre ... You might also like Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns ...</t>
+          <t>Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Petite fiotte ... Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Temporise ... On est pas les plus à plaindre mais les plus à craindre ... Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns ...</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2601,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Ok Seth Gueko, Alpha 5.20, Mista Flo Blablaw blablaw! Ma couillasse, on a des ganaches de diablotins J'arrive comme une bavasse ramassée sur des rails de train A la piscaille on a le famas qui sort du maillot de bain Cherche pas à savoir ce qui se pagasse chez les mangeurs de ragondins On te laisse même pas la place du strapontin Je suis en tête de wagon, prends tes couilles shootes les comme au drimobin Je crache les flammes comme un zgeg de dragon On baisera un par un ceux qui ont pris mon pain Hein mon copain, on a des gueules de gangsters On va te renvoyer chez ta mater tes couilles dans un lance-pierre Ma bouche faisait BLAW BLAW, mon cul joue du saxo Si mon grand père serai vivant, il te mettrait un coup de sabot On se fait la manucure sous le capot Je tise la vignasse, j'tire ta tignasse J'allais chez mes potes reubeus manger le couscous Ils venaient chez moi manger des coquillettes Autour du cou j'ai pas de bling-bling j'ai une chaîne de mobylette You might also like Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Avant que les keufs nous arrêtent Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Street Lourd J'crache 16 bastos, crois-moi tu vas les sentir P'tit pd, tu cours vite mais tu sais pas d'où ça tire Tu peux me pointer du doigt parce que j'ai fait du placard Dans le cul des pointeurs, je passais un gros coup de pointard Fi dar, je repense aux potos au mitard Le maton que je croise dehors j'le hagar C'est Street Lourd bâtard, on va tout baiser Mitraillette en levrette, ton gros cul va saigner Tu veux te protéger des MST, qui peut tester M.I.S.T.A Autant taper du LSD ou du MDMA J'déconne hahaha, j'dégomme XXX, viens bonhomme hahaha, viens bonhomme Qui veut m'empêcher de prendre mon argent dans l'industrie du disque? J'le prendrai dans la rue, je connais les risques Et nique sa mère le fisc Fils de pute, t'attends qu'on chute T'ouvres ton cul par derrière, quand tu nous vois tu nous suces Salope, tu te reconnais? Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Avant que les keufs nous arrêtent Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Street Lourd C'est pas du rap négro, mais des menaces de mort Enculé de ta race, je sais maintenant où tu dors 9.3 poto sur la came a Tony Puis refourge ces chèques à la Star Academy Tu parles trop à mon goût, dans le fond t'agis peu Ghetto Fabulous Gang, un aller simple dans le feu Il se croit imperméable puis dégaine les fusils Mes embrouilles c'est des shlass, pics à glace et grigris Qui a peur de mourir? Certainement pas nous A l'état ftal, ma mère se plaignait des coups J'suis venu bicrave, j'suis venu chourave Les joyaux de la couronne, les suceurs et leurs apôtres Je suis nocif aux novices, négro t'es qu'une catin La cité pour moi, boy, c'est qu'un jardin Tout le monde est calibré mais tout le monde ne tire pas Je suis au bord de la falaise frère on me pousse pas Eh Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Avant que les keufs nous arrêtent Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Street Lourd</t>
+          <t>Ok Seth Gueko, Alpha 5.20, Mista Flo Blablaw blablaw! Ma couillasse, on a des ganaches de diablotins J'arrive comme une bavasse ramassée sur des rails de train A la piscaille on a le famas qui sort du maillot de bain Cherche pas à savoir ce qui se pagasse chez les mangeurs de ragondins On te laisse même pas la place du strapontin Je suis en tête de wagon, prends tes couilles shootes les comme au drimobin Je crache les flammes comme un zgeg de dragon On baisera un par un ceux qui ont pris mon pain Hein mon copain, on a des gueules de gangsters On va te renvoyer chez ta mater tes couilles dans un lance-pierre Ma bouche faisait BLAW BLAW, mon cul joue du saxo Si mon grand père serai vivant, il te mettrait un coup de sabot On se fait la manucure sous le capot Je tise la vignasse, j'tire ta tignasse J'allais chez mes potes reubeus manger le couscous Ils venaient chez moi manger des coquillettes Autour du cou j'ai pas de bling-bling j'ai une chaîne de mobylette Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Avant que les keufs nous arrêtent Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Street Lourd J'crache 16 bastos, crois-moi tu vas les sentir P'tit pd, tu cours vite mais tu sais pas d'où ça tire Tu peux me pointer du doigt parce que j'ai fait du placard Dans le cul des pointeurs, je passais un gros coup de pointard Fi dar, je repense aux potos au mitard Le maton que je croise dehors j'le hagar C'est Street Lourd bâtard, on va tout baiser Mitraillette en levrette, ton gros cul va saigner Tu veux te protéger des MST, qui peut tester M.I.S.T.A Autant taper du LSD ou du MDMA J'déconne hahaha, j'dégomme XXX, viens bonhomme hahaha, viens bonhomme Qui veut m'empêcher de prendre mon argent dans l'industrie du disque? J'le prendrai dans la rue, je connais les risques Et nique sa mère le fisc Fils de pute, t'attends qu'on chute T'ouvres ton cul par derrière, quand tu nous vois tu nous suces Salope, tu te reconnais? Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Avant que les keufs nous arrêtent Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Street Lourd C'est pas du rap négro, mais des menaces de mort Enculé de ta race, je sais maintenant où tu dors 9.3 poto sur la came a Tony Puis refourge ces chèques à la Star Academy Tu parles trop à mon goût, dans le fond t'agis peu Ghetto Fabulous Gang, un aller simple dans le feu Il se croit imperméable puis dégaine les fusils Mes embrouilles c'est des shlass, pics à glace et grigris Qui a peur de mourir? Certainement pas nous A l'état ftal, ma mère se plaignait des coups J'suis venu bicrave, j'suis venu chourave Les joyaux de la couronne, les suceurs et leurs apôtres Je suis nocif aux novices, négro t'es qu'une catin La cité pour moi, boy, c'est qu'un jardin Tout le monde est calibré mais tout le monde ne tire pas Je suis au bord de la falaise frère on me pousse pas Eh Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Avant que les keufs nous arrêtent Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Street Lourd</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2618,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Many, c'est quoi les bails ? J'suis pas au charbon, mais au champs de bataille 9 millimètres baby, AK-47 Papapapa, un autre frère est dead J'veux pas me débattre car tout est écrit Et les anges viennent me dire Alpha ça suffit J'ai le corps inerte et mon coeur ne bats plus J'suis près pour l'au-delà mais je vois mes ennemis Seigneur donne-moi une autres vie J'veux leur régler leur compte, tirer sur leur famille Plus tous leurs proches, Yakouza alpha style mauchi-mauchi Moi je tire sur le maire comme à Nagazaki La vengeance est mienne c'est ce qu'a dit le seigneur Renoi t'appelle frère quand il sont pas au beurre L'erreur est humaine mais je pardonne pas Même au fond de ma tombe j'maudis leur familia Racket, traffic, extorsion de fond Que des fous d'la gachette dans mes environs Et pourquoi avoir pitié les négros veulent ma mort Ravbaï leur quartier j'arrive sur un raptor Many, c'est quoi les bails ? J'suis pas au charbon, mais au champs de bataille 9 millimètres baby, AK-47 Papapapa, un autre frère est dead You might also like C'est dur maintenant de ne pas tuer des négros C'est comme un job à plein temps de ne pas tuer des négros Ils démarrent leurs vies, j'lève le frein à main La mort est omniprésente dans mes alexandrins J'ai les couilles trop pleines mais les chargeurs vides A force d'envoyer des rafales dans l'bide Devant les portes du paradis j'ai le pas qui hésite Deux morts dans la conscience et Satan m'plébiscite Je me suis douché sept fois mais rien à faire poto La poudre du fusil me colle encore à la peau Alpha est trop froid à l'ancienne mamou Haiti c'est mort de mort comme les tontons magouille Quand il s'agit d'embrouilles, viens avec toute ta cité Moi j'tire dans le tas même pas besoin de viser Si je pars négro, toi aussi tu dois partir Comme 2Pac à Vegas criblé dans sa voiture Many, c'est quoi les bails ? J'suis pas au charbon, mais au champs de bataille 9 millimètres baby, AK-47 Papapapa, un autre frère est dead Eh frère tu sais même pas pourquoi, les négros te haissent mec Eh j'suis même pas riche mon frère, les négros ils ont déjà d'la haine Eh mais j'vais te dire une chose mon frère Même quand j's'rai millionaire mon frère Eh moi aussi j's'rai un rageux comme toi Eh vaz-y nique ta race mon frère Eh vaz-y j'te souhaite la mort, j'm'en bas les couille mon frère Tu peux crever à p'tit feu toi et toute ta cité Tous les petits bouffons macaques, ouistitis, qu'roule avec toi mon frère Eh tu peux dead dix fois, personne ne va pleurer ici raï Eh Rakailles 4 arrive et j'sais t'as la rage encore mon frère Eh tes poumons ils veulent sortir d'ta bouche mon frère Tellement t'as la seum mon frère Yeahh diseuf Dakar, eh diseuf Dakar Ghettos Moneys, on va faire c't'argent négro le veuille ou pas C'est pas grave, Dakar stand-up mon frère Galsen 2 doit vivre, stand-up mon frère Tout mes vrais renois qui font d'la maille dans la tess stand-up mon frère Many c'est quoi les bails j'vais t'niquer sale batard Rakailles 4 arrive !</t>
+          <t>Many, c'est quoi les bails ? J'suis pas au charbon, mais au champs de bataille 9 millimètres baby, AK-47 Papapapa, un autre frère est dead J'veux pas me débattre car tout est écrit Et les anges viennent me dire Alpha ça suffit J'ai le corps inerte et mon coeur ne bats plus J'suis près pour l'au-delà mais je vois mes ennemis Seigneur donne-moi une autres vie J'veux leur régler leur compte, tirer sur leur famille Plus tous leurs proches, Yakouza alpha style mauchi-mauchi Moi je tire sur le maire comme à Nagazaki La vengeance est mienne c'est ce qu'a dit le seigneur Renoi t'appelle frère quand il sont pas au beurre L'erreur est humaine mais je pardonne pas Même au fond de ma tombe j'maudis leur familia Racket, traffic, extorsion de fond Que des fous d'la gachette dans mes environs Et pourquoi avoir pitié les négros veulent ma mort Ravbaï leur quartier j'arrive sur un raptor Many, c'est quoi les bails ? J'suis pas au charbon, mais au champs de bataille 9 millimètres baby, AK-47 Papapapa, un autre frère est dead C'est dur maintenant de ne pas tuer des négros C'est comme un job à plein temps de ne pas tuer des négros Ils démarrent leurs vies, j'lève le frein à main La mort est omniprésente dans mes alexandrins J'ai les couilles trop pleines mais les chargeurs vides A force d'envoyer des rafales dans l'bide Devant les portes du paradis j'ai le pas qui hésite Deux morts dans la conscience et Satan m'plébiscite Je me suis douché sept fois mais rien à faire poto La poudre du fusil me colle encore à la peau Alpha est trop froid à l'ancienne mamou Haiti c'est mort de mort comme les tontons magouille Quand il s'agit d'embrouilles, viens avec toute ta cité Moi j'tire dans le tas même pas besoin de viser Si je pars négro, toi aussi tu dois partir Comme 2Pac à Vegas criblé dans sa voiture Many, c'est quoi les bails ? J'suis pas au charbon, mais au champs de bataille 9 millimètres baby, AK-47 Papapapa, un autre frère est dead Eh frère tu sais même pas pourquoi, les négros te haissent mec Eh j'suis même pas riche mon frère, les négros ils ont déjà d'la haine Eh mais j'vais te dire une chose mon frère Même quand j's'rai millionaire mon frère Eh moi aussi j's'rai un rageux comme toi Eh vaz-y nique ta race mon frère Eh vaz-y j'te souhaite la mort, j'm'en bas les couille mon frère Tu peux crever à p'tit feu toi et toute ta cité Tous les petits bouffons macaques, ouistitis, qu'roule avec toi mon frère Eh tu peux dead dix fois, personne ne va pleurer ici raï Eh Rakailles 4 arrive et j'sais t'as la rage encore mon frère Eh tes poumons ils veulent sortir d'ta bouche mon frère Tellement t'as la seum mon frère Yeahh diseuf Dakar, eh diseuf Dakar Ghettos Moneys, on va faire c't'argent négro le veuille ou pas C'est pas grave, Dakar stand-up mon frère Galsen 2 doit vivre, stand-up mon frère Tout mes vrais renois qui font d'la maille dans la tess stand-up mon frère Many c'est quoi les bails j'vais t'niquer sale batard Rakailles 4 arrive !</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2635,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Check ma life check mon DVD Shimmy Shimmy ya à la ODB Yarakh mon hood, filtre OCB Défoncé tous les jours comme Bob Marley Stoppe au feu rouge boy je suis mortel Je t'impressionne sans brolic ni scalpel Moi je rappe taliban, pas de Montana Mon bloc c'est chaud comme l'Arizona Résident 9.3 la famille 7.8 Mantes la Jolie al Poular city On se défonce on kill batty boys sont dead Pop mon hood dans le bâtiment D Yo c'est le hood boss et je maille depuis Kriss Kross Cuban Links Wu Tang Reakwon et ... Fuck avec moi c'est du sang que tu pisseras J'suis un thug alors sul Dieu me jugera Ghtto Fab all stars, Ghetto Fab holster Un rap de taliban et les autres derrière Si les renois veulent la guerre qu'ils viennent ... Et je t'assure qu'ils repartent à 4 pattes comme des chiens Ghetto Fab all stars, Ghetto Fab holster Un rap de taliban et les autres derrière Si les renois veulent la guerre qu'ils viennent ... Et je t'assure qu'ils repartent à 4 pattes comme des chiens You might also like Yo c'est la banque populaire mec du ghetto 5.20 platinum faut se lever tôt Rimes et gloire Boss.P plein de trophées Cances-va à Dakar boy tu peux morfler ... Ghetto Fab all stars, Ghetto Fab holster Un rap de taliban et les autres derrière Si les renois veulent la guerre qu'ils viennent ... Et je t'assure qu'ils repartent à 4 pattes comme des chiens Ghetto Fab all stars, Ghetto Fab holster Un rap de taliban et les autres derrière Si les renois veulent la guerre qu'ils viennent ... Et je t'assure qu'ils repartent à 4 pattes comme des chiens</t>
+          <t>Check ma life check mon DVD Shimmy Shimmy ya à la ODB Yarakh mon hood, filtre OCB Défoncé tous les jours comme Bob Marley Stoppe au feu rouge boy je suis mortel Je t'impressionne sans brolic ni scalpel Moi je rappe taliban, pas de Montana Mon bloc c'est chaud comme l'Arizona Résident 9.3 la famille 7.8 Mantes la Jolie al Poular city On se défonce on kill batty boys sont dead Pop mon hood dans le bâtiment D Yo c'est le hood boss et je maille depuis Kriss Kross Cuban Links Wu Tang Reakwon et ... Fuck avec moi c'est du sang que tu pisseras J'suis un thug alors sul Dieu me jugera Ghtto Fab all stars, Ghetto Fab holster Un rap de taliban et les autres derrière Si les renois veulent la guerre qu'ils viennent ... Et je t'assure qu'ils repartent à 4 pattes comme des chiens Ghetto Fab all stars, Ghetto Fab holster Un rap de taliban et les autres derrière Si les renois veulent la guerre qu'ils viennent ... Et je t'assure qu'ils repartent à 4 pattes comme des chiens Yo c'est la banque populaire mec du ghetto 5.20 platinum faut se lever tôt Rimes et gloire Boss.P plein de trophées Cances-va à Dakar boy tu peux morfler ... Ghetto Fab all stars, Ghetto Fab holster Un rap de taliban et les autres derrière Si les renois veulent la guerre qu'ils viennent ... Et je t'assure qu'ils repartent à 4 pattes comme des chiens Ghetto Fab all stars, Ghetto Fab holster Un rap de taliban et les autres derrière Si les renois veulent la guerre qu'ils viennent ... Et je t'assure qu'ils repartent à 4 pattes comme des chiens</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2652,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Placé dans le ghetto à l'âge de 13 ans 2 fils, papa est mort quand javais 15 ans Mon voeu le plus cher c'était acheter du temps Au cas où il n'aurait pas plus à vivre longtemps Ses yeux dans les miens, je vis avec ses mémoires Le soleil brille frère, cest moi l'espoir Coûte que coûte sa vie se conjugue à celle des miens Et toute mon existence est une quête vers le bien Eclipse m'envoie puis j'accentue ma foi Si mes nègres portent des armes c'est parce qu'ils ont pas le choix On meurt comme des soldats si on vit pas comme des rois Mes fleurs sur ma tombe frère ... Dakar jusqu'à Paris fils en état de sursis Vis ta vie après l'esprit sest endurci Comme Olivia Stone entre ciel et terre suspendus ... Vivre sa vie ou mourir comme un autre Négro moi jai grandi au milieu des pauvres Des rêves brisés en bas des Champs Elysées Après la pluie c'est lorage c'est ça qu'ils nous prédisaient Vivre sa vie ou mourir comme un autre Négro moi j'ai grandi au milieu des pauvres Des rêves brisés en bas des Champs Elysées Après la pluie cest l'orage c'est ça qu'ils nous prédisaient You might also like Les jours passent et les frères font la même chose Les mêmes toxs viennent te voir pour la même dose Pardonne moi moi je t'ai vendu la mort J'ai pas fait exprès mais fallait que je m'en sorte Je t'aime pourtant je t'ai donné du poison J'ai fait cette chanson pour noyer le poisson À quoi sert le regret toi tu pleures toujours ? Et tu fuis mon regard à chaque fois que je parcours Les allées de ta vie mènent droit à l'enfer On y perd ses moyens comme face au cancer Et je plaide coupable et je t'écris cette lettre D'une manière intime t'avais pas d'adresse Un jour tu sauras moi je souffre comme toi Et même les coeurs de pierre dégoulinent parfois ... Vivre sa vie ou mourir comme un autre Négro moi j'ai grandi au milieu des pauvres Des rêves brisés en bas des Champs Elysées Après la pluie c'est l'orage c'est ça qu'ils nous prédisaient Vivre sa vie ou mourir comme un autre Négro moi j'ai grandi au milieu des pauvres Des rêves brisés en bas des Champs Elysées Après la pluie c'est l'orage c'est ça qu'ils nous prédisaient C'est par effraction que mes rimes pénètrent ton âme Chaud comme le mois de juillet attise les flammes J'ai vu les les frères s'emporter dans l'océan de l'alcool Soeur tomber plus bas que le rang de bestiole Devant ce fait tragique je me suis mis à réfléchir Comment un jeune noir comme moi pourrait s'en sortir ? Dealer le teushi, continuer les études L'argent facile car le ghetto c'est pas sûr Bien que plus dur j'ai opté pour la seconde solution Nègre sans savoir risque de tomber dans le bastion Des ennemis de nos jours ... se multiplient Faux adeptes des ... ... Ils ont des couteaux, tourne le dos ils te poignardent Nègre bavard t'appâte avec des paroles T'es mon frère mon cousin dis moi d'où tu viens ... Vivre sa vie ou mourir comme un autre Négro moi j'ai grandi au milieu des pauvres Des rêves brisés en bas des Champs Elysées Après la pluie c'est l'orage c'est ça qu'ils nous prédisaient Vivre sa vie ou mourir comme un autre Négro moi j'ai grandi au milieu des pauvres Des rêves brisés en bas des Champs Elysées Après la pluie c'est l'orage c'est ça qu'ils nous prédisaient</t>
+          <t>Placé dans le ghetto à l'âge de 13 ans 2 fils, papa est mort quand javais 15 ans Mon voeu le plus cher c'était acheter du temps Au cas où il n'aurait pas plus à vivre longtemps Ses yeux dans les miens, je vis avec ses mémoires Le soleil brille frère, cest moi l'espoir Coûte que coûte sa vie se conjugue à celle des miens Et toute mon existence est une quête vers le bien Eclipse m'envoie puis j'accentue ma foi Si mes nègres portent des armes c'est parce qu'ils ont pas le choix On meurt comme des soldats si on vit pas comme des rois Mes fleurs sur ma tombe frère ... Dakar jusqu'à Paris fils en état de sursis Vis ta vie après l'esprit sest endurci Comme Olivia Stone entre ciel et terre suspendus ... Vivre sa vie ou mourir comme un autre Négro moi jai grandi au milieu des pauvres Des rêves brisés en bas des Champs Elysées Après la pluie c'est lorage c'est ça qu'ils nous prédisaient Vivre sa vie ou mourir comme un autre Négro moi j'ai grandi au milieu des pauvres Des rêves brisés en bas des Champs Elysées Après la pluie cest l'orage c'est ça qu'ils nous prédisaient Les jours passent et les frères font la même chose Les mêmes toxs viennent te voir pour la même dose Pardonne moi moi je t'ai vendu la mort J'ai pas fait exprès mais fallait que je m'en sorte Je t'aime pourtant je t'ai donné du poison J'ai fait cette chanson pour noyer le poisson À quoi sert le regret toi tu pleures toujours ? Et tu fuis mon regard à chaque fois que je parcours Les allées de ta vie mènent droit à l'enfer On y perd ses moyens comme face au cancer Et je plaide coupable et je t'écris cette lettre D'une manière intime t'avais pas d'adresse Un jour tu sauras moi je souffre comme toi Et même les coeurs de pierre dégoulinent parfois ... Vivre sa vie ou mourir comme un autre Négro moi j'ai grandi au milieu des pauvres Des rêves brisés en bas des Champs Elysées Après la pluie c'est l'orage c'est ça qu'ils nous prédisaient Vivre sa vie ou mourir comme un autre Négro moi j'ai grandi au milieu des pauvres Des rêves brisés en bas des Champs Elysées Après la pluie c'est l'orage c'est ça qu'ils nous prédisaient C'est par effraction que mes rimes pénètrent ton âme Chaud comme le mois de juillet attise les flammes J'ai vu les les frères s'emporter dans l'océan de l'alcool Soeur tomber plus bas que le rang de bestiole Devant ce fait tragique je me suis mis à réfléchir Comment un jeune noir comme moi pourrait s'en sortir ? Dealer le teushi, continuer les études L'argent facile car le ghetto c'est pas sûr Bien que plus dur j'ai opté pour la seconde solution Nègre sans savoir risque de tomber dans le bastion Des ennemis de nos jours ... se multiplient Faux adeptes des ... ... Ils ont des couteaux, tourne le dos ils te poignardent Nègre bavard t'appâte avec des paroles T'es mon frère mon cousin dis moi d'où tu viens ... Vivre sa vie ou mourir comme un autre Négro moi j'ai grandi au milieu des pauvres Des rêves brisés en bas des Champs Elysées Après la pluie c'est l'orage c'est ça qu'ils nous prédisaient Vivre sa vie ou mourir comme un autre Négro moi j'ai grandi au milieu des pauvres Des rêves brisés en bas des Champs Elysées Après la pluie c'est l'orage c'est ça qu'ils nous prédisaient</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2669,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Préjudice extrême, réaction en chaîne Au bout de mon stylo, j'ai accroché ma peine Gunz pop my man sans hésitation Flow asthmatique, bloque ta respiration Intrusion dans les rangs, boy retire tes troupes Les MC's sucent des bites puis font des flops Le glock fumant après une séance de tir Laisse les négros orphelins puis sans avenir Enterrez moi comme un G, incinérez mon flingue Même dans mon cerceuil je veux porter mes chaînes Espèce de bâtard tu veux la guerre avec moi ? ... Depuis l'âge de 5 ans mon nom est sur les pavés Fais le nécessaire assurer le maf ...You might also like</t>
+          <t>Préjudice extrême, réaction en chaîne Au bout de mon stylo, j'ai accroché ma peine Gunz pop my man sans hésitation Flow asthmatique, bloque ta respiration Intrusion dans les rangs, boy retire tes troupes Les MC's sucent des bites puis font des flops Le glock fumant après une séance de tir Laisse les négros orphelins puis sans avenir Enterrez moi comme un G, incinérez mon flingue Même dans mon cerceuil je veux porter mes chaînes Espèce de bâtard tu veux la guerre avec moi ? ... Depuis l'âge de 5 ans mon nom est sur les pavés Fais le nécessaire assurer le maf ...</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2703,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Ok, Dakar, 93, réussir ou mourir Alpha et Shayz Une famille nombreuse j'ai 24 frères et surs Trop d'peine à porter, trop de bouches à nourrir On nous tue négro, mais on nous déshonore pas Sénégal mon pote, un peuple, un but, une foi J'ai grandi sans mon père, ma mère comme seul repère Dur loi d'la vie, trahison des amis Manuel de survie, dicté par les ancien Les gangsters de Dakar, m'ont pavé le chemin Conditions de vie extrêmes, comme les favelas À part la pluie chez nous, boy rien ne tombe du ciel Tu peux boire à ta soif, noublie pas ton frère Répond au mal par le mal, man t'es pas Jésus Et moi je suis, la voix des sans voix Tu peux pas m'juger, j'suis au dessus des lois La fierté de chez moi, l'enfant bâtisseur Sans visa ni papiers, on est des envahisseurs Réussir ou mourir comme 50 Cent Si jéchoue négro, pas d'retour au bled Toute ma vie est sacrifice et ma peine est amour Et les frères ne voient pas, j'suis au point d'non-retour Réussir ou mourir comme 50 Cent Si jéchoue négro, pas d'retour au bled Toute ma vie est sacrifice et ma peine est amour Et les frères ne voient pas, j'suis au point d'non-retour You might also like J'ai dompté la mort, esquivé quatre fois Passer à la cinquième, ne m'derange même pas Trafic de papier comme Papa Wemba Trouve du crack chez moi, comme Fodé Sylla Mis a part tout ça, j'suis qu'un immigré Qu'on expulse à tout, va bouc-émissaire d'la France Au milieu des extas, j'ai vendu du bédo Des canettes de coca, des grammes de héro Laisse tomber Hélène, comme l'a dit L.I.M Regarde ma vie en arrière, moi j'te dit qu'ça m'gène Négros veulent ma peau, jalousie des frangins T'as d'la maille, t'as les femmes, c'est qu'la mort n'est pas loin Ma maison à Dakar, c'est comme un p'tit hotel Et l'matin j'me réveille avec pleins d'hirondelles Et depuis qu'les MC se vantent d'avoir des Clio J'veux une Audi A3, sur mon poignet gauche Réussir ou mourir comme 50 Cent Si jéchoue négro, pas d'retour au bled Toute ma vie est sacrifice et ma peine est amour Et les frères ne voient pas, j'suis au point d'non-retour Réussir ou mourir comme 50 Cent Si jéchoue négro, pas d'retour au bled Toute ma vie est sacrifice et ma peine est amour Et les frères ne voient pas, j'suis au point d'non-retour Si t'as un plan biff appelle moi - l'escroc, appelle Toute ta clique appelle l'étendard, j'appelle Car les larfeuilles sont vides, on veut blé et fouffes Aussi sûr que nos cles-on du bled, réclamerons leurs faffs Réhabilité ? Des promesses mon quartier ne l'est pas Habilités à faire du crime en toute impunité En France, j'ai que la nationalité, c'est me sert à rien faut être blanc Comme ça sert à rien d'tirer à balles à blanc Bleu blanc, rouge mon ghetto voit, rouge L'Africain de souche ceux qui ne te loupent pas te couchent On se fie à Dieu, s'méfie de tout et de tout, c'défit Et c'est en tôle que l'histoire s'enfile, que certains se défilent Où renfilent leurs collants de fils en aiguille, le fil du rasoir Et tu sautes sur un coup de fil Réussir ou mourir, mourir ou réussir Oui c'est sûr qu'une poignée de dollar, peut nous nourrir Réussir ou mourir comme 50 Cent Si jéchoue négro, pas d'retour au bled Toute ma vie est sacrifice et ma peine est amour Et les frères ne voient pas, j'suis au point d'non-retour Réussir ou mourir comme 50 Cent Si jéchoue négro, pas d'retour au bled Toute ma vie est sacrifice et ma peine est amour Et les frères ne voient pas, j'suis au point d'non-retour Hustler, hustler, hustler, hustler</t>
+          <t>Ok, Dakar, 93, réussir ou mourir Alpha et Shayz Une famille nombreuse j'ai 24 frères et surs Trop d'peine à porter, trop de bouches à nourrir On nous tue négro, mais on nous déshonore pas Sénégal mon pote, un peuple, un but, une foi J'ai grandi sans mon père, ma mère comme seul repère Dur loi d'la vie, trahison des amis Manuel de survie, dicté par les ancien Les gangsters de Dakar, m'ont pavé le chemin Conditions de vie extrêmes, comme les favelas À part la pluie chez nous, boy rien ne tombe du ciel Tu peux boire à ta soif, noublie pas ton frère Répond au mal par le mal, man t'es pas Jésus Et moi je suis, la voix des sans voix Tu peux pas m'juger, j'suis au dessus des lois La fierté de chez moi, l'enfant bâtisseur Sans visa ni papiers, on est des envahisseurs Réussir ou mourir comme 50 Cent Si jéchoue négro, pas d'retour au bled Toute ma vie est sacrifice et ma peine est amour Et les frères ne voient pas, j'suis au point d'non-retour Réussir ou mourir comme 50 Cent Si jéchoue négro, pas d'retour au bled Toute ma vie est sacrifice et ma peine est amour Et les frères ne voient pas, j'suis au point d'non-retour J'ai dompté la mort, esquivé quatre fois Passer à la cinquième, ne m'derange même pas Trafic de papier comme Papa Wemba Trouve du crack chez moi, comme Fodé Sylla Mis a part tout ça, j'suis qu'un immigré Qu'on expulse à tout, va bouc-émissaire d'la France Au milieu des extas, j'ai vendu du bédo Des canettes de coca, des grammes de héro Laisse tomber Hélène, comme l'a dit L.I.M Regarde ma vie en arrière, moi j'te dit qu'ça m'gène Négros veulent ma peau, jalousie des frangins T'as d'la maille, t'as les femmes, c'est qu'la mort n'est pas loin Ma maison à Dakar, c'est comme un p'tit hotel Et l'matin j'me réveille avec pleins d'hirondelles Et depuis qu'les MC se vantent d'avoir des Clio J'veux une Audi A3, sur mon poignet gauche Réussir ou mourir comme 50 Cent Si jéchoue négro, pas d'retour au bled Toute ma vie est sacrifice et ma peine est amour Et les frères ne voient pas, j'suis au point d'non-retour Réussir ou mourir comme 50 Cent Si jéchoue négro, pas d'retour au bled Toute ma vie est sacrifice et ma peine est amour Et les frères ne voient pas, j'suis au point d'non-retour Si t'as un plan biff appelle moi - l'escroc, appelle Toute ta clique appelle l'étendard, j'appelle Car les larfeuilles sont vides, on veut blé et fouffes Aussi sûr que nos cles-on du bled, réclamerons leurs faffs Réhabilité ? Des promesses mon quartier ne l'est pas Habilités à faire du crime en toute impunité En France, j'ai que la nationalité, c'est me sert à rien faut être blanc Comme ça sert à rien d'tirer à balles à blanc Bleu blanc, rouge mon ghetto voit, rouge L'Africain de souche ceux qui ne te loupent pas te couchent On se fie à Dieu, s'méfie de tout et de tout, c'défit Et c'est en tôle que l'histoire s'enfile, que certains se défilent Où renfilent leurs collants de fils en aiguille, le fil du rasoir Et tu sautes sur un coup de fil Réussir ou mourir, mourir ou réussir Oui c'est sûr qu'une poignée de dollar, peut nous nourrir Réussir ou mourir comme 50 Cent Si jéchoue négro, pas d'retour au bled Toute ma vie est sacrifice et ma peine est amour Et les frères ne voient pas, j'suis au point d'non-retour Réussir ou mourir comme 50 Cent Si jéchoue négro, pas d'retour au bled Toute ma vie est sacrifice et ma peine est amour Et les frères ne voient pas, j'suis au point d'non-retour Hustler, hustler, hustler, hustler</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2720,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Hein, yeah, normal Boug-zère, Ol' Kainry Alpha, yeah As-tu déjà entendu ce flow, ou le même grain? J'suis en mode crime, j'suis avec mon négro 5.20 La crapulerie, la dalle et la délinquance dans toutes ses formes Les bouffons ont la gueule parce qu'ils poussent les pecs en poussant l'sol Vous voyez cette main? Ma parole vous allez tous la prendre J'te gifle, j'te balaye et j'te regifle avant qu'tu touches le sol Dyf est dans le circuit, en mode car j'suis jamais dead Les scarlas ont la haine car mon flow est bon, ma femme est belle Les jantes de ma caisse brillent à faire rougir un Galsen Dyf a la classe même à poil quand j'ai pas d'crème Je sais qu'tu peux dead, même ta tite-pe est amoureuse Elle rêve d'un boug du 9-1 ou d'un boug du Ghetto Fabulous Mes voitures sont rapides, ma musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche Mes voitures sont rapides, la musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche Ma caisse c'est pas une caisse de luxe, surtout que personne ne s'moque Ma plaque c'est 9-4, Camer' Indomptable te smoke Couleur black black, black blague à part Alpha c'est la famille, quand il m'appelle on fait ça taf taf Dans ma boîte à gants, y a pas de Glocka Glocka Le système te bloque bloque, en banlieue l'ambiance est glauque Fais péter les boomers, ce son c'est pour ta gova Les vrais bonhommes font des tunes, pas l'temps d'jouer les gros bras Changement de vitesse, attache ta ceinture C'est pas les films de John Woo, ici ça taille quand ça tire Dérapage contrôlé à la Fast and Furious J't'ai feinté, vitres teintées, j'suis le last and serious You might also like Mes voitures sont rapides, ma musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche Mes voitures sont rapides, la musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche J'kicke et je kicke et je prends mon Bic Mon seize à la rage, je te casse le pif Je pèse, j'ai la rime, le style, je brille J'suis un mec de Trappes, comme Alpha authentique Moi j'rappe pas, mon négro, je crime J'ai les faf, j'ai les balles, j'ai le tard je tire Quand l'étau se resserre, les mastas se privent Faut des mandats cash pour Bois-d'Arcy J'ai le bandana qui pue le fric, je fuck fuck et smoke la weed Tapis rouge pour mes gens de la street, c'est le Ghetto Fab' pas XXX On rêve, on vit, on s'perd masta, y a qu'à la mort qu'on se résout Si si, si t'as une pute à tes côtés, c'est qu'elle attend seulement tes sous Rien ne sert de faire le fou si tu ne sais pas assumer tes gestes Crème de la crème je suis sur le coup, si t'es pas content on te baise ta mère Tu peux pas test' les négros qui pèsent Quand les vitres se baissent, y a les putes qui courent J'aime trop l'hémoglobine c'est bien pour ça qu'ma couleur c'est le rouge Mes voitures sont rapides, ma musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche Mes voitures sont rapides, la musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche Moi j'suis encore dans les bouchons, klaxonne encore j'te tords comme un chiffon Quand j'allume un chichon, que j'pine ta biatche à califourchon J'ai des sueurs froides, c'est Paris by night Ça part en drive-by, au Mac Drive ça s'embrouille pour un Sprite XXX bye bye, j'vais prendre un grec, faut graille Trop d'putes au mètre carré de Riquet à Stalingrad Les chtars tournent partout, ils m'contrôlent sept-cent fois Z'ont vu la gov', la taille de mes jantes, ils sont restés sans voix Dans le poste, un bon Rick Ross ou un vieux west-coast Une belle gosse XXX d'être dans un bête XXX Y a un touriste, une carte Gold, une tarte et donne ton code Putain les chtars me collent, sa mère ça s'corse OK, mes voitures sont bling-bling, intérieur cuir crème Si tu veux pécho chose-quel', parle pas trop au phone-tél Mes voitures sont rapides, ma musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche Mes voitures sont rapides, la musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche Yeah, rider music cousin Tous mes boys 106, 206, Fiat Panda Gunz Poppin' Alfa Romeo Tous mes gangsters Germany ferraille Ancienne Mercalt' Benzino Bima, Audi, Golf pée-ta Mes voitures sont rapides, ma musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche Rider Music, Rider Music Mes voitures sont rapides, la musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche</t>
+          <t>Hein, yeah, normal Boug-zère, Ol' Kainry Alpha, yeah As-tu déjà entendu ce flow, ou le même grain? J'suis en mode crime, j'suis avec mon négro 5.20 La crapulerie, la dalle et la délinquance dans toutes ses formes Les bouffons ont la gueule parce qu'ils poussent les pecs en poussant l'sol Vous voyez cette main? Ma parole vous allez tous la prendre J'te gifle, j'te balaye et j'te regifle avant qu'tu touches le sol Dyf est dans le circuit, en mode car j'suis jamais dead Les scarlas ont la haine car mon flow est bon, ma femme est belle Les jantes de ma caisse brillent à faire rougir un Galsen Dyf a la classe même à poil quand j'ai pas d'crème Je sais qu'tu peux dead, même ta tite-pe est amoureuse Elle rêve d'un boug du 9-1 ou d'un boug du Ghetto Fabulous Mes voitures sont rapides, ma musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche Mes voitures sont rapides, la musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche Ma caisse c'est pas une caisse de luxe, surtout que personne ne s'moque Ma plaque c'est 9-4, Camer' Indomptable te smoke Couleur black black, black blague à part Alpha c'est la famille, quand il m'appelle on fait ça taf taf Dans ma boîte à gants, y a pas de Glocka Glocka Le système te bloque bloque, en banlieue l'ambiance est glauque Fais péter les boomers, ce son c'est pour ta gova Les vrais bonhommes font des tunes, pas l'temps d'jouer les gros bras Changement de vitesse, attache ta ceinture C'est pas les films de John Woo, ici ça taille quand ça tire Dérapage contrôlé à la Fast and Furious J't'ai feinté, vitres teintées, j'suis le last and serious Mes voitures sont rapides, ma musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche Mes voitures sont rapides, la musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche J'kicke et je kicke et je prends mon Bic Mon seize à la rage, je te casse le pif Je pèse, j'ai la rime, le style, je brille J'suis un mec de Trappes, comme Alpha authentique Moi j'rappe pas, mon négro, je crime J'ai les faf, j'ai les balles, j'ai le tard je tire Quand l'étau se resserre, les mastas se privent Faut des mandats cash pour Bois-d'Arcy J'ai le bandana qui pue le fric, je fuck fuck et smoke la weed Tapis rouge pour mes gens de la street, c'est le Ghetto Fab' pas XXX On rêve, on vit, on s'perd masta, y a qu'à la mort qu'on se résout Si si, si t'as une pute à tes côtés, c'est qu'elle attend seulement tes sous Rien ne sert de faire le fou si tu ne sais pas assumer tes gestes Crème de la crème je suis sur le coup, si t'es pas content on te baise ta mère Tu peux pas test' les négros qui pèsent Quand les vitres se baissent, y a les putes qui courent J'aime trop l'hémoglobine c'est bien pour ça qu'ma couleur c'est le rouge Mes voitures sont rapides, ma musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche Mes voitures sont rapides, la musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche Moi j'suis encore dans les bouchons, klaxonne encore j'te tords comme un chiffon Quand j'allume un chichon, que j'pine ta biatche à califourchon J'ai des sueurs froides, c'est Paris by night Ça part en drive-by, au Mac Drive ça s'embrouille pour un Sprite XXX bye bye, j'vais prendre un grec, faut graille Trop d'putes au mètre carré de Riquet à Stalingrad Les chtars tournent partout, ils m'contrôlent sept-cent fois Z'ont vu la gov', la taille de mes jantes, ils sont restés sans voix Dans le poste, un bon Rick Ross ou un vieux west-coast Une belle gosse XXX d'être dans un bête XXX Y a un touriste, une carte Gold, une tarte et donne ton code Putain les chtars me collent, sa mère ça s'corse OK, mes voitures sont bling-bling, intérieur cuir crème Si tu veux pécho chose-quel', parle pas trop au phone-tél Mes voitures sont rapides, ma musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche Mes voitures sont rapides, la musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche Yeah, rider music cousin Tous mes boys 106, 206, Fiat Panda Gunz Poppin' Alfa Romeo Tous mes gangsters Germany ferraille Ancienne Mercalt' Benzino Bima, Audi, Golf pée-ta Mes voitures sont rapides, ma musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche Rider Music, Rider Music Mes voitures sont rapides, la musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2737,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Et j'suis ce gangster frère j'ai rien à prouver Seine Saint Denis hustler tu sais où me trouver Seine et Marne ... entouré que des vrais Mais ne teste même pas sinon le sang va couler Et j'suis ce gangster frère j'ai rien à prouver Seine Saint Denis hustler tu sais où me trouver Seine et Marne ... entouré que des vrais Mais ne teste même pas sinon le sang va couler Ils disent que Alpha est facilement localisable Dans les rues du 9.3 moi jeter mon portable S'il te plaît négro me confonds avec ces bouffons Mon coeur est fermé froid comme un glaçon T'inquiète O'Rosko si je maille tu mailles ... Et j'suis ce gangster frère j'ai rien à prouver Seine Saint Denis hustler tu sais où me trouver Seine et Marne ... entouré que des vrais Mais ne teste même pas sinon le sang va couler Et j'suis ce gangster frère j'ai rien à prouver Seine Saint Denis hustler tu sais où me trouver Seine et Marne ... entouré que des vrais Mais ne teste même pas sinon le sang va couler You might also like ...</t>
+          <t>Et j'suis ce gangster frère j'ai rien à prouver Seine Saint Denis hustler tu sais où me trouver Seine et Marne ... entouré que des vrais Mais ne teste même pas sinon le sang va couler Et j'suis ce gangster frère j'ai rien à prouver Seine Saint Denis hustler tu sais où me trouver Seine et Marne ... entouré que des vrais Mais ne teste même pas sinon le sang va couler Ils disent que Alpha est facilement localisable Dans les rues du 9.3 moi jeter mon portable S'il te plaît négro me confonds avec ces bouffons Mon coeur est fermé froid comme un glaçon T'inquiète O'Rosko si je maille tu mailles ... Et j'suis ce gangster frère j'ai rien à prouver Seine Saint Denis hustler tu sais où me trouver Seine et Marne ... entouré que des vrais Mais ne teste même pas sinon le sang va couler Et j'suis ce gangster frère j'ai rien à prouver Seine Saint Denis hustler tu sais où me trouver Seine et Marne ... entouré que des vrais Mais ne teste même pas sinon le sang va couler ...</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2754,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>The capture of Saddam Hussein does not mean the end of violence in Iraq. We still face terrorists who would rather go on killing the innocent than accept the rise of liberty in the heart of the Middle East. Such men are a direct threat to the American people, and they will be defeated Injustice dans le monde depuis le départ L'homme blanc a haï son frère noir L'argent nous divise et la haine nous sépare Contrées sauvages où l'amour s'égare Ils ont trouvé la faille, font la guerre pour du pétrole World Trade Center c'est le pactole Illuminatis, néo-nazis Grands profits et démocraties Démographie galopante Quand la Chine se réveille, j'ai le ventre Vide vide vide, comme au Darfour Muslims contre muslims au carrefour Ça m'fait mal, comme les chiites et les sunnites Et tous ces génocides humanitaires en Afrique Devant la mosquée rouge au Pakistan Mes fidèles ouvrent le feu sur les mécréants Le pape roule sur l'or au Vatican Puis ils s'étonnent qu'on devienne des talibans Saddam Hussein, Saddam Hussein, Saddam Hussein You might also like Négro nique l'Amérique, et tout c'qui va avec Ils veulent dominer le monde, je le jure sur La Mecque Et entre mes lignes, essaye de lire ma peine Ils veulent juste me pendre comme Saddam Hussein Négro nique l'Amérique, et tout c'qui va avec Ils veulent dominer le monde, je le jure sur La Mecque Et entre mes lignes, essaye de lire ma peine Ils veulent juste me pendre comme Saddam Hussein Le 11 septembre, les tours de Satan S'écroulent sous l'effet des 1000 émigrants L'Amérique est parano, elle nous regarde Oncle Sam nous écoute quand on bavarde Abou Ghraib, Guantánamo Mes frères sont parqués comme des animaux Devant le maquis du Hezbollah Ou le Hamas sur la bande de Gaza Sisi chacal, creuse des tunnels Fais passer la nourriture et au pluriel Kalashnikov, de quoi résister Face aux colons devant la mosquée Al-Aqsa, Allahou akbar Et puisse Dieu nous protéger de tous ces barbares Négro nique l'Amérique, et tout c'qui va avec Ils veulent dominer le monde, je le jure sur La Mecque Et entre mes lignes, essaye de lire ma peine Ils veulent juste me pendre comme Saddam Hussein Négro nique l'Amérique, et tout c'qui va avec Ils veulent dominer le monde, je le jure sur La Mecque Et entre mes lignes, essaye de lire ma peine Ils veulent juste me pendre comme Saddam Hussein Vue de Dakar, rap de cauchemar Chasser les Français de la Côte d'Ivoire Démolir pour reconstruire l'Afrique Faire couler le sang jusqu'en Amérique La tour Total, Elf-Gabon Et Vincent Bolloré, pour moi n'est qu'un colon RDC pour les morts au Kivu Depuis Kabila et ce que Sassou A exploité dans les rues de Brazza Contrats boyz contre ninjas Pour de l'or noir, enfants soldats Larmes du soleil sonne le réveil Et mamans ont 15 gosses pour de l'oseille Nos propres enfants, ils veulent adopter Fils de pute, moi je fuck L'Arche de Zoé Négro nique l'Amérique, et tout c'qui va avec Ils veulent dominer le monde, je le jure sur La Mecque Et entre mes lignes, essaye de lire ma peine Ils veulent juste me pendre comme Saddam Hussein Négro nique l'Amérique, et tout c'qui va avec Ils veulent dominer le monde, je le jure sur La Mecque Et entre mes lignes, essaye de lire ma peine Ils veulent juste me pendre comme Saddam Hussein Sisi frère, tu sais bien, en tant que musulman on doit pas jurer sur La Mecque ou sur le Coran. En tant que bon musulman tu dois jurer que sur Allah. Mais pardon à tous les frères qui se sentent offensés, ça c'était juste pour le peura, pour qu'ça passe cousin. Mais nique l'Amérique quand même, cousin. C'est pour tout l'tiers-monde, j'parle de l'Amérique du Sud, Asie, et bien sûr ma terre-mère Afrique. Tout l'monde, qui subissent, Moyen-Orient, tout l'monde, qui subissent l'impérialisme de l'Amérique et l'Occident. Sisi chacal, quoi d'neuf Hugo Chavez, Venezuela ? Quoi d'neuf Dadis Camara là-bas en Guinée, cousin ? Kadhafi Pour tous les vrais rebelles mon frère, en Afrique mon frère, qui s'laissent pas marcher dessus. Pour tous les frérots là-bas, Moyen-Orient, t'as vu ? Afghanistan Turquie, Palestine, toute la grosse famille mon frère, jusqu'au Japon, Yakuzas qui s'refusent mon frère esclaves, de prendre mon frère la queue d'l'Amérique, cousin. La Tchétchénie Sisi chacal, on écoute du rap d'Amérique mais on aime pas l'attitude de l'Amérique. C'est ça, c'est chacal, grrr</t>
+          <t>The capture of Saddam Hussein does not mean the end of violence in Iraq. We still face terrorists who would rather go on killing the innocent than accept the rise of liberty in the heart of the Middle East. Such men are a direct threat to the American people, and they will be defeated Injustice dans le monde depuis le départ L'homme blanc a haï son frère noir L'argent nous divise et la haine nous sépare Contrées sauvages où l'amour s'égare Ils ont trouvé la faille, font la guerre pour du pétrole World Trade Center c'est le pactole Illuminatis, néo-nazis Grands profits et démocraties Démographie galopante Quand la Chine se réveille, j'ai le ventre Vide vide vide, comme au Darfour Muslims contre muslims au carrefour Ça m'fait mal, comme les chiites et les sunnites Et tous ces génocides humanitaires en Afrique Devant la mosquée rouge au Pakistan Mes fidèles ouvrent le feu sur les mécréants Le pape roule sur l'or au Vatican Puis ils s'étonnent qu'on devienne des talibans Saddam Hussein, Saddam Hussein, Saddam Hussein Négro nique l'Amérique, et tout c'qui va avec Ils veulent dominer le monde, je le jure sur La Mecque Et entre mes lignes, essaye de lire ma peine Ils veulent juste me pendre comme Saddam Hussein Négro nique l'Amérique, et tout c'qui va avec Ils veulent dominer le monde, je le jure sur La Mecque Et entre mes lignes, essaye de lire ma peine Ils veulent juste me pendre comme Saddam Hussein Le 11 septembre, les tours de Satan S'écroulent sous l'effet des 1000 émigrants L'Amérique est parano, elle nous regarde Oncle Sam nous écoute quand on bavarde Abou Ghraib, Guantánamo Mes frères sont parqués comme des animaux Devant le maquis du Hezbollah Ou le Hamas sur la bande de Gaza Sisi chacal, creuse des tunnels Fais passer la nourriture et au pluriel Kalashnikov, de quoi résister Face aux colons devant la mosquée Al-Aqsa, Allahou akbar Et puisse Dieu nous protéger de tous ces barbares Négro nique l'Amérique, et tout c'qui va avec Ils veulent dominer le monde, je le jure sur La Mecque Et entre mes lignes, essaye de lire ma peine Ils veulent juste me pendre comme Saddam Hussein Négro nique l'Amérique, et tout c'qui va avec Ils veulent dominer le monde, je le jure sur La Mecque Et entre mes lignes, essaye de lire ma peine Ils veulent juste me pendre comme Saddam Hussein Vue de Dakar, rap de cauchemar Chasser les Français de la Côte d'Ivoire Démolir pour reconstruire l'Afrique Faire couler le sang jusqu'en Amérique La tour Total, Elf-Gabon Et Vincent Bolloré, pour moi n'est qu'un colon RDC pour les morts au Kivu Depuis Kabila et ce que Sassou A exploité dans les rues de Brazza Contrats boyz contre ninjas Pour de l'or noir, enfants soldats Larmes du soleil sonne le réveil Et mamans ont 15 gosses pour de l'oseille Nos propres enfants, ils veulent adopter Fils de pute, moi je fuck L'Arche de Zoé Négro nique l'Amérique, et tout c'qui va avec Ils veulent dominer le monde, je le jure sur La Mecque Et entre mes lignes, essaye de lire ma peine Ils veulent juste me pendre comme Saddam Hussein Négro nique l'Amérique, et tout c'qui va avec Ils veulent dominer le monde, je le jure sur La Mecque Et entre mes lignes, essaye de lire ma peine Ils veulent juste me pendre comme Saddam Hussein Sisi frère, tu sais bien, en tant que musulman on doit pas jurer sur La Mecque ou sur le Coran. En tant que bon musulman tu dois jurer que sur Allah. Mais pardon à tous les frères qui se sentent offensés, ça c'était juste pour le peura, pour qu'ça passe cousin. Mais nique l'Amérique quand même, cousin. C'est pour tout l'tiers-monde, j'parle de l'Amérique du Sud, Asie, et bien sûr ma terre-mère Afrique. Tout l'monde, qui subissent, Moyen-Orient, tout l'monde, qui subissent l'impérialisme de l'Amérique et l'Occident. Sisi chacal, quoi d'neuf Hugo Chavez, Venezuela ? Quoi d'neuf Dadis Camara là-bas en Guinée, cousin ? Kadhafi Pour tous les vrais rebelles mon frère, en Afrique mon frère, qui s'laissent pas marcher dessus. Pour tous les frérots là-bas, Moyen-Orient, t'as vu ? Afghanistan Turquie, Palestine, toute la grosse famille mon frère, jusqu'au Japon, Yakuzas qui s'refusent mon frère esclaves, de prendre mon frère la queue d'l'Amérique, cousin. La Tchétchénie Sisi chacal, on écoute du rap d'Amérique mais on aime pas l'attitude de l'Amérique. C'est ça, c'est chacal, grrr</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2771,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>J'aimerais bien décompresser, verser des larmes, pleurer Mais je narrive pas, mon ego ne me lâche pas, j'suis un tueur né Les frères ... faire gaffe à mon train de vie Ainsi va la vie jusqu'à la fin bientôt pour moi cest fini Prise de conscience d'un démon qui aurait préféré être un ange Triste est ma vision de l'avenir, rancunier je punirai tous ceux qui me dérangent Agir sans réfléchir, suivre son instinct comm cet animal Qui ne s'est pas nourri pndant plusieurs jours ... Le diable est là se frotte les mains en espérant que je passe à l'acte Tout en m'insufflant tellement de conneries ... Mon coeur blessé depuis tellement d'années ... La douleur est toujours intense ... Cahier sur la table stylo à la main je ne fais que décrire et dire la vérité Sans cesse en moi s'agite le démon Il me nuit comme toutes ces clopes qui me niquent les poumons Il est dans ma tête, chante à tue tête toutes sortes de conneries Il envahit mon esprit en ayant but de gâcher ma vie Mes démons parlent dans ma tête frère je veux voir du sang Mexploser la cervelle me réduire à néant Les négros les vrais nhommebos nont pas besoin de cagoule ni gants Quand il s'agit de meurtres jsuis dans mon élément Vas y tente ta chance viens tester les gladiators De l'asphalte cité rose Bondy Hood Banlieue Nord Arrache les négros de leur planque, montre moi le coffre fort Je veux la maille ou ta vie, récompenser mes efforts Je m'approche de ta fille, la peur dans son regard Sa vie entre mes mains ça doit lui faire bizarre Mais pas le temps de réfléchir dans ma tête des pensées gores Comme violer ta femme là où ton fiston dort Puisse Dieu me pardonner frère ... J'ai du pour assouvir mes pulsions pas le ventre vide Face à la maille jsuis cupide, la vie est trop rigide J'ai pris mon teint de bain négro dans une pluie acide You might also like Sans cesse en moi s'agite le démon Il me nuit comme toutes ces clopes qui me niquent les poumons Il est dans ma tête, chante à tue tête toutes sortes de conneries Il envahit mon esprit en ayant but de gâcher ma vie Et les négros savent ce qu'on cache frère dans nos boîtes à gants Ils arrivent la tête haute mais repartent les pieds devant Démons parlent dans ma tête frère je peux ... J'ai envie de commettre un meurtre, je veux voir du sang Et les négros savent ce qu'on cache frère dans nos boîtes à gants Ils arrivent la tête haute mais repartent les pieds devant Démons parlent dans ma tête frère je peux ... J'ai envie de commettre un meurtre, je veux voir du sang Je vivrai jusqu'à que l'Ange de la mort vienne me chercher ... Je ne vois pas je n'entends pas mais je ressens qu'ils me grondent Sans cesse en moi s'agite le démon Il me nuit comme toutes ces clopes qui me niquent les poumons Il est dans ma tête, chante à tue tête toutes sortes de conneries Il envahit mon esprit en ayant but de gâcher ma vie</t>
+          <t>J'aimerais bien décompresser, verser des larmes, pleurer Mais je narrive pas, mon ego ne me lâche pas, j'suis un tueur né Les frères ... faire gaffe à mon train de vie Ainsi va la vie jusqu'à la fin bientôt pour moi cest fini Prise de conscience d'un démon qui aurait préféré être un ange Triste est ma vision de l'avenir, rancunier je punirai tous ceux qui me dérangent Agir sans réfléchir, suivre son instinct comm cet animal Qui ne s'est pas nourri pndant plusieurs jours ... Le diable est là se frotte les mains en espérant que je passe à l'acte Tout en m'insufflant tellement de conneries ... Mon coeur blessé depuis tellement d'années ... La douleur est toujours intense ... Cahier sur la table stylo à la main je ne fais que décrire et dire la vérité Sans cesse en moi s'agite le démon Il me nuit comme toutes ces clopes qui me niquent les poumons Il est dans ma tête, chante à tue tête toutes sortes de conneries Il envahit mon esprit en ayant but de gâcher ma vie Mes démons parlent dans ma tête frère je veux voir du sang Mexploser la cervelle me réduire à néant Les négros les vrais nhommebos nont pas besoin de cagoule ni gants Quand il s'agit de meurtres jsuis dans mon élément Vas y tente ta chance viens tester les gladiators De l'asphalte cité rose Bondy Hood Banlieue Nord Arrache les négros de leur planque, montre moi le coffre fort Je veux la maille ou ta vie, récompenser mes efforts Je m'approche de ta fille, la peur dans son regard Sa vie entre mes mains ça doit lui faire bizarre Mais pas le temps de réfléchir dans ma tête des pensées gores Comme violer ta femme là où ton fiston dort Puisse Dieu me pardonner frère ... J'ai du pour assouvir mes pulsions pas le ventre vide Face à la maille jsuis cupide, la vie est trop rigide J'ai pris mon teint de bain négro dans une pluie acide Sans cesse en moi s'agite le démon Il me nuit comme toutes ces clopes qui me niquent les poumons Il est dans ma tête, chante à tue tête toutes sortes de conneries Il envahit mon esprit en ayant but de gâcher ma vie Et les négros savent ce qu'on cache frère dans nos boîtes à gants Ils arrivent la tête haute mais repartent les pieds devant Démons parlent dans ma tête frère je peux ... J'ai envie de commettre un meurtre, je veux voir du sang Et les négros savent ce qu'on cache frère dans nos boîtes à gants Ils arrivent la tête haute mais repartent les pieds devant Démons parlent dans ma tête frère je peux ... J'ai envie de commettre un meurtre, je veux voir du sang Je vivrai jusqu'à que l'Ange de la mort vienne me chercher ... Je ne vois pas je n'entends pas mais je ressens qu'ils me grondent Sans cesse en moi s'agite le démon Il me nuit comme toutes ces clopes qui me niquent les poumons Il est dans ma tête, chante à tue tête toutes sortes de conneries Il envahit mon esprit en ayant but de gâcher ma vie</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2788,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Sarcelles C'est le bordel, c'est le bordel Alpha C'est le bordel Kody, c'est le bordel Sercom C'est le bordel Marega, c'est le bordel RCM C'est le bordel Ghetto Fab, c'est le bordel Je me présente c'est Kody Criminel Recherché par les niafs, qu'elles soient bells ou vilaines Ma voix dans tes baffes, c'st la rage ivoirienne En cours je n'ai la moyenne mais je veux mon Cayenne, hey hey Augmente le son c'est Sarcelles, on fout le boxon pour Sarcelles Chez nous y'a tout, des fous, des loups RCM Zoo, c'est Sarcelles Alpha dis leur qu'ici c'est mortel On ramène leurs tass à l'hôtel et on leur fout le bordel Pour Rakailles 4 j'arrive nickel Si ta rate kiffe, c'est simple, bah je la nique elle T'as plus de chances de me voir au Shtar qu'au Starter Même en All Star t'inquiète, je reste un gangster C'est pour les reur-ti, les leur-di, pas de timinique, je t'averti Les terres pour saigner l'instru, alors souhaite mi bon appétit Rester ou pas, rien à foutre de toutes ses conneries Bye RCM, on vient niquer en mode dirty En mode renoi, fait d'la maille et la famille fait la graille Voilà pourquoi faut qu'on braille pour faire avancer les bailles Aïe c'est 2007, on fou le bordel, ça sent la tâte-pa Sarcelles et Ghetto Fab, on est venu pour saigner les tar-ba You might also like Bienvenu dans les blocs Ou les p'tits sort le glock Ou les p'tits frères parlent, parlent que de clope C'est le son de notre époque, argent, sexe et drogue On vit qu'une fois donc il faut qu'on croke C'est mes guns, c'est mes guns, c'est mes guns, sont mes amies Les ghetto Fab, Ghetto Fab Sarcelles, c'est la famille Je reviens donner de la gouache Ramasser un max de cash N'est pas peur te cache pas On vient faire les tar-ba les carna Parle pas mal ou tu finis très mal Fait pas l'animal ou tu finis avec une balle Toujours la même dalle Toujours avec Allah Les trou d'balle on les recal C'est Al-Qaeda qui t'parle C'est rafale là Tu vas la sentir man Ta salive ravale là parce que tu vas pas t'en sortir man Yeah Toujours vrai, c'est frai pour les vrai frères Envoie les billets parce qu'on doit faire graille</t>
+          <t>Sarcelles C'est le bordel, c'est le bordel Alpha C'est le bordel Kody, c'est le bordel Sercom C'est le bordel Marega, c'est le bordel RCM C'est le bordel Ghetto Fab, c'est le bordel Je me présente c'est Kody Criminel Recherché par les niafs, qu'elles soient bells ou vilaines Ma voix dans tes baffes, c'st la rage ivoirienne En cours je n'ai la moyenne mais je veux mon Cayenne, hey hey Augmente le son c'est Sarcelles, on fout le boxon pour Sarcelles Chez nous y'a tout, des fous, des loups RCM Zoo, c'est Sarcelles Alpha dis leur qu'ici c'est mortel On ramène leurs tass à l'hôtel et on leur fout le bordel Pour Rakailles 4 j'arrive nickel Si ta rate kiffe, c'est simple, bah je la nique elle T'as plus de chances de me voir au Shtar qu'au Starter Même en All Star t'inquiète, je reste un gangster C'est pour les reur-ti, les leur-di, pas de timinique, je t'averti Les terres pour saigner l'instru, alors souhaite mi bon appétit Rester ou pas, rien à foutre de toutes ses conneries Bye RCM, on vient niquer en mode dirty En mode renoi, fait d'la maille et la famille fait la graille Voilà pourquoi faut qu'on braille pour faire avancer les bailles Aïe c'est 2007, on fou le bordel, ça sent la tâte-pa Sarcelles et Ghetto Fab, on est venu pour saigner les tar-ba Bienvenu dans les blocs Ou les p'tits sort le glock Ou les p'tits frères parlent, parlent que de clope C'est le son de notre époque, argent, sexe et drogue On vit qu'une fois donc il faut qu'on croke C'est mes guns, c'est mes guns, c'est mes guns, sont mes amies Les ghetto Fab, Ghetto Fab Sarcelles, c'est la famille Je reviens donner de la gouache Ramasser un max de cash N'est pas peur te cache pas On vient faire les tar-ba les carna Parle pas mal ou tu finis très mal Fait pas l'animal ou tu finis avec une balle Toujours la même dalle Toujours avec Allah Les trou d'balle on les recal C'est Al-Qaeda qui t'parle C'est rafale là Tu vas la sentir man Ta salive ravale là parce que tu vas pas t'en sortir man Yeah Toujours vrai, c'est frai pour les vrai frères Envoie les billets parce qu'on doit faire graille</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2805,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>93, Larsen, flow chromé métallique J't'allume au Uzi, j'm'arrache en tonnerre mécanique M'égaler ? Négatif, j'connais le succès cagoulé Braque le fourgon de la gloire, l'amour m'a refoulé J'me suis foulé l'poignet, mon brolique est trop chargé J'ai trop défouraillé, j'ai une ardoise chez l'armurier Mon gilet pare-balles, c'est mon gilet d'sauvetage Si j'me noie dans le crime, une balle me réanime Et si celle-ci atteint son but, mon buffet ou mon torse Que j'ai raison et que j'ai tort, c'est pour toi que ça se corse Oui pour toi, man, quoi ? Tu veux jouer au you-voi toi ? Ça se voit que tu m'connais pas, j'vais te cramer sous ton toît Toi toi, oui toi, t'as voulu jouer avec moi ? J'vais t'allumer dans ta gova, ou venir te soulever chez toi J'ai une morale de hagar pour ces bâtards de kouffar Jouez avec nos nerfs et vous vous mangerez une rafale Rouge sang, noir de la peau, bouge quand tu sens qu'la lice-po Descend dans ton ghetto, pour avoir plus de gens Les jeunes jouent avec l'agent-gent J'roule avec des caisses sans jantes Gênés par des kahba sans argent, je n'ai Toujours pas pris l'habitude, elle s'barre dès l'déjeuner C'est plutôt 93 Etendard qui va t'dégainer Longtemps, s'il faut, inshallah sans défauts Moi, je suis plutôt contre ces pédés qui s'prennent pour des fous T'as ma parole, bien sûr que l'équipe la trouve dans un bon rôle Le rôle de bicrave dans les cités, moi j'évite la taule Et mes potes m'épaulent et moi, j'décolle Plus loin, que tu crois mon ami, que les halls nous ont baisé Comme la taule nous fait la bise, de toutes façons j'ai rien à miser Viser l'Etat, c'est qui nous intéresse depuis longtemps Le temps de respirer un bon moment Maroc stick, casse des dents Mamene, trop d'MC s'croivent aux states mamene, tous ces MC esquivent Les têtes à têtes trop de prétexte, mamene tous ces MC ils vivent You might also like C'est Alpha, negro, Tupac, negro Sécurité sociale deux flingues, négro Balastik, Uzi, la rafale Larsen Lik-Ma sort du bled et ton rap s'fait ken Alpha, negro, Tupac, negro Sécurité sociale deux flingues, négro Balastik, Uzi, la rafale Larsen Lik-Ma Bledoss et l'rap s'fait ken Moi et la paix, du 7e art, mate le départ Côté sauvage d'Afrique faut pas lui en vouloir a ce con Complotaient, tapis dans l'ombre, mais vont y rester S'acharnent comme des Guignols sur sa Majesté Kakou, j'ai pas le temps de perdre avec ta jalousie Lik-Ma le Bledoss Dakar teranga Demande à la Familia au ter-téranga Mes baye fall, te fument comme un bocal de ganja On carbure au plein les veines Les miens sont dangereux comme de la kérosène Mais la France se cherche comme un ado qui se touche Si tu veux la guerre avec nous, il t'faudra les missions de Bush On marche toujours avec la première et deuxième force Boy Dakar, la plaque, l'emblème gravé sur le torse Plaidoyer de la banlieue, on paye pas le loyer L'industrie on la noyée, qu'est-ce que tu croyais ? All Eyez on Me, je suis pas démuni Moi je vais à la banque pour la brinks money Des guetteurs postés à chaque coin d'ma rue Des tueurs m'attendent, juste en bas de l'avenue J'ai crié, pleuré, caché mes larmes sous la pluie J'irai pas pour te plaindre, si j'me fais tirer d'ssus Les MC sont tristes, j'suis encore en vie J'les traite, puis j'dis Venez me voir à Clicli Et la rue m'rappelle, j'ai arrêté de bibi Trois meufs à la semaine ? Maintenant, c'est easy Planète Rap, chez Sky, ils m'appellent E.T Je les ai vu défourailler, sur Tupac et Biggie Easy-E, Jay-Z, Lino et Daddy Lord C Dans le 93, Alpha Master P J'ai du pain sur la planche, faut que j'retourne au marché Ressusciter la voix du peuple comme les Democrates D C'est Alpha, negro, Tupac, negro Sécurité sociale deux flingues, négro Balastik, Uzi, la rafale Larsen Lik-Ma sort du bled et ton rap s'fait ken Alpha, negro, Tupac, negro Sécurité sociale deux flingues, négro Balastik, Uzi, la rafale Larsen Lik-Ma Bledoss et l'rap s'fait ken Yeah, la puissance des nègres Blackjack Democrates, en puissance et en force 5.20, Balastik, Larsen, Bledoss Yeah, Bosquets, Montfermeil, Clichy-sous Yeah, que personne ne bouge sinon, t'entends simplement</t>
+          <t>93, Larsen, flow chromé métallique J't'allume au Uzi, j'm'arrache en tonnerre mécanique M'égaler ? Négatif, j'connais le succès cagoulé Braque le fourgon de la gloire, l'amour m'a refoulé J'me suis foulé l'poignet, mon brolique est trop chargé J'ai trop défouraillé, j'ai une ardoise chez l'armurier Mon gilet pare-balles, c'est mon gilet d'sauvetage Si j'me noie dans le crime, une balle me réanime Et si celle-ci atteint son but, mon buffet ou mon torse Que j'ai raison et que j'ai tort, c'est pour toi que ça se corse Oui pour toi, man, quoi ? Tu veux jouer au you-voi toi ? Ça se voit que tu m'connais pas, j'vais te cramer sous ton toît Toi toi, oui toi, t'as voulu jouer avec moi ? J'vais t'allumer dans ta gova, ou venir te soulever chez toi J'ai une morale de hagar pour ces bâtards de kouffar Jouez avec nos nerfs et vous vous mangerez une rafale Rouge sang, noir de la peau, bouge quand tu sens qu'la lice-po Descend dans ton ghetto, pour avoir plus de gens Les jeunes jouent avec l'agent-gent J'roule avec des caisses sans jantes Gênés par des kahba sans argent, je n'ai Toujours pas pris l'habitude, elle s'barre dès l'déjeuner C'est plutôt 93 Etendard qui va t'dégainer Longtemps, s'il faut, inshallah sans défauts Moi, je suis plutôt contre ces pédés qui s'prennent pour des fous T'as ma parole, bien sûr que l'équipe la trouve dans un bon rôle Le rôle de bicrave dans les cités, moi j'évite la taule Et mes potes m'épaulent et moi, j'décolle Plus loin, que tu crois mon ami, que les halls nous ont baisé Comme la taule nous fait la bise, de toutes façons j'ai rien à miser Viser l'Etat, c'est qui nous intéresse depuis longtemps Le temps de respirer un bon moment Maroc stick, casse des dents Mamene, trop d'MC s'croivent aux states mamene, tous ces MC esquivent Les têtes à têtes trop de prétexte, mamene tous ces MC ils vivent C'est Alpha, negro, Tupac, negro Sécurité sociale deux flingues, négro Balastik, Uzi, la rafale Larsen Lik-Ma sort du bled et ton rap s'fait ken Alpha, negro, Tupac, negro Sécurité sociale deux flingues, négro Balastik, Uzi, la rafale Larsen Lik-Ma Bledoss et l'rap s'fait ken Moi et la paix, du 7e art, mate le départ Côté sauvage d'Afrique faut pas lui en vouloir a ce con Complotaient, tapis dans l'ombre, mais vont y rester S'acharnent comme des Guignols sur sa Majesté Kakou, j'ai pas le temps de perdre avec ta jalousie Lik-Ma le Bledoss Dakar teranga Demande à la Familia au ter-téranga Mes baye fall, te fument comme un bocal de ganja On carbure au plein les veines Les miens sont dangereux comme de la kérosène Mais la France se cherche comme un ado qui se touche Si tu veux la guerre avec nous, il t'faudra les missions de Bush On marche toujours avec la première et deuxième force Boy Dakar, la plaque, l'emblème gravé sur le torse Plaidoyer de la banlieue, on paye pas le loyer L'industrie on la noyée, qu'est-ce que tu croyais ? All Eyez on Me, je suis pas démuni Moi je vais à la banque pour la brinks money Des guetteurs postés à chaque coin d'ma rue Des tueurs m'attendent, juste en bas de l'avenue J'ai crié, pleuré, caché mes larmes sous la pluie J'irai pas pour te plaindre, si j'me fais tirer d'ssus Les MC sont tristes, j'suis encore en vie J'les traite, puis j'dis Venez me voir à Clicli Et la rue m'rappelle, j'ai arrêté de bibi Trois meufs à la semaine ? Maintenant, c'est easy Planète Rap, chez Sky, ils m'appellent E.T Je les ai vu défourailler, sur Tupac et Biggie Easy-E, Jay-Z, Lino et Daddy Lord C Dans le 93, Alpha Master P J'ai du pain sur la planche, faut que j'retourne au marché Ressusciter la voix du peuple comme les Democrates D C'est Alpha, negro, Tupac, negro Sécurité sociale deux flingues, négro Balastik, Uzi, la rafale Larsen Lik-Ma sort du bled et ton rap s'fait ken Alpha, negro, Tupac, negro Sécurité sociale deux flingues, négro Balastik, Uzi, la rafale Larsen Lik-Ma Bledoss et l'rap s'fait ken Yeah, la puissance des nègres Blackjack Democrates, en puissance et en force 5.20, Balastik, Larsen, Bledoss Yeah, Bosquets, Montfermeil, Clichy-sous Yeah, que personne ne bouge sinon, t'entends simplement</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2822,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Limpide et froid, igloo négro Je peux vendre de la glace à des esquimaux Face à la maille j'suis un daltonien Je vois pas de couleur, je sens pas d'odeur Flaire la mort à des pas d'ici Des appels au secours, cris d'agonie La vie de ma mère boy tu fais pitié hey Brandir des flingues usés Quoi de neuf pédé ? Moi j'suis de retour Touche pas à mon pain ou je te fais le contour Cireur de pompes, suceur de zgegs Une menace fantôme comme dans Star Wars Porteur de virus, jeune négro meurt HIV positif, travelo fourreur Tourne pas le dos au vent de Dakar Tu vas l'avoir dans le cul, pénétration anale Je prie le Seigneur juste avant de dormir Dans un guet apens mes ennemis m'attirent Pas besoin d'une tess pour me protéger Si je dois partir boy je partirai Je prie le Seigneur juste avant de dormir Dans un guet apens mes ennemis m'attirent Pas besoin d'une tess pour me protéger Si je dois partir boy je partirai You might also like Mélancolique parce que j'ai soif et j'ai faim Je taffe trop c'est pour ça que je vois moins la famille ... Je prie le Seigneur juste avant de dormir Dans un guet apens mes ennemis m'attirent Pas besoin d'une tess pour me protéger Si je dois partir boy je partirai Je prie le Seigneur juste avant de dormir Dans un guet apens mes ennemis m'attirent Pas besoin d'une tess pour me protéger Si je dois partir boy je partirai</t>
+          <t>Limpide et froid, igloo négro Je peux vendre de la glace à des esquimaux Face à la maille j'suis un daltonien Je vois pas de couleur, je sens pas d'odeur Flaire la mort à des pas d'ici Des appels au secours, cris d'agonie La vie de ma mère boy tu fais pitié hey Brandir des flingues usés Quoi de neuf pédé ? Moi j'suis de retour Touche pas à mon pain ou je te fais le contour Cireur de pompes, suceur de zgegs Une menace fantôme comme dans Star Wars Porteur de virus, jeune négro meurt HIV positif, travelo fourreur Tourne pas le dos au vent de Dakar Tu vas l'avoir dans le cul, pénétration anale Je prie le Seigneur juste avant de dormir Dans un guet apens mes ennemis m'attirent Pas besoin d'une tess pour me protéger Si je dois partir boy je partirai Je prie le Seigneur juste avant de dormir Dans un guet apens mes ennemis m'attirent Pas besoin d'une tess pour me protéger Si je dois partir boy je partirai Mélancolique parce que j'ai soif et j'ai faim Je taffe trop c'est pour ça que je vois moins la famille ... Je prie le Seigneur juste avant de dormir Dans un guet apens mes ennemis m'attirent Pas besoin d'une tess pour me protéger Si je dois partir boy je partirai Je prie le Seigneur juste avant de dormir Dans un guet apens mes ennemis m'attirent Pas besoin d'une tess pour me protéger Si je dois partir boy je partirai</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2839,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>... Eh James K Page ... ... Pose la cagoule t'as rien compris chien Si t'es pour les insoumis terroristes antillais Tu chiales tout le temps pédé T'as des fafs, va chercher des hertz négro 3 types d'hommes glissent partout pédé Les travs, les savants et les guerriers pédé J'viens court-circuiter la transmission de vos conneries dans les oreilles des petits Bim bim aux chiottes les bling bling C'est hardcore la France m'a coté en chute libre Depuis que Guy Georges leur a écarté les beujs de force Journal du hard avec Bardot et Hillary Duff Tu kiffes pas je te donne un zgeg de négro tout neuf ... You might also like ... ... ... ... Ben laden musique et mon coeur palpite Quand je parle le soleil et la lune se gravite Man .. coup sec lucifer au paradis Mes armes sont célèstes moi je tire sur belzebuth La vérité negro c'est que la bicrave me manque Ça fait bizarre de rentrer sans cagoule a la banque Les majors ont peur de moi je les ai rendu amnésique Moi j'ai violé leurs terres dévalisé leur boutiques Solidaire dans mon ame dans le rap j'ai pas d'égal J'entends pas les negros je suis dans air senegal Entre vents et marées ghetto fab Hardcore L'état veut nous faire croire que Ben laden est mort ... Sous le soleil du diable y'a pas d'ombre y'a pas de gilet ... C'est nord sud est ouest big up au pays On sera jamais intégrés avec nos boubous et nos wesh wesh Les treillis sont de sortie ...</t>
+          <t>... Eh James K Page ... ... Pose la cagoule t'as rien compris chien Si t'es pour les insoumis terroristes antillais Tu chiales tout le temps pédé T'as des fafs, va chercher des hertz négro 3 types d'hommes glissent partout pédé Les travs, les savants et les guerriers pédé J'viens court-circuiter la transmission de vos conneries dans les oreilles des petits Bim bim aux chiottes les bling bling C'est hardcore la France m'a coté en chute libre Depuis que Guy Georges leur a écarté les beujs de force Journal du hard avec Bardot et Hillary Duff Tu kiffes pas je te donne un zgeg de négro tout neuf ... ... ... ... ... Ben laden musique et mon coeur palpite Quand je parle le soleil et la lune se gravite Man .. coup sec lucifer au paradis Mes armes sont célèstes moi je tire sur belzebuth La vérité negro c'est que la bicrave me manque Ça fait bizarre de rentrer sans cagoule a la banque Les majors ont peur de moi je les ai rendu amnésique Moi j'ai violé leurs terres dévalisé leur boutiques Solidaire dans mon ame dans le rap j'ai pas d'égal J'entends pas les negros je suis dans air senegal Entre vents et marées ghetto fab Hardcore L'état veut nous faire croire que Ben laden est mort ... Sous le soleil du diable y'a pas d'ombre y'a pas de gilet ... C'est nord sud est ouest big up au pays On sera jamais intégrés avec nos boubous et nos wesh wesh Les treillis sont de sortie ...</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2856,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>... ... ... Pose la cagoule t'as rien compris chien Si t'es pour les insoumis terroristes antillais Tu chiales tout le temps pédé T'as des fafs, va chercher des hertz négro 3 types d'hommes glissent partout pédé Les travs, les savants et les guerriers pédé J'viens court-circuiter la transmission de vos conneries dans les oreilles des petits Bim bim aux chiottes les bling bling C'est hardcore la France m'a coté en chute libre Depuis que Guy Georges leur a écarté les beujs de force Journal du hard avec Bardot et Hillary Duff Tu kiffes pas je te donne un zgeg de négro tout neuf ... You might also like ... ... ... ... Ben laden musique et mon coeur palpite Quand je parle le soleil et la lune se gravite Man .. coup sec lucifer au paradis Mes armes sont célèstes moi je tire sur belzebuth La vérité negro c'est que la bicrave me manque Ça fait bizarre de rentrer sans cagoule a la banque Les majors ont peur de moi je les ai rendu amnésique Moi j'ai violé leurs terres dévalisé leur boutiques Solidaire dans mon ame dans le rap j'ai pas d'égal J'entend pas les negros je suis dans air senegal Entre vents et marées ghetto fab Hardcore L'état veut nous faire croire que Ben laden est mort ... ...</t>
+          <t>... ... ... Pose la cagoule t'as rien compris chien Si t'es pour les insoumis terroristes antillais Tu chiales tout le temps pédé T'as des fafs, va chercher des hertz négro 3 types d'hommes glissent partout pédé Les travs, les savants et les guerriers pédé J'viens court-circuiter la transmission de vos conneries dans les oreilles des petits Bim bim aux chiottes les bling bling C'est hardcore la France m'a coté en chute libre Depuis que Guy Georges leur a écarté les beujs de force Journal du hard avec Bardot et Hillary Duff Tu kiffes pas je te donne un zgeg de négro tout neuf ... ... ... ... ... Ben laden musique et mon coeur palpite Quand je parle le soleil et la lune se gravite Man .. coup sec lucifer au paradis Mes armes sont célèstes moi je tire sur belzebuth La vérité negro c'est que la bicrave me manque Ça fait bizarre de rentrer sans cagoule a la banque Les majors ont peur de moi je les ai rendu amnésique Moi j'ai violé leurs terres dévalisé leur boutiques Solidaire dans mon ame dans le rap j'ai pas d'égal J'entend pas les negros je suis dans air senegal Entre vents et marées ghetto fab Hardcore L'état veut nous faire croire que Ben laden est mort ... ...</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2873,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Mon son dans l'top 10 des maisons d'arrêt Des phases qui font marrer, mon blase tatoué sur tous les murs au cran d'arrêt Pose ma dédicace sur des feuilles d'OCB Oh, c'est bon, fais fonctionner la CB, ma gueule, wesh, c'est 10 euros l'CD J'ai jamais vu Batman sur l'toit d'nos bâtiments jamais Rien qu'des Partyman et des bolosses qui connaîtront tous le même châtiment Partout, ça bibi, élevés au MOP, Al Pacino, Takeshi Kitano et MOBB Le rap qui sent la pisse dans l'ascenseur, la pression ? C'est dans les pneus J'ai d'l'inspi', arrache-moi vite une feuille de classeur Sur l'prochain clip, j'suis là, j'potasse Y a une partouze de jalouses, des MC, des connasses, d'la merde sous la godasse On traîne des zoulettes qui ont l'même corps que Barbi Sur la moustache à Larbi, mon Gucci pue la crêpe chicken des frères Barbiche Le hip-hop, c'est notre propriété c'est à nous, ça Même en état d'ébriété, viens t'abriter dans la tess des célébrités Du matos dans les boîtes aux lettres, clé PTT La BAC vient rouspéter, y a un concert privé dans les caves à VTT C'est la musique des guesh tout plein à fond dans l'tuning Des Maghrébos du terter, des Bamboulas balèzes comme Mouss Diouf dans les movings Voici les stars des HLM Fais flipper les chtars comme le FLNC, Burberry et pas HM Être violent et faire du cash, elle aime Quand Escobar Macson et Alpha 5.20 parlent de haches et d'haine Voici les stars des HLM Fais flipper les chtars comme le FLNC, Burberry et pas HM Être violent et faire du cash, elle aime Quand Escobar Macson et Alpha 5.20 parlent de haches et d'haine You might also like C'est un manque de respect quand un négro nie Ton investissement même, c'est pas qu'des prix Déclenche le mal en moi comme le 666 Démons parlent dans ma tête, je vois des crucifix J'suis musulman et je crois au Christ Mais je tends pas la joue si quelqu'un m'offusque J'aime voir à terre le corps de mes ennemis Et j'm'en fous qu'après, leur mère pousse des cris Si si, négro, le Diable m'attendait Et j't'avoue que parfois, moi, j'ai dû céder Évacuer de mon cur tout l'amour que j'avais Mémoire d'esclave, j'suis qu'un rancunier Grossiers propos avant la négociation Yes we can, papa, comme l'a dit Patson Faire du mal à ta mère comme avorter son rejeton Épinay, Villetaneuse, capitale des démons Foyer de rébellion, textile en teflon Les cuirs sont pleins d'négros quand y a plus de gibier Drogues dures et armes à feu, c'est chez nous le vivier, frère ! Voici les stars des HLM Fais flipper les chtars comme le FLNC, Burberry et pas HM Être violent et faire du cash, elle aime Quand Escobar Macson et Alpha 5.20 parlent de haches et d'haine Voici les stars des HLM Fais flipper les chtars comme le FLNC, Burberry et pas HM Être violent et faire du cash, elle aime Quand Escobar Macson et Alpha 5.20 parlent de haches et d'haine Yeah, flingue sous l'abdomen, naturel phénomène La vie de rêve nous tente, le Sheitan nous malmène Flingue sous l'abdomen, naturel phénomène La vie de rêve nous tente, le Sheitan nous malmène, hey</t>
+          <t>Mon son dans l'top 10 des maisons d'arrêt Des phases qui font marrer, mon blase tatoué sur tous les murs au cran d'arrêt Pose ma dédicace sur des feuilles d'OCB Oh, c'est bon, fais fonctionner la CB, ma gueule, wesh, c'est 10 euros l'CD J'ai jamais vu Batman sur l'toit d'nos bâtiments jamais Rien qu'des Partyman et des bolosses qui connaîtront tous le même châtiment Partout, ça bibi, élevés au MOP, Al Pacino, Takeshi Kitano et MOBB Le rap qui sent la pisse dans l'ascenseur, la pression ? C'est dans les pneus J'ai d'l'inspi', arrache-moi vite une feuille de classeur Sur l'prochain clip, j'suis là, j'potasse Y a une partouze de jalouses, des MC, des connasses, d'la merde sous la godasse On traîne des zoulettes qui ont l'même corps que Barbi Sur la moustache à Larbi, mon Gucci pue la crêpe chicken des frères Barbiche Le hip-hop, c'est notre propriété c'est à nous, ça Même en état d'ébriété, viens t'abriter dans la tess des célébrités Du matos dans les boîtes aux lettres, clé PTT La BAC vient rouspéter, y a un concert privé dans les caves à VTT C'est la musique des guesh tout plein à fond dans l'tuning Des Maghrébos du terter, des Bamboulas balèzes comme Mouss Diouf dans les movings Voici les stars des HLM Fais flipper les chtars comme le FLNC, Burberry et pas HM Être violent et faire du cash, elle aime Quand Escobar Macson et Alpha 5.20 parlent de haches et d'haine Voici les stars des HLM Fais flipper les chtars comme le FLNC, Burberry et pas HM Être violent et faire du cash, elle aime Quand Escobar Macson et Alpha 5.20 parlent de haches et d'haine C'est un manque de respect quand un négro nie Ton investissement même, c'est pas qu'des prix Déclenche le mal en moi comme le 666 Démons parlent dans ma tête, je vois des crucifix J'suis musulman et je crois au Christ Mais je tends pas la joue si quelqu'un m'offusque J'aime voir à terre le corps de mes ennemis Et j'm'en fous qu'après, leur mère pousse des cris Si si, négro, le Diable m'attendait Et j't'avoue que parfois, moi, j'ai dû céder Évacuer de mon cur tout l'amour que j'avais Mémoire d'esclave, j'suis qu'un rancunier Grossiers propos avant la négociation Yes we can, papa, comme l'a dit Patson Faire du mal à ta mère comme avorter son rejeton Épinay, Villetaneuse, capitale des démons Foyer de rébellion, textile en teflon Les cuirs sont pleins d'négros quand y a plus de gibier Drogues dures et armes à feu, c'est chez nous le vivier, frère ! Voici les stars des HLM Fais flipper les chtars comme le FLNC, Burberry et pas HM Être violent et faire du cash, elle aime Quand Escobar Macson et Alpha 5.20 parlent de haches et d'haine Voici les stars des HLM Fais flipper les chtars comme le FLNC, Burberry et pas HM Être violent et faire du cash, elle aime Quand Escobar Macson et Alpha 5.20 parlent de haches et d'haine Yeah, flingue sous l'abdomen, naturel phénomène La vie de rêve nous tente, le Sheitan nous malmène Flingue sous l'abdomen, naturel phénomène La vie de rêve nous tente, le Sheitan nous malmène, hey</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2890,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Jveux percer, lyrics en silex quon taille dans le ciment Dès que ça clash, les mcs se cachent pour die en silence Cest triste ! La thune rime avec bitume, plumes Tu nseras pas célèbre si tu me tues Mc gilet pare balles, cet mcs nest pas moi Chili Chili Bang Bang, juste un ciné, pas moi Hors scène les vrais négros vivent-ils comme Cent Fifty ? Emmerdant danciennes victimes La tragédie Biggie, Tupac naura pas lieu ici On passe souvent du soft au racailleux Non ! Tu veux tester, pour ta fête, tes pas prêt Jai pas le temps pour un tête à tête, peut être après Quartiers sales, négros affamés Cherche pas il y a mon négro Alpha, yeah ! Crédible ? Cest bien !! Faire du fric ? Ce s'rait pas du luxe... Té-ma Sky The Limit, Ghetto Faboulous ! Street life, face à nous renoi, tes pas crédible Conseil reste tranquille et reste dans ta ville Street life et sur le CD je ne fais pas de crédits Boss de panam, représente à vie bis Boss de panam, Dakar hustler - Dans la rue ? Cest moi ! - Dans le block ? Cest moi ! 5.20, Alpha, 47 AKA Matricule D.K., 5.20, le retour Si tu kiffes pas mes renois, frère, me dit pas bonjour A part la rue fiston, tes loin dêtre comme nous Nous on est des gangsters avec des grands boubous Coupe ! Coupe ! jpavane dans les rues de Yarakh Et Dakar cest la jungle, nègro, matte limpact Mafia Africaine comme les mecs de Vitry Sauf que nous cest Sous Bois, Aulnay, Clichy Mecs braves, finests, mecs dEpinay-sur-Seine Après la bricrave, on va te piner sur scène De lautre côté de la rue quelques-uns mont trahi Renoi si tes pas ébahi, moi je dors avec mes ennemis La rue cest danger, plein de contre-sens Accent de Dakar, cest le bled en France You might also like Street life, face à nous renoi, tes pas crédible Conseil reste tranquille et reste dans ta ville Street life et sur le CD je ne fais pas de crédits Boss de panam, représente à vie bis Boss de panam, Dakar hustler Rentre dans le ghetto, mot de passe 9.3 Depuis Rimes et Gloire, tous rappent comme moi Breitling au poignet, plus une graine-de-café Vide tout mon stock négro, matte le pavé Pars le premier car le rap cest du sport On vient de braquer, play boy si tu dors Tony l'a rêvé, Alpha va le faire Je nai pas à prouver, tout mon gang est vé-nér Crédible ? Du plus petit au plus grand malfra Je me présente DIOMAY pour les quelques rares fois Que je représente. Hommage à ceux qui en bavent trop Quand ça part en freestyle, eux, ils partent en live, yo ! Street life, face à nous renoi, tes pas crédible Conseil reste tranquille et reste dans ta ville Street life et sur le CD je ne fais pas de crédits Boss de panam, représente à vie bis Boss de panam, Dakar hustler</t>
+          <t>Jveux percer, lyrics en silex quon taille dans le ciment Dès que ça clash, les mcs se cachent pour die en silence Cest triste ! La thune rime avec bitume, plumes Tu nseras pas célèbre si tu me tues Mc gilet pare balles, cet mcs nest pas moi Chili Chili Bang Bang, juste un ciné, pas moi Hors scène les vrais négros vivent-ils comme Cent Fifty ? Emmerdant danciennes victimes La tragédie Biggie, Tupac naura pas lieu ici On passe souvent du soft au racailleux Non ! Tu veux tester, pour ta fête, tes pas prêt Jai pas le temps pour un tête à tête, peut être après Quartiers sales, négros affamés Cherche pas il y a mon négro Alpha, yeah ! Crédible ? Cest bien !! Faire du fric ? Ce s'rait pas du luxe... Té-ma Sky The Limit, Ghetto Faboulous ! Street life, face à nous renoi, tes pas crédible Conseil reste tranquille et reste dans ta ville Street life et sur le CD je ne fais pas de crédits Boss de panam, représente à vie bis Boss de panam, Dakar hustler - Dans la rue ? Cest moi ! - Dans le block ? Cest moi ! 5.20, Alpha, 47 AKA Matricule D.K., 5.20, le retour Si tu kiffes pas mes renois, frère, me dit pas bonjour A part la rue fiston, tes loin dêtre comme nous Nous on est des gangsters avec des grands boubous Coupe ! Coupe ! jpavane dans les rues de Yarakh Et Dakar cest la jungle, nègro, matte limpact Mafia Africaine comme les mecs de Vitry Sauf que nous cest Sous Bois, Aulnay, Clichy Mecs braves, finests, mecs dEpinay-sur-Seine Après la bricrave, on va te piner sur scène De lautre côté de la rue quelques-uns mont trahi Renoi si tes pas ébahi, moi je dors avec mes ennemis La rue cest danger, plein de contre-sens Accent de Dakar, cest le bled en France Street life, face à nous renoi, tes pas crédible Conseil reste tranquille et reste dans ta ville Street life et sur le CD je ne fais pas de crédits Boss de panam, représente à vie bis Boss de panam, Dakar hustler Rentre dans le ghetto, mot de passe 9.3 Depuis Rimes et Gloire, tous rappent comme moi Breitling au poignet, plus une graine-de-café Vide tout mon stock négro, matte le pavé Pars le premier car le rap cest du sport On vient de braquer, play boy si tu dors Tony l'a rêvé, Alpha va le faire Je nai pas à prouver, tout mon gang est vé-nér Crédible ? Du plus petit au plus grand malfra Je me présente DIOMAY pour les quelques rares fois Que je représente. Hommage à ceux qui en bavent trop Quand ça part en freestyle, eux, ils partent en live, yo ! Street life, face à nous renoi, tes pas crédible Conseil reste tranquille et reste dans ta ville Street life et sur le CD je ne fais pas de crédits Boss de panam, représente à vie bis Boss de panam, Dakar hustler</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2907,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Je conte le message, tu sens la patate 9.3 mentalité de Bagdad D'humeur kamikaze, sors de gardav' Gladiator du bitume et de l'asphalte Boit le sang des ennemis dans des carafes Baise des tasspés naines ou des girafes Sors en balade avec mes macaques Je parle peu négro mais je balafre Cours même pas quand ça pétarde Scarface d'Afrique, j'suis en promenade Ne parle pas de flingue si tu tires pas Si t'es pas muslim frère ne jure pas Sur le Coran dis pas W'Allah Pour des futilités man ici bas Blasphèmes tasspés et des garres-ba C'est l'ignorance de la tess que je combats 92 leur-dea 93 vénère La concurrence est meurtrie Un son lourd qui tape sur les nerfs 92 leur-dea 93 vénère Pas le temps pour les broutilles Sors l'outil et puis nique sa mère You might also like Je crève leur rêve, j'achève Ecoute bien, j't'observe, même ta tte-ch' j'ai niqué ses lèvres J'suis trop chaud peut être qu'un jour je serais célèbre Non j'm'en régale ouais j'ai bien commencé mon seize Sultan t'es non, pousse-toi de là Je nique tout de là, se repentir avant l'au-delà Trop déter' trop sévère quand, j'kick avec Alpha Mort pas à l'appât mais sort l'hameçon tah les J't'bouscule c'est la sur moi t'es canalisé Avec mon flow j't'ai visé, t'as du mal à réaliser Car on boss, car on shoot, car on pousse, les carotte tous Trop de-spee pour toi négro tu vois y a pas de poussin Je les défie, je les enfile, je me les fais Une doudoune car les regards sont froids et divers sont les faits Les prétentieux tombent de haut, c'est bien fait Quartiers Cuverons, Ter', Bagneux, le reste c'est pour les faibles 92 leur-dea 93 vénère La concurrence est meurtrie Un son lourd qui tape sur les nerfs 92 leur-dea 93 vénère Pas le temps pour les broutilles Sors l'outil et puis nique sa mère Ils sont aveugles tant que Sultan n'est pas dans l'écran Le rap c'est carnivore y a plus de petit y a plus de grand Tu pétes un câble, moi c'est pépère comme d'hab' Dakar, Moroni, C4 Clan, Ghetto Fab' C'est pour tous les territoires hostiles Tilleuls, Blanc-Mesnil, la Courneuve, les 4000 T'as le aux sse-fe non, c'est pas du bluff 92 la me-me et la haine pour les keufs Des sous les palmiers Crapules sont nos avocats et banquiers Hors la loi, Ghetto Fab' Family Discriminé comme dans le Tennessee Héritier de Tupac nos ennemis Sans pitié on les baise comme Kennedy Killer, killer, Seine-Saint-Denis Bagneux, Hauts-de-Seine jusqu'à Moroni 92 leur-dea 93 vénère La concurrence est meurtrie Un son lourd qui tape sur les nerfs 92 leur-dea 93 vénère Pas le temps pour les broutilles Sors l'outil et puis nique sa mère</t>
+          <t>Je conte le message, tu sens la patate 9.3 mentalité de Bagdad D'humeur kamikaze, sors de gardav' Gladiator du bitume et de l'asphalte Boit le sang des ennemis dans des carafes Baise des tasspés naines ou des girafes Sors en balade avec mes macaques Je parle peu négro mais je balafre Cours même pas quand ça pétarde Scarface d'Afrique, j'suis en promenade Ne parle pas de flingue si tu tires pas Si t'es pas muslim frère ne jure pas Sur le Coran dis pas W'Allah Pour des futilités man ici bas Blasphèmes tasspés et des garres-ba C'est l'ignorance de la tess que je combats 92 leur-dea 93 vénère La concurrence est meurtrie Un son lourd qui tape sur les nerfs 92 leur-dea 93 vénère Pas le temps pour les broutilles Sors l'outil et puis nique sa mère Je crève leur rêve, j'achève Ecoute bien, j't'observe, même ta tte-ch' j'ai niqué ses lèvres J'suis trop chaud peut être qu'un jour je serais célèbre Non j'm'en régale ouais j'ai bien commencé mon seize Sultan t'es non, pousse-toi de là Je nique tout de là, se repentir avant l'au-delà Trop déter' trop sévère quand, j'kick avec Alpha Mort pas à l'appât mais sort l'hameçon tah les J't'bouscule c'est la sur moi t'es canalisé Avec mon flow j't'ai visé, t'as du mal à réaliser Car on boss, car on shoot, car on pousse, les carotte tous Trop de-spee pour toi négro tu vois y a pas de poussin Je les défie, je les enfile, je me les fais Une doudoune car les regards sont froids et divers sont les faits Les prétentieux tombent de haut, c'est bien fait Quartiers Cuverons, Ter', Bagneux, le reste c'est pour les faibles 92 leur-dea 93 vénère La concurrence est meurtrie Un son lourd qui tape sur les nerfs 92 leur-dea 93 vénère Pas le temps pour les broutilles Sors l'outil et puis nique sa mère Ils sont aveugles tant que Sultan n'est pas dans l'écran Le rap c'est carnivore y a plus de petit y a plus de grand Tu pétes un câble, moi c'est pépère comme d'hab' Dakar, Moroni, C4 Clan, Ghetto Fab' C'est pour tous les territoires hostiles Tilleuls, Blanc-Mesnil, la Courneuve, les 4000 T'as le aux sse-fe non, c'est pas du bluff 92 la me-me et la haine pour les keufs Des sous les palmiers Crapules sont nos avocats et banquiers Hors la loi, Ghetto Fab' Family Discriminé comme dans le Tennessee Héritier de Tupac nos ennemis Sans pitié on les baise comme Kennedy Killer, killer, Seine-Saint-Denis Bagneux, Hauts-de-Seine jusqu'à Moroni 92 leur-dea 93 vénère La concurrence est meurtrie Un son lourd qui tape sur les nerfs 92 leur-dea 93 vénère Pas le temps pour les broutilles Sors l'outil et puis nique sa mère</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2924,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>J'ouvre la porte, j'entrevois des flammes Ma masse corporel a perdu 21 grammes L'Homme est fait de poussière, se réduit en cendre J'crois pas c'que j'vois mais c'qu'j'peux entendre Yeah négro, la rue m'a rendu ignoble Tel un ange déchu j'suis venu, j'ai vu Des femmes toutes nues devant l'argent s'prosternent J'leur en veux même pas en c'qui me concerne Une vie d'chacal sous un ciel gris de France Frère les larmes de ta mère traduisent ma souffrance Conserve mon calme et j'prêche que l'bien Si j't'ai fait du mal frère c'était nécessaire On peut être riche, avoir une vie précaire Quand tu danses avec le diable frère c'est lui qui te gère Combien ont amassés des fortunes mais pas atteint la trentaine Le corps froid dans un cercueil mis en quarantaine Et toute ma vie dans ce Rap j'ai écrit Frère de l'embryon jusqu'à la scène d'autopsie Réalisé des miracles, j'ai marché sur l'eau Boy tel un prophète, frère dans mon ghetto Et toute ma vie dans ce Rap j'ai écrit Frère de l'embryon jusqu'à la scène d'autopsie Réalisé des miracles, j'ai marché sur l'eau Boy tel un prophète, frère dans mon ghetto You might also like C'est sur un fil que j'suis né, défouraillais à l'imparfait Appelle le diable au combiné qu'on puisse dans l'éternité OG Doyen j'ai l'cur brisé depuis qu'mon fils et mort-né J'me sens seul abandonné, Lucifer me rit au nez J'ai l'impression j'vais griller, embourbé dans mes pêchés J'ai un bon cur, des fois violent ça j'l'ai jamais jamais caché J'suis motivé pas zombifié même si la roue n'a pas tournée Déterminé Doyen terrien pour les miennes et les miens J'suis sur l'terrain, j'veux pas les miettes, ma vie s'pose pas sur un appui-tête J'entends les sirènes de l'Enfer quand j'pense au mal que j'ai fait Quand j'serai dead me regrette pas, j'm'en bats les couilles de qui t'es La illasse-ca, canon scié y'a qu'avec ça qu'j'me suis marié J'ai plus d'amour dans mon cur, j'me suis renfermé Assis tout seul sur mon canapé à penser qui j'étais J'ai l'goût d'la haine, devenue aigris depuis d'la perte d'mon ls-fi M'en veux pas si j'te parle pas, tout n'est pas si facile Hein ! Et toute ma vie dans ce Rap j'ai écrit Frère de l'embryon jusqu'à la scène d'autopsie Réalisé des miracles, j'ai marché sur l'eau Boy tel un prophète, frère dans mon ghetto Et toute ma vie dans ce Rap j'ai écrit Frère de l'embryon jusqu'à la scène d'autopsie Réalisé des miracles, j'ai marché sur l'eau Boy tel un prophète, frère dans mon ghetto Yo je prête plus attention à ce qu'les négros disent C'est que d'la calomnie, jaloux, et traîtrise M'en bats les couilles de ton ghetto, c'est africain G'z M'en bats les couilles de ton ghetto, c'est africain G'z Je prête plus attention à ce qu'les négros disent C'est que d'la calomnie, jaloux, et traîtrise M'en bats les couilles de ton ghetto, c'est africain G'z M'en bats les couilles de ton ghetto, c'est africain G'z</t>
+          <t>J'ouvre la porte, j'entrevois des flammes Ma masse corporel a perdu 21 grammes L'Homme est fait de poussière, se réduit en cendre J'crois pas c'que j'vois mais c'qu'j'peux entendre Yeah négro, la rue m'a rendu ignoble Tel un ange déchu j'suis venu, j'ai vu Des femmes toutes nues devant l'argent s'prosternent J'leur en veux même pas en c'qui me concerne Une vie d'chacal sous un ciel gris de France Frère les larmes de ta mère traduisent ma souffrance Conserve mon calme et j'prêche que l'bien Si j't'ai fait du mal frère c'était nécessaire On peut être riche, avoir une vie précaire Quand tu danses avec le diable frère c'est lui qui te gère Combien ont amassés des fortunes mais pas atteint la trentaine Le corps froid dans un cercueil mis en quarantaine Et toute ma vie dans ce Rap j'ai écrit Frère de l'embryon jusqu'à la scène d'autopsie Réalisé des miracles, j'ai marché sur l'eau Boy tel un prophète, frère dans mon ghetto Et toute ma vie dans ce Rap j'ai écrit Frère de l'embryon jusqu'à la scène d'autopsie Réalisé des miracles, j'ai marché sur l'eau Boy tel un prophète, frère dans mon ghetto C'est sur un fil que j'suis né, défouraillais à l'imparfait Appelle le diable au combiné qu'on puisse dans l'éternité OG Doyen j'ai l'cur brisé depuis qu'mon fils et mort-né J'me sens seul abandonné, Lucifer me rit au nez J'ai l'impression j'vais griller, embourbé dans mes pêchés J'ai un bon cur, des fois violent ça j'l'ai jamais jamais caché J'suis motivé pas zombifié même si la roue n'a pas tournée Déterminé Doyen terrien pour les miennes et les miens J'suis sur l'terrain, j'veux pas les miettes, ma vie s'pose pas sur un appui-tête J'entends les sirènes de l'Enfer quand j'pense au mal que j'ai fait Quand j'serai dead me regrette pas, j'm'en bats les couilles de qui t'es La illasse-ca, canon scié y'a qu'avec ça qu'j'me suis marié J'ai plus d'amour dans mon cur, j'me suis renfermé Assis tout seul sur mon canapé à penser qui j'étais J'ai l'goût d'la haine, devenue aigris depuis d'la perte d'mon ls-fi M'en veux pas si j'te parle pas, tout n'est pas si facile Hein ! Et toute ma vie dans ce Rap j'ai écrit Frère de l'embryon jusqu'à la scène d'autopsie Réalisé des miracles, j'ai marché sur l'eau Boy tel un prophète, frère dans mon ghetto Et toute ma vie dans ce Rap j'ai écrit Frère de l'embryon jusqu'à la scène d'autopsie Réalisé des miracles, j'ai marché sur l'eau Boy tel un prophète, frère dans mon ghetto Yo je prête plus attention à ce qu'les négros disent C'est que d'la calomnie, jaloux, et traîtrise M'en bats les couilles de ton ghetto, c'est africain G'z M'en bats les couilles de ton ghetto, c'est africain G'z Je prête plus attention à ce qu'les négros disent C'est que d'la calomnie, jaloux, et traîtrise M'en bats les couilles de ton ghetto, c'est africain G'z M'en bats les couilles de ton ghetto, c'est africain G'z</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2941,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Yo les fleurs ne poussent pas, que du béton armé Juste la maille de Alpha, gangster incarné Balise ma route, maintenant savent à qui se tater Peut mourir à la seconde parce qu'on s'est maté Jette des pierres aux keufs comme à l'Intifada Tout mon gang est réuni Afrique et Gwada Toute la maille c'est rien négro puis le respect c'est tout Si t'entends des coups de fu mec c'est que t's chez nous ... Gaze ap bâtard moi je viens de Dakar ... négro ça m'est égal Pour mes gens au placard qui poussent derrière des barreaux Et tous mes gens dehors qui font péter des carreaux Écoute ça renoi c'est Alpha j'suis vénère Et si y'a embrouille je bouge pas je t'envoie Shone et KER ... Gaze ap bâtard moi je viens de Dakar ... négro ça m'est égal Pour mes gens au placard qui poussent derrière des barreaux Et tous mes gens dehors qui font péter des carreauxYou might also like</t>
+          <t>Yo les fleurs ne poussent pas, que du béton armé Juste la maille de Alpha, gangster incarné Balise ma route, maintenant savent à qui se tater Peut mourir à la seconde parce qu'on s'est maté Jette des pierres aux keufs comme à l'Intifada Tout mon gang est réuni Afrique et Gwada Toute la maille c'est rien négro puis le respect c'est tout Si t'entends des coups de fu mec c'est que t's chez nous ... Gaze ap bâtard moi je viens de Dakar ... négro ça m'est égal Pour mes gens au placard qui poussent derrière des barreaux Et tous mes gens dehors qui font péter des carreaux Écoute ça renoi c'est Alpha j'suis vénère Et si y'a embrouille je bouge pas je t'envoie Shone et KER ... Gaze ap bâtard moi je viens de Dakar ... négro ça m'est égal Pour mes gens au placard qui poussent derrière des barreaux Et tous mes gens dehors qui font péter des carreaux</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2958,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Yeah ! Seth Gueko, Alpha, M.O.D.I.T Mets la tête dans un étau, si tu paies pas très tôt les modalités Yo Thugz ! On fout lzbeul dans les soirées players Thugz, Thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Devant les schmits aucune frayeur On porte les flingues les meilleurs, les fringues les meilleures Yo thugz ! Fout lzbeul dans les soirées players Thugz, thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Sur lter-ter à nimporte quelle heure Si tu crois que les keufs ont du cur, tu fais erreur Primo ! Je ferai du cash avant dêtre vieux-jeu Deuzio ! On fait pas dcocard sans casser des yeux Trois ! Pour une facture impayée on tfracture les ossements Quatre ! Si tu crois quModit mon soss ment, tu te trompes faussement Cinq ! Jai lchien dla caissière à la beuj Car depuis gamin dans les sins-ga-ma Jai la main balladeuse Ttrouveras pt-être la loi n 6 odieuse Car, Seth opère à la scie sauteuse Ya pas ddifférence entre un ke-fli et un âne Entre un porc et Koffi Annan Khalass ! Il mfaut du ke-fri un max yo ! Masta, tes vraiment trop stupide stu tconfies à oim Rap maudit, on tfait les poches pendant qutapplaudis On ssert dans lreservoir dla pape-mobile pour faire nos cocktails Molotov On trinque à la Smirnoff, pour la mort aux profs Jaime pas recevoir dordres Que Dieu mpréserve dla drogue et des poucaves, comme dans Reservoir Dogs Ne jamais décevoir le boss - yo Masta ! Ou tu vas recevoir des bosses You might also like Yo Thugz ! On fout lzbeul dans les soirées players Thugz, Thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Devant les schmits aucune frayeur On porte les flingues les meilleurs, les fringues les meilleures Yo thugz ! Fout lzbeul dans les soirées players Thugz, thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Sur lter-ter à nimporte quelle heure Si tu crois que les keufs ont du cur, tu fais erreur Première lettre Alpha, paré pour le combat Lui il garde lil du tigre à la Rocky Balboa À quoi sert petit con de clasher un boa Tu vas mourir étouffé juste en bas dchez toi Fais flipper ldocteur, ligne droite à lécran Plus une veuve qui pleure, battements de cur, néant Un géant qui spavane au milieu des nabots Moi jsuis un ancien, le rap cest pour les ados Mais bande de bâtards ! Envers vous jétais tolérant Arrête de mentir, jurer sur lCoran ! Plein dchiens errants, frère, se mettent à rêver Croient trouver une femelle, mais en fait se branlaient Tourne pas à droite, tu vas tfaire violer À Clichy-sous-Bois, mes renois vont tétaler À lancienne, Arsenik, viens manger lgoudron On balance les poucaves, boy, du haut des avions La vérité absolue, rap de France caneurs Jai la rime K-1 à la Jérôme Le Banner Ils disent qulargent ne change pas un vrai renoi Moi je porte mon flingue, jsuis encore un vrai renoi Fait que tu piges déjà, comme le temps quil mreste Comme mon pote O'rosko, jai quune vie à vivre Jvais baiser des 'tasses, jvais tirer mon flingue Si un renoi parle mal, jensanglante ses fringues De plus, aucune tess ne peut niquer Dakar Des mes-ar et des bolides cachés sous lhangar Renoi renoi renoi renoi renoi Yo Thugz ! On fout lzbeul dans les soirées players Thugz, Thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Devant les schmits aucune frayeur On porte les flingues les meilleurs, les fringues les meilleures Yo thugz ! Fout lzbeul dans les soirées players Thugz, thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Sur lter-ter à nimporte quelle heure Si tu crois que les keufs ont du cur, tu fais erreur Jsuis vnu pour lcash Papi Yo Thugz ! On fout lzbeul dans les soirées players Thugz, Thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Devant les schmits aucune frayeur On porte les flingues les meilleurs, les fringues les meilleures Yo thugz ! Fout lzbeul dans les soirées players Thugz, thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Sur lter-ter à nimporte quelle heure Si tu crois que les keufs ont du cur, tu fais erreur</t>
+          <t>Yeah ! Seth Gueko, Alpha, M.O.D.I.T Mets la tête dans un étau, si tu paies pas très tôt les modalités Yo Thugz ! On fout lzbeul dans les soirées players Thugz, Thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Devant les schmits aucune frayeur On porte les flingues les meilleurs, les fringues les meilleures Yo thugz ! Fout lzbeul dans les soirées players Thugz, thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Sur lter-ter à nimporte quelle heure Si tu crois que les keufs ont du cur, tu fais erreur Primo ! Je ferai du cash avant dêtre vieux-jeu Deuzio ! On fait pas dcocard sans casser des yeux Trois ! Pour une facture impayée on tfracture les ossements Quatre ! Si tu crois quModit mon soss ment, tu te trompes faussement Cinq ! Jai lchien dla caissière à la beuj Car depuis gamin dans les sins-ga-ma Jai la main balladeuse Ttrouveras pt-être la loi n 6 odieuse Car, Seth opère à la scie sauteuse Ya pas ddifférence entre un ke-fli et un âne Entre un porc et Koffi Annan Khalass ! Il mfaut du ke-fri un max yo ! Masta, tes vraiment trop stupide stu tconfies à oim Rap maudit, on tfait les poches pendant qutapplaudis On ssert dans lreservoir dla pape-mobile pour faire nos cocktails Molotov On trinque à la Smirnoff, pour la mort aux profs Jaime pas recevoir dordres Que Dieu mpréserve dla drogue et des poucaves, comme dans Reservoir Dogs Ne jamais décevoir le boss - yo Masta ! Ou tu vas recevoir des bosses Yo Thugz ! On fout lzbeul dans les soirées players Thugz, Thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Devant les schmits aucune frayeur On porte les flingues les meilleurs, les fringues les meilleures Yo thugz ! Fout lzbeul dans les soirées players Thugz, thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Sur lter-ter à nimporte quelle heure Si tu crois que les keufs ont du cur, tu fais erreur Première lettre Alpha, paré pour le combat Lui il garde lil du tigre à la Rocky Balboa À quoi sert petit con de clasher un boa Tu vas mourir étouffé juste en bas dchez toi Fais flipper ldocteur, ligne droite à lécran Plus une veuve qui pleure, battements de cur, néant Un géant qui spavane au milieu des nabots Moi jsuis un ancien, le rap cest pour les ados Mais bande de bâtards ! Envers vous jétais tolérant Arrête de mentir, jurer sur lCoran ! Plein dchiens errants, frère, se mettent à rêver Croient trouver une femelle, mais en fait se branlaient Tourne pas à droite, tu vas tfaire violer À Clichy-sous-Bois, mes renois vont tétaler À lancienne, Arsenik, viens manger lgoudron On balance les poucaves, boy, du haut des avions La vérité absolue, rap de France caneurs Jai la rime K-1 à la Jérôme Le Banner Ils disent qulargent ne change pas un vrai renoi Moi je porte mon flingue, jsuis encore un vrai renoi Fait que tu piges déjà, comme le temps quil mreste Comme mon pote O'rosko, jai quune vie à vivre Jvais baiser des 'tasses, jvais tirer mon flingue Si un renoi parle mal, jensanglante ses fringues De plus, aucune tess ne peut niquer Dakar Des mes-ar et des bolides cachés sous lhangar Renoi renoi renoi renoi renoi Yo Thugz ! On fout lzbeul dans les soirées players Thugz, Thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Devant les schmits aucune frayeur On porte les flingues les meilleurs, les fringues les meilleures Yo thugz ! Fout lzbeul dans les soirées players Thugz, thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Sur lter-ter à nimporte quelle heure Si tu crois que les keufs ont du cur, tu fais erreur Jsuis vnu pour lcash Papi Yo Thugz ! On fout lzbeul dans les soirées players Thugz, Thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Devant les schmits aucune frayeur On porte les flingues les meilleurs, les fringues les meilleures Yo thugz ! Fout lzbeul dans les soirées players Thugz, thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Sur lter-ter à nimporte quelle heure Si tu crois que les keufs ont du cur, tu fais erreur</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2975,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Tu sais déjà, Ghetto Fab Alpha 5.20, Holocost O'Rosko, pour tous les quartiers que l'Etat délaisse Ghetto Fabulous, Ghetto Fabulous En bas du bloc frère, j'ai de la maille sous mon jean, j'ai un holster Ghetto Fabulous Gang, que des gangsters Tu feras rien à part déchirer le poster 93, les grandes gueules vont se taire Tous mes négros smokent la 'indo De Dakar à 77 Et les tasspés s'accrochent aux pénis J'ai les couilles grosses comme une balle de tennis Dess-dess roule 38 silhouette Carats 24 Graine caf gourmette Qui nous voient mais marchent à téco Raconte pas ta life comme Al Peco On fonce dans le mur AyrtonSenna Orgemont, 3 keus et Clichy Sous Bois C'est pour mes thugs qui crient West Side 93 Ça c'est un truc pour tous les quartiers que l'état délaisse Où y'a trop de biz et y'a trop de leust Négro monte le son si t'as un K de luxe Alpha, Holocost, Ghetto Fabulous Pour tous les quartiers que l'état délaisse Où y'a trop de biz et y'a trop de leust Négro monte le son si t'as un K de luxe Alpha, Holocost, Ghetto Fabulous You might also like Putain d'famille du ghetto, loin d'Kadigeta La cité ou au card-pla pour les reufrés pas acquittés Rien que ça parle dans le B9 parle de dièzes pour le bénéf Tout ça sponsorisé par Leffe J'vais pas te mentir boy rarement en boîte Au sky je me pète pas la boîte pour que le dimanche ça boîte Pas de Paname by night la BAC bonhomme Maglite dans ta gueule à côté de ton reuf dégueule Tu connais notre ambiance Forest Foss Hall Teum teum bédo cool-al bédave Délinquance pour les badauds du lundi au manche-di 2-3 euros je fais péter à Aldi sisi Avec mes soss ça parle de CC 206 De pèze mec ou de 116 de biz coupé 406 320D fils, ambiance illicite Ah shit, ça smoke ton smic Ça c'est un truc pour tous les quartiers que l'état délaisse Où y'a trop de biz et y'a trop de leust Négro monte le son si t'as un K de luxe Alpha, Holocost, Ghetto Fabulous Pour tous les quartiers que l'état délaisse Où y'a trop de biz et y'a trop de leust Négro monte le son si t'as un K de luxe Alpha, Holocost, Ghetto Fabulous le monde te fais signe qui arrivent au week-end Après les coups de feu tu sais tous envie de ken Mais si t'as pas de plan c'est soirée bâtiment Plein évidemment plein a l'Heineken, et nickel est l'ambiance qui règne Pas de mecs qui portent plainte juste des mecs qui se plaignent pas Qui partagent le même pain Opel opinel Ghetto Fabulous Gang descend les femelles Roule à 200 dans leurs tunnels Et ça tourne et t'es bien pour péter le mic' Si t'es out si t'es mort enlève moi ce mec T'es blessé parce que je rappe sec Ke-ba la maitrise pas au bloc Bref, c'est juste une aparté d'la soirée Maintenant on passe aux choses sérieuses Pétasse pose mon blouson, mon bloc sous la table, mes feuilles Mon portable dans la ve-ca, l'équipe port d'arme Ça c'est un truc pour tous les quartiers que l'état délaisse Où y'a trop de biz et y'a trop de leust Négro monte le son si t'as un K de luxe Alpha, Holocost, Ghetto Fabulous Pour tous les quartiers que l'état délaisse Où y'a trop de biz et y'a trop de leust Négro monte le son si t'as un K de luxe Alpha, Holocost, Ghetto Fabulous</t>
+          <t>Tu sais déjà, Ghetto Fab Alpha 5.20, Holocost O'Rosko, pour tous les quartiers que l'Etat délaisse Ghetto Fabulous, Ghetto Fabulous En bas du bloc frère, j'ai de la maille sous mon jean, j'ai un holster Ghetto Fabulous Gang, que des gangsters Tu feras rien à part déchirer le poster 93, les grandes gueules vont se taire Tous mes négros smokent la 'indo De Dakar à 77 Et les tasspés s'accrochent aux pénis J'ai les couilles grosses comme une balle de tennis Dess-dess roule 38 silhouette Carats 24 Graine caf gourmette Qui nous voient mais marchent à téco Raconte pas ta life comme Al Peco On fonce dans le mur AyrtonSenna Orgemont, 3 keus et Clichy Sous Bois C'est pour mes thugs qui crient West Side 93 Ça c'est un truc pour tous les quartiers que l'état délaisse Où y'a trop de biz et y'a trop de leust Négro monte le son si t'as un K de luxe Alpha, Holocost, Ghetto Fabulous Pour tous les quartiers que l'état délaisse Où y'a trop de biz et y'a trop de leust Négro monte le son si t'as un K de luxe Alpha, Holocost, Ghetto Fabulous Putain d'famille du ghetto, loin d'Kadigeta La cité ou au card-pla pour les reufrés pas acquittés Rien que ça parle dans le B9 parle de dièzes pour le bénéf Tout ça sponsorisé par Leffe J'vais pas te mentir boy rarement en boîte Au sky je me pète pas la boîte pour que le dimanche ça boîte Pas de Paname by night la BAC bonhomme Maglite dans ta gueule à côté de ton reuf dégueule Tu connais notre ambiance Forest Foss Hall Teum teum bédo cool-al bédave Délinquance pour les badauds du lundi au manche-di 2-3 euros je fais péter à Aldi sisi Avec mes soss ça parle de CC 206 De pèze mec ou de 116 de biz coupé 406 320D fils, ambiance illicite Ah shit, ça smoke ton smic Ça c'est un truc pour tous les quartiers que l'état délaisse Où y'a trop de biz et y'a trop de leust Négro monte le son si t'as un K de luxe Alpha, Holocost, Ghetto Fabulous Pour tous les quartiers que l'état délaisse Où y'a trop de biz et y'a trop de leust Négro monte le son si t'as un K de luxe Alpha, Holocost, Ghetto Fabulous le monde te fais signe qui arrivent au week-end Après les coups de feu tu sais tous envie de ken Mais si t'as pas de plan c'est soirée bâtiment Plein évidemment plein a l'Heineken, et nickel est l'ambiance qui règne Pas de mecs qui portent plainte juste des mecs qui se plaignent pas Qui partagent le même pain Opel opinel Ghetto Fabulous Gang descend les femelles Roule à 200 dans leurs tunnels Et ça tourne et t'es bien pour péter le mic' Si t'es out si t'es mort enlève moi ce mec T'es blessé parce que je rappe sec Ke-ba la maitrise pas au bloc Bref, c'est juste une aparté d'la soirée Maintenant on passe aux choses sérieuses Pétasse pose mon blouson, mon bloc sous la table, mes feuilles Mon portable dans la ve-ca, l'équipe port d'arme Ça c'est un truc pour tous les quartiers que l'état délaisse Où y'a trop de biz et y'a trop de leust Négro monte le son si t'as un K de luxe Alpha, Holocost, Ghetto Fabulous Pour tous les quartiers que l'état délaisse Où y'a trop de biz et y'a trop de leust Négro monte le son si t'as un K de luxe Alpha, Holocost, Ghetto Fabulous</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2992,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>C'est pour ma family mes OG à l'attitude de la Californie Doyen OG bandit, un 16 crimes je brandis Plus je m'exprime plus ma rime grandit Sexe, crimes la rue m'a vu grandir Tu sais que je tire des taffes, mets des baffes, des barres au vestiaire Investis dans un label, fais rapper la taule bâtard Sortez les poils, les pelles, préparez le cimetière J'viens grailler enterrer ce putain de rap français Cadenasser le M.I.C te sens pas offensé ... Tout ce que je veux négro c'est faire de la maille Serre des tass, Eazy-E dans ma ride Tout ce que je veux négro blanchir mes thunes Rouler sans permis avec les mecs de ma street Tout ce que je veux négro c'est faire de la maille Serre des tass, Eazy-E dans ma ride Tout ce que je veux négro blanchir mes thunes Rouler sans permis avec les mecs de ma street Ile de France négro drive by music Comme les rues de Compton en 8.7 s'applique Man les keufs et les traîtres veulent gêner le trafic Tant qu'y'a pas de gros sous moi je dirai pas dig West Coast chronic paix à Eazy E Sans limite bicrave frère comme Master P Au delà de la tess Alpha est soldat Venu baiser les charts comme Prose Combat Après les sapes et les immeubles moi j'aurai des sodas Ghetto Fabulous Gang baise Coca Cola Et t'as beau critiquer Dakar va briller Nos ennemis arrivent debout puis repartent pliés Priez que le ciel soit toujours avec vous La hagra ... le sol Seine Saint Denis zoo C'est du gangsta rap musique d'insomniaques Les indés qui baisent tout même Planète rap You might also like Tout ce que je veux négro c'est faire de la maille Serre des tass, Eazy-E dans ma ride Tout ce que je veux négro blanchir mes thunes Rouler sans permis avec les mecs de ma street Tout ce que je veux négro c'est faire de la maille Serre des tass, Eazy-E dans ma ride Tout ce que je veux négro blanchir mes thunes Rouler sans permis avec les mecs de ma street</t>
+          <t>C'est pour ma family mes OG à l'attitude de la Californie Doyen OG bandit, un 16 crimes je brandis Plus je m'exprime plus ma rime grandit Sexe, crimes la rue m'a vu grandir Tu sais que je tire des taffes, mets des baffes, des barres au vestiaire Investis dans un label, fais rapper la taule bâtard Sortez les poils, les pelles, préparez le cimetière J'viens grailler enterrer ce putain de rap français Cadenasser le M.I.C te sens pas offensé ... Tout ce que je veux négro c'est faire de la maille Serre des tass, Eazy-E dans ma ride Tout ce que je veux négro blanchir mes thunes Rouler sans permis avec les mecs de ma street Tout ce que je veux négro c'est faire de la maille Serre des tass, Eazy-E dans ma ride Tout ce que je veux négro blanchir mes thunes Rouler sans permis avec les mecs de ma street Ile de France négro drive by music Comme les rues de Compton en 8.7 s'applique Man les keufs et les traîtres veulent gêner le trafic Tant qu'y'a pas de gros sous moi je dirai pas dig West Coast chronic paix à Eazy E Sans limite bicrave frère comme Master P Au delà de la tess Alpha est soldat Venu baiser les charts comme Prose Combat Après les sapes et les immeubles moi j'aurai des sodas Ghetto Fabulous Gang baise Coca Cola Et t'as beau critiquer Dakar va briller Nos ennemis arrivent debout puis repartent pliés Priez que le ciel soit toujours avec vous La hagra ... le sol Seine Saint Denis zoo C'est du gangsta rap musique d'insomniaques Les indés qui baisent tout même Planète rap Tout ce que je veux négro c'est faire de la maille Serre des tass, Eazy-E dans ma ride Tout ce que je veux négro blanchir mes thunes Rouler sans permis avec les mecs de ma street Tout ce que je veux négro c'est faire de la maille Serre des tass, Eazy-E dans ma ride Tout ce que je veux négro blanchir mes thunes Rouler sans permis avec les mecs de ma street</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3009,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Boy tout ce qui ne tue pas négro me rend plus fort Petits frères sont blessés et les autres à la morgue Ils veulent nous voir dans le rouge, ils veulent savoir quand on morfle Alors fuck Nicolas, négro fuck Nicolas Boy tout ce qui ne tue pas négro me rend plus fort Petits frères sont blessés et les autres à la morgue Ils veulent nous voir dans le rouge, ils veulent savoir quand on morfle Alors fuck Nicolas, boy fuck Nicolas Négro je t'ai dit tout ce qui brille n'est pas or Puis rgarde dans mes yeux tout c que tu vois c'est la mort C'est le retour du patron derrière moi c'est Raricim ... Ghetto Fabulous Gang nous on met la patate ... Ta vie ne tient qu'à un fil suspendu à un pont ... Boy tout ce qui ne tue pas négro me rend plus fort Petits frères sont blessés et les autres à la morgue Ils veulent nous voir dans le rouge, ils veulent savoir quand on morfle Alors fuck Nicolas, négro fuck Nicolas Boy tout ce qui ne tue pas négro me rend plus fort Petits frères sont blessés et les autres à la morgue Ils veulent nous voir dans le rouge, ils veulent savoir quand on morfle Alors fuck Nicolas, boy fuck Nicolas You might also like ...</t>
+          <t>Boy tout ce qui ne tue pas négro me rend plus fort Petits frères sont blessés et les autres à la morgue Ils veulent nous voir dans le rouge, ils veulent savoir quand on morfle Alors fuck Nicolas, négro fuck Nicolas Boy tout ce qui ne tue pas négro me rend plus fort Petits frères sont blessés et les autres à la morgue Ils veulent nous voir dans le rouge, ils veulent savoir quand on morfle Alors fuck Nicolas, boy fuck Nicolas Négro je t'ai dit tout ce qui brille n'est pas or Puis rgarde dans mes yeux tout c que tu vois c'est la mort C'est le retour du patron derrière moi c'est Raricim ... Ghetto Fabulous Gang nous on met la patate ... Ta vie ne tient qu'à un fil suspendu à un pont ... Boy tout ce qui ne tue pas négro me rend plus fort Petits frères sont blessés et les autres à la morgue Ils veulent nous voir dans le rouge, ils veulent savoir quand on morfle Alors fuck Nicolas, négro fuck Nicolas Boy tout ce qui ne tue pas négro me rend plus fort Petits frères sont blessés et les autres à la morgue Ils veulent nous voir dans le rouge, ils veulent savoir quand on morfle Alors fuck Nicolas, boy fuck Nicolas ...</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3026,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Ça fait des années que je répète ça. L'enfoiré qui l'entend, il meurt aussitôt. J'avais jamais cherché à comprendre, je trouvais seulement que ça en jetait de dire ça avant de flinguer un mec. Et puis ce matin j'ai vu quelque chose qui m'a fait réfléchir. D'un seul coup je me dis, que ça pourrait bien vouloir dire que tu es l'oeuvre du malin, et que l'homme vertueux c'est moi, et que mon joli 9mm ce serait mon protecteur, mon berger dans la vallée de l'angoisse et des larmes. Ou encore mieux, c'est moi le berger, et toi l'homme vertueux, et que c'est l'oeuvre du monde qui est l'oeuvre de Lucifer Mais Dieu merci négro, je suis plus dans la daube Maintenant que les trafiquants, pour les flics sont des taupes Et tu sais, tu sais négro, on fait des trucs sales De mon balcon je pisse, arrose les fleurs du mal Inhale de l'oxygène, crache des glaires de haine Et sur le trottoir frère, j'ai placé des reines Du plaisir charnel peau ébène et caramel Tu sens le Diable en toi, dès que tu touches leurs mamelles Lucifer est dans ma rue, le mal est dans ma vie Plein de Judas à ma table, je vois le bout du crucifix Des païens qui prit que Ghetto Fab soit fini Je pense au sacrilège puis comment je l'ai puni Hante mon esprit, les démons ricanent J'y crois au Tout-Puissant, mais je suis au bord du Sheitan Fièvre dans la jungle, idée sacrée ou profane Comment parler aux djinns comme le prophète Suleyman La haine est dans mes yeux, la mort est sur mes lèvres Je pense à mes ennemis, je pense à mes ennemis Je pense à tous ces frères qui ont voulu me trahir Pourtant je les ai nourris, pourtant je les ai nourris La haine est dans mes yeux, la mort est sur mes lèvres Je pense à mes ennemis, je pense à mes ennemis Je pense à tous ces frères qui ont voulu me trahir Pourtant je les ai nourris, pourtant je les ai nourris You might also like Quatrième dimension, je maîtrise le vent Il me manque dans la vie que l'cinquième élément Et ma musique s'écoute frère, au fond des cimetières Ambiance outre-tombe, y a du sang dans mon verre J'arrive pas à voir clair, c'est le trou noir Couloir de la mort, j'ai perdu tous mes pouvoirs Maléfique, satanique, retour en Afrique, pour me laver A force de vivre en France boy, on finit encrassé Passer devant les sorciers, confectionner des grigris Mutilant les albinos, et ceux qui ont la trisomie L'empire maudit, le prince des Ténèbres Des sacrifices humains, en bas d'ma fenêtre Je te lai dit négro, on fait des trucs sales De mon balcon je pisse, arrose les fleurs du mal Et si j'meurs qu'on m'enterre avec mon argent Qu'on se rappelle qu'à moi seul, j'ai niqué tous les agents La haine est dans mes yeux, la mort est sur mes lèvres Je pense à mes ennemis, je pense à mes ennemis Je pense à tous ces frères qui ont voulu me trahir Pourtant je les ai nourris, pourtant je les ai nourris La haine est dans mes yeux, la mort est sur mes lèvres Je pense à mes ennemis, je pense à mes ennemis Je pense à tous ces frères qui ont voulu me trahir Pourtant je les ai nourris, pourtant je les ai nourris Et tu sais, tu sais négro, on fait des trucs sales La vie de rêve nous tend, on cotoît le mal Je suis sur l'autoroute, je suis déjà gé-char Et j'arrive de l'au-delà, envahir la capitale Et tu sais, tu sais négro, on fait des trucs sales La vie de rêve nous tend, on cotoît le mal Je suis sur l'autoroute, je suis déjà gé-char Et j'arrive de l'au-delà, envahir la capitale Calamité naturelle, moins de mois de misère Que Dieu protège l'Afrique de ses tremblements de terre Quand le Diable danse la nuit sur la terre de Haïti Décombres et gravats, c'est la mort qui m'envahit Une chair trop froide, les morts ne parlent pas La peur est dans tes yeux, eux ne mententt pas Une chair trop froide, les morts ne parlent pas La mort est dans tes yeux frère, eux ne mentent pas La haine est dans mes yeux, la mort est sur mes lèvres Je pense à mes ennemis, je pense à mes ennemis Je pense à tous ces frères qui ont voulu me trahir Pourtant je les ai nourris, pourtant je les ai nourris La haine est dans mes yeux, la mort est sur mes lèvres Je pense à mes ennemis, je pense à mes ennemis Je pense à tous ces frères qui ont voulu me trahir Pourtant je les ai nourris, pourtant je les ai nourris</t>
+          <t>Ça fait des années que je répète ça. L'enfoiré qui l'entend, il meurt aussitôt. J'avais jamais cherché à comprendre, je trouvais seulement que ça en jetait de dire ça avant de flinguer un mec. Et puis ce matin j'ai vu quelque chose qui m'a fait réfléchir. D'un seul coup je me dis, que ça pourrait bien vouloir dire que tu es l'oeuvre du malin, et que l'homme vertueux c'est moi, et que mon joli 9mm ce serait mon protecteur, mon berger dans la vallée de l'angoisse et des larmes. Ou encore mieux, c'est moi le berger, et toi l'homme vertueux, et que c'est l'oeuvre du monde qui est l'oeuvre de Lucifer Mais Dieu merci négro, je suis plus dans la daube Maintenant que les trafiquants, pour les flics sont des taupes Et tu sais, tu sais négro, on fait des trucs sales De mon balcon je pisse, arrose les fleurs du mal Inhale de l'oxygène, crache des glaires de haine Et sur le trottoir frère, j'ai placé des reines Du plaisir charnel peau ébène et caramel Tu sens le Diable en toi, dès que tu touches leurs mamelles Lucifer est dans ma rue, le mal est dans ma vie Plein de Judas à ma table, je vois le bout du crucifix Des païens qui prit que Ghetto Fab soit fini Je pense au sacrilège puis comment je l'ai puni Hante mon esprit, les démons ricanent J'y crois au Tout-Puissant, mais je suis au bord du Sheitan Fièvre dans la jungle, idée sacrée ou profane Comment parler aux djinns comme le prophète Suleyman La haine est dans mes yeux, la mort est sur mes lèvres Je pense à mes ennemis, je pense à mes ennemis Je pense à tous ces frères qui ont voulu me trahir Pourtant je les ai nourris, pourtant je les ai nourris La haine est dans mes yeux, la mort est sur mes lèvres Je pense à mes ennemis, je pense à mes ennemis Je pense à tous ces frères qui ont voulu me trahir Pourtant je les ai nourris, pourtant je les ai nourris Quatrième dimension, je maîtrise le vent Il me manque dans la vie que l'cinquième élément Et ma musique s'écoute frère, au fond des cimetières Ambiance outre-tombe, y a du sang dans mon verre J'arrive pas à voir clair, c'est le trou noir Couloir de la mort, j'ai perdu tous mes pouvoirs Maléfique, satanique, retour en Afrique, pour me laver A force de vivre en France boy, on finit encrassé Passer devant les sorciers, confectionner des grigris Mutilant les albinos, et ceux qui ont la trisomie L'empire maudit, le prince des Ténèbres Des sacrifices humains, en bas d'ma fenêtre Je te lai dit négro, on fait des trucs sales De mon balcon je pisse, arrose les fleurs du mal Et si j'meurs qu'on m'enterre avec mon argent Qu'on se rappelle qu'à moi seul, j'ai niqué tous les agents La haine est dans mes yeux, la mort est sur mes lèvres Je pense à mes ennemis, je pense à mes ennemis Je pense à tous ces frères qui ont voulu me trahir Pourtant je les ai nourris, pourtant je les ai nourris La haine est dans mes yeux, la mort est sur mes lèvres Je pense à mes ennemis, je pense à mes ennemis Je pense à tous ces frères qui ont voulu me trahir Pourtant je les ai nourris, pourtant je les ai nourris Et tu sais, tu sais négro, on fait des trucs sales La vie de rêve nous tend, on cotoît le mal Je suis sur l'autoroute, je suis déjà gé-char Et j'arrive de l'au-delà, envahir la capitale Et tu sais, tu sais négro, on fait des trucs sales La vie de rêve nous tend, on cotoît le mal Je suis sur l'autoroute, je suis déjà gé-char Et j'arrive de l'au-delà, envahir la capitale Calamité naturelle, moins de mois de misère Que Dieu protège l'Afrique de ses tremblements de terre Quand le Diable danse la nuit sur la terre de Haïti Décombres et gravats, c'est la mort qui m'envahit Une chair trop froide, les morts ne parlent pas La peur est dans tes yeux, eux ne mententt pas Une chair trop froide, les morts ne parlent pas La mort est dans tes yeux frère, eux ne mentent pas La haine est dans mes yeux, la mort est sur mes lèvres Je pense à mes ennemis, je pense à mes ennemis Je pense à tous ces frères qui ont voulu me trahir Pourtant je les ai nourris, pourtant je les ai nourris La haine est dans mes yeux, la mort est sur mes lèvres Je pense à mes ennemis, je pense à mes ennemis Je pense à tous ces frères qui ont voulu me trahir Pourtant je les ai nourris, pourtant je les ai nourris</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3043,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Le ciel montez-moi j'ai écrit mon destin Livré des combats un glaive à la main Arraché des terrains, fait pleurer des gangsters Mon récit est cruel, rempli de mystères Maman ne pleure pas, sois fière de moi Du nord au sud l'Afrique peut compter sur moi Violence héréditaire, Dakar est aux abois J'arrête pas d'envoyer des valises de CFA Makaveli Alpha toujours hors la loi J'attends juste qu'ils viennent pour me lire ms droits Les armes pleurnt puis après les coeurs deviennent froids Je parle trop de violence, en la paix j'ai foi Tends l'oreille négro les propos sont sulfureux La mort arrive en bécane, j'ai le regard ténébreux Calibré minimum, c'est du 11.43 A coup sûr frelon perfore ton estomac Viens avec moi Mec de tess c'est ton frère Alpha 20.25 caillera Jusqu'à la mort c'est Dakar soldat lalalala Viens avec moi Mec de tess c'est ton frère Alpha 20.25 caillera Jusqu'à la mort c'est Dakar soldat lalalala You might also like ... West Coast Dakar, jamais peur de la mort Mes prières vont droit au Sénégal d'abord Y'a t-il un paradis pour les gangsters frère ? 93 ma résidence à quelques pas de l'enfer West Coast Dakar, jamais peur de la mort Mes prières vont droit au Sénégal d'abord Y'a t-il un paradis pour les gangsters frère ? 93 ma résidence à quelques pas de l'enfer</t>
+          <t>Le ciel montez-moi j'ai écrit mon destin Livré des combats un glaive à la main Arraché des terrains, fait pleurer des gangsters Mon récit est cruel, rempli de mystères Maman ne pleure pas, sois fière de moi Du nord au sud l'Afrique peut compter sur moi Violence héréditaire, Dakar est aux abois J'arrête pas d'envoyer des valises de CFA Makaveli Alpha toujours hors la loi J'attends juste qu'ils viennent pour me lire ms droits Les armes pleurnt puis après les coeurs deviennent froids Je parle trop de violence, en la paix j'ai foi Tends l'oreille négro les propos sont sulfureux La mort arrive en bécane, j'ai le regard ténébreux Calibré minimum, c'est du 11.43 A coup sûr frelon perfore ton estomac Viens avec moi Mec de tess c'est ton frère Alpha 20.25 caillera Jusqu'à la mort c'est Dakar soldat lalalala Viens avec moi Mec de tess c'est ton frère Alpha 20.25 caillera Jusqu'à la mort c'est Dakar soldat lalalala ... West Coast Dakar, jamais peur de la mort Mes prières vont droit au Sénégal d'abord Y'a t-il un paradis pour les gangsters frère ? 93 ma résidence à quelques pas de l'enfer West Coast Dakar, jamais peur de la mort Mes prières vont droit au Sénégal d'abord Y'a t-il un paradis pour les gangsters frère ? 93 ma résidence à quelques pas de l'enfer</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3060,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>J'suis qu'un noir dans un monde tout blanc J'utilise ma haine pour aller de l'avant Négro, j'ai pas d'potos, je préfère les animaux Je préfère rester seul, mon coeur bat pour le ghetto J'suis qu'un noir dans un monde tout blanc J'utilise ma haine pour aller de l'avant Négro, j'ai pas d'potos, je préfère les animaux Je préfère rester seul, mon coeur bat pour le ghetto Mec de tess couilles en fer, voiture d'Allemagne Je charclais un mulet, péage d'espagne Perpignan Montpellier, Viaduc de Millau Clermont, Vierzon, tape une pointe sur Orléans Péage de Dourdans, rentre dans l'Essonne Évite les pirates comme natif l'égyptien Qui va finir dans le coffre reniflé par les chiens Les miens abordent la vie à 180 Puisse dieu nous éloigner des pédophiles et consanguins J'suis qu'un noir dans un monde tout blanc J'utilise ma haine pour aller de l'avant Négro, j'ai pas d'potos, je préfère les animaux Je préfère rester seul, mon coeur bat pour le ghetto J'suis qu'un noir dans un monde tout blanc J'utilise ma haine pour aller de l'avant Négro, j'ai pas d'potos, je préfère les animaux Je préfère rester seul, mon coeur bat pour le ghetto You might also like Étrangement les amis tous deviennent ennemis Mais rien a foutre tant que j'ai une lame sous mon teddy Mon délire est démoniaque comme les fils Tennessee Three 6, Crunchy, Gangsta Boo and Pimp C Le soir je suis posté dans un hôtel à Bondy J'suis ready, j'suis armé j'peux plus monter au charbon Négro moi j'suis trop cramé, condamné à vivre la nuit Dans ma tête c'est le tsunami, idées sales trajectoire d'une balle Quand la peur s'installe, wesh négro décale sinon C'est la pierre tombale, festival du crime en gardav À l'A.P.J. fils de pute parle mal et maintenant il a péri J'suis cramé à la sécu assédic et R.M.I Thug thug Dakar blood, personne veut d'la Hennessy Hors la loi, vie de chacal vie de maboul illégal Animal du Sénégal agitateur du mal Que de la haine viscérale j'introduis ton ancéphale Des avocats à 15 000e relaxé au tribunal J'suis qu'un noir dans un monde tout blanc J'utilise ma haine pour aller de l'avant Négro, j'ai pas d'potos, je préfère les animaux Je préfère rester seul, mon coeur bat pour le ghetto J'suis qu'un noir dans un monde tout blanc J'utilise ma haine pour aller de l'avant Négro, j'ai pas d'potos, je préfère les animaux Je préfère rester seul, mon coeur bat pour le ghetto</t>
+          <t>J'suis qu'un noir dans un monde tout blanc J'utilise ma haine pour aller de l'avant Négro, j'ai pas d'potos, je préfère les animaux Je préfère rester seul, mon coeur bat pour le ghetto J'suis qu'un noir dans un monde tout blanc J'utilise ma haine pour aller de l'avant Négro, j'ai pas d'potos, je préfère les animaux Je préfère rester seul, mon coeur bat pour le ghetto Mec de tess couilles en fer, voiture d'Allemagne Je charclais un mulet, péage d'espagne Perpignan Montpellier, Viaduc de Millau Clermont, Vierzon, tape une pointe sur Orléans Péage de Dourdans, rentre dans l'Essonne Évite les pirates comme natif l'égyptien Qui va finir dans le coffre reniflé par les chiens Les miens abordent la vie à 180 Puisse dieu nous éloigner des pédophiles et consanguins J'suis qu'un noir dans un monde tout blanc J'utilise ma haine pour aller de l'avant Négro, j'ai pas d'potos, je préfère les animaux Je préfère rester seul, mon coeur bat pour le ghetto J'suis qu'un noir dans un monde tout blanc J'utilise ma haine pour aller de l'avant Négro, j'ai pas d'potos, je préfère les animaux Je préfère rester seul, mon coeur bat pour le ghetto Étrangement les amis tous deviennent ennemis Mais rien a foutre tant que j'ai une lame sous mon teddy Mon délire est démoniaque comme les fils Tennessee Three 6, Crunchy, Gangsta Boo and Pimp C Le soir je suis posté dans un hôtel à Bondy J'suis ready, j'suis armé j'peux plus monter au charbon Négro moi j'suis trop cramé, condamné à vivre la nuit Dans ma tête c'est le tsunami, idées sales trajectoire d'une balle Quand la peur s'installe, wesh négro décale sinon C'est la pierre tombale, festival du crime en gardav À l'A.P.J. fils de pute parle mal et maintenant il a péri J'suis cramé à la sécu assédic et R.M.I Thug thug Dakar blood, personne veut d'la Hennessy Hors la loi, vie de chacal vie de maboul illégal Animal du Sénégal agitateur du mal Que de la haine viscérale j'introduis ton ancéphale Des avocats à 15 000e relaxé au tribunal J'suis qu'un noir dans un monde tout blanc J'utilise ma haine pour aller de l'avant Négro, j'ai pas d'potos, je préfère les animaux Je préfère rester seul, mon coeur bat pour le ghetto J'suis qu'un noir dans un monde tout blanc J'utilise ma haine pour aller de l'avant Négro, j'ai pas d'potos, je préfère les animaux Je préfère rester seul, mon coeur bat pour le ghetto</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3077,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>West Coast Dakar jamais peur de la mort Mes prières vont droit au Sénégal d'abord Y'a t-il un paradis pour les gangsters frère ? 9.3 ma résidence à quelques pas de l'enfer West Coast Dakar jamais peur de la mort Mes prières vont droit au Sénégal d'abord Y'a t-il un paradis pour les gangsters frère ? 9.3 ma résidence à quelques pas de l'enfer Man à force d'avoir les schmitts sur le dos Les coups de fil et les flashs m'ont rendu parano Pop les guns négro et je tire à souhait Wst Side Dakar venu pour racailler Intimidr la concurrence c'est la mort assurée Chaque rime est un crime de plus dans mon casier Le restant de ma vie c'est sous les palmiers Je travaille même pas moi je signe les papiers Dakar Miami et peut-être L.A A Las Palmas je fais que siroter Piña colada danse la merengue Avec des meufs gitanes qui pensent qu'à déhancher Blood gun négro rouge ensanglanté Mais cours négro cours la mort est arrivée Et je prie que le shit soit pas légalisé Sinon à coup sûr le bénéfice sera niqué Puisse Dieu me pardonner la violence que j'ai semé Dans la tête des petits j'suis idolâtré Dévaliser la banque et puis après se barrer Les rappeurs brassent de l'air moi je vais me marrer Me marier à la haine je vais jamais divorcer Un îlotier tout seul moi je vais le planter Dakar baise les traîtres sans remords ni pitié Nique la résurrection on va les déterrer Dans les rues de Mantes la je suis pas étranger Crédible alpoular comme l'union HP Et t'inquiète pour le rap quand je vais me retirer VF Gang et Holocost vont venir tout baiser You might also like West Coast Dakar jamais peur de la mort Mes prières vont droit au Sénégal d'abord Y'a t-il un paradis pour les gangsters frère ? 9.3 ma résidence à quelques pas de l'enfer West Coast Dakar jamais peur de la mort Mes prières vont droit au Sénégal d'abord Y'a t-il un paradis pour les gangsters frère ? 9.3 ma résidence à quelques pas de l'enfer</t>
+          <t>West Coast Dakar jamais peur de la mort Mes prières vont droit au Sénégal d'abord Y'a t-il un paradis pour les gangsters frère ? 9.3 ma résidence à quelques pas de l'enfer West Coast Dakar jamais peur de la mort Mes prières vont droit au Sénégal d'abord Y'a t-il un paradis pour les gangsters frère ? 9.3 ma résidence à quelques pas de l'enfer Man à force d'avoir les schmitts sur le dos Les coups de fil et les flashs m'ont rendu parano Pop les guns négro et je tire à souhait Wst Side Dakar venu pour racailler Intimidr la concurrence c'est la mort assurée Chaque rime est un crime de plus dans mon casier Le restant de ma vie c'est sous les palmiers Je travaille même pas moi je signe les papiers Dakar Miami et peut-être L.A A Las Palmas je fais que siroter Piña colada danse la merengue Avec des meufs gitanes qui pensent qu'à déhancher Blood gun négro rouge ensanglanté Mais cours négro cours la mort est arrivée Et je prie que le shit soit pas légalisé Sinon à coup sûr le bénéfice sera niqué Puisse Dieu me pardonner la violence que j'ai semé Dans la tête des petits j'suis idolâtré Dévaliser la banque et puis après se barrer Les rappeurs brassent de l'air moi je vais me marrer Me marier à la haine je vais jamais divorcer Un îlotier tout seul moi je vais le planter Dakar baise les traîtres sans remords ni pitié Nique la résurrection on va les déterrer Dans les rues de Mantes la je suis pas étranger Crédible alpoular comme l'union HP Et t'inquiète pour le rap quand je vais me retirer VF Gang et Holocost vont venir tout baiser West Coast Dakar jamais peur de la mort Mes prières vont droit au Sénégal d'abord Y'a t-il un paradis pour les gangsters frère ? 9.3 ma résidence à quelques pas de l'enfer West Coast Dakar jamais peur de la mort Mes prières vont droit au Sénégal d'abord Y'a t-il un paradis pour les gangsters frère ? 9.3 ma résidence à quelques pas de l'enfer</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3094,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Rien n'a changé à part que jai plus de maille Tout Dakar me soutient négro j'ai plus de caille Balise ma route nègres savent maintenant à qui se tâter Peuvent mourir à la seconde parce qu'on sest maté Rase le sol comme une hirondelle en temps d'orage Bas d'escalier ... juste moi et Nous sommes des bandits puis on porte des bandanas ... On les pointe du doigt mes potes diront c'st eux là Pas des intrus on se branch entre renois Fais tourner la bonne parole contrôle la rumeur ... Rien ne sert de jouer les nerveux rude boy Si ça tourne au vinaigre on sera tous des soundboys On meurt comme des soldats si on vit pas comme des rois Et fleurs sur ma tombe frère si telle était leur loi Dakar jusqu'à Paris fils en état de sursis Petit à petit après l'esprit s'est endurci Comme Olivia Stone entre ciel et terre suspendu N'aie pas confiance en eux cest tout ce que jai entendu Écoute ça renoi ... Écoute ça renoi Ghetto Fab à contresens Écoute ça renoi nous on nique tout en France Écoute ça renoi moi je te dis ce que je pense yeah You might also like Ghetto Fabulous fait de la maille like WOAH Et Aulnay 3keus ont de la maille like WOAH Epinay Orgemont ça bicrave like WOAH Négro qu'est ce tu dis hein ? Yo ma rue cest danger comme les marécages en Floride Sous nos écailles de caïman nique les shtars torride Mieux avaler son sang négro avoir sa fierté Vu que le bloc c'est la jungle nous on reste groupé Tasspés t'étouffent puis t'achèvent comme des piranhas Dors avec un seul oeil flingue sous nos pyjamas Tardsba veulent le pactole sévissent comme des pillards Résistent mieux quà Bagdad une grosse boule de billard Négro je viens de Dakar nul de nous est trouillard Taillés comme nos bastos une floppée de sale gosses Sale flic pourri, kilos de shit saisis Nicolas Sarkozy priorité à droite Moi je grille leurs stops puis je fonce au squat Nos frères dans des charters goument les keufs à Bamako Sous le ciel de Dakar mon gang achève le boulot C'est une époque de fou frère et dehors c'est la guerre La haine se lit dans mes yeux du chlore dans les artères Les genoux par terre je loue le Tout Puissant Ghetto Fabulous Gang négro t'es qu'un bidon Mantes la Jolie ...</t>
+          <t>Rien n'a changé à part que jai plus de maille Tout Dakar me soutient négro j'ai plus de caille Balise ma route nègres savent maintenant à qui se tâter Peuvent mourir à la seconde parce qu'on sest maté Rase le sol comme une hirondelle en temps d'orage Bas d'escalier ... juste moi et Nous sommes des bandits puis on porte des bandanas ... On les pointe du doigt mes potes diront c'st eux là Pas des intrus on se branch entre renois Fais tourner la bonne parole contrôle la rumeur ... Rien ne sert de jouer les nerveux rude boy Si ça tourne au vinaigre on sera tous des soundboys On meurt comme des soldats si on vit pas comme des rois Et fleurs sur ma tombe frère si telle était leur loi Dakar jusqu'à Paris fils en état de sursis Petit à petit après l'esprit s'est endurci Comme Olivia Stone entre ciel et terre suspendu N'aie pas confiance en eux cest tout ce que jai entendu Écoute ça renoi ... Écoute ça renoi Ghetto Fab à contresens Écoute ça renoi nous on nique tout en France Écoute ça renoi moi je te dis ce que je pense yeah Ghetto Fabulous fait de la maille like WOAH Et Aulnay 3keus ont de la maille like WOAH Epinay Orgemont ça bicrave like WOAH Négro qu'est ce tu dis hein ? Yo ma rue cest danger comme les marécages en Floride Sous nos écailles de caïman nique les shtars torride Mieux avaler son sang négro avoir sa fierté Vu que le bloc c'est la jungle nous on reste groupé Tasspés t'étouffent puis t'achèvent comme des piranhas Dors avec un seul oeil flingue sous nos pyjamas Tardsba veulent le pactole sévissent comme des pillards Résistent mieux quà Bagdad une grosse boule de billard Négro je viens de Dakar nul de nous est trouillard Taillés comme nos bastos une floppée de sale gosses Sale flic pourri, kilos de shit saisis Nicolas Sarkozy priorité à droite Moi je grille leurs stops puis je fonce au squat Nos frères dans des charters goument les keufs à Bamako Sous le ciel de Dakar mon gang achève le boulot C'est une époque de fou frère et dehors c'est la guerre La haine se lit dans mes yeux du chlore dans les artères Les genoux par terre je loue le Tout Puissant Ghetto Fabulous Gang négro t'es qu'un bidon Mantes la Jolie ...</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3111,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Ghetto Fabulous Gang frère Dakar Yarakh Bing bing 93 One Beat renoi ! Y a qu'une vie à vivre, moi j'la vis pleinement Dehors pleins de poucaves j'peux pas être clément Ghetto Fabulous Gang, boy à quoi tu t'attends ? Viens pas tout blanc, on est déjà rouge-sang La cité en personne, Dakar au mieux de sa forme Une jeunesse passée à haïr tout c'qui est uniforme J'peux plus dormir car la tess' m'appelle Une fausse plaque négro, les keufs sont juste derrière Ils voient rien dans mes yeux, essayent d'infiltrer mon coeur De plus l'Ange d'la Mort nettoie mon rétroviseur S'il te plait négro, me racontes pas ta vie Moi je crible ta caisse comme 2pac et Biggie C'est Alpha 5.20 en direct des toilettes Où je doigte la Joconde et Marie-Antoinette Et les cris qu'elles poussent ressemblent à ceux des macaques Avec lesquels j'ai grandis dans ma jungle natale Boy Dakar Dakar, les arènes de la mort Sacrifie les taureaux, moi j'suis un matador Tempère mon attitude, écoute les paroles divines En dehors du peu-ra mes paroles sont minimes ! You might also like Y a qu'une vie à vivre, moi j'la vis pleinement Dehors pleins de poucaves j'peux pas être clément Ghetto Fabulous Gang, boy à quoi tu t'attends ? Viens pas tout blanc, on est déjà rouge-sang J'suis venu, j'ai vu puis après j'ai vaincu Ton rappeur favoris pour moi n'est qu'une groupie biatch ! Et j'pris le Seigneur, tête baissée, coeur humble Conversation intime Aide moi s'il te plait ! Parfois moi je pense que c'est mieux de mourir 29 piges ma vie, le 28 était triste J'étais mort mille fois j'veux renaître maintenant Avoir plein de sentiments, j'viens avec des enfants Mais c'est dur de résister aux tentations de l'argent Toute ma vie les poings liés, négro tu me comprends Un animal dans la jungle, un cannibale avec un flingue Au point de non-retour comme la racaille d'Afrique Négros pensent qu'leur cité peuvent heurter mes finances Négros pensent qu'leurs flingues peuvent adoucir mes tendances Suicidaire et esseulé j'maîtrise l'art de Guerre L'art de manier les armes, l'art de repérer les traîtres frère ! Y a qu'une vie à vivre, moi j'la vis pleinement Dehors pleins de poucaves j'peux pas être clément Ghetto Fabulous Gang, boy à quoi tu t'attends ? Viens pas tout blanc, on est déjà rouge-sang Et tu parles, et tu parles Ghetto Fabulous Gang Et bicrave, et bicrave, viens nous voir bolosse Et tu parles, et tu parles Ghetto Fabulous Gang Et bicrave, et bicrave, viens nous voir bolosse Shoot les MC mec One Beat mon frère, c'est l'projet frère J'suis en compétition qu'avec moi-même mon frère L'excellence mon frère Quand il s'agit de Gangsta Shit mon frère Tu peux pas faire mieux qu'la Pharmacie Drugstore, Spike Miller, Deadline frère ! Ghetto Fabulous Gang Et tu parles, et tu parles Ghetto Fabulous Gang Et bicrave, et bicrave, viens nous voir bolosse Et tu parles, et tu parles Fermes ta gueule ! Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>Ghetto Fabulous Gang frère Dakar Yarakh Bing bing 93 One Beat renoi ! Y a qu'une vie à vivre, moi j'la vis pleinement Dehors pleins de poucaves j'peux pas être clément Ghetto Fabulous Gang, boy à quoi tu t'attends ? Viens pas tout blanc, on est déjà rouge-sang La cité en personne, Dakar au mieux de sa forme Une jeunesse passée à haïr tout c'qui est uniforme J'peux plus dormir car la tess' m'appelle Une fausse plaque négro, les keufs sont juste derrière Ils voient rien dans mes yeux, essayent d'infiltrer mon coeur De plus l'Ange d'la Mort nettoie mon rétroviseur S'il te plait négro, me racontes pas ta vie Moi je crible ta caisse comme 2pac et Biggie C'est Alpha 5.20 en direct des toilettes Où je doigte la Joconde et Marie-Antoinette Et les cris qu'elles poussent ressemblent à ceux des macaques Avec lesquels j'ai grandis dans ma jungle natale Boy Dakar Dakar, les arènes de la mort Sacrifie les taureaux, moi j'suis un matador Tempère mon attitude, écoute les paroles divines En dehors du peu-ra mes paroles sont minimes ! Y a qu'une vie à vivre, moi j'la vis pleinement Dehors pleins de poucaves j'peux pas être clément Ghetto Fabulous Gang, boy à quoi tu t'attends ? Viens pas tout blanc, on est déjà rouge-sang J'suis venu, j'ai vu puis après j'ai vaincu Ton rappeur favoris pour moi n'est qu'une groupie biatch ! Et j'pris le Seigneur, tête baissée, coeur humble Conversation intime Aide moi s'il te plait ! Parfois moi je pense que c'est mieux de mourir 29 piges ma vie, le 28 était triste J'étais mort mille fois j'veux renaître maintenant Avoir plein de sentiments, j'viens avec des enfants Mais c'est dur de résister aux tentations de l'argent Toute ma vie les poings liés, négro tu me comprends Un animal dans la jungle, un cannibale avec un flingue Au point de non-retour comme la racaille d'Afrique Négros pensent qu'leur cité peuvent heurter mes finances Négros pensent qu'leurs flingues peuvent adoucir mes tendances Suicidaire et esseulé j'maîtrise l'art de Guerre L'art de manier les armes, l'art de repérer les traîtres frère ! Y a qu'une vie à vivre, moi j'la vis pleinement Dehors pleins de poucaves j'peux pas être clément Ghetto Fabulous Gang, boy à quoi tu t'attends ? Viens pas tout blanc, on est déjà rouge-sang Et tu parles, et tu parles Ghetto Fabulous Gang Et bicrave, et bicrave, viens nous voir bolosse Et tu parles, et tu parles Ghetto Fabulous Gang Et bicrave, et bicrave, viens nous voir bolosse Shoot les MC mec One Beat mon frère, c'est l'projet frère J'suis en compétition qu'avec moi-même mon frère L'excellence mon frère Quand il s'agit de Gangsta Shit mon frère Tu peux pas faire mieux qu'la Pharmacie Drugstore, Spike Miller, Deadline frère ! Ghetto Fabulous Gang Et tu parles, et tu parles Ghetto Fabulous Gang Et bicrave, et bicrave, viens nous voir bolosse Et tu parles, et tu parles Fermes ta gueule ! Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_Alpha_5.20_songs.xlsx
+++ b/data/02_intermediate/cleaned_Alpha_5.20_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C158"/>
+  <dimension ref="A1:C155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Chair de ma chair</t>
+          <t>Cités Dortoirs</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Our story begins with the classic 007 opening, except this time its Pierce Brosnan wearing the tux. 1 - Ext. Top of Dam - Day A plane does a fly-by over a dam as a security gate slides open. A man in combat black runs across the top of the tall dam. He clips a rope to his ankle and the railing...and jumps off the side. As he sails down, he pulls out a gun-type thing and shoots it. A wire follows attaching in concrete and pulling the man down to.... Archangel Chemical Weapons Facility, USSR Cut to a laser burning through a metal wall, being shot by the man with the gunthing. We see a blue eye, but we havent seen this guys face yet..... 2 - Int. Bathroom - Day Inside the plant, we cut to the mens room, where we see Russians walking around. Above one of the stalls... Man in blacks P.O.V. - a Soviet in uniform sitting on the can, reading a newspaper titled Pravda The Truth. The man in black takes the steel grate out and we see a silhouette. Soviets P.O.V. - The newspaper, printed in Russian, duh. He pulls the paper back to reveal.... James Bond. Hanging upside down from a vent. He flashes a grin. BOND Beg your pardon, forgot to knock. 007 punches out the Soviet and slips down. 3 - Int. Hallway - Same time Bond slips un-noticed through dim halls, wielding his Walther PPK with a silencer on it. He spots a butcher loading meat onto a cart, and he walks up to an opening where he sees soldiers eating. As he turns away...another dark shadow points a gun at him...and says something. SHADOW Russian Where have you been? Where are your companions? BOND Im alone. Alec Trevelyan, 006, steps into the light. He's around Bond's general age and built. Blond with cold eyes... ALEC Arent we all? Youre late 007. BOND I had to stop in the bathroom. ALEC Ready to save the world again? BOND After you, 006. They remove another steel grate. ALEC James, for England. BOND For England, Alec. 4 - Int. Hall - Day Bonds blue eyes spot someone in the hall. Waiting til the coast is clear, he jumps out of the vent in the floor while Alec climbs out. Both men walk down the hall. Alec enters a laboratory with a plate-glass window and shoots the guy inside. Meanwhile, Bond has a device plugged into and ID card slot with a number pad under it. He waits for a click, and the door unlocks. Both men walk inside.... 5 - Int. Gas room - Day ...A room filled with nerve gas tanks. BOND Its too easy. ALEC Half of everything is luck, James. Alec turns and plugs the device into the same panel, jamming the door. BOND And the other half? ALEC Fate! A red light sounds, signaling the alarm of the plant. The men run down the stairs. ALEC Set timers to six minutes! BOND Six minutes, check. A few Soviets burst through a door, 006 shoots them. Bond starts to arm a little explosive timer. A digital clock pops up...6.00. James and Alec scurry around behind the gas tanks planting the timers. An ugly-looking Soviet commander, Ourumov, stands behind a plexi-glass window. OURUMOV FIRE! Soldiers fire their guns, breaking the window. 006 and 007 are still planting the timers. ALEC Closing time, James! Last call! BOND Buy me a pint! The Soviets pour through the opening. Trevelyan fires at them. OURUMOV O.S. I am Colonel Ourumov. Come out with your hands above your heads! While planting a timer... BOND How original. More Soviets pour through a door. BOND Shut the door, Alec! Theres a draft! No answer. BOND Alec?! He looks for 006. Alec in kneeling under the gun of Ourumov. Thirty soldiers all have their guns pointed at Bond. OURUMOV Move out! Throw down your weapon and walk towards me. Slowly. ALEC Finish the job, James! Blow them all to hell! OURUMOV You have 10 seconds. 10...9...8... Bond goes back to the detonator he just planted and sets it for 3.00. OURUMOV ....7...6..5...4.. Bond throws his weapon on the floor, puts his hands behind his head and approaches Ourumov. OURUMOV ...3......2.... ALEC For England, James!! BOOM. Alec is silenced. He flops over. The Soviet soldiers fire their automatic rifles. Bond retreats behind the tanks again. OURUMOV Hold your fire! Youll blow the gas tanks! They do. Bond recovers his gun. OURUMOV This is your last chance! Come out with your hands above your head.... Ourumovs P.O.V. - a dark shadow moves behind a cart with tanks piled on it. The soldiers raise their guns... OURUMOV WAIT! Bond moves slowly with the cart acting as a shield. Ourumov seems amused....one soldier thinks he can get a shot off...and fires. Bond retreats farther behind the cart. Ourumov turns and shoots the guy in the face...he warned him. OURUMOV You cant win. Yeah, sure. Bond quickly hits the on button to a conveyer belt leading outside. He jumps on and fires the assault rifle. The Soviets fire back, but Bond hits the grate to a storage area above their heads. More gas tanks pour out on the Soviets. And Bond tumbles down the conveyer belt onto... 6 - Ext. Runway - Day Bond sees a small plane....his ticket outta here. More soldiers burst through a hangar door and whats behind door number 2...even more pour out onto the runway. Bond crouches behind some piping and fires, hitting a few. The gun runs out and he dashes through the snow toward the plane. We hear Ourumovs shouting in the backround. OURUMOV Hold your fire! Cut to 1000 yards out the facility is on a mountain-top. Cliffs, very high up. Back to the action...Bond runs down the plane and drags himself inside, fights with the pilot. Now theres soldiers chasing Bond on motorcycles. Both 007 and the pilot tumble out of the plane. A motorcycle runs over the pilot, causing the bike to throw its rider. Bond jumps on the bike and chases the runaway plane. OURUMOV WAIT!! The plane sails off the cliff, and so does the motorcycle with 007 still on it. He flies off the bike and sails to the dive-bombing plane. He grabs the open door and pulls himself inside and into the pilots seat. Uh-oh! The sticks not working, not responding! Oh crap! We see Bonds blue eyes start to panic...then just in time the plane soars upward as the chemical weapons facility explodes. Fade up on... Title Sequence, scored by GoldenEye sung by Tina Turner 7 - Int. CarExt. Road - Day We shoot onto an open road with the vrroom of an engine behind us. James personal choice of car, a silver Aston Martin DB5, license plate BMT 216A. The DB5 swerves around a tight corner at 90 mph. Fade up title... Nine Years Later Bond, of course, is behind the wheel and a young woman sits beside him, visibly agitated. Her name is Caroline, but it doesnt come up in the text. CAROLINE James, is it really necessary to drive quite so fast?! BOND More often than youd think. A red Ferrari comes into view in the rear mirror. CAROLINE I enjoy a spirited ride as much as the next girl... James flashes an intoxicating grin...as the Ferrari pulls up beside him. Theres a beautiful brunette behind the wheel. James loves this... CAROLINE Whos that? BOND The next girl. The Ferrari passes him and plays a little road rash...nearly crashing into an oncoming tractor, spinning out of the way. James is loving every minute. Caroline is now really pissed off... CAROLINE James, stop this! Stop it! I know what youre doing... BOND Really? Whats that, dear? CAROLINE Youre just trying to show off the size of your...your... BOND Engine? CAROLINE Ego. BOND Here we are having a pleasant drive in the country and youve got to bring psychology into it. CAROLINE Well, I was just sent out here to evaluate you. BOND Lets try and put that behind us, shall we? The DB5 and Ferrari are still doin 90 around a corner when a pack of cyclists are pedaling up a hill. 007 lets the car pass him... BOND Ladies first. Caroline seems to be praying. The red Ferrari brushes past the first biker, knocking him down and the rest fall over in succession. Carolines had enough. CAROLINE James, I want you to stop this car! BOND Really? CAROLINE STOP THIS CAR AT ONCE!! James pulls the brake and the car screeches to a halt. He puts his arm around her. BOND As you can see, I have no problem with female authority. She flips open a box with two glasses and a bottle of Bollinger champagne in it. She looks pleased for once. CAROLINE James, youre incorrigible. What am I going to do with you? He moves in closer.... BOND Lets toast your evaluation, shall we? They kiss... BOND A very...thorough...evaluation. She giggles, they kiss and we pan up on the skyline of Monte Carlo. 8 - Ext. Posh party - Night The Astor Martin DB5 drives up to a elegant-looking hotel, with a parking valet. VALET French Good evening Mr. Bond. Nice to see you tonight. BOND French Good evening, Pierre. How are things? Valet French Very good, and you? Bond steps out of the DB5, looking dashing as usual in a tailored tuxedo, his black hair combed back. He spots the red Ferrari, parked. He enters the casino. 8 - Int. HotelCasino - Night Bond enters a ritzy lobby and nears a baccarat table. The dealer and a couple of people sit around playing. DEALER Sept à la banque. Madam wins. We pan up on the driver of the expensive Italian sports car, who wears a black dress. Her name is Xenia Onatopp. DEALER Mademoiselle? Monsieurs. Ladies and Gentlemen? Players. Bond sits down at the table as Xenia is lighting up a cigar. BOND Banko. They proceed to play the game. BOND It appears we share the same passions. Well, three anyway. XENIA I count two. Motoring and...uh...baccarat. She shows he cards DEALER Huit à la banque. Bond shows his cards. DEALER Seven. Madam wins. XENIA I hope the third is where your real talent lies. BOND One rises to meet a challenge. They place their bets. XENIA Doubler. BOND Suivi. The dealer nods his head and passes cards. Bond looks at them. BOND Carte. Xenia shows her cards. DEALER Madam stands with five. Bond shows his cards. DEALER Six. Madam loses. Xenia is obviously mad. XENIA RussianDammit! English Enjoy it. While it lasts. BOND The very words I live by. She gets up from the table. James follows. BOND And what words do you live by? XENIA The trick is to quit while youre still ahead. BOND Thats one trick I never learned. He signals for a waiter to come over. BOND Perhaps youll show me how its done. The waiter approaches them. Here we go folks.... BOND Vodka Martini. Shaken, not stirred. And for you? XENIA The same. Bond is entranced. BOND How do you take it? XENIA Straight up. With a twist. The waiter scurries away. Xenia fingers her cigar. So, she likes to play... XENIA Thank you, Mr.... BOND The names Bond. James Bond. XENIA Xenia Zargeneva Onatopp. BOND Onatopp? XENIA Onatopp. BOND Your accent, Georgian? XENIA Very good Mr. Bond. Youve been to Russia? BOND Not recently, I used to drop in occasionally. Shoot in and out. XENIA Its very different now. The land of opportunity. BOND With a new Ferrari in every garage? XENIA No, not quite. That belongs to a friend. BOND A tip for your friend the French registration plates for this years models start with the letter L. Even the counterfeit ones. Xenia is startled. XENIA Oh, and what rank do you hold with the Motor Vehicles Department, Mr. Bond? BOND Commander. Now a man steps up to Xenia. Hes a bald dude with a red beard. Looks like a Canadian Admiral. ADMIRAL Should we go? XENIA This one is an Admiral. BOND I like a woman who enjoys pulling rank. XENIA Nice to meet you, Mr. Bond. She sounds really annoyed, and she storms away with the Canadian. Bond watches her. BOND The pleasure, Im sure, was all mine. 9 - Ext. Amphitheater - Night People are gathered on stone benches in an open amphitheater watching two ladies perform an act. One woman hands a rose to another girl dressed as a porcelain doll. The lady proceeds to control the doll as she walks like a puppet over to a man in the audience. He takes it and the audience claps. Meanwhile, Bond walks up the stone stairs to the top of the theater, overlooking water. Bonds P.O.V. - the Ferrari pulls up, and Xenia and the Admiral get out. Bond takes out a camera-thing from his pocket, and zooming in, he takes a picture of Xenia and the Canadian boarding a motorboat to take her to a yacht. Bond takes a picture of the boat - Manticore- and walks back to his DB5. 10 - Ext. DB5 Int. DB5 - Night Before Bond gets into his car, he notices a very sophisticated, stealthy helicopter perched on top of a battleship. He gets in the car and pushes a button on the stereo. A piece of paper with the info of the pictures he just took. A voice starts...its Moneypenny. Bond looks at the pictures. MONEYPENNY V.O. Transmission begins from Monypenny. Identification confirmed. Onatopp, Xenia. Ex-Soviet fighter pilot. Current suspected links to the Janus crime syndicate, St. Petersburg. Yacht Manticore is leased to a known Janus corporate front. M authorizes you to observe Miss Onatopp but stipulates no...contact...without prior approval. End transmission, Moneypenny. Good night, James. I trust youll stay...onatopp of things. Bond smirks. He knows exactly what she means. So do we.... 11 - Int. Yacht Manticore - Night Xenia literally JUMPS on the Admiral. Shes in some black lingerie. They kiss ferociously, she bites him. Then she whispers something, flips him over and crushes his rib cage with her legs. The Admirals in a lot of PAIN. ADMIRAL Xenia! I cant BREATHE!!! Xenia grins and squeezes harder. A hand reaches into the Admirals coat, which is draped over a chair, and pulls out his Department of Defense ID card. 12 - Ext. Bay - Day A motorboat speeds through the water. 13 - Ext. Yacht Manticore - Day Bond waits for a man in a striped shirt to pass before he jumps up on to the deck on the yacht. He walks toward a sliding glass door, opens it and enters. 14 - Int. Yacht Manticore - Day Furnished with leather furniture, Bond makes his way to a window where he sees the motorboat speeding to the battleship with the chopper on the deck. He looks down into a brass doorknob and sees the reflection of the guy in the striped shirt coming at him. Bond spins around with a towel and knocks him down, then throws him down the stairs by wrapping the towel around his head. 007 wipes his face with the towel. 15 - Ext. Battleship - Day Across the bay, cars let off Naval, Army and Air Force Officers of different countries, as well as their escorts. A gloved hand shows the Admirals ID card for the Department of National Defense. Were pretty sure it isnt the Admiral... A band plays, officers mill around. The Captain salutes the Admiral. CAPTAIN My respects, Admiral. The officer kisses the hand of Xenia, who is standing beside the Admiral. CAPTAIN Delighted to have you aboard, mademoiselle. An emcee starts to talk. M.C. Ladies and gentlemen, please take your seats on the upper deck for the demonstration of the aircraft. 16 - Int. Yacht - Day Bond is still looking around the boat, this time with the Walther drawn. He bursts through a door, looks in a cabinet. Hes in a bedroom now. James opens the closet door and... The dead body of Admiral Chuck Farrel falls stiffly to the floor, naked. Bond is a little stunned... 17 - Ext. Yacht - Day Bond hops into a motorboat docked beside the yacht. He starts it up and drives toward the warship. 18 - Ext. Battleship - Day We see the chopper up close now...jeez! air-to-air missiles, heat-seekers, guns up the wazoo...the whole nine yards. M.C. What you are about to see in operation is Europes answer to the electronic battlefield. The first working prototype of the Tiger helicopter. Uniquely maneuverable, the Tiger not only uses stealth technology, it is the only helicopter to be hardened against all forms of electronic interference, radio jamming and electro-magnetic radiation. 19 - Int. Hall - Day Two pilots in blue flight suits, clutching helmets make their way outside to the chopper. They are stopped by Xenia, wearing a revealing dress. She whistles to get their attention. The pilots turn. She speaks seductively... XENIA Shh. I have a small surprise from your friends back at the barracks. One pilot turns to the other and grins. PILOT I think Ive gone to Heaven! XENIA Not yet. She whips out a pistol and shoots both of them. Xenia is shown next wearing one of the blue flight suits and the helmet with the visor down. 20 - Ext. Landing Pad - Day M.C. O.S. Now lets welcome the pilots...Lt. Commander Bernard Jobert and Lt. Francois Bruse. The pilots wave and board the helicopter. Bond is now on the warship RUNNING toward the Tiger, but he is pushed against the wall by 2 burly guards. They all watch the Tiger take off. Fade out.... 21 - Ext. Northern Russia - Evening A dog team runs through the snow near...Fade up title... Space Weapons Control Centre, Severnaya, Russia A desolate area, wind blowing snow around a building with a HUGE satellite dish on top of it. 22 - Int. Weapons Centre - Evening A bunch of monitors, computers, electronic map of the world occupy the area. We hear a voice.. WOMAN O.S. Select MIR. Autographic projection. We pan to the right to reveal Natalya Simonova, a beautiful computer programmer, seated at a computer with postcards of a tropical beach taped to the side. NATALYA Compute possible intercept with second stage geo-set two. Whatever that means. We show the monitor. Up pops a window Enter Password along with a graphic of a woman in a bikini. Natalya sighs and looks at a guy in a chair, playing with a pen like an idiot. Leather jacket, greasy hair, wire-rim glasses. This program was obviously designed by this dude. Natalya looks to the woman behind her. NATALYA Anna. Anna looks up from her monitor and is obviously disgusted. ANNA He wouldnt know a woman if one came up and sat on his head! Natalya laughs. NATALYA Bor-ris! Boris is still playing with the pen. NATALYA BORIS! BORIS What? She signals to her monitor. BORIS I thought Id post it on the Internet, no? NATALYA Whats the password? BORIS I made it easy this time. Even you should be able to break it, borsht-for-brains. Alright, alright, Ill give you a hint. Theyre right in front of you, and can open very large doors. She types in Knockers. NATALYA Youre such a geek. We hear an alarm. They turn to Boris computer. BORIS Yes! Im in! He rolls over to his P.C. and grins. NATALYA Youve hacked into the U.S. Department on Justice. You know what will happen if they trace it here? BORIS The Chief of Computers will call me a genius, move me to Moscow, and give me a million bucks hard currency. I think not. Besides, the Americans are slugheads, theyll never detect me. Up pops a window Unauthorized Access Detected. NATALYA Youre saying, slughead. BORIS Nobody screws with Boris Grishenko. He types something and up pops a window Send Spike. BORIS Spiked them! NATALYA Come on, Boris... BORIS No way! I spiked them! Initiate Search Program. Enter Password. NATALYA Alright, whats the password? BORIS Im not going to tell you. NATALYA OK, let me guess. Its not in front of me? Boris shakes his head. BORIS You sit on it, but you cant take it with you. Boris types in 5 characters. A map pops up on-screen. A red line connects cities. BORIS My program seizes the phone line of whoevers tracing me and jams their modem so they get hung up. Now the hunted becomes the hunter. An F.B.I. screen pops up. BORIS Whoo! He types.... BORIS Better luck next time, Slugheads! BAM! GONE! I am invincible!! Boris leaps up triumphantly with his arms in the air. Other technicians just look at him. He turns to Natalya. BORIS Was it good for you, too? Shes annoyed with him. NATALYA Im getting some coffee. She walks away. BORIS Im going for a cigarette. 23 - Ext. Facility - Evening A sliding door opens and Boris outside with a parka on. Buurrr! Cold! He bites a beat-up cigarette and lights a zippo. The lighter blows out, and Boris looks up and sees... The Tiger helicopter fighting the wind, landing in the snow. The cockpit opens, Xenia and Ourumov jump out. 24 - Int. Severnaya Kitchen - Evening Natalya is getting a cup of coffee. 25 - Int. Hallway - Evening Xenia and Ourumov walk down a hallway and stop at a little box on the wall a voice-identification system. OURUMOV General Akadi Gregorovich Ourumov, head of Space Division. A door opens. Xenia and Ourumov enter... 26 - Int. Severnaya Control Room - Evening A soldier hurries to address the General. He salutes. MAJOR General, if Id known... OURUMOV Youd have been ready. This is an unscheduled test of the Severnaya facility, Major. War simulation. We are going to test via GoldenEye. Report the status. MAJOR Two operational satellites, Sir. Petya and Mischa. Both in 90 minute Earth orbit at 100 kilometers. OURUMOV Good. He takes out an authority card. OURUMOV Here is the authorization code. Now the GoldenEye and todays access numbers for satellite Petya, please. He looks at his watch. OURUMOV I am timing you. The Major scurries away, slides the card through a slot and presses his hand on an ID pad. The metal wall opens...revealing a square disk with a large golden crystal in the center The GoldenEye. The Major takes the GoldenEye and two keys from its safe and hands them to the General. OURUMOV Good. Thank you, Major. Natalya notices something is going on from her position in the kitchen. Xenia cocks an automatic rifle and shoots every technician in the room. She is visibly enjoying herself. Natalya is still in the kitchen, scared to death. Bodies of her co-workers lay everywhere. Ourumov walks toward a large control panel and slides the GoldenEye in a slot, and hands a key to Xenia. They slide the keys in... OURUMOV On my count...3...2...1! They turn the keys at the same time. It activates the electronic map on the wall. OURUMOV Set target. Severnaya. Xenia types in something. Russia lights up in red. OURUMOV Arm the weapon. She types once again. Ourumov flips a plastic cover and twists the red dial inside. 27 - Space A satellite in orbit breaks off its protective cover. CCCP is printed on the side. 28 - Int. Control Room - Evening Xenia types in a firing code. 29 - Space The satellite spreads its thrusters. 30 - Int. Control Room - Evening An alarm sounds Weapon Armed. They hear a noise, and Natalya runs back into the kitchen. OURUMOV Check it. Xenia grabs her gun and runs down to a person who managed to send a distress signal. She shoots him again. 31 - Int. Kitchen - Evening Natalya notices a vent in the ceiling. Maybe she can escape that way.... 32 - Int. Control Room - Evening OURUMOV Their best response time is 19 minutes. Theyll be late. 33 - Ext. Russian Air Base - Evening Three pilots sprint to their aircrafts while an alarm sounds. 34 - Int. Control Room - Evening Xenia decides to check the kitchen. She notices some spilled coffee. She bends down and touches it, still hot. She spots the opened vent in the ceiling and fires at it. Meanwhile, Ourumov secures the GoldenEye and keys inside a briefcase. Both walk out. XENIA Its clean. I had to ventilate someone. We see a digital timer counting down. 35 - Space The satellite moves into position. 36 - Ext. Facility - Evening Xenia and the General load into the chopper and take off. 37 - Ext. Air base - Evening The three MiGs take off. 38 - Ext. MI6 building - Night We see the MI6 building as a double-decker bus passes. 39 - Int. Moneypennys office - Night Bond makes his way to Miss Moneypennys office. Shes inside wearing an elegant black dress. James loves this. BOND Good evening, Moneypenny. She looks up and sees James standing in the doorway. MONEYPENNY Good evening, James. M will meet you in the situation room. Im to take you straight in. She walks past him. He watches. BOND Ive never seen you after hours, Moneypenny, lovely. MONEYPENNY Thank you, James. BOND Out on some professional assignment? Dressing to kill? They start to walk down a hall. MONEYPENNY I know youll find this crushing, 007, but I dont sit at home every night praying for some international incident so I can run down here all dressed up to impress James Bond. I was on a date, if you must know, with a gentleman. We went to the theater together. She presses a few buttons. BOND Moneypenny, Im devastated. What would I ever do without you? MONEYPENNY As far as I can remember, James, youve never had me. The elevator stops and they step out. Bond moves in closer. BOND Hope, spring is eternal. MONEYPENNY You know, this sort of behavior could qualify as sexual harassment. BOND Really, whats the penalty for that? MONEYPENNY Someday you have to make good on your innuendoes. Another door slides open. James keeps staring at her. BOND After you, Moneypenny. MONEYPENNY No, I insist. You first. Bond walks through the door into... 40 - Int. Situation room - Night Common Situation Room. Satellite photo on the wall, computers, monitors everywhere. Bill Tanner approaches Bond. TANNER Good Evening, Mr. Bond. BOND Tanner, Whats up? TANNER Sixteen minutes ago, we intercepted a distress call from a supposedly abandoned radar station at Severnaya. Look what the satellite picked up. We see a satellite photo on a computer monitor. Pictured is what looks like a birds-eye-view of a helicopter. They zoom in on the image. TANNER O.S. We found a match. Your missing Tiger. The computer does a scan of the aircraft. BOND O.S. In the middle of northern Russia. TANNER Seems like your hunch was right, 007. Too bad the evil queen of numbers wont let you play it. Bond clears his throat, signaling that shes right behind him. Tanner cringes, and turns around...slowly. Theres M. A woman with short gray hair, face as hard as stone and a disposition to match. M You were saying? TANNER No, I was just...uh... M Good, because if I want sarcasm, Mr. Tanner, Ill talk to my children, thank you very much. Pause Good evening, 007. BOND Good evening, M. M The Prime Ministers waiting for an update. Proceed with your briefing, Mr. Tanner. TANNER Thank you. After the distress signal, your helicopter took off, and the Russians scrambled these three MiGs here to intercept it. He walks to the satellite photo on the wall. BOND O.S. What do you think the Russians were using the base for? TANNER Well at one point, we suspected that Severnaya might be the ground station for a secret space-based weapon system called GoldenEye, but... M Our statistical analysis saw they had neither the finance or technology to implement it. BOND Numbers were never my strong suite. M just stares at him. BOND Are these pictures live? Tanner starts to say something when... M Unlike the American government, we prefer not to get our bad news from CNN. 41 - Ext. Russian sky - Night The three MiGs soar through the sky at Mach 2. 42 - Int. Severnaya kitchen - Night We see a cabinet door open, a pair of eyes peek out. Natalya crawls out. 43 - Ext. Russian sky - Night The MiGs do a fly-by of the Severnaya facility. MiG Pilot Negative, so far. Everything seems normal. 44 - Int. Severnaya - Night Natalya stands among the bodies of her late co-workers. An alarm sounds. Time to target...3...2...1! Oh crap. 45 - Space The satellite gives off a blinding light and a pulse surges. 46 - Ext. Severnaya - Night A surge ripples though the ground and the dish begins to short circuit. 47 - Int. Severnaya - Night Electrical explosions fill the room, and Natalya runs and dives under a metal staircase. 48 - Int. MI6 Situation Room - Night The satellite picture on the wall fizzles out. Nothing but static. TANNER What the bloody hell was that? M is in deep thought. 49 - Ext. Russian sky - Night The MiGs start to short circuit, all the controls go haywire, the pilot screams. The jet goes down, two explode in mid-air. The third is still careening toward the dish. It crashes into it and explodes. 50 - Int. Severnaya -Night A pipe breaks right next to Natalyas head. She leaps up from her hiding place, screaming. She trips on a body and falls. Above her, the rig holding up a bunch of TV monitors comes crashing down, and stops just before crushing her. 51 - Ext. Severnaya - Night The dish is still exploding.... 52 - Int. Severnaya - Night Natalya covers up Anna with a cloth. Shes crying now as she walks to the little voice ID box in the hallway. NATALYA Natalya Fiodorovna Simonova. The bars dont move, duh, the box is obviously busted. NATALYA NATALYA FIODOROVNA SIMONOVA!!! She hears a creak above her. She looks up and walks away. The dish comes CRASHING down, through the roof! Natalyas really scared now...but... 53 - Ext. Severnaya - Night Natalya climbs out the newly revealed exit. From afar we see her, surrounded by fire. NATALYA Boris!? Boris!? 54 - Int. MI6 Situation Room - Night Tanners on the phone. TANNER Thanks. He hangs up. TANNER Our satellites knocked out. So are two of the Americans. We have another coming into range...now. The satellite picture on the wall comes back on. TANNER Good God. Two of the MiGs are down... They look at a monitor. M And it looks like the third went into the dish. M turns to Bond, who is still studying the wall. M What do you think? BOND No lights. Not one single electric light on a thirty-mile radius. Pause EMP? TANNER Would account for the MiGs and the satellite. BOND And the blackout. Tanner turns to M. TANNER Electro-Magnetic Pulse. First strike satellite weapon developed by the...uh.. M The Americans and Soviets during the Cold War. I read the brief. Discovered after Hiroshima. Set off a nuclear device in the upper atmosphere, creates a pulse a radiation surge that destroys everything with an electronic circuit. TANNER The idea being to knock out the enemys communication before he, she or they could retaliate. M So, GoldenEye exists. BOND Yes. M Could this be an accident? BOND No. The helicopter. If you wanted to steal the GoldenEye its the perfect getaway vehicle. Setting off the blast was the ideal way to wipe out any trace of the crime. M The Janus Group? BOND They may have been involved with the helicopter. He moves to a computer. BOND I know the Russian fail-safe systems. You just cant walk in and ask for the keys to he bomb. You need the access codes. On the computer, James zooms in on a small white object, moving. It appears to be a person. Its Natalya BOND O.S. There had to be an insider. He looks closer at the monitor. BOND And at least one person probably knows who it is. 55 - Ext. Severnaya - Night Natalya falls into the snow. She hears sled dogs, she runs toward them. We see a dog team. 56 - Int. Ms Office - Night M is on the phone. M Very well, Sir. Thank you, good night. She hangs up and turns to Bond. M The Prime Ministers talked to Moscow. Theyre saying it was an accident during a routine training exercise. 007 is seated in a chair, hands folded neatly BOND Governments change. The lies stay the same. M walks around from behind her desk. M What else do we know about the Janus Syndicate? BOND Top-flight arms dealers headquartered in St. Petersburg. First outfit to reach north the Iraqis during the Gulf War. Their head man in unreliably described, no photographs. The woman, Onatopp, is our only confirmed contact. M Would you care for a drink? BOND Um...thank you. Your predecessor kept some Cognac in the top drawer M I prefer Bourbon. She pours the drinks. M Ice? BOND Yes. She hands a glass to him. M We pulled the files on anyone who might had access or authority at Severnaya. Top name on our list is a friend of yours, I understand... She sits at her desk and presses a button. A screen in back of her appears with Ourumovs ugly face on it. BOND Ourumov. They made him a general. M He sees himself as the next I man if Russia. Which is why our political analysts rule him out. He doesnt fit the profile of a traitor. Bond is a little annoyed... BOND Are these the same analysts who said GoldenEye couldnt exist, who said the helicopter posed no immediate threat, and wasnt worth following?! M You dont like me, Bond. You dont like my methods. You think Im an accountant, a bean counter, more interested in my members than your instincts. BOND The thought had occurred to me. M Good, because I think youre a sexist, misogynist dinosaur. A relic of the Cold War, whose boyish charms though wasted on me obviously appeal to the young woman I sent out to evaluate you. Bond takes a sip of his drink. BOND Point taken. M Not quite, 007. Shes got his attention. M If you think for one moment I dont have the balls to send a man out to die, your instincts are dead wrong. I have no compunction about sending you to your death. But I wont do it on a whim. Even with your cavalier attitude toward life. She leans forward on her desk... M I want you to find GoldenEye, find who took it, what they plan to do with it and stop it. And if you should come across Ourumov, guilty or not, I dont want you running off on some kind of vendetta. Avenging Alec Trevelyan will not bring him back. BOND You didnt get him killed. M Neither did you. Dont make it personal. BOND mumbles Never. He finishes his drink </t>
+          <t>Alpha 5.20 Sisi oui oui ! Oui oui! 59 g, F.A.R.I.D, wallas big boy Dakar 25 pharmacies, ghetto fab, cac 40, racaille Gizup, Gizup !! Frère !!! Fianso On mène une vie d'racaille, de délinquant d'puis enfant On baise la flicaille et met la France en sang On débarque du nord mec ta reconnus l'accent Alma-gare c'est l'Del Bor, ça raquette les passants Cest nous les racailles, sorties du ghetto Frère on veut dla maille mais l'état resserre l'étau Alors on crame le couteau et découpe la plaquette On prépare nos coups tôt, et sur notre dos ça enquête Il parait qu'on est dingue, qu'on sort d'une autre planète Le visage balafré ils disent quon nest pas net C'est l'59 grammes 2.0.0.7 Vas-y compte Am stram gram, au mic attaque au lance-roquette Sur rakaille 4 p4, fait tourner ta catin On la met a 4 pattes, pas là pour faire des câlins Clichy sous-bois, alma on fout l'halla Ghetto fab 5-9 9-3 ca fait pah pah !!! Wallas Dakar Wallas Dakar vs sarko, tu veux nous expulser Moi j'fais du rap 200 pulsions, comme cible sarko génération Wallas Dakar sur rakaille 4 ouvre le feu sans somation Violent comme une baffe d'un maton Coup d'batte a Messi, coup d'batte au maton Sarko décrit au talkie, Sierra Alpha Romeo Kilo Oméga Jaloux dnos alfas Romeo Opel oméga, j'fais l'appel à mes gars T'écrase comme un mégot, rêve du magot 5-9 100 giga, 59G, alpha 5.20, R.O.2.T.K Sort ton 47 AK faut du dégâts Trop tar-tar , bar-bar tirailleur berbère Sarko mon son t'casse les tympans, t'bouches tes artères Mon son t'fait mal comme l'uppercut d'hurricane carter Pour nous tu veux lcachot, nous couchez, nous cochez Nous faire avalez du cochon Alpha 5.20 refrain x2 Négros de banlieue on a des carabines Connecté avec des arabes et des asiatiques Nos citées dortoirs sont des pompes a frics On balance des frigos sur les cars des flics Yazoo Faut qu'ca saigne comme les porcs, moi jt'enseigne tout dabord, la rue c'est gore ça pue la taule et la mort Ça pue les stups la levée, l'héro les putes la levrette Le shit livrer ou vendu à la sauvette La coke sur lterrain, le glock près des reins Trop haineux handek a pas t'prendre un coup d'surin Et c'est sur hein ! , sur un beat j'pars comme une r1 Algérien pur et dur moi j'joue pas l'parrain Donc fait pas l'tare tu trouveras plus fou qu'toi Ta beau être carré, arme on t'baisera 59 Megra, c'est la haine qui rend ingrat Sa s'lit sur nos yeux putain sa d'viens ve-gra C'est un lyrical braquage YZ j'ai trop d'haine Quand jpense aux frères en cage qui par semaine rentre par centaines F.a.r.i.d L'alma là où on réside, là où mes frères se tuent a la résine Ou y'a pas d'putes en bas résille, que des 6.35 et des rafales de uzi , demande a 5.20 cousin on braque notre destins L'avenir est restreint on cavale comme merin Vendeur de barrettes sur l'terrain Roubaix 5.9.1.0.0 , paris 9.3 pour les bracos Sur rakaille ca mitraille , ca rafale les hatay Apelle la balistique pour ramasser les douilles quand ca tire Ficher au central , tes empreintes a lADN Les gyrophares on remplacer ehden violent la vie qu'on mène Trafiques d'armes et d'seum, traine les halls a couper J'décris s'couplet hardcore, comme un rail de cc Descente aux enfers, Roubaix on guette et on opère En évitant les barreaux, la gamelle, la galère Rafale de balles on t'enterre, à Clichy sous nos cagoules Qu'on magouille les keufs on les douilles 59 G Alpha 5.20 refrain x2 Négros de banlieue on a des carabines Connecté avec des arabes et des asiatiques Nos cités dortoirs sont des pompes à frics On balance des frigos sur les cars des flics Alpha 5.20 59 grammes et wallas Dakar Basané viking évasion d'barbare Eh ! Ta les gunzs ? Ta les cracks? Ta les tass en bas des blocks qui nous matent ? Zeubi y a pas d'maille ici tout l'monde veut per-ra tout le monde veut der-gra Dl hameçon moi j'arrache l'appât sans m'faire piéger moi je suis un cal-cha De l'alma cité les briques rouge ou les gangsters, négros bouge !! Alpha 5.20 refrain x2 Négros de banlieue on a des carabines Connecté avec des arabes et des asiatiques Nos cités dortoirs sont des pompes a frics On balance des frigos sur les cars des flics</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Cités Dortoirs</t>
+          <t>Clicli notre plaque tournante</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Alpha 5.20 Sisi oui oui ! Oui oui! 59 g, F.A.R.I.D, wallas big boy Dakar 25 pharmacies, ghetto fab, cac 40, racaille Gizup, Gizup !! Frère !!! Fianso On mène une vie d'racaille, de délinquant d'puis enfant On baise la flicaille et met la France en sang On débarque du nord mec ta reconnus l'accent Alma-gare c'est l'Del Bor, ça raquette les passants Cest nous les racailles, sorties du ghetto Frère on veut dla maille mais l'état resserre l'étau Alors on crame le couteau et découpe la plaquette On prépare nos coups tôt, et sur notre dos ça enquête Il parait qu'on est dingue, qu'on sort d'une autre planète Le visage balafré ils disent quon nest pas net C'est l'59 grammes 2.0.0.7 Vas-y compte Am stram gram, au mic attaque au lance-roquette Sur rakaille 4 p4, fait tourner ta catin On la met a 4 pattes, pas là pour faire des câlins Clichy sous-bois, alma on fout l'halla Ghetto fab 5-9 9-3 ca fait pah pah !!! Wallas Dakar Wallas Dakar vs sarko, tu veux nous expulser Moi j'fais du rap 200 pulsions, comme cible sarko génération Wallas Dakar sur rakaille 4 ouvre le feu sans somation Violent comme une baffe d'un maton Coup d'batte a Messi, coup d'batte au maton Sarko décrit au talkie, Sierra Alpha Romeo Kilo Oméga Jaloux dnos alfas Romeo Opel oméga, j'fais l'appel à mes gars T'écrase comme un mégot, rêve du magot 5-9 100 giga, 59G, alpha 5.20, R.O.2.T.K Sort ton 47 AK faut du dégâts Trop tar-tar , bar-bar tirailleur berbère Sarko mon son t'casse les tympans, t'bouches tes artères Mon son t'fait mal comme l'uppercut d'hurricane carter Pour nous tu veux lcachot, nous couchez, nous cochez Nous faire avalez du cochon Alpha 5.20 refrain x2 Négros de banlieue on a des carabines Connecté avec des arabes et des asiatiques Nos citées dortoirs sont des pompes a frics On balance des frigos sur les cars des flics Yazoo Faut qu'ca saigne comme les porcs, moi jt'enseigne tout dabord, la rue c'est gore ça pue la taule et la mort Ça pue les stups la levée, l'héro les putes la levrette Le shit livrer ou vendu à la sauvette La coke sur lterrain, le glock près des reins Trop haineux handek a pas t'prendre un coup d'surin Et c'est sur hein ! , sur un beat j'pars comme une r1 Algérien pur et dur moi j'joue pas l'parrain Donc fait pas l'tare tu trouveras plus fou qu'toi Ta beau être carré, arme on t'baisera 59 Megra, c'est la haine qui rend ingrat Sa s'lit sur nos yeux putain sa d'viens ve-gra C'est un lyrical braquage YZ j'ai trop d'haine Quand jpense aux frères en cage qui par semaine rentre par centaines F.a.r.i.d L'alma là où on réside, là où mes frères se tuent a la résine Ou y'a pas d'putes en bas résille, que des 6.35 et des rafales de uzi , demande a 5.20 cousin on braque notre destins L'avenir est restreint on cavale comme merin Vendeur de barrettes sur l'terrain Roubaix 5.9.1.0.0 , paris 9.3 pour les bracos Sur rakaille ca mitraille , ca rafale les hatay Apelle la balistique pour ramasser les douilles quand ca tire Ficher au central , tes empreintes a lADN Les gyrophares on remplacer ehden violent la vie qu'on mène Trafiques d'armes et d'seum, traine les halls a couper J'décris s'couplet hardcore, comme un rail de cc Descente aux enfers, Roubaix on guette et on opère En évitant les barreaux, la gamelle, la galère Rafale de balles on t'enterre, à Clichy sous nos cagoules Qu'on magouille les keufs on les douilles 59 G Alpha 5.20 refrain x2 Négros de banlieue on a des carabines Connecté avec des arabes et des asiatiques Nos cités dortoirs sont des pompes à frics On balance des frigos sur les cars des flics Alpha 5.20 59 grammes et wallas Dakar Basané viking évasion d'barbare Eh ! Ta les gunzs ? Ta les cracks? Ta les tass en bas des blocks qui nous matent ? Zeubi y a pas d'maille ici tout l'monde veut per-ra tout le monde veut der-gra Dl hameçon moi j'arrache l'appât sans m'faire piéger moi je suis un cal-cha De l'alma cité les briques rouge ou les gangsters, négros bouge !! Alpha 5.20 refrain x2 Négros de banlieue on a des carabines Connecté avec des arabes et des asiatiques Nos cités dortoirs sont des pompes a frics On balance des frigos sur les cars des flics</t>
+          <t>De la bouche du métro au ter-ter du clando Pour nous coucher négro faudra c'lever tôt Mon ADN est partout dans les rues de Clicli J'ai les poches remplies de pierre c'est reparti comme E.T Les puces de Clicli notre plaque tournante On fait que de gonfler nos comptes en banque On Bi-Bicrave de tout d'la jelaba jusqu'au boubou On fait que du zebi viens nous pépom le zebi On trempe ta voiture y'a nos empreinte dessus Et des trucs que j'peux pas dire dans cette putain de zikmu Nique la police j'ai une seringue pleine de H.I.V Pour tous les fils de pute qui pensent qu'a nous sucer Regarde ton placard y'a que des sapes de Clicli Même les refré au placard veulent des fausses sapes Gucci Truand de la Galère, Ghetto Fab Ferme leur bouche devant la licepo, quitte a finir en zonpri C'est la plaque tournante illicite mon nezbi Vous êtes loin de savoir ce qu'on cache à Clicli Ceux qui kiff les embrouilles et les chants des fusils Vous êtes loin de savoir ce qu'on cache à Clicli Des darones qui bicrave tout prêt de l'armurerie Vous êtes loin de savoir ce qu'on cache à Clicli Tu peut perdre un oeil peut être même ta vie Et t'es loin de savoir ce qu'on à Clicli Little Dakar négro c'est la plaque tournante T'imagine pas combien de maille ils ont à la brocante Viens braqué les truands repars en chaise roulante Clash pas les gangsters, taura une mort très lente On taff qu'avec du liquide Pas de preuve pas de poucave sinon on t'lapide On connais pas la carte bleue et son queché L'URSSAF on la baise, on est venu pour la quécho Hé je suis le produit de mon environnement Réservé moi une place au cimetière musulman Au bled des villas avec des statues en marbre Des box à la villette remplies de sac a cadavre J't'invite a voir l'autre coté du décor Tout les 2 mois ont sort un putain de CD hardcore Les p'tits frère font des chouara avec nos pull sombre a puchca Sors le pouchka C'est la plaque tournante illicite mon nezbi Vous êtes loin de savoir ce qu'on cache à Clicli Ceux qui kiff les embrouilles et les chants des fusils Vous êtes loin de savoir ce qu'on cache à Clicli Des darones qui bicrave tout prêt de l'armurerie Vous êtes loin de savoir ce qu'on cache à Clicli Tu peut perdre un oeil peut être même ta vie Et t'es loin de savoir ce qu'on à Clicli Gangster en boubou nique sa mère Mesrine Nous on encule sec ton faux caïd sans vaseline Ennemis public sa dépend pour qui On décime ta cité et toute ton écurie Les clando vi-ser de faux sac louis vuitton Sorti tout droit du rocma Les joueurs de carte ont 3 complices et te mette la la rotteca Tas rien compris connard Tafiole commence la guerre mais n'assume pas après Qui veut monter au charbon frère écoute mon CD Porter ghetto fab tels un prédateur Clicli les sisgro boloss ton bicraveur Notre plaque tournante te tourmente Depuis le début on es fidèle à nos poste d'indépendant Certaine salope dise que nos textes sont bandants Que clicli est devenu notre plaque tournante C'est la plaque tournante illicite mon nezbi Vous êtes loin de savoir ce qu'on cache à Clicli Ceux qui kiff les embrouilles et les chants des fusils Vous êtes loin de savoir ce qu'on cache à Clicli Des darones qui bicrave tout prêt de l'armurerie Vous êtes loin de savoir ce qu'on cache à Clicli Tu peut perdre un oeil peut être même ta vie Et t'es loin de savoir ce qu'on à Clicli C'est la plaque tournante illicite mon nezbi Vous êtes loin de savoir ce qu'on cache à Clicli Ceux qui kiff les embrouilles et les chants des fusils Vous êtes loin de savoir ce qu'on cache à Clicli Des darones qui bicrave tout prêt de l'armurerie Vous êtes loin de savoir ce qu'on cache à Clicli Tu peut perdre un oeil peut être même ta vie Et t'es loin de savoir ce qu'on à Clicli</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Clicli notre plaque tournante</t>
+          <t>Compte les Bastos</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>De la bouche du métro au ter-ter du clando Pour nous coucher négro faudra c'lever tôt Mon ADN est partout dans les rues de Clicli J'ai les poches remplies de pierre c'est reparti comme E.T Les puces de Clicli notre plaque tournante On fait que de gonfler nos comptes en banque On Bi-Bicrave de tout d'la jelaba jusqu'au boubou On fait que du zebi viens nous pépom le zebi On trempe ta voiture y'a nos empreinte dessus Et des trucs que j'peux pas dire dans cette putain de zikmu Nique la police j'ai une seringue pleine de H.I.V Pour tous les fils de pute qui pensent qu'a nous sucer Regarde ton placard y'a que des sapes de Clicli Même les refré au placard veulent des fausses sapes Gucci Truand de la Galère, Ghetto Fab Ferme leur bouche devant la licepo, quitte a finir en zonpri C'est la plaque tournante illicite mon nezbi Vous êtes loin de savoir ce qu'on cache à Clicli Ceux qui kiff les embrouilles et les chants des fusils Vous êtes loin de savoir ce qu'on cache à Clicli Des darones qui bicrave tout prêt de l'armurerie Vous êtes loin de savoir ce qu'on cache à Clicli Tu peut perdre un oeil peut être même ta vie Et t'es loin de savoir ce qu'on à Clicli Little Dakar négro c'est la plaque tournante T'imagine pas combien de maille ils ont à la brocante Viens braqué les truands repars en chaise roulante Clash pas les gangsters, taura une mort très lente On taff qu'avec du liquide Pas de preuve pas de poucave sinon on t'lapide On connais pas la carte bleue et son queché L'URSSAF on la baise, on est venu pour la quécho Hé je suis le produit de mon environnement Réservé moi une place au cimetière musulman Au bled des villas avec des statues en marbre Des box à la villette remplies de sac a cadavre J't'invite a voir l'autre coté du décor Tout les 2 mois ont sort un putain de CD hardcore Les p'tits frère font des chouara avec nos pull sombre a puchca Sors le pouchka C'est la plaque tournante illicite mon nezbi Vous êtes loin de savoir ce qu'on cache à Clicli Ceux qui kiff les embrouilles et les chants des fusils Vous êtes loin de savoir ce qu'on cache à Clicli Des darones qui bicrave tout prêt de l'armurerie Vous êtes loin de savoir ce qu'on cache à Clicli Tu peut perdre un oeil peut être même ta vie Et t'es loin de savoir ce qu'on à Clicli Gangster en boubou nique sa mère Mesrine Nous on encule sec ton faux caïd sans vaseline Ennemis public sa dépend pour qui On décime ta cité et toute ton écurie Les clando vi-ser de faux sac louis vuitton Sorti tout droit du rocma Les joueurs de carte ont 3 complices et te mette la la rotteca Tas rien compris connard Tafiole commence la guerre mais n'assume pas après Qui veut monter au charbon frère écoute mon CD Porter ghetto fab tels un prédateur Clicli les sisgro boloss ton bicraveur Notre plaque tournante te tourmente Depuis le début on es fidèle à nos poste d'indépendant Certaine salope dise que nos textes sont bandants Que clicli est devenu notre plaque tournante C'est la plaque tournante illicite mon nezbi Vous êtes loin de savoir ce qu'on cache à Clicli Ceux qui kiff les embrouilles et les chants des fusils Vous êtes loin de savoir ce qu'on cache à Clicli Des darones qui bicrave tout prêt de l'armurerie Vous êtes loin de savoir ce qu'on cache à Clicli Tu peut perdre un oeil peut être même ta vie Et t'es loin de savoir ce qu'on à Clicli C'est la plaque tournante illicite mon nezbi Vous êtes loin de savoir ce qu'on cache à Clicli Ceux qui kiff les embrouilles et les chants des fusils Vous êtes loin de savoir ce qu'on cache à Clicli Des darones qui bicrave tout prêt de l'armurerie Vous êtes loin de savoir ce qu'on cache à Clicli Tu peut perdre un oeil peut être même ta vie Et t'es loin de savoir ce qu'on à Clicli</t>
+          <t>Killa killa Dakar Yeah Killa killa Phnom Penh Yeah Mais compte les bastos boy Alpha et K.E.R Si tu veux la paix frère prépare la guerre Homme d'honneur négro ma parole est sacrée Dès que je vois les traîtres frère je vais cracher 9.3 délinquance jamais en bas de l'échelle Nous on t'ouvre l'estomac juste avec un opinel Putain les négros pensent être comme nous Mais ils savent même pas que les kufs ont peur de nous De Dakar au Cambodg changement de fuseau horaire Tu peux venir par charter ou bien en RER C'est KER A.K.A le Mero Mero 25 A.KA. Pharmacie négro Téma comment je traîne la vie par le chignon sur 10 mètres ...</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Compte les Bastos</t>
+          <t>Coup de cross</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Killa killa Dakar Yeah Killa killa Phnom Penh Yeah Mais compte les bastos boy Alpha et K.E.R Si tu veux la paix frère prépare la guerre Homme d'honneur négro ma parole est sacrée Dès que je vois les traîtres frère je vais cracher 9.3 délinquance jamais en bas de l'échelle Nous on t'ouvre l'estomac juste avec un opinel Putain les négros pensent être comme nous Mais ils savent même pas que les kufs ont peur de nous De Dakar au Cambodg changement de fuseau horaire Tu peux venir par charter ou bien en RER C'est KER A.K.A le Mero Mero 25 A.KA. Pharmacie négro Téma comment je traîne la vie par le chignon sur 10 mètres ...</t>
+          <t>... ... Dioxyde, Dioxyde Alpha 5.20, Alpha 5.20 Fini le temps des opérations coup de poing C'est le temps des coups de crosse en pleine tête Dioxyde, Dioxyde Alpha 5.20, Alpha 5.20 Fini le temps des opérations coup de poing Cest le temps des coups de crosse en pleine tête Négro j'suis chaud comme l'Ouest de lArizona Je regarde autour de moi et je vois que ds piranhas Descendant de colon, volur de Ghana Esclave solo eux ma liberté ils l'auront pas Je temporise ma haine, essaye d'y voir plus clair Y'a plus d'air je suffoque puis crache la misère Quand ça tourne au vinaigre les rats quittent le navire Abandonnent sans pitié les vestiges de l'empire Ma voix parasite les fréquences hertziennes Éjacule même au fond du trou de leurs lesbiennes Même quand je mens c'est vrai, Scarface d'Afrique Star locale ... de fric sale Je prêche la paix mais je connais la guerre Tu me dis que ton taudis ma jamais impressionné Qui brise tes rêves dans les cages descalier Des paliers dans les crimes maintenant ils veulent tous monter Dioxyde, Dioxyde Alpha 5.20, Alpha 5.20 Fini le temps des opérations coup de poing C'est le temps des coups de crosse en pleine tête Dioxyde, Dioxyde Alpha 5.20, Alpha 5.20 Fini le temps des opérations coup de poing Cest le temps des coups de crosse en pleine tête ... Affronter le chaudron c'est comme ça que le métier rentre Comme Aniki boy qu'est ce que t'as dans le ventre ? Je plante le drapeau en fer, lève létendard ... Dioxyde, Dioxyde Alpha 5.20, Alpha 5.20 Fini le temps des opérations coup de poing C'est le temps des coups de crosse en pleine tête Dioxyde, Dioxyde Alpha 5.20, Alpha 5.20 Fini le temps des opérations coup de poing C'est le temps des coups de crosse en pleine tête</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Coup de cross</t>
+          <t>Crépuscule des empires (version non censurée)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>... ... Dioxyde, Dioxyde Alpha 5.20, Alpha 5.20 Fini le temps des opérations coup de poing C'est le temps des coups de crosse en pleine tête Dioxyde, Dioxyde Alpha 5.20, Alpha 5.20 Fini le temps des opérations coup de poing Cest le temps des coups de crosse en pleine tête Négro j'suis chaud comme l'Ouest de lArizona Je regarde autour de moi et je vois que ds piranhas Descendant de colon, volur de Ghana Esclave solo eux ma liberté ils l'auront pas Je temporise ma haine, essaye d'y voir plus clair Y'a plus d'air je suffoque puis crache la misère Quand ça tourne au vinaigre les rats quittent le navire Abandonnent sans pitié les vestiges de l'empire Ma voix parasite les fréquences hertziennes Éjacule même au fond du trou de leurs lesbiennes Même quand je mens c'est vrai, Scarface d'Afrique Star locale ... de fric sale Je prêche la paix mais je connais la guerre Tu me dis que ton taudis ma jamais impressionné Qui brise tes rêves dans les cages descalier Des paliers dans les crimes maintenant ils veulent tous monter Dioxyde, Dioxyde Alpha 5.20, Alpha 5.20 Fini le temps des opérations coup de poing C'est le temps des coups de crosse en pleine tête Dioxyde, Dioxyde Alpha 5.20, Alpha 5.20 Fini le temps des opérations coup de poing Cest le temps des coups de crosse en pleine tête ... Affronter le chaudron c'est comme ça que le métier rentre Comme Aniki boy qu'est ce que t'as dans le ventre ? Je plante le drapeau en fer, lève létendard ... Dioxyde, Dioxyde Alpha 5.20, Alpha 5.20 Fini le temps des opérations coup de poing C'est le temps des coups de crosse en pleine tête Dioxyde, Dioxyde Alpha 5.20, Alpha 5.20 Fini le temps des opérations coup de poing C'est le temps des coups de crosse en pleine tête</t>
+          <t>, Pink Kalash, - Un clip, comme le tien, où on est dans une cité, avec des Arabes et des Noirs, qui affirment leur homosexualité... - The hip-hop community is most likely owned by gay. To be honest, it's owned by gays. I always thought there is a gay mafia in hip-hop, not rapers. Presidents of magazines, the PD's and radio stations, the people giving you awards and award shows ... this is a fucking gay mafia my man - Hein, 9.2, 9.3, 9.4, tous mes vrais gars, sont à quatre pattes - They tryna make everyone gay. That's why I think they're putting it on our culture, they'r putting it on, they're putting evrywhere, gay, gay stuff everywhere, you know. You know, you got cartoons, there's gay. And cartoons like these are for kids ! Let kids make their own decisions and they wanna go their way ! RAHHH LuxrayBeats Young Thug pédé Lil Uzi pédé Négro vas-tu céder, céder, céder ? Que des leggings serrés Rap français, déchets Négro vas-tu payer, payer, payer ? Eh, négro, pour moi la mort n'est pas une fin Chevauché dans le sang jusqu'à la hauteur de mes reins Crépuscule des empires, cimetière des despotes Crachoir de la haine jusqu'à c'que la mort les emporte Et les vrais ne meurent pas, toujours à côté du juste J'ai tué un homme pour en sauver cent-mille Comme Charlotte Corday, à la patrie, je ne puis qu'offrir ma vie Passer à la guillotine, verser mon sang sur Paris Je suis dans la tourmente, dans le doute je marche à l'envers L'Enfer m'est-il réservé une fois le pont de la mort traversé ? Yeah renoi Combien de fois ont-ils exercé des pressions sur ma personne ? Afin que mes nerfs lachent ou que mon corps andonne Le fruit de mon jeûne est plus délicieux que le festins des rois Bannis les boissons ennivrantes de tout ce que tu bois Des hyènes sacrilèges blasphèment Chantent sous les flammes comme Néron Je les maudis de ma tour, éclairé par des senons Béni soit mon prénom Ousmane le troisième calife Rappelle toi que face à lui les anges étaient timides, les anges étaient timides C'est pas des rappeurs c'est des sodomites Que des danseurs de Logobi, depuis la mort de 2Pac Négro y'a plus de politique, Arabes et Juifs investissent Faux négros pleurent pour des pyramides et de rituels que de satanistes C'est pas des rappeurs c'est des sodomites Que des danseurs de Logobi, depuis la mort de 2Pac Négro y'a plus de politique, Arabes et Juifs investissent Faux négros pleurent pour des pyramides et de rituels que de satanistes Toujours ennemi d'État, Ousmane Badara Ma femme est déter comme la sur à Adama C'est islamique Dakar, Nouvelle-Calédonie Révolution kanak face à la gendarmerie Dieu m'a envoyé telle une punition pour les impies Comme Josué à Jéricho, Jérusalem j'ai envahi Que des renégats et des Vegetas dans les rues obscures de Panama Tueur chante des sérénades, comme ennemis des Falashas Nan négro, je ne connais pas la mort à part au cinéma Toujours va-t-en-guerre contre Isabela Católica Et mes ancêtres, des vagabonds coupeurs de routes et des pharaons J'suis de la race maudite idolâtrée par leurs rejetons Aborigène, j'attire la haine comme Donald Trump à Jérusalem Nan négro, je ne connais pas El Chapo ou Sean Penn paw Sortis de l'ombre, jailli en nombre, mes killers, que des talibés Le monde s'effondre, Paris à l'ombre, le flingue n'aime pas la parité Pacho Herrera, prison Bogota, négro, où sont les vrais ? oh La quali, la quali, la dope et les amis, frérot j'ai tiré un trait Dans les yeux regarde-moi, à Dakar évite-moi Si j'avance suivez-moi, si je recule tuez-moi C'est pas des rappeurs c'est des sodomites Que des danseurs de Logobi, depuis la mort de 2Pac Négro y'a plus de politique, Arabes et Juifs investissent Faux négros pleurent pour des pyramides et de rituels que de satanistes C'est pas des rappeurs c'est des sodomites Que des danseurs de Logobi, depuis la mort de 2Pac Négro y'a plus de politique, Arabes et Juifs investissent Faux négros pleurent pour des pyramides et de rituels que de satanistes Young Thug pédé Lil Uzi pédé Négro vas-tu céder, céder, céder ? Que des leggings serrés Rap français, déchets Négro vas-tu payer, payer, payer ? Ils disent que les prophètes viennent tous de la maison d'Israël J'en connais des goudronneux dans les contrées du Sahel Début de l'humanité affaire Cain et Abel L'homme est trop ignorant, c'est un corbeau qui te l'enseigne Matérialisme, destruction de la cellule familiale Tout est corrompu, tout est gay my nigga Musique ,films, jeux-vidéos, , pubs, télé, et même les dessins animés Tout est corrompu my nigga, tout est gay Ils veulent réduire, limiter, controler les naissances Israël stérilise les femmes noires d'Ethiopie La LGBT veut que j'change de bord, tous les rebeux et Noirs virils sur Paris Retire l'image mon négro, Omar le gangster dans le Wire Re-noi, tu saisis ? La revanche de notre peuple sera le ventre de nos femmes, comme le disait Houari Cette musique est dédiée à tous ceux qui sont restés debout, sans changer d'bord Les acharnés qui refusent de se soumettre, ceux qui refusent de mourir, je vous aime Que la paix soit avec vous salam Tu penses que j'suis complexé parce qu'j'ai prié un Arabe J'peux pas t'en vouloir, ton cur est malade C'est toujours la même histoire, rien n'tachera ma gloire Parasité par les diables, mais j'refuse de te croire nigga</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Crépuscule des empires (version non censurée)</t>
+          <t>Dakar Blood</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>, Pink Kalash, - Un clip, comme le tien, où on est dans une cité, avec des Arabes et des Noirs, qui affirment leur homosexualité... - The hip-hop community is most likely owned by gay. To be honest, it's owned by gays. I always thought there is a gay mafia in hip-hop, not rapers. Presidents of magazines, the PD's and radio stations, the people giving you awards and award shows ... this is a fucking gay mafia my man - Hein, 9.2, 9.3, 9.4, tous mes vrais gars, sont à quatre pattes - They tryna make everyone gay. That's why I think they're putting it on our culture, they'r putting it on, they're putting evrywhere, gay, gay stuff everywhere, you know. You know, you got cartoons, there's gay. And cartoons like these are for kids ! Let kids make their own decisions and they wanna go their way ! RAHHH LuxrayBeats Young Thug pédé Lil Uzi pédé Négro vas-tu céder, céder, céder ? Que des leggings serrés Rap français, déchets Négro vas-tu payer, payer, payer ? Eh, négro, pour moi la mort n'est pas une fin Chevauché dans le sang jusqu'à la hauteur de mes reins Crépuscule des empires, cimetière des despotes Crachoir de la haine jusqu'à c'que la mort les emporte Et les vrais ne meurent pas, toujours à côté du juste J'ai tué un homme pour en sauver cent-mille Comme Charlotte Corday, à la patrie, je ne puis qu'offrir ma vie Passer à la guillotine, verser mon sang sur Paris Je suis dans la tourmente, dans le doute je marche à l'envers L'Enfer m'est-il réservé une fois le pont de la mort traversé ? Yeah renoi Combien de fois ont-ils exercé des pressions sur ma personne ? Afin que mes nerfs lachent ou que mon corps andonne Le fruit de mon jeûne est plus délicieux que le festins des rois Bannis les boissons ennivrantes de tout ce que tu bois Des hyènes sacrilèges blasphèment Chantent sous les flammes comme Néron Je les maudis de ma tour, éclairé par des senons Béni soit mon prénom Ousmane le troisième calife Rappelle toi que face à lui les anges étaient timides, les anges étaient timides C'est pas des rappeurs c'est des sodomites Que des danseurs de Logobi, depuis la mort de 2Pac Négro y'a plus de politique, Arabes et Juifs investissent Faux négros pleurent pour des pyramides et de rituels que de satanistes C'est pas des rappeurs c'est des sodomites Que des danseurs de Logobi, depuis la mort de 2Pac Négro y'a plus de politique, Arabes et Juifs investissent Faux négros pleurent pour des pyramides et de rituels que de satanistes Toujours ennemi d'État, Ousmane Badara Ma femme est déter comme la sur à Adama C'est islamique Dakar, Nouvelle-Calédonie Révolution kanak face à la gendarmerie Dieu m'a envoyé telle une punition pour les impies Comme Josué à Jéricho, Jérusalem j'ai envahi Que des renégats et des Vegetas dans les rues obscures de Panama Tueur chante des sérénades, comme ennemis des Falashas Nan négro, je ne connais pas la mort à part au cinéma Toujours va-t-en-guerre contre Isabela Católica Et mes ancêtres, des vagabonds coupeurs de routes et des pharaons J'suis de la race maudite idolâtrée par leurs rejetons Aborigène, j'attire la haine comme Donald Trump à Jérusalem Nan négro, je ne connais pas El Chapo ou Sean Penn paw Sortis de l'ombre, jailli en nombre, mes killers, que des talibés Le monde s'effondre, Paris à l'ombre, le flingue n'aime pas la parité Pacho Herrera, prison Bogota, négro, où sont les vrais ? oh La quali, la quali, la dope et les amis, frérot j'ai tiré un trait Dans les yeux regarde-moi, à Dakar évite-moi Si j'avance suivez-moi, si je recule tuez-moi C'est pas des rappeurs c'est des sodomites Que des danseurs de Logobi, depuis la mort de 2Pac Négro y'a plus de politique, Arabes et Juifs investissent Faux négros pleurent pour des pyramides et de rituels que de satanistes C'est pas des rappeurs c'est des sodomites Que des danseurs de Logobi, depuis la mort de 2Pac Négro y'a plus de politique, Arabes et Juifs investissent Faux négros pleurent pour des pyramides et de rituels que de satanistes Young Thug pédé Lil Uzi pédé Négro vas-tu céder, céder, céder ? Que des leggings serrés Rap français, déchets Négro vas-tu payer, payer, payer ? Ils disent que les prophètes viennent tous de la maison d'Israël J'en connais des goudronneux dans les contrées du Sahel Début de l'humanité affaire Cain et Abel L'homme est trop ignorant, c'est un corbeau qui te l'enseigne Matérialisme, destruction de la cellule familiale Tout est corrompu, tout est gay my nigga Musique ,films, jeux-vidéos, , pubs, télé, et même les dessins animés Tout est corrompu my nigga, tout est gay Ils veulent réduire, limiter, controler les naissances Israël stérilise les femmes noires d'Ethiopie La LGBT veut que j'change de bord, tous les rebeux et Noirs virils sur Paris Retire l'image mon négro, Omar le gangster dans le Wire Re-noi, tu saisis ? La revanche de notre peuple sera le ventre de nos femmes, comme le disait Houari Cette musique est dédiée à tous ceux qui sont restés debout, sans changer d'bord Les acharnés qui refusent de se soumettre, ceux qui refusent de mourir, je vous aime Que la paix soit avec vous salam Tu penses que j'suis complexé parce qu'j'ai prié un Arabe J'peux pas t'en vouloir, ton cur est malade C'est toujours la même histoire, rien n'tachera ma gloire Parasité par les diables, mais j'refuse de te croire nigga</t>
+          <t>Ok c'est Alpha dans le bloc intouchable Pas besoin de m'juger, moi j'plaide coupable Dans la cité au quotidien moi j'ramasse les douilles Issues des fusils à pompe juste après les embrouilles 93 hardcore, je suis pas Tandem Moi je baise la France, pas besoin qu'elle m'aime J'la lui mets profond, frère jusqu'à l'extrême Ouvre la boîte à gants, puis j'attrape un flingue Et ma peine indivisible pour les arabes et les noirs Des darons qui s'lèvent tôt, puis ne rentrent que l'soir Moi j'exporte mes fonds, j'prie pour mes défunts 9.3 et Sénégal on a les mains trop sales Gangsta Jackpot fumeur de garces qui crapotent L'arrêt crache devant la boîte avec la meuf d'ton pote Peu importe la mort, j'irai rejoindre mon père Du moment que la famille sera ici pépère J'suis un boss négro, ne me touches pas ! Tu parles fort mais au fond de toi tu bouges pas T'es qui toi pour nous parler boy comme ça ?! Dakar blood, Dakar blood J'suis un boss négro, ne me touches pas ! Tu parles fort mais au fond de toi tu bouges pas T'es qui toi pour nous parler boy comme ça ?! Dakar blood, Dakar blood Ici ça fouette le 93, bolosse molotov 4 Travos Quand j'cause prends ta pause, j'pose Un air connu comme le p'tit kahlouch d'Albert de Monaco Renié, parce que sa mère vient du Togo Bingo, c'est Sefyu pine-co, avec Alpha Dis moi c'est qui qui baise, c'est qui qui pine qui ? Sous les re-cui, y a que des bikinis vous - êtes des grosses bananes quoi ?! Tu gueules en cabine et dans la rue tu bouquines ! Eh, le rêve Américain suce la queue au cauchemar Africain Sénégalo Ruskov, t'en connais qu'un ! Jéternue comme ça moi ah tchoin !! Caractère-r-r up Stand up Comme Bob Marley car ici y'a qu'des what up J'te verrai bien dans le clip ah lalala de Still Dre À l'arrière, fais pas style avec ton string ficelle, pupupu pucelle ! C'est l'matos, j'mets le carbu dans le 5.20 Quand j'viens, demande pas on est combien On sera p'tetre 20 ou bien 93 Sefyu, G8, Aulnay-sous les bois J'suis un boss négro, ne me touches pas ! Tu parles fort mais au fond de toi tu bouges pas T'es qui toi pour nous parler boy comme ça ?! Dakar blood, Dakar blood J'suis un boss négro, ne me touches pas ! Tu parles fort mais au fond de toi tu bouges pas T'es qui toi pour nous parler boy comme ça ?! Dakar blood, Dakar blood Trouves moi au foyer, moi je vends du maïs Et l'soir dans un hall, j'vais guer-lar du cannabis Eh boy je sens le souffre, j'ai du mal à m'en découdre Résidu de cocaïne, dans mes ongles re-noi Et la tête qui pendouille, à larrière d'une Ford Brandissant un uzi, dis bonjour à la mort Aucune pitié pour ta famille ils veulent attenter ma vie Si tu vois la faucheuse, dis lui qu'je suis parti Bien, quoi bien ? Enculer d'ta race tu me serres la main Tu mens, le même qui m'laisse dans la de-mer sans coups de main ! Lahchouma en plus tu reviens le lendemain Une fois que t'as parlé d'moi aux miens Heureusement que tu pue d'la gueule quand tu ments je l'sens 93 600, style essence nique les rabat-joie ! Ce qui on le zerheff quand tu pleures de joie C'est-c'est zerheffyou, 5.20 en live de la cave, crouille ! On s'en bah les couille d'être en cours, poucave ! J'suis un boss négro, ne me touches pas ! Tu parles fort mais au fond de toi tu bouges pas T'es qui toi pour nous parler boy comme ça ?! Dakar blood, Dakar blood J'suis un boss négro, ne me touches pas ! Tu parles fort mais au fond de toi tu bouges pas T'es qui toi pour nous parler boy comme ça ?! Dakar blood, Dakar blood Hé boy,</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Dakar Blood</t>
+          <t>Dakar Ground Zero</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ok c'est Alpha dans le bloc intouchable Pas besoin de m'juger, moi j'plaide coupable Dans la cité au quotidien moi j'ramasse les douilles Issues des fusils à pompe juste après les embrouilles 93 hardcore, je suis pas Tandem Moi je baise la France, pas besoin qu'elle m'aime J'la lui mets profond, frère jusqu'à l'extrême Ouvre la boîte à gants, puis j'attrape un flingue Et ma peine indivisible pour les arabes et les noirs Des darons qui s'lèvent tôt, puis ne rentrent que l'soir Moi j'exporte mes fonds, j'prie pour mes défunts 9.3 et Sénégal on a les mains trop sales Gangsta Jackpot fumeur de garces qui crapotent L'arrêt crache devant la boîte avec la meuf d'ton pote Peu importe la mort, j'irai rejoindre mon père Du moment que la famille sera ici pépère J'suis un boss négro, ne me touches pas ! Tu parles fort mais au fond de toi tu bouges pas T'es qui toi pour nous parler boy comme ça ?! Dakar blood, Dakar blood J'suis un boss négro, ne me touches pas ! Tu parles fort mais au fond de toi tu bouges pas T'es qui toi pour nous parler boy comme ça ?! Dakar blood, Dakar blood Ici ça fouette le 93, bolosse molotov 4 Travos Quand j'cause prends ta pause, j'pose Un air connu comme le p'tit kahlouch d'Albert de Monaco Renié, parce que sa mère vient du Togo Bingo, c'est Sefyu pine-co, avec Alpha Dis moi c'est qui qui baise, c'est qui qui pine qui ? Sous les re-cui, y a que des bikinis vous - êtes des grosses bananes quoi ?! Tu gueules en cabine et dans la rue tu bouquines ! Eh, le rêve Américain suce la queue au cauchemar Africain Sénégalo Ruskov, t'en connais qu'un ! Jéternue comme ça moi ah tchoin !! Caractère-r-r up Stand up Comme Bob Marley car ici y'a qu'des what up J'te verrai bien dans le clip ah lalala de Still Dre À l'arrière, fais pas style avec ton string ficelle, pupupu pucelle ! C'est l'matos, j'mets le carbu dans le 5.20 Quand j'viens, demande pas on est combien On sera p'tetre 20 ou bien 93 Sefyu, G8, Aulnay-sous les bois J'suis un boss négro, ne me touches pas ! Tu parles fort mais au fond de toi tu bouges pas T'es qui toi pour nous parler boy comme ça ?! Dakar blood, Dakar blood J'suis un boss négro, ne me touches pas ! Tu parles fort mais au fond de toi tu bouges pas T'es qui toi pour nous parler boy comme ça ?! Dakar blood, Dakar blood Trouves moi au foyer, moi je vends du maïs Et l'soir dans un hall, j'vais guer-lar du cannabis Eh boy je sens le souffre, j'ai du mal à m'en découdre Résidu de cocaïne, dans mes ongles re-noi Et la tête qui pendouille, à larrière d'une Ford Brandissant un uzi, dis bonjour à la mort Aucune pitié pour ta famille ils veulent attenter ma vie Si tu vois la faucheuse, dis lui qu'je suis parti Bien, quoi bien ? Enculer d'ta race tu me serres la main Tu mens, le même qui m'laisse dans la de-mer sans coups de main ! Lahchouma en plus tu reviens le lendemain Une fois que t'as parlé d'moi aux miens Heureusement que tu pue d'la gueule quand tu ments je l'sens 93 600, style essence nique les rabat-joie ! Ce qui on le zerheff quand tu pleures de joie C'est-c'est zerheffyou, 5.20 en live de la cave, crouille ! On s'en bah les couille d'être en cours, poucave ! J'suis un boss négro, ne me touches pas ! Tu parles fort mais au fond de toi tu bouges pas T'es qui toi pour nous parler boy comme ça ?! Dakar blood, Dakar blood J'suis un boss négro, ne me touches pas ! Tu parles fort mais au fond de toi tu bouges pas T'es qui toi pour nous parler boy comme ça ?! Dakar blood, Dakar blood Hé boy,</t>
+          <t>93800, rap SL d'un 600 Dakar jusqu'à Aulnay négro c'est trop puissant Comme le disait Booba enlève au moins 10 ans C'est sanglant frérot comme du pétrole gisant Au fond d'un trou nuancé je connais le ghetto français Libère mes reufs du placard renoi on va avancer Tu connais ma ville Dakar c'est sur mon passeport Médine à Yarakh, Dumble jusqu'à Castor Ma vie un blood sport, un fight club en fausses cordes Appelle moi Moïse, toi tu prêches le veau d'or Silhouette à la craie je mets ta vie en danger Illégal mais correct ça fallait y penser Ma famill et le Coran renoi c'st tout ce que j'ai Sens ma peine caillera ici tout se paie Regarde le monde à travers les yeuz d'un négro Tu veux me caler pétasse t'as qu'à te lever tôt Et je garde un peu de liqueur pour 2pac et Biggie Ma routine de dealer dans le ghetto tu sais qui Niggaz gazent maintenant partent les pieds devant Blah blah blah blah Le rap d'aujourd'hui renoi se bat de l'aile À part moi et Booba ... fais du zèle Dakar big boy toute ma jeunesse Mon tshirt est blanc mec à Los Angeles Pour mes cailleras de Pierrefitte à Sarcelles Toutes mes tassepés en bas Villiers le bel Mon coeur est froid t'es l'ennemi d'un lascar ... comme du plasma Boss des boss mec dans ma rue c'est comme ça T'as des couilles mec sors ton gun ne parle pas ... Faut que Alpha graille faut que Dakar graille Aucune chance que Paris nique Guediawaye Niggaz gazent maintenant ...</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Dakar Ground Zero</t>
+          <t>Dakar Hustler</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>93800, rap SL d'un 600 Dakar jusqu'à Aulnay négro c'est trop puissant Comme le disait Booba enlève au moins 10 ans C'est sanglant frérot comme du pétrole gisant Au fond d'un trou nuancé je connais le ghetto français Libère mes reufs du placard renoi on va avancer Tu connais ma ville Dakar c'est sur mon passeport Médine à Yarakh, Dumble jusqu'à Castor Ma vie un blood sport, un fight club en fausses cordes Appelle moi Moïse, toi tu prêches le veau d'or Silhouette à la craie je mets ta vie en danger Illégal mais correct ça fallait y penser Ma famill et le Coran renoi c'st tout ce que j'ai Sens ma peine caillera ici tout se paie Regarde le monde à travers les yeuz d'un négro Tu veux me caler pétasse t'as qu'à te lever tôt Et je garde un peu de liqueur pour 2pac et Biggie Ma routine de dealer dans le ghetto tu sais qui Niggaz gazent maintenant partent les pieds devant Blah blah blah blah Le rap d'aujourd'hui renoi se bat de l'aile À part moi et Booba ... fais du zèle Dakar big boy toute ma jeunesse Mon tshirt est blanc mec à Los Angeles Pour mes cailleras de Pierrefitte à Sarcelles Toutes mes tassepés en bas Villiers le bel Mon coeur est froid t'es l'ennemi d'un lascar ... comme du plasma Boss des boss mec dans ma rue c'est comme ça T'as des couilles mec sors ton gun ne parle pas ... Faut que Alpha graille faut que Dakar graille Aucune chance que Paris nique Guediawaye Niggaz gazent maintenant ...</t>
+          <t>Matricule DK, 5.20 le retour T'aimes pas mais renoi frère me dis pas bonjour A part la rue fiston t'es loin d'être comme nous Nous on est des gangsters avec des grands boubous Coupe coupe je pavane dans les rues de Yarakh Et Dakar c'est la jungle négro mate l'impact Mafia Africaine comme les mecs de Vitry Sauf que nous c'est Sous Bois Aulnay Clichy 9.3 finest mec Epinay sur Seine Après la bicrave on va te piner sur scène De l'autr coté de la rue quelqus uns m'ont trahi Renoi sois pas ébahi moi je dors avec des ennemis Je t'avais je t'avais dit frérot Ces négros sont des tass frérot ... ... 9.1 mes soldats quand j'arrive à Évry ..</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Dakar Hustler</t>
+          <t>Dakar Life</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Matricule DK, 5.20 le retour T'aimes pas mais renoi frère me dis pas bonjour A part la rue fiston t'es loin d'être comme nous Nous on est des gangsters avec des grands boubous Coupe coupe je pavane dans les rues de Yarakh Et Dakar c'est la jungle négro mate l'impact Mafia Africaine comme les mecs de Vitry Sauf que nous c'est Sous Bois Aulnay Clichy 9.3 finest mec Epinay sur Seine Après la bicrave on va te piner sur scène De l'autr coté de la rue quelqus uns m'ont trahi Renoi sois pas ébahi moi je dors avec des ennemis Je t'avais je t'avais dit frérot Ces négros sont des tass frérot ... ... 9.1 mes soldats quand j'arrive à Évry ..</t>
+          <t>Faut pas envier la réussite d'un frère Provoquer le Seigneur, le ciel et sa colère HLM Dakar, Yarakh City ma terre Plaisir charnel dans un monde éphémère Ouais ouais négro on est tous de sortie 0.9 produit, Scarface mes envies Vous êtes loin de savoir ce qu'on cache à Clicli Little Dakar GZ up à mort les ennemis Alpha 5.20 caillera de Dakar Explose les compteurs, flashé au radar Bad trip négro guerrier de la nuit Et je marche au flair tel une chauve souris Fleury Osny Fresnes et Bois d'Arcy Nanterre Villepinte j'ai laissé mes empreintes Carbure à la haine, rien n'égale ma peine Des cellules terroristes, partout des antennes Porter des macaques à l'arrière des soupapes Tasspé ne se déflaque dans des Benz rougeâtres Pharmacie G's pop, microphone massacre 9.3 coup de shlass découverte macabre</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Dakar Life</t>
+          <t>Dakar Represailles</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Faut pas envier la réussite d'un frère Provoquer le Seigneur, le ciel et sa colère HLM Dakar, Yarakh City ma terre Plaisir charnel dans un monde éphémère Ouais ouais négro on est tous de sortie 0.9 produit, Scarface mes envies Vous êtes loin de savoir ce qu'on cache à Clicli Little Dakar GZ up à mort les ennemis Alpha 5.20 caillera de Dakar Explose les compteurs, flashé au radar Bad trip négro guerrier de la nuit Et je marche au flair tel une chauve souris Fleury Osny Fresnes et Bois d'Arcy Nanterre Villepinte j'ai laissé mes empreintes Carbure à la haine, rien n'égale ma peine Des cellules terroristes, partout des antennes Porter des macaques à l'arrière des soupapes Tasspé ne se déflaque dans des Benz rougeâtres Pharmacie G's pop, microphone massacre 9.3 coup de shlass découverte macabre</t>
+          <t>Je parle comme un flingue renoi, fais pas le petit con Laisse ... passer comme sur un passage piéton Yo ma ville c'est Dakar et mon nom c'est Alpha Plus mon groupe t'assasssine comme si je m'appelais Booba Écoute ça 9.3 on crèche du mauvais côte Épinay Sur Seine négro ça c'est des mecs opé Un escalier groupé ... pour des groupies Sous des blocks ou leurs poufs négro je t'ai dit comme Woopy Écoute ça négro je t'ai dit le rap c'est du sport Et je parle mal aux keufs renoi car ce sont des porcs Je viens de là où le sang du Christ continue à couler Pas confiance en toi mec tu parles encore aux poulets Et je hais les femmes blanches qui prennent de l'ecstasy Après avoir baisé bébé j'suis un ex ami Des flingues et des roses sous des ghetto tragédies Pour l'amour du ciel négro ... Toutes façons face à moi tu seras qu'un protégé Amène ta clique tu verras combien de potes j'ai Tout le monde sait qu'on se pique pas on bicrave la came Négro qu'est ce tu dis de ça ? C'est Boss 2 Paname Et je vadrouille sans pitié négro j'ai trop souffert Laisse mes ennemis meurtris avec un oeil ouvert Nigga gaze pas si on ne passe pas, Drive by's en Classe A Négro qu'est ce tu dis de ça ? Ici le boss c'est Alpha 9.3 négro 9.5 négro Holla back négro c'est Dakar négro On suce pas négro on vend des CD's négro Vis ta vie négro jusqu'au bout négro ! 9.3 négro 9.5 négro Holla back négro c'est Dakar négro On suce pas négro on vend des CD's négro Vis ta vie négro jusqu'au bout négro ! Yeah ça c'est pour les soldats dans le 78 ! ...</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Dakar Represailles</t>
+          <t>Dakar veut du Biff</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Je parle comme un flingue renoi, fais pas le petit con Laisse ... passer comme sur un passage piéton Yo ma ville c'est Dakar et mon nom c'est Alpha Plus mon groupe t'assasssine comme si je m'appelais Booba Écoute ça 9.3 on crèche du mauvais côte Épinay Sur Seine négro ça c'est des mecs opé Un escalier groupé ... pour des groupies Sous des blocks ou leurs poufs négro je t'ai dit comme Woopy Écoute ça négro je t'ai dit le rap c'est du sport Et je parle mal aux keufs renoi car ce sont des porcs Je viens de là où le sang du Christ continue à couler Pas confiance en toi mec tu parles encore aux poulets Et je hais les femmes blanches qui prennent de l'ecstasy Après avoir baisé bébé j'suis un ex ami Des flingues et des roses sous des ghetto tragédies Pour l'amour du ciel négro ... Toutes façons face à moi tu seras qu'un protégé Amène ta clique tu verras combien de potes j'ai Tout le monde sait qu'on se pique pas on bicrave la came Négro qu'est ce tu dis de ça ? C'est Boss 2 Paname Et je vadrouille sans pitié négro j'ai trop souffert Laisse mes ennemis meurtris avec un oeil ouvert Nigga gaze pas si on ne passe pas, Drive by's en Classe A Négro qu'est ce tu dis de ça ? Ici le boss c'est Alpha 9.3 négro 9.5 négro Holla back négro c'est Dakar négro On suce pas négro on vend des CD's négro Vis ta vie négro jusqu'au bout négro ! 9.3 négro 9.5 négro Holla back négro c'est Dakar négro On suce pas négro on vend des CD's négro Vis ta vie négro jusqu'au bout négro ! Yeah ça c'est pour les soldats dans le 78 ! ...</t>
+          <t>Du biff Du biff Dakar veut du biff Du biff Du biff Dakar veut du biff J'ai des tanks maintenant à la place des uzis Mon schlass peut laisser ta cité abasourdie ... négro, garder ton sang froid Quand les lâches viendront à plus de 20 sur toi Avaler la défaite, préparer la vengeance Dans l'honneur négro la mort est une délivrance Postillons au mic' et je dis ce que je pense Raricim' mais vrai, Holocost est vrai Je me demande parfois, le monde est-il vrai ? Ghetto Fab Vendetta, blédard razzia Héritir de 2pac, on est des hors-la-loi Blankok VM Malik Bldoss La vie aiguise nos dents comme des rhinocéros J'ai besoin d'espace pour voir mes ennemis 100 euros à Dakar, c'est le prix de leur vie Les vrais savent que le silence n'est pas un oubli Ce n'est pas du racisme mais de l'homophobie Du biff Du biff Dakar veut du biff Du biff Du biff Dakar veut du biff Moi je serre beaucoup de mains mais je parle trop peu Parle plus au phone-tél', mes négros sont douteux J'ai de la maille à faire moi j'ai rien à chercher Des tass et des armes moi je peux les tirer Moi je serre beaucoup de mains mais je parle trop peu Parle plus au phone-tél', mes négros sont douteux J'ai de la maille à faire moi j'ai rien à chercher Des tass et des armes moi je peux les tirer Yeah du biff frère International trafic d'armes Liberia, Zimbabwe, Zaïre, Rwanda Trafic international cocaïne Guinée Bissau, Dakar et le Cap Vert hahahaha Du biff Du biff Dakar veut du biff Du biff Du biff Dakar veut du biff</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Dakar veut du Biff</t>
+          <t>Dallas Boyz</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Du biff Du biff Dakar veut du biff Du biff Du biff Dakar veut du biff J'ai des tanks maintenant à la place des uzis Mon schlass peut laisser ta cité abasourdie ... négro, garder ton sang froid Quand les lâches viendront à plus de 20 sur toi Avaler la défaite, préparer la vengeance Dans l'honneur négro la mort est une délivrance Postillons au mic' et je dis ce que je pense Raricim' mais vrai, Holocost est vrai Je me demande parfois, le monde est-il vrai ? Ghetto Fab Vendetta, blédard razzia Héritir de 2pac, on est des hors-la-loi Blankok VM Malik Bldoss La vie aiguise nos dents comme des rhinocéros J'ai besoin d'espace pour voir mes ennemis 100 euros à Dakar, c'est le prix de leur vie Les vrais savent que le silence n'est pas un oubli Ce n'est pas du racisme mais de l'homophobie Du biff Du biff Dakar veut du biff Du biff Du biff Dakar veut du biff Moi je serre beaucoup de mains mais je parle trop peu Parle plus au phone-tél', mes négros sont douteux J'ai de la maille à faire moi j'ai rien à chercher Des tass et des armes moi je peux les tirer Moi je serre beaucoup de mains mais je parle trop peu Parle plus au phone-tél', mes négros sont douteux J'ai de la maille à faire moi j'ai rien à chercher Des tass et des armes moi je peux les tirer Yeah du biff frère International trafic d'armes Liberia, Zimbabwe, Zaïre, Rwanda Trafic international cocaïne Guinée Bissau, Dakar et le Cap Vert hahahaha Du biff Du biff Dakar veut du biff Du biff Du biff Dakar veut du biff</t>
+          <t>Dallas Boys Dallas Boys Dallas Boys Dallas Boys Banlieue Nord familly Thug, Thug Val d'Oise familly Thug, Thug 9 3 familly Thug, Thug Dakar Blood familly Thug, Thug Pharmacie, j'ai une boite plein de médicaments J'suis au dallas avec des meufs de Perpignan Té-ma les 10, té-ma les bails, té-ma les fils de pute Té-ma les autres ber-flam comme des barils de bruts Mais le général maille quelle que soit la saison Baye Fall avec des kalash devant ma maison Animosité oblige Dakar a sortir le fer Des racailles avec des machettes venus du Cap Vert Illégales activités, résidence secondaire Dans le sud avec des potos a bout de nerf J'suis au bord de la mer, n'essaye pas de m'la mettre Ne vois tu pas qu'j'suis a deux doigts de t'niquer ta mère Aux frontière de l'Espagne, moi j'cherche une porteuse Illicite substance, kilos d'coke avaleuse Une mule qui n'a peur de rien surtout pas d'la Guardia Civil garde le morceau face au flics jamais ne ché-cra Banlieue Nord familly Thug, Thug Val d'Oise familly Thug, Thug 9 3 familly Thug, Thug Dakar Blood familly Thug, Thug</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Dallas Boyz</t>
+          <t>Dans mon coeur</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Dallas Boys Dallas Boys Dallas Boys Dallas Boys Banlieue Nord familly Thug, Thug Val d'Oise familly Thug, Thug 9 3 familly Thug, Thug Dakar Blood familly Thug, Thug Pharmacie, j'ai une boite plein de médicaments J'suis au dallas avec des meufs de Perpignan Té-ma les 10, té-ma les bails, té-ma les fils de pute Té-ma les autres ber-flam comme des barils de bruts Mais le général maille quelle que soit la saison Baye Fall avec des kalash devant ma maison Animosité oblige Dakar a sortir le fer Des racailles avec des machettes venus du Cap Vert Illégales activités, résidence secondaire Dans le sud avec des potos a bout de nerf J'suis au bord de la mer, n'essaye pas de m'la mettre Ne vois tu pas qu'j'suis a deux doigts de t'niquer ta mère Aux frontière de l'Espagne, moi j'cherche une porteuse Illicite substance, kilos d'coke avaleuse Une mule qui n'a peur de rien surtout pas d'la Guardia Civil garde le morceau face au flics jamais ne ché-cra Banlieue Nord familly Thug, Thug Val d'Oise familly Thug, Thug 9 3 familly Thug, Thug Dakar Blood familly Thug, Thug</t>
+          <t>Hey comment c'est gangster Comment c'est gangster Comment c'est gangster hey Comment c'est gangster Y'a pas de doute négro toutes mes tass sont bonnes Si elles pensent que je vais les marier c'est qu'elles doivent être connes Man Alpha est solitaire a peur de personne Shoote les traîtres à Dakar, ils vont saigner dans l'Essonne Pop les gunz négro, filtrez mes paroles Pas besoin d'amis j'suis proche du pactole Attitude musulmane, jamais ne touche à l'alcool Ottoman est en sang mais n'oublie pas le protocole C'est pour tous les anciens qui veulent tendre un guet apens Tu vas te faire niquer devant ta femme et tes enfants Paname c'est trop petit, on finit par se croiser Tes menaces ne tiennent pas, frère je vais t'humilier Je vends des armes aux petits qui veulent tuer leur prof Et du crack sans souci à la sortie des écoles On est la race la plus haïe, rien à foutre de ton amour À défaut d'avoir mon honneur ils ont ma carte de séjour Oublie la taule fais de la maille d'où tu viens mon renoi ? J'ai été partout mais Dakar est dans mon coeur Oublie la taule fais de la maille d'où tu viens mon renoi ? J'ai été partout mais Dakar est dans mon coeur Oublie les armes fais de la maille d'où tu viens mon renoi ? J'ai été partout mais Dakar est dans mon coeur Oublie les armes fais de la maille d'où tu viens mon renoi ? J'ai été partout mais Dakar est dans mon coeur Et j'adresse un message à tous les petits qui parlent mal Demande à ton grand frère c'est qui qui niquait ta soeur Man t'es pas un gangster t'es juste un footballeur J'fais des bails en bas du bloc on peut se voir tout à l'heure Viens voir la mort je vais t'apprendre la politesse J'irai dire des mots doux aux oreilles de ta princesse La seule loi que je respecte c'est celle du châtiment À force de voir des putes j'ai affaibli mes sentiments Man Alpha vide les caisses comme Pascal Lissouba Tous les jours bien sapé comme si j'étais Zaïrois Nourri au charbon mélangé au goudron Partenaires gitans désosseurs de camions Receleur de cargaisons aux puces de Montreuil Clicli c'est grillé, les keufs ont le mauvais oeil Entouré de bicraveurs qui veulent se repentir Mode de vie étrange comme Seven 1korruptible Oublie la taule fais de la maille d'où tu viens mon renoi ? J'ai été partout mais Dakar est dans mon coeur Oublie la taule fais de la maille d'où tu viens mon renoi ? J'ai été partout mais Dakar est dans mon coeur Oublie les armes fais de la maille d'où tu viens mon renoi ? J'ai été partout mais Dakar est dans mon coeur Oublie les armes fais de la maille d'où tu viens mon renoi ? J'ai été partout mais Dakar est dans mon coeur</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Dans mon coeur</t>
+          <t>Dirtizidakar</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Hey comment c'est gangster Comment c'est gangster Comment c'est gangster hey Comment c'est gangster Y'a pas de doute négro toutes mes tass sont bonnes Si elles pensent que je vais les marier c'est qu'elles doivent être connes Man Alpha est solitaire a peur de personne Shoote les traîtres à Dakar, ils vont saigner dans l'Essonne Pop les gunz négro, filtrez mes paroles Pas besoin d'amis j'suis proche du pactole Attitude musulmane, jamais ne touche à l'alcool Ottoman est en sang mais n'oublie pas le protocole C'est pour tous les anciens qui veulent tendre un guet apens Tu vas te faire niquer devant ta femme et tes enfants Paname c'est trop petit, on finit par se croiser Tes menaces ne tiennent pas, frère je vais t'humilier Je vends des armes aux petits qui veulent tuer leur prof Et du crack sans souci à la sortie des écoles On est la race la plus haïe, rien à foutre de ton amour À défaut d'avoir mon honneur ils ont ma carte de séjour Oublie la taule fais de la maille d'où tu viens mon renoi ? J'ai été partout mais Dakar est dans mon coeur Oublie la taule fais de la maille d'où tu viens mon renoi ? J'ai été partout mais Dakar est dans mon coeur Oublie les armes fais de la maille d'où tu viens mon renoi ? J'ai été partout mais Dakar est dans mon coeur Oublie les armes fais de la maille d'où tu viens mon renoi ? J'ai été partout mais Dakar est dans mon coeur Et j'adresse un message à tous les petits qui parlent mal Demande à ton grand frère c'est qui qui niquait ta soeur Man t'es pas un gangster t'es juste un footballeur J'fais des bails en bas du bloc on peut se voir tout à l'heure Viens voir la mort je vais t'apprendre la politesse J'irai dire des mots doux aux oreilles de ta princesse La seule loi que je respecte c'est celle du châtiment À force de voir des putes j'ai affaibli mes sentiments Man Alpha vide les caisses comme Pascal Lissouba Tous les jours bien sapé comme si j'étais Zaïrois Nourri au charbon mélangé au goudron Partenaires gitans désosseurs de camions Receleur de cargaisons aux puces de Montreuil Clicli c'est grillé, les keufs ont le mauvais oeil Entouré de bicraveurs qui veulent se repentir Mode de vie étrange comme Seven 1korruptible Oublie la taule fais de la maille d'où tu viens mon renoi ? J'ai été partout mais Dakar est dans mon coeur Oublie la taule fais de la maille d'où tu viens mon renoi ? J'ai été partout mais Dakar est dans mon coeur Oublie les armes fais de la maille d'où tu viens mon renoi ? J'ai été partout mais Dakar est dans mon coeur Oublie les armes fais de la maille d'où tu viens mon renoi ? J'ai été partout mais Dakar est dans mon coeur</t>
+          <t>Ok, on est à panam donc je vais pas faire du Dirty South Non, non! On est pas à Atlanta, je vais faire du Dirty Crouille Et Alpha, il fera du Dirty Clicli, ok ? Ouais, ouais! C'est un coup de pare choc dans les radios, jette ton rap de là là là J'suis boycotté dans l'son comme Dieudo face aux chalala J'suis trop lourd comme un tam-tam, j'fais bouger les nuques, yeah Sale pute tu fais du pied, tu suces comme Laurent Ruquier La rafale vient du .25, demande à Alpha 25 Gangsta en boubou, coup d'boule dans les enceintes Boum, boum, aïaïaï, j'suis Jedi, t'es Padawan Toi t'es passée sous l'bureau, le DA t'as dit Taille la oim T'es en vente sur E-Bay, moi j'suis un produit prohibé Everyday I'm Husltin, la rue m'a imbibé C'est la street credibility, j'suis un sbire palestinien Inutile de militier face au clan des Siciliens Les flics nous ont en visu Parce qu'on bizgo de la musique et des jeans Evisu Inévitable, ça vient du bled, wanted Ennemi d'État Coupable avant de l'être, à la Mohammed Atta Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Gangsta gangsta Dakar, où les négros prient Traversent des océans, pour fuir la zermi Attitude sismique quand il s'agit d'embrouilles À défaut de flingues frère, on a des shlass qui rouillent Souillent le sol de l'occident jusqu'à la Norvège On a marché sur l'eau, on peut tenir sous la neige Pharmacie c'est le bloodsport, en bas du bloc c'est le drugstore Laisse moi, laisse moi faire de la maille, objectif niquer le score Sans pitié comme Keyser Söze, pour l'État c'est Usual Suspect Plein d'échos sur mon téléphone, moi je te dis que j'ai dû esquiver Vivre et mourir à Dakar, tu peux pas tester le boss Moi je bicrave tous les jours, Hustlin' comme Rick Ross Les négros qui nous haïssent ne méritent même pas de vivre Je les ai vu avec les porcs, essuyant nos putains de vitres Violence vive, faim de maille, stupéfiants au détail XX-93, ouvre le bal des racailles Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Seven! C'est du Dirtizidakar Ouais mec, on est les plus grands de la cité mon frère! C'est Dakar-Tizi Ouzou mon pote, ouais ouais! Ceux qui font de la maille mon pote, sisi!</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Dirtizidakar</t>
+          <t>Enfant 2 Dakar</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Ok, on est à panam donc je vais pas faire du Dirty South Non, non! On est pas à Atlanta, je vais faire du Dirty Crouille Et Alpha, il fera du Dirty Clicli, ok ? Ouais, ouais! C'est un coup de pare choc dans les radios, jette ton rap de là là là J'suis boycotté dans l'son comme Dieudo face aux chalala J'suis trop lourd comme un tam-tam, j'fais bouger les nuques, yeah Sale pute tu fais du pied, tu suces comme Laurent Ruquier La rafale vient du .25, demande à Alpha 25 Gangsta en boubou, coup d'boule dans les enceintes Boum, boum, aïaïaï, j'suis Jedi, t'es Padawan Toi t'es passée sous l'bureau, le DA t'as dit Taille la oim T'es en vente sur E-Bay, moi j'suis un produit prohibé Everyday I'm Husltin, la rue m'a imbibé C'est la street credibility, j'suis un sbire palestinien Inutile de militier face au clan des Siciliens Les flics nous ont en visu Parce qu'on bizgo de la musique et des jeans Evisu Inévitable, ça vient du bled, wanted Ennemi d'État Coupable avant de l'être, à la Mohammed Atta Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Gangsta gangsta Dakar, où les négros prient Traversent des océans, pour fuir la zermi Attitude sismique quand il s'agit d'embrouilles À défaut de flingues frère, on a des shlass qui rouillent Souillent le sol de l'occident jusqu'à la Norvège On a marché sur l'eau, on peut tenir sous la neige Pharmacie c'est le bloodsport, en bas du bloc c'est le drugstore Laisse moi, laisse moi faire de la maille, objectif niquer le score Sans pitié comme Keyser Söze, pour l'État c'est Usual Suspect Plein d'échos sur mon téléphone, moi je te dis que j'ai dû esquiver Vivre et mourir à Dakar, tu peux pas tester le boss Moi je bicrave tous les jours, Hustlin' comme Rick Ross Les négros qui nous haïssent ne méritent même pas de vivre Je les ai vu avec les porcs, essuyant nos putains de vitres Violence vive, faim de maille, stupéfiants au détail XX-93, ouvre le bal des racailles Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Dakar-Tizi Ouzou Seven! C'est du Dirtizidakar Ouais mec, on est les plus grands de la cité mon frère! C'est Dakar-Tizi Ouzou mon pote, ouais ouais! Ceux qui font de la maille mon pote, sisi!</t>
+          <t>Truc de ouf truc de dingue Ma confiance je la donne qu'à mon flingue Truc de ouf truc de dingue Ma confiance je la donne qu'à mon flingue Bienvenue dans mon monde négro Yarakh City Blood Gang négro Ghetto Fabulous Ground Zero La vérité du berceau au tombeau Bienvenue dans mon monde négro Yarakh City Blood Gang négro Ghetto Fabulous Ground Zero La vérité du berceau au tombeau Truc de ouf truc de dingue Ma confiance je la donne qu'à mon flingue Truc de ouf truc de dingue Ma confianc je la donne qu'à mon flingue Binvenue dans mon monde négro Yarakh City Blood Gang négro Ghetto Fabulous Ground Zero La vérité du berceau au tombeau Bienvenue dans mon monde négro Yarakh City Blood Gang négro Ghetto Fabulous Ground Zero La vérité du berceau au tombeau Truc de ouf truc de dingue Ma confiance je la donne qu'à mon flingue Truc de ouf truc de dingue Ma confiance je la donne qu'à mon flingue</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Enfant 2 Dakar</t>
+          <t>Enfouraillés</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Truc de ouf truc de dingue Ma confiance je la donne qu'à mon flingue Truc de ouf truc de dingue Ma confiance je la donne qu'à mon flingue Bienvenue dans mon monde négro Yarakh City Blood Gang négro Ghetto Fabulous Ground Zero La vérité du berceau au tombeau Bienvenue dans mon monde négro Yarakh City Blood Gang négro Ghetto Fabulous Ground Zero La vérité du berceau au tombeau Truc de ouf truc de dingue Ma confiance je la donne qu'à mon flingue Truc de ouf truc de dingue Ma confianc je la donne qu'à mon flingue Binvenue dans mon monde négro Yarakh City Blood Gang négro Ghetto Fabulous Ground Zero La vérité du berceau au tombeau Bienvenue dans mon monde négro Yarakh City Blood Gang négro Ghetto Fabulous Ground Zero La vérité du berceau au tombeau Truc de ouf truc de dingue Ma confiance je la donne qu'à mon flingue Truc de ouf truc de dingue Ma confiance je la donne qu'à mon flingue</t>
+          <t>J'ai pas peur des négros, j'ai pas peur des arabes J'ai pas peur des gitans, m'en bats les couilles de toutes les races Crapule en boubou Ghetto Fab logo Porte pas de G-Star ça c'est pour les homos Otage de la rue jusqu'à que le rap ... Avec des prêtres vaudous qui éloignent les zombies ... Y'a quoi mon négro moi j'suis en bas du hall Faut qu'on soit enfouraillés juste avant qu'on sorte Mais nique le freefight et les sports de combat Y'a embrouille sors un flingue puis tu tires sur moi Y'a quoi mon négro moi j'suis en bas du hall Faut qu'on soit enfouraillés juste avant qu'on sorte Mais nique le freefight et les sports de combat Y'a embrouille sors un schlass puis boy plante moi Moi je bibi sur la prose, 0.9 c'est la dose Ghetto Fab c'est la cause, en drive by on t'explose ... Y'a quoi mon négro moi j'suis en bas du hall Faut qu'on soit enfouraillés juste avant qu'on sorte Mais nique le freefight et les sports de combat Y'a embrouille sors un flingue puis tu tires sur moi Y'a quoi mon négro moi j'suis en bas du hall Faut qu'on soit enfouraillés juste avant qu'on sorte Mais nique le freefight et les sports de combat Y'a embrouille sors un schlass puis boy plante moi Si je combats au quotidien frère c'est pour nourrir la mifa Si on m'appelle le philosophe c'est pas pour rien demande à Alpha ... Y'a quoi mon négro moi j'suis en bas du hall Faut qu'on soit enfouraillés juste avant qu'on sorte Mais nique le freefight et les sports de combat Y'a embrouille sors un flingue puis tu tires sur moi Y'a quoi mon négro moi j'suis en bas du hall Faut qu'on soit enfouraillés juste avant qu'on sorte Mais nique le freefight et les sports de combat Y'a embrouille sors un schlass puis boy plante moi</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Enfouraillés</t>
+          <t>Enlève tes pessas</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>J'ai pas peur des négros, j'ai pas peur des arabes J'ai pas peur des gitans, m'en bats les couilles de toutes les races Crapule en boubou Ghetto Fab logo Porte pas de G-Star ça c'est pour les homos Otage de la rue jusqu'à que le rap ... Avec des prêtres vaudous qui éloignent les zombies ... Y'a quoi mon négro moi j'suis en bas du hall Faut qu'on soit enfouraillés juste avant qu'on sorte Mais nique le freefight et les sports de combat Y'a embrouille sors un flingue puis tu tires sur moi Y'a quoi mon négro moi j'suis en bas du hall Faut qu'on soit enfouraillés juste avant qu'on sorte Mais nique le freefight et les sports de combat Y'a embrouille sors un schlass puis boy plante moi Moi je bibi sur la prose, 0.9 c'est la dose Ghetto Fab c'est la cause, en drive by on t'explose ... Y'a quoi mon négro moi j'suis en bas du hall Faut qu'on soit enfouraillés juste avant qu'on sorte Mais nique le freefight et les sports de combat Y'a embrouille sors un flingue puis tu tires sur moi Y'a quoi mon négro moi j'suis en bas du hall Faut qu'on soit enfouraillés juste avant qu'on sorte Mais nique le freefight et les sports de combat Y'a embrouille sors un schlass puis boy plante moi Si je combats au quotidien frère c'est pour nourrir la mifa Si on m'appelle le philosophe c'est pas pour rien demande à Alpha ... Y'a quoi mon négro moi j'suis en bas du hall Faut qu'on soit enfouraillés juste avant qu'on sorte Mais nique le freefight et les sports de combat Y'a embrouille sors un flingue puis tu tires sur moi Y'a quoi mon négro moi j'suis en bas du hall Faut qu'on soit enfouraillés juste avant qu'on sorte Mais nique le freefight et les sports de combat Y'a embrouille sors un schlass puis boy plante moi</t>
+          <t>Street life, bling bling, voitures Flicaille, gyrophares et bavures J'ai de l'amour pour mes reufs, ils en ont pour moi Négro fuck la volaille, ils ont la haine pourquoi ? Street life, bling bling, voitures Flicaille, gyrophares et bavures J'ai de l'amour pour mes reufs, ils en ont pour moi Négro nique les jaloux, ils ont la haine pourquoi ? Tasse-pé ne pense pas que moi je vais te nourrir Au pire, je peux te payer juste un McDo Boss P deux fois, j'ai parlé à Jennifer Elle a pas répondu, lle a pris la grosse tête Ell m'a dit Alpha toi t'es trop gangster Je lui dis, mais regarde tes ventes croulent par terre En dehors du ter-ter, j'suis dans le 9.3 Avec une meuf toute fraîche, à côté de chez moi J'ai pas besoin d'Merco pour serrer des tasses-pé J'leur retourne le cerveau, j'y place mes disquettes Alpha est un mac, dans l'esprit des jeunes filles Karima du 9.2, Aïssata du 9.4 Stéréotype banlieue, boy, c'est tout ce qu'elles veulent Un voyou qui parle mal, moi j'men bas la race Mon temps est précieux, et je perds patience Bitch ouvre la porte et tu montes dans la Ford Street life, bling bling, voitures Flicaille, gyrophares et bavures J'ai de l'amour pour mes reufs, ils en ont pour moi Négro fuck la volaille, ils ont la haine pourquoi ? Street life, bling bling, voitures Flicaille, gyrophares et bavures J'ai de l'amour pour mes reufs, ils en ont pour moi Négro nique les jaloux, ils ont la haine pourquoi ? Que tu prennes le métro ou qu'tu roules en Smart M'demande pas du respect, toi, tu squattes les boîtes J'aime pas les meufs plates avec plein de chichis Qui sont belles qu'la nuit que quand elles s'maquillent Kiffe les surs galsen avec une dent en or Princesse de Gwada parfumée Christian Dior Je veux que tu restes tranquille, quand j'suis en gardav Et qu'tu caches mes flingues quand ils tapent la perquise Cuisine de chez-moi Thiéboudiène et Yassa Pas de poisson pané, purée aux petits-pois Adoucissent les négros puis les rendent faiblards C'est pour ça que des gangsters maintenant jouent les canards Moi, je tâte le terrain, hustler chicots d'requin Rentre en boite puis j'ressors avec un mannequin Biatch fuck l'hôtel, moi jt'ramene dans le 93 Au parc de Villepinte pas loin d'Aulnay-sous-Bois Street life, bling bling, voitures Flicaille, gyrophares et bavures J'ai de l'amour pour mes reufs, ils en ont pour moi Négro fuck la volaille, ils ont la haine pourquoi ? Street life, bling bling, voitures Flicaille, gyrophares et bavures J'ai de l'amour pour mes reufs, ils en ont pour moi Négro nique les jaloux, ils ont la haine pourquoi ?</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Enlève tes pessas</t>
+          <t>Ennemi à terre</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Street life, bling bling, voitures Flicaille, gyrophares et bavures J'ai de l'amour pour mes reufs, ils en ont pour moi Négro fuck la volaille, ils ont la haine pourquoi ? Street life, bling bling, voitures Flicaille, gyrophares et bavures J'ai de l'amour pour mes reufs, ils en ont pour moi Négro nique les jaloux, ils ont la haine pourquoi ? Tasse-pé ne pense pas que moi je vais te nourrir Au pire, je peux te payer juste un McDo Boss P deux fois, j'ai parlé à Jennifer Elle a pas répondu, lle a pris la grosse tête Ell m'a dit Alpha toi t'es trop gangster Je lui dis, mais regarde tes ventes croulent par terre En dehors du ter-ter, j'suis dans le 9.3 Avec une meuf toute fraîche, à côté de chez moi J'ai pas besoin d'Merco pour serrer des tasses-pé J'leur retourne le cerveau, j'y place mes disquettes Alpha est un mac, dans l'esprit des jeunes filles Karima du 9.2, Aïssata du 9.4 Stéréotype banlieue, boy, c'est tout ce qu'elles veulent Un voyou qui parle mal, moi j'men bas la race Mon temps est précieux, et je perds patience Bitch ouvre la porte et tu montes dans la Ford Street life, bling bling, voitures Flicaille, gyrophares et bavures J'ai de l'amour pour mes reufs, ils en ont pour moi Négro fuck la volaille, ils ont la haine pourquoi ? Street life, bling bling, voitures Flicaille, gyrophares et bavures J'ai de l'amour pour mes reufs, ils en ont pour moi Négro nique les jaloux, ils ont la haine pourquoi ? Que tu prennes le métro ou qu'tu roules en Smart M'demande pas du respect, toi, tu squattes les boîtes J'aime pas les meufs plates avec plein de chichis Qui sont belles qu'la nuit que quand elles s'maquillent Kiffe les surs galsen avec une dent en or Princesse de Gwada parfumée Christian Dior Je veux que tu restes tranquille, quand j'suis en gardav Et qu'tu caches mes flingues quand ils tapent la perquise Cuisine de chez-moi Thiéboudiène et Yassa Pas de poisson pané, purée aux petits-pois Adoucissent les négros puis les rendent faiblards C'est pour ça que des gangsters maintenant jouent les canards Moi, je tâte le terrain, hustler chicots d'requin Rentre en boite puis j'ressors avec un mannequin Biatch fuck l'hôtel, moi jt'ramene dans le 93 Au parc de Villepinte pas loin d'Aulnay-sous-Bois Street life, bling bling, voitures Flicaille, gyrophares et bavures J'ai de l'amour pour mes reufs, ils en ont pour moi Négro fuck la volaille, ils ont la haine pourquoi ? Street life, bling bling, voitures Flicaille, gyrophares et bavures J'ai de l'amour pour mes reufs, ils en ont pour moi Négro nique les jaloux, ils ont la haine pourquoi ?</t>
+          <t>Hey Ghetto Fabulous Gang Barricade la Tess, c'est Alpha l'ouragan Moi je nique ta ville, comme la Nouvelle-Orléans Evacuez la Louisiane avant mon arrivé Little Dakar Cli-Cli, je suis le vengeur masqué Et peur de personne, surtout pas des anciens Qui se la racontent poto, mais boy ne font rien Flaire l'odeur de la mort, enfouraillé pépère J'attend le jour des embrouilles pour calibrer ta mère Tu croyais quoi négro, que j'avais peur de la taule A 13 piges déjà, c'était ma seconde piaule Capitale de la coke, après Bogota On distribue la poudre, sans l'avis de Sosa Enterre tes pensées et la vie de quiconque cli-cli, moi je suis Nino Brown Plus je regarde ma ville, plus je vois des miracles Plus je garde mon flingue, plus j'ai des obstacles Mais d'où tu viens négro c'est Dakar Mais d'où tu sors ce flow de batard Et l'Alfa-Roméo toute noire Tu dois cacher chose-quel c'est bizarre Ghetto Fabulous Gang Raricim O'rosko Hors la loi music Holocost fréro Yeai Ca c'est pour mes fréros d'armes cousin VF Gang, Nikma Bledos Tout le motherfucking implacable infernal Ghetto Fabulous Gang Hors la loi, le boy sans bastos Tout mes négros là-bas à Grigny Blankok, Aulnay, Vran-Se, Epinay sur Seine Tout mes boys sur la côte d'azur, Seine sur Mer Sans oublier les boy là bas South Side Haut de Seine, , Bagneux</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ennemi à terre</t>
+          <t>Entre l’Amour et la Haine</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Hey Ghetto Fabulous Gang Barricade la Tess, c'est Alpha l'ouragan Moi je nique ta ville, comme la Nouvelle-Orléans Evacuez la Louisiane avant mon arrivé Little Dakar Cli-Cli, je suis le vengeur masqué Et peur de personne, surtout pas des anciens Qui se la racontent poto, mais boy ne font rien Flaire l'odeur de la mort, enfouraillé pépère J'attend le jour des embrouilles pour calibrer ta mère Tu croyais quoi négro, que j'avais peur de la taule A 13 piges déjà, c'était ma seconde piaule Capitale de la coke, après Bogota On distribue la poudre, sans l'avis de Sosa Enterre tes pensées et la vie de quiconque cli-cli, moi je suis Nino Brown Plus je regarde ma ville, plus je vois des miracles Plus je garde mon flingue, plus j'ai des obstacles Mais d'où tu viens négro c'est Dakar Mais d'où tu sors ce flow de batard Et l'Alfa-Roméo toute noire Tu dois cacher chose-quel c'est bizarre Ghetto Fabulous Gang Raricim O'rosko Hors la loi music Holocost fréro Yeai Ca c'est pour mes fréros d'armes cousin VF Gang, Nikma Bledos Tout le motherfucking implacable infernal Ghetto Fabulous Gang Hors la loi, le boy sans bastos Tout mes négros là-bas à Grigny Blankok, Aulnay, Vran-Se, Epinay sur Seine Tout mes boys sur la côte d'azur, Seine sur Mer Sans oublier les boy là bas South Side Haut de Seine, , Bagneux</t>
+          <t>Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Génération Scarface, territoire 9.3 Boy si t'es un bon guetteur viens tafer pour moi Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Territoire sensible, pas de mal renoi De bis-canna de bis-canna de bis-canna frérot Ne nous pointe pas du doigt on est les premiers sur le terrain Génération Scarface, plein de noirs et maghrébins Des noichs qui bicravent, Orly par Gonesse Dans le ghetto c'est carnage Sevran 93 Et de retour à Orgemont réunion de gangstas Super M Hood Boss taxiphone rue du ... Boy boy trouve ta meuf à l'hôtel avec moi Elle répond pas au phonetél elle parle mal sur toi Continue à l'appeler toi t'es trop sensible Plus t'écoutes mon rap sauve ta vie comme la Bible C'est Alpha 5.20 dans une Alpha Romeo kahlouch Mitraillettes toujours pleines 93 cartouches Négro parle mal moi j'suis comme Lucky Luke Garde mes nerfs à vif juste comme Jo Dalton boy Blackill c'est dangereux ... Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Génération Scarface, territoire 9.3 Boy si t'es un bon guetteur viens tafer pour moi Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Territoire sensible, pas de mal renoi De bis-canna de bis-canna de bis-canna frérot Je trouve la paix que quand je fais la guerre ... ... Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Génération Scarface, territoire 9.3 Boy si t'es un bon guetteur viens tafer pour moi Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Territoire sensible, pas de mal renoi De bis-canna de bis-canna de bis-canna frérot</t>
         </is>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Entre l’Amour et la Haine</t>
+          <t>Entre L’Amour et la Haine</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Entre L’Amour et la Haine</t>
+          <t>Eskadron de la mort</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Génération Scarface, territoire 9.3 Boy si t'es un bon guetteur viens tafer pour moi Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Territoire sensible, pas de mal renoi De bis-canna de bis-canna de bis-canna frérot Ne nous pointe pas du doigt on est les premiers sur le terrain Génération Scarface, plein de noirs et maghrébins Des noichs qui bicravent, Orly par Gonesse Dans le ghetto c'est carnage Sevran 93 Et de retour à Orgemont réunion de gangstas Super M Hood Boss taxiphone rue du ... Boy boy trouve ta meuf à l'hôtel avec moi Elle répond pas au phonetél elle parle mal sur toi Continue à l'appeler toi t'es trop sensible Plus t'écoutes mon rap sauve ta vie comme la Bible C'est Alpha 5.20 dans une Alpha Romeo kahlouch Mitraillettes toujours pleines 93 cartouches Négro parle mal moi j'suis comme Lucky Luke Garde mes nerfs à vif juste comme Jo Dalton boy Blackill c'est dangereux ... Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Génération Scarface, territoire 9.3 Boy si t'es un bon guetteur viens tafer pour moi Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Territoire sensible, pas de mal renoi De bis-canna de bis-canna de bis-canna frérot Je trouve la paix que quand je fais la guerre ... ... Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Génération Scarface, territoire 9.3 Boy si t'es un bon guetteur viens tafer pour moi Y'a qu'un pas négro entre l'amour et la haine Moi j'ai du le franchir, mon coeur est rempli de peine Territoire sensible, pas de mal renoi De bis-canna de bis-canna de bis-canna frérot</t>
+          <t>Réussir ou mourir comme 50 cent Si j'échoue négro pas de retour au bled Killa killa Alpha c'est la maille saison Président du ghetto comme Bill Clinton Boy le flow est nerveux, handicape les MC's Pénible est la sanction et les keufs en faction Appelle Julie Lescaut pour me sucer négro Puis je retourne dans la cave bicrave crack et popo Poto c'est comme ça que les gangsters roulent Depuis les Démocrates D on a toujours été physique Rarement émotif quand il s'agit de poucaves Nous on aime les millionnaires qui squattent les kebabs 9.3 négro nous on n'aime pas les clashs Mais si un bouffon parle mal on le remet à sa place Suggère aux MC's de nous laisser tranquille J'ai planqué quelques uzis à l'arrière de ma voiture Ghetto Fabulous Gang, négros savent qui nous sommes Clicli pépère nous on tue Mesrine Ghetto Fabulous Gang, mec personne nous emmerde Comme à l'époque des requins nous c'est Hoodie Hoodie Sors le uzi bloc rougi rougi Montana renoi dis bonjour à Tony hey Couz' j'suis dans l'islam avec le hram on ne couche pas Pour le hlel on se couche tard Nous on hel hel les mouchards, efface tes empreintes avec un mouchoir Boycotté comme Dead Prez Des blancs sataniques sur des belles fresques Tout est planifié, tu veux qu'on quitte sur des belles fesses ? Starf'ullah Des bêtes sur vestes et des bêtes de festins Quand on pèche on se confesse, inspiré du sacré Conscient dans ce qu'on fait, méthodique comme Scofield Nos plans se peaufinent, on a diabolisé mon profil Comme si j'étais l'ennemi de Buffy, mais à qui ça profite ? J'suis un de ces beurs fit, loin des Shop Coffee Mais qui contrôle der Hannan Koffi ? La rage comme si je vivais dans un champ de coton La mécréance en cloque, un avenir méchant dans un cocon Le bien le mal en conflit, on est proche du bûcher Loin du buffet, du canard confit, on t'a fait bouffer, oublié de grailler en un boucher Moi je taffe mon QI, comme un manouche je tape le cuivre La vérité se mange cru, la coke se cuit La soif d'oseille te court-cuite, avec Sheitan c'est course poursuite Ghetto Fabulous Gang, mec personne nous emmerde Comme à l'époque des requins nous c'est Hoodie Hoodie Sors le uzi bloc rougi rougi Montana renoi dis bonjour à Tony Ghetto Fabulous Gang, mec personne nous emmerde Comme à l'époque des requins nous c'est Hoodie Hoodie Sors le uzi bloc rougi rougi Montana renoi dis bonjour à Tony hey Street life fait de spliff et de pillave ...</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Eskadron de la mort</t>
+          <t>Extortion</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Réussir ou mourir comme 50 cent Si j'échoue négro pas de retour au bled Killa killa Alpha c'est la maille saison Président du ghetto comme Bill Clinton Boy le flow est nerveux, handicape les MC's Pénible est la sanction et les keufs en faction Appelle Julie Lescaut pour me sucer négro Puis je retourne dans la cave bicrave crack et popo Poto c'est comme ça que les gangsters roulent Depuis les Démocrates D on a toujours été physique Rarement émotif quand il s'agit de poucaves Nous on aime les millionnaires qui squattent les kebabs 9.3 négro nous on n'aime pas les clashs Mais si un bouffon parle mal on le remet à sa place Suggère aux MC's de nous laisser tranquille J'ai planqué quelques uzis à l'arrière de ma voiture Ghetto Fabulous Gang, négros savent qui nous sommes Clicli pépère nous on tue Mesrine Ghetto Fabulous Gang, mec personne nous emmerde Comme à l'époque des requins nous c'est Hoodie Hoodie Sors le uzi bloc rougi rougi Montana renoi dis bonjour à Tony hey Couz' j'suis dans l'islam avec le hram on ne couche pas Pour le hlel on se couche tard Nous on hel hel les mouchards, efface tes empreintes avec un mouchoir Boycotté comme Dead Prez Des blancs sataniques sur des belles fresques Tout est planifié, tu veux qu'on quitte sur des belles fesses ? Starf'ullah Des bêtes sur vestes et des bêtes de festins Quand on pèche on se confesse, inspiré du sacré Conscient dans ce qu'on fait, méthodique comme Scofield Nos plans se peaufinent, on a diabolisé mon profil Comme si j'étais l'ennemi de Buffy, mais à qui ça profite ? J'suis un de ces beurs fit, loin des Shop Coffee Mais qui contrôle der Hannan Koffi ? La rage comme si je vivais dans un champ de coton La mécréance en cloque, un avenir méchant dans un cocon Le bien le mal en conflit, on est proche du bûcher Loin du buffet, du canard confit, on t'a fait bouffer, oublié de grailler en un boucher Moi je taffe mon QI, comme un manouche je tape le cuivre La vérité se mange cru, la coke se cuit La soif d'oseille te court-cuite, avec Sheitan c'est course poursuite Ghetto Fabulous Gang, mec personne nous emmerde Comme à l'époque des requins nous c'est Hoodie Hoodie Sors le uzi bloc rougi rougi Montana renoi dis bonjour à Tony Ghetto Fabulous Gang, mec personne nous emmerde Comme à l'époque des requins nous c'est Hoodie Hoodie Sors le uzi bloc rougi rougi Montana renoi dis bonjour à Tony hey Street life fait de spliff et de pillave ...</t>
+          <t>C'est Dakar Maki, West Side Kaki Dans le hood où je vis, là où Yarakh ma vie Casse toi bouffon tu me rends nerveux Ou appelle tes potes ouais cest ça morveux Et tu fermes ta gueule, tu veux pas d'embrouilles Viens pas à Dakar si t'as pas damour Tant de haine à cracher que Satan s'étonne Yo Epinay Orgemont, dans le four je bétonne Ce qu'il faut dans le coffre, des outils et des hommes Si tu paies plus cher, moi je sors les bonbonnes A 2 doigts de la mort frère regarde devant toi T'aimes pas Alpha mais qu'est ce que t'as après ça ? Je suis pas fair play, j'ai 4 as au poker Yo si t'as rien saisi, prends toi un joker Cest le bled en France depuis ma date de naissance Sodomise le système avec un bidon dessence Si je meurs c'est rien, que le fusil du destin Et les keufs et les poucaves vont se faire un festin Instinct de fauve repli, moi je marche seul Jai jamais vu un négro, j'ai le sang peul Touche ap renoi, couche oit renoi C'est ma maille négro alors frère ne touche pas yeah</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Extortion</t>
+          <t>Farenheit 9/11</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>C'est Dakar Maki, West Side Kaki Dans le hood où je vis, là où Yarakh ma vie Casse toi bouffon tu me rends nerveux Ou appelle tes potes ouais cest ça morveux Et tu fermes ta gueule, tu veux pas d'embrouilles Viens pas à Dakar si t'as pas damour Tant de haine à cracher que Satan s'étonne Yo Epinay Orgemont, dans le four je bétonne Ce qu'il faut dans le coffre, des outils et des hommes Si tu paies plus cher, moi je sors les bonbonnes A 2 doigts de la mort frère regarde devant toi T'aimes pas Alpha mais qu'est ce que t'as après ça ? Je suis pas fair play, j'ai 4 as au poker Yo si t'as rien saisi, prends toi un joker Cest le bled en France depuis ma date de naissance Sodomise le système avec un bidon dessence Si je meurs c'est rien, que le fusil du destin Et les keufs et les poucaves vont se faire un festin Instinct de fauve repli, moi je marche seul Jai jamais vu un négro, j'ai le sang peul Touche ap renoi, couche oit renoi C'est ma maille négro alors frère ne touche pas yeah</t>
+          <t>T'es toujours dans la course refré ? On sera toujours là pour te visser ... Dakar Dakar pas une cité comme la mienne .. Nos vies sont plongées dans l'illégal, l'illégal casse des gueules ... ... Northside northside Ghetto Fabulous Gang 9.3 zone de guerre frère on est tous degs Ça bicrave ça deale comme Capone Chicago Embrouilles et trafics martial KO ... Me pousse pas à l'extrême j'suis au bord de la dérive Juste en haut des tours jumlles puis je me jtte dans le vide Fahrenheit 911 on fait trembler New York Ghetto Fabulous Gang renois savent qui nous sommes Frère la vie est dure mais la mort est facile Loge une balle dans ton crâne puis je rentre à Dakar ... Terre des braves stand up au dessus des lois Viens en paix négro sinon reste chez toi Dakar Dakar pas une cité comme la mienne Même si les fourgons sont vides on les braque quand même Fahrenheit 911 boy un son de bâtard ...</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Farenheit 9/11</t>
+          <t>Fumeur de Volaille</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>T'es toujours dans la course refré ? On sera toujours là pour te visser ... Dakar Dakar pas une cité comme la mienne .. Nos vies sont plongées dans l'illégal, l'illégal casse des gueules ... ... Northside northside Ghetto Fabulous Gang 9.3 zone de guerre frère on est tous degs Ça bicrave ça deale comme Capone Chicago Embrouilles et trafics martial KO ... Me pousse pas à l'extrême j'suis au bord de la dérive Juste en haut des tours jumlles puis je me jtte dans le vide Fahrenheit 911 on fait trembler New York Ghetto Fabulous Gang renois savent qui nous sommes Frère la vie est dure mais la mort est facile Loge une balle dans ton crâne puis je rentre à Dakar ... Terre des braves stand up au dessus des lois Viens en paix négro sinon reste chez toi Dakar Dakar pas une cité comme la mienne Même si les fourgons sont vides on les braque quand même Fahrenheit 911 boy un son de bâtard ...</t>
+          <t>Premier chapitre soyez les bienvenus, ma vie ne sent pas l'eau de rose J'compose explose dose, une bastos j'vous baise tous C'est pas l'homme qui prend la mer, c'est la merde tout court En tête à tête avec l'instru, t'es qu'un pédé si tu cours J'rappe ma vie poto, j'garde la pêche et le noyau J'persévère, j'rappe même si j'ai rien dans les boyaux J'baill au M.I.C écoute couz' j'vous mets des coups d coude Voici le son qui tourne en MJC ... Yo des blocs de l'Essonne au drugstore du 9.3 J'ai de l'amour frérot si t'en as pour moi Ghetto Fabulous Gang ken des keufs renoi Fumeur de volaille Sarko tu vas nous faire quoi ? ... ...</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Fumeur de Volaille</t>
+          <t>Gangsta Music</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Premier chapitre soyez les bienvenus, ma vie ne sent pas l'eau de rose J'compose explose dose, une bastos j'vous baise tous C'est pas l'homme qui prend la mer, c'est la merde tout court En tête à tête avec l'instru, t'es qu'un pédé si tu cours J'rappe ma vie poto, j'garde la pêche et le noyau J'persévère, j'rappe même si j'ai rien dans les boyaux J'baill au M.I.C écoute couz' j'vous mets des coups d coude Voici le son qui tourne en MJC ... Yo des blocs de l'Essonne au drugstore du 9.3 J'ai de l'amour frérot si t'en as pour moi Ghetto Fabulous Gang ken des keufs renoi Fumeur de volaille Sarko tu vas nous faire quoi ? ... ...</t>
+          <t>Quelques bonhommes et trop de pédés putain si j'avais su ... Dans la rue c'est nous dans le bloc c'est nous Dans les stades c'est nous mais sur Sky c'est vous ... Ne me teste même pas je te déteste même pas .. Dans la rue c'est nous dans le bloc c'est nous Dans les stades c'est nous mais sur Sky c'est vous La maille c'est rien mais le respect c'est tout Mieux vaut mourir que de vivre à gnoux Dans la rue c'est nous dans le bloc c'st nous Dans les stades c'est nous mais sur Sky c'est vous La maille c'est rien mais le respect c'est tout Mieux vaut mourir que de vivre à genoux La plume sur le macadam ... Dans la rue c'est nous dans le bloc c'est nous Dans les stades c'est nous mais sur Sky c'est vous La maille c'est rien mais le respect c'est tout Mieux vaut mourir que de vivre à genoux Dans la rue c'est nous dans le bloc c'est nous Dans les stades c'est nous mais sur Sky c'est vous La maille c'est rien mais le respect c'est tout Mieux vaut mourir que de vivre à genoux</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Gangsta Music</t>
+          <t>Gaz Lacrymogène</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Quelques bonhommes et trop de pédés putain si j'avais su ... Dans la rue c'est nous dans le bloc c'est nous Dans les stades c'est nous mais sur Sky c'est vous ... Ne me teste même pas je te déteste même pas .. Dans la rue c'est nous dans le bloc c'est nous Dans les stades c'est nous mais sur Sky c'est vous La maille c'est rien mais le respect c'est tout Mieux vaut mourir que de vivre à gnoux Dans la rue c'est nous dans le bloc c'st nous Dans les stades c'est nous mais sur Sky c'est vous La maille c'est rien mais le respect c'est tout Mieux vaut mourir que de vivre à genoux La plume sur le macadam ... Dans la rue c'est nous dans le bloc c'est nous Dans les stades c'est nous mais sur Sky c'est vous La maille c'est rien mais le respect c'est tout Mieux vaut mourir que de vivre à genoux Dans la rue c'est nous dans le bloc c'est nous Dans les stades c'est nous mais sur Sky c'est vous La maille c'est rien mais le respect c'est tout Mieux vaut mourir que de vivre à genoux</t>
+          <t>Le cash dans la bouche des mômes depuis la crèche Le cash, cette gue-dro qu'on cache pas dans la tess Pour du cash, certains crachent sur leur dignité Un coup par ci, un coup par là, faut pas imiter Réellement j'veux palper en culbutant J'suis pas le genre de type qui prend des thunes en boîtant Certains ont sucé la bite à Satan Juste pour une avance ces enculés prennent des clans Y'a que les putes qui se font de l'argent fils La patience paie donc mourir tôt j'évite ... On est tous dans le rap pour baiser ce biz Pourquoi depuis la naissance je voulais déjà un kalash Ici on me check depuis le décollage ... Mais juste nostal Sauvage est mon continent sache le maintenant ... Sens la rage sens la haine dans nos gènes ... On frappe pas à la porte, on les défonce puis on rentre Tu peux m'appeler le magicien je fais des tours affolants D'un seul coup j'ai transformé le commissarait en cerf volant ... Je vends les plaquettes ou les barettes en édition limitée bref Foncedé sous Marie Jeanne ... Ma colère a Attends je finis ma bouteille puis je te la casse dans la tête Ça c'est pour mes gars sous l'oeil de la caméra ... ... ... ... ... J'ai plongé en apnée sans oxygène ni scaphandre ... Et comme 2pac all eyez on me ... ...</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Gaz Lacrymogène</t>
+          <t>Ghetto Fabulous Gang</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Le cash dans la bouche des mômes depuis la crèche Le cash, cette gue-dro qu'on cache pas dans la tess Pour du cash, certains crachent sur leur dignité Un coup par ci, un coup par là, faut pas imiter Réellement j'veux palper en culbutant J'suis pas le genre de type qui prend des thunes en boîtant Certains ont sucé la bite à Satan Juste pour une avance ces enculés prennent des clans Y'a que les putes qui se font de l'argent fils La patience paie donc mourir tôt j'évite ... On est tous dans le rap pour baiser ce biz Pourquoi depuis la naissance je voulais déjà un kalash Ici on me check depuis le décollage ... Mais juste nostal Sauvage est mon continent sache le maintenant ... Sens la rage sens la haine dans nos gènes ... On frappe pas à la porte, on les défonce puis on rentre Tu peux m'appeler le magicien je fais des tours affolants D'un seul coup j'ai transformé le commissarait en cerf volant ... Je vends les plaquettes ou les barettes en édition limitée bref Foncedé sous Marie Jeanne ... Ma colère a Attends je finis ma bouteille puis je te la casse dans la tête Ça c'est pour mes gars sous l'oeil de la caméra ... ... ... ... ... J'ai plongé en apnée sans oxygène ni scaphandre ... Et comme 2pac all eyez on me ... ...</t>
+          <t>C'est trop violent, fat Urban insolent, ne jure pas sur le Coran Déodorant, ça schlingue les collants Euros convertis en francs Renoi mes centimes àl, Praz voilà ma team Kill sans mes-ar, peace Respire ouvre les yeux man Quand la violence atteint son paroxysme, les darons siestent Ne pleure pas, 1 de perdue, 10 du vice dans le sang Du style dans mes rimes, 1 bloc dans mes jeans A la Mesrine cogite ... taper la tête contre les murs ... Mets ta ceinture, brave les interdits Qu'on me pardonne mes fautes d'orthographe et de grammaire Vers conjugué en hommage à mes confrères, force Yo les fleurs ne poussent pas, que du béton armé Rosko et Alpha gangsters incarnés La Praz des soldats, 3keus et Aulnay Renois savent maintenant, Clichy Montfermeil Yo les fleurs ne poussent pas, que du béton armé Rosko et Alpha gangsters incarnés La Praz des soldats, 3keus et Aulnay Renois savent maintenant, Clichy Montfermeil Sale pédé sache que les choses sont ainsi ... Même en stard-co j'ai la délinquance dans le sang ... Tire pas de balle à blanc même si tu fais pas la rregue putain ... ... Yo les fleurs ne poussent pas, que du béton armé Rosko et Alpha gangsters incarnés La Praz des soldats, 3keus et Aulnay Renois savent maintenant, Clichy Montfermeil Yo les fleurs ne poussent pas, que du béton armé Rosko et Alpha gangsters incarnés La Praz des soldats, 3keus et Aulnay Renois savent maintenant, Clichy Montfermeil</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ghetto Fabulous Gang</t>
+          <t>Give it to me (remix)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>C'est trop violent, fat Urban insolent, ne jure pas sur le Coran Déodorant, ça schlingue les collants Euros convertis en francs Renoi mes centimes àl, Praz voilà ma team Kill sans mes-ar, peace Respire ouvre les yeux man Quand la violence atteint son paroxysme, les darons siestent Ne pleure pas, 1 de perdue, 10 du vice dans le sang Du style dans mes rimes, 1 bloc dans mes jeans A la Mesrine cogite ... taper la tête contre les murs ... Mets ta ceinture, brave les interdits Qu'on me pardonne mes fautes d'orthographe et de grammaire Vers conjugué en hommage à mes confrères, force Yo les fleurs ne poussent pas, que du béton armé Rosko et Alpha gangsters incarnés La Praz des soldats, 3keus et Aulnay Renois savent maintenant, Clichy Montfermeil Yo les fleurs ne poussent pas, que du béton armé Rosko et Alpha gangsters incarnés La Praz des soldats, 3keus et Aulnay Renois savent maintenant, Clichy Montfermeil Sale pédé sache que les choses sont ainsi ... Même en stard-co j'ai la délinquance dans le sang ... Tire pas de balle à blanc même si tu fais pas la rregue putain ... ... Yo les fleurs ne poussent pas, que du béton armé Rosko et Alpha gangsters incarnés La Praz des soldats, 3keus et Aulnay Renois savent maintenant, Clichy Montfermeil Yo les fleurs ne poussent pas, que du béton armé Rosko et Alpha gangsters incarnés La Praz des soldats, 3keus et Aulnay Renois savent maintenant, Clichy Montfermeil</t>
+          <t>Aux deurs-vi de boîte je ne parle pas Et j'achète tout le bar mais je bois pas Originale caillera vient du 93 Tamponne les tasses mais sans constat Ghetto Fabulous Gang invasion Dans le block frère même dans les pavillons Broliqué, sans papiers Tu veux la guerre avec t'es nous ? T'es niqué ! 93 tous les jours frères gunz UP Afrique noire, Maghreb stand UP La maille avant les tassepés d'abord Crapules à enfermer dehors Bicraveur substanciel Maillr, baiser c'est l'essntiel Starfuckeuse, caillera baiseuse Dakar brigade anti crasseuses ...</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Give it to me (remix)</t>
+          <t>Give to me</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Aux deurs-vi de boîte je ne parle pas Et j'achète tout le bar mais je bois pas Originale caillera vient du 93 Tamponne les tasses mais sans constat Ghetto Fabulous Gang invasion Dans le block frère même dans les pavillons Broliqué, sans papiers Tu veux la guerre avec t'es nous ? T'es niqué ! 93 tous les jours frères gunz UP Afrique noire, Maghreb stand UP La maille avant les tassepés d'abord Crapules à enfermer dehors Bicraveur substanciel Maillr, baiser c'est l'essntiel Starfuckeuse, caillera baiseuse Dakar brigade anti crasseuses ...</t>
+          <t>Aux deurs-vi de boîte je ne parle pas Et j'achète tout le bar mais je bois pas Originale caillera vient du 93 Tamponne les tasses mais sans constat Ghetto Fabulous Gang invasion Dans le block frère même dans les pavillons Broliqué, sans papiers Tu veux la guerre avec t'es nous ? T'es niqué ! 93 tous les jours frères gunz UP Afrique noire, Maghreb stand UP La maille avant les tassepés d'abord Crapules à enfermer dehors Bicraveur substanciel Mailler, baiser c'est l'essentiel Starfuckeuse, caillera baiseuse Dakar brigade anti crasseuses ...</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Give to me</t>
+          <t>Gremlins</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Aux deurs-vi de boîte je ne parle pas Et j'achète tout le bar mais je bois pas Originale caillera vient du 93 Tamponne les tasses mais sans constat Ghetto Fabulous Gang invasion Dans le block frère même dans les pavillons Broliqué, sans papiers Tu veux la guerre avec t'es nous ? T'es niqué ! 93 tous les jours frères gunz UP Afrique noire, Maghreb stand UP La maille avant les tassepés d'abord Crapules à enfermer dehors Bicraveur substanciel Mailler, baiser c'est l'essentiel Starfuckeuse, caillera baiseuse Dakar brigade anti crasseuses ...</t>
+          <t>Hey, hey! Seine-Saint-Denis! Hey, hey hey, gremlins Mais boy, quoi ? Quoi ? D'où tu viens ? Viens ? Neuf-trois, trois, lâche rien, rien Sodomise le rap, mais pas encore de disque d'or Depuis la préhistoire, les négros savent qu'on a le mort Mais boy, quoi ? Quoi ? D'où tu viens ? Viens ? Neuf-trois, trois, lâche rien, rien Sodomise le rap, mais pas encore de disque d'or Depuis la préhistoire, les négros savent qu'on a le mort Peine dans le crime, jamais dans la frime Fais monter en flèche le taux du banditisme Violence gratuite dans le hall des gares Je parle pas des branleurs qui agressent les femmes Je parle de meurtriers, je parle de tueurs Je parle de receleurs, je parle de bicraveurs Je parle de truands, je parle de braqueurs Bonhomme, tu sais le 93, c'est murder Ça tire à Bondy, un meurtre à Noisy Les balles perdues, c'est la guerre de l'héroïne Je parle de Cité Rose, je parle de CSL Je parle d'Orgemont, je parle de Super M Je parle de Pavé Neuf, et Villetaneuse NSL, All Star City Ne parle pas de nous dans tes mixtapes Tes albums de merde, ici, on n'est pas aux states Mais boy, quoi ? Quoi ? D'où tu viens ? Viens ? Neuf-trois, trois, lâche rien, rien Sodomise le rap, mais pas encore de disque d'or Depuis la préhistoire, les négros savent qu'on a le mort Mais boy, quoi ? Quoi ? D'où tu viens ? Viens ? Neuf-trois, trois, lâche rien, rien Sodomise le rap, mais pas encore de disque d'or Depuis la préhistoire, les négros savent qu'on a le mort Je parle d'embrouilles, je parle de barres de fer Je parle de ceux qui maillent capuchés en hiver J'suis comme Djibril, j'ai du seum bien visser Ça va de Tremblay, Villepinte jusqu'aux Courtillières Mais tranquille frère, n'attire pas la foudre Le canon à poudre, ou sinon ta bouche mousse Je parle de malfrats, comploteurs de parkings Et pour nous l'état, c'est bourgeoisie casting Je parle de frères muz, ghetto islamiste Je parle d'auto-défense, ils appellent ça terrorisme Je parle de cuisiniers, trois-étoiles pas d'chimistes Mortalité infantile comme au tiers-monde Je parle d'HIV, taux élevé de SIDA Même à genoux boy, nous jamais on baisse les bras Palais de justice, abonnés aux assises On saute par la fenêtre, négro nique leur verdict Mais boy, quoi ? Quoi ? D'où tu viens ? Viens ? Neuf-trois, trois, lâche rien, rien Sodomise le rap, mais pas encore de disque d'or Depuis la préhistoire, les négros savent qu'on a le mort Mais boy, quoi ? Quoi ? D'où tu viens ? Viens ? Neuf-trois, trois, lâche rien, rien Sodomise le rap, mais pas encore de disque d'or Depuis la préhistoire, les négros savent qu'on a le mort Mais 93, c'est la secte, le mal te guette Tous condamnés à mort comme la ligne verte On a joué dans La Horde, on a joué dans Go Fast Slalomé devant les balles comme dans les rues de Belfast Je parle de Sevran, je parle de Livry, les souvenirs de John Travolta à Clichy Monfermeil, aka la tess de Ben Lade Mollah Omar, frère, mentalité schizophrène 93 zoo, man nique tout Rosny-sous, Aulnay-sous, que des chiens fous! Je parle de Blanc-Mesnil, Bourget, Drancy Je parle des Lilas, Bagnolet et Saint-Denis Villemomble et Raincy, Auber et Saint-Ouen Little Bamako, Montreuil, frère on lâche rien Touché, couché par les douilles de mon équipe pas facile d'imiter Touché, couché par les douilles de mon équipe pas facile d'imiter Mais difficile de buter, mec toutes les putes, tu le sais qu'on les a remis de côté, côté Touché, couché par les douilles de mon équipe pas facile d'imiter Touché, couché par les douilles de mon équipe pas facile d'imiter Mais difficile de buter, mec toutes les putes, tu le sais qu'on les a remis de côté, côté Brah brah brah braaah</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Gremlins</t>
+          <t>Guerre et paix</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Hey, hey! Seine-Saint-Denis! Hey, hey hey, gremlins Mais boy, quoi ? Quoi ? D'où tu viens ? Viens ? Neuf-trois, trois, lâche rien, rien Sodomise le rap, mais pas encore de disque d'or Depuis la préhistoire, les négros savent qu'on a le mort Mais boy, quoi ? Quoi ? D'où tu viens ? Viens ? Neuf-trois, trois, lâche rien, rien Sodomise le rap, mais pas encore de disque d'or Depuis la préhistoire, les négros savent qu'on a le mort Peine dans le crime, jamais dans la frime Fais monter en flèche le taux du banditisme Violence gratuite dans le hall des gares Je parle pas des branleurs qui agressent les femmes Je parle de meurtriers, je parle de tueurs Je parle de receleurs, je parle de bicraveurs Je parle de truands, je parle de braqueurs Bonhomme, tu sais le 93, c'est murder Ça tire à Bondy, un meurtre à Noisy Les balles perdues, c'est la guerre de l'héroïne Je parle de Cité Rose, je parle de CSL Je parle d'Orgemont, je parle de Super M Je parle de Pavé Neuf, et Villetaneuse NSL, All Star City Ne parle pas de nous dans tes mixtapes Tes albums de merde, ici, on n'est pas aux states Mais boy, quoi ? Quoi ? D'où tu viens ? Viens ? Neuf-trois, trois, lâche rien, rien Sodomise le rap, mais pas encore de disque d'or Depuis la préhistoire, les négros savent qu'on a le mort Mais boy, quoi ? Quoi ? D'où tu viens ? Viens ? Neuf-trois, trois, lâche rien, rien Sodomise le rap, mais pas encore de disque d'or Depuis la préhistoire, les négros savent qu'on a le mort Je parle d'embrouilles, je parle de barres de fer Je parle de ceux qui maillent capuchés en hiver J'suis comme Djibril, j'ai du seum bien visser Ça va de Tremblay, Villepinte jusqu'aux Courtillières Mais tranquille frère, n'attire pas la foudre Le canon à poudre, ou sinon ta bouche mousse Je parle de malfrats, comploteurs de parkings Et pour nous l'état, c'est bourgeoisie casting Je parle de frères muz, ghetto islamiste Je parle d'auto-défense, ils appellent ça terrorisme Je parle de cuisiniers, trois-étoiles pas d'chimistes Mortalité infantile comme au tiers-monde Je parle d'HIV, taux élevé de SIDA Même à genoux boy, nous jamais on baisse les bras Palais de justice, abonnés aux assises On saute par la fenêtre, négro nique leur verdict Mais boy, quoi ? Quoi ? D'où tu viens ? Viens ? Neuf-trois, trois, lâche rien, rien Sodomise le rap, mais pas encore de disque d'or Depuis la préhistoire, les négros savent qu'on a le mort Mais boy, quoi ? Quoi ? D'où tu viens ? Viens ? Neuf-trois, trois, lâche rien, rien Sodomise le rap, mais pas encore de disque d'or Depuis la préhistoire, les négros savent qu'on a le mort Mais 93, c'est la secte, le mal te guette Tous condamnés à mort comme la ligne verte On a joué dans La Horde, on a joué dans Go Fast Slalomé devant les balles comme dans les rues de Belfast Je parle de Sevran, je parle de Livry, les souvenirs de John Travolta à Clichy Monfermeil, aka la tess de Ben Lade Mollah Omar, frère, mentalité schizophrène 93 zoo, man nique tout Rosny-sous, Aulnay-sous, que des chiens fous! Je parle de Blanc-Mesnil, Bourget, Drancy Je parle des Lilas, Bagnolet et Saint-Denis Villemomble et Raincy, Auber et Saint-Ouen Little Bamako, Montreuil, frère on lâche rien Touché, couché par les douilles de mon équipe pas facile d'imiter Touché, couché par les douilles de mon équipe pas facile d'imiter Mais difficile de buter, mec toutes les putes, tu le sais qu'on les a remis de côté, côté Touché, couché par les douilles de mon équipe pas facile d'imiter Touché, couché par les douilles de mon équipe pas facile d'imiter Mais difficile de buter, mec toutes les putes, tu le sais qu'on les a remis de côté, côté Brah brah brah braaah</t>
+          <t>Hein, Rakailles 4 boy, 5.20, Sambastos Zehef, hein, ok, hein Ça reste d'la classe boy, écoute-ça, hein Sambastos l'gang, Rakailles 4, Ghetto Fab' les MC's ont les glandes, ils vont sucer mon gland Criminel au microphone, j'fais du taf ou du cash Faut des tass, dédicace aux petits d'la tess Ce qu'je vise t'en fais pas ils s'reconnaissent C'est la crise, c'est la hess mais malgré ça on progresse On avance calmement, fait les bails à la Saï Saï On détale à la et on encule les hatailles 95 Val-d'Oise capitale des agressions Les pédés nous payent la rançon, nous envoie en prison Mon 240 il est pas encore dead Les MC's ont besoin d'aide pendant qu'dans la street ça s'achève Jamais en crève, la devise c'est marche ou crève Tu veux ma mort, vas-y creuse alors après j'pousse la Dis-leur Alpha, on a pas l'temps pour les faux Le micro c'est un nympho, en 16 mesures il est K.O Et, et man l'amour y'en a pas Les sentiments moi j'les cache ici-bas Marche ou crève la devise des gangsters Y'aura jamais d'paix sans guerre gunz pop Et man l'amour y'en a pas Les sentiments moi j'les cache ici-bas Marche ou crève la devise des gangsters Y'aura jamais d'paix sans guerre Si tu nous vois rôder en RS4, trouve ça normal Truand d'la Galère représente sur Rakailles 4 si si Moi j'mets pas d'salope à quatre pattes Tu peux m'voir avec des frères qui font la salat Comme avec des frères qui sont H.24 rhabats Ici y'a pas de re-sta, c'est bien pour ça qu'on baise tout 95, 93, banlieue nord sur tous les réseaux Certains des frères perdent la raison et finissent avec des cachetons On veut notre cachet tout en esquivant le cachot Vends, vends du pilon, n'oublie jamais de pas dire où tu l'as caché Devant les hnouchas ferme ta gueule, on va te coucher Truand d'la Galère, Ghetto Fab' Bon, moi j'rappe pas j'veux vous expliquer juste un truc C'est truand d'la Galère, Morsay avec Ghetto Fabulous Gang pour Rakailles 4 Hey, à tous les fils de putes de fachos j'vous nique vos mères la pute Hey on est aux Puces à Clignancourt, on s'en bat les couilles Nique les skins en quantité et on vous rentre des fusils à pompe dans l'cul Nique les keufs, nique tout l'monde Hey on s'en bat les couilles nous, on fait pas d'la musique pour rigoler, on fait d'la revendication On vous baise bande de putes Hey on s'en bat les couilles, nique toutes les Fnac de France On vend aux Puces à Clignancourt Ghetto Fab' et Alpha, Zehef de Truand On est les boss cousin, hey Nique les skins nique tout l'monde Et j'baise Génération aussi, oublis pas Skyrock et tous les bâtards qui boycottent On vous baise, on vend mieux qu'vous tous bande de putes Et, et man l'amour y'en a pas Les sentiments moi j'les cache ici-bas Marche ou crève la devise des gangsters Y'aura jamais d'paix sans guerre gunz pop Et man l'amour y'en a pas Sambastos Les sentiments Zehef moi j'les cache ici-bas Morsay Marche ou crève la devise des gangsters Y'aura jamais d'paix sans guerre On a fumé trop d'mecs d'Epinay à Stains On a des tass bourgeoises à Enghien-les-Bains Charbon en solo puis on lave les mains Reste froid mais calme comme à Saint-Gratien Et les rues de Sarcelles ne sont pas étrangères Val-d'Oise c'est la famille mais Dakar c'est ma terre Banlieue nord négro, nous on suce personne Quand il s'agit d'embrouille on a gagner la coupe de monde Dans le R.E.R B, dans le R.E.R C Dans le R.E.R D, laisse les keufs plantés C'est la loi du talion, boy il pour il Seine-Saint-Denis jusqu'à la gare de Creil Pas de doutes négro, nous on a les bails 9.3 capitale des racailles Scar-la capuché bicrave à l'ancienne On visser les boloss boy en file indienne Et, et man l'amour y'en a pas Les sentiments moi j'les cache ici-bas Marche ou crève la devise des gangsters Y'aura jamais d'paix sans guerre Et man l'amour y'en a pas Les sentiments moi j'les cache ici-bas Marche ou crève la devise des gangsters Y'aura jamais d'paix sans guerre1</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Guerre et paix</t>
+          <t>Guerriers</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Hein, Rakailles 4 boy, 5.20, Sambastos Zehef, hein, ok, hein Ça reste d'la classe boy, écoute-ça, hein Sambastos l'gang, Rakailles 4, Ghetto Fab' les MC's ont les glandes, ils vont sucer mon gland Criminel au microphone, j'fais du taf ou du cash Faut des tass, dédicace aux petits d'la tess Ce qu'je vise t'en fais pas ils s'reconnaissent C'est la crise, c'est la hess mais malgré ça on progresse On avance calmement, fait les bails à la Saï Saï On détale à la et on encule les hatailles 95 Val-d'Oise capitale des agressions Les pédés nous payent la rançon, nous envoie en prison Mon 240 il est pas encore dead Les MC's ont besoin d'aide pendant qu'dans la street ça s'achève Jamais en crève, la devise c'est marche ou crève Tu veux ma mort, vas-y creuse alors après j'pousse la Dis-leur Alpha, on a pas l'temps pour les faux Le micro c'est un nympho, en 16 mesures il est K.O Et, et man l'amour y'en a pas Les sentiments moi j'les cache ici-bas Marche ou crève la devise des gangsters Y'aura jamais d'paix sans guerre gunz pop Et man l'amour y'en a pas Les sentiments moi j'les cache ici-bas Marche ou crève la devise des gangsters Y'aura jamais d'paix sans guerre Si tu nous vois rôder en RS4, trouve ça normal Truand d'la Galère représente sur Rakailles 4 si si Moi j'mets pas d'salope à quatre pattes Tu peux m'voir avec des frères qui font la salat Comme avec des frères qui sont H.24 rhabats Ici y'a pas de re-sta, c'est bien pour ça qu'on baise tout 95, 93, banlieue nord sur tous les réseaux Certains des frères perdent la raison et finissent avec des cachetons On veut notre cachet tout en esquivant le cachot Vends, vends du pilon, n'oublie jamais de pas dire où tu l'as caché Devant les hnouchas ferme ta gueule, on va te coucher Truand d'la Galère, Ghetto Fab' Bon, moi j'rappe pas j'veux vous expliquer juste un truc C'est truand d'la Galère, Morsay avec Ghetto Fabulous Gang pour Rakailles 4 Hey, à tous les fils de putes de fachos j'vous nique vos mères la pute Hey on est aux Puces à Clignancourt, on s'en bat les couilles Nique les skins en quantité et on vous rentre des fusils à pompe dans l'cul Nique les keufs, nique tout l'monde Hey on s'en bat les couilles nous, on fait pas d'la musique pour rigoler, on fait d'la revendication On vous baise bande de putes Hey on s'en bat les couilles, nique toutes les Fnac de France On vend aux Puces à Clignancourt Ghetto Fab' et Alpha, Zehef de Truand On est les boss cousin, hey Nique les skins nique tout l'monde Et j'baise Génération aussi, oublis pas Skyrock et tous les bâtards qui boycottent On vous baise, on vend mieux qu'vous tous bande de putes Et, et man l'amour y'en a pas Les sentiments moi j'les cache ici-bas Marche ou crève la devise des gangsters Y'aura jamais d'paix sans guerre gunz pop Et man l'amour y'en a pas Sambastos Les sentiments Zehef moi j'les cache ici-bas Morsay Marche ou crève la devise des gangsters Y'aura jamais d'paix sans guerre On a fumé trop d'mecs d'Epinay à Stains On a des tass bourgeoises à Enghien-les-Bains Charbon en solo puis on lave les mains Reste froid mais calme comme à Saint-Gratien Et les rues de Sarcelles ne sont pas étrangères Val-d'Oise c'est la famille mais Dakar c'est ma terre Banlieue nord négro, nous on suce personne Quand il s'agit d'embrouille on a gagner la coupe de monde Dans le R.E.R B, dans le R.E.R C Dans le R.E.R D, laisse les keufs plantés C'est la loi du talion, boy il pour il Seine-Saint-Denis jusqu'à la gare de Creil Pas de doutes négro, nous on a les bails 9.3 capitale des racailles Scar-la capuché bicrave à l'ancienne On visser les boloss boy en file indienne Et, et man l'amour y'en a pas Les sentiments moi j'les cache ici-bas Marche ou crève la devise des gangsters Y'aura jamais d'paix sans guerre Et man l'amour y'en a pas Les sentiments moi j'les cache ici-bas Marche ou crève la devise des gangsters Y'aura jamais d'paix sans guerre1</t>
+          <t>J'suis un guerrier guerrier, guerrier Alpha 5.20 Mac Kregor Mystik C'est des guerriers Les players disent que la vie est une pute J'la considère comme une lutte J'suis un guerrier, un guerrier Un guerrier Mémoire d'esclave, j'suis un rancunier À Dakar, moi je zone avec mes meurtriers J'attends pas l'retour du Christ pour sauver ma vie Ma ligne de vie est courte selon mon astrologie Et mes balles te surprennent, elles viennent par derrière Défouraille ton sommeil, tu vas mourir trop calme Cachée sous des napalms, 9-3 zone de guerre Botte le cul du G.I. comme la guerre du Vietnam Dans les ghettos d'Afrique, j'viens prêcher la paix Dans l'Moyen-Orient, j'réciterai l'Coran En France j'veux tout, excepté m'intégrer J'peux pas voter alors j'irai frauder Ils nous cassent les couilles avec Harry Roselmack Discrimination positive à la place du toubab Brûle, brûle Clichy, mes racailles sont XXX Viens rejoindre le maquis, j'apporterai d'l'essence, frère Les players disent que la vie est une pute J'la considère comme une lutte J'suis un guerrier, un guerrier Un guerrier Maintenant qu'vous savez qu'pour moi, c'est d'jà un blaze trop lourd à porter J'vais pas t'mentir sur ma rue, sur mes putes ou sur mes tunes, OK Ça t'paraît cru d'voir un nègre de plus à l'affût Sur ton ter-ter de merde, tu vois qu'j'suis véner Moi j'suis pas un Cerbère, j'vais pas t'mentir C'que j'ai construit c'est dans la sueur, dans l'sang d'autrui mais jamais dans la rumeur Touche à la mif tu meurs, c'est clair et net Continue d'taper des haltères, car dehors c'est l'fusil ou XXX frère Parle pas d'sère-mi, tu vis en pays riche Vis pas la rue en théorie, viens vivre la mienne comme c'est horrible C'est Aubervilliers qui une fois d'plus vient et t'corrige Nous on pointe dans les cages à la Thierry Henry Rap irritable pour tes pores, ça vient d'la Terre-mère Le capitalisme m'a rendu cette fierté qui maintenant t'emmerde OK, jacte pas trop longtemps sur tes exactions 2007, on passe à l'action Les players disent que la vie est une pute J'la considère comme une lutte J'suis un guerrier, un guerrier Un guerrier Tu sais c'que c'est d'avoir un frigo vide, en chien dans la rue À pillave devant l'radiateur, rien dans l'bide Personne n'est à l'abri, problèmes existentiels T'as plus d'taf, un loyer trop cher, ça va trop vite Tu parles de la rue, connard, va au bord d'la Seine En plein hiver, putain d'froid d'canard En c'qui m'concerne, j'ai pas toujours fait c'qu'il fallait Mais j'garde le sourire même au bord d'la falaise Le poids était trop lourd, j'ai failli m'tirer une balle, que Dieu m'pardonne Mental guerrier mais j'suis qu'un homme Ça m'véner quand j'entends dire le rap c'est un game C'est Mystik, Ghetto Fab, Mac Kregor Tandem Nos parents ont cru que la France c'était bon port On s'est fait ber-bar, on veut du cash pour conjurer l'sort Mecs de tess, on va pas s'mentir, on aime briller Si on fait du rap, c'est pour les futurs guerriers</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Guerriers</t>
+          <t>Gunz Poppin</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>J'suis un guerrier guerrier, guerrier Alpha 5.20 Mac Kregor Mystik C'est des guerriers Les players disent que la vie est une pute J'la considère comme une lutte J'suis un guerrier, un guerrier Un guerrier Mémoire d'esclave, j'suis un rancunier À Dakar, moi je zone avec mes meurtriers J'attends pas l'retour du Christ pour sauver ma vie Ma ligne de vie est courte selon mon astrologie Et mes balles te surprennent, elles viennent par derrière Défouraille ton sommeil, tu vas mourir trop calme Cachée sous des napalms, 9-3 zone de guerre Botte le cul du G.I. comme la guerre du Vietnam Dans les ghettos d'Afrique, j'viens prêcher la paix Dans l'Moyen-Orient, j'réciterai l'Coran En France j'veux tout, excepté m'intégrer J'peux pas voter alors j'irai frauder Ils nous cassent les couilles avec Harry Roselmack Discrimination positive à la place du toubab Brûle, brûle Clichy, mes racailles sont XXX Viens rejoindre le maquis, j'apporterai d'l'essence, frère Les players disent que la vie est une pute J'la considère comme une lutte J'suis un guerrier, un guerrier Un guerrier Maintenant qu'vous savez qu'pour moi, c'est d'jà un blaze trop lourd à porter J'vais pas t'mentir sur ma rue, sur mes putes ou sur mes tunes, OK Ça t'paraît cru d'voir un nègre de plus à l'affût Sur ton ter-ter de merde, tu vois qu'j'suis véner Moi j'suis pas un Cerbère, j'vais pas t'mentir C'que j'ai construit c'est dans la sueur, dans l'sang d'autrui mais jamais dans la rumeur Touche à la mif tu meurs, c'est clair et net Continue d'taper des haltères, car dehors c'est l'fusil ou XXX frère Parle pas d'sère-mi, tu vis en pays riche Vis pas la rue en théorie, viens vivre la mienne comme c'est horrible C'est Aubervilliers qui une fois d'plus vient et t'corrige Nous on pointe dans les cages à la Thierry Henry Rap irritable pour tes pores, ça vient d'la Terre-mère Le capitalisme m'a rendu cette fierté qui maintenant t'emmerde OK, jacte pas trop longtemps sur tes exactions 2007, on passe à l'action Les players disent que la vie est une pute J'la considère comme une lutte J'suis un guerrier, un guerrier Un guerrier Tu sais c'que c'est d'avoir un frigo vide, en chien dans la rue À pillave devant l'radiateur, rien dans l'bide Personne n'est à l'abri, problèmes existentiels T'as plus d'taf, un loyer trop cher, ça va trop vite Tu parles de la rue, connard, va au bord d'la Seine En plein hiver, putain d'froid d'canard En c'qui m'concerne, j'ai pas toujours fait c'qu'il fallait Mais j'garde le sourire même au bord d'la falaise Le poids était trop lourd, j'ai failli m'tirer une balle, que Dieu m'pardonne Mental guerrier mais j'suis qu'un homme Ça m'véner quand j'entends dire le rap c'est un game C'est Mystik, Ghetto Fab, Mac Kregor Tandem Nos parents ont cru que la France c'était bon port On s'est fait ber-bar, on veut du cash pour conjurer l'sort Mecs de tess, on va pas s'mentir, on aime briller Si on fait du rap, c'est pour les futurs guerriers</t>
+          <t>Guns poppin', hood patron Dis aux boys qui parlaient mal de dmander pardon Plus d'amour frère, dans les rues du neuf-trois Renoi tue des renois, rabzas tuent des rabzas Ouais ouais ouais ouais, peur de personne Y'a haja, jy vais moi-même, j'attends personne 2ème album, The Massacre, Curtis Jackson 50 Cent c'est rien, car les armes fonctionnent Cas d'embrouille, ouvre le coffre, sors mes outils Et meurtrière, s'ra après, la cérémonie Trop parler peut tuer comme Manny et Juicy Sous surveillance est toujours ma téléphonie Conflit de terrain, sur fond de poudreuse Trop de maille sale, le bled c'est ma lessiveuse Bracelet d'argent, sur une peau toute noire Les murs moites de leurs taules m'ont rendu plus vicelard Cest quoi les bidi-bails, cest quoi les bidi-bails Gunz poppin, hood boss c'est Alpha Cest quoi les bidi-bails, c'est quoi les bidi-bails Comera boyz Grigny gang, frère ne joue pas C'est quoi les bidi-bails, c'est quoi les bidi-bails Dans le neuf-trois, pharmacie cest Alpha C'est quoi les bidi-bails, c'est quoi les bidi-bails Boulogne Boy, Hauts-De-Seine frère c'est gangsta Yeah putain 5.20 Alpha moi j'viens d'loin, Dakar, Bamako C'est cinq cinq ou bang bang, j'parle pas T'as la dernière caisse, bien bien mashallah Les miens roulent des joints d'dingue tah sah Yeah, ça fait bili-bam, c'est ça les bili-bails 9mm, coke pure en milligrammes Dis-moi c'est qui qui graille, qui fait des mimiques, braille Ca fait bili-bam-bam dili-drive-by T'es fou man, la vie n'est pas pour les faibles Tu veux faire un clash ? T'auras ma Tour Eiffel dans le trou d'balle Nous on charbonne, nous, comme Pac on l'ouvre Tu joues les hommes, désolé man t'es pas comme nous Qui dit faux qui dit vrai? J'porte un Levi's j'suis discret On oublie pas on est des fils d'immigrés Demande à Malik Bledoss C'était Salif on met le khaliss d'té-co pour la famille C'est quoi les bidi-bails, c'est quoi les bidi-bails Gunz poppin, hood boss c'est Alpha C'est quoi les bidi-bails, c'est quoi les bidi-bails Comera boyz Grigny gang, frère ne joue pas C'est quoi les bidi-bails, c'est quoi les bidi-bails Dans le neuf-trois, pharmacie c'est Alpha C'est quoi les bidi-bails, c'est quoi les bidi-bails Boulogne Boy, Hauts-De-Seine frère c'est gangsta International, LC woo négro, j'ai bien dit L Mais tu crois test qui ? Tu blesses qui ? l'équipe à Frantz qui peut ? Y'a la rue qu'a écrit notre blaze en bas d'son dos à côté d'la seuf Le rap Français on le rend frais, on lui à acheté des baskets neuves ouais Nan, cette fois-ci on fait pas d'cadeaux Tellement la dalle qu'a 15 piges on fait les braquages en vélo C'est la rue en V.O, M.O.G ah bon ! T.O.N.Y trop chaud International, LC woo négro, j'ai bien dit LC Mais tu crois test qui ? Tu blesses qui ? Toi-même tu sais qui c'est Pas l'intention d'se calmer Tire à balles réelles, sur les keufs, Grigny capitale des pavés C'est les bails de mecs porte-flingues et de 5.20 et d'LC Y'a fusil à pompe qui pompe sur la gov' de la B.A.C Criminel au ruelles de Dakar à Grigny gang star Les bleus tournent, la blanche tourne, le rouge ratatata woo woo Quand ça quand ça tire on aime, quand ça quand ça tire on reste Peu importe les problèmes qu'on s'a- qu'on s'attire Rien à foutre de tout, M.O shoot tout l'temps shoot, toi Bouffe de ma Comera, lyricale colère ah Dans ta ville tu me blesses, dans ma ville je te tue J'suis une racaille car pour racaille 4 l'instru je le tue M.O thug, croise moi à la peupleraie avenue Avenue de tess des négros qui t'la mettent dans l'cul C'est quoi les bidi-bails c'est quoi les bidi-bails Gunz poppin, hood boss c'est Alpha C'est quoi les bidi-bails c'est quoi les bidi-bails Comera boyz Grigny gang, frère ne joue pas C'est quoi les bidi-bails c'est quoi les bidi-bails Dans le neuf-trois, pharmacie c'est Alpha C'est quoi les bidi-bails c'est quoi les bidi-bails Boulogne Boy, Hauts-De-Seine frère c'est gangsta Illégal renoi Grigny family, GB Comera boyz Wut up wut up wut up Boulogne Boy, Lif-Sa, wassup négro ? Pharmacie, guns poppin' Alpha, représente Dakar, 9-3 La crasse du monde entier, frère frère</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Gunz Poppin</t>
+          <t>Gunz Sport</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Guns poppin', hood patron Dis aux boys qui parlaient mal de dmander pardon Plus d'amour frère, dans les rues du neuf-trois Renoi tue des renois, rabzas tuent des rabzas Ouais ouais ouais ouais, peur de personne Y'a haja, jy vais moi-même, j'attends personne 2ème album, The Massacre, Curtis Jackson 50 Cent c'est rien, car les armes fonctionnent Cas d'embrouille, ouvre le coffre, sors mes outils Et meurtrière, s'ra après, la cérémonie Trop parler peut tuer comme Manny et Juicy Sous surveillance est toujours ma téléphonie Conflit de terrain, sur fond de poudreuse Trop de maille sale, le bled c'est ma lessiveuse Bracelet d'argent, sur une peau toute noire Les murs moites de leurs taules m'ont rendu plus vicelard Cest quoi les bidi-bails, cest quoi les bidi-bails Gunz poppin, hood boss c'est Alpha Cest quoi les bidi-bails, c'est quoi les bidi-bails Comera boyz Grigny gang, frère ne joue pas C'est quoi les bidi-bails, c'est quoi les bidi-bails Dans le neuf-trois, pharmacie cest Alpha C'est quoi les bidi-bails, c'est quoi les bidi-bails Boulogne Boy, Hauts-De-Seine frère c'est gangsta Yeah putain 5.20 Alpha moi j'viens d'loin, Dakar, Bamako C'est cinq cinq ou bang bang, j'parle pas T'as la dernière caisse, bien bien mashallah Les miens roulent des joints d'dingue tah sah Yeah, ça fait bili-bam, c'est ça les bili-bails 9mm, coke pure en milligrammes Dis-moi c'est qui qui graille, qui fait des mimiques, braille Ca fait bili-bam-bam dili-drive-by T'es fou man, la vie n'est pas pour les faibles Tu veux faire un clash ? T'auras ma Tour Eiffel dans le trou d'balle Nous on charbonne, nous, comme Pac on l'ouvre Tu joues les hommes, désolé man t'es pas comme nous Qui dit faux qui dit vrai? J'porte un Levi's j'suis discret On oublie pas on est des fils d'immigrés Demande à Malik Bledoss C'était Salif on met le khaliss d'té-co pour la famille C'est quoi les bidi-bails, c'est quoi les bidi-bails Gunz poppin, hood boss c'est Alpha C'est quoi les bidi-bails, c'est quoi les bidi-bails Comera boyz Grigny gang, frère ne joue pas C'est quoi les bidi-bails, c'est quoi les bidi-bails Dans le neuf-trois, pharmacie c'est Alpha C'est quoi les bidi-bails, c'est quoi les bidi-bails Boulogne Boy, Hauts-De-Seine frère c'est gangsta International, LC woo négro, j'ai bien dit L Mais tu crois test qui ? Tu blesses qui ? l'équipe à Frantz qui peut ? Y'a la rue qu'a écrit notre blaze en bas d'son dos à côté d'la seuf Le rap Français on le rend frais, on lui à acheté des baskets neuves ouais Nan, cette fois-ci on fait pas d'cadeaux Tellement la dalle qu'a 15 piges on fait les braquages en vélo C'est la rue en V.O, M.O.G ah bon ! T.O.N.Y trop chaud International, LC woo négro, j'ai bien dit LC Mais tu crois test qui ? Tu blesses qui ? Toi-même tu sais qui c'est Pas l'intention d'se calmer Tire à balles réelles, sur les keufs, Grigny capitale des pavés C'est les bails de mecs porte-flingues et de 5.20 et d'LC Y'a fusil à pompe qui pompe sur la gov' de la B.A.C Criminel au ruelles de Dakar à Grigny gang star Les bleus tournent, la blanche tourne, le rouge ratatata woo woo Quand ça quand ça tire on aime, quand ça quand ça tire on reste Peu importe les problèmes qu'on s'a- qu'on s'attire Rien à foutre de tout, M.O shoot tout l'temps shoot, toi Bouffe de ma Comera, lyricale colère ah Dans ta ville tu me blesses, dans ma ville je te tue J'suis une racaille car pour racaille 4 l'instru je le tue M.O thug, croise moi à la peupleraie avenue Avenue de tess des négros qui t'la mettent dans l'cul C'est quoi les bidi-bails c'est quoi les bidi-bails Gunz poppin, hood boss c'est Alpha C'est quoi les bidi-bails c'est quoi les bidi-bails Comera boyz Grigny gang, frère ne joue pas C'est quoi les bidi-bails c'est quoi les bidi-bails Dans le neuf-trois, pharmacie c'est Alpha C'est quoi les bidi-bails c'est quoi les bidi-bails Boulogne Boy, Hauts-De-Seine frère c'est gangsta Illégal renoi Grigny family, GB Comera boyz Wut up wut up wut up Boulogne Boy, Lif-Sa, wassup négro ? Pharmacie, guns poppin' Alpha, représente Dakar, 9-3 La crasse du monde entier, frère frère</t>
+          <t>Ne venez pas chercher les négros les plus oufs Hey Ne venez pas chercher les négros les plus oufs Han Ne venez pas chercher les négros les plus oufs Ghetto Fab frère Ne venez pas chercher, ne venez pas chercher, ne venez pas chercher les négros les plus oufs J'ai le coeur d'un lion, la cause d'un noir Le bruit que t'entends vient du fond du couloir Nos cités et dortoirs sont juste des mouroirs Plans de illasse-ca, guet-apens et traquenards Ignorant le symbole l'état ne m'a pas nourri Arnaqueur et débrouillard ont forgé mon esprit Ton putain de Rmi je le fume en 1 heure En dessous de 1000 euros par jour pour moi c'est mineur Killa killa, nord de, nord de Dakar En haut de Sète sur les murs faut cramer tout ses bâtards Flingue sur mon abdomen, naturel phénomène Puisse dieu nous préserver négro tu diras Amen Le prophète des bicraveurs j'ai 4025 ans Et tout ce temps le crime m'attire frère tel un aimant Mais laisse moi frère dans mes pensées criminelles Quand j's'rais en bas boy me s'ra tu fidèle ? Et les gunz gunz c'est ça le sport à Islamic Dakar Nos ennemis morflent en douce regarde ils s'égarent J'ai pas de temps a perdre frère je suis un hustler Mon crack c'est comme mes Cds dans l'ghetto best seller Et les gunz gunz c'est ça le sport à Islamic Dakar Nos ennemis morflent en douce regarde ils s'égarent J'ai pas de temps a perdre frère je suis un hustler Mon crack c'est comme mes Cds dans l'ghetto best seller J'aime les femmes elles sont plus intelligentes que les hommes Portent la vie donc supportent la peine plus que personne Ma conscience se cramponne derrière des idées figées Principes et lois que l'ghetto a érigé J'ai vu des amitiés s'nouer puis s'défaire Des frères voir la vérité en face mais s'tairent Vivre un enfer pour avoir le paradis Et rime de gangster mais c'était qu'des parodies Je prie puis je parie avec de l'argent sale Maintenant j'tape les renois la où ça fait le plus mal Est ce ma faute si la rue m'a plébiscité Ils m'ont tué physiquement mais dieu m'a ressuscité Gravite tel un astre loin de tout désastre Renois viennent renois partent mais j'en ai rien a battre Alpha Escobar aka black César Posté à la fenêtre comme Malcom renois savent Et les gunz gunz c'est ça le sport à Islamic Dakar Nos ennemis morflent en douce regarde ils s'égarent J'ai pas de temps a perdre frère je suis un hustler Mon crack c'est comme mes Cds dans l'ghetto best seller Et les gunz gunz c'est ça le sport à Islamic Dakar Nos ennemis morflent en douce regarde ils s'égarent J'ai pas de temps a perdre frère je suis un hustler Mon crack c'est comme mes Cds dans l'ghetto best seller Hey toute ma vie est gangsta, gangsta Yarakh city gangta, gangsta Ghetto Fab gangsta, gangsta Wesh négro j'm'arrête la, j'm'arrête la Ne venez pas chercher les négros les plus oufs Ne venez pas chercher les négros les plus oufs Ne venez pas chercher les négros les plus oufs Ne venez pas chercher les négros les plus oufs</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Gunz Sport</t>
+          <t>Gunz Up</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Ne venez pas chercher les négros les plus oufs Hey Ne venez pas chercher les négros les plus oufs Han Ne venez pas chercher les négros les plus oufs Ghetto Fab frère Ne venez pas chercher, ne venez pas chercher, ne venez pas chercher les négros les plus oufs J'ai le coeur d'un lion, la cause d'un noir Le bruit que t'entends vient du fond du couloir Nos cités et dortoirs sont juste des mouroirs Plans de illasse-ca, guet-apens et traquenards Ignorant le symbole l'état ne m'a pas nourri Arnaqueur et débrouillard ont forgé mon esprit Ton putain de Rmi je le fume en 1 heure En dessous de 1000 euros par jour pour moi c'est mineur Killa killa, nord de, nord de Dakar En haut de Sète sur les murs faut cramer tout ses bâtards Flingue sur mon abdomen, naturel phénomène Puisse dieu nous préserver négro tu diras Amen Le prophète des bicraveurs j'ai 4025 ans Et tout ce temps le crime m'attire frère tel un aimant Mais laisse moi frère dans mes pensées criminelles Quand j's'rais en bas boy me s'ra tu fidèle ? Et les gunz gunz c'est ça le sport à Islamic Dakar Nos ennemis morflent en douce regarde ils s'égarent J'ai pas de temps a perdre frère je suis un hustler Mon crack c'est comme mes Cds dans l'ghetto best seller Et les gunz gunz c'est ça le sport à Islamic Dakar Nos ennemis morflent en douce regarde ils s'égarent J'ai pas de temps a perdre frère je suis un hustler Mon crack c'est comme mes Cds dans l'ghetto best seller J'aime les femmes elles sont plus intelligentes que les hommes Portent la vie donc supportent la peine plus que personne Ma conscience se cramponne derrière des idées figées Principes et lois que l'ghetto a érigé J'ai vu des amitiés s'nouer puis s'défaire Des frères voir la vérité en face mais s'tairent Vivre un enfer pour avoir le paradis Et rime de gangster mais c'était qu'des parodies Je prie puis je parie avec de l'argent sale Maintenant j'tape les renois la où ça fait le plus mal Est ce ma faute si la rue m'a plébiscité Ils m'ont tué physiquement mais dieu m'a ressuscité Gravite tel un astre loin de tout désastre Renois viennent renois partent mais j'en ai rien a battre Alpha Escobar aka black César Posté à la fenêtre comme Malcom renois savent Et les gunz gunz c'est ça le sport à Islamic Dakar Nos ennemis morflent en douce regarde ils s'égarent J'ai pas de temps a perdre frère je suis un hustler Mon crack c'est comme mes Cds dans l'ghetto best seller Et les gunz gunz c'est ça le sport à Islamic Dakar Nos ennemis morflent en douce regarde ils s'égarent J'ai pas de temps a perdre frère je suis un hustler Mon crack c'est comme mes Cds dans l'ghetto best seller Hey toute ma vie est gangsta, gangsta Yarakh city gangta, gangsta Ghetto Fab gangsta, gangsta Wesh négro j'm'arrête la, j'm'arrête la Ne venez pas chercher les négros les plus oufs Ne venez pas chercher les négros les plus oufs Ne venez pas chercher les négros les plus oufs Ne venez pas chercher les négros les plus oufs</t>
+          <t>Tous mes renois sont fiers Etendard Clichy Monterfermeil Etendard Murder murder Dakar Etendard Gunz up gunz up Tous mes renois sont fiers Etendard Clichy Monterfermeil Etendard Murder murder Dakar Etendard Gunz up gunz up Yo renois ont des flingues mais sont pas stupides Yo renois ont de la maille mais sont pas cupides Murder murder Dakar dirty 93 Nous on a de la maille, la police on baise Y'a embrouille tous les jours comme ... Tous mes renois sont fiers Etendard Clichy Monterfermeil Etendard Murder murder Dakar Etendard Gunz up gunz up Tous mes renois sont fiers Etendard Clichy Monterfermeil Etendard Murder murder Dakar Etendard Gunz up gunz up ...</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Gunz Up</t>
+          <t>Gz Up</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Tous mes renois sont fiers Etendard Clichy Monterfermeil Etendard Murder murder Dakar Etendard Gunz up gunz up Tous mes renois sont fiers Etendard Clichy Monterfermeil Etendard Murder murder Dakar Etendard Gunz up gunz up Yo renois ont des flingues mais sont pas stupides Yo renois ont de la maille mais sont pas cupides Murder murder Dakar dirty 93 Nous on a de la maille, la police on baise Y'a embrouille tous les jours comme ... Tous mes renois sont fiers Etendard Clichy Monterfermeil Etendard Murder murder Dakar Etendard Gunz up gunz up Tous mes renois sont fiers Etendard Clichy Monterfermeil Etendard Murder murder Dakar Etendard Gunz up gunz up ...</t>
+          <t>Mes Gz Up ! Ghetto Fab Gang Gz Up ! Ghetto Fab Gang Gz Up ! Ghetto Fab Gang Pour les mecs de Tess, pour les mecs des halls Aulnay-Sous-Bois, brûle enfoiré brûle Sevran Bedottes, brûle enfoiré brûle Clichy Montfermeil, brûle enfoiré brûle Bondy Nord, frère, brûle enfoiré brûle Te convertit pas à lIslam frère pour être comme nous Juste après la prière, on remet nos cagoules Des minuscules au golgoth on a lesprit en compote Au bord de la rupture frère, garde mes nerfs à vif Et les flingues quon porte automatique ou semi Et les meufs que j'préfère Sénégal ou Mali Elles me prennent pas la tête, je suis pas leur mari Puis ne haussent pas le ton, je suis pas leur ami Moi je marche tout seul dans la vallée d'la mort Boy sans avoir peur, mais je tremble encore Négro, jai un peu froid, normal Dakar, cest chaud Boy, récite la Fatiha puis jattaque le convoi Et j'dis repose en paix à Ziyed et Bouna Traoré family là-bas à Clichy-sous-Bois La volaille peut plus rire négro, nous on pleure pas Leur putain de Marseillaise, moi j'la chanterai pas Mes Gz Up ! Ghetto Fab Gang Gz Up ! Ghetto Fab Gang Gz Up ! Ghetto Fab Gang Pour les mecs de Tess, pour les mecs des halls Epinay-sur-Seine, brûle enfoiré brûle La Courneuve, frère, brûle enfoiré brûle Mantes-La et Murreaux, brûle enfoiré brûle Toute la Province, brûle enfoiré brûle J'suis d'la race inférieure négro, jai rien à perdre À lui seul mon grand-père, a niqué Hitler Toujours en ligne de front putain de chair à canon Et sans nous, la France aurait été sous les ponts Taurais parlé allemand, ton prénom serait Wolfgang Sauveteur de ta vie, Ghetto Fabulous Gang Puis demande au général quand il y eut '44 On ma pas encore payé la France nous doit une dette Celui qui touche à un juif, boy, il touche à la France Jette un noir dans la Seine Cest l'grand pardon Caricature du prophète, le monde brûle après Je suis pas Tony M. ce que je dis, cest vrai Et ils disent que les noirs ne savent faire que danser Puis ils cachent leurs femmes, on va pas les violer Boy, FN et Sarko maintenant me mènent la vie dure Moi, je tire ma dernière balle puis après ça je méclipse yeah ! Mes Gz Up ! Ghetto Fab Gang Gz Up ! Ghetto Fab Gang Gz Up ! Ghetto Fab Gang Pour les mecs de Tess, pour les mecs des halls Blankok Nord, brûle enfoiré brûle Val dOise, frère, brûle enfoiré brûle Seine et Marne, Boy, brûle enfoiré brûle 91 Essonne, brûle enfoiré brûle Notre musique nest pas faite pour les stups, pas faite pour les stups Hait par les juges hait par les juges Notre musique nest pas faite pour les stups, pas faite pour les stups Hait par les juges hait par les juges Ghetto Fabulous Gang Y a pas de justice y a pas de paix Et je prie tous les jours pour que la paix se propage dans nos quartiers frère Alpha 5.20 Boy Je suis pas un vendu moi jaime les miens boy La loi du plus fort vivre et mourir arh arh What up what up Ghetto fab ghetto fab Ghetto fab gang Ghetto fab ghetto fab ghe-ghe-ghe-ghetto fab Ghetto fab ghetto fab Ghetto fab gang Ghetto fab ghetto fab ghe-ghe-ghe-ghetto fab</t>
         </is>
       </c>
     </row>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Gz Up</t>
+          <t>Interlude 2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Mes Gz Up ! Ghetto Fab Gang Gz Up ! Ghetto Fab Gang Gz Up ! Ghetto Fab Gang Pour les mecs de Tess, pour les mecs des halls Aulnay-Sous-Bois, brûle enfoiré brûle Sevran Bedottes, brûle enfoiré brûle Clichy Montfermeil, brûle enfoiré brûle Bondy Nord, frère, brûle enfoiré brûle Te convertit pas à lIslam frère pour être comme nous Juste après la prière, on remet nos cagoules Des minuscules au golgoth on a lesprit en compote Au bord de la rupture frère, garde mes nerfs à vif Et les flingues quon porte automatique ou semi Et les meufs que j'préfère Sénégal ou Mali Elles me prennent pas la tête, je suis pas leur mari Puis ne haussent pas le ton, je suis pas leur ami Moi je marche tout seul dans la vallée d'la mort Boy sans avoir peur, mais je tremble encore Négro, jai un peu froid, normal Dakar, cest chaud Boy, récite la Fatiha puis jattaque le convoi Et j'dis repose en paix à Ziyed et Bouna Traoré family là-bas à Clichy-sous-Bois La volaille peut plus rire négro, nous on pleure pas Leur putain de Marseillaise, moi j'la chanterai pas Mes Gz Up ! Ghetto Fab Gang Gz Up ! Ghetto Fab Gang Gz Up ! Ghetto Fab Gang Pour les mecs de Tess, pour les mecs des halls Epinay-sur-Seine, brûle enfoiré brûle La Courneuve, frère, brûle enfoiré brûle Mantes-La et Murreaux, brûle enfoiré brûle Toute la Province, brûle enfoiré brûle J'suis d'la race inférieure négro, jai rien à perdre À lui seul mon grand-père, a niqué Hitler Toujours en ligne de front putain de chair à canon Et sans nous, la France aurait été sous les ponts Taurais parlé allemand, ton prénom serait Wolfgang Sauveteur de ta vie, Ghetto Fabulous Gang Puis demande au général quand il y eut '44 On ma pas encore payé la France nous doit une dette Celui qui touche à un juif, boy, il touche à la France Jette un noir dans la Seine Cest l'grand pardon Caricature du prophète, le monde brûle après Je suis pas Tony M. ce que je dis, cest vrai Et ils disent que les noirs ne savent faire que danser Puis ils cachent leurs femmes, on va pas les violer Boy, FN et Sarko maintenant me mènent la vie dure Moi, je tire ma dernière balle puis après ça je méclipse yeah ! Mes Gz Up ! Ghetto Fab Gang Gz Up ! Ghetto Fab Gang Gz Up ! Ghetto Fab Gang Pour les mecs de Tess, pour les mecs des halls Blankok Nord, brûle enfoiré brûle Val dOise, frère, brûle enfoiré brûle Seine et Marne, Boy, brûle enfoiré brûle 91 Essonne, brûle enfoiré brûle Notre musique nest pas faite pour les stups, pas faite pour les stups Hait par les juges hait par les juges Notre musique nest pas faite pour les stups, pas faite pour les stups Hait par les juges hait par les juges Ghetto Fabulous Gang Y a pas de justice y a pas de paix Et je prie tous les jours pour que la paix se propage dans nos quartiers frère Alpha 5.20 Boy Je suis pas un vendu moi jaime les miens boy La loi du plus fort vivre et mourir arh arh What up what up Ghetto fab ghetto fab Ghetto fab gang Ghetto fab ghetto fab ghe-ghe-ghe-ghetto fab Ghetto fab ghetto fab Ghetto fab gang Ghetto fab ghetto fab ghe-ghe-ghe-ghetto fab</t>
+          <t>OK mec c'est Alpha 5.20 a.k.a. le renoi le plus vrai d'la Cinquième République Française mon pote t'as vu Là ça c'est l'album mon frère, c'est ma peine c'est ma souffrance mon pote t'as vu Vivre et motherfucking mourir à Dakar mon pote t'as vu La loi du plus fort khay t'entends? Tu vois? Nous on représente mon frère la France des quartiers, la France du Tiers-Monde pas la France d'en bas, on s'en bat les couille mon frère Ca c'est des cultivateurs, ds viticulteurs mon frère on s'en bat ls reins mon frère Nous on est la France des quartiers, la France du Tiers-Monde, la France d'Afrique mon frère T'entends? Les bicraveurs, les voleurs, les dealers, les étudiants mon frère qui ont des diplômes mais qui n'ont jamais d'taff mon frère c'est ça c'qu'on représente mon frère Contre le motherfucking pouvoir du Chicken Little a.k.a. Nicolas Sarkozy mon frère On s'en bat les couilles de toi mon pote Ce p'tit pédé là il sort des lois sur les rappeurs, des lois sur les bicraveurs, des lois sur les tass-pé mon frère, des lois sur des sans-papiers Puis il va à la télé là-bas mon frère pleurer, genre sa meuf elle l'a trompé mon pote Tu peux même pas gérer ta meuf, comment tu peux gérer la tess mon pote? J'appelle toute la jeunesse mon frère, tous c'qui ont leur carte mon frère à aller voter mon frère Pour lui barrer la route mon frère tu vois J'sais bien qu'ils sont tous pourris, je l's... Je l'sais très bien mon frère Mais faut voter mon frère, pour l'moins pourri mon frère Faut pas qu'Sarko il passe mon frère Personne ne l'aime ici mon frère. Fuck Sarko. Fuck Jean-Marie Le Pen et sa fille Marine mon frère. Baise sa race à Philippe de Villiers. Et nique sa mère à tous les Boulogne Boys mon frère Walaye un jour tous les renois et tous les rebeus faut qu'ils se regroupent mon frère. Ils partent là-bas au Parc des Princes mon frère niquer leurs mères à ces Boulogne Boys là mon pote t'as vu? Et paix à toutes nos surs mon frère, qui s'marrient avec des blédards pour leurs donner des papiers Même si c'est pour l'argent mon frère c'est pas grave, même si t'as pas d'amour pour le blédard Tu peux l'aider pour avoir ses papiers mon frère, aide-le mon frère C'est pour c'la qu'on est là t'as vu Ghetto Fabulous Gang, on est venus tacler Florent Pagny, Johnny Hallyday, Mylène Farmer mon frère Tout ça sur la motherfucking Top-IFOP On est déjà au Top-IFOP des puces tous les jours Maintenant on va baiser le Top-IFOP mon frère Faire cette putain d'maille mon frère Ghetto Fab' Building, Ghetto fab' Coca-Cola, Ghetto Fab' Industry, Ghetto Fab' Bourse mon frère T'as vu Raricim O'Rosko il arrive, Holocost il arrive mon frère, 93 Etendard il arrive mon frère, et mon prochain DVD il arrive mon frère Wrup wrup wrup Allah</t>
         </is>
       </c>
     </row>
@@ -1665,14 +1665,10 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Interlude 2</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>OK mec c'est Alpha 5.20 a.k.a. le renoi le plus vrai d'la Cinquième République Française mon pote t'as vu Là ça c'est l'album mon frère, c'est ma peine c'est ma souffrance mon pote t'as vu Vivre et motherfucking mourir à Dakar mon pote t'as vu La loi du plus fort khay t'entends? Tu vois? Nous on représente mon frère la France des quartiers, la France du Tiers-Monde pas la France d'en bas, on s'en bat les couille mon frère Ca c'est des cultivateurs, ds viticulteurs mon frère on s'en bat ls reins mon frère Nous on est la France des quartiers, la France du Tiers-Monde, la France d'Afrique mon frère T'entends? Les bicraveurs, les voleurs, les dealers, les étudiants mon frère qui ont des diplômes mais qui n'ont jamais d'taff mon frère c'est ça c'qu'on représente mon frère Contre le motherfucking pouvoir du Chicken Little a.k.a. Nicolas Sarkozy mon frère On s'en bat les couilles de toi mon pote Ce p'tit pédé là il sort des lois sur les rappeurs, des lois sur les bicraveurs, des lois sur les tass-pé mon frère, des lois sur des sans-papiers Puis il va à la télé là-bas mon frère pleurer, genre sa meuf elle l'a trompé mon pote Tu peux même pas gérer ta meuf, comment tu peux gérer la tess mon pote? J'appelle toute la jeunesse mon frère, tous c'qui ont leur carte mon frère à aller voter mon frère Pour lui barrer la route mon frère tu vois J'sais bien qu'ils sont tous pourris, je l's... Je l'sais très bien mon frère Mais faut voter mon frère, pour l'moins pourri mon frère Faut pas qu'Sarko il passe mon frère Personne ne l'aime ici mon frère. Fuck Sarko. Fuck Jean-Marie Le Pen et sa fille Marine mon frère. Baise sa race à Philippe de Villiers. Et nique sa mère à tous les Boulogne Boys mon frère Walaye un jour tous les renois et tous les rebeus faut qu'ils se regroupent mon frère. Ils partent là-bas au Parc des Princes mon frère niquer leurs mères à ces Boulogne Boys là mon pote t'as vu? Et paix à toutes nos surs mon frère, qui s'marrient avec des blédards pour leurs donner des papiers Même si c'est pour l'argent mon frère c'est pas grave, même si t'as pas d'amour pour le blédard Tu peux l'aider pour avoir ses papiers mon frère, aide-le mon frère C'est pour c'la qu'on est là t'as vu Ghetto Fabulous Gang, on est venus tacler Florent Pagny, Johnny Hallyday, Mylène Farmer mon frère Tout ça sur la motherfucking Top-IFOP On est déjà au Top-IFOP des puces tous les jours Maintenant on va baiser le Top-IFOP mon frère Faire cette putain d'maille mon frère Ghetto Fab' Building, Ghetto fab' Coca-Cola, Ghetto Fab' Industry, Ghetto Fab' Bourse mon frère T'as vu Raricim O'Rosko il arrive, Holocost il arrive mon frère, 93 Etendard il arrive mon frère, et mon prochain DVD il arrive mon frère Wrup wrup wrup Allah</t>
-        </is>
-      </c>
+          <t>Intro</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1682,10 +1678,14 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Intro</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
+          <t>J’encaisse cette putain de vie</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Qu'est ce qu'il y a ? C'est Shone d'Holocost quoi tu me connais pas ? C'est le mec qui parle mal ... Enfin il sait mais si peu d'espèces ... Il méprise le FISC ... Nos bigos sonnent derrière leurs barbelés ... Sale chien j'ai trop pissé dans la chicha ... Okay l'État nous prend frère et nous marginalise ... C'est dans ça qu'on évolue ouais comme les drogues ... Eh ma vie entière est un défaut ... 93 rue de l'émeute les keufs savent où j'habite ... Tu comprends ça ? Rabzas renois se vatent-sa ... ... J'encaisse cette putain de vie par un joint épaulé Mes frères s'accrochent au RMI ça donne de quoi picoler J'ai trop besoin d'un yébi la mif est grave paumée Les yeux foncedés en bas du bloc je regarde ...</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1695,12 +1695,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>J’encaisse cette putain de vie</t>
+          <t>Je veux m’en sortir</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Qu'est ce qu'il y a ? C'est Shone d'Holocost quoi tu me connais pas ? C'est le mec qui parle mal ... Enfin il sait mais si peu d'espèces ... Il méprise le FISC ... Nos bigos sonnent derrière leurs barbelés ... Sale chien j'ai trop pissé dans la chicha ... Okay l'État nous prend frère et nous marginalise ... C'est dans ça qu'on évolue ouais comme les drogues ... Eh ma vie entière est un défaut ... 93 rue de l'émeute les keufs savent où j'habite ... Tu comprends ça ? Rabzas renois se vatent-sa ... ... J'encaisse cette putain de vie par un joint épaulé Mes frères s'accrochent au RMI ça donne de quoi picoler J'ai trop besoin d'un yébi la mif est grave paumée Les yeux foncedés en bas du bloc je regarde ...</t>
+          <t>J'vais même pas te dire que la vie est une chienne J'l'ai niquée partout mais au fond moi je l'aime J'ai vendu toutes sortes de drogues, porté tous genres de flingues J'suis une caille négro mais je veux m'en sortir ! J'vais même pas te dire que la vie est une chienne J'l'ai niquée partout mais au fond moi je l'aime J'ai vendu toutes sortes de drogus, porté tous genres de flingus J'suis une caille renoi mais je veux m'en sortir ! Je cherche à respirer avant d'expirer Le ghetto c'est chez moi mais je te le dis franchement je vais me tirer J'ai pas que ça à foutre, j'ai été créé pour fourrer Le paradis m'attend car ici l'enfer m'a saoulé Complètement fauché, je m'exprime façon fâché Je paye en billets froissés à force de trop les toucher J'aime trop le pognon, c'est vital comme les poumons J'serais en train de dépouiller si j'avais pas le pilon RMI et quette-quette pour payer les factures J'suis victime de racket, on m'enferme comme ... Sincèrement, j'suis pas ici pour charmer Devant vous je prête serment que j'mens pas sur ... j'suis l'ennemi des servants J'vais même pas te dire que la vie est une chienne J'l'ai niquée partout mais au fond moi je l'aime J'ai vendu toutes sortes de drogues, porté tous genres de flingues J'suis une caille négro mais je veux m'en sortir ! J'vais même pas te dire que la vie est une chienne J'l'ai niquée partout mais au fond moi je l'aime J'ai vendu toutes sortes de drogues, porté tous genres de flingues J'suis une caille renoi mais je veux m'en sortir ! Whoop whoop négro c'est le son de la police Alertez les guetteurs fermez le four ça urge J'vends du rap tous les jours et le crack de temps en temps Boy ils savent tous les jours la bicrave est dans mon sang J'ai la peau trop chère, moi j'suis un caïman Et c'est dur de résister aux tentations de l'argent Sur l'autoroute de l'illicite j'ai tracé mon couloir L'Etat veut m'effacer, j'suis une marée noire Entouré de rapaces ici c'est chacun pour soi Tu vas pleurer tout seul mais tu peux rire avec moi Man depuis le début frère l'amour y'en a pas C'est pour cela que les sentiments je les cache ici bas Marche ou crève mon pote c'est la devise des gangsters Car y'aura jamais de paix dans la rue sans guerre Marche ou crève mon pote c'est la devise des gangsters Y'aura jamais de paix dans la rue sans guerre J'vais même pas te dire que la vie est une chienne J'l'ai niquée partout mais au fond moi je l'aime J'ai vendu toutes sortes de drogues, porté tous genres de flingues J'suis une caille négro mais je veux m'en sortir ! J'vais même pas te dire que la vie est une chienne J'l'ai niquée partout mais au fond moi je l'aime J'ai vendu toutes sortes de drogues, porté tous genres de flingues J'suis une caille renoi mais je veux m'en sortir ! J'ai pas à me justifier, mon chemin j'ai tissé Ok mon temps j'ai tisé mais je me suis pas activé Comme ces ploucs d'MC's qu'on peut pas identifier Tous se sont glissés dans ce biz' pour s'empiffrer Je veux le pouvoir et je veux le garder comme Castro J'suis pas dans ce délire où je fais des tubes en parlant de gastro ...</t>
         </is>
       </c>
     </row>
@@ -1712,12 +1712,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Je veux m’en sortir</t>
+          <t>Je voudrai pas de leur pitié</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>J'vais même pas te dire que la vie est une chienne J'l'ai niquée partout mais au fond moi je l'aime J'ai vendu toutes sortes de drogues, porté tous genres de flingues J'suis une caille négro mais je veux m'en sortir ! J'vais même pas te dire que la vie est une chienne J'l'ai niquée partout mais au fond moi je l'aime J'ai vendu toutes sortes de drogus, porté tous genres de flingus J'suis une caille renoi mais je veux m'en sortir ! Je cherche à respirer avant d'expirer Le ghetto c'est chez moi mais je te le dis franchement je vais me tirer J'ai pas que ça à foutre, j'ai été créé pour fourrer Le paradis m'attend car ici l'enfer m'a saoulé Complètement fauché, je m'exprime façon fâché Je paye en billets froissés à force de trop les toucher J'aime trop le pognon, c'est vital comme les poumons J'serais en train de dépouiller si j'avais pas le pilon RMI et quette-quette pour payer les factures J'suis victime de racket, on m'enferme comme ... Sincèrement, j'suis pas ici pour charmer Devant vous je prête serment que j'mens pas sur ... j'suis l'ennemi des servants J'vais même pas te dire que la vie est une chienne J'l'ai niquée partout mais au fond moi je l'aime J'ai vendu toutes sortes de drogues, porté tous genres de flingues J'suis une caille négro mais je veux m'en sortir ! J'vais même pas te dire que la vie est une chienne J'l'ai niquée partout mais au fond moi je l'aime J'ai vendu toutes sortes de drogues, porté tous genres de flingues J'suis une caille renoi mais je veux m'en sortir ! Whoop whoop négro c'est le son de la police Alertez les guetteurs fermez le four ça urge J'vends du rap tous les jours et le crack de temps en temps Boy ils savent tous les jours la bicrave est dans mon sang J'ai la peau trop chère, moi j'suis un caïman Et c'est dur de résister aux tentations de l'argent Sur l'autoroute de l'illicite j'ai tracé mon couloir L'Etat veut m'effacer, j'suis une marée noire Entouré de rapaces ici c'est chacun pour soi Tu vas pleurer tout seul mais tu peux rire avec moi Man depuis le début frère l'amour y'en a pas C'est pour cela que les sentiments je les cache ici bas Marche ou crève mon pote c'est la devise des gangsters Car y'aura jamais de paix dans la rue sans guerre Marche ou crève mon pote c'est la devise des gangsters Y'aura jamais de paix dans la rue sans guerre J'vais même pas te dire que la vie est une chienne J'l'ai niquée partout mais au fond moi je l'aime J'ai vendu toutes sortes de drogues, porté tous genres de flingues J'suis une caille négro mais je veux m'en sortir ! J'vais même pas te dire que la vie est une chienne J'l'ai niquée partout mais au fond moi je l'aime J'ai vendu toutes sortes de drogues, porté tous genres de flingues J'suis une caille renoi mais je veux m'en sortir ! J'ai pas à me justifier, mon chemin j'ai tissé Ok mon temps j'ai tisé mais je me suis pas activé Comme ces ploucs d'MC's qu'on peut pas identifier Tous se sont glissés dans ce biz' pour s'empiffrer Je veux le pouvoir et je veux le garder comme Castro J'suis pas dans ce délire où je fais des tubes en parlant de gastro ...</t>
+          <t>Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's ... Tout ce que je veux savoir négro c'est où sont les G's ? Tout c que je veux savoir négro c'st où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's ... Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's</t>
         </is>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Je voudrai pas de leur pitié</t>
+          <t>J’voudrais pas de leur pitié</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1746,12 +1746,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>J’voudrais pas de leur pitié</t>
+          <t>Kaïra-Kaïra</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's ... Tout ce que je veux savoir négro c'est où sont les G's ? Tout c que je veux savoir négro c'st où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's ... Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? Tout ce que je veux savoir négro c'est où sont les G's ? African G's, African G's</t>
+          <t>Soir ce je kicke sur l'album de Seth Bête de scène big big big bonne recette Wesh les mecs faut arrêter de sucer les U.S De porter du XXL ou tailler du S Représente l'espèce mec de tess Pris par la poisse sans pour autant penser que Dieu les déteste 9.4 MC c'est comme ça que l'on me nomme Hardcore comme ton fils qui t'annonce qu'il aime un homme T'as vendu quelques grammes de cocaïne Bah c'est pas chez moi que tu passeras pour un gros caïd Caillera mais sous les casquettes dans le rap y'a trop de tapettes De grandes gueules qui ont vite fini victimes de racket Ah c'est le vent qui parle tu l'as ressenti Gentil mais pas le temps de faire acte de plaisanterie Anti porcs braque ces fils de chien Pour mon groupe de taulards cailles rappeurs d'instinct Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères Rien ne peut m'arrêter à part la chaude pisse Ma vie ne tient qu'à un fil comme un parachutiste Caillera caillera rien ne m'arrêtera à part un supplice Ça fait 3 semaines qu'on piste une recette à Saint Sulpice On enchaîne les délits de fuite et ainsi de suite Dans mes yeux c'est mai 1.9.6.8 Depuis que j'ai baisé le rap tu files vite On aime les cartes bancaires qui font ... Caillera caillera on met du cavier dans le mafé et le couscous On fait du rap Ernesto ... Gangster en boubou des pochons dans le survet coton Wesh Le Pen surveille ton nez de cochon Depuis que nous sommes nés on croque ap J'aurais du appeler mon album Néochrome 4 Ça fait ZBLEX ça vient de Saint Ouen l'Aumône parc wesh C'est le son des grosses cojones ... Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères Caillera caillera j'ai le mot discret comme alias Tellement sous marin que tu sauras jamais d'où sort ma liasse Je tente pas le tout pour le rien cousin Ne crois surtout pas que si tu m'enlèves le rap je deviens un vaurien Devant le bloc poto ce qui fait un homme c'est pas la pipe sur les photos ... C'est qui les feuchés ? Les arracheurs de neuchés qui font la veuch et les faux queuchés Qui ont des kilogrammes de coke ... Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères</t>
         </is>
       </c>
     </row>
@@ -1763,12 +1763,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Kaïra-Kaïra</t>
+          <t>Kampuchea Warrior</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Soir ce je kicke sur l'album de Seth Bête de scène big big big bonne recette Wesh les mecs faut arrêter de sucer les U.S De porter du XXL ou tailler du S Représente l'espèce mec de tess Pris par la poisse sans pour autant penser que Dieu les déteste 9.4 MC c'est comme ça que l'on me nomme Hardcore comme ton fils qui t'annonce qu'il aime un homme T'as vendu quelques grammes de cocaïne Bah c'est pas chez moi que tu passeras pour un gros caïd Caillera mais sous les casquettes dans le rap y'a trop de tapettes De grandes gueules qui ont vite fini victimes de racket Ah c'est le vent qui parle tu l'as ressenti Gentil mais pas le temps de faire acte de plaisanterie Anti porcs braque ces fils de chien Pour mon groupe de taulards cailles rappeurs d'instinct Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères Rien ne peut m'arrêter à part la chaude pisse Ma vie ne tient qu'à un fil comme un parachutiste Caillera caillera rien ne m'arrêtera à part un supplice Ça fait 3 semaines qu'on piste une recette à Saint Sulpice On enchaîne les délits de fuite et ainsi de suite Dans mes yeux c'est mai 1.9.6.8 Depuis que j'ai baisé le rap tu files vite On aime les cartes bancaires qui font ... Caillera caillera on met du cavier dans le mafé et le couscous On fait du rap Ernesto ... Gangster en boubou des pochons dans le survet coton Wesh Le Pen surveille ton nez de cochon Depuis que nous sommes nés on croque ap J'aurais du appeler mon album Néochrome 4 Ça fait ZBLEX ça vient de Saint Ouen l'Aumône parc wesh C'est le son des grosses cojones ... Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères Caillera caillera j'ai le mot discret comme alias Tellement sous marin que tu sauras jamais d'où sort ma liasse Je tente pas le tout pour le rien cousin Ne crois surtout pas que si tu m'enlèves le rap je deviens un vaurien Devant le bloc poto ce qui fait un homme c'est pas la pipe sur les photos ... C'est qui les feuchés ? Les arracheurs de neuchés qui font la veuch et les faux queuchés Qui ont des kilogrammes de coke ... Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères</t>
+          <t>Si ça marche pour nous c'est qu'on a bien communiqué Le train de vie la zèremi qu'on ne cesse de revendiquer Positif négatif tant qu'y'a le biff, des préservatifs Pour se préserver de ce monde qui pense qu'à forniquer Si ça marche pour nous c'est qu'on a bien communiqué Le train de vie la zèremi qu'on ne cesse de revendiquer Positif négatif tant qu'y'a le biff, des présrvatifs Pour se préserver d ce monde qui pense qu'à forniquer C'est pour mes boys boys comme ... Si ça marche pour nous c'est qu'on a bien communiqué Le train de vie la zèremi qu'on ne cesse de revendiquer Positif négatif tant qu'y'a le biff, des préservatifs Pour se préserver de ce monde qui pense qu'à forniquer Si ça marche pour nous c'est qu'on a bien communiqué Le train de vie la zèremi qu'on ne cesse de revendiquer Positif négatif tant qu'y'a le biff, des préservatifs Pour se préserver de ce monde qui pense qu'à forniquer</t>
         </is>
       </c>
     </row>
@@ -1780,12 +1780,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Kampuchea Warrior</t>
+          <t>Kill kill kill</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Si ça marche pour nous c'est qu'on a bien communiqué Le train de vie la zèremi qu'on ne cesse de revendiquer Positif négatif tant qu'y'a le biff, des préservatifs Pour se préserver de ce monde qui pense qu'à forniquer Si ça marche pour nous c'est qu'on a bien communiqué Le train de vie la zèremi qu'on ne cesse de revendiquer Positif négatif tant qu'y'a le biff, des présrvatifs Pour se préserver d ce monde qui pense qu'à forniquer C'est pour mes boys boys comme ... Si ça marche pour nous c'est qu'on a bien communiqué Le train de vie la zèremi qu'on ne cesse de revendiquer Positif négatif tant qu'y'a le biff, des préservatifs Pour se préserver de ce monde qui pense qu'à forniquer Si ça marche pour nous c'est qu'on a bien communiqué Le train de vie la zèremi qu'on ne cesse de revendiquer Positif négatif tant qu'y'a le biff, des préservatifs Pour se préserver de ce monde qui pense qu'à forniquer</t>
+          <t>Ecoute bien Holocost part du principe de pas se projeter Combien sont partis pour tout niquer ? Se sont retrouvés dans une rue froc baissé veste retournée Et entre vie et mort, trop de décès pour t'assassiner Shone et KER carrément ça gueule 5.20 O'Rosko carrément ça kille Shone et KER carrément ça gueule 5.20 O'Rosko carrément ça kille On saigne tous les mêmes veines, rappe tous la même haine Négro check mon passeport tu vois qu'on a les mêmes peines ... là bas au Burkina Faso ... À part le Tout Puissant pour nous personne d'autre n'est patron Algérie ses combattants et Bamako ses soldats Tous mes hommes connectés Dakar jusqu'à Gwada ... Tous les mans Burkina frère c'est kill kill kill Tiers monde Cambodge frère c'est kill kill kill Et viens à Dakar renoi c'est kill kill kill Afrique et Gwada renoi c'est kill kill kill Tous les mans Burkina frère c'est kill kill kill Tiers monde Cambodge frère c'est kill kill kill Et viens à Dakar renoi c'est kill kill kill Afrique et Gwada renoi c'est kill kill kill Tu veux mettre la pilule à qui ? Aux sales gosses ... ... Tous les mans Burkina frère c'est kill kill kill Tiers monde Cambodge frère c'est kill kill kill Et viens à Dakar renoi c'est kill kill kill Afrique et Gwada renoi c'est kill kill kill Tous les mans Burkina frère c'est kill kill kill Tiers monde Cambodge frère c'est kill kill kill Et viens à Dakar renoi c'est kill kill kill Afrique et Gwada renoi c'est kill kill kill</t>
         </is>
       </c>
     </row>
@@ -1797,12 +1797,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Kill kill kill</t>
+          <t>La bicrave est dans ma tête</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Ecoute bien Holocost part du principe de pas se projeter Combien sont partis pour tout niquer ? Se sont retrouvés dans une rue froc baissé veste retournée Et entre vie et mort, trop de décès pour t'assassiner Shone et KER carrément ça gueule 5.20 O'Rosko carrément ça kille Shone et KER carrément ça gueule 5.20 O'Rosko carrément ça kille On saigne tous les mêmes veines, rappe tous la même haine Négro check mon passeport tu vois qu'on a les mêmes peines ... là bas au Burkina Faso ... À part le Tout Puissant pour nous personne d'autre n'est patron Algérie ses combattants et Bamako ses soldats Tous mes hommes connectés Dakar jusqu'à Gwada ... Tous les mans Burkina frère c'est kill kill kill Tiers monde Cambodge frère c'est kill kill kill Et viens à Dakar renoi c'est kill kill kill Afrique et Gwada renoi c'est kill kill kill Tous les mans Burkina frère c'est kill kill kill Tiers monde Cambodge frère c'est kill kill kill Et viens à Dakar renoi c'est kill kill kill Afrique et Gwada renoi c'est kill kill kill Tu veux mettre la pilule à qui ? Aux sales gosses ... ... Tous les mans Burkina frère c'est kill kill kill Tiers monde Cambodge frère c'est kill kill kill Et viens à Dakar renoi c'est kill kill kill Afrique et Gwada renoi c'est kill kill kill Tous les mans Burkina frère c'est kill kill kill Tiers monde Cambodge frère c'est kill kill kill Et viens à Dakar renoi c'est kill kill kill Afrique et Gwada renoi c'est kill kill kill</t>
+          <t>Hé, hé, hein Ok, ok Hein Dans ma tête... Fait pas en sorte que je parle mal devant ta mère Vas-y je vais le faire alors va niquer ta mère Dakar sors le Gomm Cogne, handicape les videurs Défourailles en boîte puis jméclipse avec les tireurs On a des fusils à pompes, négro mate le teaser Plus envie de vivre, frère, il mreste que dla fureur Jferais en sorte que ma ville soit phénoménal Brille comme le soleil, ne brasse que dloseille, frère Devant la Banque Populaire, lexécution est sommaire Naturellement bouillant car chez nous ya pas lhiver On aime les flingues et les kr-kr qui vont avec Laisse pas traîner ta sur sinon tassume les conséquences Puis oublie les embrouilles quand les ghettos balivernent Si les négros parlent mal, cest quau fond ils nous craignent Jeune négro millionnaire au crane bousillé La haine est un grenade que jai déjà dégoupillé, frère La bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête Tous les jours, frère la bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête La bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête Tous les jours, frère la bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête Les colombiens sont de retour, la qualité irréprochable Coupé à l'ammoniac, au laxatif ou du lait en poudre Fuck leurs imitations de tess, nous on roule à 300 Si tu pécho à Cli-Cli, n'oublie pas ton canon à poudre Le O.9, crack musique fais clignoter les piranhas Pose ton cul sur la banquette, on temmène au nirvana Ghetto Fab' ton cauchemar, cache bien ton tos-ma On baise la route de la chance, au fond te met des tos-ba Les braises du four sont volcaniques, la marmite pond des cristaux Ils sont où les junkies ? On va en faire des fistons Ces petits pédés font les chauds mais se font dépucelés par des trav' Vas-y trace-la, crase le blédard est d'la sale race Cogne dur comme le tigre , t'approches pas d'la surface Les macaques sont défoncés, font du bruit dans la jungle Les gros pleurent, la pluie tombe, les héros meurent, les chauds succombent C'est ma vague de mélancolie pour tout mes qui succombent La bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête Tous les jours, frère la bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête La bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête Tous les jours, frère la bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête J'veux d'l'oseille, khey, la bicrave est dans ma tête L'oseille essaye de le sortir de là khey, c'est pas la peine Je ne dors pas, je ne pense qu'à faire du billet Mes proches le savent ça, petite mon temps n'est à gaspiller Simple est le choix, je préfère fourrer ma queue dans une sse-lia M'éloigner à cent lieux pour détailler non, négro ça c'est rien Sérial bicraveur, on bi-bi-bi tout soeur Passe au stand, je te mets à l'heure, onze heures, tu pris devant le videur La bicrave est dans ma tête, j'ai besoin de biff, sur Enfin j'ai lascenseur, retiens juste ta respi', v'là l'odeur Avant la bicrave, je n'avais pas de couleur préférées À présent j'en ai trois c'est le vert, jaune et le violet Couleur des billets, la pauvreté au quartier tout l'été Me demande pas où j'étais, j'suis resté gratter un billet La bicrave est dans ma tête tous les jours, frère Sa mère, elle ne profites qu'à mes problèmes judiciaires Gear La bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête Tous les jours, frère la bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête La bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête Tous les jours, frère la bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête1</t>
         </is>
       </c>
     </row>
@@ -1814,12 +1814,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>La bicrave est dans ma tête</t>
+          <t>La duchesse de Boulogne</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Hé, hé, hein Ok, ok Hein Dans ma tête... Fait pas en sorte que je parle mal devant ta mère Vas-y je vais le faire alors va niquer ta mère Dakar sors le Gomm Cogne, handicape les videurs Défourailles en boîte puis jméclipse avec les tireurs On a des fusils à pompes, négro mate le teaser Plus envie de vivre, frère, il mreste que dla fureur Jferais en sorte que ma ville soit phénoménal Brille comme le soleil, ne brasse que dloseille, frère Devant la Banque Populaire, lexécution est sommaire Naturellement bouillant car chez nous ya pas lhiver On aime les flingues et les kr-kr qui vont avec Laisse pas traîner ta sur sinon tassume les conséquences Puis oublie les embrouilles quand les ghettos balivernent Si les négros parlent mal, cest quau fond ils nous craignent Jeune négro millionnaire au crane bousillé La haine est un grenade que jai déjà dégoupillé, frère La bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête Tous les jours, frère la bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête La bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête Tous les jours, frère la bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête Les colombiens sont de retour, la qualité irréprochable Coupé à l'ammoniac, au laxatif ou du lait en poudre Fuck leurs imitations de tess, nous on roule à 300 Si tu pécho à Cli-Cli, n'oublie pas ton canon à poudre Le O.9, crack musique fais clignoter les piranhas Pose ton cul sur la banquette, on temmène au nirvana Ghetto Fab' ton cauchemar, cache bien ton tos-ma On baise la route de la chance, au fond te met des tos-ba Les braises du four sont volcaniques, la marmite pond des cristaux Ils sont où les junkies ? On va en faire des fistons Ces petits pédés font les chauds mais se font dépucelés par des trav' Vas-y trace-la, crase le blédard est d'la sale race Cogne dur comme le tigre , t'approches pas d'la surface Les macaques sont défoncés, font du bruit dans la jungle Les gros pleurent, la pluie tombe, les héros meurent, les chauds succombent C'est ma vague de mélancolie pour tout mes qui succombent La bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête Tous les jours, frère la bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête La bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête Tous les jours, frère la bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête J'veux d'l'oseille, khey, la bicrave est dans ma tête L'oseille essaye de le sortir de là khey, c'est pas la peine Je ne dors pas, je ne pense qu'à faire du billet Mes proches le savent ça, petite mon temps n'est à gaspiller Simple est le choix, je préfère fourrer ma queue dans une sse-lia M'éloigner à cent lieux pour détailler non, négro ça c'est rien Sérial bicraveur, on bi-bi-bi tout soeur Passe au stand, je te mets à l'heure, onze heures, tu pris devant le videur La bicrave est dans ma tête, j'ai besoin de biff, sur Enfin j'ai lascenseur, retiens juste ta respi', v'là l'odeur Avant la bicrave, je n'avais pas de couleur préférées À présent j'en ai trois c'est le vert, jaune et le violet Couleur des billets, la pauvreté au quartier tout l'été Me demande pas où j'étais, j'suis resté gratter un billet La bicrave est dans ma tête tous les jours, frère Sa mère, elle ne profites qu'à mes problèmes judiciaires Gear La bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête Tous les jours, frère la bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête La bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête Tous les jours, frère la bicrave est dans ma tête La la bicrave, la bicrave est dans ma tête1</t>
+          <t>Négro ne soit pas ridicule fait pas comme l'Ourson Puis demande à LIM Alpha pisse du balcon Rempli ton verre d'urine tu peux en boire petite salope Casting Laurent Bouneau et maintenant tu galope Oké, ké ké tu veux la guerre avec moi ? Rapper avec Tandem... Mais ici on n'kiffe pas Kill Bill Mesrine frère, Les Puces jamais ne sucent Remplissent la Fnac et sa sur Virgin Maintenant applaudissez le météore et Sarko Moi j'le baise dans Rakailles faites péter la sono Leur logo sur mon auto leur slip dans mon coffre Séquestration dans la cave jusquà qu'il paye la rançon N'appelle pas la PJ boy, viens à Clicli Alpha est gangster comme feu Eazy E Pas besoin de gamos pour serrer des pétasses J'peux aimer 3 femmes moi j'suis un polygame Ouais Dakar baise les fous ça cache le comble du Pantheon Ouest Side c'est nous jamais on baisse le pantalon Seine Saint Denis criminal avec des haches à l'Autopsie 93 tu peux pas teste même la ville de Raincy Ces p'tits pédés parlent mal qui nous traitent de clochards Ghetto Fab avant l'rap avait déjà du gen-ar Negros jouent les gangsters mais se font caillasser Avec des ufs pourris au milieu de leur cité Boy ramasse la savonnette lubrifiant dans ma poche O'Rosko ouvre la boite à gants passe moi les capotes Et des pire rimes et gloire moi je marche sur des cadavres Fait 14 de millions avec boss de Panam Boy évite le Mauvais Oeil puis je marque le Temps Mort Fuck fuck fuck Booba Aka le Météore J'commence pas la guerre j'la fini négro Que ça soit avec les flingues ou avec le micro Quand les tirs retentissent et les cieux deviennent gris Miséricorde du seigneur il est temps que tu pries ! J'commence pas la guerre j'la fini négro Que ça soit avec les flingues ou avec le micro Quand les tirs retentissent et les cieux deviennent gris Miséricorde du seigneur il est temps que tu pries ! Booba ! La duchesse de Boulogne1</t>
         </is>
       </c>
     </row>
@@ -1831,12 +1831,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>La duchesse de Boulogne</t>
+          <t>Laisse mon flingue parler</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Négro ne soit pas ridicule fait pas comme l'Ourson Puis demande à LIM Alpha pisse du balcon Rempli ton verre d'urine tu peux en boire petite salope Casting Laurent Bouneau et maintenant tu galope Oké, ké ké tu veux la guerre avec moi ? Rapper avec Tandem... Mais ici on n'kiffe pas Kill Bill Mesrine frère, Les Puces jamais ne sucent Remplissent la Fnac et sa sur Virgin Maintenant applaudissez le météore et Sarko Moi j'le baise dans Rakailles faites péter la sono Leur logo sur mon auto leur slip dans mon coffre Séquestration dans la cave jusquà qu'il paye la rançon N'appelle pas la PJ boy, viens à Clicli Alpha est gangster comme feu Eazy E Pas besoin de gamos pour serrer des pétasses J'peux aimer 3 femmes moi j'suis un polygame Ouais Dakar baise les fous ça cache le comble du Pantheon Ouest Side c'est nous jamais on baisse le pantalon Seine Saint Denis criminal avec des haches à l'Autopsie 93 tu peux pas teste même la ville de Raincy Ces p'tits pédés parlent mal qui nous traitent de clochards Ghetto Fab avant l'rap avait déjà du gen-ar Negros jouent les gangsters mais se font caillasser Avec des ufs pourris au milieu de leur cité Boy ramasse la savonnette lubrifiant dans ma poche O'Rosko ouvre la boite à gants passe moi les capotes Et des pire rimes et gloire moi je marche sur des cadavres Fait 14 de millions avec boss de Panam Boy évite le Mauvais Oeil puis je marque le Temps Mort Fuck fuck fuck Booba Aka le Météore J'commence pas la guerre j'la fini négro Que ça soit avec les flingues ou avec le micro Quand les tirs retentissent et les cieux deviennent gris Miséricorde du seigneur il est temps que tu pries ! J'commence pas la guerre j'la fini négro Que ça soit avec les flingues ou avec le micro Quand les tirs retentissent et les cieux deviennent gris Miséricorde du seigneur il est temps que tu pries ! Booba ! La duchesse de Boulogne1</t>
+          <t>... Sors du block sans escorte, écoute du Balastik Dogg Et ce n'est pas parce qu'on se parle mec qu'on est des potes Juste moi et mes proches, plein de maille dans mes poches Un sticker Rimes gloire tout autour de mon glock Si t'as de l'amour pour mon clan frère c'est réciproque Si t'as de la haine comme un bâtard mieux vaut user du cross Tels des chiens aux abois, les frères n'ont jamais grandi 30 piges dans la cité puis embrouilles d petits Moi je vis ma vie t je dois rien à personne Excepté à Fredo, mon rap coûte bédo 93 c'est le ghetto, on ride toute la soirée Dis à ta meuf de ne pas venir sinon je vais la serrer Boy j'aime les meufs rebeues mais galsen j'kiffe plus Aïssata, Jennaba, fallait pas tout des puces Celles qui font mon mafé, évitent de se faire baffer Celles qui m'appellent papa, caressent ma graine de café Ses premiers pas dans le club et les tasses s'agrippent Ghetto Fabulous Thug boy ni Blood ni Crips Boy nous on squatte les chars, just give me the light Plus nous on serre les rates, plus que Monseigneur Mike Si au club y'a fight, laisse ça aux macaques Quand la bac matraque ces renois sont des toubabs Batty boy, batty boy, batty boy ... Batty boy, batty boy, batty boy ...</t>
         </is>
       </c>
     </row>
@@ -1848,12 +1848,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Laisse mon flingue parler</t>
+          <t>La loi du plus fort</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>... Sors du block sans escorte, écoute du Balastik Dogg Et ce n'est pas parce qu'on se parle mec qu'on est des potes Juste moi et mes proches, plein de maille dans mes poches Un sticker Rimes gloire tout autour de mon glock Si t'as de l'amour pour mon clan frère c'est réciproque Si t'as de la haine comme un bâtard mieux vaut user du cross Tels des chiens aux abois, les frères n'ont jamais grandi 30 piges dans la cité puis embrouilles d petits Moi je vis ma vie t je dois rien à personne Excepté à Fredo, mon rap coûte bédo 93 c'est le ghetto, on ride toute la soirée Dis à ta meuf de ne pas venir sinon je vais la serrer Boy j'aime les meufs rebeues mais galsen j'kiffe plus Aïssata, Jennaba, fallait pas tout des puces Celles qui font mon mafé, évitent de se faire baffer Celles qui m'appellent papa, caressent ma graine de café Ses premiers pas dans le club et les tasses s'agrippent Ghetto Fabulous Thug boy ni Blood ni Crips Boy nous on squatte les chars, just give me the light Plus nous on serre les rates, plus que Monseigneur Mike Si au club y'a fight, laisse ça aux macaques Quand la bac matraque ces renois sont des toubabs Batty boy, batty boy, batty boy ... Batty boy, batty boy, batty boy ...</t>
+          <t>I'm rich bitch ! Hey hey hey, anhan ! Hey hey heyyyy jure, jure ! Hey ! Braah ! Jure ! Ahhh ! Ahh ! Hey ! Braaah ! Suffit pas d'avoir un flingue, négro fais peser tes couilles Les gangsters font de la maille puis l'Etat se mange des douilles Casse des banques voitures béliers, c'est la loi du plus fort J'suis un négro criminel, peux pas te dire là où je dors Suffit pas d'avoir un flingue, négro fais peser tes couilles Les gangsters font de la maille puis l'Etat se mange des douilles Casse des banques voitures béliers, c'est la loi du plus fort J'suis un négro criminel, peux pas te dire là où je dors Trouve moi à la prière pas loin de Bondy Nord Passe mon temps à maudir le drapeau tricolore D'humeur parano je suis un peu crispé L'attitude de mes négros les rend tous suspects De ma fenêtre ça défouraille sur la voiture d'Esther 93 Clichy Sous-B' jusqu'à Epinay, mon secteur Si la mort advient, frère que DIEU NOUS PARDONNE Mes négros sont incassables, comme Samuel Lee Jackson Ta fin d'vie sur mon portable, comme la mort à Saddam Vingt-cinq ans dans un bunker, boy téma l'retour de flamme Brise la nuit tel un éclair, négro j'ai un chalumeau Tresse en O ma crinière, j'suis le roi des animaux Impossible de nous baiser, comme une pute de lesbienne Reste à ta place négrillon, moi j'te dit que c'est pas la peine La vengeance est un plat, et j'dévore ça tout froid Si la patience est une vertu j'suis trop attendu mon renoi Suffit pas d'avoir un flingue, négro fais peser tes couilles Les gangsters font de la maille puis l'Etat se mange des douilles Casse des banques voitures béliers, c'est la loi du plus fort J'suis un négro criminel, peux pas te dire là où je dors Suffit pas d'avoir un flingue, négro fais peser tes couilles Les gangsters font de la maille puis l'Etat se mange des douilles Casse des banques voitures béliers, c'est la loi du plus fort J'suis un négro criminel, peux pas te dire là où je dors Moi je ride, criminal sur la Nationale 3 Ta meuf comme passagère, sexuels sont nos débats Elle prétend être une vierge, je lui dis descends en bas ! Pratiquement elle aspire fait monter la crème en moi Moi je joue avec le temps, regarde le monde différemment Cache mon flingue là où se trouvent les airbags évidemment Les gunz gunz c'est ça le sport à Islamique Dakar Nos ennemis morflant tous regarde ils s'égarent J'ai pas de temps à perdre frère je suis un hustler Mon crack c'est comme mes CD dans le ghetto best seller Mon esprit est blessé, mon âme incarcérée Barrage de keuf man refus dobtempérer Dans le 93, à Boboche ils veulent mon ADN Ma pute, ma clique, mes empreintes, puis ma dégaine Appelle moi majesté si t'as besoin de fric J'suis le prochain président des Etats-Unis d'Afrique Suffit pas d'avoir un flingue, négro fais peser tes couilles Les gangsters font de la maille puis l'Etat se mange des douilles Casse des banques voitures béliers, c'est la loi du plus fort J'suis un négro criminel, peux pas te dire là où je dors Suffit pas d'avoir un flingue, négro fais peser tes couilles Les gangsters font de la maille puis l'Etat se mange des douilles Casse des banques voitures béliers, c'est la loi du plus fort J'suis un négro criminel, peux pas te dire là où je dors Hey !</t>
         </is>
       </c>
     </row>
@@ -1865,12 +1865,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>La loi du plus fort</t>
+          <t>La loi du tallion</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>I'm rich bitch ! Hey hey hey, anhan ! Hey hey heyyyy jure, jure ! Hey ! Braah ! Jure ! Ahhh ! Ahh ! Hey ! Braaah ! Suffit pas d'avoir un flingue, négro fais peser tes couilles Les gangsters font de la maille puis l'Etat se mange des douilles Casse des banques voitures béliers, c'est la loi du plus fort J'suis un négro criminel, peux pas te dire là où je dors Suffit pas d'avoir un flingue, négro fais peser tes couilles Les gangsters font de la maille puis l'Etat se mange des douilles Casse des banques voitures béliers, c'est la loi du plus fort J'suis un négro criminel, peux pas te dire là où je dors Trouve moi à la prière pas loin de Bondy Nord Passe mon temps à maudir le drapeau tricolore D'humeur parano je suis un peu crispé L'attitude de mes négros les rend tous suspects De ma fenêtre ça défouraille sur la voiture d'Esther 93 Clichy Sous-B' jusqu'à Epinay, mon secteur Si la mort advient, frère que DIEU NOUS PARDONNE Mes négros sont incassables, comme Samuel Lee Jackson Ta fin d'vie sur mon portable, comme la mort à Saddam Vingt-cinq ans dans un bunker, boy téma l'retour de flamme Brise la nuit tel un éclair, négro j'ai un chalumeau Tresse en O ma crinière, j'suis le roi des animaux Impossible de nous baiser, comme une pute de lesbienne Reste à ta place négrillon, moi j'te dit que c'est pas la peine La vengeance est un plat, et j'dévore ça tout froid Si la patience est une vertu j'suis trop attendu mon renoi Suffit pas d'avoir un flingue, négro fais peser tes couilles Les gangsters font de la maille puis l'Etat se mange des douilles Casse des banques voitures béliers, c'est la loi du plus fort J'suis un négro criminel, peux pas te dire là où je dors Suffit pas d'avoir un flingue, négro fais peser tes couilles Les gangsters font de la maille puis l'Etat se mange des douilles Casse des banques voitures béliers, c'est la loi du plus fort J'suis un négro criminel, peux pas te dire là où je dors Moi je ride, criminal sur la Nationale 3 Ta meuf comme passagère, sexuels sont nos débats Elle prétend être une vierge, je lui dis descends en bas ! Pratiquement elle aspire fait monter la crème en moi Moi je joue avec le temps, regarde le monde différemment Cache mon flingue là où se trouvent les airbags évidemment Les gunz gunz c'est ça le sport à Islamique Dakar Nos ennemis morflant tous regarde ils s'égarent J'ai pas de temps à perdre frère je suis un hustler Mon crack c'est comme mes CD dans le ghetto best seller Mon esprit est blessé, mon âme incarcérée Barrage de keuf man refus dobtempérer Dans le 93, à Boboche ils veulent mon ADN Ma pute, ma clique, mes empreintes, puis ma dégaine Appelle moi majesté si t'as besoin de fric J'suis le prochain président des Etats-Unis d'Afrique Suffit pas d'avoir un flingue, négro fais peser tes couilles Les gangsters font de la maille puis l'Etat se mange des douilles Casse des banques voitures béliers, c'est la loi du plus fort J'suis un négro criminel, peux pas te dire là où je dors Suffit pas d'avoir un flingue, négro fais peser tes couilles Les gangsters font de la maille puis l'Etat se mange des douilles Casse des banques voitures béliers, c'est la loi du plus fort J'suis un négro criminel, peux pas te dire là où je dors Hey !</t>
+          <t>Ghetto Fab Gang, si-si Dakar, Dakar, Yarakh 93 yeah yeah Trop célèbre man pour courir J'peux pas rester là négro à subir Sors ton flingue, tir en l'air mon négro Si t'aime comme moi les trafics en gros Trop célèbre man pour courir J'peux pas rester là négro à subir Et j'te dis écoute moi khouya Faut pas abuser dans cette putain d'dounya Hé mwen pou parlé pa bokou Mwen ké envoyer des boyz killa you Mwen venir Alfa Romeo Toquer à la porte chez mama yo Mwen tirer partir cagoulé Haitian killa mwen sans pitié Comme Roger le jour du grand pardon Mes ennemis essuient des coups de canon J'ai d'la haine, la rage à revendre Juste la mort que ma haine engendre Oeil pour oeil, dent pour dent Si il le faut j'irais verser mon sang De Sarcelle jusqu'à Aubervilliers 45 l'homme de l'ombre 93 man terre des gang C'est sans remord qu'on tire sur Babylon Trop célèbre man pour courir J'peux pas rester là négro à subir Sors ton flingue, tir en l'air mon négro Si t'aime comme moi les trafics en gros Trop célèbre man pour courir J'peux pas rester là négro à subir Et j'te dis écoute moi khouya Faut pas abuser dans cette putain d'dounya Alpha tout seul, guet-apens les poulets J'envoie des cocktail dans leur salle à manger Molotovs d'Ukraine comme le frère Sefyu Sors le Glock et j'te dis Assalam Aleykoum Islamique Dakar contre le monde entier Mes journées sont chaudes, mes nuits ensanglantées Homosexualité dans le rap français J'ai retenu mes larmes, bloqué mes pensées Et depuis l'début, pointé du doigt Descendant de macaque, de Dakar jusqu'au Rwanda De retour dans la jungle y a pas mieux que chez soi C'est la loi des plus forts, fréro écoute moi Crucifie ma vie, tu pourras vivre après Si tu négro je viendrais te hanter Dakar aime les embrouilles, coffrer les millions Et les armes pour nous c'est une seconde religion Trop célèbre man pour courir J'peux pas rester là négro à subir Sors ton flingue, tir en l'air mon négro Si t'aime comme moi les trafics en gros Trop célèbre man pour courir J'peux pas rester là négro à subir Et j'te dis écoute moi khouya Faut pas abuser dans cette putain d'dounya Sakamaché boyz Gwada Sakamaché les frères Madinina Sakamaché les boys d'Algérie Sakamaché my little Dakar Bangs Bangs Crack Crack trafic de stup man 93 Banlieue nord, criminelle Jamais à l'abri on paye des sentinelles Détermination discipline travail L'argent c'est rien, le respect c'est tout khay Ghetto Fab, ma famille Jusqu'à la mort, négro t'as compris Trop célèbre man pour courir J'peux pas rester là négro à subir Sors ton flingue, tir en l'air mon négro Si t'aime comme moi les trafics en gros Trop célèbre man pour courir J'peux pas rester là négro à subir Et j'te dis écoute moi khouya Faut pas abuser dans cette putain d'dounya</t>
         </is>
       </c>
     </row>
@@ -1882,12 +1882,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>La loi du tallion</t>
+          <t>La mort avant le déshonneur</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Ghetto Fab Gang, si-si Dakar, Dakar, Yarakh 93 yeah yeah Trop célèbre man pour courir J'peux pas rester là négro à subir Sors ton flingue, tir en l'air mon négro Si t'aime comme moi les trafics en gros Trop célèbre man pour courir J'peux pas rester là négro à subir Et j'te dis écoute moi khouya Faut pas abuser dans cette putain d'dounya Hé mwen pou parlé pa bokou Mwen ké envoyer des boyz killa you Mwen venir Alfa Romeo Toquer à la porte chez mama yo Mwen tirer partir cagoulé Haitian killa mwen sans pitié Comme Roger le jour du grand pardon Mes ennemis essuient des coups de canon J'ai d'la haine, la rage à revendre Juste la mort que ma haine engendre Oeil pour oeil, dent pour dent Si il le faut j'irais verser mon sang De Sarcelle jusqu'à Aubervilliers 45 l'homme de l'ombre 93 man terre des gang C'est sans remord qu'on tire sur Babylon Trop célèbre man pour courir J'peux pas rester là négro à subir Sors ton flingue, tir en l'air mon négro Si t'aime comme moi les trafics en gros Trop célèbre man pour courir J'peux pas rester là négro à subir Et j'te dis écoute moi khouya Faut pas abuser dans cette putain d'dounya Alpha tout seul, guet-apens les poulets J'envoie des cocktail dans leur salle à manger Molotovs d'Ukraine comme le frère Sefyu Sors le Glock et j'te dis Assalam Aleykoum Islamique Dakar contre le monde entier Mes journées sont chaudes, mes nuits ensanglantées Homosexualité dans le rap français J'ai retenu mes larmes, bloqué mes pensées Et depuis l'début, pointé du doigt Descendant de macaque, de Dakar jusqu'au Rwanda De retour dans la jungle y a pas mieux que chez soi C'est la loi des plus forts, fréro écoute moi Crucifie ma vie, tu pourras vivre après Si tu négro je viendrais te hanter Dakar aime les embrouilles, coffrer les millions Et les armes pour nous c'est une seconde religion Trop célèbre man pour courir J'peux pas rester là négro à subir Sors ton flingue, tir en l'air mon négro Si t'aime comme moi les trafics en gros Trop célèbre man pour courir J'peux pas rester là négro à subir Et j'te dis écoute moi khouya Faut pas abuser dans cette putain d'dounya Sakamaché boyz Gwada Sakamaché les frères Madinina Sakamaché les boys d'Algérie Sakamaché my little Dakar Bangs Bangs Crack Crack trafic de stup man 93 Banlieue nord, criminelle Jamais à l'abri on paye des sentinelles Détermination discipline travail L'argent c'est rien, le respect c'est tout khay Ghetto Fab, ma famille Jusqu'à la mort, négro t'as compris Trop célèbre man pour courir J'peux pas rester là négro à subir Sors ton flingue, tir en l'air mon négro Si t'aime comme moi les trafics en gros Trop célèbre man pour courir J'peux pas rester là négro à subir Et j'te dis écoute moi khouya Faut pas abuser dans cette putain d'dounya</t>
+          <t>Comme une GLOCK, TEC, UZI et AK Vas-y montre un flingue frère que nous, on n'a pas À mon tour de briller, je tranche tel un rasoir Flaques de sang partout tout au long du couloir Comme une GLOCK, TEC, UZI et AK Vas-y montre un flingue frère que nous, on n'a pas En avance sur mon temps, j'suis un prématuré Bain de sang en Afrique, j'suis un enfant mort-né Sur le champ de bataille, la mort avant le déshonneur Dakar soldat, la mort avant le déshonneur Derrière les barreaux, la mort avant le déshonneur Fuck les battyboys, la mort avant le déshonneur Sur le champ de bataille, demande pas la clémence Ma rime un mélange de folie et de démence Vas-y tente ta chance, on ne meurt qu'une fois Et t'auras beaucoup de buzz si tu niques Alpha 5.20 pharmacie le roi des bandits Si tu tires sur moi, ta tess en sort grandie Brandir un flingue, mais ne jamais tirer T'as quoi dans la tête ? Tu veux juste frimer Dans le gang-banging hey, négros savent Et dans le crack slanging boy, négros savent J'ai regardé l'ciel puis après, j'ai prié Marché sur la terre puis l'sang s'est versé Blindé mon cur dans ce putain de désert Dès la nuit tombée, sortez les vipères Scorpions s'accouplaient au fond des cratères Et des lions ont poussé, à fond les altères Hey Dakar Gs, Dakar Gs, Dakar Gs Hey, Hey Comme une GLOCK, TEC, UZI et AK Vas-y montre un flingue frère que nous, on n'a pas À mon tour de briller, je tranche tel un rasoir Flaques de sang partout tout au long du couloir Comme une GLOCK, TEC, UZI et AK Vas-y montre un flingue frère que nous, on n'a pas En avance sur mon temps, j'suis un prématuré Bain de sang en Afrique, j'suis un enfant mort-né Sur le champ de bataille, la mort avant le déshonneur Dakar soldat, la mort avant le déshonneur Derrière les barreaux, la mort avant le déshonneur Fuck les battyboys, la mort avant le déshonneur</t>
         </is>
       </c>
     </row>
@@ -1899,12 +1899,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>La mort avant le déshonneur</t>
+          <t>L’amour d’un frère</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Comme une GLOCK, TEC, UZI et AK Vas-y montre un flingue frère que nous, on n'a pas À mon tour de briller, je tranche tel un rasoir Flaques de sang partout tout au long du couloir Comme une GLOCK, TEC, UZI et AK Vas-y montre un flingue frère que nous, on n'a pas En avance sur mon temps, j'suis un prématuré Bain de sang en Afrique, j'suis un enfant mort-né Sur le champ de bataille, la mort avant le déshonneur Dakar soldat, la mort avant le déshonneur Derrière les barreaux, la mort avant le déshonneur Fuck les battyboys, la mort avant le déshonneur Sur le champ de bataille, demande pas la clémence Ma rime un mélange de folie et de démence Vas-y tente ta chance, on ne meurt qu'une fois Et t'auras beaucoup de buzz si tu niques Alpha 5.20 pharmacie le roi des bandits Si tu tires sur moi, ta tess en sort grandie Brandir un flingue, mais ne jamais tirer T'as quoi dans la tête ? Tu veux juste frimer Dans le gang-banging hey, négros savent Et dans le crack slanging boy, négros savent J'ai regardé l'ciel puis après, j'ai prié Marché sur la terre puis l'sang s'est versé Blindé mon cur dans ce putain de désert Dès la nuit tombée, sortez les vipères Scorpions s'accouplaient au fond des cratères Et des lions ont poussé, à fond les altères Hey Dakar Gs, Dakar Gs, Dakar Gs Hey, Hey Comme une GLOCK, TEC, UZI et AK Vas-y montre un flingue frère que nous, on n'a pas À mon tour de briller, je tranche tel un rasoir Flaques de sang partout tout au long du couloir Comme une GLOCK, TEC, UZI et AK Vas-y montre un flingue frère que nous, on n'a pas En avance sur mon temps, j'suis un prématuré Bain de sang en Afrique, j'suis un enfant mort-né Sur le champ de bataille, la mort avant le déshonneur Dakar soldat, la mort avant le déshonneur Derrière les barreaux, la mort avant le déshonneur Fuck les battyboys, la mort avant le déshonneur</t>
+          <t>... ... Dis moi comment tu m'aimes mon frère Parfois je me sens abandonné À quel point tu peux tuer mon frère ? À quel point ton amour peut me donner ? ... ... Enfant du ghetto commençant la prière Afin que les mécréants puissent mordre la poussière Ghetto Fabulous Gang et Truand 2 la galère On est comme des pieuvres à 1000 lieues sous la mer Nique la chatte à ta mère qu'est ce tu croyais bouffon ? On boit pas de l'alcool mais cul sec le goudron Décime la concurrence Clicli c'est Zehef T'arrives lucide chez nous mais tu repars khabbat La France a peur de nous Sénégal et Algérie Businessman et barbu Skyrock se chie dessus ... au terter mais boycotté à la FNAC Territoire occupé comme Yasser Arafat Rendez nous Dakar on rendra Clicli Réalité française comme le frère Nessbeal Gunz pop Alpha j'ai de l'amour pour mes frères Compagnon de la misère Dakar Yarakh noir et fier Dis moi comment tu m'aimes</t>
         </is>
       </c>
     </row>
@@ -1916,12 +1916,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>L’amour d’un frère</t>
+          <t>Le boss veut te voir</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>... ... Dis moi comment tu m'aimes mon frère Parfois je me sens abandonné À quel point tu peux tuer mon frère ? À quel point ton amour peut me donner ? ... ... Enfant du ghetto commençant la prière Afin que les mécréants puissent mordre la poussière Ghetto Fabulous Gang et Truand 2 la galère On est comme des pieuvres à 1000 lieues sous la mer Nique la chatte à ta mère qu'est ce tu croyais bouffon ? On boit pas de l'alcool mais cul sec le goudron Décime la concurrence Clicli c'est Zehef T'arrives lucide chez nous mais tu repars khabbat La France a peur de nous Sénégal et Algérie Businessman et barbu Skyrock se chie dessus ... au terter mais boycotté à la FNAC Territoire occupé comme Yasser Arafat Rendez nous Dakar on rendra Clicli Réalité française comme le frère Nessbeal Gunz pop Alpha j'ai de l'amour pour mes frères Compagnon de la misère Dakar Yarakh noir et fier Dis moi comment tu m'aimes</t>
+          <t>Tony, Tony, le boss veut te voir Capone, le boss veut te voir Snoop Dogg, le boss veut te voir Fifty, le boss veut te voir Dans ma vie c'est rien, que des flingues et des roses Des boloss devant le four, qui attendent leur dose Moi je baise gratos, mais l'amour y'en a pas Ta princesse avec moi, elle pense qu'j'suis une reu-sta J'ai le corps percé, comme Amadou Diallo Ma voix résonne de l'au-delà, écoute moi frérot J'représente les gangsters qui veulent pas balancer Et toutes nos surs enceintes, qui veulent pas avorter Loin d'être un clodo, j'suis toujours aux Puces À bicrave sous la neige, en doudoune et capuche Meurtrier aux Puces, délinquance juvénile Vend plus que la Fnac et sa sur Virgin J'représente Ben Laden ou Tony Montana Afrique de l'ouest, Burkina à la Thomas Sankara Les gangsters ne dansent pas, préfèrent prendre que des balles C'est pour ça que Ghetto Fab' négro ne tourne pas en boite Mesrine, le boss veut te voir Ferrara, le boss veut te voir Fofana, le boss veut te voir Alpha, le boss veut te voir Y'a du biff à faire, pas de crise ce qui dise y'en a marre, moi le biff, j'le maîtrise ça c'est faux faux que des bêtises, s'il le faut-faut je me déguise Le boss veut te voir mec Boos-P, Alpha fuckin 5.20 mec Vivre et mourir Le boss veut te voir, veut te voir, veut te voir Le boss veut te voir, le boss veut te voir Le boss veut te voir, veut te voir, veut te voir Pablo Escobar, Manuel Noriega, Suge Knight, Boualem, Khaled Kelkal1</t>
         </is>
       </c>
     </row>
@@ -1933,12 +1933,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Le boss veut te voir</t>
+          <t>Le Mal Qu’on a Fait/Syndrôme de Stockholm/La Rue en Direct</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Tony, Tony, le boss veut te voir Capone, le boss veut te voir Snoop Dogg, le boss veut te voir Fifty, le boss veut te voir Dans ma vie c'est rien, que des flingues et des roses Des boloss devant le four, qui attendent leur dose Moi je baise gratos, mais l'amour y'en a pas Ta princesse avec moi, elle pense qu'j'suis une reu-sta J'ai le corps percé, comme Amadou Diallo Ma voix résonne de l'au-delà, écoute moi frérot J'représente les gangsters qui veulent pas balancer Et toutes nos surs enceintes, qui veulent pas avorter Loin d'être un clodo, j'suis toujours aux Puces À bicrave sous la neige, en doudoune et capuche Meurtrier aux Puces, délinquance juvénile Vend plus que la Fnac et sa sur Virgin J'représente Ben Laden ou Tony Montana Afrique de l'ouest, Burkina à la Thomas Sankara Les gangsters ne dansent pas, préfèrent prendre que des balles C'est pour ça que Ghetto Fab' négro ne tourne pas en boite Mesrine, le boss veut te voir Ferrara, le boss veut te voir Fofana, le boss veut te voir Alpha, le boss veut te voir Y'a du biff à faire, pas de crise ce qui dise y'en a marre, moi le biff, j'le maîtrise ça c'est faux faux que des bêtises, s'il le faut-faut je me déguise Le boss veut te voir mec Boos-P, Alpha fuckin 5.20 mec Vivre et mourir Le boss veut te voir, veut te voir, veut te voir Le boss veut te voir, le boss veut te voir Le boss veut te voir, veut te voir, veut te voir Pablo Escobar, Manuel Noriega, Suge Knight, Boualem, Khaled Kelkal1</t>
+          <t>Quitter le monde avec une aiguille dans le bras Une balle dans le corps, sur le visage un grand drap C'est le drame, nos ruelles saupoudrées de kilogrammes De kilos Dollar, CFA ou narco-dinars Teenager, voyageur dans la soute Lorsque toi, enfant, tu mollardais dans la soupe LAfricaine Attitude titube les exclus Tu rends ta job, sans études, tu recules L'arme blanche inscrite au tableau noir Au marqueur, les victimes, bâtonnées par le trait noir Conventionnel, font des pleurs de nos mères un rituel Une musique douloureuse, habituelle Incriminé par un témoin oculaire À qui tu rêves déjà de couper lauriculaire Ne recule devant rien surtout pas devant les armes à feu Et à sang quitte à finir dans le feu x2 C'est plus fort que la Musique, plus lourd que l'acier Embrouilles et trafics, frère ça c'est ma vie Entre le Dîn et le deal, jai dû faire un choix Mais Dieu seul jugera, frère, le mal qu'on a fait Medine Je recrache mes couplets, ne rappe que sous la contrainte Je noircis ma feuille avec un canon posé sur ma tempe Et pourtant je ne porterais pas plainte, de l'idée derrière le gun car ce combat je le chante Banlieue, cité de pierres qui oppresse, une prison de tour à qui je témoigne de la tendresse Des costumes cravates veulent te passer le savon Ouvrir les vannes, dénonce l'incendie comme en temps d'exclusion Comme en temps de discrimination, comme en temps de ségrégation raciale communautaire Comme en temps où nos pères combattaient leurs commandants Commentant l'actu, c'est par cette voix qu'on m'entend Si vivre en quartier tourne à la prise d'otage Pas de Bruce Willis pour éviter le carnage Opération à cur ouvert sur un 45 tours En quarantaine dans les tours c'est Médine Bétancourt Otage par le corps, otage par l'esprit Otage d'un ravisseur qui nous prend de sympathie Le regard masculin est otage du décolleté Plus d'une vie otage, tant d'argent salement récolté Le ghetto ne fait que peu de rescapés Et ce peu de rescapé y retourne comme Buscapé Nous sommes les enfants de Beslan en Ossétie Assis sur la même chaise que Thimothy dOklahoma City Si le passé parasite le présent Le syndrome de Stockholm remplira leur prison Dis au quai dOrsay au 36 quai des orfèvres Qu'on se souviendra de l'histoire le canon entre les lèvres Refrain On a pour syndrome la capitale de Suède On réunit les causes comme le canal de Suez Banlieue, maison darrêt à ciel ouvert Banlieusard sur brancard, opération à cur ouvert Stockholm, un syndrome sans sérum C'est l'industrie du ghetto dupliquer sur un album On compatit avec le preneur d'otage Lui sert de bouclier humain le soir du carnage Tant que le monde dérapera, qu'Al Jazeera rapportera Du théâtre de Moscou jusqu'à l'hôtel Opéra, Médine rappera Opération entre les coudes chez Virgin Mégastore Et sur table d'écoute Si François Grosdidier nous emprisonne Moi j'rapperai mon album comme Shyne au téléphone Beaucoup trop téléphoné est ton rap Teletubbies Mes couplets te rattrapent comme les base-ball furies Ce qui ne tue pas nous rend beaucoup plus forts Alors pour être invincibles, on se mutilera le corps Dîn Records, toujours debout parmi les corps Je suis Mohammed Ali, le R.A.P est dans mes cordes vocales Les yeux sont mon combat lyrical Mené depuis mon havre de paix local Ma région pour berceau et l'islam pour lanterne J'ai un détonateur pour horloge interne Remonter la minuterie du R.A.P de Monoprix Indépendant de toute patrie depuis l'retrait des colonies L'Élysée nous traite en pestiférés Voici la rue en direct et non pas en différé</t>
         </is>
       </c>
     </row>
@@ -1950,12 +1950,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Le Mal Qu’on a Fait/Syndrôme de Stockholm/La Rue en Direct</t>
+          <t>Le monde est un ghetto</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Quitter le monde avec une aiguille dans le bras Une balle dans le corps, sur le visage un grand drap C'est le drame, nos ruelles saupoudrées de kilogrammes De kilos Dollar, CFA ou narco-dinars Teenager, voyageur dans la soute Lorsque toi, enfant, tu mollardais dans la soupe LAfricaine Attitude titube les exclus Tu rends ta job, sans études, tu recules L'arme blanche inscrite au tableau noir Au marqueur, les victimes, bâtonnées par le trait noir Conventionnel, font des pleurs de nos mères un rituel Une musique douloureuse, habituelle Incriminé par un témoin oculaire À qui tu rêves déjà de couper lauriculaire Ne recule devant rien surtout pas devant les armes à feu Et à sang quitte à finir dans le feu x2 C'est plus fort que la Musique, plus lourd que l'acier Embrouilles et trafics, frère ça c'est ma vie Entre le Dîn et le deal, jai dû faire un choix Mais Dieu seul jugera, frère, le mal qu'on a fait Medine Je recrache mes couplets, ne rappe que sous la contrainte Je noircis ma feuille avec un canon posé sur ma tempe Et pourtant je ne porterais pas plainte, de l'idée derrière le gun car ce combat je le chante Banlieue, cité de pierres qui oppresse, une prison de tour à qui je témoigne de la tendresse Des costumes cravates veulent te passer le savon Ouvrir les vannes, dénonce l'incendie comme en temps d'exclusion Comme en temps de discrimination, comme en temps de ségrégation raciale communautaire Comme en temps où nos pères combattaient leurs commandants Commentant l'actu, c'est par cette voix qu'on m'entend Si vivre en quartier tourne à la prise d'otage Pas de Bruce Willis pour éviter le carnage Opération à cur ouvert sur un 45 tours En quarantaine dans les tours c'est Médine Bétancourt Otage par le corps, otage par l'esprit Otage d'un ravisseur qui nous prend de sympathie Le regard masculin est otage du décolleté Plus d'une vie otage, tant d'argent salement récolté Le ghetto ne fait que peu de rescapés Et ce peu de rescapé y retourne comme Buscapé Nous sommes les enfants de Beslan en Ossétie Assis sur la même chaise que Thimothy dOklahoma City Si le passé parasite le présent Le syndrome de Stockholm remplira leur prison Dis au quai dOrsay au 36 quai des orfèvres Qu'on se souviendra de l'histoire le canon entre les lèvres Refrain On a pour syndrome la capitale de Suède On réunit les causes comme le canal de Suez Banlieue, maison darrêt à ciel ouvert Banlieusard sur brancard, opération à cur ouvert Stockholm, un syndrome sans sérum C'est l'industrie du ghetto dupliquer sur un album On compatit avec le preneur d'otage Lui sert de bouclier humain le soir du carnage Tant que le monde dérapera, qu'Al Jazeera rapportera Du théâtre de Moscou jusqu'à l'hôtel Opéra, Médine rappera Opération entre les coudes chez Virgin Mégastore Et sur table d'écoute Si François Grosdidier nous emprisonne Moi j'rapperai mon album comme Shyne au téléphone Beaucoup trop téléphoné est ton rap Teletubbies Mes couplets te rattrapent comme les base-ball furies Ce qui ne tue pas nous rend beaucoup plus forts Alors pour être invincibles, on se mutilera le corps Dîn Records, toujours debout parmi les corps Je suis Mohammed Ali, le R.A.P est dans mes cordes vocales Les yeux sont mon combat lyrical Mené depuis mon havre de paix local Ma région pour berceau et l'islam pour lanterne J'ai un détonateur pour horloge interne Remonter la minuterie du R.A.P de Monoprix Indépendant de toute patrie depuis l'retrait des colonies L'Élysée nous traite en pestiférés Voici la rue en direct et non pas en différé</t>
+          <t>Un jour un p'tit m'a demandé Comment j'me suis mit à rapper Très calmement j'lui ai répondu qu'j'ai du quitter la rue mon frère La mort me va si bien, la vie aussi tristement célèbre Mon blaze t'es stupide ou quoi testicules pleines Ptète pas mec de tess O'rosko Raricim mon gars j'suis comme chez oim j'mange des kébabs La vérité tu l'entends j't'explique j'suis un bonhomme n'recule devant rien devant quiconque Les MC tous ds pédés comme des S-A-lope quand ça tir ça lope-ga J'ai été en enfer maintenant je suis de retour Et j'chante la haine car je manque d'amour Et les mêmes renois qui parlaient mal sur oi-m Veulent me serrer la main sale pédé reste calme On était des frères jusquà qu'la mort nous sépare Pour la maille ils m'ont trahis puis mon laissé par terre Juste moi et ma mère récitant l'Coran Quand j'srais d'retour yarahr va fleurir Ne pense pas qu'ta cité c'est l'début d'la misère On remplit les prisons, les hôpitaux et les cimetières Et le monde entier est un ghetto mon frère Des guerres civiles en Afrique aux camps de Guantánamo. What-up Ne pense pas qu'ta cité c'est l'début d'la misère On remplit les prisons, les hôpitaux et les cimetières Et le monde entier est un ghetto mon frère Des guerres civiles en Afrique aux camps de Guantánamo Y a pas d'amour négro, dans le coeur d'la ville Juste après les mosquées c'est nos maisons qui brulent J'vends plus d'la poudre moi j'vends d'l'éspoir Pour nos têtes cramées boy au fond du couloir Enfant d'la cité Ghetto Fabulous Gang nous on vient d'Afrique pas les fils d'la France Et je rentre en trance juste après la prière miséricorde du seigneur me guide vers la lumière Yeah parrain Ghetto Fabulous Gang, Raricim Alpha toute la meute a la rage du sang Déjà sur écoute sur les ondes les RG en plus sur ma puce négros j'suis comme le 113 Prince de la ville en plus personne peut m'test Gueule pas tu s'ra mignonne sale p'tite garce Arrête de bédave t'aura un peu la tête sur les épaules Le réveil t'casse, tant qu'beuh et Cess qui t'parlent Ne pense pas qu'ta cité c'est l'début d'la misère On remplit les prisons, les hôpitaux et les cimetières Et le monde entier est un ghetto mon frère Des guerres civiles en Afrique aux camps de Guantánamo Ne pense pas qu'ta cité c'est l'début d'la misère On remplit les prisons, les hôpitaux et les cimetières Et le monde entier est un ghetto mon frère Des guerres civiles en Afrique aux camps de Guantánamo Yeah, ça sonne trop cité c'est pas du rap boy Ma violence dépasse les bornes boy Les frontières irréelles c'est l'ange de l'Apocalypse Raricim O'Rosko évite le contact 77 000 degrés à l'ombre, où la violence atteind son paroxisme Évite le contact, mise à l'amende mise à la mort J'attaque à la gorge, j'représente Ghetto Fabulous Gang P'tit frère moi j'te dis évite de suivre nos pas Même si on a le même sang comme S.I.N.I.K Alpha et Rosko c'est comme Nas et Jay-Z Aucun MC sur terre nous arrive à la ch'ville Gaspille pas ta salive à raconter d'la merde Nous jalouser négro, boy ça sert à rien Ghetto Fab mafia on a les mains trop sales Mais le coeur trop propre, une équipe trop bad Ne pense pas qu'ta cité c'est l'début d'la misère On remplit les prisons, les hôpitaux et les cimetières Et le monde entier est un ghetto mon frère Des guerres civiles en Afrique aux camps de Guantánamo Ne pense pas qu'ta cité c'est l'début d'la misère On remplit les prisons, les hôpitaux et les cimetières Et le monde entier est un ghetto mon frère Des guerres civiles en Afrique aux camps de Guantánamo Shiiit les deux météores de la cité frère Alpha, Raricim a.k.a l'ange de l'apocalypse frère Dédicace a tous les gangsters, tous voleurs de banque, braqueur, tout les étudiants qui sont dans le ghetto, tout les business-man même tout ceux qui sont pas dans le ghetto du moment que c'est des bonhommes rayyy ... Ghetto Fabulous gang... Afrique de l'ouest re-noi, tiers-monde, caraïbes Ghetto ghetto tiers monde Ghetto ghetto tiers monde</t>
         </is>
       </c>
     </row>
@@ -1967,12 +1967,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Le monde est un ghetto</t>
+          <t>Le Règne du 6.6.6</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Un jour un p'tit m'a demandé Comment j'me suis mit à rapper Très calmement j'lui ai répondu qu'j'ai du quitter la rue mon frère La mort me va si bien, la vie aussi tristement célèbre Mon blaze t'es stupide ou quoi testicules pleines Ptète pas mec de tess O'rosko Raricim mon gars j'suis comme chez oim j'mange des kébabs La vérité tu l'entends j't'explique j'suis un bonhomme n'recule devant rien devant quiconque Les MC tous ds pédés comme des S-A-lope quand ça tir ça lope-ga J'ai été en enfer maintenant je suis de retour Et j'chante la haine car je manque d'amour Et les mêmes renois qui parlaient mal sur oi-m Veulent me serrer la main sale pédé reste calme On était des frères jusquà qu'la mort nous sépare Pour la maille ils m'ont trahis puis mon laissé par terre Juste moi et ma mère récitant l'Coran Quand j'srais d'retour yarahr va fleurir Ne pense pas qu'ta cité c'est l'début d'la misère On remplit les prisons, les hôpitaux et les cimetières Et le monde entier est un ghetto mon frère Des guerres civiles en Afrique aux camps de Guantánamo. What-up Ne pense pas qu'ta cité c'est l'début d'la misère On remplit les prisons, les hôpitaux et les cimetières Et le monde entier est un ghetto mon frère Des guerres civiles en Afrique aux camps de Guantánamo Y a pas d'amour négro, dans le coeur d'la ville Juste après les mosquées c'est nos maisons qui brulent J'vends plus d'la poudre moi j'vends d'l'éspoir Pour nos têtes cramées boy au fond du couloir Enfant d'la cité Ghetto Fabulous Gang nous on vient d'Afrique pas les fils d'la France Et je rentre en trance juste après la prière miséricorde du seigneur me guide vers la lumière Yeah parrain Ghetto Fabulous Gang, Raricim Alpha toute la meute a la rage du sang Déjà sur écoute sur les ondes les RG en plus sur ma puce négros j'suis comme le 113 Prince de la ville en plus personne peut m'test Gueule pas tu s'ra mignonne sale p'tite garce Arrête de bédave t'aura un peu la tête sur les épaules Le réveil t'casse, tant qu'beuh et Cess qui t'parlent Ne pense pas qu'ta cité c'est l'début d'la misère On remplit les prisons, les hôpitaux et les cimetières Et le monde entier est un ghetto mon frère Des guerres civiles en Afrique aux camps de Guantánamo Ne pense pas qu'ta cité c'est l'début d'la misère On remplit les prisons, les hôpitaux et les cimetières Et le monde entier est un ghetto mon frère Des guerres civiles en Afrique aux camps de Guantánamo Yeah, ça sonne trop cité c'est pas du rap boy Ma violence dépasse les bornes boy Les frontières irréelles c'est l'ange de l'Apocalypse Raricim O'Rosko évite le contact 77 000 degrés à l'ombre, où la violence atteind son paroxisme Évite le contact, mise à l'amende mise à la mort J'attaque à la gorge, j'représente Ghetto Fabulous Gang P'tit frère moi j'te dis évite de suivre nos pas Même si on a le même sang comme S.I.N.I.K Alpha et Rosko c'est comme Nas et Jay-Z Aucun MC sur terre nous arrive à la ch'ville Gaspille pas ta salive à raconter d'la merde Nous jalouser négro, boy ça sert à rien Ghetto Fab mafia on a les mains trop sales Mais le coeur trop propre, une équipe trop bad Ne pense pas qu'ta cité c'est l'début d'la misère On remplit les prisons, les hôpitaux et les cimetières Et le monde entier est un ghetto mon frère Des guerres civiles en Afrique aux camps de Guantánamo Ne pense pas qu'ta cité c'est l'début d'la misère On remplit les prisons, les hôpitaux et les cimetières Et le monde entier est un ghetto mon frère Des guerres civiles en Afrique aux camps de Guantánamo Shiiit les deux météores de la cité frère Alpha, Raricim a.k.a l'ange de l'apocalypse frère Dédicace a tous les gangsters, tous voleurs de banque, braqueur, tout les étudiants qui sont dans le ghetto, tout les business-man même tout ceux qui sont pas dans le ghetto du moment que c'est des bonhommes rayyy ... Ghetto Fabulous gang... Afrique de l'ouest re-noi, tiers-monde, caraïbes Ghetto ghetto tiers monde Ghetto ghetto tiers monde</t>
+          <t>Mais règne le 6.6.6 Palais de justice-tice-tice Négros crisent-crisent-crisent Dans mon district-strict-strict Mais règne le 6.6.6 Palais de justice-tice-tice Négros crisent-crisent-crisent Dans mon district-strict-strict ... j'suis au téléphone ... fils de pute si elle est bonne C'est la loi du plus fort y'a pas de démocratie J'ai déserté le cirque je fais pas d'acrobatie Le prêtre prie que se produise un miracle Attend la résurrection mais c'st juste un mirage ...</t>
         </is>
       </c>
     </row>
@@ -1984,12 +1984,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Le Règne du 6.6.6</t>
+          <t>Les gangsters ne dansent pas</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Mais règne le 6.6.6 Palais de justice-tice-tice Négros crisent-crisent-crisent Dans mon district-strict-strict Mais règne le 6.6.6 Palais de justice-tice-tice Négros crisent-crisent-crisent Dans mon district-strict-strict ... j'suis au téléphone ... fils de pute si elle est bonne C'est la loi du plus fort y'a pas de démocratie J'ai déserté le cirque je fais pas d'acrobatie Le prêtre prie que se produise un miracle Attend la résurrection mais c'st juste un mirage ...</t>
+          <t>Jen ai rien à foutre frère que t'aies d'la maille Rien à foutre d'ta tè-c' ou qutes potes soient des 'cailles C'est Alpha 5.20 alias arme fatale Et ça bipe dès que je passe au détecteur d'métal Moi je suis un gangster, dans le club je danse pas Il y aura pas dembrouille si tes potes ne parlent pas Moi jai tendu la main mais les nègres veulent mon bras Maintenant ils veulent me sucer mais je bande même pas Ghetto Faboulous Gang, Independance Day Dès que la ligne est noire boy appuie sur play Reste en bas du bloc, écoute les Gangsta Music hey Ride renoi, tu sais que le crime paie Mon loyer, 9.3 le foyer, joue pas les voyeurs, on tarrache les boyaux Bâtard regarde-toi, regarde-moi en face Black mixtape, 5.20 c'est le blaze Là où les gangsters ne dansent dans les clubs frérot On arrive pe-sa et puis les 'tasses on pé-cho C'est qui ça ? C'est qui ça ? C'est qui ça ? C'est qui ça Nous ! C'est les rabzas, les renois, les chinois, les touco, touco C'est l'Holocost qui cherche à t'mettre à té-cô Mec c'est cru, pas de vacances à Pattaya C'est la galère à la té-c', wesh re-frè faut pas tailler Faut pas tailler, ne rappe pas l'ghetto parce que c'est tendance négro Ne rappe pas l'ghetto pour la maille négro nan Ils ont peur parce que notre son les fait quer-cra Parce que ils veulent pas quon vienne quer-cro mais sur ma vie on les kickera Holocost clic, créé lémeute clic, clic, Holocost Ghetto Fab' paraît que le rap craque, craque Peu dimportance tu nous portais A présent comme plus dun dans le buzz tu veux exporter LHolocost ça y est maintenant t'as vu qu'on pèse La base, le biz, le buzz Les soi-disant boss, ignorant quça fait des piges qu'on blesse Comme un délinquant qui brasse, mate jamais notre froc se baisse Jvis bien maintenant, les frères ont de la haine D'autres jouent les chauds mais m'font dla peine Tapent leur ce-vi mais qu'à cela n'tienne Baisent leur vie juste comme une chienne Moi je kiffe les embrouilles où je crosse les bâtards Leurs euros en C.F.A, je les ramène à Dakar Puis y'a qu'les putes qui parlent mal sur moi Mais les vrais gangsters respectent Alpha cest quoi ton putain d'problème ? Alpha et Rosko un putain d'tandem Défouraille 7.7, défouraille 9.3 Défouraille Ile-de-France, défouraille Dakar Fuck ton rap de merde, t'es bon pour la casse Je t'expose comme une pute sur mon tableau de chasse Comme OlKainry sur les chemins de la dignité Et je porte une Breitling, boy viens me braquer</t>
         </is>
       </c>
     </row>
@@ -2001,12 +2001,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Les gangsters ne dansent pas</t>
+          <t>Les Guerres d’Apostasie</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Jen ai rien à foutre frère que t'aies d'la maille Rien à foutre d'ta tè-c' ou qutes potes soient des 'cailles C'est Alpha 5.20 alias arme fatale Et ça bipe dès que je passe au détecteur d'métal Moi je suis un gangster, dans le club je danse pas Il y aura pas dembrouille si tes potes ne parlent pas Moi jai tendu la main mais les nègres veulent mon bras Maintenant ils veulent me sucer mais je bande même pas Ghetto Faboulous Gang, Independance Day Dès que la ligne est noire boy appuie sur play Reste en bas du bloc, écoute les Gangsta Music hey Ride renoi, tu sais que le crime paie Mon loyer, 9.3 le foyer, joue pas les voyeurs, on tarrache les boyaux Bâtard regarde-toi, regarde-moi en face Black mixtape, 5.20 c'est le blaze Là où les gangsters ne dansent dans les clubs frérot On arrive pe-sa et puis les 'tasses on pé-cho C'est qui ça ? C'est qui ça ? C'est qui ça ? C'est qui ça Nous ! C'est les rabzas, les renois, les chinois, les touco, touco C'est l'Holocost qui cherche à t'mettre à té-cô Mec c'est cru, pas de vacances à Pattaya C'est la galère à la té-c', wesh re-frè faut pas tailler Faut pas tailler, ne rappe pas l'ghetto parce que c'est tendance négro Ne rappe pas l'ghetto pour la maille négro nan Ils ont peur parce que notre son les fait quer-cra Parce que ils veulent pas quon vienne quer-cro mais sur ma vie on les kickera Holocost clic, créé lémeute clic, clic, Holocost Ghetto Fab' paraît que le rap craque, craque Peu dimportance tu nous portais A présent comme plus dun dans le buzz tu veux exporter LHolocost ça y est maintenant t'as vu qu'on pèse La base, le biz, le buzz Les soi-disant boss, ignorant quça fait des piges qu'on blesse Comme un délinquant qui brasse, mate jamais notre froc se baisse Jvis bien maintenant, les frères ont de la haine D'autres jouent les chauds mais m'font dla peine Tapent leur ce-vi mais qu'à cela n'tienne Baisent leur vie juste comme une chienne Moi je kiffe les embrouilles où je crosse les bâtards Leurs euros en C.F.A, je les ramène à Dakar Puis y'a qu'les putes qui parlent mal sur moi Mais les vrais gangsters respectent Alpha cest quoi ton putain d'problème ? Alpha et Rosko un putain d'tandem Défouraille 7.7, défouraille 9.3 Défouraille Ile-de-France, défouraille Dakar Fuck ton rap de merde, t'es bon pour la casse Je t'expose comme une pute sur mon tableau de chasse Comme OlKainry sur les chemins de la dignité Et je porte une Breitling, boy viens me braquer</t>
+          <t>Le jour du jugement dernier, que vas-tu dire au Seigneur? Remonte à la surface, vite, l'enfer c'est la terreur T'entends les pas repartir de ce qui venait t'enterrer Seul, entre quatre planches, tu t'es mis à pleurer Devant le bourreau la victime se présenta Pourquoi t'as pris ma vie? Seul Dieu en a le droit Lugubre est la voie qui mène droit dans les flammes De l'enfer éternel, lien de sang ou fraternel C'est Satan, c'est le Mal, c'est le vice qui t'implique C'est la rue, c'est la taule, t'es un Blood, t'es un Crip Je m'en bats les couilles de ce que vous dites, dans mon équipe, que des nigguz Dakar Blood, jamais de Crips, phrase de mal que je débite Comme Snoop dans un clip, t'as des pétasses, sacs de fric Les criminels ne durent pas, Saddam à fini avec un slip Dans une grotte, affamé, capturé comme un paria Vendu par ses proches pour une poignée de dollars Ta race, ta religion, ton vécu ne m'impressionnent pas Khoroto c'est comme ça, tant que le monde tourne Je pardonne pas une virgule de ta poésie C'est comme ils disent, la rue est l'assiette de la vie Je prends en amuse-gueules les dealers et les MC Arrêtez de confondre rap et religion Les actes ne valent que par leurs intentions L'enfer c'est les autres, seuls les vrais sont mes frères Qui m'aime me suivra, moi je ne prêche que pour ma Terre Ma chapelle c'est l'Afrique, c'est Dakar, c'est Memphis Jusqu'au jour où la Terre se comblera de Justice Killuminati, en guerre contre les infidèles La peine de mort pour les apostats et criminels La fin des temps commence par la guerre en Israël Ce monde est éphémère, je veux la vie éternelle Killuminati, en guerre contre les infidèles La peine de mort pour les apostats et criminels La fin des temps commence par la guerre en Israël Ce monde est éphémère, je veux la vie éternelle Yeah! Killuminati Alpha Guerres d'Apostasie J'ai traversé la mort comme Moïse la Mer Rouge Comme du bétail, marqué mon peuple au fer rouge Rencontré des peuplades, Sodome et Gomorrhe Ils m'ont dit Ça te fait quoi d'avoir comme religion la même que Ben Laden? Je leur ai dit Ça vous fait quoi d'avoir la même religion qu'Hitler ou Jean-Marie Lepen? Puisse Dieu me pardonner, il m'appartient de juger aucun être humain sur cette Terre Légitime défense, c'est tout Que Dieu bénisse l'Afrique et tout personne, croyante ou pas, qui uvre pour la paix Saoldat d'Afrique, soldat d'Islam Yeah! À mort le communisme! À mort le capitalisme! À mort le Darwinisme! À mort le matérialisme! Et bien sûr à mort le sionisme! Soldats de Gog et Magog Ils assassinent tous les habitants de la Terre, ils prennent leurs arcs, ils tirent vers les Cieux Genre ils vont tuer aussi les habitants des Cieux Dieu leur retournera leurs arcs remplis de sang Il les décime en un clin d'il Que Dieu maudisse le nouvel ordre mondial Que Dieu maudisse les présidents africains, larbins de l'État français et de la franc-maçonnerie Que Dieu vous maudisse vous tous! Que Dieu bénisse l'Afrique, que Dieu bénisse l'Afrique, que Dieu bénisse l'Afrique Et tous les opprimés du monde entier Amen!</t>
         </is>
       </c>
     </row>
@@ -2018,12 +2018,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Les Guerres d’Apostasie</t>
+          <t>Les guerriers de la nuit</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Le jour du jugement dernier, que vas-tu dire au Seigneur? Remonte à la surface, vite, l'enfer c'est la terreur T'entends les pas repartir de ce qui venait t'enterrer Seul, entre quatre planches, tu t'es mis à pleurer Devant le bourreau la victime se présenta Pourquoi t'as pris ma vie? Seul Dieu en a le droit Lugubre est la voie qui mène droit dans les flammes De l'enfer éternel, lien de sang ou fraternel C'est Satan, c'est le Mal, c'est le vice qui t'implique C'est la rue, c'est la taule, t'es un Blood, t'es un Crip Je m'en bats les couilles de ce que vous dites, dans mon équipe, que des nigguz Dakar Blood, jamais de Crips, phrase de mal que je débite Comme Snoop dans un clip, t'as des pétasses, sacs de fric Les criminels ne durent pas, Saddam à fini avec un slip Dans une grotte, affamé, capturé comme un paria Vendu par ses proches pour une poignée de dollars Ta race, ta religion, ton vécu ne m'impressionnent pas Khoroto c'est comme ça, tant que le monde tourne Je pardonne pas une virgule de ta poésie C'est comme ils disent, la rue est l'assiette de la vie Je prends en amuse-gueules les dealers et les MC Arrêtez de confondre rap et religion Les actes ne valent que par leurs intentions L'enfer c'est les autres, seuls les vrais sont mes frères Qui m'aime me suivra, moi je ne prêche que pour ma Terre Ma chapelle c'est l'Afrique, c'est Dakar, c'est Memphis Jusqu'au jour où la Terre se comblera de Justice Killuminati, en guerre contre les infidèles La peine de mort pour les apostats et criminels La fin des temps commence par la guerre en Israël Ce monde est éphémère, je veux la vie éternelle Killuminati, en guerre contre les infidèles La peine de mort pour les apostats et criminels La fin des temps commence par la guerre en Israël Ce monde est éphémère, je veux la vie éternelle Yeah! Killuminati Alpha Guerres d'Apostasie J'ai traversé la mort comme Moïse la Mer Rouge Comme du bétail, marqué mon peuple au fer rouge Rencontré des peuplades, Sodome et Gomorrhe Ils m'ont dit Ça te fait quoi d'avoir comme religion la même que Ben Laden? Je leur ai dit Ça vous fait quoi d'avoir la même religion qu'Hitler ou Jean-Marie Lepen? Puisse Dieu me pardonner, il m'appartient de juger aucun être humain sur cette Terre Légitime défense, c'est tout Que Dieu bénisse l'Afrique et tout personne, croyante ou pas, qui uvre pour la paix Saoldat d'Afrique, soldat d'Islam Yeah! À mort le communisme! À mort le capitalisme! À mort le Darwinisme! À mort le matérialisme! Et bien sûr à mort le sionisme! Soldats de Gog et Magog Ils assassinent tous les habitants de la Terre, ils prennent leurs arcs, ils tirent vers les Cieux Genre ils vont tuer aussi les habitants des Cieux Dieu leur retournera leurs arcs remplis de sang Il les décime en un clin d'il Que Dieu maudisse le nouvel ordre mondial Que Dieu maudisse les présidents africains, larbins de l'État français et de la franc-maçonnerie Que Dieu vous maudisse vous tous! Que Dieu bénisse l'Afrique, que Dieu bénisse l'Afrique, que Dieu bénisse l'Afrique Et tous les opprimés du monde entier Amen!</t>
+          <t>La nuit tombe comme un rideau après un KO Monde parallèle sans issue comme une putain de caravelle La ville est sous le choc les bourgs les toxs les sirènes ... On est la race la plus haïe mais la plus résistante On a déjà trop gobé leur histoire de l'Iran Ghetto Fabulous Gang couleur rouge affiliée On pulvérise leurs monuments, nos bouches sont des mortiers African West Coast nocturne et sanguinaire On est pas dans la savane, violenc héréditaire Les porcs font des diagonals puis me trouvent au centre Respire la poudre négro avant d'aller se détendre S'attaquer aux plus faibles frère j'ai mieux à faire J'ai plein de tasses et des clients boy à satisfaire Communication primaire guette les signaux de feu Dis aux frères de Champigny que je serai au Bois sous peu La rue on rôde fume tue ... Chez nous c'est Gangsta Life Ghetto Fab Ghetto Fab La résistance ou le bruit des balles, les boss de Paname Putain de Gangsta Life Ghetto Fab Ghetto Fab ... Écoute la tragédie des hyènes On traîne en bande dans la pénombre On ère dans les rues une paire de Nike Air aux pieds regard de travers ... Encore un son pour la France qui se lève tard qui baise les stars Qui sont toujours devant quand y'a la ... ... Chez nous c'est Gangsta Life Ghetto Fab Ghetto Fab ...</t>
         </is>
       </c>
     </row>
@@ -2035,12 +2035,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Les guerriers de la nuit</t>
+          <t>Les rappeurs sont des chattes</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>La nuit tombe comme un rideau après un KO Monde parallèle sans issue comme une putain de caravelle La ville est sous le choc les bourgs les toxs les sirènes ... On est la race la plus haïe mais la plus résistante On a déjà trop gobé leur histoire de l'Iran Ghetto Fabulous Gang couleur rouge affiliée On pulvérise leurs monuments, nos bouches sont des mortiers African West Coast nocturne et sanguinaire On est pas dans la savane, violenc héréditaire Les porcs font des diagonals puis me trouvent au centre Respire la poudre négro avant d'aller se détendre S'attaquer aux plus faibles frère j'ai mieux à faire J'ai plein de tasses et des clients boy à satisfaire Communication primaire guette les signaux de feu Dis aux frères de Champigny que je serai au Bois sous peu La rue on rôde fume tue ... Chez nous c'est Gangsta Life Ghetto Fab Ghetto Fab La résistance ou le bruit des balles, les boss de Paname Putain de Gangsta Life Ghetto Fab Ghetto Fab ... Écoute la tragédie des hyènes On traîne en bande dans la pénombre On ère dans les rues une paire de Nike Air aux pieds regard de travers ... Encore un son pour la France qui se lève tard qui baise les stars Qui sont toujours devant quand y'a la ... ... Chez nous c'est Gangsta Life Ghetto Fab Ghetto Fab ...</t>
+          <t>Les rappeurs sont des chattes, Les rappeurs sont des chattes Devant Laurent Bouneau les jambes ils écartent Je n'ai pas besoin de sky, je n'ai pas besoin de majors Ghetto Fabolous Gang poto indépendant jusqu'à la mort Les rappeurs sont des chattes, les rappeurs sont des chiennes Ils critiquent puis après ils vont sucer les mêmes Les rappeurs parlent de té-c' pour moi c'est des chapelles Les rappeurs vont en taules pour moi c'est des hôtels Soupé avec le diable j'ai pris une grosse cuillère Pavé de bonnes intentions est le chemin de l'enfer Les rappeurs n'ont pas de maille, leurs voitures sont des loques Les rappeurs n'ont pas de flingues ils en prennent à leurs potes Les rappeurs sont dragons les rappeurs sont requins Mais y'en a pas un qui va se battre pour le Bénin Et je suis comme Yves Levand, Ouais! Un vrai black panther Salam à tous les anciens les autres n'ont qu'à se taire Les rappeurs sont maintenant des enfants de harkis Qui jurent sur le coran avec des bouteilles de whisky Les rappeurs sont des chattes, Les rappeurs sont des chattes Devant Laurent Bouneau les jambes ils écartent Je n'ai pas besoin de sky, je n'ai pas besoin de majors Ghetto Fabolous Gang poto indépendant jusqu'à la mort Les rappeurs sont des chattes, Les rappeurs sont des chattes Devant Laurent Bouneau les jambes ils écartent Je n'ai pas besoin de sky, je n'ai pas besoin de majors Ghetto Fabolous Gang poto indépendant jusqu'à la mort Les rappeurs ont une vie de clash et de fausses bastons En prison vous laverez mes chaussettes et mes caleçons Mon récit manifeste ce que je vis et j'ai entendu Ma musique est sincère mon âme je l'ai pas vendue Venez me faire la peau je veux mourir comme Pac Dans la BM de Suge quand les vitres éclatent Quand les rues s'embrasent ça tire à Las Vegas C'est une légende qui meurt l'industrie est un rapace Yeah chacal la rue m'a rendue ivre Comme C-Murder en boîte je tire et puis je m'éclipse Les rappeurs viennent te sucer pour un featuring Leur trahison n'est pas loin j'aperçois des signes Mensonges dans leurs yeux hypocrisie dans leurs gestes Maintenant qu'ils sont en chien tous te parle du bled De la scène d'autopsie moi je rappe comme C-Bo West side crippin' comme les frères de Sacramento Les rappeurs sont des chattes, Les rappeurs sont des chattes Devant Laurent Bouneau les jambes ils écartent Je n'ai pas besoin de sky, je n'ai pas besoin de majors Ghetto Fabolous Gang poto indépendant jusqu'à la mort Les rappeurs sont des chattes, Les rappeurs sont des chattes Devant Laurent Bouneau les jambes ils écartent Je n'ai pas besoin de sky, je n'ai pas besoin de majors Ghetto Fabolous Gang poto indépendant jusqu'à la mort Avant tout d'abord, un gros Big-Up à mon négro, Master P. Je te préfère à 2Pac négro, c'est toi le boss de l'indépendance, roi de la Nouvelle-Orléans, c'est pas Lil Wayne Quoi de neuf C-Murder? Yeah chacal! Big-Up au negro Eazy-E, et les Bone Thugs, vous m'avez grave influencé khey J'oublie pas mon négro Spice 1, mon negro MCH. Yeah! Above the law Et je vais, Californie du nord, Sacramento, quoi de neuf C-Bo, G-Mack, Killa Tay, Brotha Lynch? Et j'en passe cousin Californie du sud, San Diego, quoi de neuf Mitchy Slick? Blood nigga! Et je vais dans dans Memphis, Tennessee, dire bonjour à mes négros Three Six, C-Black, G-Boo han! Crunchy what up? Quoi de neuf à mon négro Tony ride Skinny Pimp Scarface Al Capone? Sans pour oublier pour moi le meilleur rappeur du monde Scarface et les Geto Boys, Bushwick Bill, Willie D, quoi de neuf 2Pac? T'es mon frère aussi Retour en France, Lino, Oxmo, légendaire Mafia K1-Fry, Iron et les frères Sy motherfucker! Democrates D! Les autres rappeurs, qui sont dans l'underground aussi Big-Up Seven, Zesau, 400 Hyènes, Youssef de rédemption, légendaire 93, Casey et Tandem Yvelines Crapule, Expression Direkt, Escobar Macson, Sefyu et tous les autres groupes qui font du sale! Respect Et si tes fâché et que j'ai pas mentionné ton nom, cousin je m'en bats les glawis tout simplement Alpha 25 pharmacie khey! Gangsta!2</t>
         </is>
       </c>
     </row>
@@ -2052,12 +2052,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Les rappeurs sont des chattes</t>
+          <t>Little Dakar</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Les rappeurs sont des chattes, Les rappeurs sont des chattes Devant Laurent Bouneau les jambes ils écartent Je n'ai pas besoin de sky, je n'ai pas besoin de majors Ghetto Fabolous Gang poto indépendant jusqu'à la mort Les rappeurs sont des chattes, les rappeurs sont des chiennes Ils critiquent puis après ils vont sucer les mêmes Les rappeurs parlent de té-c' pour moi c'est des chapelles Les rappeurs vont en taules pour moi c'est des hôtels Soupé avec le diable j'ai pris une grosse cuillère Pavé de bonnes intentions est le chemin de l'enfer Les rappeurs n'ont pas de maille, leurs voitures sont des loques Les rappeurs n'ont pas de flingues ils en prennent à leurs potes Les rappeurs sont dragons les rappeurs sont requins Mais y'en a pas un qui va se battre pour le Bénin Et je suis comme Yves Levand, Ouais! Un vrai black panther Salam à tous les anciens les autres n'ont qu'à se taire Les rappeurs sont maintenant des enfants de harkis Qui jurent sur le coran avec des bouteilles de whisky Les rappeurs sont des chattes, Les rappeurs sont des chattes Devant Laurent Bouneau les jambes ils écartent Je n'ai pas besoin de sky, je n'ai pas besoin de majors Ghetto Fabolous Gang poto indépendant jusqu'à la mort Les rappeurs sont des chattes, Les rappeurs sont des chattes Devant Laurent Bouneau les jambes ils écartent Je n'ai pas besoin de sky, je n'ai pas besoin de majors Ghetto Fabolous Gang poto indépendant jusqu'à la mort Les rappeurs ont une vie de clash et de fausses bastons En prison vous laverez mes chaussettes et mes caleçons Mon récit manifeste ce que je vis et j'ai entendu Ma musique est sincère mon âme je l'ai pas vendue Venez me faire la peau je veux mourir comme Pac Dans la BM de Suge quand les vitres éclatent Quand les rues s'embrasent ça tire à Las Vegas C'est une légende qui meurt l'industrie est un rapace Yeah chacal la rue m'a rendue ivre Comme C-Murder en boîte je tire et puis je m'éclipse Les rappeurs viennent te sucer pour un featuring Leur trahison n'est pas loin j'aperçois des signes Mensonges dans leurs yeux hypocrisie dans leurs gestes Maintenant qu'ils sont en chien tous te parle du bled De la scène d'autopsie moi je rappe comme C-Bo West side crippin' comme les frères de Sacramento Les rappeurs sont des chattes, Les rappeurs sont des chattes Devant Laurent Bouneau les jambes ils écartent Je n'ai pas besoin de sky, je n'ai pas besoin de majors Ghetto Fabolous Gang poto indépendant jusqu'à la mort Les rappeurs sont des chattes, Les rappeurs sont des chattes Devant Laurent Bouneau les jambes ils écartent Je n'ai pas besoin de sky, je n'ai pas besoin de majors Ghetto Fabolous Gang poto indépendant jusqu'à la mort Avant tout d'abord, un gros Big-Up à mon négro, Master P. Je te préfère à 2Pac négro, c'est toi le boss de l'indépendance, roi de la Nouvelle-Orléans, c'est pas Lil Wayne Quoi de neuf C-Murder? Yeah chacal! Big-Up au negro Eazy-E, et les Bone Thugs, vous m'avez grave influencé khey J'oublie pas mon négro Spice 1, mon negro MCH. Yeah! Above the law Et je vais, Californie du nord, Sacramento, quoi de neuf C-Bo, G-Mack, Killa Tay, Brotha Lynch? Et j'en passe cousin Californie du sud, San Diego, quoi de neuf Mitchy Slick? Blood nigga! Et je vais dans dans Memphis, Tennessee, dire bonjour à mes négros Three Six, C-Black, G-Boo han! Crunchy what up? Quoi de neuf à mon négro Tony ride Skinny Pimp Scarface Al Capone? Sans pour oublier pour moi le meilleur rappeur du monde Scarface et les Geto Boys, Bushwick Bill, Willie D, quoi de neuf 2Pac? T'es mon frère aussi Retour en France, Lino, Oxmo, légendaire Mafia K1-Fry, Iron et les frères Sy motherfucker! Democrates D! Les autres rappeurs, qui sont dans l'underground aussi Big-Up Seven, Zesau, 400 Hyènes, Youssef de rédemption, légendaire 93, Casey et Tandem Yvelines Crapule, Expression Direkt, Escobar Macson, Sefyu et tous les autres groupes qui font du sale! Respect Et si tes fâché et que j'ai pas mentionné ton nom, cousin je m'en bats les glawis tout simplement Alpha 25 pharmacie khey! Gangsta!2</t>
+          <t>Teste pas, ne nous parle pas, on est drogué au combat Plein de traîtres et de Judas veulent nous tirer vers le bas Pour cela que je suis armé, munitions je suis bardé L'esprit de vengeance incarné, mes flingues je les ai gardés De Dakar jusqu'à Epinay, combien de flingues j'ai tiré Combien de tasses j'ai fourré ? Meurtrière est la virée Négro écoute la seule voix, après la guerre y'aura la paix Tendre la joue c'est pas la peine, tes flingues les nôtres sont pas les mêmes Reste tranquille, ouvre pas ta gueule derrière les portes d'une prison En Ile-de-France niquer Alpha, dar est la mission J'attends juste au tournant, négro j'suis trop gourmand La rue a versé mon sang, j'aimerais marquer mon temps Dans le dictionnaire des gangsters, y'aura mon image en grand Règne en rouge comme Suge Knight, fait la pluie et le beau temps Dakar n'a rien à envier aux ghettos de Sao Paulo Mes soldats viennent de Burkina, Haïti, Guinée Bissau Clignancourt Little Dakar, Clignancourt Little Dakar Clignancourt Little Dakar, man viens demander Alpha Clignancourt, Clignancourt, Clignancourt Little Dakar Man viens demander Alpha, boy viens demander Alpha Clignancourt Little Dakar, Clignancourt Little Dakar Clignancourt Little Dakar, man viens demander Alpha Clignancourt Little Dakar, man viens demander Alpha Man viens demander Alpha, man viens demander Alpha C'est pour mes thugs trafiquants qui attendent sous le pont Même devant les flics bicravent des faux sacs Louis Vuitton Bienvenue à Clignancourt, ce n'est pas la France ici Et je t'assure que Rocancourt ne fera pas long feu ici On a des armes, on a des armes de première catégorie Des écrans plasma qu'on a volé à moitié prix J'suis le roi des insoumis, j'ai pas de pierre sous mon trône Niquer l'Etat tous les jours, la seule valeur que nous on prône Ghetto Fabulous Gang, négros savent qu'on a souffert Casino ambulant, tous les jours on est ouvert Man appelle le commissaire, on lui paye un pot de vin Nos ennemis sous le périph, on les allonge à coups de surin On vise la lune, on vise la lune, regarde le monde de travers 93, Seine et Marne A.K.A hommes des cavernes Moi je crache la crème du crime, puis après l'industrie pleure Bienvenue à Clignancourt, paradis des receleurs Clignancourt Little Dakar, Clignancourt Little Dakar Clignancourt Little Dakar, man viens demander Alpha Clignancourt, Clignancourt, Clignancourt Little Dakar Man viens demander Alpha, boy viens demander Alpha Clignancourt Little Dakar, Clignancourt Little Dakar Clignancourt Little Dakar, man viens demander Alpha Clignancourt Little Dakar, man viens demander Alpha Man viens demander Alpha, man viens demander Alpha</t>
         </is>
       </c>
     </row>
@@ -2069,12 +2069,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Little Dakar</t>
+          <t>Ma Définition RMX</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Teste pas, ne nous parle pas, on est drogué au combat Plein de traîtres et de Judas veulent nous tirer vers le bas Pour cela que je suis armé, munitions je suis bardé L'esprit de vengeance incarné, mes flingues je les ai gardés De Dakar jusqu'à Epinay, combien de flingues j'ai tiré Combien de tasses j'ai fourré ? Meurtrière est la virée Négro écoute la seule voix, après la guerre y'aura la paix Tendre la joue c'est pas la peine, tes flingues les nôtres sont pas les mêmes Reste tranquille, ouvre pas ta gueule derrière les portes d'une prison En Ile-de-France niquer Alpha, dar est la mission J'attends juste au tournant, négro j'suis trop gourmand La rue a versé mon sang, j'aimerais marquer mon temps Dans le dictionnaire des gangsters, y'aura mon image en grand Règne en rouge comme Suge Knight, fait la pluie et le beau temps Dakar n'a rien à envier aux ghettos de Sao Paulo Mes soldats viennent de Burkina, Haïti, Guinée Bissau Clignancourt Little Dakar, Clignancourt Little Dakar Clignancourt Little Dakar, man viens demander Alpha Clignancourt, Clignancourt, Clignancourt Little Dakar Man viens demander Alpha, boy viens demander Alpha Clignancourt Little Dakar, Clignancourt Little Dakar Clignancourt Little Dakar, man viens demander Alpha Clignancourt Little Dakar, man viens demander Alpha Man viens demander Alpha, man viens demander Alpha C'est pour mes thugs trafiquants qui attendent sous le pont Même devant les flics bicravent des faux sacs Louis Vuitton Bienvenue à Clignancourt, ce n'est pas la France ici Et je t'assure que Rocancourt ne fera pas long feu ici On a des armes, on a des armes de première catégorie Des écrans plasma qu'on a volé à moitié prix J'suis le roi des insoumis, j'ai pas de pierre sous mon trône Niquer l'Etat tous les jours, la seule valeur que nous on prône Ghetto Fabulous Gang, négros savent qu'on a souffert Casino ambulant, tous les jours on est ouvert Man appelle le commissaire, on lui paye un pot de vin Nos ennemis sous le périph, on les allonge à coups de surin On vise la lune, on vise la lune, regarde le monde de travers 93, Seine et Marne A.K.A hommes des cavernes Moi je crache la crème du crime, puis après l'industrie pleure Bienvenue à Clignancourt, paradis des receleurs Clignancourt Little Dakar, Clignancourt Little Dakar Clignancourt Little Dakar, man viens demander Alpha Clignancourt, Clignancourt, Clignancourt Little Dakar Man viens demander Alpha, boy viens demander Alpha Clignancourt Little Dakar, Clignancourt Little Dakar Clignancourt Little Dakar, man viens demander Alpha Clignancourt Little Dakar, man viens demander Alpha Man viens demander Alpha, man viens demander Alpha</t>
+          <t>Issu des quartiers meurtriers, là où le meurtre y est trop fréquent La vie de you-voi et ses conséquences J'raconte les trips du ghetto, ses ambiances louches Quand sonne le fusil à pompe, tout le monde se couche Pas un voyou qui fasse long feu t'es prévenu À peine tu viens d'ouvrir les yeux que t'es détenu La mort ou la prison t'as que deux issues L'histoire s'répète et tu crois être le plus vicieux Tu veux grimper par nimporte quel procédé Tes donc sujet à de judiciaires procédures La rue te guette, mec, les flics aussi Tas peut-être déjà vendu une barrette à un vil-ci Entre les traîtres et les balances tu te balances comme sur un fil Ta carrière peut prendre fin sur un coup de fil dune balance Un mec se tient mal et passe à table Ton numéro décrou remplace celui de ton portable Là, tu connais lenvers du décor La prison et son univers hardcore Faut qu't'assumes, même si son atmosphère t'asphyxie Le juge tallume et fait ber-tom ton sursis Affaibli malgré ton moral dacier Leurs barreaux, tu souhaiterais pouvoir les scier Maintenant que la parole devient l'encre Tu te rends compte qu'il y a peu de gens pour qui tu comptes Peu de courriers et encore moins de mandats Quest-ce que tu crois ? Pour survivre tes pas assisté Ta mère na que ses yeux pour pleurer Le cur serré tant que son fils est incarcéré Ébranlée par cette douloureuse conviction Quelle a échoué, manqué à ton éducation Et dès que tes sorti ça y est tes reparti Puis tes reparti dès qu t es sorti Les plus jeunes te prennent pour modèle Ils comptent sur toi pour que tu leur fasses prendre de loseille Ça tarranges vu qu t as les flics sur les reins Tu nhésites pas, les mômes tu les fous sur le terrain Tu veux pour eux cque tu ne voudrais pas pour ton fils Et ta morale ne lemporte pas sur ton vice Te remettre en question, pour toi pas question Tu te fous du monde des flics et de leurs questions Tu te méfies de tout même des sourires Tu sais quen prison beaucoup voudraient te voir pourrir Dautres te voir mourir après tavoir fait courir Pour parvenir à cela ils seraient même prêts à te nourrir Ma définition, jen veux toujours plus Jattends pas leur putain dpaye ou leur putain dbus Insoumis, jfais des sous bêtement Parce que jveux voir cpays en sous-vêtements Jvoulais savoir pourquoi lAfrique vit malement Du CP à la seconde ils mparlent dla Joconde et des Allemands Ici le diable racole, fuis son rodéo Tattache dans lhall avec d'la coke, pisse sur ton auréole Delabel, Sony ou Virgin Vous comprenez, mon style na pas besoin d'vigiles Des plaques et des plaques, si cporc dChirac était black J'suis obscur, dors dun il comme un missile scud Jsuis pas le bienvenu, mais jsuis là Reprends cquon ma enlevé, jsuis venu manger et chier là Plongé dans la tourmente quand les fonds manquent À force de mplaindre, jattends plus largent, jvais lprendre Dérivé trop jeune, jpeux plus redescendre Et jessaie d'pas dêtre en chien djanvier à décembre Ou jte fais jouir ou jte fais mal, cest très simple Ma définition avec des textes à prendre à 1 degré 5 Jviens des Hauts dSeine, obscène est mon style, mon comportement Jsuis instable au micro, et dans la rue jvis nimporte comment Jmen bats la race sauf des potes, la famille et lcash Y faut dla maille, plein dsky, faut qujgraille, non ? Écoute, goûte mon flow, fils, car jai pas bsoin dsponsor Le rap, mon crew et lvice, cest comme ça qujmen sors Connu pour tuer les M.I.C. dici à NYC Du sang, des risques et du son ma définition Puisque la vie n'est remplie que de tard-bâ Tel que ces profs qui avant d'avoir des preuves me montraient du doigt J'm'en vais combattre le mal par le mal Accompagné de... armé de... et me voi-al Je guette ma proie près du distributeur Patiemment, je suis, et j'attends mon heure Puis vient un moment où les choses se précipitent Mais qu'est-ce qui se passe ? Ferme ta gueule, passes-moi l'argent Tout va trop vite Les coups fusent, c'est le rite lorsque la victime résiste On ne se retourne jamais, c'est juste une autre sur la liste Mais cette fois-ci, malheureusement, les choses ont mal tourné Me voilà prisonnier, arrêté, gardé en GAV Les inspecteurs essayent en vain de me faire cracher le morceau Utilisent la menace pour que je craque, balance mes pains-co Mais pas question, les vrais nhommes-bo ne balancent pas Alors je ferme ma gueule, j'assume et j'reste froid Devant les insultes répétées des policiers Me rappelant, soudainement, qu'ici je n'suis qu'un étranger Et obligé, on passe, photos, empreintes, photos, empreintes Traité en K'1-Fry Mafioso, fait en moi monter la crainte L'algérien d'à côté voudrait seulement fumer Mais à force d'être insulté il voudrait même se suicider Ils rentrent à huit dans la cellule, le tabassent à mort Ce fils de pute m'a sali dit un keuf à qui je souhaite la mort À qui le tour, peut-être à moi ce jour J'ai senti la patate, mais crois-moi regarde moi j'suis pas Rodney King De plus j'n'ai commis qu'un petit délit 48 heures qu'on me garde ici sûr, putain, je pète un plomb En plus ils croient que j'vais donner des noms S'ils savaient qu'ils perdraient beaucoup moins d'temps en me suçant la bite C'est direct Maintenant tu sais qu'où j'habite le 9.4.310 Avec nous il n'y a pas de peace Connu pour tuer les M.I.C. dici à NYC Du sang, des risques et du son ma définition Jviens des Hauts dSeine, obscène est mon style, mon comportement Jsuis instable au micro, et dans la rue jvis nimporte comment Jmen bats la race sauf des potes, la famille et lcash Y faut dla maille, plein dsky, faut qujgraille, non ? Écoute, goûte mon flow, fils, car jai pas bsoin dsponsor Le rap, mon crew et lvice, cest comme ça qujmen sors Connu pour tuer les M.I.C. dici à NYC Du sang, des risques et du son ma définition Écoute, regarde, pour une poignée de dollars Les jeunes du ghetto sont prêts à aller au placard Deal, biz, braquage en temps de crise Espèce de connard, accuse le pouvoir, écoute..</t>
         </is>
       </c>
     </row>
@@ -2086,12 +2086,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Ma Définition RMX</t>
+          <t>Ma vie est sacrée</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Issu des quartiers meurtriers, là où le meurtre y est trop fréquent La vie de you-voi et ses conséquences J'raconte les trips du ghetto, ses ambiances louches Quand sonne le fusil à pompe, tout le monde se couche Pas un voyou qui fasse long feu t'es prévenu À peine tu viens d'ouvrir les yeux que t'es détenu La mort ou la prison t'as que deux issues L'histoire s'répète et tu crois être le plus vicieux Tu veux grimper par nimporte quel procédé Tes donc sujet à de judiciaires procédures La rue te guette, mec, les flics aussi Tas peut-être déjà vendu une barrette à un vil-ci Entre les traîtres et les balances tu te balances comme sur un fil Ta carrière peut prendre fin sur un coup de fil dune balance Un mec se tient mal et passe à table Ton numéro décrou remplace celui de ton portable Là, tu connais lenvers du décor La prison et son univers hardcore Faut qu't'assumes, même si son atmosphère t'asphyxie Le juge tallume et fait ber-tom ton sursis Affaibli malgré ton moral dacier Leurs barreaux, tu souhaiterais pouvoir les scier Maintenant que la parole devient l'encre Tu te rends compte qu'il y a peu de gens pour qui tu comptes Peu de courriers et encore moins de mandats Quest-ce que tu crois ? Pour survivre tes pas assisté Ta mère na que ses yeux pour pleurer Le cur serré tant que son fils est incarcéré Ébranlée par cette douloureuse conviction Quelle a échoué, manqué à ton éducation Et dès que tes sorti ça y est tes reparti Puis tes reparti dès qu t es sorti Les plus jeunes te prennent pour modèle Ils comptent sur toi pour que tu leur fasses prendre de loseille Ça tarranges vu qu t as les flics sur les reins Tu nhésites pas, les mômes tu les fous sur le terrain Tu veux pour eux cque tu ne voudrais pas pour ton fils Et ta morale ne lemporte pas sur ton vice Te remettre en question, pour toi pas question Tu te fous du monde des flics et de leurs questions Tu te méfies de tout même des sourires Tu sais quen prison beaucoup voudraient te voir pourrir Dautres te voir mourir après tavoir fait courir Pour parvenir à cela ils seraient même prêts à te nourrir Ma définition, jen veux toujours plus Jattends pas leur putain dpaye ou leur putain dbus Insoumis, jfais des sous bêtement Parce que jveux voir cpays en sous-vêtements Jvoulais savoir pourquoi lAfrique vit malement Du CP à la seconde ils mparlent dla Joconde et des Allemands Ici le diable racole, fuis son rodéo Tattache dans lhall avec d'la coke, pisse sur ton auréole Delabel, Sony ou Virgin Vous comprenez, mon style na pas besoin d'vigiles Des plaques et des plaques, si cporc dChirac était black J'suis obscur, dors dun il comme un missile scud Jsuis pas le bienvenu, mais jsuis là Reprends cquon ma enlevé, jsuis venu manger et chier là Plongé dans la tourmente quand les fonds manquent À force de mplaindre, jattends plus largent, jvais lprendre Dérivé trop jeune, jpeux plus redescendre Et jessaie d'pas dêtre en chien djanvier à décembre Ou jte fais jouir ou jte fais mal, cest très simple Ma définition avec des textes à prendre à 1 degré 5 Jviens des Hauts dSeine, obscène est mon style, mon comportement Jsuis instable au micro, et dans la rue jvis nimporte comment Jmen bats la race sauf des potes, la famille et lcash Y faut dla maille, plein dsky, faut qujgraille, non ? Écoute, goûte mon flow, fils, car jai pas bsoin dsponsor Le rap, mon crew et lvice, cest comme ça qujmen sors Connu pour tuer les M.I.C. dici à NYC Du sang, des risques et du son ma définition Puisque la vie n'est remplie que de tard-bâ Tel que ces profs qui avant d'avoir des preuves me montraient du doigt J'm'en vais combattre le mal par le mal Accompagné de... armé de... et me voi-al Je guette ma proie près du distributeur Patiemment, je suis, et j'attends mon heure Puis vient un moment où les choses se précipitent Mais qu'est-ce qui se passe ? Ferme ta gueule, passes-moi l'argent Tout va trop vite Les coups fusent, c'est le rite lorsque la victime résiste On ne se retourne jamais, c'est juste une autre sur la liste Mais cette fois-ci, malheureusement, les choses ont mal tourné Me voilà prisonnier, arrêté, gardé en GAV Les inspecteurs essayent en vain de me faire cracher le morceau Utilisent la menace pour que je craque, balance mes pains-co Mais pas question, les vrais nhommes-bo ne balancent pas Alors je ferme ma gueule, j'assume et j'reste froid Devant les insultes répétées des policiers Me rappelant, soudainement, qu'ici je n'suis qu'un étranger Et obligé, on passe, photos, empreintes, photos, empreintes Traité en K'1-Fry Mafioso, fait en moi monter la crainte L'algérien d'à côté voudrait seulement fumer Mais à force d'être insulté il voudrait même se suicider Ils rentrent à huit dans la cellule, le tabassent à mort Ce fils de pute m'a sali dit un keuf à qui je souhaite la mort À qui le tour, peut-être à moi ce jour J'ai senti la patate, mais crois-moi regarde moi j'suis pas Rodney King De plus j'n'ai commis qu'un petit délit 48 heures qu'on me garde ici sûr, putain, je pète un plomb En plus ils croient que j'vais donner des noms S'ils savaient qu'ils perdraient beaucoup moins d'temps en me suçant la bite C'est direct Maintenant tu sais qu'où j'habite le 9.4.310 Avec nous il n'y a pas de peace Connu pour tuer les M.I.C. dici à NYC Du sang, des risques et du son ma définition Jviens des Hauts dSeine, obscène est mon style, mon comportement Jsuis instable au micro, et dans la rue jvis nimporte comment Jmen bats la race sauf des potes, la famille et lcash Y faut dla maille, plein dsky, faut qujgraille, non ? Écoute, goûte mon flow, fils, car jai pas bsoin dsponsor Le rap, mon crew et lvice, cest comme ça qujmen sors Connu pour tuer les M.I.C. dici à NYC Du sang, des risques et du son ma définition Écoute, regarde, pour une poignée de dollars Les jeunes du ghetto sont prêts à aller au placard Deal, biz, braquage en temps de crise Espèce de connard, accuse le pouvoir, écoute..</t>
+          <t>Mon combat c'est pas de killer, par le crime apprêté Racaille depuis la naissance, ma maille je l'ai rejetée Dans les pesas, les CD puis après les bâtiments T'as vu mon DVD, tu peux pas dire maintenant Alpha tu mens Okay négros connaissent ma vie mais rien à ma peine La bicrave est dans ma tête, la négritude dans mes gênes ... comment mon coeur est devenu froid Tel un bloc de glace plongé dans le désarroi J'suis au dessus de toi, j'suis au dessus des lois J'suis au dessus des ..., j'suis au dessus des rois Le droit chemin à dos le flingue sous mon coussin J'arrive pas à dormir je dois garder mon butin Putain tous les négros veulent ma vie ou ma bourse Ils veulent même savoir où ma femme fait ses courses Les flics écoutent mon phone espèrent avoir des infos sur Shone Assoc' de malfrats Ghetto Fab nous on prône La mort des fils de pute qui déshonorent l'Afrique À qui la guerre profite alimente les trafics Dans les rues d'Abidjan j'suis comme ... Avec une hache dans la main ... Mais pourquoi les négros se complaisent dans la misère ? ... Et c'est réel négro ma vie n'est pas un film ...</t>
         </is>
       </c>
     </row>
@@ -2103,12 +2103,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Ma vie est sacrée</t>
+          <t>Mec de tess (Remix)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Mon combat c'est pas de killer, par le crime apprêté Racaille depuis la naissance, ma maille je l'ai rejetée Dans les pesas, les CD puis après les bâtiments T'as vu mon DVD, tu peux pas dire maintenant Alpha tu mens Okay négros connaissent ma vie mais rien à ma peine La bicrave est dans ma tête, la négritude dans mes gênes ... comment mon coeur est devenu froid Tel un bloc de glace plongé dans le désarroi J'suis au dessus de toi, j'suis au dessus des lois J'suis au dessus des ..., j'suis au dessus des rois Le droit chemin à dos le flingue sous mon coussin J'arrive pas à dormir je dois garder mon butin Putain tous les négros veulent ma vie ou ma bourse Ils veulent même savoir où ma femme fait ses courses Les flics écoutent mon phone espèrent avoir des infos sur Shone Assoc' de malfrats Ghetto Fab nous on prône La mort des fils de pute qui déshonorent l'Afrique À qui la guerre profite alimente les trafics Dans les rues d'Abidjan j'suis comme ... Avec une hache dans la main ... Mais pourquoi les négros se complaisent dans la misère ? ... Et c'est réel négro ma vie n'est pas un film ...</t>
+          <t>Ok, mec de tess remix, niggas Alkpote, nigga, rull up Salif, rull up Ritmo de la noche, rull up Escobar Matson, 9-3, rull up Alpha 5.20, masqué, rull up Ghetto Fab' Gang Partout, les mecs de tess yeah C'est pour les mecs qu'ont grandi à 10 dans un HLM 2 pièces C'est pour les mecs de tess qui purgent des peines de hebs Si tu viens d'te branler, prends pas la peine de m'check Les mecs baisent le tier-qu's avec des bêtes de seize yeah Faut qu'j'sorte ma mère d'la se-cri Tu pourras m'croiser avec une paire de Nike Air tah pe-cli Les mecs fument et comme le concorde décolle Les p'tits cons sortent d'l'école et jouent les Don Corleone Mec de tess, mais qu'est-ce tu veux qu'j't'dise, moi ? On fait du bus', on les baise, demande à Isma' Trop d'flics au tier-quar', trop d'kilos d'ses-lar C'sont plus les voisins mais les potos qui bigo les shtars Si si, c'est Évry au mic, pull et bioman On écrit nos rap entre des kilogrammes et des prises d'otages salope Mec de tess régional, mafieux comme Ray Liotta Respecte ceux qui font la ière-pri au taf si si On excite vos 'tasses, demande à Poison Violent comme 91 bites en érection, j'braque la réception Y a pas d'déception ou d'vie imaginaire Pour les mecs de tess sombres qui dealent la zipette Sale p'tite merde, j'peux te satisfaire Dans les sanitaires, j'ai la flèche du Sagittaire voilà La jarre du Verseau, la moustache à Hitler S'agit d'faire les choses bien, faut rester sage, p'tit frère Partout près d'chez toi, y a toujours des mecs de tess Dans les grecs et les sex shop, y a toujours des mecs de tess Tu vas sucer et re-sucer car y a toujours des mecs de tess En G.A.V, mecs de tess, en son-pri, mecs de tess Ils vivent de l'économie souterraine, des mecs de tess Le crime organisé nous parraine, des mecs de tess À qui on disait je t'aime avec une ceinture, des mecs de tess Élevé à la dure, mecs de tess, une valeur sûre, mecs de tess E.S.C.O.B.A.R Macson, du lourd comme un toc Docteur Koen, arrache mes boules, greffe-moi des boules de pétanques Kori dans la zup, Tony Bamboula, j'reste audible Le Sheitan me hais parce que j'suis crédible Compte jusqu'à 7 comme mes pêchés, 7 comme mes lettres 7 comme cette bastos que j'te foutrais dans l'crâne au ghetto 100 moins 7 Macson, agit quand les pédés parlent tous Ils perdent leur temps, comme arroser des feuilles mortes pour qu'elles poussent Mec de tess de Villetaneuve à Créteil, les chars passant par Kinshasa T'obtiens que dalle si tu croises les chiens et les chats Mon slogan Rap, escroquerie, botanique, le canon au bout du gland Ma musique, c'est la cagoule avec les gants À c't heure-ci, tout l'monde s'est mis à la bicrave Dans mon ghetto, le sida tourne et les p'tits putes kiffent la bite crade Pas b'soin d'Hannibal comme Tom Dans ma tête, c'est drive by comme à Compton, j'viens d'sortir d'ma tombe J'ai mis mon boule sur la photo d'mon C.V Sorti le brolique, la cagoule pour taffer à E.D Itinéraire de mauvais garçon, le 44 dans l'blouson J'ai la colère comme le réveil d'un maçon J'joue l'Tony Montana, Poison a.k.a Santana J't'étranglerais avec ma ceinture Gabbana Mec de tess, que les biatch lèchent nos sexes C'est un putain d'drive by, niggas, en Mercedes-Benz Partout près d'chez toi, y a toujours des mecs de tess Dans les grecs et les sex shop, y a toujours des mecs de tess Tu vas sucer et re-sucer car y a toujours des mecs de tess En G.A.V, mecs de tess, en son-pri, mecs de tess Ils vivent de l'économie souterraine, des mecs de tess Le crime organisé nous parraine, des mecs de tess À qui on disait je t'aime avec une ceinture, des mecs de tess Élevé à la dure, mecs de tess, une valeur sûre, mecs de tess Prends mon rap de volley comme un quaterback Uzi circulaire à l'Ombak, pas d'combat, fais-moi d'la place dans les bacs Boum ! J'apparais dans l'rap game, gamin Tu s'ras absorbé dans nos rayons gamma Les mecs de tess ont plus l'shtar comme Ol'Dirty Bastard Connard, achète mes cahiers, y a les enfants dans l'square Garde ton self-contrôle, un mec de tess nous contrôle À la maison, j'ai déjà ler-vo pour nous faire esquiver la taule Le temps presse, prépare les compresses C'est l'Âge de pierre, retour au silex, la pièce maîtresse Le mec de tess dans la débrouillardise reste adroit Le mec de tess ne veut pas d'venir la soirée d'Soulpra Fuck tous tes gens, amène le liquide Dakar commet des meurtres puis maquille ça en suicide C'est pour les mecs de tess et les mecs du bled Sans pitié avec les porcs, toujours manger du quer-n' Les frères s'en battent, qui refusent de se soumettre Les syndicats de plus enculent l'État et les traîtres Internal réflexion comme mon cous' Kouali Sors la hache après le droit qu'on m'allie J'suis au fond du gouffre, me tends pas la main J'sors de l'autoroute, sanguinaire sera le bain M'éloigne des humains pour gagner le Divin Scène du crime, 9-3, criminal surhomme Partout près d'chez toi, y a toujours des mecs de tess Dans les grecs et les sex shop, y a toujours des mecs de tess Tu vas sucer et re-sucer car y a toujours des mecs de tess En G.A.V, mecs de tess, en son-pri, mecs de tess Ils vivent de l'économie souterraine, des mecs de tess Le crime organisé nous parraine, des mecs de tess À qui on disait je t'aime avec une ceinture, des mecs de tess Élevé à la dure, mecs de tess, une valeur sûre, mecs de tess Partout près d'chez toi, y a toujours des mecs de tess Dans les grecs et les sex shop, y a toujours des mecs de tess Tu vas sucer et re-sucer car y a toujours des mecs de tess En G.A.V, mecs de tess, en son-pri, mecs de tess Ils vivent de l'économie souterraine, des mecs de tess Le crime organisé nous parraine, des mecs de tess À qui on disait je t'aime avec une ceinture, des mecs de tess Élevé à la dure, mecs de tess, une valeur sûre, mecs de tess</t>
         </is>
       </c>
     </row>
@@ -2120,12 +2120,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Mec de tess (Remix)</t>
+          <t>Mecs 2 Tess</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Ok, mec de tess remix, niggas Alkpote, nigga, rull up Salif, rull up Ritmo de la noche, rull up Escobar Matson, 9-3, rull up Alpha 5.20, masqué, rull up Ghetto Fab' Gang Partout, les mecs de tess yeah C'est pour les mecs qu'ont grandi à 10 dans un HLM 2 pièces C'est pour les mecs de tess qui purgent des peines de hebs Si tu viens d'te branler, prends pas la peine de m'check Les mecs baisent le tier-qu's avec des bêtes de seize yeah Faut qu'j'sorte ma mère d'la se-cri Tu pourras m'croiser avec une paire de Nike Air tah pe-cli Les mecs fument et comme le concorde décolle Les p'tits cons sortent d'l'école et jouent les Don Corleone Mec de tess, mais qu'est-ce tu veux qu'j't'dise, moi ? On fait du bus', on les baise, demande à Isma' Trop d'flics au tier-quar', trop d'kilos d'ses-lar C'sont plus les voisins mais les potos qui bigo les shtars Si si, c'est Évry au mic, pull et bioman On écrit nos rap entre des kilogrammes et des prises d'otages salope Mec de tess régional, mafieux comme Ray Liotta Respecte ceux qui font la ière-pri au taf si si On excite vos 'tasses, demande à Poison Violent comme 91 bites en érection, j'braque la réception Y a pas d'déception ou d'vie imaginaire Pour les mecs de tess sombres qui dealent la zipette Sale p'tite merde, j'peux te satisfaire Dans les sanitaires, j'ai la flèche du Sagittaire voilà La jarre du Verseau, la moustache à Hitler S'agit d'faire les choses bien, faut rester sage, p'tit frère Partout près d'chez toi, y a toujours des mecs de tess Dans les grecs et les sex shop, y a toujours des mecs de tess Tu vas sucer et re-sucer car y a toujours des mecs de tess En G.A.V, mecs de tess, en son-pri, mecs de tess Ils vivent de l'économie souterraine, des mecs de tess Le crime organisé nous parraine, des mecs de tess À qui on disait je t'aime avec une ceinture, des mecs de tess Élevé à la dure, mecs de tess, une valeur sûre, mecs de tess E.S.C.O.B.A.R Macson, du lourd comme un toc Docteur Koen, arrache mes boules, greffe-moi des boules de pétanques Kori dans la zup, Tony Bamboula, j'reste audible Le Sheitan me hais parce que j'suis crédible Compte jusqu'à 7 comme mes pêchés, 7 comme mes lettres 7 comme cette bastos que j'te foutrais dans l'crâne au ghetto 100 moins 7 Macson, agit quand les pédés parlent tous Ils perdent leur temps, comme arroser des feuilles mortes pour qu'elles poussent Mec de tess de Villetaneuve à Créteil, les chars passant par Kinshasa T'obtiens que dalle si tu croises les chiens et les chats Mon slogan Rap, escroquerie, botanique, le canon au bout du gland Ma musique, c'est la cagoule avec les gants À c't heure-ci, tout l'monde s'est mis à la bicrave Dans mon ghetto, le sida tourne et les p'tits putes kiffent la bite crade Pas b'soin d'Hannibal comme Tom Dans ma tête, c'est drive by comme à Compton, j'viens d'sortir d'ma tombe J'ai mis mon boule sur la photo d'mon C.V Sorti le brolique, la cagoule pour taffer à E.D Itinéraire de mauvais garçon, le 44 dans l'blouson J'ai la colère comme le réveil d'un maçon J'joue l'Tony Montana, Poison a.k.a Santana J't'étranglerais avec ma ceinture Gabbana Mec de tess, que les biatch lèchent nos sexes C'est un putain d'drive by, niggas, en Mercedes-Benz Partout près d'chez toi, y a toujours des mecs de tess Dans les grecs et les sex shop, y a toujours des mecs de tess Tu vas sucer et re-sucer car y a toujours des mecs de tess En G.A.V, mecs de tess, en son-pri, mecs de tess Ils vivent de l'économie souterraine, des mecs de tess Le crime organisé nous parraine, des mecs de tess À qui on disait je t'aime avec une ceinture, des mecs de tess Élevé à la dure, mecs de tess, une valeur sûre, mecs de tess Prends mon rap de volley comme un quaterback Uzi circulaire à l'Ombak, pas d'combat, fais-moi d'la place dans les bacs Boum ! J'apparais dans l'rap game, gamin Tu s'ras absorbé dans nos rayons gamma Les mecs de tess ont plus l'shtar comme Ol'Dirty Bastard Connard, achète mes cahiers, y a les enfants dans l'square Garde ton self-contrôle, un mec de tess nous contrôle À la maison, j'ai déjà ler-vo pour nous faire esquiver la taule Le temps presse, prépare les compresses C'est l'Âge de pierre, retour au silex, la pièce maîtresse Le mec de tess dans la débrouillardise reste adroit Le mec de tess ne veut pas d'venir la soirée d'Soulpra Fuck tous tes gens, amène le liquide Dakar commet des meurtres puis maquille ça en suicide C'est pour les mecs de tess et les mecs du bled Sans pitié avec les porcs, toujours manger du quer-n' Les frères s'en battent, qui refusent de se soumettre Les syndicats de plus enculent l'État et les traîtres Internal réflexion comme mon cous' Kouali Sors la hache après le droit qu'on m'allie J'suis au fond du gouffre, me tends pas la main J'sors de l'autoroute, sanguinaire sera le bain M'éloigne des humains pour gagner le Divin Scène du crime, 9-3, criminal surhomme Partout près d'chez toi, y a toujours des mecs de tess Dans les grecs et les sex shop, y a toujours des mecs de tess Tu vas sucer et re-sucer car y a toujours des mecs de tess En G.A.V, mecs de tess, en son-pri, mecs de tess Ils vivent de l'économie souterraine, des mecs de tess Le crime organisé nous parraine, des mecs de tess À qui on disait je t'aime avec une ceinture, des mecs de tess Élevé à la dure, mecs de tess, une valeur sûre, mecs de tess Partout près d'chez toi, y a toujours des mecs de tess Dans les grecs et les sex shop, y a toujours des mecs de tess Tu vas sucer et re-sucer car y a toujours des mecs de tess En G.A.V, mecs de tess, en son-pri, mecs de tess Ils vivent de l'économie souterraine, des mecs de tess Le crime organisé nous parraine, des mecs de tess À qui on disait je t'aime avec une ceinture, des mecs de tess Élevé à la dure, mecs de tess, une valeur sûre, mecs de tess</t>
+          <t>Mecs de tess qui assument la chute quelle que soit la somme Ça boit, fume, drague, goume, goûte et cogne crack Serre les mains pour faire passer les grammes ou le billet pédé Y'a pas de délire bi pour toucher le billet Mecs de tess qui assument la chute quelle que soit la somme Ça boit, fume, drague, goume, goûte et cogne crack Serre les mains pour faire passer les grammes ou le billet pédé Y'a pas de délire bi pour toucher le billet Sa jeunesse file en R1, centre de détention puis centre aéré Au tribunal ahuri, le mec de tess boum t'inquiète ça ira Assume même si sa peine l'assomme, braquage raté L'seum si tu connaissais la somme putain Portable, mouchard dans la cime On se croit toujours malin et du jour au lendemain le bagne te signe hein Les mecs de tess ont planté leur tente devant la barre Ne vivent que pour la barre d'euros, manient le crick ou bien la barre T'agressent, démarrent au crick et se barrent Eh c'est la jeunesse barbare Celle qui t'arrache ton portable, ton véhicule Celle qui t'arrache à tes fils maman pour que dans l'extrême violence ils basculent Mecs de tess qui assument la chute quelle que soit la somme Ça boit, fume, drague, goume, goûte et cogne crack Serre les mains pour faire passer les grammes ou le billet pédé Y'a pas de délire bi pour toucher le billet Mecs de tess qui assument la chute quelle que soit la somme Ça boit, fume, drague, goume, goûte et cogne crack Serre les mains pour faire passer les grammes ou le billet pédé Y'a pas de délire bi pour toucher le billet Arrive j'porte welcome to the hood 911 sur le bitume Sur la voie rapide ride j'm'en fous moi J'suis trop racaille ça peut se lire dans les yeux bouffon Tu peux pas test tu peux finir dans le feu Toujours à consommer avec modération Raricim O'Rosko pour l'opération Ça fait mal dès je commence, shoote après on parle J'verse-tra le fic-tra pour la Colombie Cannabis, cocaïne et kilos d'héroïne Importés des Caraïbes sur la terre ferme Sévère comme le daron, ferme comme le daron O'Rosko Raricim ferme ta gueule donc je disais ... Mecs de tess qui assument la chute quelle que soit la somme Ça boit, fume, drague, goume, goûte et cogne crack Serre les mains pour faire passer les grammes ou le billet pédé Y'a pas de délire bi pour toucher le billet Mecs de tess qui assument la chute quelle que soit la somme Ça boit, fume, drague, goume, goûte et cogne crack Serre les mains pour faire passer les grammes ou le billet pédé Y'a pas de délire bi pour toucher le billet C'est Alpha 5.20 A.K.A Pharmacie A.K.A Drug Store A.K.A Réservoir A.K.A le Général plus le pote à O'Rosko Boss.P Platinum, Rimes et gloire c'est roro Okay c'est tentant, faire du rap, baiser des tassepés Quelques grandes gueules parlent mal et veulent te nace-me A poil dans mon salon frère j'ai des couilles en acier Quelques idées malsaines pour gratter le billet Brûler le terrain jusqu'au sang moi je calcine 9.3 c'est le goudron où la mort se dessine Partir en soldat sinon vivre comme un chien J'ai du faire mon choix, je peux décorer ma tombe HLM parqué, carabine chargée Attitude charbon, on est des noirs foncés 10 piges en métropole et pas encore mes papiers Je serai le premier blédard frère qu'ils vont respecter hey Mecs de tess qui assument la chute quelle que soit la somme Ça boit, fume, drague, goume, goûte et cogne crack Serre les mains pour faire passer les grammes ou le billet pédé Y'a pas de délire bi pour toucher le billet Mecs de tess qui assument la chute quelle que soit la somme Ça boit, fume, drague, goume, goûte et cogne crack Serre les mains pour faire passer les grammes ou le billet pédé Y'a pas de dpour toucher le billet</t>
         </is>
       </c>
     </row>
@@ -2137,12 +2137,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Mecs 2 Tess</t>
+          <t>Meurtrier</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Mecs de tess qui assument la chute quelle que soit la somme Ça boit, fume, drague, goume, goûte et cogne crack Serre les mains pour faire passer les grammes ou le billet pédé Y'a pas de délire bi pour toucher le billet Mecs de tess qui assument la chute quelle que soit la somme Ça boit, fume, drague, goume, goûte et cogne crack Serre les mains pour faire passer les grammes ou le billet pédé Y'a pas de délire bi pour toucher le billet Sa jeunesse file en R1, centre de détention puis centre aéré Au tribunal ahuri, le mec de tess boum t'inquiète ça ira Assume même si sa peine l'assomme, braquage raté L'seum si tu connaissais la somme putain Portable, mouchard dans la cime On se croit toujours malin et du jour au lendemain le bagne te signe hein Les mecs de tess ont planté leur tente devant la barre Ne vivent que pour la barre d'euros, manient le crick ou bien la barre T'agressent, démarrent au crick et se barrent Eh c'est la jeunesse barbare Celle qui t'arrache ton portable, ton véhicule Celle qui t'arrache à tes fils maman pour que dans l'extrême violence ils basculent Mecs de tess qui assument la chute quelle que soit la somme Ça boit, fume, drague, goume, goûte et cogne crack Serre les mains pour faire passer les grammes ou le billet pédé Y'a pas de délire bi pour toucher le billet Mecs de tess qui assument la chute quelle que soit la somme Ça boit, fume, drague, goume, goûte et cogne crack Serre les mains pour faire passer les grammes ou le billet pédé Y'a pas de délire bi pour toucher le billet Arrive j'porte welcome to the hood 911 sur le bitume Sur la voie rapide ride j'm'en fous moi J'suis trop racaille ça peut se lire dans les yeux bouffon Tu peux pas test tu peux finir dans le feu Toujours à consommer avec modération Raricim O'Rosko pour l'opération Ça fait mal dès je commence, shoote après on parle J'verse-tra le fic-tra pour la Colombie Cannabis, cocaïne et kilos d'héroïne Importés des Caraïbes sur la terre ferme Sévère comme le daron, ferme comme le daron O'Rosko Raricim ferme ta gueule donc je disais ... Mecs de tess qui assument la chute quelle que soit la somme Ça boit, fume, drague, goume, goûte et cogne crack Serre les mains pour faire passer les grammes ou le billet pédé Y'a pas de délire bi pour toucher le billet Mecs de tess qui assument la chute quelle que soit la somme Ça boit, fume, drague, goume, goûte et cogne crack Serre les mains pour faire passer les grammes ou le billet pédé Y'a pas de délire bi pour toucher le billet C'est Alpha 5.20 A.K.A Pharmacie A.K.A Drug Store A.K.A Réservoir A.K.A le Général plus le pote à O'Rosko Boss.P Platinum, Rimes et gloire c'est roro Okay c'est tentant, faire du rap, baiser des tassepés Quelques grandes gueules parlent mal et veulent te nace-me A poil dans mon salon frère j'ai des couilles en acier Quelques idées malsaines pour gratter le billet Brûler le terrain jusqu'au sang moi je calcine 9.3 c'est le goudron où la mort se dessine Partir en soldat sinon vivre comme un chien J'ai du faire mon choix, je peux décorer ma tombe HLM parqué, carabine chargée Attitude charbon, on est des noirs foncés 10 piges en métropole et pas encore mes papiers Je serai le premier blédard frère qu'ils vont respecter hey Mecs de tess qui assument la chute quelle que soit la somme Ça boit, fume, drague, goume, goûte et cogne crack Serre les mains pour faire passer les grammes ou le billet pédé Y'a pas de délire bi pour toucher le billet Mecs de tess qui assument la chute quelle que soit la somme Ça boit, fume, drague, goume, goûte et cogne crack Serre les mains pour faire passer les grammes ou le billet pédé Y'a pas de dpour toucher le billet</t>
+          <t>Pas d'sentiments, pas d'amour, on a rien en retour Pas d'sentiments, pas d'amour, on a rien en retour Pas d'sentiments, pas d'amour, on a rien en retour J'démarre sur les chapeaux d'roues, mes salauds souffrent, veulent le salaire à Govou J'en place une pour mes gars au trou Sur moi, ça parle beaucoup salope Mais c'est que d'la publicité que me font ces sales grosses poufs si si C'est trop vénéneux mon vieux, y'aura pas d'cessez l'feu quoi ? C'est trop ténébreux, mes haineux vont t'crever tes pneus Y'a ma voix dans ta ture-voi, je baise ta ronne-da Si tu m'vois, ne pleure pas, j'suis un lyrical queur-bra pah pah J'ai d'la bonne came à des prix abordables Là où l'Diable danse comme Travolta Aujourd'hui, c'est l'paradis, ça s'ra l'Enfer demain Bois un verre de vin ou alors sniffe un rail entre une paire de sein salope C'est normal pour les morfales, j'ai un trésor rap comme Method Man ou Resord Charles Je déconne pas, j'suis raisonnable 2007, mec, les carabines sont chargées Les tirs sont cadrés et les filles sont charmées J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came Va au Diable et danse comme Travolta Température Pôle Nord, comme le cur d'une pute À Dakar, nous, on sait comment corrompre les flics Distribue ma boue, sans remords, ni regrets J'ai une lame sous la gorge, et j'n'ai pas flanché eh J'ai la passion du Christ, parti d'néant Assez d'hormones, comme le corps d'un géant Des petites pointures, parlent à tort et travers J'les ai mis au monde, maintenant, ils veulent tuer leur père La famille avant la France, coup d'boule de Zizou Humilie l'Italie, nique Berlusconi Plein d'négros pensent que j'vais pas mourir vieux J'ai prié l'Seigneur, négro, demain s'ra mieux On peut s'ouvrir à tout l'monde mais confiance à personne La famille, toujours la même, Holocost, O'Rosko Négros savent que j'ride, Alpha Roméo Négros veulent ma peau, mitraillette Scorpion blah J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came Va au Diable et danse comme Travolta</t>
         </is>
       </c>
     </row>
@@ -2171,12 +2171,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Meurtrier</t>
+          <t>Mon bic cri</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Pas d'sentiments, pas d'amour, on a rien en retour Pas d'sentiments, pas d'amour, on a rien en retour Pas d'sentiments, pas d'amour, on a rien en retour J'démarre sur les chapeaux d'roues, mes salauds souffrent, veulent le salaire à Govou J'en place une pour mes gars au trou Sur moi, ça parle beaucoup salope Mais c'est que d'la publicité que me font ces sales grosses poufs si si C'est trop vénéneux mon vieux, y'aura pas d'cessez l'feu quoi ? C'est trop ténébreux, mes haineux vont t'crever tes pneus Y'a ma voix dans ta ture-voi, je baise ta ronne-da Si tu m'vois, ne pleure pas, j'suis un lyrical queur-bra pah pah J'ai d'la bonne came à des prix abordables Là où l'Diable danse comme Travolta Aujourd'hui, c'est l'paradis, ça s'ra l'Enfer demain Bois un verre de vin ou alors sniffe un rail entre une paire de sein salope C'est normal pour les morfales, j'ai un trésor rap comme Method Man ou Resord Charles Je déconne pas, j'suis raisonnable 2007, mec, les carabines sont chargées Les tirs sont cadrés et les filles sont charmées J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came Va au Diable et danse comme Travolta Température Pôle Nord, comme le cur d'une pute À Dakar, nous, on sait comment corrompre les flics Distribue ma boue, sans remords, ni regrets J'ai une lame sous la gorge, et j'n'ai pas flanché eh J'ai la passion du Christ, parti d'néant Assez d'hormones, comme le corps d'un géant Des petites pointures, parlent à tort et travers J'les ai mis au monde, maintenant, ils veulent tuer leur père La famille avant la France, coup d'boule de Zizou Humilie l'Italie, nique Berlusconi Plein d'négros pensent que j'vais pas mourir vieux J'ai prié l'Seigneur, négro, demain s'ra mieux On peut s'ouvrir à tout l'monde mais confiance à personne La famille, toujours la même, Holocost, O'Rosko Négros savent que j'ride, Alpha Roméo Négros veulent ma peau, mitraillette Scorpion blah J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came Va au Diable et danse comme Travolta</t>
+          <t>Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Shone pue le quartier comme n'importe lequel de ses 16 Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Shone pue le quartier comme n'importe lequel de ses 16 Je viens du Sénégal, je suis un animal Dans le 93 tous mes potes sont cannibales Y'a une peine à subir, elle doit être capitale Plus d'amour dans mon coeur négro ça c'est radical Je paie pas les impôts ni les charges patronales L'argent tourne autour de moi j'suis un négro illégal Tous les jours au charbon comme si j'étais dans Germinal J'ai les poumons percés, j'suis en phase terminale Ambiance scandale, danse avec les vandales Je suis pas de Marseille mais ma musique est marginale Du bon côté du flingue, Seine-Saint-Denis criminal Alpha 5.20 négro pas sentimental Je bois de l'eau chaude, moi j'suis un Baye Fall Sur le banc des accusés, Bobigny Tribunal La crème du crime te heurte tel un choc frontal Holocost à contresens baise la police nationale Le rap çais-fran me dégoûte comme un schmitt écoute Shone Écoute le banlieusard accent, si tu parles ghetto ma petite baisse ma braguette ... Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Shone pue le quartier comme n'importe lequel de ses 16 Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Shone pue le quartier comme n'importe lequel de ses 16 Tiens au micro comme la mort à ... L'industrie reste en alerte La crème du crime déchaîne les sirènes ... Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Shone pue le quartier comme n'importe lequel de ses 16 Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Shone pue le quartier comme n'importe lequel de ses 16 ... ... Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Shone pue le quartier comme n'importe lequel de ses 16 Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Shone pue le quartier comme n'importe lequel de ses 16</t>
         </is>
       </c>
     </row>
@@ -2188,12 +2188,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Mon bic cri</t>
+          <t>Mon crack</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Shone pue le quartier comme n'importe lequel de ses 16 Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Shone pue le quartier comme n'importe lequel de ses 16 Je viens du Sénégal, je suis un animal Dans le 93 tous mes potes sont cannibales Y'a une peine à subir, elle doit être capitale Plus d'amour dans mon coeur négro ça c'est radical Je paie pas les impôts ni les charges patronales L'argent tourne autour de moi j'suis un négro illégal Tous les jours au charbon comme si j'étais dans Germinal J'ai les poumons percés, j'suis en phase terminale Ambiance scandale, danse avec les vandales Je suis pas de Marseille mais ma musique est marginale Du bon côté du flingue, Seine-Saint-Denis criminal Alpha 5.20 négro pas sentimental Je bois de l'eau chaude, moi j'suis un Baye Fall Sur le banc des accusés, Bobigny Tribunal La crème du crime te heurte tel un choc frontal Holocost à contresens baise la police nationale Le rap çais-fran me dégoûte comme un schmitt écoute Shone Écoute le banlieusard accent, si tu parles ghetto ma petite baisse ma braguette ... Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Shone pue le quartier comme n'importe lequel de ses 16 Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Shone pue le quartier comme n'importe lequel de ses 16 Tiens au micro comme la mort à ... L'industrie reste en alerte La crème du crime déchaîne les sirènes ... Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Shone pue le quartier comme n'importe lequel de ses 16 Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Shone pue le quartier comme n'importe lequel de ses 16 ... ... Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Shone pue le quartier comme n'importe lequel de ses 16 Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Mon bic crie Les MC's je les baise, baise ! Shone pue le quartier comme n'importe lequel de ses 16</t>
+          <t>Ils m'ont dit que l'rap doit rester une passion J'leur ai dit qu'j'veux d'la maille, pas une voiture en location Ok ! Indé 10 euros l'CD Si j'en vends 15 000, j'aurai leur p'tain de disque d'or Moi je voulais grailler comme Rohff et Booba Maisons de disques et majors, frère ne veulent pas d'moi Garde mon cul vissé sur la chaise électrique Mes rimes sentent le roussi, frère n'soit pas étonné C'n'est plus un secret, j'suis le roi d'la cité J'ai baisé quelques meufs biens, maintenant j'retourne aux tasses-pé Pleins d're-nois pédés comme le Moulin Rouge Et dit leur que Alpha va les niquer tous ! En concert à Dakar, puis après moi j'bouge Et j'déclare la guerre comme l'a fait Georges Bush Si j'sors de chez moi, c'est pour aller à la morgue Et enterrer Skyrock, plus tous leurs potes Et t'inquiète Alpha, est sur sable mouvant Je suis pas un rappeur, j'ai pas besoin du mouvement ! Moi j'vide mon sac, faut qu'tu voies ma peine Plein de négros sucent, mais ils vendent à peine Skyrock ou pas, moi j'veux bicrave Si le rap ne marche pas, faut qu'j'tourne la page Moi j'vide mon sac, faut qu'tu voies ma peine Plein d'négros sucent, mais ils vendent à peine Skyrock ou pas, moi j'veux bicrave Si le rap ne marche pas, j'irai vendre mon crack Les casiers vierges veulent être, des cas sociaux, voyons ! C'est du suicide comme trop parler au ballon, voyou ! L'Etat nous veut, on refuse l'Etat nous vole C'est fini l'école, à ne-Fres on t'colle, ou on t'colle une balle par accident C'est toi l'coupable, t'as eu des antécédents Les cailles tombent et meurent avec la garde Un doigt sur la gâchette, heureux avec la barbe Tous les pauvres sont dans une tranchée Là-bas t'es notre pigeon si t'es pas affranchi On marche, en file indienne pour qu'on croit qu'on est qu'un Le visage figé, les yeux rouges on nous craint On crie pas, même si la douleur est forte On règle seul nos problèmes, on n'a pas besoin d'escorte On s'porte garant, de toute notre famille Pour eux soit on taffe, soit on vole, soit on crave-bi, j't'ai dis J'dédie c'morceau à tous mes frérots ceux partis trop tôt ou derrière des barreaux, ouais ! Moi j'vide mon sac, faut qu'tu voies ma peine Plein de négros sucent, mais ils vendent à peine Skyrock ou pas, moi j'veux bicrave Si le rap ne marche pas, faut qu'j'tourne la page Moi j'vide mon sac, faut qu'tu voies ma peine Plein d'négros sucent, mais ils vendent à peine Skyrock ou pas, moi j'veux bicrave Si le rap ne marche pas, j'irai vendre mon crack 95 nectar, en live d'la scène du crime, au mic fait des larsenes C'est d'la lave ma salive brule, l'industrie j'la saigne J'danse, en équilibre sur un rasoir bang, bang ! Trop malsaine sur les ondes, ma musique choque tu peux t'rassoir Tu danseras pas sur c'son, mec tu peux m'croire J'suis v'nu foutre le boxon, fais juste ton signe de croix c'est ma seule consigne Le mic j'le crame, sans combustibles En grammes j'compte plus, j'parle en kil' quand j'vends du style Merde ! C'est Bors' la tour de contrôle Zone de turbulence ma rage sort de tôle C'est la faucheuse qui conduit l'ambulance J'arrache ton sourire dès la première mesure Lâche la purée dès la s'conde, tu m'croirai pas même si j'le jure Demande-toi pourquoi tu m'aimes ? J'rappe et les accros abondent, j'suis de la cocaïne sous forme humaine Une blonde, deux feuilles, j'ai la drogue fais-moi un filtre ! T'es vrai, si mes lyrics reflètent la vie qu'tu mènes C'est pas film ! J'étais là avant les contrats et j's'rai là après ! Même quand l'industrie trace nos destins à la craie Moi j'vide mon sac, faut qu'tu voies ma peine Plein de négros sucent, mais ils vendent à peine Skyrock ou pas, moi j'veux bicrave Si le rap ne marche pas, faut qu'j'tourne la page Moi j'vide mon sac, faut qu'tu voies ma peine Plein d'négros sucent, mais ils vendent à peine Skyrock ou pas, moi j'veux bicrave Si le rap ne marche pas, j'irai vendre mon crack Ha ! Ha ! Bien sûr ! Ca c'est sûr ! Hey, le rap il est à nous ! Qui peut le prendre ? Qui ? Les mauvais sont dans l'mouv' et veulent baiser la rue C'est nous le hip-hop le break, le scratch Tous ça là on l'a inventé ! Les médias veulent ber-bar notre musique mon frère C'est trop la merde ! Qu'ils arrêtent hein ! T'façon on va remettre les choses dans l'ordre Ah ouais ? On arrive ! On arrive ! Aussi violent qu'le Dass mon pote ! T'inquiète Iron ! La famille c'est la famille jusqu'à la mort négro ! J'suis content qu'tu sois disque d'or mon négro ! Au moins si t'as sauvé ta famille ! J'suis content pour toi ! T'es pas comme ces autres trous du cul qui ont oublié la famille Fuck y'all sale bâtard ! Yeah ! Yeah ! Lino ! Lino ! Demande aux tox' ! Yeah ! renoi Black killa, what up' yeah What up' What up' What up' yeah Si le rap ne marche pas j'irai vendre mon crack Si le rap ne marche pas j'irai vendre mon crack Renoi Si le rap ne marche pas j'irai vendre mon crack Yeah Ok Ghetto Fabulous Gang ! 5.20 Faut qu'tu voies ma peine !</t>
         </is>
       </c>
     </row>
@@ -2205,12 +2205,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Mon crack</t>
+          <t>Musik avant de rakailler</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Ils m'ont dit que l'rap doit rester une passion J'leur ai dit qu'j'veux d'la maille, pas une voiture en location Ok ! Indé 10 euros l'CD Si j'en vends 15 000, j'aurai leur p'tain de disque d'or Moi je voulais grailler comme Rohff et Booba Maisons de disques et majors, frère ne veulent pas d'moi Garde mon cul vissé sur la chaise électrique Mes rimes sentent le roussi, frère n'soit pas étonné C'n'est plus un secret, j'suis le roi d'la cité J'ai baisé quelques meufs biens, maintenant j'retourne aux tasses-pé Pleins d're-nois pédés comme le Moulin Rouge Et dit leur que Alpha va les niquer tous ! En concert à Dakar, puis après moi j'bouge Et j'déclare la guerre comme l'a fait Georges Bush Si j'sors de chez moi, c'est pour aller à la morgue Et enterrer Skyrock, plus tous leurs potes Et t'inquiète Alpha, est sur sable mouvant Je suis pas un rappeur, j'ai pas besoin du mouvement ! Moi j'vide mon sac, faut qu'tu voies ma peine Plein de négros sucent, mais ils vendent à peine Skyrock ou pas, moi j'veux bicrave Si le rap ne marche pas, faut qu'j'tourne la page Moi j'vide mon sac, faut qu'tu voies ma peine Plein d'négros sucent, mais ils vendent à peine Skyrock ou pas, moi j'veux bicrave Si le rap ne marche pas, j'irai vendre mon crack Les casiers vierges veulent être, des cas sociaux, voyons ! C'est du suicide comme trop parler au ballon, voyou ! L'Etat nous veut, on refuse l'Etat nous vole C'est fini l'école, à ne-Fres on t'colle, ou on t'colle une balle par accident C'est toi l'coupable, t'as eu des antécédents Les cailles tombent et meurent avec la garde Un doigt sur la gâchette, heureux avec la barbe Tous les pauvres sont dans une tranchée Là-bas t'es notre pigeon si t'es pas affranchi On marche, en file indienne pour qu'on croit qu'on est qu'un Le visage figé, les yeux rouges on nous craint On crie pas, même si la douleur est forte On règle seul nos problèmes, on n'a pas besoin d'escorte On s'porte garant, de toute notre famille Pour eux soit on taffe, soit on vole, soit on crave-bi, j't'ai dis J'dédie c'morceau à tous mes frérots ceux partis trop tôt ou derrière des barreaux, ouais ! Moi j'vide mon sac, faut qu'tu voies ma peine Plein de négros sucent, mais ils vendent à peine Skyrock ou pas, moi j'veux bicrave Si le rap ne marche pas, faut qu'j'tourne la page Moi j'vide mon sac, faut qu'tu voies ma peine Plein d'négros sucent, mais ils vendent à peine Skyrock ou pas, moi j'veux bicrave Si le rap ne marche pas, j'irai vendre mon crack 95 nectar, en live d'la scène du crime, au mic fait des larsenes C'est d'la lave ma salive brule, l'industrie j'la saigne J'danse, en équilibre sur un rasoir bang, bang ! Trop malsaine sur les ondes, ma musique choque tu peux t'rassoir Tu danseras pas sur c'son, mec tu peux m'croire J'suis v'nu foutre le boxon, fais juste ton signe de croix c'est ma seule consigne Le mic j'le crame, sans combustibles En grammes j'compte plus, j'parle en kil' quand j'vends du style Merde ! C'est Bors' la tour de contrôle Zone de turbulence ma rage sort de tôle C'est la faucheuse qui conduit l'ambulance J'arrache ton sourire dès la première mesure Lâche la purée dès la s'conde, tu m'croirai pas même si j'le jure Demande-toi pourquoi tu m'aimes ? J'rappe et les accros abondent, j'suis de la cocaïne sous forme humaine Une blonde, deux feuilles, j'ai la drogue fais-moi un filtre ! T'es vrai, si mes lyrics reflètent la vie qu'tu mènes C'est pas film ! J'étais là avant les contrats et j's'rai là après ! Même quand l'industrie trace nos destins à la craie Moi j'vide mon sac, faut qu'tu voies ma peine Plein de négros sucent, mais ils vendent à peine Skyrock ou pas, moi j'veux bicrave Si le rap ne marche pas, faut qu'j'tourne la page Moi j'vide mon sac, faut qu'tu voies ma peine Plein d'négros sucent, mais ils vendent à peine Skyrock ou pas, moi j'veux bicrave Si le rap ne marche pas, j'irai vendre mon crack Ha ! Ha ! Bien sûr ! Ca c'est sûr ! Hey, le rap il est à nous ! Qui peut le prendre ? Qui ? Les mauvais sont dans l'mouv' et veulent baiser la rue C'est nous le hip-hop le break, le scratch Tous ça là on l'a inventé ! Les médias veulent ber-bar notre musique mon frère C'est trop la merde ! Qu'ils arrêtent hein ! T'façon on va remettre les choses dans l'ordre Ah ouais ? On arrive ! On arrive ! Aussi violent qu'le Dass mon pote ! T'inquiète Iron ! La famille c'est la famille jusqu'à la mort négro ! J'suis content qu'tu sois disque d'or mon négro ! Au moins si t'as sauvé ta famille ! J'suis content pour toi ! T'es pas comme ces autres trous du cul qui ont oublié la famille Fuck y'all sale bâtard ! Yeah ! Yeah ! Lino ! Lino ! Demande aux tox' ! Yeah ! renoi Black killa, what up' yeah What up' What up' What up' yeah Si le rap ne marche pas j'irai vendre mon crack Si le rap ne marche pas j'irai vendre mon crack Renoi Si le rap ne marche pas j'irai vendre mon crack Yeah Ok Ghetto Fabulous Gang ! 5.20 Faut qu'tu voies ma peine !</t>
+          <t>... Même les mecs des blocs ils ont faim ... ... M Dakar contrebande toujours anti forces de l'ordre Nous on vit le jour mais la nuit on fait du troc Baise ma vie de négro dès que je sors de l'autoroute Les soldats que j'écoute c'est Balastik puis Snoop Et je mens tasspé cherche des échappatoires J'hallucine quand le juge me parle de liberté provisoire Sors un rasoir tranche une gorge puis après une langue Y'en a trop qui parlent mal sur Ghtto Fab Gang Okay-kay-kay je paie la caution et la dot à ta sour Je fais des bails, on se voit en bas du bloc tout à l'heure ... Je vais boire du Hennesy avec les mecs de Grigny Une parole de travers et je t'arrache à la vie Éternellement tu roupilles frère avec les momies C'est quoi les bails négro ? Moi j'entends que bruit Si le glock te tue pas ce sera bientôt le UZI ... Même les mecs des blocs ils ont faim</t>
         </is>
       </c>
     </row>
@@ -2222,12 +2222,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Morts pour rien</t>
+          <t>Nique le reste du monde</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Pour certains c'étaient des potes, et pour d'autres des p'tits d'la cité Mais seulement un sur trois a survécu dans l'électricité Ça a été une réalité dure à accepter Le 27 octobre, Zyed et Bouna nous ont quittés Dix-sept ans et quinze ans, eh, trop jeunes pour partir Trop jeunes pour dire à tout l'monde On se reverra qu'en dehors de cette terre Vu qu'on est tous des hommes, on passera tous, tôt ou tard, par la mort mes frères Quand des mômes fuient la police par peur jusqu'à perdre la vie On doit s'poser des questions, moi j'suis juste un mec qui donne son avis J'suis là pour, on a tous vu au moins une fois les civils Déraper comme des barges dans la cour On s'comprend plus, de là tout part Quand même nos ministres désignent les gosses innocents coupables Aujourd'hui j'frémis parce que j'ai trois enfants Et garde ce dernier vers, car je sais c'que sentent les parents Mon Dieu, j'pense à Zyed et son accent blédard Son sourire gentil, et son pull à capuche Tim noir Toujours serviable et jamais en colère On l'appelait Lance-Pierres, il avait une force d'homme frère J'pense à Bouna, toujours avec Harouna Tout l'temps au Chêne Pointu, pourtant il habitait la PAMA Respect aux familles Traoré et Benna Le ghetto est en pleurs, j'en perds mes mots, Allah y rahmou On veut savoir ce qu'il s'est passé On veut nous cacher la vérité Toute une communauté sous haute tension Deux vies gâchées sans explication Une famille perd son enfant Impossible d'oublier, même avec le temps Bouna, Zyed, paix à vos âmes, paix à vos âmes Oh, paix à vos âmes, oh yeah Sur ce son, on rappe, on dédie cette zik à Bouna et Zyed Non j'ai du mal à croire J'ai du mal à voir ton blaze Bouna, gravé sur du marbre Tu t'en rappelles, chaque soir des bêtes de darka sur une rocade Histoire d'être capital, t'avais une tête de plus que moi Amateur de moto, danseur de XXX À fond dans les govas et les gos, de jour en jour je deviens fou Dans ma tête, de bons moment en boucle Demande à tous, depuis qu't'es parti je ris mais y a plus goût à rire Tu manques à la famille À chaque yer-pri, je prie que Dieu vous ouvre les portes du Paradis Sur ce, j'ai les nerfs, B2G, courageux, parole de frère Hier, j'ai croisé l'émotion, elle touchait le fond J'ai croisé des jeunes et j'ai croisé des mères, donc j'ai croisé le monde J'ai croisé les doigts, crois-moi j'ai prié ma sur J'ai pris ma feuille, j'ai pris mon cur et puis j'ai crié ma peur L'amour est fiable et tu l'sais, la guerre est bad Elle et lui vous êtes Bouna, toi et moi, on est Zyed On est des anges, on est des grands, on est les enfants qui dérangent Avec le cur en sang, on chante pour tous ceux qui nous manquent Nous sommes épuisés par les pleurs, à peine quinze ans, à fleur de vie Bouna, ça fait drôle de plus t'voir en roue arrière sur ton vélo Boucle d'oreille, sapé goss'bo J'ai lancé des projectiles pour vous venger Mais rien n'vous a réveillé, Zyed, où est passée ta tête Qui nous écoutait l'soir à la fenêtre du premier étage ? Parlais pas trop, trop sage Tristesse, dépit, faiblesse nous ont envahis La France est en deuil, le ghetto pleure deux des siens La colère dans les yeux, deux enfants sont morts pour rien Une pensée pour eux, lions nos deux mains Que Dieu leur ouvre la porte des cieux et qu'ça n'arrive plus demain Y a des écoles qui brûlent et des voitures s'embrasent OK brûlons-la mais pas l'histoire de base Bouna et Zyed, deux enfants morts avant l'âge Rien qu'd'y penser, moi ça m'fout la rage, hmm Hommage à mes deux potos, qui sont partis trop tôt Quand j'regarde leurs photos, un frisson me monte au dos On n'vous verra plus en mode peace à la cité Ça fera bizarre mais c'est une triste réalité Zyed et Bouna, malheureusement, nous ont quittés Qu'ils demeurent au Paradis pour l'éternité En attendant j'ai perdu deux d'mes res-frè Si c'était à refaire, ce couplet ben je l'referais À mes potes, Zyed et Bouna Reposez en paix Allah y rahmou Pensée pour Muhittin Ma présence n'a rien d'honorable, elle est juste normale J'serai toujours auprès des miens tant qu'ils auront mal C'que j'vois dans le studio, c'est beau, c'est grand Les miens se sont unis mais pas dans l'autodestruction Parce que les miens ont une force qu'il sont les seuls à ignorer J'attends l'jour où ils vont s'lever, s'élever dans le respect Que Dieu fasse miséricorde à nos frères Zyed et Bouna Faut voir comment respecter leur mémoire Pour Bouna et Zyed Je prends ma plume en versant quelques larmes Partageant la douleur La souffrance des familles qui les pleurent Comprendre ce qu'il s'est passé Exposer la vérité au grand jour Que ce fardeau soit moins lourd, oh yeah Bouna et Zyed restent dans nos curs à tout jamais C'est pour nos minots que j'retranscris mes larmes du bout d'mon stylo Pourquoi dans nos trous à rats, s'en sortent qu'une mino' J'tire le signal d'alarme avant d'en venir aux armes Paix à vos âmes et à vos XXX Morts pour rien, c'est l'slogan qui fera p't-être réagir ceux qui siègent à l'Assemblée Nous on s'est rassemblés pour rendre hommage à nos morts C'est à eux qu'on a dédié l'ceau-mor Traoré et Benna, c'est à vous qu'on a dédié l'ceau-mor Le cur serré devant ma feuille blanche La main tremblante, mal au crâne de voir qu'on nous écoute que quand les coins crament Toujours la même, c'est la merde, ainsi d'suite On veut fuir la misère à chaque course-poursuite Que Dieu donne la force aux familles en deuil À leurs proches pour surmonter cette dure épreuve Dites à Nicolas que malheureusement, derrière les voitures qui brûlent C'est la détresse des quartiers qui hurle J'lève la main en l'air à la mémoire de nos p'tits frères J'lève la main en l'air pour leurs pères et pour leurs mères J'parle avec le cur au nom d'une jeunesse en détresse Vas-y cours petit, cours, pour fuir la tristesse Qu'Allah leur pardonne d'avoir provoqué un drame Aujourd'hui j'appelle au calme, il faudrait éteindre les flammes L'âme est touchée mais le corps se relèvera Je demande aux miens de ne jamais baisser les bras Mourir d'sa belle mort est la chose la plus belle au monde Mais l'destin en a voulu autrement, quelle chose immonde Fin d'une vie humaine et des plaisirs éphémères d'la vie Nos curs pleurent de désespoir et la haine nous envahit Enivrés d'tristesse, leur non-présence nous blesse sans cesse L'ciel a voulu qu'ils décèdent, guettent dans l'au-delà mais laisse Une pensée à ces hommes qui n'vivent plus qu'dans nos mémoires Quelques temps d'silence à leurs personnes XXX La disparition de deux êtres innocents et honnêtes A provoqué beaucoup de rivières de larmes sur les pommettes Adolescents laissant derrière leur dos Des centaines de pleurs, des curs blessés et c'est en s'en- Traidant, en se serrant les coudes Que l'on peut rester forts quand la mort fait escale chez nous Salam à vous, tenez le coup, uvrez dans l'bien Difficile pour une famille d'avancer avec un membre en moins J'commence en faisant deux mesures de silence pour les enfances perdues En guise d'insulte pour tous les esprits tordus ... Sa mère! J'ai les nerfs de voir nos pères en larmes J'ai les nerfs de voir mes frères s'noyer dans l'drame Et lors d'un banal contrôle dans nos halls on a le rôle d'un animal pour la Gaule De vandales pour les héritiers d'De Gaulle XXX La France pays de rencontres XXX XXX La douleur parle, nous on perd des frères C'est juste un appel au calme dans cette époque de merde Paix à la famille, laissez-la faire son deuil J'verse une goutte sur l'sol et vers l'ciel j'jette un il Ça fait mal quand quelqu'un part mais c'est Dieu qui décide On s'retrouvera plus tard, sur la route sur laquelle on s'destine Morts pour rien, pour vous on a beaucoup d'estime Que Dieu vous garde, OK, reposez en paix À nos frères morts violemment, aux plus jeunes qui prouvent qu'on peut réussir brillamment Le plus important, l'dîn, on veut tous partir dignement Rattraper nos péchés, à part les drames, rien pour nous unir C'est c'qui nous manque, combien passeront la barre des trente Vies courtes mais intenses, profite des tiens, porte avec honneur toutes nos valeurs Décharger les mamas du poids d'nos malheurs Dramatique pour les familles blessées dans l'âme Résister pour exister, wesh les p'tits frères, faut éviter l'haram Y a trop d'souffrances au cur des abysses dans les quartiers d'France Alerte maximum pour les mômes, état d'urgence J'porte des fleurs pour les morts, faut qu'on y pense Et qu'on sème de l'espoir pour le futur Même si la poisse rend l'quotidien trop dur, même si les pleurs parlent quand des gosses partent N'oublions pas qu'les anges ne meurent pas C'est juste quelques mots en votre mémoire Votre histoire gravée sur le marbre, un hommage pour dire qu'y en a marre Un hommage à Benna, Traoré Deux p'tits frangins Allah y rahmou, qui sont partis haja Morts pour rien, là où vous êtes Inch'Allah vous êtes bien Beau temps, mauvais temps, vous étiez toujours contents J'ai du mal à réaliser qu'le temps nous a séparés Le mal qu'ils nous ont fait, ils pourront jamais le réparer XXX, Traoré Quelle époque nous vivons, quelle époque C'est pour XXX Quelle époque nous vivons, perdre sa vie sans raison Sans explication, la banlieue pleure à l'unisson Mais quelle époque nous vivons? On veut savoir le pourquoi du comment Dialogue de sourds, on nous répond en nous insultant Mais quelle époque nous vivons? Trop p'tits pour partir d'nos rangs Pas assez d'mots pour apaiser les parents Mais quelle époque nous vivons? D'autres agissent en cassant Manière douce, nous on transforme notre rage en chanson J'connais l'respect, pas celui qui sort d'la bouche des autres Celui qu'on m'a appris depuis tout gosse mais on est tous des hommes Ça m'désole et on s'demande que faire face à tout c'désordre Et pour s'faire entendre, faut qu'la voix d'mes couz' résonne Plus rien n'est sûr quand y a l'sheitan et ses miss qui zonent Mais qu'ils ont, à croire que ça leur plaît d'voir une enfance qui XXX Pendant qu'les best pigeonnent, j'vois le reste qui chôme Nous on est jeunes, plein d'avenir et c'est toute ma tristesse qui somme Dites-moi comment régler les problèmes en supprimant les solutions Ce système a trop sous-estimé sa population L'oppression a une faille, nous a enlevé deux de nos frères C'est les larmes aux yeux que l'on pratique notre prière 93, volcan en éruption, banlieue poudrière On n'éteint pas notre flamme, c'est jusqu'à la mort qu'on sera solidaire Tremblay en hommage, ma ville crame, lâchez les Canadair Y a rien à dire, dors avant d'partir en guerre Histoire triste, j'suis pas là pour m'faire d'la pub Les chtars guidés par Ibliss frère, ici ça devient rude Perdre deux d'nos proches pendant l'ramdam Une pensée hardcore pour les rents-pa qui pleurent l'âme I.S.L.A.M., ma source vitale Apprendre la mauvaise nouvelle d'un mort, mon frère, ça on l'vit tous mal J'accepte plus l'mektoub, les soucis ressurgissent Combien d'enfants avec une tombe avant qu'la France agisse Respect aux familles, aux amis, aux manifestants Existants, restant résistants Et exigeant, détestant les forces, les testant Et quel ordre? C'est l'désordre qui est présent Fort déplaisant, unis dans tous les sens Munis d'encre ou d'essence personne n'est perso Ou hésitant, devant c't accident attristant A cité ta cité s'assistant Tata nzambé XXX bongo XXX Benna, Traoré Ouais, c'est du meurtre, qu'c'est l'humeur vraie tumeur En attendant, s'rassemblant dans la lueur, truc flambant XXX tata na bisso Dynam, ouais ouais ouais ouais, hein C'est trop hard d'être morts pour rien ghetto hardcore cousin XXX com si cété ti moun a mwen Ka ressenti douleur là tout au fond a chair mwen Lé pa imaginé sa k'arrivé des frew mwen Des jeunes XXX morts XXX pour rien Allez XXX maman Traoré Famille Benna XXX j'en ai oublié Tou lé -XXX toujou là, pas la France XXX sa An juste ka espérer XXX Le mal au moment qu'tu ressens parce que t'es blessé par le mal qui ronge Tu tombes dans la dépression parce que les événements pour toi sont étranges Pour tous mes frères qui sont victimes d'avoir perdu un être cher Parce que le fruit d'un amour fraternel vient de disparaître J'ai reflété un mal de vivre parce que mes nerfs sont devenus ivres Parce que les gens ne m'épargnent pas, j'ai dû survivre Un petit sourire levé vers l'ciel, une éclaircie, l'soleil Ça prouve qu'on doit sécher nos larmes parce que nos âmes sont éternelles Dur d'clamer la paix alors qu'la liste ne fait qu's'allonger Ça m'enrage que nos vies s'embrasent pendant qu'Arnaud rêve à la vie d'Pete Sampras Les meilleurs s'en vont toujours les premiers, c'est pas d'leur faute Les prolos s'lavent les mains dans l'sang des nôtres Arrête de foutre le feu chez nos daronnes, déjà qu'elles sont mal logées Au fond, ça n'arrangera rien, tu sais Pense à nos martyrs et rappelle-toi qu'avant d'partir Il te faudra chérir la mif, qu'on arrête de courir car tu peux mourir vite Même un daron du bled fier ne peut retenir ses larmes Face à des mères accablées comme celles de Bouna et Zyed L'insomnie s'empare des familles du défunt Mais des fois, il n'y a pas de douleur que le sommeil sache vaincre Hache de guerre à gauche frolo pour un effort de paix C'est l'9-3 qui pleure quand Clichy-sous-Bois est en deuil J'ai de la peine car le décès de certains me reviennent en tête Les frères, laissez-vous bercer par la tristesse Sauvons les deux âmes Comment résister, honorer son charme Zyed et Bouna Nous restons sans voix Quelle choc de ne plus vous revoir Sur mon visage ne cessent de couler les larmes Que Dieu vous garde pour l'éternité J'ai l'cur brisé, car j'ai souvent rêvé d'un monde meilleur Que la guérilla urbaine et d'enterrer deux frères Traoré Benna, que Dieu vous pardonne Que Dieu vous ouvre les portes du Paradis Que la tension se calme ici-bas J'suis un frère parmi tant d'autres J'voulais faire passer un message de paix Mon phrasé porte le deuil On vient d'perdre deux âmes fraîches, deux anges On vient encore d'perdre deux p'tits frères On leur rend hommage le cur noyé dans nos larmes Nos plumes portent nos peines et les blessures de nos âmes Les cris sincères, ouala j'ai mal La douleur est intense et même le silence pleure Pas là pour condamner l'coupable, Dieu l'fera Lui-même Et qu'la paix soit avec la famille d'ces deux lumières Deux gouttes qui débordent le vase, écoute Le mal se disperse, les man se disent prêts à agir et à serrer les coudes Les poings en l'air et même sur les I Quand on est solidaire, qu'on attise la flamme et à deux morts on l'dédie Trop d'sirènes, pompiers flics et ambulances Qu'on allume un cierge au lieu d'ces ambiances brûlantes La délinquance n'est pas une profession dans la street Qu'ils arrêtent leurs étiquettes et d'nous classer dans leurs putain d'statistiques 271005, c'est la fin d'une vie, les larmes d'une mère Le calvaire d'un père et l'combat d'un grand frère Une sur perdue qui voit son frère partir au plus jeune âge Une mort incomprise et toute une tess qui prend la rage Un événement qui prend une tournure grave, des nuits d'émeute Avec une seule idée en tête, faut qu'y en ait un qui crève On veut la vérité pour Zyed et Bouna Une forte pensée pour les familles, Traoré Benna Crois-moi, j'ai eu froid dans le dos En entendant les commentaires de politiques au lendemain du drame Quand la loi et l'ordre font peur à des gosses et que le pire se passe Le respect, c'était de faire profil bas Il nous faut des responsables, ça doit pas toujours marcher dans un sens Parce que c'qu'il s'est passé n'a pas d'sens Mes pensées vont aux familles, alors rest in peace Mon Dieu, entends nos prières, c'est pas juste c'qui arrive Deux frères partent, des curs fanent, la violence pour morphine, frère Mon cur saigne, mon cur parle, mon cur aime, mon cur bat Aussi vite que l'approche de la vérité, donc militer Pour la même cause, même veine, même combat Familles Traoré et Benna Beaucoup d'force et beaucoup d'chance pour la suite frères, pour tous les miens On a les mains réanimées par les armes Ensanglantées mais vite lavées par les larmes, paix à leurs âmes Nettoyer les gouttes et lâche même des gouttes et Les frères sont dégoûtés, les parents sont alarmés Morts pour rien, seul l'avenir nous l'dira Ou en tirer une leçon les jours à venir on verra Pour l'heure, une prière pour les p'tits frères Une pensée à leurs parents en espérant d'meilleurs moments Né d'une mort, l'espoir vit, restons forts Clichy-sous-Bois Montfermeil présentent leur reconnaissance Des adolescents parés Pour cette oppression incessante, donc une vie de tarés Grandir sous l'enseigne Montfermeil Clichy Mon cur saigne, tu sais, tant de gâchis Re-fré, réfléchis, deux vies ont fléchi Ils ont dit qu'on agissait par haine Plus rien ne sert de défendre une vie déjà vaine Mais allez dire ça aux mères Que leurs fils méritait une vie éphémère XXX Parce qu'on nous a traités d'vauriens J'dédicace aux gosses morts pour rien Seule la violence du désespoir dégage cette odeur de peur Quand un jeune des ghettos meurt, je pleure De colère, c'est ça qui fait brûler les voitures Saoulé d'devoir enterrer les nôtres, vois-tu Français, écoute pas leurs putain d'histoires Si on agit ainsi c'est par la force du désespoir Comme à Clichy quand la mort t'électrocute Et combien d'raisons justifie leur mort? Aucune Le ghetto parle, le ghetto chante, le ghetto pleure Des larmes de peine C'est triste à dire, qu'il faille le pire Pour qu'on écoute nos curs qui saignent Mes pensées vont vers les familles Benna et Traoré, yeah Le ghetto pleure ces deux adolescents Un message de paix dans toute cette effervescence J'parle au nom du 7-7 Mes amitié pour les familles des défunts, c'est pour ces jeunes qu'on s'mobilise Une prose contre une rose Hommage à Bouna et Zyed, nos banlieues pleurent L'onde de choc retentit, j'crie ma douleur Un requiem pour ceux qu'on aime Nos HLM sont en berne, trop d'pertes et d'chrysanthèmes J'veux pas finir dans les bras du système Électrocuté ou cané, alors j'tire la sonnette d'alerte La mort ne donne jamais de rendez-vous Les khos, levez vos index dès que vous savez qu'elle va venir à vous J'avoue, ça fait si mal d'voir partir des p'tits et des fillettes De voir que de drames, la vie est ainsi faite Qu'Allah fasse miséricodre à Bouna et à Zyed Ils voudraient nous étouffer pour mieux nous avaler comme le ferait un boa La tasse ils veulent nous faire boire Paix à nos morts, d'ici à Clichy-sous-Bois Ils sont morts, ma voix gèle, j'suis rouge, tout est pêle-mêle J'vous connaissais pas mais au fond vous êtes une partie d'moi Moi j'pleure, rien que j'pleure C'est dur, la France a peur, comprenez notre émotion Trop d'nos frères à terre, deux ouais, ils étaient deux Pour le troisième, j'remercie Dieu Hein, sois fort Muhittin J't'assure, sois fort C'est pour nos deux p'tits frères, rest in peace Que j'lance d'ici, d'Évry-Courcouronnes à Clichy Si si, à prendre les jeunes pour des imbéciles C'est la douleur du ghetto qui se transforme en missile Et la banlieue ne veut plus lécher la vitrine Elle est brisée, et c'est la vérité que l'on vise La rue a mal, mais pas que depuis hier Et aujourd'hui les pierres ont remplacé les prières Hommage aux familles blessées Agressées dans leur chair, Seigneur dissipe leur gêne et le poids de leur détresse Chéris nos p'tits frères partis jeunes Pendant ce saint mois d'jeûne On en a marre de cette animosité qui règne, nous divise et nous trahit Mitraillés dans cette lutte perpétuelle qu'est la quête de notre salut Bouna et Zyed, dans nos mémoires à jamais gravés Pour Bouna, Zyed, j'ai l'cur qui palpite J'ai mal quand sans état d'âme, on prend l'âme À deux d'mes frères, RR, j'ai la rage Quand les larmes ressortent sur un drame Dans l'9-3 c'est ça, c'est cette situation qu'j'condamne J'rends hommage aux familles, j'prends mon briquet, j'allume la flamme Pour qu'tu voies d'en-haut ma tristesse pendant la salate J'fais une dou3a pour qu'tu partes en paix, refré Négro, on était en exode Mais j'pense qu'ils veulent nous voir visés, nos phases macabres et nos XXX XXX faut canaliser Gardez la foi mais faut que j'aie ce condé parce que nos vies sont jeu d'l'oie Prie pour pas tomber sur la case d'un colt Une mauvaise phrase comme nos refrés jouent à Liberté ou Volt On sait comment ça finit Un clash, une course-poursuite, un crash, la suite, un putain d'incendie Deux âmes partent, un mot d'provoc' et la France crame Sarko en tête des sondages, man, à qui profite le scandale? Malaise perceptible, chômage trafic et vente d'armes Tout l'monde s'affole parce que notre rap c'est pas du France Gall Anti flics et gendarmes, politique, chantage Contrôle où les képis semblent avoir dix ans d'âge Les deuils tournent dans les p'tites villes et grands axes Comme toute tragédie, l'histoire est triste et la fin semblable J'comprends pas pourquoi la vie est si dure, man Comment ça se fait, on peut perdre sa vie bêtement Combien de temps ils vont faire pleurer nos mamans Combien de temps ils vont nous marcher sur les pieds, man Traoré et Benna ne méritaient pas ça Mouille avec la peur au ventre pour une histoire de balles Y en a marre d'être mal catalogués Le ghetto pleure c'est la rue cette réalité Cause conséquence, voilà l'revers d'la médaille Les chèques d'assurance nous ramèneront pas les deux p'tits frères die 27105, Zyed, Bouna rendent leur âme Parole de grand, personne n'oubliera cette date, ce drame Maximum respect, pensée pour leurs milles-fa Leurs proches amis pour qui ça doit vraiment pas être cile-fa Perdre un être cher aussi jeune, c'est trop dar J'pose huit roses en leur mémoire, car trop tard C'est envers mes frères que je m'adresse car cette histoire m'attriste et blesse Mon cur saigne mais seule l'encre de ma plume se verse C'est d'la haine que tu peux lire dans mes yeux Mais c'est avec le cur serré qu'j'écris, un regard vers les cieux Allah! On m'a dit d'calmer donc j'garde la rage en moi Parce qu'un Black reste un Black, même vénère il reste une proie J'ai mal mais remplace mon arme par des larmes Car les flammes qu'il peut ne feront jamais revenir vos âmes Il n'y a pas pire enfer que d'penser qu'le Paradis n'existe pas En c'moment-même, les esprits des défunts nous hantent Ambiance de paix car j'ai le mal de guerre De quartier en quartier ça brûle parce que ce sont nos frères On va laisser les rancunes en route Apporter des gerbes de fleurs aux textes pour apaiser les têtes Chaque jour, des bougies s'allument et s'éteignent Bouna et Zyed, de leurs lueurs on s'imprègne Tout arrive par ici On envisage le pire Tous en état de crise Bouna, Zyed, martyrs La violence contre l'innocence Les héros n'existent plus depuis longtemps Ils ont bafoué votre enfance Gardez-nous une place, on vient dans peu de temps Oh, tous les quartiers ont les larmes aux yeux Trop de larmes pouvant éteindre le feu qui leur traversait l'corps En traversant mon cur, mon sentiment fut renversé Par un poids-lourd immatriculé par la mort L'amour et la mort, des extrêmes qui s'kiffent à mort Zyed, Bouna, destins liés par des câbles Si mon cur aurait eu des yeux, tu l'aurais vu saigner Benna,Traoré, Allah y rahmou, Sefyu Coupés dans leur élan, trop tôt ces jeunes sont die Deux familles, toute une génération en deuil, ma gueule Ç'aurait pu être un d'tes frelons, un d'mes frelons L'idée fait froid dans l'dos alors qu'j'suis pas tant qu'ça un frileux Vu qu'j'fais partie des cibles, il est donc impossible Qu'j'y sois insensible, des familles pleurent Bouna, Zyed, partez en paix vers l'ciel Nous on continue l'combat, qu'vous soyez pas morts dans l'zef C'est avec peine et haine que j'prends c'putain d'micro Car au-devant d'la scène, t'as la mort d'mes deux frelos À qui j'dédie c'morceau pendant ce temps d'fléau Ça vient du cur khey, j't'assure qu'c'est pas du mytho En bref, malgré ma froideur, sur c'beat j'ouvre mon cur Pour rejoindre les deux familles dans leur propre douleur Et quoi qu'il arrive, pour nous, vous êtes toujours là À jamais gravés dans nos curs, Zyed et Bouna J'remplace l'alcool par de l'eau céleste, le bédo par une datte On s'connaît pas mais c'est pour Bouna et Zyed À c'que j'vois, vous aviez des potes et des gens qui vous aiment Depuis votre mort, les jeunes ont déployé leurs ailes J'ai le cur noué, Bellahi je le jure c'est vrai À nous tous, ça peut tous nous arriver J'envoie des dou3as pour vos familles, vos larmes inondent toutes nos villes Et votre mort résonne dans toutes nos vies J'peux pas camoufler ma peine, j'peux pas camoufler ma haine Hémorragie interne, j'me porte bien mais l'cur saigne Une flamme subsiste pour Bouna et Zyed Siaka, Biggie, Montfermeil Clichy Maillot, Silly, Sur-Marne-Neuilly Sachez qu'le 9-3 côté Est ne vous oublie La Tunisie, la Mauritanie aussi, ces lignes vous sont dédiées À vous et vos familles, pour vous, j'garderai bonne mine, promis Ma plume se plie, les mots sont trop lourds Des actes injustifiés qui emmènent des conséquences trop lourdes Conscients que le temps passe, de nos esprits rien ne s'efface Mes frères, je vous embrasse, nos vies s'éteignent, les frères j'vous rends hommage Le remède c'est qu'on s'entraide Tu sais pour qui on plaide, il était une fois Bouna et Zyed Partis trop tôt, Allah y rahmou, message de paix en votre mémoire Vos noms sont gravés à jamais dans notre histoire Mort subite que nous n'oublieront jamais reste gravée dans nos mémoires On peut pas s'en débarrasser comme le reflet d'un miroir Accrochés à la réalité, mes reufs s'en sortiront Triste destinée, pour réussir prêts à se prosterner Consternés par la tournure des choses Mourir, ou lutter tous pour nos familles et disparus Korozeef, message du cur Ceci nous rappelle que toute âme revient au Créateur Ouais J'ai le cur qui saigne Tant de compassion s'imprègne Au-dedans de moi, des choses me font perdre la foi De voir des jeunes s'en aller aussi souvent que ça Je compatis, c'est si triste La justice grise, nos ciels sans couleurs Un venin de couleuvre Déjà trop dans nos vies, détruit nos frères et surs Ils nous brutalisent, la justice couvre La presse se rend complice et personne ne l'ouvre La pensée réactionnaire connaît des joies intenses Quelles sont les premières victimes en proie à la violence? Ceux qui ravalent leurs mots jusqu'à vomir des pierres Ceux qu'on réprime dans le sang comme en temps de guerre Bouna et Zyed, juste jeunes et envie de vivre Qui n'en demeurent pas moins des exemples à suivre Bouna, en entendant ton nom ou en voyant ta photo Des milliers de flashbacks me remontent au cerveau Je t'avais appris à nager Je me rappelle ce jour-là, t'as failli te noyer Je t'ai côtoyé depuis ta tendre enfance Je me rappelle de toi, m'étant décroché avec la plus grande aisance La BDS a shooté votre crew Mais avec le temps cette équipe s'est dissoute Biggie, Kahi, mon p'tit frère est parti Que Allah lui ouvre les portes du paradis Encore des anges qui partent trop tôt dans l'ghetto Et la tristesse fait couler l'encre de mon stylo C'est avec la main sur l'cur que j'lâche mes mots J'ai d'la rage, j'ai d'la haine, j'ai d'la peine et j'n'arrêterai pas s'il faut Ça a toujours été nous contre eux On est rien dans c'bas monde, que Dieu vous garde Nous on restera sur nos gardes C'est dans les cieux que vos frères et surs vous regardent, Zyed et Bouna Une mesure de silence Pour nos frères Bouna, Zyed auxquels on pense À l'heure actuelle, vos noms sont gravés dans nos têtes Que vos âmes reposent en paix, c'est tout c'qu'on souhaite La main sur l'cur, la mille-fa plongée dans la douleur Triste sort, la mort est venue frapper à leur porte de bonne heure Sous nos bonnets on a d'la peine Comme tu l'sais, dans nos quartiers, seule la mort règne et les curs saignent Encore deux d'nos p'tits partis, ça suffit Pour Bouna, Zyed avec qui j'avais pas encore d'affinités C'qui n'empêche pas d'témoigner ma solidarité Militer afin d'limiter, les saignements d'nos curs déjà irrités D'une tristesse profonde, on est tous héritiers Une larme tombe, mais peut-on les éviter J'ai un frère du même âge, voilà la vérité À vous et vos familles, j'rends hommage avec sincérité J'viens rendre hommage, Mister Daï De Neuilly-sur-Marne à Clichy, j'vous épargne mes analyses car l'résultat sera l'même Ça m'fait mal, j'ai d'la peine, alors ma haine j'la canalise Rien ne pourra faire qu'ils nous reviennent, j'en ai les membres qui s'paralysent Le poing gauche serré, la tête baissée, la main droite sur l'cur J'en place une pour la famille qui auront toujours ce mal au cur J'm'exprime en leur mémoire parce qu'ils manqueront jamais à l'appel Que leur flamme s'éteigne en paix, que leurs âmes reposent en paix Une couronne de fleurs pour Zyed et Bouna Ça fait mal au cur, on ne peut que supporter leur mille-fa Difficile de consoler après la mort Sur la tombe d'un proche, c'est tellement dur de rester fort Obligé de contenir ma pensée Par respect pour leur mémoire, donc je vais me contrôler La vérité n'est jamais facile à dire Attendons de la savoir, pour l'instant calmons les tirs D'abord mes condoléances aux frères, aux surs, aux rent-p's Aux amis qui étaient si chers au cur de Zyed et Bouna Pour lesquels je cace-dédi ce rap, même si j'les connaissais as-p Mec, je suis à-l, ouais, à cent pour cent avec eux, avec mon cur et mon âme Pour que ce genre d'événement ne se perpétue as-p On tue les jeunes dans nos tiers-quar, tis-gra Faudrait qu'ça cesse parce qu'on commence à en avoir vraiment marre J'ai le cur en sang, j'ai du mal à caresser J'ai des sentiments bloqués XXX des petits frères sont die Pour m'en remettre faut plus qu'une douille, khey Je suis banlieusard, blesse pas les mêmes même si l'envie de mitraille Graille, y a cette envie de tout fumer Mais au fond ça sert à rien maintenant comme notre quartier est cramé Pour les madres, poto, fais preuve de respect Tout se paie, que leurs âmes reposent en paix Dur d'en parler sans offenser vu qu'la douleur est encore vive Ce rap est une prière pour nos deux frères partis trop vite Que Dieu les garde, que Dieu protège leurs familles Que Dieu leur donne d'la force et du courage pour affronter la vie Paix à leurs amis, soyez gardiens d'leur souvenir D'leurs visages, d'leurs sourires, sachez qu'on est tous avec vous Même si c'est l'mektoub, on s'demande quand même XXX C'est pour Zyed et Bouna, Allah y Rahmo XXX Si la douleur noyait nos âmes Si les pleurs nous arrachaient nos dernières armes Si l'on avait pris la vie de nos enfants XXX Si la douleur noyait nos âmes Si les pleurs nous arrachaient nos dernières armes Si l'on avait pris la vie de vos enfants Dans l'ghetto, on a perdu l'sourire, on n'arrive même plus à rire On a vu des frères partir et plus jamais revenir La haine, la rage, la tristesse dans nos yeux, ça m'fait tellement réfléchir Mais qui accuser, Dieu l'a voulu Il crée des trucs, comment puis-je Avoir la haine envers mon Créateur, c'est cru J'n'arrive même plus à fermer les yeux Les souvenirs du passé n'cessent de me hanter Ça m'fait bizarre d'ressasser le passé J'rends hommage à ces p'tits partis trop tôt, partis pour rien Une pensée aux familles c'est 15-24 soutien Un départ prématuré, ils sont privés de c'monde pourri On est blessés à jamais, que leurs esprits reposent en paix C'est dommage, surtout à leur âge Et j'me demande encore pourquoi on n'est pas tous devenus sages Mais l'seul message, c'est qu'y a encore des parents Qui ont perdu leurs enfants, et ça tirons-en un enseignement La vie est bien trop courte pour qu'on s'fasse la guerre La vie est bien trop courte, profitons d'nos frères S'mobiliser, c'est bien, changer les choses c'est mieux Instant d'paix en espérant qu'on vivra tous vieux Quoi qu'il arrive, on doit rendre des comptes Pose pas la question pourquoi, on y passe tous Qu'la vie soit longue ou XXX Mais la mémoire elle reste, comme quand on s'pose Y a la dignité d'deux êtres qui s'impose Quelques mesures pour la mesure du monde immonde Où on traîne nos corps en attendant la suite Que vos noms soient jamais oubliés Bouna, Zyed, c'est nous pour vous à jamais Demande du calme, ne transformons pas notre deuil en drame Laissons couler nos larmes, demande la paix face aux armes Mais t'es un fou, renoi c'est nos p'tits frères qui sont partis pour rien Toujours nos mères qui pleurent, toujours cette putain de haine au cur Cesse tes rancurs, on a l'devoir de calmer la rage Avec un grand cur, nous sommes unis pour faire un hommage Ça sera toujours les mêmes personnes qui y laisseront des plumes Notre quartier fume, il faudra bien que quelqu'un l'assume Qu'on s'le dise, y aura pas d'paix sans l'mot respect Zyed et Bouna, que vos âmes reposent en paix Négro c'est l'deuil, coupe le moteur de l'YZ Mon stylo pleure d'l'acide au nom d'Bouna et Zyed Tristesse et rage, jeunesse arrachée par la Faucheuse La mort n'attend personne et on confie son âme à Dieu Saluer la République, y a pas moyen Tout c'que j'ai retenu d'la Marseillaise, c'est aux armes, ci</t>
+          <t>Je parle pour de vrai, maille pour de vrai T'entends le bruit du fer, tu sais que c'est un vrai Les billets dans mon clip, frère sont des vrais Gangster en grand boubou, ça aussi c'est vrai Dakar pharmacie, bosse pour de vrai plus de 100 000 albums, vendus pour de vrai Les rares de ma cité racaillent pour de vrai Joue pas les och' ici, tu meurs pour de vrai En avance sur mon temps, je suis un prématuré Plein de sang en Afrique, je suis un enfant mort-né Elucider le mystère, de quelques négros suspects Comme Moïse au Mont Sinaï frérot je viens te guider Passant par la Casamance, et le Bois Sacré Maquisards et rebelles, sud sénégalais Trafiquants en tout genre, héroïne et cc Pas un métier dans le crime, qu'on a pas exercé frère! On vit dans des réserves, parqués comme des animaux On veut de la viande fraîche, pas des haricots Dakar libre-échange, recel et contrebande Les corones pleines, nique le reste du monde Viens apprendre l'Islam, je ne suis pas un exemple N'écoute pas mon pe-ra, boy écoute les imams Prêcher dans le rap, déjà c'est haram, à part les rues de Dakar, je pourrais rien t'apprendre C'est la famille mon négro, au royaume des lionceaux Psychopathe comme Hannibal, dans le Silence Des Agneaux J'entends l'air dans ma cage, laisse la gorge trouée Je m'en bas les couilles si après, l'Etat voudra m'écrouer Maintenant ils veulent m'expulser puisque je dis la vérité Devant le palais de justice, m'humilier me traîner Ils vont jusqu'à collaborer, avec les traîtres de la cité Qui jouent les gangsters, mais le soir vont tapiner Devant les keufs c'est pas du bluff, ouais négro ils donnent leur 'ssef Pour une poignet de dollar, balance le nom de ton reuf' J'irais faire ma peine, j'irais cracher ma haine, en ? ou dans les rues de Cayenne Frère ! On vit dans des réserves, parqués comme des animaux On veut de la viande fraîche, pas des haricots Dakar libre-échange, recel et contrebande Les corones pleines, nique le reste du monde</t>
         </is>
       </c>
     </row>
@@ -2239,12 +2239,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Musik avant de rakailler</t>
+          <t>Oeil pour Oeil</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>... Même les mecs des blocs ils ont faim ... ... M Dakar contrebande toujours anti forces de l'ordre Nous on vit le jour mais la nuit on fait du troc Baise ma vie de négro dès que je sors de l'autoroute Les soldats que j'écoute c'est Balastik puis Snoop Et je mens tasspé cherche des échappatoires J'hallucine quand le juge me parle de liberté provisoire Sors un rasoir tranche une gorge puis après une langue Y'en a trop qui parlent mal sur Ghtto Fab Gang Okay-kay-kay je paie la caution et la dot à ta sour Je fais des bails, on se voit en bas du bloc tout à l'heure ... Je vais boire du Hennesy avec les mecs de Grigny Une parole de travers et je t'arrache à la vie Éternellement tu roupilles frère avec les momies C'est quoi les bails négro ? Moi j'entends que bruit Si le glock te tue pas ce sera bientôt le UZI ... Même les mecs des blocs ils ont faim</t>
+          <t>Sens le meurtre frérot à chaque fois que je parle Et je plaide coupable juste comme Lee Oswald Ambiance western et le flingue étincelle Moi je plante l'épée juste comme ... Reste à terre tocard droit comme une flatline J'étais à l'ancienne négro c'est Rapline Meurtri frérot Kennedy à Dallas Y'a pas eu de héros depuis moi dans ma race Niggaz die pour moi, d'autres rident pour moi ... C'est oeil pour oeil dent pour dent mon renoi Tu shootes sur moi, moi je shoote sur toi ! T'as des flingues mon frère j'ai des flingues comme toi ... C'est Dakar sniper au bout du rouleau compresseur Les yeux bandés à fond dans une compressor ... C'est oeil pour oeil dent pour dent mon renoi Tu shootes sur moi, moi je shoote sur toi ! T'as des flingues mon frère j'ai des flingues comme toi ...</t>
         </is>
       </c>
     </row>
@@ -2256,12 +2256,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Nique le reste du monde</t>
+          <t>One beat</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Je parle pour de vrai, maille pour de vrai T'entends le bruit du fer, tu sais que c'est un vrai Les billets dans mon clip, frère sont des vrais Gangster en grand boubou, ça aussi c'est vrai Dakar pharmacie, bosse pour de vrai plus de 100 000 albums, vendus pour de vrai Les rares de ma cité racaillent pour de vrai Joue pas les och' ici, tu meurs pour de vrai En avance sur mon temps, je suis un prématuré Plein de sang en Afrique, je suis un enfant mort-né Elucider le mystère, de quelques négros suspects Comme Moïse au Mont Sinaï frérot je viens te guider Passant par la Casamance, et le Bois Sacré Maquisards et rebelles, sud sénégalais Trafiquants en tout genre, héroïne et cc Pas un métier dans le crime, qu'on a pas exercé frère! On vit dans des réserves, parqués comme des animaux On veut de la viande fraîche, pas des haricots Dakar libre-échange, recel et contrebande Les corones pleines, nique le reste du monde Viens apprendre l'Islam, je ne suis pas un exemple N'écoute pas mon pe-ra, boy écoute les imams Prêcher dans le rap, déjà c'est haram, à part les rues de Dakar, je pourrais rien t'apprendre C'est la famille mon négro, au royaume des lionceaux Psychopathe comme Hannibal, dans le Silence Des Agneaux J'entends l'air dans ma cage, laisse la gorge trouée Je m'en bas les couilles si après, l'Etat voudra m'écrouer Maintenant ils veulent m'expulser puisque je dis la vérité Devant le palais de justice, m'humilier me traîner Ils vont jusqu'à collaborer, avec les traîtres de la cité Qui jouent les gangsters, mais le soir vont tapiner Devant les keufs c'est pas du bluff, ouais négro ils donnent leur 'ssef Pour une poignet de dollar, balance le nom de ton reuf' J'irais faire ma peine, j'irais cracher ma haine, en ? ou dans les rues de Cayenne Frère ! On vit dans des réserves, parqués comme des animaux On veut de la viande fraîche, pas des haricots Dakar libre-échange, recel et contrebande Les corones pleines, nique le reste du monde</t>
+          <t>Ghetto Fabulous Gang frère Dakar Yarakh Bing bing 93 One Beat renoi ! Y a qu'une vie à vivre, moi j'la vis pleinement Dehors pleins de poucaves j'peux pas être clément Ghetto Fabulous Gang, boy à quoi tu t'attends ? Viens pas tout blanc, on est déjà rouge-sang La cité en personne, Dakar au mieux de sa forme Une jeunesse passée à haïr tout c'qui est uniforme J'peux plus dormir car la tess' m'appelle Une fausse plaque négro, les keufs sont juste derrière Ils voient rien dans mes yeux, essayent d'infiltrer mon coeur De plus l'Ange d'la Mort nettoie mon rétroviseur S'il te plait négro, me racontes pas ta vie Moi je crible ta caisse comme 2pac et Biggie C'est Alpha 5.20 en direct des toilettes Où je doigte la Joconde et Marie-Antoinette Et les cris qu'elles poussent ressemblent à ceux des macaques Avec lesquels j'ai grandis dans ma jungle natale Boy Dakar Dakar, les arènes de la mort Sacrifie les taureaux, moi j'suis un matador Tempère mon attitude, écoute les paroles divines En dehors du peu-ra mes paroles sont minimes ! Y a qu'une vie à vivre, moi j'la vis pleinement Dehors pleins de poucaves j'peux pas être clément Ghetto Fabulous Gang, boy à quoi tu t'attends ? Viens pas tout blanc, on est déjà rouge-sang J'suis venu, j'ai vu puis après j'ai vaincu Ton rappeur favoris pour moi n'est qu'une groupie biatch ! Et j'pris le Seigneur, tête baissée, coeur humble Conversation intime Aide moi s'il te plait ! Parfois moi je pense que c'est mieux de mourir 29 piges ma vie, le 28 était triste J'étais mort mille fois j'veux renaître maintenant Avoir plein de sentiments, j'viens avec des enfants Mais c'est dur de résister aux tentations de l'argent Toute ma vie les poings liés, négro tu me comprends Un animal dans la jungle, un cannibale avec un flingue Au point de non-retour comme la racaille d'Afrique Négros pensent qu'leur cité peuvent heurter mes finances Négros pensent qu'leurs flingues peuvent adoucir mes tendances Suicidaire et esseulé j'maîtrise l'art de Guerre L'art de manier les armes, l'art de repérer les traîtres frère ! Y a qu'une vie à vivre, moi j'la vis pleinement Dehors pleins de poucaves j'peux pas être clément Ghetto Fabulous Gang, boy à quoi tu t'attends ? Viens pas tout blanc, on est déjà rouge-sang Et tu parles, et tu parles Ghetto Fabulous Gang Et bicrave, et bicrave, viens nous voir bolosse Et tu parles, et tu parles Ghetto Fabulous Gang Et bicrave, et bicrave, viens nous voir bolosse Shoot les MC mec One Beat mon frère, c'est l'projet frère J'suis en compétition qu'avec moi-même mon frère L'excellence mon frère Quand il s'agit de Gangsta Shit mon frère Tu peux pas faire mieux qu'la Pharmacie Drugstore, Spike Miller, Deadline frère ! Ghetto Fabulous Gang Et tu parles, et tu parles Ghetto Fabulous Gang Et bicrave, et bicrave, viens nous voir bolosse Et tu parles, et tu parles Fermes ta gueule !</t>
         </is>
       </c>
     </row>
@@ -2273,12 +2273,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Oeil pour Oeil</t>
+          <t>On est venu ramasser</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Sens le meurtre frérot à chaque fois que je parle Et je plaide coupable juste comme Lee Oswald Ambiance western et le flingue étincelle Moi je plante l'épée juste comme ... Reste à terre tocard droit comme une flatline J'étais à l'ancienne négro c'est Rapline Meurtri frérot Kennedy à Dallas Y'a pas eu de héros depuis moi dans ma race Niggaz die pour moi, d'autres rident pour moi ... C'est oeil pour oeil dent pour dent mon renoi Tu shootes sur moi, moi je shoote sur toi ! T'as des flingues mon frère j'ai des flingues comme toi ... C'est Dakar sniper au bout du rouleau compresseur Les yeux bandés à fond dans une compressor ... C'est oeil pour oeil dent pour dent mon renoi Tu shootes sur moi, moi je shoote sur toi ! T'as des flingues mon frère j'ai des flingues comme toi ...</t>
+          <t>Yo je viens du hood, Dakar no good Là où on vend du crack à l'arrière des fast food Kilos de ganja, bocal de ... Des ..., des Tidiane puis des Baye Fall Ecorché vif car l'Etat nous mène la vie dure Big up Dakar à chaque fois dans nos 16 mesures Peur de la mort mais de finir comme un lâche La pauvreté est un crime, trop de bouches à nourrir La mélodie des briques endurcit mon mental Venu brûler l'Europe, négro baise leur morale Plus rude est la bataille plus est la victoire Passe mon temps à tracer les autoroutes de l'espoir Ma poésie reflète ce que mon peuple endure Et ma plume est trempée sur le sang des martyrs Alpha 5.20 pas loin du rivage Ma dernière défaite remonte à l'esclavage En lettres d'or mon nom dans les rues gravé Et je prie le Dieu du rap de ne jamais changer Demande à Mokobé, parole de soninké On est venu ramasser puis après se barrer En lettres d'or mon nom dans les rues gravé Et je prie le Dieu du rap de ne jamais changer Demande à Mokobé, parole de soninké On est venu ramasser puis après se barrer Pas besoin de présentation Mokobé Alpha 5.20 On se connaît très bien avant même l'époque du 3 litres 20 Moi je pratique le hip hop de Bruce, machette à la main Découpe les têtes des MC's qui racontent que de la merde Pendant qu'on nous prend pour de la chair à canon électorale Frère sillonne les rues d'un instinct animal Qu'ils arrêtent de prendre l'Afrique pour la poubelle de l'Europe Les bâtiments, le goudron, les routes c'est qui ? C'est nos rents- p' ! T'étonne pas que la parole d'escroc se ressent dans notre attitude Se sentir au dessus des lois devient une habitude Ghetto Fabulous Gang, Mafia k1fry Un point en commun on représente toujours pour les cainfris A une époque où on bascule entre le mal et le bien L'important c'est pas de savoir où tu vas mais d'où tu viens Paroles d'escroc Skaner, parole de soninké Parole de peul, wolof, Malik Bledoss Alpha 5.20 En lettres d'or mon nom dans les rues gravé Et je prie le Dieu du rap de ne jamais changer Demande à Mokobé, parole de soninké On est venu ramasser puis après se barrer En lettres d'or mon nom dans les rues gravé Et je prie le Dieu du rap de ne jamais changer Demande à Mokobé, parole de soninké On est venu ramasser puis après se barrer Sisi 2007 nouvel an je reste toujours le même Fils de t'as vu j'ai pas changé d'emblème Et d'emblée la donne a changé Plus de problèmes je me frotte plus les yeux j'ai tout remis à Dieu Boy Dakar négro sans tatoo De 0.7 à 0.9 y'aura pas de tabou Le monde tourne poto la table aussi Moi j'ouvre des tonnes et une bonne pussy Me casser dans mon île cousin sans souci Mais dans cette vie de pute j'ai choisi nègre attitude ... En lettres d'or mon nom dans les rues gravé Et je prie le Dieu du rap de ne jamais changer Demande à Mokobé, parole de soninké On est venu ramasser puis après se barrer En lettres d'or mon nom dans les rues gravé Et je prie le Dieu du rap de ne jamais changer Demande à Mokobé, parole de soninké On est venu ramasser puis après se barrer</t>
         </is>
       </c>
     </row>
@@ -2290,12 +2290,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>One beat</t>
+          <t>Original Gangster</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Ghetto Fabulous Gang frère Dakar Yarakh Bing bing 93 One Beat renoi ! Y a qu'une vie à vivre, moi j'la vis pleinement Dehors pleins de poucaves j'peux pas être clément Ghetto Fabulous Gang, boy à quoi tu t'attends ? Viens pas tout blanc, on est déjà rouge-sang La cité en personne, Dakar au mieux de sa forme Une jeunesse passée à haïr tout c'qui est uniforme J'peux plus dormir car la tess' m'appelle Une fausse plaque négro, les keufs sont juste derrière Ils voient rien dans mes yeux, essayent d'infiltrer mon coeur De plus l'Ange d'la Mort nettoie mon rétroviseur S'il te plait négro, me racontes pas ta vie Moi je crible ta caisse comme 2pac et Biggie C'est Alpha 5.20 en direct des toilettes Où je doigte la Joconde et Marie-Antoinette Et les cris qu'elles poussent ressemblent à ceux des macaques Avec lesquels j'ai grandis dans ma jungle natale Boy Dakar Dakar, les arènes de la mort Sacrifie les taureaux, moi j'suis un matador Tempère mon attitude, écoute les paroles divines En dehors du peu-ra mes paroles sont minimes ! Y a qu'une vie à vivre, moi j'la vis pleinement Dehors pleins de poucaves j'peux pas être clément Ghetto Fabulous Gang, boy à quoi tu t'attends ? Viens pas tout blanc, on est déjà rouge-sang J'suis venu, j'ai vu puis après j'ai vaincu Ton rappeur favoris pour moi n'est qu'une groupie biatch ! Et j'pris le Seigneur, tête baissée, coeur humble Conversation intime Aide moi s'il te plait ! Parfois moi je pense que c'est mieux de mourir 29 piges ma vie, le 28 était triste J'étais mort mille fois j'veux renaître maintenant Avoir plein de sentiments, j'viens avec des enfants Mais c'est dur de résister aux tentations de l'argent Toute ma vie les poings liés, négro tu me comprends Un animal dans la jungle, un cannibale avec un flingue Au point de non-retour comme la racaille d'Afrique Négros pensent qu'leur cité peuvent heurter mes finances Négros pensent qu'leurs flingues peuvent adoucir mes tendances Suicidaire et esseulé j'maîtrise l'art de Guerre L'art de manier les armes, l'art de repérer les traîtres frère ! Y a qu'une vie à vivre, moi j'la vis pleinement Dehors pleins de poucaves j'peux pas être clément Ghetto Fabulous Gang, boy à quoi tu t'attends ? Viens pas tout blanc, on est déjà rouge-sang Et tu parles, et tu parles Ghetto Fabulous Gang Et bicrave, et bicrave, viens nous voir bolosse Et tu parles, et tu parles Ghetto Fabulous Gang Et bicrave, et bicrave, viens nous voir bolosse Shoot les MC mec One Beat mon frère, c'est l'projet frère J'suis en compétition qu'avec moi-même mon frère L'excellence mon frère Quand il s'agit de Gangsta Shit mon frère Tu peux pas faire mieux qu'la Pharmacie Drugstore, Spike Miller, Deadline frère ! Ghetto Fabulous Gang Et tu parles, et tu parles Ghetto Fabulous Gang Et bicrave, et bicrave, viens nous voir bolosse Et tu parles, et tu parles Fermes ta gueule !</t>
+          <t>Gangster Gangster Gangster Gangster C'est pour les gangsters qui enculent la justice Puis après slaloment devant les balles de la police Aiment les lance-roquettes et les pains de plastique Casseurs de bijouteries avec des armes factices Une pensée pour l'Afrique, on aime les arithmétiques Les butin à 6 chiffres pour les enfants de la ZUP Partage à parts égales fait partie du principe L'islam en pratique mais on monte au charbon Embrouille une bande rivale, on va faire un carton Mauvais garçon toujours serviable envers les frères Les mères les petites soeurs j'te fais une petite fleur Rappe ma vie comme tu l'as jamais entendue Téma frère ... quand mon disque a fondu La coke est pure comme la neige du Canada On a ouvert des restos là bas à Pattaya Hors la loi ... bicrave vole braque et tue Gangster Gangster Gangster Gangster Gangster Gangster Gangster Gangster Dès que le soleil montre un signe de faiblesse Ma tête émerge de l'eau avec beaucoup de noblesse Mec de tess accompagné d'une déesse noire Du côté passager Aminata la tigresse Les vrais gangsters ne meurent pas à la fin du film On répond toujours présent boy à l'heure du crime Pisse en boîte quand les videurs nous recalent Balafrer le physio puis après on décale Flaque de sang comme Freddy dans les griffes de la nuit Scène d'horreur à domicile dans la jungle je suis Comme Tarzan sur un T-Max avec un bidon d'essence Et dans la bouche d'incendie tu sentiras ma présence J'ai pas besoin d'un flingue j'ai des poupées vaudous Et des armes perdues j'en ai violé beaucoup Pôle Nord prototype les critiques me touchent pas Monstre du Loch Ness dans les abysses je combats Gangster Gangster Gangster Gangster Gangster Gangster Gangster Gangster J'espère que t'écoutes bien négro ... Yeah renoi 4.0.2.5 quoi de neuf pédé ? ...</t>
         </is>
       </c>
     </row>
@@ -2307,12 +2307,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>On est venu ramasser</t>
+          <t>Oseille avec le majeur</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Yo je viens du hood, Dakar no good Là où on vend du crack à l'arrière des fast food Kilos de ganja, bocal de ... Des ..., des Tidiane puis des Baye Fall Ecorché vif car l'Etat nous mène la vie dure Big up Dakar à chaque fois dans nos 16 mesures Peur de la mort mais de finir comme un lâche La pauvreté est un crime, trop de bouches à nourrir La mélodie des briques endurcit mon mental Venu brûler l'Europe, négro baise leur morale Plus rude est la bataille plus est la victoire Passe mon temps à tracer les autoroutes de l'espoir Ma poésie reflète ce que mon peuple endure Et ma plume est trempée sur le sang des martyrs Alpha 5.20 pas loin du rivage Ma dernière défaite remonte à l'esclavage En lettres d'or mon nom dans les rues gravé Et je prie le Dieu du rap de ne jamais changer Demande à Mokobé, parole de soninké On est venu ramasser puis après se barrer En lettres d'or mon nom dans les rues gravé Et je prie le Dieu du rap de ne jamais changer Demande à Mokobé, parole de soninké On est venu ramasser puis après se barrer Pas besoin de présentation Mokobé Alpha 5.20 On se connaît très bien avant même l'époque du 3 litres 20 Moi je pratique le hip hop de Bruce, machette à la main Découpe les têtes des MC's qui racontent que de la merde Pendant qu'on nous prend pour de la chair à canon électorale Frère sillonne les rues d'un instinct animal Qu'ils arrêtent de prendre l'Afrique pour la poubelle de l'Europe Les bâtiments, le goudron, les routes c'est qui ? C'est nos rents- p' ! T'étonne pas que la parole d'escroc se ressent dans notre attitude Se sentir au dessus des lois devient une habitude Ghetto Fabulous Gang, Mafia k1fry Un point en commun on représente toujours pour les cainfris A une époque où on bascule entre le mal et le bien L'important c'est pas de savoir où tu vas mais d'où tu viens Paroles d'escroc Skaner, parole de soninké Parole de peul, wolof, Malik Bledoss Alpha 5.20 En lettres d'or mon nom dans les rues gravé Et je prie le Dieu du rap de ne jamais changer Demande à Mokobé, parole de soninké On est venu ramasser puis après se barrer En lettres d'or mon nom dans les rues gravé Et je prie le Dieu du rap de ne jamais changer Demande à Mokobé, parole de soninké On est venu ramasser puis après se barrer Sisi 2007 nouvel an je reste toujours le même Fils de t'as vu j'ai pas changé d'emblème Et d'emblée la donne a changé Plus de problèmes je me frotte plus les yeux j'ai tout remis à Dieu Boy Dakar négro sans tatoo De 0.7 à 0.9 y'aura pas de tabou Le monde tourne poto la table aussi Moi j'ouvre des tonnes et une bonne pussy Me casser dans mon île cousin sans souci Mais dans cette vie de pute j'ai choisi nègre attitude ... En lettres d'or mon nom dans les rues gravé Et je prie le Dieu du rap de ne jamais changer Demande à Mokobé, parole de soninké On est venu ramasser puis après se barrer En lettres d'or mon nom dans les rues gravé Et je prie le Dieu du rap de ne jamais changer Demande à Mokobé, parole de soninké On est venu ramasser puis après se barrer</t>
+          <t>Je continue à combattre les lois, dans ma vie j'suis hors la loi J'fais l'oseille avec le majeur, la France fait du racolage Elle tapine sur les boulevards ... ... C'est le pied aucun obstacle à part l'Etat négro ... Je continue à combattre les lois, dans ma vie j'suis hors la loi J'fais l'oseille avec le majeur, la France fait du racolage Elle tapine sur les boulevards ... Assis sur un volcan, Ile de France brûlant Venu boire de la lave en compagnie des dragons J'apprécie l'amitié avec modération Mais les armes je les aime avec consummation Ma passion est sans limite, elle est comme celle du Christ Ghetto Fab c'est mes apôtres je me sens moins triste ... Je continue à combattre les lois, dans ma vie j'suis hors la loi J'fais l'oseille avec le majeur, la France fait du racolage Elle tapine sur les boulevards ... 77 sent la mort, la faucheuse rode dans les parages On croise les puceaux et pucelles ...</t>
         </is>
       </c>
     </row>
@@ -2324,12 +2324,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Original Gangster</t>
+          <t>Où est ton cœur négro ?</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Gangster Gangster Gangster Gangster C'est pour les gangsters qui enculent la justice Puis après slaloment devant les balles de la police Aiment les lance-roquettes et les pains de plastique Casseurs de bijouteries avec des armes factices Une pensée pour l'Afrique, on aime les arithmétiques Les butin à 6 chiffres pour les enfants de la ZUP Partage à parts égales fait partie du principe L'islam en pratique mais on monte au charbon Embrouille une bande rivale, on va faire un carton Mauvais garçon toujours serviable envers les frères Les mères les petites soeurs j'te fais une petite fleur Rappe ma vie comme tu l'as jamais entendue Téma frère ... quand mon disque a fondu La coke est pure comme la neige du Canada On a ouvert des restos là bas à Pattaya Hors la loi ... bicrave vole braque et tue Gangster Gangster Gangster Gangster Gangster Gangster Gangster Gangster Dès que le soleil montre un signe de faiblesse Ma tête émerge de l'eau avec beaucoup de noblesse Mec de tess accompagné d'une déesse noire Du côté passager Aminata la tigresse Les vrais gangsters ne meurent pas à la fin du film On répond toujours présent boy à l'heure du crime Pisse en boîte quand les videurs nous recalent Balafrer le physio puis après on décale Flaque de sang comme Freddy dans les griffes de la nuit Scène d'horreur à domicile dans la jungle je suis Comme Tarzan sur un T-Max avec un bidon d'essence Et dans la bouche d'incendie tu sentiras ma présence J'ai pas besoin d'un flingue j'ai des poupées vaudous Et des armes perdues j'en ai violé beaucoup Pôle Nord prototype les critiques me touchent pas Monstre du Loch Ness dans les abysses je combats Gangster Gangster Gangster Gangster Gangster Gangster Gangster Gangster J'espère que t'écoutes bien négro ... Yeah renoi 4.0.2.5 quoi de neuf pédé ? ...</t>
+          <t>Hey, hey, hey Frère, frère, frère Mais dis moi, où est ton cur négro? Moi j'crois que t'as peur négro Quand les embrouilles viennent les lâches rasent les murs Dès que je sors la lame de mon blouson cuir Mais dis moi, où est ton cur négro? Moi j'crois que t'as peur négro Quand les embrouilles viennent les lâches rasent les murs Dès que je sors la lame de mon blouson cuir Islamic Dakar où le soleil se couche pas Je t'enterre sale bâtard là où les keufs te trouvent pas De l'arme blanche au grigri, on est jamais en manque À visage découvert venu défoncer la banque Tous les jours je change de planque l'état me suit au pas Quelques porcs en faction prennent des photos de moi Commission rogatoire, des écoutes au cellulaire Une grenade dans ma poche, mon attitude est suicidaire Moi je tire à tout va, des ennemis à l'affut Rends les négros immobiles, juste comme des statues Depuis ma tendre enfance, j'ai appris à gruger Gratter le billet, rien laisser aux poulets Devant ma chambre à coucher, ils tissent leurs filets Je sauterai par ma fenêtre en portant mon gilet Crève, crève sale porc, l'État va pleurer La pension de ta veuve, j'irai pas la payer Mais dis moi, où est ton cur négro? Moi j'crois que t'as peur négro Quand les embrouilles viennent les lâches rasent les murs Dès que je sors la lame de mon blouson cuir Mais dis moi, où est ton cur négro? Moi j'crois que t'as peur négro Quand les embrouilles viennent les lâches rasent les murs Dès que je sors la lame de mon blouson cuir Négros veulent que j'aille en guerre, puis clasher l'ourson Me la jouer comme Georges Bush, appuyer sur le bouton Tout ceci est enfantin j'ai pas le temps pour ça Chaque seconde que je perds ici un enfant meurt chez moi J'suis le roi des sous-sols, même si je vends des CD Dakar hémisphère ouest, chez nous y'a pas de PD De tout le reste isolé, en quarantaine comme la peste Sans goutte d'eau dans le désert, j'ai marché en solitaire Entendant la rue refuser nos prières Dieu m'a versé de l'eau, l'homme a donné de la bière En qui avoir confiance, dans ce monde corrompu? Quelques-uns de mes proches sont devenus des ennemis J'ai l'acier qui gratte, l'index qui démange Si je tire sur un keuf légitime défense J'ai l'acier qui gratte, l'index qui démange Si je tire sur un keuf légitime défense Frère! Mais dis moi, où est ton cur négro? Moi j'crois que t'as peur négro Quand les embrouilles viennent les lâches rasent les murs Dès que je sors la lame de mon blouson cuir Mais dis moi, où est ton cur négro? Moi j'crois que t'as peur négro Quand les embrouilles viennent les lâches rasent les murs Dès que je sors la lame de mon blouson cuir C'est Alpha 5.20, en direct des toilettes Où je doigte la Joconde et Marie-Antoinette Et les cris qu'elles poussent ressemblent à ceux des macaques Avec lesquels j'ai grandi dans ma jungle natale Couleur sang, rouge vif, sacrifie le taureau Dans l'arène tout seul, matador négro Baise l'année fiscale, comme Florent Pagny Blood Dakar Dakar, je planque mes Ferraris Quand je rap le temps s'arrête, puis la terre tremble Les oiseaux fredonnent Ghetto Fabulous Gang Les anges pleurent puis après, les larmes tombent du ciel Touchent la terre mais après ça, prennent une forme humaine 93 négro, on n'est jamais au garde-à-vous Ghetto Fabulous Gang, même les keufs ont peur de nous 93 négro, on n'est jamais au garde-à-vous Ghetto Fabulous Gang, même les keufs ont peur de nous Mais dis moi, où est ton cur négro? Moi j'crois que t'as peur négro Quand les embrouilles viennent les lâches rasent les murs Dès que je sors la lame de mon blouson cuir Mais dis moi, où est ton cur négro? Moi j'crois que t'as peur négro Quand les embrouilles viennent les lâches rasent les murs Dès que je sors la lame de mon blouson cuir 93, ouais ouais ouais Île de France, négro paie! 93, ouais ouais ouais Île de France, négro paie! 93, ouais ouais ouais Île de France, négro paie!</t>
         </is>
       </c>
     </row>
@@ -2341,12 +2341,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Oseille avec le majeur</t>
+          <t>Ouvre la pharmacie</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Je continue à combattre les lois, dans ma vie j'suis hors la loi J'fais l'oseille avec le majeur, la France fait du racolage Elle tapine sur les boulevards ... ... C'est le pied aucun obstacle à part l'Etat négro ... Je continue à combattre les lois, dans ma vie j'suis hors la loi J'fais l'oseille avec le majeur, la France fait du racolage Elle tapine sur les boulevards ... Assis sur un volcan, Ile de France brûlant Venu boire de la lave en compagnie des dragons J'apprécie l'amitié avec modération Mais les armes je les aime avec consummation Ma passion est sans limite, elle est comme celle du Christ Ghetto Fab c'est mes apôtres je me sens moins triste ... Je continue à combattre les lois, dans ma vie j'suis hors la loi J'fais l'oseille avec le majeur, la France fait du racolage Elle tapine sur les boulevards ... 77 sent la mort, la faucheuse rode dans les parages On croise les puceaux et pucelles ...</t>
+          <t>Yo le rap c'est comme du crack frère, la concurrence est rude Moi je porte un flingue juste au coin d'la bite Juste au cas où un pitre parle mal et gesticule Si t'es noir comme un cafard, boy évite les pesticides P'tite fiotte, ne mords pas la main qui t'a nourri Dakar né, grandi, sale racaille moisie Au milieu des escrocs moi je traîne qu'avec des hyènes Retour en esclavage j'ai brisé mes propres chaînes Un putain de nègre marron, pas Jacky et Ben-J France most wanted comme l'a été Kenzy Traite mes nég' comme mes reufs, je les aime et respecte Traite mes 'tasses comme mes flingues, j'les tire et j'les jette Et boy t'es pas au courant, on exporte la Fnac aux puces Moi je parle mal puis je traite les femmes sur mes disques Arrose mes plantes au sky, négro moi je pisse debout A cette heure-ci je sais même plus si ça vaut le coup Pour passer sur Sky négro j'ai dû me taper Diam's Crois pas que ça m'a adouci boy, face à moi tu clamses La vengeance est mienne c'est ce qu'a dit le Seigneur Renois t'appellent frère mais t'oublient quand ils sont au beurre Peur d'étaler ma vie, moi je garde mes secrets Plus le monde est tout petit pas, plus grand qu'Épinay-sur-Seine Moi je tue comme Youssou N'Dour à Bercy Défonce les portes, jette des pavés, ça c'est pas vrai Et tout ce que t'entends c'est Alpha faut pas nous caner Man je suis un bad boy, je suis un bad boy On arrive dans le bloc battymen son dead Moi je pop mon hood dans le bâtiment D Chacune de mes rimes est une vérité que j'ai traversé Boy ouvre la pharmacie, bicrave et je m'en vais</t>
         </is>
       </c>
     </row>
@@ -2358,12 +2358,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Où est ton cœur négro ?</t>
+          <t>Parler aux anges</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Hey, hey, hey Frère, frère, frère Mais dis moi, où est ton cur négro? Moi j'crois que t'as peur négro Quand les embrouilles viennent les lâches rasent les murs Dès que je sors la lame de mon blouson cuir Mais dis moi, où est ton cur négro? Moi j'crois que t'as peur négro Quand les embrouilles viennent les lâches rasent les murs Dès que je sors la lame de mon blouson cuir Islamic Dakar où le soleil se couche pas Je t'enterre sale bâtard là où les keufs te trouvent pas De l'arme blanche au grigri, on est jamais en manque À visage découvert venu défoncer la banque Tous les jours je change de planque l'état me suit au pas Quelques porcs en faction prennent des photos de moi Commission rogatoire, des écoutes au cellulaire Une grenade dans ma poche, mon attitude est suicidaire Moi je tire à tout va, des ennemis à l'affut Rends les négros immobiles, juste comme des statues Depuis ma tendre enfance, j'ai appris à gruger Gratter le billet, rien laisser aux poulets Devant ma chambre à coucher, ils tissent leurs filets Je sauterai par ma fenêtre en portant mon gilet Crève, crève sale porc, l'État va pleurer La pension de ta veuve, j'irai pas la payer Mais dis moi, où est ton cur négro? Moi j'crois que t'as peur négro Quand les embrouilles viennent les lâches rasent les murs Dès que je sors la lame de mon blouson cuir Mais dis moi, où est ton cur négro? Moi j'crois que t'as peur négro Quand les embrouilles viennent les lâches rasent les murs Dès que je sors la lame de mon blouson cuir Négros veulent que j'aille en guerre, puis clasher l'ourson Me la jouer comme Georges Bush, appuyer sur le bouton Tout ceci est enfantin j'ai pas le temps pour ça Chaque seconde que je perds ici un enfant meurt chez moi J'suis le roi des sous-sols, même si je vends des CD Dakar hémisphère ouest, chez nous y'a pas de PD De tout le reste isolé, en quarantaine comme la peste Sans goutte d'eau dans le désert, j'ai marché en solitaire Entendant la rue refuser nos prières Dieu m'a versé de l'eau, l'homme a donné de la bière En qui avoir confiance, dans ce monde corrompu? Quelques-uns de mes proches sont devenus des ennemis J'ai l'acier qui gratte, l'index qui démange Si je tire sur un keuf légitime défense J'ai l'acier qui gratte, l'index qui démange Si je tire sur un keuf légitime défense Frère! Mais dis moi, où est ton cur négro? Moi j'crois que t'as peur négro Quand les embrouilles viennent les lâches rasent les murs Dès que je sors la lame de mon blouson cuir Mais dis moi, où est ton cur négro? Moi j'crois que t'as peur négro Quand les embrouilles viennent les lâches rasent les murs Dès que je sors la lame de mon blouson cuir C'est Alpha 5.20, en direct des toilettes Où je doigte la Joconde et Marie-Antoinette Et les cris qu'elles poussent ressemblent à ceux des macaques Avec lesquels j'ai grandi dans ma jungle natale Couleur sang, rouge vif, sacrifie le taureau Dans l'arène tout seul, matador négro Baise l'année fiscale, comme Florent Pagny Blood Dakar Dakar, je planque mes Ferraris Quand je rap le temps s'arrête, puis la terre tremble Les oiseaux fredonnent Ghetto Fabulous Gang Les anges pleurent puis après, les larmes tombent du ciel Touchent la terre mais après ça, prennent une forme humaine 93 négro, on n'est jamais au garde-à-vous Ghetto Fabulous Gang, même les keufs ont peur de nous 93 négro, on n'est jamais au garde-à-vous Ghetto Fabulous Gang, même les keufs ont peur de nous Mais dis moi, où est ton cur négro? Moi j'crois que t'as peur négro Quand les embrouilles viennent les lâches rasent les murs Dès que je sors la lame de mon blouson cuir Mais dis moi, où est ton cur négro? Moi j'crois que t'as peur négro Quand les embrouilles viennent les lâches rasent les murs Dès que je sors la lame de mon blouson cuir 93, ouais ouais ouais Île de France, négro paie! 93, ouais ouais ouais Île de France, négro paie! 93, ouais ouais ouais Île de France, négro paie!</t>
+          <t>Guerre de tess, guerre de bizz C'est une mère qui enterre son fils Frôle la crise, les rues te disent 3, 5, 7, tu finis aux assises C'est ça la devise. Négro tu le paies Combien de chacals sont morts pour l'oseille ? On a la mentale, craint pas les balles Peine à deux chiffres au tribunal Fusil à pompe pour ramasser les douilles Je vais au Dallas me vider les couilles Enfant du Ghetto comme à Soweto Rien à prouver je sais ce que je vaux De serrer les plots ce qu'il me faut C'est la putain de maille ! Diezes et des bails - Cagoulé comme les négros de nigrailles - Trouver les failles si je le peux Et si je-je meurs c'est Dieu qui le veut Pas de boussole je sais où je vais Monter au ciel et reposer en paix Parler aux anges de tous mes méfaits La vie ici bas m'a trop sidéré Pas de boussole je sais où je vais Monter au ciel et reposer en paix Parler aux anges de tous mes méfaits La vie ici bas m'a trop sidéré Frôler la mort et échapper de peu En bas des comicos j'allume le feu J'attire les yeux, ce qui ne veut Pas dire que je vais mourir vieux Si si chacal l'Etat nous la mise Tellement si profond que çà nous divise Evry, Canal, jusqu'aux Pyramides Tarterêts, Zoo jusqu'à là où j'habite Bondy, La Bruyère ne suce pas des bites ! Toujours au charbon, le fond on attise Économise ! Tony Montana on sodo-domise Contre le système ! Ceux qui me gêne, ceux qui me peinent Guerre de cocaïne à Épinay-sur-Seine Clos Saint-Lazare te pique dans les veines Clos Saint-Lazare te pique dans les veines Pas de boussole je sais où je vais Monter au ciel et reposer en paix Parler aux anges de tous mes méfaits La vie ici bas m'a trop sidéré Pas de boussole je sais où je vais Monter au ciel et reposer en paix Parler aux anges de tous mes méfaits La vie ici bas m'a trop sidéré Parler de braquos mais ré-pleu à Fresnes Rêver d'évasion, de briser les chaînes Trucs bizarres à se couper les veines Doubler les capotes, c'est qu'une chienne Esquiver les balles quand il pleut Moi je n'ai peur que de Dieu La mort n'est qu'un jeu La honte à tous ceux Qui pensaient l'éviter, poucaves et balances Mon sang coagule devant l'ignorance Faites ce qui vous lance, la femme se vend Aux enchères, au plus offrant Parler de cagoules, parler de gants Négro, ce n'est que du vent Parler de cagoules, parler de gants Négro, ce n'est que du vent Pas de boussole je sais où je vais Monter au ciel et reposer en paix Parler aux anges de tous mes méfaits La vie ici bas m'a trop sidéré Pas de boussole je sais où je vais Monter au ciel et reposer en paix Parler aux anges de tous mes méfaits La vie ici bas m'a trop sidéré La marche des vertueux est semée dobstacles qui sont les entreprises égoïstes que fait sans fin, surgir luvre du malin. Béni soit-il lhomme de bonne volonté qui, au nom de la charité se fait le berger des faibles quil guide dans la vallée dombre de la mort et des larmes, car il est le gardien de son frère et la providence des enfants égarés. Jabattrai alors le bras dune terrible colère, dune vengeance furieuse et effrayante sur les hordes impies qui pourchassent et réduisent à néant les brebis de Dieu. Et tu connaîtras pourquoi mon nom est léternel quand, sur toi, sabattra la vengeance du Tout-Puissant !</t>
         </is>
       </c>
     </row>
@@ -2375,12 +2375,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Ouvre la pharmacie</t>
+          <t>Parlez, parlez, parlez</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Yo le rap c'est comme du crack frère, la concurrence est rude Moi je porte un flingue juste au coin d'la bite Juste au cas où un pitre parle mal et gesticule Si t'es noir comme un cafard, boy évite les pesticides P'tite fiotte, ne mords pas la main qui t'a nourri Dakar né, grandi, sale racaille moisie Au milieu des escrocs moi je traîne qu'avec des hyènes Retour en esclavage j'ai brisé mes propres chaînes Un putain de nègre marron, pas Jacky et Ben-J France most wanted comme l'a été Kenzy Traite mes nég' comme mes reufs, je les aime et respecte Traite mes 'tasses comme mes flingues, j'les tire et j'les jette Et boy t'es pas au courant, on exporte la Fnac aux puces Moi je parle mal puis je traite les femmes sur mes disques Arrose mes plantes au sky, négro moi je pisse debout A cette heure-ci je sais même plus si ça vaut le coup Pour passer sur Sky négro j'ai dû me taper Diam's Crois pas que ça m'a adouci boy, face à moi tu clamses La vengeance est mienne c'est ce qu'a dit le Seigneur Renois t'appellent frère mais t'oublient quand ils sont au beurre Peur d'étaler ma vie, moi je garde mes secrets Plus le monde est tout petit pas, plus grand qu'Épinay-sur-Seine Moi je tue comme Youssou N'Dour à Bercy Défonce les portes, jette des pavés, ça c'est pas vrai Et tout ce que t'entends c'est Alpha faut pas nous caner Man je suis un bad boy, je suis un bad boy On arrive dans le bloc battymen son dead Moi je pop mon hood dans le bâtiment D Chacune de mes rimes est une vérité que j'ai traversé Boy ouvre la pharmacie, bicrave et je m'en vais</t>
+          <t>Peu importe l'ampleur de mes crimes Peu importe la tailles de mes rimes Les négros ouvrent leurs gueules, grattent comme ils peuvent De love je me nourris et de haine je m'abreuve Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs Que les haineux se la mettent dans la seuf Mister Ol'Kainryn moi je peux dead pour le boug Je connais tous les textes par cur, non j'peux dead pour le boug Depuis Au-delà Des Apparences son blaze je peux le crier même Le bougzere a dead, a représenté le C.N.L Ma parole c'est un bon, du rap pour les gros Sur Chemins de la Dignité, des punchlines de la bombe J'suis dingue faut m'interner, j'achète ça les yeux fermés Il rappe comme pas permis, l'explosion va pas trainer Pas mal, pas mal j'apprécie son grain de voix En termes de prod, je n'aurais pas fait les mêmes choix J'avoue que son flow glisse bien sur le charley La diction est bonne mais les punchlines sont cramées Franchement c'est vrai, les lyrics sont pas riches Il est plus frais en solo qu'avec le Factor X Faut qu'il choisisse son camp à faire des boum boum, des pom pom Le mec est plus opé' en bails de zoulous et de gomme-cogne Peu importe l'ampleur de mes crimes Peu importe la tailles de mes rimes Les négros ouvrent leurs gueules, grattent comme ils peuvent De love je me nourris et de haine je m'abreuve Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs Que les haineux se la mettent dans la seuf Vas y, j'suis yombe de lui c'est un chien Si il est pas content il vient, il a oublié les siens T'façon si j'le croise, j'lui serrerais pas la main Le mec est blindé de thunes, même pas il nous met bien Même pas il ouvre un resto ou un bar dans le tiekson Il roule en Merco, il aime seulement se la jouer ce con Fait même pas qué-cro, nous on est là en dalo Vas-y j'm'en bats moi j'suis pas un jaloux Moi j'connais pas Ol'Kainry, moi j'connais bien Freddy Le p'tit jeune qui trainait dans les ruelles dÉvry J'l'ai vu débuter quand il a commencé à rapper Aujourd'hui j'suis fier qu'il fasse briller le nom du quartier J'le voyais dans les embrouilles, il tournait mal Je lui ai dit arrête tes conneries avant que tu trouves une balle Il calculait toujours les conseils que j'lui lançais Dyf c'est un bon p'tit, il respecte les anciens Peu importe l'ampleur de mes crimes Peu importe la tailles de mes rimes Les négros ouvrent leurs gueules, grattent comme ils peuvent De love je me nourris et de haine je m'abreuve Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs Que les haineux se la mettent dans la seuf Franchement c'est pas mal, j'aime bien son flow En plus il est pas mal et il est bien costaud Moi j'connaissais pas, j'avais jamais entendu Mais rien que mon p'tit frère il pouvait dead pour lui Ma préférée c'est celle où il parle du divorce Y a aussi crie mon nom là où il jouait le boss Ouais avec sa petite bouille, il a une tête de nounours Nan franchement j'aime bien en plus il connait Kamnouze À l'ancienne là-uiss, j'l'avais grillé aux arrivants Rien pour cantiner, pas une thune pas un rond Fleury-Mérogis, bâtiment D3 deuxième gauche On balance la gamelle aux corbeaux et aux gros chats On a mis bien le re-noi en canette ou en PQ Ici on kiffe depuis Abattu du Vécu On va cantiner son troisième album En plus, il en place toujours une pour ses frères en taule Peu importe l'ampleur de mes crimes Peu importe la tailles de mes rimes Les négros ouvrent leurs gueules, grattent comme ils peuvent De love je me nourris et de haine je m'abreuve Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs Que les haineux se la mettent dans la seuf Bande de fils de lâches, c'est quoi les bails? Tu connais rien d'moi, même pas mon sourire enfoiré J'ai assez d'punchlines pour casser la bouche de n'importe quel MC dans c'bled, sachez-le J'baise des tites-pe qu'ont l'pelage Cherokee Même toi j't'enfourche normal, hatay Fais pas ton Materazzi, imprime le dièze J'emmerde votre game de merde 91 Essonne, Demolition Man</t>
         </is>
       </c>
     </row>
@@ -2392,12 +2392,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Parler aux anges</t>
+          <t>Pas 2 problème</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Guerre de tess, guerre de bizz C'est une mère qui enterre son fils Frôle la crise, les rues te disent 3, 5, 7, tu finis aux assises C'est ça la devise. Négro tu le paies Combien de chacals sont morts pour l'oseille ? On a la mentale, craint pas les balles Peine à deux chiffres au tribunal Fusil à pompe pour ramasser les douilles Je vais au Dallas me vider les couilles Enfant du Ghetto comme à Soweto Rien à prouver je sais ce que je vaux De serrer les plots ce qu'il me faut C'est la putain de maille ! Diezes et des bails - Cagoulé comme les négros de nigrailles - Trouver les failles si je le peux Et si je-je meurs c'est Dieu qui le veut Pas de boussole je sais où je vais Monter au ciel et reposer en paix Parler aux anges de tous mes méfaits La vie ici bas m'a trop sidéré Pas de boussole je sais où je vais Monter au ciel et reposer en paix Parler aux anges de tous mes méfaits La vie ici bas m'a trop sidéré Frôler la mort et échapper de peu En bas des comicos j'allume le feu J'attire les yeux, ce qui ne veut Pas dire que je vais mourir vieux Si si chacal l'Etat nous la mise Tellement si profond que çà nous divise Evry, Canal, jusqu'aux Pyramides Tarterêts, Zoo jusqu'à là où j'habite Bondy, La Bruyère ne suce pas des bites ! Toujours au charbon, le fond on attise Économise ! Tony Montana on sodo-domise Contre le système ! Ceux qui me gêne, ceux qui me peinent Guerre de cocaïne à Épinay-sur-Seine Clos Saint-Lazare te pique dans les veines Clos Saint-Lazare te pique dans les veines Pas de boussole je sais où je vais Monter au ciel et reposer en paix Parler aux anges de tous mes méfaits La vie ici bas m'a trop sidéré Pas de boussole je sais où je vais Monter au ciel et reposer en paix Parler aux anges de tous mes méfaits La vie ici bas m'a trop sidéré Parler de braquos mais ré-pleu à Fresnes Rêver d'évasion, de briser les chaînes Trucs bizarres à se couper les veines Doubler les capotes, c'est qu'une chienne Esquiver les balles quand il pleut Moi je n'ai peur que de Dieu La mort n'est qu'un jeu La honte à tous ceux Qui pensaient l'éviter, poucaves et balances Mon sang coagule devant l'ignorance Faites ce qui vous lance, la femme se vend Aux enchères, au plus offrant Parler de cagoules, parler de gants Négro, ce n'est que du vent Parler de cagoules, parler de gants Négro, ce n'est que du vent Pas de boussole je sais où je vais Monter au ciel et reposer en paix Parler aux anges de tous mes méfaits La vie ici bas m'a trop sidéré Pas de boussole je sais où je vais Monter au ciel et reposer en paix Parler aux anges de tous mes méfaits La vie ici bas m'a trop sidéré La marche des vertueux est semée dobstacles qui sont les entreprises égoïstes que fait sans fin, surgir luvre du malin. Béni soit-il lhomme de bonne volonté qui, au nom de la charité se fait le berger des faibles quil guide dans la vallée dombre de la mort et des larmes, car il est le gardien de son frère et la providence des enfants égarés. Jabattrai alors le bras dune terrible colère, dune vengeance furieuse et effrayante sur les hordes impies qui pourchassent et réduisent à néant les brebis de Dieu. Et tu connaîtras pourquoi mon nom est léternel quand, sur toi, sabattra la vengeance du Tout-Puissant !</t>
+          <t>Mais tu veux pas, tu veux pas de problème ? J'sais que tu veux pas, tu veux pas de problème Mais tu veux pas te tter-fro avec nous Ghetto Fab Gang frère sortie 9.3 Zoo Mais tu veux pas, tu veux pas de problème ? J'sais que tu veux pas, tu veux pas de problème Mais tu veux pas te tter-fro avec nous LMC Click frère 9.1 Grigny Zoo Ils vivent bien et nous on vit le mal et bien S'accaparent leurs biens, s'enrichissent par ... Mais tu veux pas, tu vux pas de problème ? J'sais que tu vux pas, tu veux pas de problème Mais tu veux pas te tter-fro avec nous Ghetto Fab Gang frère sortie 9.3 Zoo Mais tu veux pas, tu veux pas de problème ? J'sais que tu veux pas, tu veux pas de problème Mais tu veux pas te tter-fro avec nous LMC Click frère 9.1 Grigny Zoo Juicy Juicy P ... ... J'ai 10 d'amour le reste je sais même pas ...</t>
         </is>
       </c>
     </row>
@@ -2409,12 +2409,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Parlez, parlez, parlez</t>
+          <t>Peine noire</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Peu importe l'ampleur de mes crimes Peu importe la tailles de mes rimes Les négros ouvrent leurs gueules, grattent comme ils peuvent De love je me nourris et de haine je m'abreuve Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs Que les haineux se la mettent dans la seuf Mister Ol'Kainryn moi je peux dead pour le boug Je connais tous les textes par cur, non j'peux dead pour le boug Depuis Au-delà Des Apparences son blaze je peux le crier même Le bougzere a dead, a représenté le C.N.L Ma parole c'est un bon, du rap pour les gros Sur Chemins de la Dignité, des punchlines de la bombe J'suis dingue faut m'interner, j'achète ça les yeux fermés Il rappe comme pas permis, l'explosion va pas trainer Pas mal, pas mal j'apprécie son grain de voix En termes de prod, je n'aurais pas fait les mêmes choix J'avoue que son flow glisse bien sur le charley La diction est bonne mais les punchlines sont cramées Franchement c'est vrai, les lyrics sont pas riches Il est plus frais en solo qu'avec le Factor X Faut qu'il choisisse son camp à faire des boum boum, des pom pom Le mec est plus opé' en bails de zoulous et de gomme-cogne Peu importe l'ampleur de mes crimes Peu importe la tailles de mes rimes Les négros ouvrent leurs gueules, grattent comme ils peuvent De love je me nourris et de haine je m'abreuve Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs Que les haineux se la mettent dans la seuf Vas y, j'suis yombe de lui c'est un chien Si il est pas content il vient, il a oublié les siens T'façon si j'le croise, j'lui serrerais pas la main Le mec est blindé de thunes, même pas il nous met bien Même pas il ouvre un resto ou un bar dans le tiekson Il roule en Merco, il aime seulement se la jouer ce con Fait même pas qué-cro, nous on est là en dalo Vas-y j'm'en bats moi j'suis pas un jaloux Moi j'connais pas Ol'Kainry, moi j'connais bien Freddy Le p'tit jeune qui trainait dans les ruelles dÉvry J'l'ai vu débuter quand il a commencé à rapper Aujourd'hui j'suis fier qu'il fasse briller le nom du quartier J'le voyais dans les embrouilles, il tournait mal Je lui ai dit arrête tes conneries avant que tu trouves une balle Il calculait toujours les conseils que j'lui lançais Dyf c'est un bon p'tit, il respecte les anciens Peu importe l'ampleur de mes crimes Peu importe la tailles de mes rimes Les négros ouvrent leurs gueules, grattent comme ils peuvent De love je me nourris et de haine je m'abreuve Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs Que les haineux se la mettent dans la seuf Franchement c'est pas mal, j'aime bien son flow En plus il est pas mal et il est bien costaud Moi j'connaissais pas, j'avais jamais entendu Mais rien que mon p'tit frère il pouvait dead pour lui Ma préférée c'est celle où il parle du divorce Y a aussi crie mon nom là où il jouait le boss Ouais avec sa petite bouille, il a une tête de nounours Nan franchement j'aime bien en plus il connait Kamnouze À l'ancienne là-uiss, j'l'avais grillé aux arrivants Rien pour cantiner, pas une thune pas un rond Fleury-Mérogis, bâtiment D3 deuxième gauche On balance la gamelle aux corbeaux et aux gros chats On a mis bien le re-noi en canette ou en PQ Ici on kiffe depuis Abattu du Vécu On va cantiner son troisième album En plus, il en place toujours une pour ses frères en taule Peu importe l'ampleur de mes crimes Peu importe la tailles de mes rimes Les négros ouvrent leurs gueules, grattent comme ils peuvent De love je me nourris et de haine je m'abreuve Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs, parlez parlez parlez Et je sais qui sont mes bougs Que les haineux se la mettent dans la seuf Bande de fils de lâches, c'est quoi les bails? Tu connais rien d'moi, même pas mon sourire enfoiré J'ai assez d'punchlines pour casser la bouche de n'importe quel MC dans c'bled, sachez-le J'baise des tites-pe qu'ont l'pelage Cherokee Même toi j't'enfourche normal, hatay Fais pas ton Materazzi, imprime le dièze J'emmerde votre game de merde 91 Essonne, Demolition Man</t>
+          <t>Le drame de l'Afrique, c'est que l'Homme africain n'est pas assez rentré dans l'histoire Baby you understand me now If sometimes you see that I'm mad Don't you know no one alive can always be an angel? When everything goes wrong, you see some bad But I'm just a soul whose intentions are good Oh Lord, please don't let me be misunderstood J'ai rêvé de mourir avant l'âge de 30 ans Mais Dieu n'a pas voulu, j'ai réécrit mon testament Lecture aléatoire laisse-moi t'expliquer Que la peine du Négro, boy, a assez duré J'ai prié cinq fois, mais j'ai pêché mille fois Vu des négros mourir, boy, à cause du SIDA Des caïds de la tess devenir des shlags Et les reines du trottoir porter des foulards Plus rien ne m'étonne, frère, dans ce bas-monde Le dernier des Mohicans il est rare, c'est des monuments Dans mon putain de miroir, 'vu le visage de Satan Bouts de verre incrustés dans ma chair et dans mon sang Flottant entre ciel et terre, défie la gravité Tel un baobab, mesure ma témérité Ces vérités de propos rend les négros méfiants Immersion dans mon monde rempli de stupéfiants Traffics trop denses, voies nasales bouchées Hanté par le remord de ce qu'on fait des OD Narcotique trophée dans la rue j'ai trôné Insaisissable et sournois, tu m'as vu arriver Au Trésor Public, des lois j'ai enfreints Laisse-moi te dire que l'Homme Noir n'est pas ici pour rien Laisse-moi te dire que des balles ont traversé mon corps Ricoché sur un mur, mais j'suis pas encore mort Magie noire et esprits m'ont jeté le mauvais sort Tu m'jalouses fils de pute, j'suis même pas disque d'or Sisi Ouais, ouais J'm'adresse à toi, Nicolas Sarkozy. Ou j'devrais dire Monsieur le Président de la République française... Monsieur Nicolas Sarkozy J't'ai vu aller à Dakar dire que l'Afrique n'est pas encore rentrée dans l'Histoire... Laisse-moi te dire que l'Homme Noir a commencé l'Histoire. Si 'y avait pas l'Afrique, 'y aurait pas le reste du monde, et tu le sais. L'or, le pétrole, les diamants, l'uranium avec lequel tu fais tes réacteurs nucléaires... tu sais c'est qui qui l'a, cousin. Un jour ou l'autre, tu devras nous présenter des excuses mon pote. J'm'en bats les couilles, j't'appelle comme j'veux... Tu vois ? Tu penses que toi t'es rentré dans l'histoire, toi ? Moi, j'pense pas, nan. T'es le premier président que sa meuf a trompé, t'es le premier président qu'est célibataire, frère, on n'a jamais vu ça ! Si c'est ça rentrer dans l'Histoire, nous on va s'en sortir, cousin, mon pote... Tu sais, Dakar n'a jamais élevé des balances, mon pote. On dit ce qu'on pense aux frères de la tess, au Président de la République... on courbe pas l'échine. On dit ce qu'on a à dire puis khrass. Peu importe les conséquences, cousin. La fierté, mon frère, est pleine. La tête est pleine... J'te parle pas de flingue parce que j'sais qu't'en as plus que nous, donc on peut pas s'battre. J'ai rien contre toi, ça veut rien dire... Mais le mental, il est là, cousin. Tu peux tuer un Homme, mais tu peux pas tuer ses idées, cousin Dakar c'est militant Dakar c'est la bicrave Dakar c'est gangsta Dakar n'a peur de personne Tu sais, tu t'es excusé face aux Juifs, aussi. Un jour faudra qu'tu t'excuses face aux Algériens, pour la Guerre d'Algérie Mais faudra qu'tu t'excuses à nous, surtout, pour l'Esclavage. Plus de 100 000 000 de morts, cousin. Faudra indemniser, putain... En 2050, en Afrique, on sera Un milliard, cousin. Héhé... On sera plus nombreux que les Noich, cousin. Putain ! Tout le monde va devenir métissé ou négro, cousin. Foncé, noir comme du mazout cousin... On a subi l'Esclavage on n'a pas disparu On a subi la Colonisation on n'a pas disparu On a subi la Néo-colonisation on n'a pas disparu Tu nous as apporté la prostitution, tourisme sexuel, tout ça on n'a pas disparu Regarde les Indiens, les Américains ils sont allés là-bas ils ont disparu, maintenant ils sont dans des réserves... mais les Négros ils sont là, ils résistent, cousin Ils ont pris le SIDA, ils l'ont amené en Afrique... Y a des pays, mon pote, presque 25 des mecs ils ont le SIDA, mais on est là, cousin. On résiste, mon pote. En Europe, un mec il a le SIDA il crève tout de suite. On meurt pas, cousin. Ils peuvent nous ramener toutes les maladies qu'ils veulent ! Eh paludisme, malaria, choléra, cousin... Tout ce que tu veux, cousin, même les guerres civiles ! Mais on meurt pas, cousin. Car le Vrai Négro ne meurt pas immunité, cousin. Vas-y, envoie la putain de bombe nucléaire ! On sera comme des putain de cafards à Hiroshima, mais on meurt pas, cousin ! Héhéhéhéhé... Hé ouais ! Tu pensais pas qu'un Négro allait dire ça, hein ? J'suis pas les leaders politiques, j'suis pas tout ça. J'suis juste un jeune négro qui n'en a rien à foutre. C'est tout Ha ouais. Vivre et mourir à Dakar, mon pote ! J'suis plus qu'un mec de tess', j'suis un mec de bled. Un frérot déterminé, cousin. J'veux vendre la musique, j'veux pas vendre mon âme, cousin. Sisi sisi Prends-le comme tu veux, monsieur le Président. J'ai fini mon discours. Vas-y, maintenant, laisse la femme chanter... But I'm just a soul whose intentions are good Oh Lord, please don't let me be misunderstood</t>
         </is>
       </c>
     </row>
@@ -2426,12 +2426,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Pas 2 problème</t>
+          <t>Peur de personne</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Mais tu veux pas, tu veux pas de problème ? J'sais que tu veux pas, tu veux pas de problème Mais tu veux pas te tter-fro avec nous Ghetto Fab Gang frère sortie 9.3 Zoo Mais tu veux pas, tu veux pas de problème ? J'sais que tu veux pas, tu veux pas de problème Mais tu veux pas te tter-fro avec nous LMC Click frère 9.1 Grigny Zoo Ils vivent bien et nous on vit le mal et bien S'accaparent leurs biens, s'enrichissent par ... Mais tu veux pas, tu vux pas de problème ? J'sais que tu vux pas, tu veux pas de problème Mais tu veux pas te tter-fro avec nous Ghetto Fab Gang frère sortie 9.3 Zoo Mais tu veux pas, tu veux pas de problème ? J'sais que tu veux pas, tu veux pas de problème Mais tu veux pas te tter-fro avec nous LMC Click frère 9.1 Grigny Zoo Juicy Juicy P ... ... J'ai 10 d'amour le reste je sais même pas ...</t>
+          <t>Négro j'ai peur de personne et je m'en bats les couilles 93 banlieue, capitale des embrouilles Fuck avec nous, c'est du sang que tu pisseras On est des thugs frérot seul Dieu nous jugera Négro j'ai peur de personne et je m'en bats les couilles 93 banlieue, capitale des embrouilles Fuck avec nous, c'est du sang que tu pisseras On est des thugs frérot seul Dieu nous jugera C'est hood boss patronat, Ghetto Fab immobilier Val d'Oise intouchable de Sarcelles à Villiers Meurtri devant le bloc, plein de frères m'ont trahi Ils ont poucave, pris des peines maintenant ils rament comme des chiens Boy boy Sénégal dans le biz jamais s'égare Mais toujours la même histoire, les flingues et la maille Pour la maille négro je mets un prix sur ta tête Ile de France 93 boy chez t'es wanted Pour la maille négro ils ont tué mon pote La bicrave c'est pas bon mais je squatte encore le bloc Economie parallèle, on fabrique de la neige Et l'amour est mort ici c'est marche ou crève Rodéo avec les keufs, bloc 93 Petits frères sont fonce-dés, souffrance qu'on abrège Tu peux venir faire du ski mais n'oublie pas tes billets Sinon c'est l'ange de la mort qui guide nos canons sciés Négro j'ai peur de personne et je m'en bats les couilles 93 banlieue, capitale des embrouilles Fuck avec nous, c'est du sang que tu pisseras On est des thugs frérot seul Dieu nous jugera Négro j'ai peur de personne et je m'en bats les couilles 93 banlieue, capitale des embrouilles Fuck avec nous, c'est du sang que tu pisseras On est des thugs frérot seul Dieu nous jugera J'viens revendiquer la tête, préviens les tous c'est Niakovitch RS4 c'est ma troupe, j'ai le rap dans mes tripes ... Négro j'ai peur de personne et je m'en bats les couilles 93 banlieue, capitale des embrouilles Fuck avec nous, c'est du sang que tu pisseras On est des thugs frérot seul Dieu nous jugera Négro j'ai peur de personne et je m'en bats les couilles 93 banlieue, capitale des embrouilles Fuck avec nous, c'est du sang que tu pisseras On est des thugs frérot seul Dieu nous jugera</t>
         </is>
       </c>
     </row>
@@ -2443,12 +2443,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Peine noire</t>
+          <t>Plus de maille plus de meurtres</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Le drame de l'Afrique, c'est que l'Homme africain n'est pas assez rentré dans l'histoire Baby you understand me now If sometimes you see that I'm mad Don't you know no one alive can always be an angel? When everything goes wrong, you see some bad But I'm just a soul whose intentions are good Oh Lord, please don't let me be misunderstood J'ai rêvé de mourir avant l'âge de 30 ans Mais Dieu n'a pas voulu, j'ai réécrit mon testament Lecture aléatoire laisse-moi t'expliquer Que la peine du Négro, boy, a assez duré J'ai prié cinq fois, mais j'ai pêché mille fois Vu des négros mourir, boy, à cause du SIDA Des caïds de la tess devenir des shlags Et les reines du trottoir porter des foulards Plus rien ne m'étonne, frère, dans ce bas-monde Le dernier des Mohicans il est rare, c'est des monuments Dans mon putain de miroir, 'vu le visage de Satan Bouts de verre incrustés dans ma chair et dans mon sang Flottant entre ciel et terre, défie la gravité Tel un baobab, mesure ma témérité Ces vérités de propos rend les négros méfiants Immersion dans mon monde rempli de stupéfiants Traffics trop denses, voies nasales bouchées Hanté par le remord de ce qu'on fait des OD Narcotique trophée dans la rue j'ai trôné Insaisissable et sournois, tu m'as vu arriver Au Trésor Public, des lois j'ai enfreints Laisse-moi te dire que l'Homme Noir n'est pas ici pour rien Laisse-moi te dire que des balles ont traversé mon corps Ricoché sur un mur, mais j'suis pas encore mort Magie noire et esprits m'ont jeté le mauvais sort Tu m'jalouses fils de pute, j'suis même pas disque d'or Sisi Ouais, ouais J'm'adresse à toi, Nicolas Sarkozy. Ou j'devrais dire Monsieur le Président de la République française... Monsieur Nicolas Sarkozy J't'ai vu aller à Dakar dire que l'Afrique n'est pas encore rentrée dans l'Histoire... Laisse-moi te dire que l'Homme Noir a commencé l'Histoire. Si 'y avait pas l'Afrique, 'y aurait pas le reste du monde, et tu le sais. L'or, le pétrole, les diamants, l'uranium avec lequel tu fais tes réacteurs nucléaires... tu sais c'est qui qui l'a, cousin. Un jour ou l'autre, tu devras nous présenter des excuses mon pote. J'm'en bats les couilles, j't'appelle comme j'veux... Tu vois ? Tu penses que toi t'es rentré dans l'histoire, toi ? Moi, j'pense pas, nan. T'es le premier président que sa meuf a trompé, t'es le premier président qu'est célibataire, frère, on n'a jamais vu ça ! Si c'est ça rentrer dans l'Histoire, nous on va s'en sortir, cousin, mon pote... Tu sais, Dakar n'a jamais élevé des balances, mon pote. On dit ce qu'on pense aux frères de la tess, au Président de la République... on courbe pas l'échine. On dit ce qu'on a à dire puis khrass. Peu importe les conséquences, cousin. La fierté, mon frère, est pleine. La tête est pleine... J'te parle pas de flingue parce que j'sais qu't'en as plus que nous, donc on peut pas s'battre. J'ai rien contre toi, ça veut rien dire... Mais le mental, il est là, cousin. Tu peux tuer un Homme, mais tu peux pas tuer ses idées, cousin Dakar c'est militant Dakar c'est la bicrave Dakar c'est gangsta Dakar n'a peur de personne Tu sais, tu t'es excusé face aux Juifs, aussi. Un jour faudra qu'tu t'excuses face aux Algériens, pour la Guerre d'Algérie Mais faudra qu'tu t'excuses à nous, surtout, pour l'Esclavage. Plus de 100 000 000 de morts, cousin. Faudra indemniser, putain... En 2050, en Afrique, on sera Un milliard, cousin. Héhé... On sera plus nombreux que les Noich, cousin. Putain ! Tout le monde va devenir métissé ou négro, cousin. Foncé, noir comme du mazout cousin... On a subi l'Esclavage on n'a pas disparu On a subi la Colonisation on n'a pas disparu On a subi la Néo-colonisation on n'a pas disparu Tu nous as apporté la prostitution, tourisme sexuel, tout ça on n'a pas disparu Regarde les Indiens, les Américains ils sont allés là-bas ils ont disparu, maintenant ils sont dans des réserves... mais les Négros ils sont là, ils résistent, cousin Ils ont pris le SIDA, ils l'ont amené en Afrique... Y a des pays, mon pote, presque 25 des mecs ils ont le SIDA, mais on est là, cousin. On résiste, mon pote. En Europe, un mec il a le SIDA il crève tout de suite. On meurt pas, cousin. Ils peuvent nous ramener toutes les maladies qu'ils veulent ! Eh paludisme, malaria, choléra, cousin... Tout ce que tu veux, cousin, même les guerres civiles ! Mais on meurt pas, cousin. Car le Vrai Négro ne meurt pas immunité, cousin. Vas-y, envoie la putain de bombe nucléaire ! On sera comme des putain de cafards à Hiroshima, mais on meurt pas, cousin ! Héhéhéhéhé... Hé ouais ! Tu pensais pas qu'un Négro allait dire ça, hein ? J'suis pas les leaders politiques, j'suis pas tout ça. J'suis juste un jeune négro qui n'en a rien à foutre. C'est tout Ha ouais. Vivre et mourir à Dakar, mon pote ! J'suis plus qu'un mec de tess', j'suis un mec de bled. Un frérot déterminé, cousin. J'veux vendre la musique, j'veux pas vendre mon âme, cousin. Sisi sisi Prends-le comme tu veux, monsieur le Président. J'ai fini mon discours. Vas-y, maintenant, laisse la femme chanter... But I'm just a soul whose intentions are good Oh Lord, please don't let me be misunderstood</t>
+          <t>Y'a trop de fiottes dans le rap frère écoute moi Et si je mens dans ce vers boy coupe moi Trop de rumeurs de fils de pute qui circulent Tends l'oreille frère mais garde l'esprit critique Les négros de ta cité manquent de principes Ils font du biff mais c'est même pas eux qui décident Les trafiquants et les dealers écoutent ma musique Y'a embrouille frère l'attitude est sismique Ils ont des flingues mais pour moi c'est du cinéma Zahma eux tous c'est des hors la loi Avis aux mecs de tess qui à Dakar jouent les chauds On va te niquer ta mère ici c'est pas ton ghetto Tu danses à poil sous la menace du coupe coupe Je claque des doigts et ... J'suis un fatigué, j'suis au fond du gouffre Et si je perds frère tous mes gars souffrent Plus de mailles, plus de meurtres, plus d'homicides Mes négros s'infiltrent dans ton domicile Les casse-pipes, la loi du fer j'en connais un bout Du crépuscule jusqu'à l'aube j'suis encore debout</t>
         </is>
       </c>
     </row>
@@ -2460,12 +2460,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Peur de personne</t>
+          <t>Plus de mailles plus de meurtres (remix)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Négro j'ai peur de personne et je m'en bats les couilles 93 banlieue, capitale des embrouilles Fuck avec nous, c'est du sang que tu pisseras On est des thugs frérot seul Dieu nous jugera Négro j'ai peur de personne et je m'en bats les couilles 93 banlieue, capitale des embrouilles Fuck avec nous, c'est du sang que tu pisseras On est des thugs frérot seul Dieu nous jugera C'est hood boss patronat, Ghetto Fab immobilier Val d'Oise intouchable de Sarcelles à Villiers Meurtri devant le bloc, plein de frères m'ont trahi Ils ont poucave, pris des peines maintenant ils rament comme des chiens Boy boy Sénégal dans le biz jamais s'égare Mais toujours la même histoire, les flingues et la maille Pour la maille négro je mets un prix sur ta tête Ile de France 93 boy chez t'es wanted Pour la maille négro ils ont tué mon pote La bicrave c'est pas bon mais je squatte encore le bloc Economie parallèle, on fabrique de la neige Et l'amour est mort ici c'est marche ou crève Rodéo avec les keufs, bloc 93 Petits frères sont fonce-dés, souffrance qu'on abrège Tu peux venir faire du ski mais n'oublie pas tes billets Sinon c'est l'ange de la mort qui guide nos canons sciés Négro j'ai peur de personne et je m'en bats les couilles 93 banlieue, capitale des embrouilles Fuck avec nous, c'est du sang que tu pisseras On est des thugs frérot seul Dieu nous jugera Négro j'ai peur de personne et je m'en bats les couilles 93 banlieue, capitale des embrouilles Fuck avec nous, c'est du sang que tu pisseras On est des thugs frérot seul Dieu nous jugera J'viens revendiquer la tête, préviens les tous c'est Niakovitch RS4 c'est ma troupe, j'ai le rap dans mes tripes ... Négro j'ai peur de personne et je m'en bats les couilles 93 banlieue, capitale des embrouilles Fuck avec nous, c'est du sang que tu pisseras On est des thugs frérot seul Dieu nous jugera Négro j'ai peur de personne et je m'en bats les couilles 93 banlieue, capitale des embrouilles Fuck avec nous, c'est du sang que tu pisseras On est des thugs frérot seul Dieu nous jugera</t>
+          <t>Y'a trop de fiottes dans le rap frère écoute moi Et si je mens dans ce vers boy coupe moi Trop de rumeurs de fils de pute qui circulent Tends l'oreille frère mais garde l'esprit critique Les négros de ta cité manquent de principes Ils font du biff mais c'est même pas eux qui décident Les trafiquants et les dealers écoutent ma musique Y'a embrouille frère l'attitud est sismique Ils ont des flingus mais pour moi c'est du cinéma Zahma eux tous c'est des hors la loi Avis aux mecs de tess qui à Dakar jouent les chauds On va te niquer ta mère ici c'est pas ton ghetto Tu danses à poil sous la menace du coupe coupe Je claque des doigts et ... J'suis un fatigué, j'suis au fond du gouffre Et si je perds frère tous mes gars souffrent Plus de mailles, plus de meurtres, plus d'homicides Mes négros s'infiltrent dans ton domicile Les casse-pipes, la loi du fer j'en connais un bout Du crépuscule jusqu'à l'aube j'suis encore debout Plus de mailles, plus de meurtres, plus d'homicides Mes négros s'infiltrent dans ton domicile Les casse-pipes, la loi du fer j'en connais un bout Du crépuscule jusqu'à l'aube j'suis encore debout J'ai de la maille, j'ai des armes, j'ai des soldats Pas de place dans mon coeur pour les ingrats Au tribunal frère j'ai des juifs avocats Demande à quiconque, la maille ne change pas Je viens de Dakar loin d'Hollywood Injection léthale moi j'suis comme Ice Cube Bandana rouge frère ... Tir à volonté, Yarakh City East Wood Le restant de la famille vient de Mantes-La Ils attendent mon signal pour tirer sur toi T'es pas de Blankok, t'es pas de Montfermeil T'es pas de Clichy-Sous, t'es pas d'Epinay Orgemont ...</t>
         </is>
       </c>
     </row>
@@ -2477,12 +2477,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Plus de maille plus de meurtres</t>
+          <t>Police Murderer</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Y'a trop de fiottes dans le rap frère écoute moi Et si je mens dans ce vers boy coupe moi Trop de rumeurs de fils de pute qui circulent Tends l'oreille frère mais garde l'esprit critique Les négros de ta cité manquent de principes Ils font du biff mais c'est même pas eux qui décident Les trafiquants et les dealers écoutent ma musique Y'a embrouille frère l'attitude est sismique Ils ont des flingues mais pour moi c'est du cinéma Zahma eux tous c'est des hors la loi Avis aux mecs de tess qui à Dakar jouent les chauds On va te niquer ta mère ici c'est pas ton ghetto Tu danses à poil sous la menace du coupe coupe Je claque des doigts et ... J'suis un fatigué, j'suis au fond du gouffre Et si je perds frère tous mes gars souffrent Plus de mailles, plus de meurtres, plus d'homicides Mes négros s'infiltrent dans ton domicile Les casse-pipes, la loi du fer j'en connais un bout Du crépuscule jusqu'à l'aube j'suis encore debout</t>
+          <t>Police murderer, police killer killer Police murderer, police killer killer Police murderer, police killer killer Police murderer, murderer murderer Police murderer, police killer killer Police murderer, police killer killer Police murderer, police killer killr Police murderer, murdrer murderer J'suis encore un esclave, seul mon prix est plus cher Jusqu'au jour où Allah me réduira en poussière Ma vie sur Terre, la rage de Black Panther L'idéal de Ben Laden et de Martin Luther Rêve de guerre en temps de paix, le silence est d'or Embrouille de trafiquants, on peut régler ça dehors L'Ile de France c'est l'axe du mal, on fait trembler l'Amérique Comme les essais nucléaires, pression atmosphérique La vie d'une balance vaut au moins que celle d'un chien Apprendre ça frère, au fond de moi m'a fait du bien</t>
         </is>
       </c>
     </row>
@@ -2494,12 +2494,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Plus de mailles plus de meurtres (remix)</t>
+          <t>Pop les guns</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Y'a trop de fiottes dans le rap frère écoute moi Et si je mens dans ce vers boy coupe moi Trop de rumeurs de fils de pute qui circulent Tends l'oreille frère mais garde l'esprit critique Les négros de ta cité manquent de principes Ils font du biff mais c'est même pas eux qui décident Les trafiquants et les dealers écoutent ma musique Y'a embrouille frère l'attitud est sismique Ils ont des flingus mais pour moi c'est du cinéma Zahma eux tous c'est des hors la loi Avis aux mecs de tess qui à Dakar jouent les chauds On va te niquer ta mère ici c'est pas ton ghetto Tu danses à poil sous la menace du coupe coupe Je claque des doigts et ... J'suis un fatigué, j'suis au fond du gouffre Et si je perds frère tous mes gars souffrent Plus de mailles, plus de meurtres, plus d'homicides Mes négros s'infiltrent dans ton domicile Les casse-pipes, la loi du fer j'en connais un bout Du crépuscule jusqu'à l'aube j'suis encore debout Plus de mailles, plus de meurtres, plus d'homicides Mes négros s'infiltrent dans ton domicile Les casse-pipes, la loi du fer j'en connais un bout Du crépuscule jusqu'à l'aube j'suis encore debout J'ai de la maille, j'ai des armes, j'ai des soldats Pas de place dans mon coeur pour les ingrats Au tribunal frère j'ai des juifs avocats Demande à quiconque, la maille ne change pas Je viens de Dakar loin d'Hollywood Injection léthale moi j'suis comme Ice Cube Bandana rouge frère ... Tir à volonté, Yarakh City East Wood Le restant de la famille vient de Mantes-La Ils attendent mon signal pour tirer sur toi T'es pas de Blankok, t'es pas de Montfermeil T'es pas de Clichy-Sous, t'es pas d'Epinay Orgemont ...</t>
+          <t>93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz Banlieusards tous pop les gunz reste tranquille khey Tu pourrais finir le coffre d'une Benz ou d'un Clio Les bails sont simples il n'y aura pas de suspense Une balle dans ton crâne ... Avant les armes négro la fierté tue ... Banlieusards tous pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz Ça pop les guns que ce soit dans les provinces ou les banlieues Les guns, les larmes sont les mêmes khey tout ce qui change c'est le lieu La balle s'est calée tout droit ... Mon sourire ne reflète mon état d'esprit en rien ... Si logique pour moi qu'après la balle arrivent les premiers soins 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz</t>
         </is>
       </c>
     </row>
@@ -2511,12 +2511,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Police Murderer</t>
+          <t>Porte de Clignancourt</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Police murderer, police killer killer Police murderer, police killer killer Police murderer, police killer killer Police murderer, murderer murderer Police murderer, police killer killer Police murderer, police killer killer Police murderer, police killer killr Police murderer, murdrer murderer J'suis encore un esclave, seul mon prix est plus cher Jusqu'au jour où Allah me réduira en poussière Ma vie sur Terre, la rage de Black Panther L'idéal de Ben Laden et de Martin Luther Rêve de guerre en temps de paix, le silence est d'or Embrouille de trafiquants, on peut régler ça dehors L'Ile de France c'est l'axe du mal, on fait trembler l'Amérique Comme les essais nucléaires, pression atmosphérique La vie d'une balance vaut au moins que celle d'un chien Apprendre ça frère, au fond de moi m'a fait du bien</t>
+          <t>Ghetto Fabulous Gang en attendant le DVD C'est pour mes rebeux trafiquants qui attendent sous le pont Même devant les flics bicravent des faux sacs Louis Vuitton Bienvenue à Clignancourt ce n'est pas la France ici Et je t'assure que Rocancourt ne fera pas long feu ici On a des armes, on a des armes de première catégorie Des écrans plasma qu'on a volé à moitié prix J'suis le roi des insoumis, j'ai pas de pierre sur mon trôn Niquer l'Etat tous les jours, la seul valeur que nous on prône Ghetto Fabulous Gang, négros savent qu'on a souffert Casino ambulant, tous les jours on est ouvert Man appelle le commissaire, on lui paye un pot de vin Nos ennemis sous le périph, on les allonge à coup de surin On vise la lune, on vise la lune, regarde le monde de travers 93, Seine et Marne A.K.A hommes des cavernes Moi je crache la crème du crime, puis après l'industrie pleure Bienvenue à Clignancourt, paradis des receleurs hey Je viens de Dakar mais 9.3 je représente Les dealers, vendeurs de drogue je représente Les hustlers dans la tess man je représente Bienvenue à Clicli nous aussi on représénte Les braqueurs de banque négro moi je représente Les hustlers dans le bloc man je représente Bienvenue à Clicli ... on représente ...</t>
         </is>
       </c>
     </row>
@@ -2528,12 +2528,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Pop les guns</t>
+          <t>Position de Force</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz Banlieusards tous pop les gunz reste tranquille khey Tu pourrais finir le coffre d'une Benz ou d'un Clio Les bails sont simples il n'y aura pas de suspense Une balle dans ton crâne ... Avant les armes négro la fierté tue ... Banlieusards tous pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz Ça pop les guns que ce soit dans les provinces ou les banlieues Les guns, les larmes sont les mêmes khey tout ce qui change c'est le lieu La balle s'est calée tout droit ... Mon sourire ne reflète mon état d'esprit en rien ... Si logique pour moi qu'après la balle arrivent les premiers soins 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz 93 on pop les gunz, pop les gunz Et Dakar les big gunz, big gunz</t>
+          <t>Du liquide du liquide niggaz On les kill on les brûle niggaz Position de force niggaz Sortez tous vos glocks niggaz Du liquide du liquide niggaz On les kill on les brûle niggaz Position de force niggaz Sortez tous vos glocks niggaz Raricim 100 un pur sang un étalon ... Du liquide du liquide niggaz On les kill on les brûle niggaz Position de force niggaz Sortez tous vos glocks niggaz Du liquide du liquide niggaz On les kill on les brûle niggaz Position de force niggaz Sortez tous vos glocks niggaz ... Du liquide du liquide niggaz On les kill on les brûle niggaz Position de force niggaz Sortez tous vos glocks niggaz Du liquide du liquide niggaz On ls kill on les brûle niggaz Position de forc niggaz Sortez tous vos glocks niggaz Ça c'est le son pour les bandits banlieusards reurtis ... ... Du liquide du liquide niggaz On les kill on les brûle niggaz Position de force niggaz Sortez tous vos glocks niggaz Du liquide du liquide niggaz On les kill on les brûle niggaz Position de force niggaz Sortez tous vos glocks niggaz</t>
         </is>
       </c>
     </row>
@@ -2545,12 +2545,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Porte de Clignancourt</t>
+          <t>Pour les blagueurs</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Ghetto Fabulous Gang en attendant le DVD C'est pour mes rebeux trafiquants qui attendent sous le pont Même devant les flics bicravent des faux sacs Louis Vuitton Bienvenue à Clignancourt ce n'est pas la France ici Et je t'assure que Rocancourt ne fera pas long feu ici On a des armes, on a des armes de première catégorie Des écrans plasma qu'on a volé à moitié prix J'suis le roi des insoumis, j'ai pas de pierre sur mon trôn Niquer l'Etat tous les jours, la seul valeur que nous on prône Ghetto Fabulous Gang, négros savent qu'on a souffert Casino ambulant, tous les jours on est ouvert Man appelle le commissaire, on lui paye un pot de vin Nos ennemis sous le périph, on les allonge à coup de surin On vise la lune, on vise la lune, regarde le monde de travers 93, Seine et Marne A.K.A hommes des cavernes Moi je crache la crème du crime, puis après l'industrie pleure Bienvenue à Clignancourt, paradis des receleurs hey Je viens de Dakar mais 9.3 je représente Les dealers, vendeurs de drogue je représente Les hustlers dans la tess man je représente Bienvenue à Clicli nous aussi on représénte Les braqueurs de banque négro moi je représente Les hustlers dans le bloc man je représente Bienvenue à Clicli ... on représente ...</t>
+          <t>Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Petite fiotte ... Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Temporise ... On est pas les plus à plaindre mais les plus à craindre ... Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns ...</t>
         </is>
       </c>
     </row>
@@ -2562,12 +2562,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Position de Force</t>
+          <t>Pour les youves</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Du liquide du liquide niggaz On les kill on les brûle niggaz Position de force niggaz Sortez tous vos glocks niggaz Du liquide du liquide niggaz On les kill on les brûle niggaz Position de force niggaz Sortez tous vos glocks niggaz Raricim 100 un pur sang un étalon ... Du liquide du liquide niggaz On les kill on les brûle niggaz Position de force niggaz Sortez tous vos glocks niggaz Du liquide du liquide niggaz On les kill on les brûle niggaz Position de force niggaz Sortez tous vos glocks niggaz ... Du liquide du liquide niggaz On les kill on les brûle niggaz Position de force niggaz Sortez tous vos glocks niggaz Du liquide du liquide niggaz On ls kill on les brûle niggaz Position de forc niggaz Sortez tous vos glocks niggaz Ça c'est le son pour les bandits banlieusards reurtis ... ... Du liquide du liquide niggaz On les kill on les brûle niggaz Position de force niggaz Sortez tous vos glocks niggaz Du liquide du liquide niggaz On les kill on les brûle niggaz Position de force niggaz Sortez tous vos glocks niggaz</t>
+          <t>Ok Seth Gueko, Alpha 5.20, Mista Flo Blablaw blablaw! Ma couillasse, on a des ganaches de diablotins J'arrive comme une bavasse ramassée sur des rails de train A la piscaille on a le famas qui sort du maillot de bain Cherche pas à savoir ce qui se pagasse chez les mangeurs de ragondins On te laisse même pas la place du strapontin Je suis en tête de wagon, prends tes couilles shootes les comme au drimobin Je crache les flammes comme un zgeg de dragon On baisera un par un ceux qui ont pris mon pain Hein mon copain, on a des gueules de gangsters On va te renvoyer chez ta mater tes couilles dans un lance-pierre Ma bouche faisait BLAW BLAW, mon cul joue du saxo Si mon grand père serai vivant, il te mettrait un coup de sabot On se fait la manucure sous le capot Je tise la vignasse, j'tire ta tignasse J'allais chez mes potes reubeus manger le couscous Ils venaient chez moi manger des coquillettes Autour du cou j'ai pas de bling-bling j'ai une chaîne de mobylette Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Avant que les keufs nous arrêtent Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Street Lourd J'crache 16 bastos, crois-moi tu vas les sentir P'tit pd, tu cours vite mais tu sais pas d'où ça tire Tu peux me pointer du doigt parce que j'ai fait du placard Dans le cul des pointeurs, je passais un gros coup de pointard Fi dar, je repense aux potos au mitard Le maton que je croise dehors j'le hagar C'est Street Lourd bâtard, on va tout baiser Mitraillette en levrette, ton gros cul va saigner Tu veux te protéger des MST, qui peut tester M.I.S.T.A Autant taper du LSD ou du MDMA J'déconne hahaha, j'dégomme XXX, viens bonhomme hahaha, viens bonhomme Qui veut m'empêcher de prendre mon argent dans l'industrie du disque? J'le prendrai dans la rue, je connais les risques Et nique sa mère le fisc Fils de pute, t'attends qu'on chute T'ouvres ton cul par derrière, quand tu nous vois tu nous suces Salope, tu te reconnais? Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Avant que les keufs nous arrêtent Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Street Lourd C'est pas du rap négro, mais des menaces de mort Enculé de ta race, je sais maintenant où tu dors 9.3 poto sur la came a Tony Puis refourge ces chèques à la Star Academy Tu parles trop à mon goût, dans le fond t'agis peu Ghetto Fabulous Gang, un aller simple dans le feu Il se croit imperméable puis dégaine les fusils Mes embrouilles c'est des shlass, pics à glace et grigris Qui a peur de mourir? Certainement pas nous A l'état ftal, ma mère se plaignait des coups J'suis venu bicrave, j'suis venu chourave Les joyaux de la couronne, les suceurs et leurs apôtres Je suis nocif aux novices, négro t'es qu'une catin La cité pour moi, boy, c'est qu'un jardin Tout le monde est calibré mais tout le monde ne tire pas Je suis au bord de la falaise frère on me pousse pas Eh Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Avant que les keufs nous arrêtent Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Street Lourd</t>
         </is>
       </c>
     </row>
@@ -2579,12 +2579,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Pour les blagueurs</t>
+          <t>Pression sanguine</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Petite fiotte ... Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Temporise ... On est pas les plus à plaindre mais les plus à craindre ... Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns Tous parlent de guns, tous gueulent qu'ils ont des guns Tous tous des grandes gueules, moi j'suis sûr qu'ils n'ont pas de guns ...</t>
+          <t>Many, c'est quoi les bails ? J'suis pas au charbon, mais au champs de bataille 9 millimètres baby, AK-47 Papapapa, un autre frère est dead J'veux pas me débattre car tout est écrit Et les anges viennent me dire Alpha ça suffit J'ai le corps inerte et mon coeur ne bats plus J'suis près pour l'au-delà mais je vois mes ennemis Seigneur donne-moi une autres vie J'veux leur régler leur compte, tirer sur leur famille Plus tous leurs proches, Yakouza alpha style mauchi-mauchi Moi je tire sur le maire comme à Nagazaki La vengeance est mienne c'est ce qu'a dit le seigneur Renoi t'appelle frère quand il sont pas au beurre L'erreur est humaine mais je pardonne pas Même au fond de ma tombe j'maudis leur familia Racket, traffic, extorsion de fond Que des fous d'la gachette dans mes environs Et pourquoi avoir pitié les négros veulent ma mort Ravbaï leur quartier j'arrive sur un raptor Many, c'est quoi les bails ? J'suis pas au charbon, mais au champs de bataille 9 millimètres baby, AK-47 Papapapa, un autre frère est dead C'est dur maintenant de ne pas tuer des négros C'est comme un job à plein temps de ne pas tuer des négros Ils démarrent leurs vies, j'lève le frein à main La mort est omniprésente dans mes alexandrins J'ai les couilles trop pleines mais les chargeurs vides A force d'envoyer des rafales dans l'bide Devant les portes du paradis j'ai le pas qui hésite Deux morts dans la conscience et Satan m'plébiscite Je me suis douché sept fois mais rien à faire poto La poudre du fusil me colle encore à la peau Alpha est trop froid à l'ancienne mamou Haiti c'est mort de mort comme les tontons magouille Quand il s'agit d'embrouilles, viens avec toute ta cité Moi j'tire dans le tas même pas besoin de viser Si je pars négro, toi aussi tu dois partir Comme 2Pac à Vegas criblé dans sa voiture Many, c'est quoi les bails ? J'suis pas au charbon, mais au champs de bataille 9 millimètres baby, AK-47 Papapapa, un autre frère est dead Eh frère tu sais même pas pourquoi, les négros te haissent mec Eh j'suis même pas riche mon frère, les négros ils ont déjà d'la haine Eh mais j'vais te dire une chose mon frère Même quand j's'rai millionaire mon frère Eh moi aussi j's'rai un rageux comme toi Eh vaz-y nique ta race mon frère Eh vaz-y j'te souhaite la mort, j'm'en bas les couille mon frère Tu peux crever à p'tit feu toi et toute ta cité Tous les petits bouffons macaques, ouistitis, qu'roule avec toi mon frère Eh tu peux dead dix fois, personne ne va pleurer ici raï Eh Rakailles 4 arrive et j'sais t'as la rage encore mon frère Eh tes poumons ils veulent sortir d'ta bouche mon frère Tellement t'as la seum mon frère Yeahh diseuf Dakar, eh diseuf Dakar Ghettos Moneys, on va faire c't'argent négro le veuille ou pas C'est pas grave, Dakar stand-up mon frère Galsen 2 doit vivre, stand-up mon frère Tout mes vrais renois qui font d'la maille dans la tess stand-up mon frère Many c'est quoi les bails j'vais t'niquer sale batard Rakailles 4 arrive !</t>
         </is>
       </c>
     </row>
@@ -2596,12 +2596,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Pour les youves</t>
+          <t>Rap 2 Talibans</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Ok Seth Gueko, Alpha 5.20, Mista Flo Blablaw blablaw! Ma couillasse, on a des ganaches de diablotins J'arrive comme une bavasse ramassée sur des rails de train A la piscaille on a le famas qui sort du maillot de bain Cherche pas à savoir ce qui se pagasse chez les mangeurs de ragondins On te laisse même pas la place du strapontin Je suis en tête de wagon, prends tes couilles shootes les comme au drimobin Je crache les flammes comme un zgeg de dragon On baisera un par un ceux qui ont pris mon pain Hein mon copain, on a des gueules de gangsters On va te renvoyer chez ta mater tes couilles dans un lance-pierre Ma bouche faisait BLAW BLAW, mon cul joue du saxo Si mon grand père serai vivant, il te mettrait un coup de sabot On se fait la manucure sous le capot Je tise la vignasse, j'tire ta tignasse J'allais chez mes potes reubeus manger le couscous Ils venaient chez moi manger des coquillettes Autour du cou j'ai pas de bling-bling j'ai une chaîne de mobylette Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Avant que les keufs nous arrêtent Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Street Lourd J'crache 16 bastos, crois-moi tu vas les sentir P'tit pd, tu cours vite mais tu sais pas d'où ça tire Tu peux me pointer du doigt parce que j'ai fait du placard Dans le cul des pointeurs, je passais un gros coup de pointard Fi dar, je repense aux potos au mitard Le maton que je croise dehors j'le hagar C'est Street Lourd bâtard, on va tout baiser Mitraillette en levrette, ton gros cul va saigner Tu veux te protéger des MST, qui peut tester M.I.S.T.A Autant taper du LSD ou du MDMA J'déconne hahaha, j'dégomme XXX, viens bonhomme hahaha, viens bonhomme Qui veut m'empêcher de prendre mon argent dans l'industrie du disque? J'le prendrai dans la rue, je connais les risques Et nique sa mère le fisc Fils de pute, t'attends qu'on chute T'ouvres ton cul par derrière, quand tu nous vois tu nous suces Salope, tu te reconnais? Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Avant que les keufs nous arrêtent Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Street Lourd C'est pas du rap négro, mais des menaces de mort Enculé de ta race, je sais maintenant où tu dors 9.3 poto sur la came a Tony Puis refourge ces chèques à la Star Academy Tu parles trop à mon goût, dans le fond t'agis peu Ghetto Fabulous Gang, un aller simple dans le feu Il se croit imperméable puis dégaine les fusils Mes embrouilles c'est des shlass, pics à glace et grigris Qui a peur de mourir? Certainement pas nous A l'état ftal, ma mère se plaignait des coups J'suis venu bicrave, j'suis venu chourave Les joyaux de la couronne, les suceurs et leurs apôtres Je suis nocif aux novices, négro t'es qu'une catin La cité pour moi, boy, c'est qu'un jardin Tout le monde est calibré mais tout le monde ne tire pas Je suis au bord de la falaise frère on me pousse pas Eh Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Avant que les keufs nous arrêtent Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Street Lourd</t>
+          <t>Check ma life check mon DVD Shimmy Shimmy ya à la ODB Yarakh mon hood, filtre OCB Défoncé tous les jours comme Bob Marley Stoppe au feu rouge boy je suis mortel Je t'impressionne sans brolic ni scalpel Moi je rappe taliban, pas de Montana Mon bloc c'est chaud comme l'Arizona Résident 9.3 la famille 7.8 Mantes la Jolie al Poular city On se défonce on kill batty boys sont dead Pop mon hood dans le bâtiment D Yo c'est le hood boss et je maille depuis Kriss Kross Cuban Links Wu Tang Reakwon et ... Fuck avec moi c'est du sang que tu pisseras J'suis un thug alors sul Dieu me jugera Ghtto Fab all stars, Ghetto Fab holster Un rap de taliban et les autres derrière Si les renois veulent la guerre qu'ils viennent ... Et je t'assure qu'ils repartent à 4 pattes comme des chiens Ghetto Fab all stars, Ghetto Fab holster Un rap de taliban et les autres derrière Si les renois veulent la guerre qu'ils viennent ... Et je t'assure qu'ils repartent à 4 pattes comme des chiens Yo c'est la banque populaire mec du ghetto 5.20 platinum faut se lever tôt Rimes et gloire Boss.P plein de trophées Cances-va à Dakar boy tu peux morfler ... Ghetto Fab all stars, Ghetto Fab holster Un rap de taliban et les autres derrière Si les renois veulent la guerre qu'ils viennent ... Et je t'assure qu'ils repartent à 4 pattes comme des chiens Ghetto Fab all stars, Ghetto Fab holster Un rap de taliban et les autres derrière Si les renois veulent la guerre qu'ils viennent ... Et je t'assure qu'ils repartent à 4 pattes comme des chiens</t>
         </is>
       </c>
     </row>
@@ -2613,12 +2613,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Pression sanguine</t>
+          <t>Regrets</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Many, c'est quoi les bails ? J'suis pas au charbon, mais au champs de bataille 9 millimètres baby, AK-47 Papapapa, un autre frère est dead J'veux pas me débattre car tout est écrit Et les anges viennent me dire Alpha ça suffit J'ai le corps inerte et mon coeur ne bats plus J'suis près pour l'au-delà mais je vois mes ennemis Seigneur donne-moi une autres vie J'veux leur régler leur compte, tirer sur leur famille Plus tous leurs proches, Yakouza alpha style mauchi-mauchi Moi je tire sur le maire comme à Nagazaki La vengeance est mienne c'est ce qu'a dit le seigneur Renoi t'appelle frère quand il sont pas au beurre L'erreur est humaine mais je pardonne pas Même au fond de ma tombe j'maudis leur familia Racket, traffic, extorsion de fond Que des fous d'la gachette dans mes environs Et pourquoi avoir pitié les négros veulent ma mort Ravbaï leur quartier j'arrive sur un raptor Many, c'est quoi les bails ? J'suis pas au charbon, mais au champs de bataille 9 millimètres baby, AK-47 Papapapa, un autre frère est dead C'est dur maintenant de ne pas tuer des négros C'est comme un job à plein temps de ne pas tuer des négros Ils démarrent leurs vies, j'lève le frein à main La mort est omniprésente dans mes alexandrins J'ai les couilles trop pleines mais les chargeurs vides A force d'envoyer des rafales dans l'bide Devant les portes du paradis j'ai le pas qui hésite Deux morts dans la conscience et Satan m'plébiscite Je me suis douché sept fois mais rien à faire poto La poudre du fusil me colle encore à la peau Alpha est trop froid à l'ancienne mamou Haiti c'est mort de mort comme les tontons magouille Quand il s'agit d'embrouilles, viens avec toute ta cité Moi j'tire dans le tas même pas besoin de viser Si je pars négro, toi aussi tu dois partir Comme 2Pac à Vegas criblé dans sa voiture Many, c'est quoi les bails ? J'suis pas au charbon, mais au champs de bataille 9 millimètres baby, AK-47 Papapapa, un autre frère est dead Eh frère tu sais même pas pourquoi, les négros te haissent mec Eh j'suis même pas riche mon frère, les négros ils ont déjà d'la haine Eh mais j'vais te dire une chose mon frère Même quand j's'rai millionaire mon frère Eh moi aussi j's'rai un rageux comme toi Eh vaz-y nique ta race mon frère Eh vaz-y j'te souhaite la mort, j'm'en bas les couille mon frère Tu peux crever à p'tit feu toi et toute ta cité Tous les petits bouffons macaques, ouistitis, qu'roule avec toi mon frère Eh tu peux dead dix fois, personne ne va pleurer ici raï Eh Rakailles 4 arrive et j'sais t'as la rage encore mon frère Eh tes poumons ils veulent sortir d'ta bouche mon frère Tellement t'as la seum mon frère Yeahh diseuf Dakar, eh diseuf Dakar Ghettos Moneys, on va faire c't'argent négro le veuille ou pas C'est pas grave, Dakar stand-up mon frère Galsen 2 doit vivre, stand-up mon frère Tout mes vrais renois qui font d'la maille dans la tess stand-up mon frère Many c'est quoi les bails j'vais t'niquer sale batard Rakailles 4 arrive !</t>
+          <t>Placé dans le ghetto à l'âge de 13 ans 2 fils, papa est mort quand javais 15 ans Mon voeu le plus cher c'était acheter du temps Au cas où il n'aurait pas plus à vivre longtemps Ses yeux dans les miens, je vis avec ses mémoires Le soleil brille frère, cest moi l'espoir Coûte que coûte sa vie se conjugue à celle des miens Et toute mon existence est une quête vers le bien Eclipse m'envoie puis j'accentue ma foi Si mes nègres portent des armes c'est parce qu'ils ont pas le choix On meurt comme des soldats si on vit pas comme des rois Mes fleurs sur ma tombe frère ... Dakar jusqu'à Paris fils en état de sursis Vis ta vie après l'esprit sest endurci Comme Olivia Stone entre ciel et terre suspendus ... Vivre sa vie ou mourir comme un autre Négro moi jai grandi au milieu des pauvres Des rêves brisés en bas des Champs Elysées Après la pluie c'est lorage c'est ça qu'ils nous prédisaient Vivre sa vie ou mourir comme un autre Négro moi j'ai grandi au milieu des pauvres Des rêves brisés en bas des Champs Elysées Après la pluie cest l'orage c'est ça qu'ils nous prédisaient Les jours passent et les frères font la même chose Les mêmes toxs viennent te voir pour la même dose Pardonne moi moi je t'ai vendu la mort J'ai pas fait exprès mais fallait que je m'en sorte Je t'aime pourtant je t'ai donné du poison J'ai fait cette chanson pour noyer le poisson À quoi sert le regret toi tu pleures toujours ? Et tu fuis mon regard à chaque fois que je parcours Les allées de ta vie mènent droit à l'enfer On y perd ses moyens comme face au cancer Et je plaide coupable et je t'écris cette lettre D'une manière intime t'avais pas d'adresse Un jour tu sauras moi je souffre comme toi Et même les coeurs de pierre dégoulinent parfois ... Vivre sa vie ou mourir comme un autre Négro moi j'ai grandi au milieu des pauvres Des rêves brisés en bas des Champs Elysées Après la pluie c'est l'orage c'est ça qu'ils nous prédisaient Vivre sa vie ou mourir comme un autre Négro moi j'ai grandi au milieu des pauvres Des rêves brisés en bas des Champs Elysées Après la pluie c'est l'orage c'est ça qu'ils nous prédisaient C'est par effraction que mes rimes pénètrent ton âme Chaud comme le mois de juillet attise les flammes J'ai vu les les frères s'emporter dans l'océan de l'alcool Soeur tomber plus bas que le rang de bestiole Devant ce fait tragique je me suis mis à réfléchir Comment un jeune noir comme moi pourrait s'en sortir ? Dealer le teushi, continuer les études L'argent facile car le ghetto c'est pas sûr Bien que plus dur j'ai opté pour la seconde solution Nègre sans savoir risque de tomber dans le bastion Des ennemis de nos jours ... se multiplient Faux adeptes des ... ... Ils ont des couteaux, tourne le dos ils te poignardent Nègre bavard t'appâte avec des paroles T'es mon frère mon cousin dis moi d'où tu viens ... Vivre sa vie ou mourir comme un autre Négro moi j'ai grandi au milieu des pauvres Des rêves brisés en bas des Champs Elysées Après la pluie c'est l'orage c'est ça qu'ils nous prédisaient Vivre sa vie ou mourir comme un autre Négro moi j'ai grandi au milieu des pauvres Des rêves brisés en bas des Champs Elysées Après la pluie c'est l'orage c'est ça qu'ils nous prédisaient</t>
         </is>
       </c>
     </row>
@@ -2630,12 +2630,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Rap 2 Talibans</t>
+          <t>Repenti</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Check ma life check mon DVD Shimmy Shimmy ya à la ODB Yarakh mon hood, filtre OCB Défoncé tous les jours comme Bob Marley Stoppe au feu rouge boy je suis mortel Je t'impressionne sans brolic ni scalpel Moi je rappe taliban, pas de Montana Mon bloc c'est chaud comme l'Arizona Résident 9.3 la famille 7.8 Mantes la Jolie al Poular city On se défonce on kill batty boys sont dead Pop mon hood dans le bâtiment D Yo c'est le hood boss et je maille depuis Kriss Kross Cuban Links Wu Tang Reakwon et ... Fuck avec moi c'est du sang que tu pisseras J'suis un thug alors sul Dieu me jugera Ghtto Fab all stars, Ghetto Fab holster Un rap de taliban et les autres derrière Si les renois veulent la guerre qu'ils viennent ... Et je t'assure qu'ils repartent à 4 pattes comme des chiens Ghetto Fab all stars, Ghetto Fab holster Un rap de taliban et les autres derrière Si les renois veulent la guerre qu'ils viennent ... Et je t'assure qu'ils repartent à 4 pattes comme des chiens Yo c'est la banque populaire mec du ghetto 5.20 platinum faut se lever tôt Rimes et gloire Boss.P plein de trophées Cances-va à Dakar boy tu peux morfler ... Ghetto Fab all stars, Ghetto Fab holster Un rap de taliban et les autres derrière Si les renois veulent la guerre qu'ils viennent ... Et je t'assure qu'ils repartent à 4 pattes comme des chiens Ghetto Fab all stars, Ghetto Fab holster Un rap de taliban et les autres derrière Si les renois veulent la guerre qu'ils viennent ... Et je t'assure qu'ils repartent à 4 pattes comme des chiens</t>
+          <t>Préjudice extrême, réaction en chaîne Au bout de mon stylo, j'ai accroché ma peine Gunz pop my man sans hésitation Flow asthmatique, bloque ta respiration Intrusion dans les rangs, boy retire tes troupes Les MC's sucent des bites puis font des flops Le glock fumant après une séance de tir Laisse les négros orphelins puis sans avenir Enterrez moi comme un G, incinérez mon flingue Même dans mon cerceuil je veux porter mes chaînes Espèce de bâtard tu veux la guerre avec moi ? ... Depuis l'âge de 5 ans mon nom est sur les pavés Fais le nécessaire assurer le maf ...</t>
         </is>
       </c>
     </row>
@@ -2647,12 +2647,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Regrets</t>
+          <t>Réussir ou mourir</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Placé dans le ghetto à l'âge de 13 ans 2 fils, papa est mort quand javais 15 ans Mon voeu le plus cher c'était acheter du temps Au cas où il n'aurait pas plus à vivre longtemps Ses yeux dans les miens, je vis avec ses mémoires Le soleil brille frère, cest moi l'espoir Coûte que coûte sa vie se conjugue à celle des miens Et toute mon existence est une quête vers le bien Eclipse m'envoie puis j'accentue ma foi Si mes nègres portent des armes c'est parce qu'ils ont pas le choix On meurt comme des soldats si on vit pas comme des rois Mes fleurs sur ma tombe frère ... Dakar jusqu'à Paris fils en état de sursis Vis ta vie après l'esprit sest endurci Comme Olivia Stone entre ciel et terre suspendus ... Vivre sa vie ou mourir comme un autre Négro moi jai grandi au milieu des pauvres Des rêves brisés en bas des Champs Elysées Après la pluie c'est lorage c'est ça qu'ils nous prédisaient Vivre sa vie ou mourir comme un autre Négro moi j'ai grandi au milieu des pauvres Des rêves brisés en bas des Champs Elysées Après la pluie cest l'orage c'est ça qu'ils nous prédisaient Les jours passent et les frères font la même chose Les mêmes toxs viennent te voir pour la même dose Pardonne moi moi je t'ai vendu la mort J'ai pas fait exprès mais fallait que je m'en sorte Je t'aime pourtant je t'ai donné du poison J'ai fait cette chanson pour noyer le poisson À quoi sert le regret toi tu pleures toujours ? Et tu fuis mon regard à chaque fois que je parcours Les allées de ta vie mènent droit à l'enfer On y perd ses moyens comme face au cancer Et je plaide coupable et je t'écris cette lettre D'une manière intime t'avais pas d'adresse Un jour tu sauras moi je souffre comme toi Et même les coeurs de pierre dégoulinent parfois ... Vivre sa vie ou mourir comme un autre Négro moi j'ai grandi au milieu des pauvres Des rêves brisés en bas des Champs Elysées Après la pluie c'est l'orage c'est ça qu'ils nous prédisaient Vivre sa vie ou mourir comme un autre Négro moi j'ai grandi au milieu des pauvres Des rêves brisés en bas des Champs Elysées Après la pluie c'est l'orage c'est ça qu'ils nous prédisaient C'est par effraction que mes rimes pénètrent ton âme Chaud comme le mois de juillet attise les flammes J'ai vu les les frères s'emporter dans l'océan de l'alcool Soeur tomber plus bas que le rang de bestiole Devant ce fait tragique je me suis mis à réfléchir Comment un jeune noir comme moi pourrait s'en sortir ? Dealer le teushi, continuer les études L'argent facile car le ghetto c'est pas sûr Bien que plus dur j'ai opté pour la seconde solution Nègre sans savoir risque de tomber dans le bastion Des ennemis de nos jours ... se multiplient Faux adeptes des ... ... Ils ont des couteaux, tourne le dos ils te poignardent Nègre bavard t'appâte avec des paroles T'es mon frère mon cousin dis moi d'où tu viens ... Vivre sa vie ou mourir comme un autre Négro moi j'ai grandi au milieu des pauvres Des rêves brisés en bas des Champs Elysées Après la pluie c'est l'orage c'est ça qu'ils nous prédisaient Vivre sa vie ou mourir comme un autre Négro moi j'ai grandi au milieu des pauvres Des rêves brisés en bas des Champs Elysées Après la pluie c'est l'orage c'est ça qu'ils nous prédisaient</t>
+          <t>Ok, Dakar, 93, réussir ou mourir Alpha et Shayz Une famille nombreuse j'ai 24 frères et surs Trop d'peine à porter, trop de bouches à nourrir On nous tue négro, mais on nous déshonore pas Sénégal mon pote, un peuple, un but, une foi J'ai grandi sans mon père, ma mère comme seul repère Dur loi d'la vie, trahison des amis Manuel de survie, dicté par les ancien Les gangsters de Dakar, m'ont pavé le chemin Conditions de vie extrêmes, comme les favelas À part la pluie chez nous, boy rien ne tombe du ciel Tu peux boire à ta soif, noublie pas ton frère Répond au mal par le mal, man t'es pas Jésus Et moi je suis, la voix des sans voix Tu peux pas m'juger, j'suis au dessus des lois La fierté de chez moi, l'enfant bâtisseur Sans visa ni papiers, on est des envahisseurs Réussir ou mourir comme 50 Cent Si jéchoue négro, pas d'retour au bled Toute ma vie est sacrifice et ma peine est amour Et les frères ne voient pas, j'suis au point d'non-retour Réussir ou mourir comme 50 Cent Si jéchoue négro, pas d'retour au bled Toute ma vie est sacrifice et ma peine est amour Et les frères ne voient pas, j'suis au point d'non-retour J'ai dompté la mort, esquivé quatre fois Passer à la cinquième, ne m'derange même pas Trafic de papier comme Papa Wemba Trouve du crack chez moi, comme Fodé Sylla Mis a part tout ça, j'suis qu'un immigré Qu'on expulse à tout, va bouc-émissaire d'la France Au milieu des extas, j'ai vendu du bédo Des canettes de coca, des grammes de héro Laisse tomber Hélène, comme l'a dit L.I.M Regarde ma vie en arrière, moi j'te dit qu'ça m'gène Négros veulent ma peau, jalousie des frangins T'as d'la maille, t'as les femmes, c'est qu'la mort n'est pas loin Ma maison à Dakar, c'est comme un p'tit hotel Et l'matin j'me réveille avec pleins d'hirondelles Et depuis qu'les MC se vantent d'avoir des Clio J'veux une Audi A3, sur mon poignet gauche Réussir ou mourir comme 50 Cent Si jéchoue négro, pas d'retour au bled Toute ma vie est sacrifice et ma peine est amour Et les frères ne voient pas, j'suis au point d'non-retour Réussir ou mourir comme 50 Cent Si jéchoue négro, pas d'retour au bled Toute ma vie est sacrifice et ma peine est amour Et les frères ne voient pas, j'suis au point d'non-retour Si t'as un plan biff appelle moi - l'escroc, appelle Toute ta clique appelle l'étendard, j'appelle Car les larfeuilles sont vides, on veut blé et fouffes Aussi sûr que nos cles-on du bled, réclamerons leurs faffs Réhabilité ? Des promesses mon quartier ne l'est pas Habilités à faire du crime en toute impunité En France, j'ai que la nationalité, c'est me sert à rien faut être blanc Comme ça sert à rien d'tirer à balles à blanc Bleu blanc, rouge mon ghetto voit, rouge L'Africain de souche ceux qui ne te loupent pas te couchent On se fie à Dieu, s'méfie de tout et de tout, c'défit Et c'est en tôle que l'histoire s'enfile, que certains se défilent Où renfilent leurs collants de fils en aiguille, le fil du rasoir Et tu sautes sur un coup de fil Réussir ou mourir, mourir ou réussir Oui c'est sûr qu'une poignée de dollar, peut nous nourrir Réussir ou mourir comme 50 Cent Si jéchoue négro, pas d'retour au bled Toute ma vie est sacrifice et ma peine est amour Et les frères ne voient pas, j'suis au point d'non-retour Réussir ou mourir comme 50 Cent Si jéchoue négro, pas d'retour au bled Toute ma vie est sacrifice et ma peine est amour Et les frères ne voient pas, j'suis au point d'non-retour Hustler, hustler, hustler, hustler</t>
         </is>
       </c>
     </row>
@@ -2664,12 +2664,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Repenti</t>
+          <t>Rider music</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Préjudice extrême, réaction en chaîne Au bout de mon stylo, j'ai accroché ma peine Gunz pop my man sans hésitation Flow asthmatique, bloque ta respiration Intrusion dans les rangs, boy retire tes troupes Les MC's sucent des bites puis font des flops Le glock fumant après une séance de tir Laisse les négros orphelins puis sans avenir Enterrez moi comme un G, incinérez mon flingue Même dans mon cerceuil je veux porter mes chaînes Espèce de bâtard tu veux la guerre avec moi ? ... Depuis l'âge de 5 ans mon nom est sur les pavés Fais le nécessaire assurer le maf ...</t>
+          <t>Hein, yeah, normal Boug-zère, Ol' Kainry Alpha, yeah As-tu déjà entendu ce flow, ou le même grain? J'suis en mode crime, j'suis avec mon négro 5.20 La crapulerie, la dalle et la délinquance dans toutes ses formes Les bouffons ont la gueule parce qu'ils poussent les pecs en poussant l'sol Vous voyez cette main? Ma parole vous allez tous la prendre J'te gifle, j'te balaye et j'te regifle avant qu'tu touches le sol Dyf est dans le circuit, en mode car j'suis jamais dead Les scarlas ont la haine car mon flow est bon, ma femme est belle Les jantes de ma caisse brillent à faire rougir un Galsen Dyf a la classe même à poil quand j'ai pas d'crème Je sais qu'tu peux dead, même ta tite-pe est amoureuse Elle rêve d'un boug du 9-1 ou d'un boug du Ghetto Fabulous Mes voitures sont rapides, ma musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche Mes voitures sont rapides, la musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche Ma caisse c'est pas une caisse de luxe, surtout que personne ne s'moque Ma plaque c'est 9-4, Camer' Indomptable te smoke Couleur black black, black blague à part Alpha c'est la famille, quand il m'appelle on fait ça taf taf Dans ma boîte à gants, y a pas de Glocka Glocka Le système te bloque bloque, en banlieue l'ambiance est glauque Fais péter les boomers, ce son c'est pour ta gova Les vrais bonhommes font des tunes, pas l'temps d'jouer les gros bras Changement de vitesse, attache ta ceinture C'est pas les films de John Woo, ici ça taille quand ça tire Dérapage contrôlé à la Fast and Furious J't'ai feinté, vitres teintées, j'suis le last and serious Mes voitures sont rapides, ma musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche Mes voitures sont rapides, la musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche J'kicke et je kicke et je prends mon Bic Mon seize à la rage, je te casse le pif Je pèse, j'ai la rime, le style, je brille J'suis un mec de Trappes, comme Alpha authentique Moi j'rappe pas, mon négro, je crime J'ai les faf, j'ai les balles, j'ai le tard je tire Quand l'étau se resserre, les mastas se privent Faut des mandats cash pour Bois-d'Arcy J'ai le bandana qui pue le fric, je fuck fuck et smoke la weed Tapis rouge pour mes gens de la street, c'est le Ghetto Fab' pas XXX On rêve, on vit, on s'perd masta, y a qu'à la mort qu'on se résout Si si, si t'as une pute à tes côtés, c'est qu'elle attend seulement tes sous Rien ne sert de faire le fou si tu ne sais pas assumer tes gestes Crème de la crème je suis sur le coup, si t'es pas content on te baise ta mère Tu peux pas test' les négros qui pèsent Quand les vitres se baissent, y a les putes qui courent J'aime trop l'hémoglobine c'est bien pour ça qu'ma couleur c'est le rouge Mes voitures sont rapides, ma musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche Mes voitures sont rapides, la musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche Moi j'suis encore dans les bouchons, klaxonne encore j'te tords comme un chiffon Quand j'allume un chichon, que j'pine ta biatche à califourchon J'ai des sueurs froides, c'est Paris by night Ça part en drive-by, au Mac Drive ça s'embrouille pour un Sprite XXX bye bye, j'vais prendre un grec, faut graille Trop d'putes au mètre carré de Riquet à Stalingrad Les chtars tournent partout, ils m'contrôlent sept-cent fois Z'ont vu la gov', la taille de mes jantes, ils sont restés sans voix Dans le poste, un bon Rick Ross ou un vieux west-coast Une belle gosse XXX d'être dans un bête XXX Y a un touriste, une carte Gold, une tarte et donne ton code Putain les chtars me collent, sa mère ça s'corse OK, mes voitures sont bling-bling, intérieur cuir crème Si tu veux pécho chose-quel', parle pas trop au phone-tél Mes voitures sont rapides, ma musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche Mes voitures sont rapides, la musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche Yeah, rider music cousin Tous mes boys 106, 206, Fiat Panda Gunz Poppin' Alfa Romeo Tous mes gangsters Germany ferraille Ancienne Mercalt' Benzino Bima, Audi, Golf pée-ta Mes voitures sont rapides, ma musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche Rider Music, Rider Music Mes voitures sont rapides, la musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche</t>
         </is>
       </c>
     </row>
@@ -2681,12 +2681,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Repose En Paix pt2</t>
+          <t>Rien à prouver</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Aketo - Larmes de guerre 0101 Houari - La balafre - 0101 Keny Arkana - Viens mon frère Avant lexode 2 - 0101 Max Paro - Étoile filante - 0201 Pakigo - Rien ne va plus - 0201 Kepler - Booska'Batman 0201 2 Bal - MV3 ft. Demi Portion, Sinik, Swift Guad Viez - 0301 Atro 90 - Les 90 manèges - 0301 BR La B - Donner - 0301 JKSN - Freestyle Rapleader - 0301 WZ - J'vais l'faire - 0401 Uzi - Intro - 0501 Bitsu - RÉUSSIR OU MOURRIR - 0501 Salgrimo - Rapkèb - 0601 6rano - Tu connais ft. Capow 0601 BES - L'or noir - 0601 Esteban - Les Loups, Pt. 1 - 0601 Farlot - Booster Bleu - 0601 Gen - Le coin ft. Med - 0601 ICO - BBJTM - 0601 Venlo - Regarde ft. Caballero - 0701 Coelho - Nike - 0701 Georgio - Noir Paradis - 0701 Ichon - La vie - 0801 47Ter - OVGTC STAR WARS ft. Kikesa - 0801 Atro Boi - Le jour où on sera vieux - 0801 Chicaille Argenté - Force 0801 Dadou - 99's Mood - 0801 Doria - Oh Boy 0801 Goldee Money - Gilles de la Tourette - 0801 Gotti Maras - BX Drill 2 - 0801 Jayel - Braquage à la Lyonnaise ft. Sasso, Bambino47, Dener, Derone, Jrr, RD Mecra - 0801 Joysad - Venin - 0801 Mister V - Gas ft. Gazo - 0801 Mister You - La Costa - 0801 R.E.D.K. - SQOSLF 3 Je suis Marseille Remix - 0801 Taïro - Révolution Part. 3 Peuples - 0801 Zikxo - Temps 35 - 0901 FrenchCali - Trame - 1001 Aysko - Silver Haze - 1101 Onze - Oshod - 1201 Mapess - FREESTYLE HASSAL 3 - 1301 Benab - Au clair de la rue - 1301 Big B - Start - 1301 Gips - Briiips, Vol. 2 - 1301 Kekra - Realest HLM - 1301 Menavor - Malade 1301 Raous Gang - Visière teintée - 1301 S.Téban - Paris-Dakar ft. Alonzo - 1301 The S - Booska Square Bleu - 1301 La Ligne Bleue DOR - 34 extended - 1401 Chanje - Keur - 1401 Gazo - Kassav ft. Tiakola - 1401 Kenyon - Laisse-moi faire 1401 K.R.K - Aladin - 1401 Lazer MMZ - Y R R - 1401 Olazermi - Monkey ft. Stavo - 1401 ZKR - Booska Dans Les Mains - 1501 4 Sang - Pure - 1501 A2Z - Claire Chazal ft. Kalash Criminel - 1501 Ashkidd - DANS LA VILLE - 1501 Bilton - Chicha menthe ft. Booba - 1501 David Okit - Igo 1501 Fadah - Chaudar - 1501 Hatik - crashtest - 1501 Hunter - Jamais riche - 1501 Juss - A la base - 1501 Mécra - La rue 6 - 1501 Nanek - Fenêtre - 1501 Niska - Chargé - 1501 Slkrack - F.A.D - 1501 Still Fresh - THANOS - 1501 Thabiti - 13D ft. Solda, Graya, Djiha, Elams, SAF, AM La Scampia, Houari Kamikaz - 1501 Youv Dee - J'rêve - 1801 Frenetik - Odin - 1801 Guy2Bezbar - La Calle 3 Ça flingue - 1801 Nahir - Boosk'Araï - 1901 Pakigo - LA DIFF - 1901 Zuukou Mayzie - Sofie Fatale - 2001 Dinor - Booska Ronaldinor 2001 Esteban - Les Loups, Pt. 2 - 2001 Farlot - Booster Rouge - 2001 Gio Dallas - COMMENT FAIRE - 2001 H.LA DROGUE - SEKLENDLAND 2 - 2001 Kaneki - Freestyle Hall 1 - 2001 Kerchak - 9B - 2001 Klem - HANTE - 2001 Malo - Fake - 2001 Roms - J'avance - 2001 Wallace Cleaver - Hors de ma vue - 2001 winnterzuko - Wannacry - 2001 ZeGuerre - Des tals ft. Sifax - 2101 Chaman Sully - TOXIC - 2101 Dwen - Noir - 2101 Hayce Lemsi - Boson de Higgs - 2101 TLZ Clan - Papel - 2101 TRZ - Réel - 2101 Uzi - Cur abîmé - 2101 Youri - Normal - 2201 Ateyaba - Solitaires - 2201 Black M - César ft. GIMS - 2201 Cinco - Gangsta ft. Key Largo - 2201 Davodka - Fatality - 2201 Deadi - Banzaï - 2201 Golgoth - Ocytocine ft. Lutchelle Jasmine - 2201 HD La Relève - Alpha - 2201 Kore - Balafre ft. Ashe 22 Stavo - 2201 La Kadrilla - VAR - 2201 Liqid - Opération Shawarma - 2201 Malty2BZ - La mort en sachet - 2201 Rocé - Jingle Bells - 2201 Sadek - Labess - 2201 Santa - Boeing ft. La Fève - 2201 Scor Novy - Too Much - 2201 Sokuu - Laisse la partir - 2201 Tsew The Kid - Maladroit ft. Lefa 2201 Yassin - Hood - 2201 Zoyou - 98 - 2301 Gouap - Switch 3 - 2401 JNR - 59 US - 2401 Nara - Guess What ft. Realo - 2401 Tisco - Paire de TN - 2501 Leto - Double Bang 10 - 2501 Marty de Lutece - Sequence - 2601 Booba - RATPI WORLD - 2701 Graya - La Castellane 3 - 2701 Koffi Lossa - Paris c'est tragique 4 - 2701 Kpri - Barceloneta - 2701 L2B Gang - Melvin Williams - 2701 Sasso - Freestyle Kiwi - 2801 Busta Flex - EnTeam - 2801 Coelho - Ne m'en veux pas 2801 Gueule d'Ange - Los Santos - 2801 Josman - Fucked Up 4 2801 Hermano Salvatore - Focus - 2801 L'Allemand - Plus d'amour ft. DA Uzi - 2801 Mayo - Remontada - 2801 Nakk Mendosa - Boîte noire - 2801 Slimka - Headshot - 2801 Vin's - Liberté - 2901 91 All Stars - Gang gang ft. S-Pion Wejdene - 2901 Alonzo - FREESTYLE GALACTIQUE - 2901 Bakari - Panamera ft. Sofiane Pamart - 2901 Brvbus - Transac ft. Dinero - 2901 Dadinho - Sucré Dadi ft. Gazo - 2901 Doria - VRRR - 2901 Hash24 - Tom Jedusor ft. Quesse - 2901 Hebi - CUPID - 2901 Jayden - BIPOLAR - 2901 La F - Non Coupable 4 - 2901 La Peee - Diamant brut 7 - 2901 Michel - Nekete - 2901 Moha K - Zoné - 2901 Nahir - Le bus - 2901 Nakry - Du 13 au 06 ft. Mehdi YZ - 2901 Pirate 182 - Mozart - 2901 Prototype Plvs - Nikita - 2901 Stanis.Las - Popstar - 2901 Todiefor - Palpatine ft. Alkpote - 2901 Venlo - Faut que - 2901 Ya Levis - Pour moi ft. Franglish - 3001 Serane - Money Dance - 3001 Werrason - Mytho ft. Stavo - 3101 Ave Purple - Phéromones - 3101 i300 - SCAM - 3101 Roro la Meute - LA MEUTE 5 - 3101 Zbig - DLG 7 Février - 0102 Keehl - Attentat 0102 R.Keto - 23 ft. Kingzer - 0302 Chicaille Argenté - Boosk'Argenté - 0302 DTF - Bah alors - 0302 eden dillinger - ICARE ft. Wallace Cleaver - 0302 Gips - Nous ça va hamdou ft. Kamikaz Zbig - 0302 Hamza - Réel ft. Zed - 0302 Nixon - OneShot - 0302 Realo - START - 0302 S.Pri Noir - AR ft. Gazo - 0302 We Renoi - Guadalajara - 0302 Zamdane - Affamé 6 Vital - 0402 JNR - Booska Slice - 0402 LVZ - Brisé - 0402 R.E.D.K. - SQOSLF 4 - 0402 SCH - Marché noir - 0402 Swift Guad - Osirus ft. Cenza - 0402 Youssoupha - Astronaute - 0502 2TH - Il reste de l'espoir - 0502 Alonzo - FREESTYLE BRB - 0502 Benab - Confidentes - 0502 Boostee - Jeunes Tristes - 0502 Chanje - WDLT 0502 Denza - Gros lot ft. Captaine Roshi - 0502 Esteban - Les Loups, Pt. 3 - 0502 JSX - RATE-PI - 0502 Kore - Mango ft. Lacrim - 0502 Maska - Voie lactée ft. Lefa Lord Esperanza - 0502 Savage Toddy - Papillon ft. Alkpote - 0502 Kepler - Pefra ft. Gambino LaMG - 0502 Seth Gueko Stos - Trop parler peut tuer - 0502 Sofiane - Nouveaux parrains ft. Soolking - 0602 6rano - Tout et tout de suite - 0602 Doc OVG - La Frappe ft. La F - 0702 Jewel Usain - J'arrive - 0702 Tisco - Doucement ft. Brvmsoo - 0802 Fadah - Nid d'embrouilles - 0902 47Ter - Aline - 0902 Mécra - Johnny Drill - 0902 Vadek - Ambition - 1002 404Billy - 0 Terrain glissant - 1002 Biwaï - Palace ft. Jayel - 1002 DNDX - BALKANY - 1002 Gama Boonta - Grand gabarit - 1002 Kaneki - Freestyle Hall 2 - 1002 Kore - Gucci Versace ft. Heuss L'enfoiré - 1002 Kore - Pas bien ft. PLK - 1002 ICO - Dis pardon - 1002 Realo - Down Bad ft. Khali - 1002 Rim'K - Prototype - 1002 Rvzmo Sans pression 7 - 1102 DJ Quick - Coffre chargé ft. RK DA Uzi - 1102 Max DLG - L'avenue ft. Lilea - 1102 Oumar - Yeezy 1102 Ritchy 31 - Texas 1102 Raous Gang - Gso - 1202 Alonzo - CAPO - 1202 Alrima - C'est comment - 1202 Atro Boi - Hypocrite - 1202 Blaz Pit - QZQ 2 - 1202 Boumso - Danger ft. Timal - 1202 Chanceko - Gova - 1202 Davinhor - Pas de sentiments - 1202 Dika - Youleuh 6 - 1202 Djalito - Nouveau - 1202 GLK - Pas le choix ft. Kelle 1202 Gotti Maras - Freestyle Foot Korner - 1202 Gueule d'Ange - Ma moto ft. Sifax - 1202 Guizmo - Les codes - 1202 Hatik - mer - 1202 Hebi - OXYGEN ft. Myk - 1202 Ikyass Rémy - T'as capté - 1202 Joé Doèt Filé - Bien plus fort ft. Ya Levis - 1202 Kader Diaby 4real - Bon c'est l'heure - 1202 Keny Arkana - On les emmerde Avant l'exode 3 - 1202 Larsé - Canon scié - 1202 Luv Resval - Tout s'en va - 1202 Meryl - BB compte - 1202 Paolo - Parano - 1202 Sadek - Aller-retour - 1202 Seth Sad - Comment faire ? - 1202 Suzuya - Personne ne taimera plus que moi - 1202 Svudvde - Inconditionnel - 1202 Tovaritch - Terrain - 1202 Zidi - Goutte de pluie - 1202 Zikxo - N3 ft. RK - 1202 Zuukou Mayzie - Coach Carter - 1302 Eazy Dew - Humide - 1302 Fresh - La douille 4 - 1402 Bob Marlich - D.L.E.E.D.S ft. Ginger Apollo - 1402 Lalbizness - Kryptonite ft. Osirus Jack - 1402 Marty de Lutece - Souviens toi ft. Bolides - 1402 Mims - Les Nôtres - 1502 Roms - Chat noir - 1502 Ziak - Flocko - 1602 HV Manyy - Billets - 1602 KleoKatana - Spectrum - 1602 Nakry - Lewé - 1702 Jack Many - Ooooh...! - 1702 Mytix Yanké - Trap Drill 2 - 1702 Nyda - Chargé ft. Captaine Roshi - 1702 S.Pri Noir - En vrai ft. DA Uzi - 1702 Uzi - Boosk'Akrapovitch - 1702 Zamdane - Affamé 7 - Histoires de la vraie vie - 1802 Coelho - Cluster - 1802 Swift Guad - Salieri ft. Al'Tarba I.N.C.H - 1802 Tedax Max - Vite fait 4 - 1902 4 Sang - Sonar - 1902 Afro S - Cartouche 7 - 1902 B-NØM - Gang Freestyle - 1902 DTF - Pyromane - 1902 Gazo - BOOSKA POIGNARD - 1902 Hunter - Hélicoptère - 1902 J9ueve - Tous mes états ft. La Fève - 1902 La Peee - Rev Ange - 1902 L'As - Pesos E01 - 1902 Mayo - Impliqué - 1902 menace Santana - Full menace - 1902 Nahir - Comme avant - 1902 Ol'Kainry - Chapeauté - 1902 Santa - BOHÈME ft. KUHI - 1902 SDM - La vie de rêve - 1902 Sizlac - Armé - 1902 Slim Lessio - Wichita - 1902 Sonbest - Sacrifice - 1902 Still Fresh - MÊME SCÉNARIO - 1902 Tsew The Kid - Ailleurs - 1902 Vendredi 13 - Fatality ft. Kyû 999 - 1902 Vladimir Cauchemar - Les Professeurs ft. Seth Gueko Freeze Corleone - 2002 Dmh - Famix - 2002 Wassup Rio - Hellsing - 2102 Asad - Benzo - 2102 Bupropion - Du sang sur les yeux - 2102 Jwles - Juste des barres freestyle - 2102 Malo - Ernest - 2102 Taï Z - Depuis le départ - 2202 Achim - GDS 9 - 2202 Le7ept - Oublie - 2202 Louis Aoda - Je ne m'aime pas - 2202 We Renoi - Fort - 2202 Zikxo - JA Booska Hyène - 2302 eden dillinger - GOETHE OU GUTS ? - 2302 Mapess - Salass - 2302 Norsacce - Intro Marathon - 2402 BR La B - Trahison - 2402 Coelho - Booska Se7en - 2402 Djadja Dinaz - À cur ouvert - 2402 Guy2Bezbar - D.C.B - 2402 Moji x Sboy - R.I.P - 2402 NHSR - Chacun sa chance - 2402 Gips - Anna Kournikova - 2402 Pollux - Merge - 2402 Seven Binks - On arrose - 2402 Tiitof - Avec ou sans toi ft. RK - 2402 winnterzuko - cancel - 2502 Dala - 1V1CIBLE - 2502 Gambino - Cali - 2502 Hermano Salvatore - Polaroïd ft. Soumeya - 2502 ISK - Vérité 3 - 2502 Kalash Criminel - La main - 2502 L'Allemand - Depuis le départ - 2502 Lazzio - Miroir - 2502 Vin's - 2021 - 2502 Youssoupha - SOLAAR PLEURE - 2602 7 Jaws - Jusqu'à la fin ft. Vald - 2602 Caballero - Polaire - 2602 Colonel Reyel - Doggystyle - 2602 DIL - La bouteille - 2602 Dinero - Tout est clair - 2602 Fadah - Flash ft. Rakma - 2602 Fredz - Faits d'hiver - 2602 Hash24 - 34 cuir - 2602 Hebi - INFREQUENTABLES ft. John S - 2602 Hiro - Quatre secondes ft. Koba LaD - 2602 JeanJass - Qu'est ce qui m'arrive - 2602 Kekra - Phénomène - 2602 La F - Bendo ft. Sasso 2602 La Famax - Écharpe au nez - 2602 L'As - Tennessee - 2602 Liim's - Toute la nuit - 2602 Max D. Carter - Film The End - 2602 Nanke - Tout en black - 2602 Naps - La kiffance 2602 Oggy Nilz - JLC - 2602 Onze - 4 saisons - 2602 Peet - Out - 2602 Rocé - Han Solo - 2602 Serge Ibaka - Champion ft. Ninho - 2602 So La Lune - Lune City - 2602 Twenty9 - Sur les nerfs - 2702 1Lyre0 - Arkham - 2702 Cikey - Pars avec moi - 2702 H.LA DROGUE - SEKLENLAND 3 - 2702 Keny Arkana - Violence masquée - 2702 Le Risque - On y va - 2802 Jeune Loup - Shooter - 2802 Roro la Meute - Rétro Mars - 0103 LeBinksPoto - 3.30 - 0103 Niska - Gnonmi avec lait ft. Fior 2 Bior - 0203 Benzizou - Freestylizou 4 - 0203 Dosseh - Cardio - 0203 luXe - Hustlers - 0303 404Billy - 11 - 0303 Baby Neelou - Wake Up - 0303 Charles BDL - Freestyle TLP - 0303 Cop Oslm - Straat Drill - 0303 DJ Kayz - Masterclass ft. Landy RK - 0303 Jazzy Bazz, EDGE Esso Luxueux - Montecristo 0303 Rapi Sati - M3 Yankees - 0303 Kepler - Superman - 0303 S.Pri Noir - 7 vies ft. RK - 0303 Youri - Chute libre - 0303 We Renoi - La League - 0303 Wood - Plus besoin de - 0303 Zamdane - Affamé 8 - Hayati - 0303 Zbig - DLG 8 - 0403 Booba - Mona Lisa ft. JSX - 0403 Mayo - Nouvelle beuh - 0403 Savage Toddy - BooskaWayne Freestyle Booska-P - 0403 Slimka - Rainbow ft. Varnish la Piscine - 0503 47Ter - Avec toi - 0503 Aladin 135 - Sur Paname ft. Lesram Zikxo - 0503 Alonzo - FREESTYLE PELOTA - 0503 B-NØM - Cloche Freestyle - 0503 Brarda - Juste un peu ft. Joey Larsé 0503 Dry - Atlantis 3 0503 Dwen - C bon déjà - 0503 Hatik - waï - 0503 Kore - Gambas ft. Sadek - 0503 L'As - Ça passe - 0503 Loveni - Xxlov - 0503 Max DLG - Pars de là 2 - 0503 Mécra - Faites Percer Mecra - 0503 Mehdi YZ - Il est matrixé - 0503 Rethno - Catégories - 0503 Slkrack - Cru ft. La F - 0503 WZ - Street West 2 - 0503 X-Sphère - Damn - 0603 Chow Chow - Ma copine ft. La Fève - 0603 Kima - Tralala ft. Stos, Tiguere 635 Seth Gueko - 0803 Doria - Leçon - 0803 Falcko - Tu lui diras - 0803 Negrito - Tout va mal - 0803 Retro X - MISFIT - 0803 Rsko - Sal histoire - 0903 Criminils - WW3 - 0903 M7S - RATPI1 - 1003 Ashe 22 - Cro cop - 1003 Deeloc - Rétro ft. Freeze Corleone - 1003 Fresh - GTA 20 - 1003 Hatik - à la mélanie - 1003 H Magnum - Te quiero - 1003 Ichon - Domino - 1003 Kaneki - Freestyle Hall 3 - 1003 Neskoo - Comme Philip - 1003 Realo - LITTLE EYES - 1003 Reta - Gucci Mane - 1003 Seth Gueko Stos - Booska Viking - 1103 Arma Jackson - Distance ft. Tayc - 1103 Clacky - Fausse vie - 1103 Golgoth - Drippin ft. ISHA - 1103 Pirate - Grincheux 6 Atlanta - 1203 Bolémvn - Swipe up - 1203 Bushi - Mistral - 1203 Dadinho - Beretta - 1203 Denzo - La pépite - 1203 Dry - Hollywood - 1203 Elh Kmer - Ennemis - 1203 Gambino - Jalousie - 1203 Gotti Maras - Bx Drill 3 - 1203 Hebi - Un peu plus de love - 1203 Kaaris - Château noir - 1203 Kaza - Certifié Toxic 1203 La Peee - Balle dans la tête - 1203 L'As - Quand il pleut 1203 Lpee - Lumière - 1203 Marty de Lutece - Die Hard - 1203 N3MS - Inédit 2 - 1203 Nass 10 - Danger ft. La F, Bambino47 Jrr - 1203 Rohff - Doux-bail - 1203 Smeels - We Just Vibe 1203 Squadra - Charbon - 1203 Suzuya - Suzuya le vampire - 1203 Thabiti - Baltimore - 1203 TripleGo - Ketama 2 - 1403 Zuukou Mayzie - Pourquoi pas ft. Timothée Joly - 1503 Kenyon - Bossman - 1503 Le Risque - C'est pas pour rien - 1503 Neskoo - Cash Money - 1503 SCH - Loup noir - 1503 TLZ Clan - Skk - 1703 143 - Warning! ft. Nyluu - 1703 7.62 - Mode de vie - 1703 Almas - Toujours plus ft. Fresh LaDouille - 1703 Bekar - Chromé - 1703 Dmh - Quartiers Nord - 1703 Douma - À l'affût - 1703 Gambino - Booska TND - 1703 Gianni - Tout perdre ft. Dadju - 1703 Gims - Pyongyang ft. Inso 1703 Grizzly 942 - Freestyle signature - 1703 Jazzy Bazz, EDGE Esso Luxueux - Non-stop - 1703 MadeInParis - Champagne ft. Captaine Roshi - 1703 Moubarak - On a dit ça ft. Toxic Jah Fullah - 1703 Naps - Sans limites ft. JuL - 1703 So La Lune - Freestyle Theia - 1703 S.Pri Noir - Juicy ft. sean - 1703 Squidji - INSTA - 1703 Zamdane - Affamé 9 - Grrr - 1803 Ashe 22 - X3 ft. Gazo - 1803 DTF - Dans ma fonce - 1803 Kerchak - Demande à biggy 1803 Nyda - VDV - 1803 Sid les 3 éléments - Perquise - 1803 Slkrack - Vittel ft. Junior Bvndo - 1903 4 Sang - TRICERAPTOR - 1903 Atro Boi - Monochrome - 1903 B-NØM - État des lieux - 1903 Dellati - No lie - 1903 Dibson - Différent 1903 Djeiz - Mitch - 1903 Eden Seven - 365 X 0.5 - 1903 Fadah - Autre chose - 1903 Jewel Usain - T'es qu'une merde - 1903 Kalash - Donner - 1903 Kamikaz - Piraterie - 1903 Kurtys - Toi ft. Driks - 1903 La F - En vrai - 1903 L'As - Pull up - 1903 Lascaar - Marabout 2 - 1903 Laws Babyface - Virago - 1903 Liim's - Tokarev - 1903 Lorage - Arcane - 1903 Miklo - Ami Ennemis - 1903 Olazermi - FSR 5 - 1903 SAF - Je t'emmène - 1903 Scylla - Chanson d'amour - 1903 SDM - Van Damme - 1903 Sper-K - Le tour de la zone - 1903 Vendredi 13 - Gang - 1903 Zeu - Lincoln - 2003 LKDM - Golem ft. Lucio Bukowski - 2103 Chinwvr - Imagine un monde - 2103 Lemon Haze - J'encaisse - 2103 Mac Seamus - Halo - 2103 NKP - Ozi 2203 Farsenne - Dans ma tchop - 2303 Kodes - Avoir Être - 2303 Niaks - Gog Magog - 2403 404Billy - 22 Oligarchie - 2403 Gips - L'avocat - 2403 ICO - Señorita ft. Just Riadh - 2403 Madrane - Killer ft. Brulux - 2403 MV - Bass Music ft. Slimka - 2403 Pollux - Paramètres - 2403 S.Téban - Audemars - 2403 Tovaritch - Street Fight ft. Kalash Criminel - 2403 Youssoupha - Booska Prims Carrelage Congolais - 2403 YUNG POOR ALO - Des AR et des rides - 2503 Chanceko - Aquaman - 2503 Deadi - FDP - 2503 Gama Boonta - Mars Madness - 2503 Georgio - Danse 2503 Hache-P - Big billets ft. Chily - 2503 Lucio Bukowski - OUJDAT ft. Nedelko - 2603 1decis - Bitume - 2603 3e Souffle - Shooter - 2603 7.62 - GVNG - 2603 Amar - 3AM - 2603 Amin - Prince de Perse - 2603 Asad - All black ft. 6osy - 2603 Black Jack OBS - Bloots Pt. 1 ft. 2key, Badem, RAS, R.W.O, Shaka Doc OVG - 2603 Boub'z - Rotterdam - 2603 Box - Ma vie - 2603 Caballero - Bethleem - 2603 Davodka - Misanthrope 2603 Hardos - Dans la ville ft. Bakhaw - 2603 Hermano Salvatore - Guérir ft. Vin's - 2603 ISK - Vérité 4 - 2603 Jay Jay - Malewa - 2603 JNR - Les ruelles - 2603 Josué - TMTC - 2603 Jwles - Uzine ft. V900 Mad Rey - 2603 Larry - Booster - 2603 Lpee - Sur la côte ft. Moken - 2603 Maxi Jay - HOLD UP - 2603 Mims - Bingo ft. Todd - 2603 Moha K - Vroum Vroum - 2603 Princesse - Combien de temps 2603 Tissmey - Tripoli - 2603 Unité - Besoin d'aide ft. KaNoé, Shotas, Negrito, Cinco Kazmi - 2703 Carbonne - Ocarina - 2703 Lucio Bukowski - Kiyome No Shio - 2803 Lemon Haze - Quadrillée - 2803 menace Santana - Skiboy - 2803 Nueve Sid - Coffré - 2803 Sid les 3 éléments - Ça débite - 2903 Caballero - Goût du beurre - 2903 La Voix - SAUVE-QUI-PEUT - 2903 M le Maudit - Galliano 3003 Elflaco - À la cité - 3003 Gambino - Wesh wesh - 3003 Guy2Bezbar - Business - 3003 Henri Bleu - Démons et merveilles - 3003 TLZ Clan - Four - 3103 Clacky - Thème - 3103 Goldee Money - Face to Face - 3103 Kaneki - Freestyle Hall 4 - 3103 Kepler - Guedin ft. Leto Cheu-B - 3103 Kodes - Freestyle Stupid 3103 Ritchy 31 - Tu m'as dit non - 3103 Roms - CRS - 3103 Sasso - Napoli - 3103 Soso Maness - Zumba Cafew - 3103 S.Pri Noir - Hacienda - 3103 Thabiti - Booska Comorien-Corse - 3103 Zamdane - Affamé 10 - Athéna Avril - 0104 1PLIKÉ140 - BELEK - 0104 AnNie .Adda - RAZZIA ft. PR - 0104 Balafré - Guernica - 0104 Bando - Wesh gros Remix ft. TK, ZeGuerre, Kepler Gueule d'Ange - 0104 Chanceko - Skrt Skrt - 0104 Dala - Démons - 0104 Jwles - Grand 3 Freestyle ft. Le Lij Bob Marlich - 0104 Malo - Khabib - 0104 RK - Dangerous - 0104 Roro la Meute - J'me barre - 0104 Slim Lessio - La vie - 0104 Vin's - J'rappe - 0204 7 Jaws - Tchilili - 0204 Black M - N.S.E.G - 0204 B-NØM - Paradise Freestyle - 0204 Butter Bullets - Miles Davis - 0204 Dabs - Comme Jeff - 0204 Denzo - On smoke ft. Mig - 0204 Dina - Unfollow - 0204 HV Manyy - Cash - 0204 Jayden - FLAMME - 0204 Keny Arkana - Anomalie Avant lexode 4 - 0204 KT Gorique - Long Time - 0204 La Famax - Faut du yellow - 0204 La Fouine - Sacoche - 0204 La Miellerie - Gimmick ft. ISHA Nixon - 0204 Loveni - Personne - 0204 Lucio Bukowski - CHEH ! - 0204 Marty de Lutece - Mal au cur - 0204 Moha MMZ- Mode - 0204 R.E.D.K. - Simple Constat 7 - 0204 Rousnam - Correction 7 - 0204 SLK - Que du benef ft. Sifax - 0204 Smeels - Bleu ciel - 0204 S-Pion - Bye bye ft. Dinor Rdt - 0204 Ysos - Pas le peine ft. Youv Dee - 0404 JMK - No Kap Freestyle 2 0404 Lemon Haze - Branché - 0404 Mapess - Fleury - 0404 Sadek - Scottie Pippen - 0504 Gims - GJS ft. JuL SCH - 0504 Lesram - Wesh Enfoiré 1 - 0504 Tisco - Dans la sauce 2 ft. Madrane Yoro - 0504 Winterfell - SARKOZY ft. Kepler Leto - 0604 Damso - Javais juste envie décrire. - 0604 Gips - Bichoute - 0604 Guizzi - La fame les sous - 0604 Lucio Bukowski - THE WIRE - 0604 Niska - Bolivienne - 0604 Souffrance - Étoiles filantes - 0704 2zer - ViperGTS - 0704 Alonzo - FREESTYLE MANDAT 0704 Djibz - Kilo - 0704 Elams - Thug life - 0704 Graya - Gang - 0704 Hippocampe Fou - Wiki Freestyle 0704 Laro - Captain - 0704 Leo Roi - Instagram - 0704 menace Santana - Michael Myers 0704 Rousnam - Ma force - 0704 Sadek - Robuste - 0704 Sid les 3 éléments - La vie de rêve - 0704 Tiitof - Bad Boy 0704 VV - Orlinski - 0704 YL - Larlar 5 Yamine - 0704 Yzla - Never - 0804 Ashe 22 - Scellé Part. 3 ft. Freeze Corleone - 0804 Bolémvn - GUCCINIKE SANKHARA 6 - 0804 Cookiesan - Esprit shonen ft. D. Ace - 0804 Di-Meh - 4x4 Diplomatique - 0804 Dosseh - Doaveli 1 - 0804 Dwen - Keta 0804 Grizzly942 - Tayeb Meziani - 0804 Mehdi YZ - Booska FPVS - 0804 Pirate - Street Mood - 0804 SAF - Deal Stream ft. Gambino LaMG - 0804 SDM - Daddy ft. Booba - 0804 Vladimir Cauchemar - BRRR ft. Asdek, Laylow Rim'K 0904 3010 - SYMBOLIQUE - 0904 34murphy - recon1 - 0904 Akhenaton - La faim de leur monde - 0904 Atro Boi - Secrets ft. Timea - 0904 Davinhor - Sugar Daddy - 0904 DJ Flash - Sans limites ft. GLK Mula B - 0904 Dry - Fraté ft. Le A - 0904 Eden Seven - X - 0904 Fababy - Comme les grands ft. Still Fresh - 0904 Gama Boonta - Memphis ft. Dawg Sinatra - 0904 Gen - Blanc des yeux - 0904 Hös Copperfield - Alloco - 0904 ISK - Cités de France ft. Sofiane - 0904 J9ueve - Distanciel 0904 Kader Diaby 4Real - Pish-pish ft. Cinco - 0904 Kamikaze - Abysse 0904 Kozi - Tête brûlée ft. Denzo 0904 K.S.A - Tractions ft. Slimka - 0904 La F - Prix ft. Norsacce - 0904 Liims - Angelo - 0904 JeanJass - Ovni - 0904 Kaza - Bandida - 0904 Le Risque - J'descends - 0904 L'Or du Commun - Négatif 0904 Lpee - Love ft. Chat Noir - 0904 Maj Trafyk - Étoiles filantes - 0904 Mécra - Tom Sawyer - 0904 Miklo - Corleone - 0904 Naza - Ma play ft. Keblack Naps - 0904 OldPee - 123 - 0904 Opinel 21 - Port d'arme - 0904 Pakigo - Seul 0904 Reynz - Bleu Hôtel - 0904 Rocé - Cxpitxlistes - 0904 Shotas - La capuche 7 - 0904 Smily - Amour noir - 0904 Suzuya - Meurs Cupidon, meurs.. - 0904 Taïro - Gamekilla ft. Amø - 0904 thaHomey DirtyIceBoyz - ANOTHER KID - 0904 Verso - Famille ft. 313 - 0904 Yonidas - Instinct - 0904 Zuukou Mayzie - Kevin Mitnick ft. Osirus Jack 1004 LSK - Tonnerre ft. Captaine Roshi CR - 1104 Niaks - Commission rogatoire - 1104 Nyluu - Hellcat ft. Uliss - 1104 S.Pri Noir - Assermenté ft. Mister You - 1104 Zizou - La galère - 1204 JeanJass - GOJJ - 1204 Keehl - Attentat II - 1204 Haristone - Si tu me mens - 1204 H.LA DROGUE - SEKLENLAND 4 1204 Kenem - Views - 1204 Malo - Retrograde - 1204 Seven Binks - Valeurs B - 1204 ZeGuerre - Plus rien à faire en bas - 1304 Jazzy Bazz, EDGE Esso Luxueux - Fascinant - 1304 Kodes - Booska Voyou Freestyle Booska-P - 1404 404Billy - 33 Chargeur vide ft. Frenetik - 1404 Beendo Z - . INSPIRÉ DE FAITS RÉELS 1 - 1404 Doxx - Je sombre - 1404 Gio Dallas - TAPE TAPE - 1404 Hyacinthe - Juice WRLD - 1404 Le Croc - Bleu - 1404 Les Grands Enfants - EMO CITY 1404 Slkrack - Gestion Pt. 2 - 1404 Squidji - OXYGÈNE - 1404 Zamdane - Boosk'Affamé - Photogénique - 1504 47Ter - J'essaie - 1504 Azur - Odyssée - 1504 Chanceko - Bombastic - 1504 Dosseh - La vie d'avant - 1504 Flaco Mundo - 7 - 1504 Ormaz - REFLEXE - 1504 Sto - FEU - 1504 Youena - VISEUR 1604 3010 - PREMIÈRE HEURE - 1604 Baka - Neuf - 1604 Bakari - SoloBinks 1 Détonation - 1604 Don Max - Abysses ft. FullBaz Sheldon - 1604 Fiji God - Boss Final - 1604 Hotel Paradisio - L.A.Z - 1604 Le Sid - Hypnotise - 1604 Med Leska - FRIC - 1604 Moji x Sboy - Medecine - 1604 Negrito - Ou bien ? - 1604 RK - Demain 1604 Roms - Booska Prendre - 1604 Sokuu - Des fois - 1604 Southlove - Air France - 1604 Squadra - Guadalajara - 1604 Svudvde - Corrida - 1604 Tissmey - Petit locksé - 1604 Vadek - Chromée 1604 VVES - Warrior - 1604 Zek - Mystique - 1704 Yanns - Elvira - 1804 Jwles - Pantalon De Ski - 1904 Achim - GDS 10 1904 Ambitiou - Mineur ft. Cinco Dadou - 1904 Rafal - Zone - 2004 Biffty - Démonté comme jamais - 2004 M7S - RATPI2 - 2004 shooda - Tous les soirs - 2104 2zer - Sans demander ft. Framal - 2104 Estaban - Binksky 2 - 2104 Franglish - Caviar Freestyle 2104 H-LO - Viser le mille - 2104 Sirap - Brockboi - 2104 Sirap - Woodstock - 2104 X-Sphère - Fleuve - 2204 Benjamin Epps - Notorious - 2204 Box - Réel - 2204 Deeloc - Murder ft. Cinco - 2204 i300 - Pop Wow - 2204 Gambino - Khamsa - 2204 Georgio - Vers le haut - 2204 Guy2Bezbar - Booska Flingueurs - 2204 Realo - HAZE - 2204 Sally - SHOOT ft. KANIS, Chilla, Joanna, Alicia., Vicky R - 2204 So Clock - Petit nuage - 2204 Swift Guad - Petit monstre - 2304 3010 - PRETTY LADY - 2304 3e Souffle - Mélodie - 2304 Bakari - SoloBinks 2 Pilon - 2304 Butter Bullets - Peu importe 2304 Changerz - Stereo Love - 2304 Dibson - Gasolina - 2304 Frenetik - Ragnarok - 2304 Gen - La vie est belle - 2304 Jewel Usain - Paw Patrol - 2304 Jok'Air - Oh nana ft. Naza - 2304 Kalash - Oula - 2304 Key Largo - Papi - 2304 KT Gorique - Servante Ecarlate - 2304 L'Allemand - À la base - 2304 Projet 1411 - Mon cur dans le tien ft. Yung Dee Lapostroz - 2304 Santa - Face ID ft. J9ueve - 2304 Shien - Bâtiment - 2304 SOPA - Ivresse - 2304 Stanis.Las - Minimum - 2404 Batboy - Buzzy Mama ft. Zther Menavor - 2504 Sreen - Batman - 2604 Klem - LES GENS - 2604 Leith - Lalala - 2604 Sofiane - Zidane - 2704 Bekar - Sécurité - 2704 Klem - Autre monde - 2704 Le7ept - V.V.S - 2804 Balao - Pression - 2804 Giacomo - Fauve - 2804 Klem - Froid - 2804 Koffi Lossa - La coach - 2804 Lesram - Wesh Enfoiré 2 - 2804 Marty de Lutece - Tes yeux - 2804 Mig - Criminel ft. ISK - 2804 M le Maudit - Larmes de diamant - 2804 Realo - BOSS MOOD ft. Khali - 2804 Twenty9 - La suite - 2804 YUNG POOR ALO - NOIR PRADA - 2904 Klem - Avant - 2904 Prime - KELAWIN - 2904 Slimka - Hollywood - 3004 3010 - VOXPOPULI - 3004 Aamar - Paramour - 3004 Atro 90 - Mage enchaîné - 3004 Bakari - SoloBinks 3 Impliqué 3004 Beriz - Cur Pique - 3004 Bramsito - Ciudad - 3004 Daba - Tant de fois - 3004 Eddy Woogy - Écoutons François - 3004 Farlot - Plavon - 3004 Gips - Bourré la gueule 3004 Hös Copperfield - CDQDOP - 3004 i300 - Pop Wow - 3004 Jeune LC - Paris Nord - 3004 Josué - Survis ft. Captaine Roshi - 3004 Joysad - Tous les coups sont permis ft. Sofiane - 3004 JSX - Papel - 3004 Klem - Cauchemar - 3004 La Plaie - Dans la ville - 3004 Lpee - Kanye - 3004 Maka - Noir - 3004 Miklo - Longue vie - 3004 Moona - Validée - 3004 Paco - Petite boule bleue - 3004 Palmae - Blue Velvet - 3004 QCLTUR - QCLTUR ft. Raccoon, Connaisseur Ticaso Barnev - 3004 Shaga - Whisky sans glace - 3004 Soso Maness - DLB 13 - 3004 S.Pri Noir - Savage ft. Goya - 3004 USKY - Satin - 3004 RD 1.9 - Frank Lucas - 3004 Zalmad - Coco Mai - 0105 Klem - Loin - 0105 Souffrance - Racialiste - 0205 Anglade - 3 Filtres - 0205 Klem - Dernière - 0305 Achim - GDS 11 - 0305 Georgio - Booska Sacré - 0305 Mayo - Risques - 0305 Pxrselow - Dis-moi que tu ne m'aimes pas - 0405 Senju - Sabre noir - 0505 404Billy - 44 Oh shit - 0505 BlackTria - Totem - 0505 Georgio - Full moon ft. S.Pri Noir - 0505 Larsé - Flow - 0505 Lazuli - No Me Tocas - 0505 Luv Resval - Boosk'Anakin 0507 Nyda - Lovés ft. KR Malsain - 0605 6rano - C'est chaud Remix ft. Sopico, Limsa, Shut!, Rozoo, Double Zulu, B.e Labeu, Nadji Dinero John Dess - 0605 Captaine Roshi - Momonosuke Freestyle Dragon 1 - 0605 Green Montana - BB part. 3 0605 Junior Bvndo - ZOO 1 Toute la night - 0605 Luni Sacks - Mexique Freestyle - 0605 Sheldon - Monde - 0605 Souffrance - 93ème zone - 0605 Squidji - STRIPPER - 0705 A2H Le Sid - Dreams ft. badchieff - 0705 Arma Jackson - Comme d'habitude - 0705 Black M - À la tienne - 0705 Booba - KAYNA - 0705 Davodka - TVPLM - 0705 Dee Eye - L'italien ft. Caballero JeanJass - 0705 DJ Quick - La recette ft. Leto Bolémvn - 0705 Franglish - Pénélope ft. D-Block Europe Yxng Bane - 0705 Hotel Paradisio - OKKOTO - 0705 Kaeles - Trou Noir - 0705 L'Or du Commun - Sable ft. Lous and the Yakuza - 0705 Lorenzo - Légende vivante - 0705 Luv Resval - MPC, Part II La rivière - 0705 Michel - La sauce - 0705 Ratu - Entretien - 0705 Ratu - Surtaxe - 0705 Roméo Elvis - TPA - 0705 thaHomey DirtyIceBoyz - KARATE KID - 0705 Vadek - No melody - 0805 Gambino - Amnésia - 0905 Atro 90 - Goût des îles - 1005 Di-Meh - Bleu pâle ft. Lefa - 1005 Kounta - Le temps - 1205 Gama Boonta - Colbac - 1205 Hiro - Anéanti - 1205 Hyacinthe - Cur chromé ft. Chanje - 1205 Le Croc - Quartier ft. VillaBanks - 1205 Lujipeka - Putain d'époque ft. S.Pri Noir - 1205 Mac Seamus - COMA - 1205 Yannou JR - J'suis zen - 1205 Zamdane - Affamé 12 - Sentimental - 1305 3010 - BAHOE - 1305 6811 - Mauvais Side ft. Sokuu LAY ZY - 1305 BEN plg - L'eau des mirages - 1305 Chinwvr - C'était mieux après - 1305 Elyon - Le noir du coeur - Flux 4 - 1305 Freeze Corleone - Polémique ft. Central Cee - 1305 Guizzi - Soirée - 1305 menace Santana - Freestyle Covid 19 - 1305 Retro X - XDIG8 - 1305 Tisco - Lakers - 1305 Tovaritch - Vodka - 1405 Bambino47 - 147 - 1405 BGL - Qui - 1405 Butter Bullets - Mercedes rose ft. Limsa d'Aulnay - 1405 Dabs - Belle Audi - 1405 DA Uzi - Fermez-la - 1405 Denzo - Trop dedans ft. Koba LaD - 1405 Doria - Plus personne - 1405 Fiji God - Kkvsh - 1405 Guy2Bezbar - La Calle 4 Favelas de Paname ft. Leto - 1405 HD La Relève - Mamma mia - 1405 H Magnum - ÉcolO.G - 1405 Jamaz - Aisance - 1405 Khali - LA TOILE - 1405 Kingzer - Ouh ft. Lirickal - 1405 KT Gorique - Djessimi Djeka - 1405 L'Algérino - Sapapaya ft. JuL SCH - 1405 Larry - Sirène - 1405 Mécra - Principes et valeurs - 1405 Popey - Freestyle Anonymat - 1405 Prototype - Mundo ft. Cinco - 1405 Sam's - Pour quelques dollars de plus - 1405 Sasso - J'en veux encore - 1405 Sofiane - Attrape-moi si tu peux - 1405 Sten - J'comprends pas - 1405 Still Fresh - POR FAVOR - 1405 Sysa - Cest nous la cité 5 1405 Taïpan - Blue ft. Edsun - 1405 TRZ - Sinister - 1405 Yara - Plan B - 1405 YG Pablo - Ellipse, Pt. 1 - 1605 667 - 669 Part. 2 ft. Lyonzon - 1605 Dribo - Instable - 1605 Henri Bleu - Nuage Rose - 1605 Kima - 17 ft. Kalash - 1605 Malo - 20 1605 Tedax Max - Vite fait 5 ft. Brazzerzaky - 1705 Benzizou - SCAR - 1705 Klem - Souvenirs - 1705 Kounta - Le manque - 1805 Ashe 22 - Bicrav bitch - 1805 Freeze Corleone - Téléphone - 1805 Paco - Corps âme - 1805 USKY - Sextasy 1905 Gips - Henini ft. Thabiti - 1905 Klem - Mortel - 1905 M le Maudit - Khedira - 1905 OBOY - No blata - 1905 Pollux - SHINE - 1905 Sofiane - Windsor 1905 S.Téban - Palénoms - 1905 Wallace Cleaver - 39C - 1905 Ziak - Galerie - 2005 Bekar - 6 Hours - 2005 Bolémvn - DM ft. Dinos - 2005 Gambino - Voyou - 2005 Junior Bvndo - ZOO 2 On a faim - 2005 La F - Que d'la mula - 2005 Nyluu - Home - 2005 Sid les 3 élements - Homicide 1 Tous les jours - 2005 Souffrance - Simba - 2105 7.62 - K-WAY - 2105 Alkpote - Crânes Ossements ft. Diddi Trix, Nahir, Ouss Wayne 88Kvly - 2105 Chuki Beats - Couvre feu ft. Frenetik, Geeeko YG Pablo 2105 Cinco - DD 2105 Earvinho - Sarah Fraisou - 2105 Felipe - PTN - 2105 Franglish - Baby mama - 2105 Gianni - Calmant - 2105 Gotti Maras - Nous - 2105 JMK - MRS ft. Zamdane - 2105 JuL - Irréversible - 2105 Keny Arkana - Parole Vraie Projecteurs Avant lexode 5 - 2105 Kikimoteleba - Tigini - 2105 Le A - La foudre - 2105 Leonis - Banlieue sud-est Sherhood 1 - 2105 Livaï - Soleil transparent - 2105 Loveni - Lipgloss ft. MV - 2105 Lyonzon - Gang Gang 2105 Mac Tyer - Binks ft. Rémy, 2G Ikyass - 2105 Moha MMZ - Pourri dans l'âme - 2105 Moji x Sboy - Chimique ft. Luv Resval - 2105 Noname - MDB - 2105 Sokuu - Une place pour toi - 2105 SOPA - N l'amour - 2105 Soso Maness - Les derniers marioles ft. SCH - 2105 Soumeya - Mon instinct - 2105 Todiefor - Fuck les cops ft. Meryl - 2105 Verso - Amigo Amiga - 2105 Zeu - 1UP - 2305 Hipo - Rupture - 2405 Kounta - L'argent - 2506 Klem - Vide - 2506 Sokuu - Monte dans la gov - 2605 Balafré - Gang 2 - 2605 Deeloc - Deuxième sommation - 2605 DJ Weedim - Lifestyle ft. Swift Guad, Oxmo Puccino, Youthstar, Youri Deadi - 2605 eden dillinger - ALLO - 2605 Hache-P - On va les dja - 2605 Jayel - Easy - 2605 Koffi Lossa - Bobby - 2605 Nemir - Vibes - 2605 Rounhaa - Dubaï - 2605 Sirap - Ah bon - 2605 Zidi - Pleine danse - 2705 Brav - Merci 2705 Doni M - Destinée - 2705 Green Montana - Évidemment ft. SDM - 2705 Les Grands Enfants - PEGASE - 2705 Lost - Dollars canadiens - 2705 Hyacinthe - À demain peut-être - 2705 Luni - Asocial. - 2705 M7S - RATPI3 - 2705 MHD - Afro Trap Part. 11 King Kong - 2705 Nero Dee - Khaleesi - 2705 Pirate - Popo - 2705 RK - Menotté ft. Landy - 2705 Sid les 3 éléments - Homicide 2 Porte 18 - 2705 Tedax Max - J'te jure - 2705 Tiakola - Pousse-toi - 2805 1PLIKÉ140 - COCHI - 2805 Anas - Hania - 2805 Booba - Plaza Athénée - 2805 DIL - Vin Diesel - 2805 Dina - Comme dans les films ft. Uzi - 2805 DJ Kayz - Bled ft. Moha K - 2805 Dr. Yaro La Folie - CDVV ft. Naza - 2805 Eline - Acolyte - 2805 Enfantdepauvres - EDP - 2805 Heuss L'enfoiré - BX Land 6 - 2805 Jewel Usain - Ça va rentrer ft. Ysos - 2805 JS - Pas de love - 2805 KeBlack - Billets mauves - 2805 Kepler - Bad Bitch - 2805 Malty2BZ - Drill 4 - 2805 Mig - La 6T - 2805 R.E.D.K. - S.O.M - 2805 Rvzmo - JB ft. ML270 - 2805 Shotas - La capuche 8 - 2805 S.Pri Noir - Sarah Co</t>
+          <t>Et j'suis ce gangster frère j'ai rien à prouver Seine Saint Denis hustler tu sais où me trouver Seine et Marne ... entouré que des vrais Mais ne teste même pas sinon le sang va couler Et j'suis ce gangster frère j'ai rien à prouver Seine Saint Denis hustler tu sais où me trouver Seine et Marne ... entouré que des vrais Mais ne teste même pas sinon le sang va couler Ils disent que Alpha est facilement localisable Dans les rues du 9.3 moi jeter mon portable S'il te plaît négro me confonds avec ces bouffons Mon coeur est fermé froid comme un glaçon T'inquiète O'Rosko si je maille tu mailles ... Et j'suis ce gangster frère j'ai rien à prouver Seine Saint Denis hustler tu sais où me trouver Seine et Marne ... entouré que des vrais Mais ne teste même pas sinon le sang va couler Et j'suis ce gangster frère j'ai rien à prouver Seine Saint Denis hustler tu sais où me trouver Seine et Marne ... entouré que des vrais Mais ne teste même pas sinon le sang va couler ...</t>
         </is>
       </c>
     </row>
@@ -2698,12 +2698,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Réussir ou mourir</t>
+          <t>Saddam Hussein</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Ok, Dakar, 93, réussir ou mourir Alpha et Shayz Une famille nombreuse j'ai 24 frères et surs Trop d'peine à porter, trop de bouches à nourrir On nous tue négro, mais on nous déshonore pas Sénégal mon pote, un peuple, un but, une foi J'ai grandi sans mon père, ma mère comme seul repère Dur loi d'la vie, trahison des amis Manuel de survie, dicté par les ancien Les gangsters de Dakar, m'ont pavé le chemin Conditions de vie extrêmes, comme les favelas À part la pluie chez nous, boy rien ne tombe du ciel Tu peux boire à ta soif, noublie pas ton frère Répond au mal par le mal, man t'es pas Jésus Et moi je suis, la voix des sans voix Tu peux pas m'juger, j'suis au dessus des lois La fierté de chez moi, l'enfant bâtisseur Sans visa ni papiers, on est des envahisseurs Réussir ou mourir comme 50 Cent Si jéchoue négro, pas d'retour au bled Toute ma vie est sacrifice et ma peine est amour Et les frères ne voient pas, j'suis au point d'non-retour Réussir ou mourir comme 50 Cent Si jéchoue négro, pas d'retour au bled Toute ma vie est sacrifice et ma peine est amour Et les frères ne voient pas, j'suis au point d'non-retour J'ai dompté la mort, esquivé quatre fois Passer à la cinquième, ne m'derange même pas Trafic de papier comme Papa Wemba Trouve du crack chez moi, comme Fodé Sylla Mis a part tout ça, j'suis qu'un immigré Qu'on expulse à tout, va bouc-émissaire d'la France Au milieu des extas, j'ai vendu du bédo Des canettes de coca, des grammes de héro Laisse tomber Hélène, comme l'a dit L.I.M Regarde ma vie en arrière, moi j'te dit qu'ça m'gène Négros veulent ma peau, jalousie des frangins T'as d'la maille, t'as les femmes, c'est qu'la mort n'est pas loin Ma maison à Dakar, c'est comme un p'tit hotel Et l'matin j'me réveille avec pleins d'hirondelles Et depuis qu'les MC se vantent d'avoir des Clio J'veux une Audi A3, sur mon poignet gauche Réussir ou mourir comme 50 Cent Si jéchoue négro, pas d'retour au bled Toute ma vie est sacrifice et ma peine est amour Et les frères ne voient pas, j'suis au point d'non-retour Réussir ou mourir comme 50 Cent Si jéchoue négro, pas d'retour au bled Toute ma vie est sacrifice et ma peine est amour Et les frères ne voient pas, j'suis au point d'non-retour Si t'as un plan biff appelle moi - l'escroc, appelle Toute ta clique appelle l'étendard, j'appelle Car les larfeuilles sont vides, on veut blé et fouffes Aussi sûr que nos cles-on du bled, réclamerons leurs faffs Réhabilité ? Des promesses mon quartier ne l'est pas Habilités à faire du crime en toute impunité En France, j'ai que la nationalité, c'est me sert à rien faut être blanc Comme ça sert à rien d'tirer à balles à blanc Bleu blanc, rouge mon ghetto voit, rouge L'Africain de souche ceux qui ne te loupent pas te couchent On se fie à Dieu, s'méfie de tout et de tout, c'défit Et c'est en tôle que l'histoire s'enfile, que certains se défilent Où renfilent leurs collants de fils en aiguille, le fil du rasoir Et tu sautes sur un coup de fil Réussir ou mourir, mourir ou réussir Oui c'est sûr qu'une poignée de dollar, peut nous nourrir Réussir ou mourir comme 50 Cent Si jéchoue négro, pas d'retour au bled Toute ma vie est sacrifice et ma peine est amour Et les frères ne voient pas, j'suis au point d'non-retour Réussir ou mourir comme 50 Cent Si jéchoue négro, pas d'retour au bled Toute ma vie est sacrifice et ma peine est amour Et les frères ne voient pas, j'suis au point d'non-retour Hustler, hustler, hustler, hustler</t>
+          <t>The capture of Saddam Hussein does not mean the end of violence in Iraq. We still face terrorists who would rather go on killing the innocent than accept the rise of liberty in the heart of the Middle East. Such men are a direct threat to the American people, and they will be defeated Injustice dans le monde depuis le départ L'homme blanc a haï son frère noir L'argent nous divise et la haine nous sépare Contrées sauvages où l'amour s'égare Ils ont trouvé la faille, font la guerre pour du pétrole World Trade Center c'est le pactole Illuminatis, néo-nazis Grands profits et démocraties Démographie galopante Quand la Chine se réveille, j'ai le ventre Vide vide vide, comme au Darfour Muslims contre muslims au carrefour Ça m'fait mal, comme les chiites et les sunnites Et tous ces génocides humanitaires en Afrique Devant la mosquée rouge au Pakistan Mes fidèles ouvrent le feu sur les mécréants Le pape roule sur l'or au Vatican Puis ils s'étonnent qu'on devienne des talibans Saddam Hussein, Saddam Hussein, Saddam Hussein Négro nique l'Amérique, et tout c'qui va avec Ils veulent dominer le monde, je le jure sur La Mecque Et entre mes lignes, essaye de lire ma peine Ils veulent juste me pendre comme Saddam Hussein Négro nique l'Amérique, et tout c'qui va avec Ils veulent dominer le monde, je le jure sur La Mecque Et entre mes lignes, essaye de lire ma peine Ils veulent juste me pendre comme Saddam Hussein Le 11 septembre, les tours de Satan S'écroulent sous l'effet des 1000 émigrants L'Amérique est parano, elle nous regarde Oncle Sam nous écoute quand on bavarde Abou Ghraib, Guantánamo Mes frères sont parqués comme des animaux Devant le maquis du Hezbollah Ou le Hamas sur la bande de Gaza Sisi chacal, creuse des tunnels Fais passer la nourriture et au pluriel Kalashnikov, de quoi résister Face aux colons devant la mosquée Al-Aqsa, Allahou akbar Et puisse Dieu nous protéger de tous ces barbares Négro nique l'Amérique, et tout c'qui va avec Ils veulent dominer le monde, je le jure sur La Mecque Et entre mes lignes, essaye de lire ma peine Ils veulent juste me pendre comme Saddam Hussein Négro nique l'Amérique, et tout c'qui va avec Ils veulent dominer le monde, je le jure sur La Mecque Et entre mes lignes, essaye de lire ma peine Ils veulent juste me pendre comme Saddam Hussein Vue de Dakar, rap de cauchemar Chasser les Français de la Côte d'Ivoire Démolir pour reconstruire l'Afrique Faire couler le sang jusqu'en Amérique La tour Total, Elf-Gabon Et Vincent Bolloré, pour moi n'est qu'un colon RDC pour les morts au Kivu Depuis Kabila et ce que Sassou A exploité dans les rues de Brazza Contrats boyz contre ninjas Pour de l'or noir, enfants soldats Larmes du soleil sonne le réveil Et mamans ont 15 gosses pour de l'oseille Nos propres enfants, ils veulent adopter Fils de pute, moi je fuck L'Arche de Zoé Négro nique l'Amérique, et tout c'qui va avec Ils veulent dominer le monde, je le jure sur La Mecque Et entre mes lignes, essaye de lire ma peine Ils veulent juste me pendre comme Saddam Hussein Négro nique l'Amérique, et tout c'qui va avec Ils veulent dominer le monde, je le jure sur La Mecque Et entre mes lignes, essaye de lire ma peine Ils veulent juste me pendre comme Saddam Hussein Sisi frère, tu sais bien, en tant que musulman on doit pas jurer sur La Mecque ou sur le Coran. En tant que bon musulman tu dois jurer que sur Allah. Mais pardon à tous les frères qui se sentent offensés, ça c'était juste pour le peura, pour qu'ça passe cousin. Mais nique l'Amérique quand même, cousin. C'est pour tout l'tiers-monde, j'parle de l'Amérique du Sud, Asie, et bien sûr ma terre-mère Afrique. Tout l'monde, qui subissent, Moyen-Orient, tout l'monde, qui subissent l'impérialisme de l'Amérique et l'Occident. Sisi chacal, quoi d'neuf Hugo Chavez, Venezuela ? Quoi d'neuf Dadis Camara là-bas en Guinée, cousin ? Kadhafi Pour tous les vrais rebelles mon frère, en Afrique mon frère, qui s'laissent pas marcher dessus. Pour tous les frérots là-bas, Moyen-Orient, t'as vu ? Afghanistan Turquie, Palestine, toute la grosse famille mon frère, jusqu'au Japon, Yakuzas qui s'refusent mon frère esclaves, de prendre mon frère la queue d'l'Amérique, cousin. La Tchétchénie Sisi chacal, on écoute du rap d'Amérique mais on aime pas l'attitude de l'Amérique. C'est ça, c'est chacal, grrr</t>
         </is>
       </c>
     </row>
@@ -2715,12 +2715,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Rider music</t>
+          <t>Sans cesse</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Hein, yeah, normal Boug-zère, Ol' Kainry Alpha, yeah As-tu déjà entendu ce flow, ou le même grain? J'suis en mode crime, j'suis avec mon négro 5.20 La crapulerie, la dalle et la délinquance dans toutes ses formes Les bouffons ont la gueule parce qu'ils poussent les pecs en poussant l'sol Vous voyez cette main? Ma parole vous allez tous la prendre J'te gifle, j'te balaye et j'te regifle avant qu'tu touches le sol Dyf est dans le circuit, en mode car j'suis jamais dead Les scarlas ont la haine car mon flow est bon, ma femme est belle Les jantes de ma caisse brillent à faire rougir un Galsen Dyf a la classe même à poil quand j'ai pas d'crème Je sais qu'tu peux dead, même ta tite-pe est amoureuse Elle rêve d'un boug du 9-1 ou d'un boug du Ghetto Fabulous Mes voitures sont rapides, ma musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche Mes voitures sont rapides, la musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche Ma caisse c'est pas une caisse de luxe, surtout que personne ne s'moque Ma plaque c'est 9-4, Camer' Indomptable te smoke Couleur black black, black blague à part Alpha c'est la famille, quand il m'appelle on fait ça taf taf Dans ma boîte à gants, y a pas de Glocka Glocka Le système te bloque bloque, en banlieue l'ambiance est glauque Fais péter les boomers, ce son c'est pour ta gova Les vrais bonhommes font des tunes, pas l'temps d'jouer les gros bras Changement de vitesse, attache ta ceinture C'est pas les films de John Woo, ici ça taille quand ça tire Dérapage contrôlé à la Fast and Furious J't'ai feinté, vitres teintées, j'suis le last and serious Mes voitures sont rapides, ma musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche Mes voitures sont rapides, la musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche J'kicke et je kicke et je prends mon Bic Mon seize à la rage, je te casse le pif Je pèse, j'ai la rime, le style, je brille J'suis un mec de Trappes, comme Alpha authentique Moi j'rappe pas, mon négro, je crime J'ai les faf, j'ai les balles, j'ai le tard je tire Quand l'étau se resserre, les mastas se privent Faut des mandats cash pour Bois-d'Arcy J'ai le bandana qui pue le fric, je fuck fuck et smoke la weed Tapis rouge pour mes gens de la street, c'est le Ghetto Fab' pas XXX On rêve, on vit, on s'perd masta, y a qu'à la mort qu'on se résout Si si, si t'as une pute à tes côtés, c'est qu'elle attend seulement tes sous Rien ne sert de faire le fou si tu ne sais pas assumer tes gestes Crème de la crème je suis sur le coup, si t'es pas content on te baise ta mère Tu peux pas test' les négros qui pèsent Quand les vitres se baissent, y a les putes qui courent J'aime trop l'hémoglobine c'est bien pour ça qu'ma couleur c'est le rouge Mes voitures sont rapides, ma musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche Mes voitures sont rapides, la musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche Moi j'suis encore dans les bouchons, klaxonne encore j'te tords comme un chiffon Quand j'allume un chichon, que j'pine ta biatche à califourchon J'ai des sueurs froides, c'est Paris by night Ça part en drive-by, au Mac Drive ça s'embrouille pour un Sprite XXX bye bye, j'vais prendre un grec, faut graille Trop d'putes au mètre carré de Riquet à Stalingrad Les chtars tournent partout, ils m'contrôlent sept-cent fois Z'ont vu la gov', la taille de mes jantes, ils sont restés sans voix Dans le poste, un bon Rick Ross ou un vieux west-coast Une belle gosse XXX d'être dans un bête XXX Y a un touriste, une carte Gold, une tarte et donne ton code Putain les chtars me collent, sa mère ça s'corse OK, mes voitures sont bling-bling, intérieur cuir crème Si tu veux pécho chose-quel', parle pas trop au phone-tél Mes voitures sont rapides, ma musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche Mes voitures sont rapides, la musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche Yeah, rider music cousin Tous mes boys 106, 206, Fiat Panda Gunz Poppin' Alfa Romeo Tous mes gangsters Germany ferraille Ancienne Mercalt' Benzino Bima, Audi, Golf pée-ta Mes voitures sont rapides, ma musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche Rider Music, Rider Music Mes voitures sont rapides, la musique est lente Style de vie gangsta, frère c'est tout c'que j'prêche</t>
+          <t>J'aimerais bien décompresser, verser des larmes, pleurer Mais je narrive pas, mon ego ne me lâche pas, j'suis un tueur né Les frères ... faire gaffe à mon train de vie Ainsi va la vie jusqu'à la fin bientôt pour moi cest fini Prise de conscience d'un démon qui aurait préféré être un ange Triste est ma vision de l'avenir, rancunier je punirai tous ceux qui me dérangent Agir sans réfléchir, suivre son instinct comm cet animal Qui ne s'est pas nourri pndant plusieurs jours ... Le diable est là se frotte les mains en espérant que je passe à l'acte Tout en m'insufflant tellement de conneries ... Mon coeur blessé depuis tellement d'années ... La douleur est toujours intense ... Cahier sur la table stylo à la main je ne fais que décrire et dire la vérité Sans cesse en moi s'agite le démon Il me nuit comme toutes ces clopes qui me niquent les poumons Il est dans ma tête, chante à tue tête toutes sortes de conneries Il envahit mon esprit en ayant but de gâcher ma vie Mes démons parlent dans ma tête frère je veux voir du sang Mexploser la cervelle me réduire à néant Les négros les vrais nhommebos nont pas besoin de cagoule ni gants Quand il s'agit de meurtres jsuis dans mon élément Vas y tente ta chance viens tester les gladiators De l'asphalte cité rose Bondy Hood Banlieue Nord Arrache les négros de leur planque, montre moi le coffre fort Je veux la maille ou ta vie, récompenser mes efforts Je m'approche de ta fille, la peur dans son regard Sa vie entre mes mains ça doit lui faire bizarre Mais pas le temps de réfléchir dans ma tête des pensées gores Comme violer ta femme là où ton fiston dort Puisse Dieu me pardonner frère ... J'ai du pour assouvir mes pulsions pas le ventre vide Face à la maille jsuis cupide, la vie est trop rigide J'ai pris mon teint de bain négro dans une pluie acide Sans cesse en moi s'agite le démon Il me nuit comme toutes ces clopes qui me niquent les poumons Il est dans ma tête, chante à tue tête toutes sortes de conneries Il envahit mon esprit en ayant but de gâcher ma vie Et les négros savent ce qu'on cache frère dans nos boîtes à gants Ils arrivent la tête haute mais repartent les pieds devant Démons parlent dans ma tête frère je peux ... J'ai envie de commettre un meurtre, je veux voir du sang Et les négros savent ce qu'on cache frère dans nos boîtes à gants Ils arrivent la tête haute mais repartent les pieds devant Démons parlent dans ma tête frère je peux ... J'ai envie de commettre un meurtre, je veux voir du sang Je vivrai jusqu'à que l'Ange de la mort vienne me chercher ... Je ne vois pas je n'entends pas mais je ressens qu'ils me grondent Sans cesse en moi s'agite le démon Il me nuit comme toutes ces clopes qui me niquent les poumons Il est dans ma tête, chante à tue tête toutes sortes de conneries Il envahit mon esprit en ayant but de gâcher ma vie</t>
         </is>
       </c>
     </row>
@@ -2732,12 +2732,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Rien à prouver</t>
+          <t>Sarcelles</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Et j'suis ce gangster frère j'ai rien à prouver Seine Saint Denis hustler tu sais où me trouver Seine et Marne ... entouré que des vrais Mais ne teste même pas sinon le sang va couler Et j'suis ce gangster frère j'ai rien à prouver Seine Saint Denis hustler tu sais où me trouver Seine et Marne ... entouré que des vrais Mais ne teste même pas sinon le sang va couler Ils disent que Alpha est facilement localisable Dans les rues du 9.3 moi jeter mon portable S'il te plaît négro me confonds avec ces bouffons Mon coeur est fermé froid comme un glaçon T'inquiète O'Rosko si je maille tu mailles ... Et j'suis ce gangster frère j'ai rien à prouver Seine Saint Denis hustler tu sais où me trouver Seine et Marne ... entouré que des vrais Mais ne teste même pas sinon le sang va couler Et j'suis ce gangster frère j'ai rien à prouver Seine Saint Denis hustler tu sais où me trouver Seine et Marne ... entouré que des vrais Mais ne teste même pas sinon le sang va couler ...</t>
+          <t>Sarcelles C'est le bordel, c'est le bordel Alpha C'est le bordel Kody, c'est le bordel Sercom C'est le bordel Marega, c'est le bordel RCM C'est le bordel Ghetto Fab, c'est le bordel Je me présente c'est Kody Criminel Recherché par les niafs, qu'elles soient bells ou vilaines Ma voix dans tes baffes, c'st la rage ivoirienne En cours je n'ai la moyenne mais je veux mon Cayenne, hey hey Augmente le son c'est Sarcelles, on fout le boxon pour Sarcelles Chez nous y'a tout, des fous, des loups RCM Zoo, c'est Sarcelles Alpha dis leur qu'ici c'est mortel On ramène leurs tass à l'hôtel et on leur fout le bordel Pour Rakailles 4 j'arrive nickel Si ta rate kiffe, c'est simple, bah je la nique elle T'as plus de chances de me voir au Shtar qu'au Starter Même en All Star t'inquiète, je reste un gangster C'est pour les reur-ti, les leur-di, pas de timinique, je t'averti Les terres pour saigner l'instru, alors souhaite mi bon appétit Rester ou pas, rien à foutre de toutes ses conneries Bye RCM, on vient niquer en mode dirty En mode renoi, fait d'la maille et la famille fait la graille Voilà pourquoi faut qu'on braille pour faire avancer les bailles Aïe c'est 2007, on fou le bordel, ça sent la tâte-pa Sarcelles et Ghetto Fab, on est venu pour saigner les tar-ba Bienvenu dans les blocs Ou les p'tits sort le glock Ou les p'tits frères parlent, parlent que de clope C'est le son de notre époque, argent, sexe et drogue On vit qu'une fois donc il faut qu'on croke C'est mes guns, c'est mes guns, c'est mes guns, sont mes amies Les ghetto Fab, Ghetto Fab Sarcelles, c'est la famille Je reviens donner de la gouache Ramasser un max de cash N'est pas peur te cache pas On vient faire les tar-ba les carna Parle pas mal ou tu finis très mal Fait pas l'animal ou tu finis avec une balle Toujours la même dalle Toujours avec Allah Les trou d'balle on les recal C'est Al-Qaeda qui t'parle C'est rafale là Tu vas la sentir man Ta salive ravale là parce que tu vas pas t'en sortir man Yeah Toujours vrai, c'est frai pour les vrai frères Envoie les billets parce qu'on doit faire graille</t>
         </is>
       </c>
     </row>
@@ -2749,12 +2749,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Saddam Hussein</t>
+          <t>Securité sociale</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>The capture of Saddam Hussein does not mean the end of violence in Iraq. We still face terrorists who would rather go on killing the innocent than accept the rise of liberty in the heart of the Middle East. Such men are a direct threat to the American people, and they will be defeated Injustice dans le monde depuis le départ L'homme blanc a haï son frère noir L'argent nous divise et la haine nous sépare Contrées sauvages où l'amour s'égare Ils ont trouvé la faille, font la guerre pour du pétrole World Trade Center c'est le pactole Illuminatis, néo-nazis Grands profits et démocraties Démographie galopante Quand la Chine se réveille, j'ai le ventre Vide vide vide, comme au Darfour Muslims contre muslims au carrefour Ça m'fait mal, comme les chiites et les sunnites Et tous ces génocides humanitaires en Afrique Devant la mosquée rouge au Pakistan Mes fidèles ouvrent le feu sur les mécréants Le pape roule sur l'or au Vatican Puis ils s'étonnent qu'on devienne des talibans Saddam Hussein, Saddam Hussein, Saddam Hussein Négro nique l'Amérique, et tout c'qui va avec Ils veulent dominer le monde, je le jure sur La Mecque Et entre mes lignes, essaye de lire ma peine Ils veulent juste me pendre comme Saddam Hussein Négro nique l'Amérique, et tout c'qui va avec Ils veulent dominer le monde, je le jure sur La Mecque Et entre mes lignes, essaye de lire ma peine Ils veulent juste me pendre comme Saddam Hussein Le 11 septembre, les tours de Satan S'écroulent sous l'effet des 1000 émigrants L'Amérique est parano, elle nous regarde Oncle Sam nous écoute quand on bavarde Abou Ghraib, Guantánamo Mes frères sont parqués comme des animaux Devant le maquis du Hezbollah Ou le Hamas sur la bande de Gaza Sisi chacal, creuse des tunnels Fais passer la nourriture et au pluriel Kalashnikov, de quoi résister Face aux colons devant la mosquée Al-Aqsa, Allahou akbar Et puisse Dieu nous protéger de tous ces barbares Négro nique l'Amérique, et tout c'qui va avec Ils veulent dominer le monde, je le jure sur La Mecque Et entre mes lignes, essaye de lire ma peine Ils veulent juste me pendre comme Saddam Hussein Négro nique l'Amérique, et tout c'qui va avec Ils veulent dominer le monde, je le jure sur La Mecque Et entre mes lignes, essaye de lire ma peine Ils veulent juste me pendre comme Saddam Hussein Vue de Dakar, rap de cauchemar Chasser les Français de la Côte d'Ivoire Démolir pour reconstruire l'Afrique Faire couler le sang jusqu'en Amérique La tour Total, Elf-Gabon Et Vincent Bolloré, pour moi n'est qu'un colon RDC pour les morts au Kivu Depuis Kabila et ce que Sassou A exploité dans les rues de Brazza Contrats boyz contre ninjas Pour de l'or noir, enfants soldats Larmes du soleil sonne le réveil Et mamans ont 15 gosses pour de l'oseille Nos propres enfants, ils veulent adopter Fils de pute, moi je fuck L'Arche de Zoé Négro nique l'Amérique, et tout c'qui va avec Ils veulent dominer le monde, je le jure sur La Mecque Et entre mes lignes, essaye de lire ma peine Ils veulent juste me pendre comme Saddam Hussein Négro nique l'Amérique, et tout c'qui va avec Ils veulent dominer le monde, je le jure sur La Mecque Et entre mes lignes, essaye de lire ma peine Ils veulent juste me pendre comme Saddam Hussein Sisi frère, tu sais bien, en tant que musulman on doit pas jurer sur La Mecque ou sur le Coran. En tant que bon musulman tu dois jurer que sur Allah. Mais pardon à tous les frères qui se sentent offensés, ça c'était juste pour le peura, pour qu'ça passe cousin. Mais nique l'Amérique quand même, cousin. C'est pour tout l'tiers-monde, j'parle de l'Amérique du Sud, Asie, et bien sûr ma terre-mère Afrique. Tout l'monde, qui subissent, Moyen-Orient, tout l'monde, qui subissent l'impérialisme de l'Amérique et l'Occident. Sisi chacal, quoi d'neuf Hugo Chavez, Venezuela ? Quoi d'neuf Dadis Camara là-bas en Guinée, cousin ? Kadhafi Pour tous les vrais rebelles mon frère, en Afrique mon frère, qui s'laissent pas marcher dessus. Pour tous les frérots là-bas, Moyen-Orient, t'as vu ? Afghanistan Turquie, Palestine, toute la grosse famille mon frère, jusqu'au Japon, Yakuzas qui s'refusent mon frère esclaves, de prendre mon frère la queue d'l'Amérique, cousin. La Tchétchénie Sisi chacal, on écoute du rap d'Amérique mais on aime pas l'attitude de l'Amérique. C'est ça, c'est chacal, grrr</t>
+          <t>93, Larsen, flow chromé métallique J't'allume au Uzi, j'm'arrache en tonnerre mécanique M'égaler ? Négatif, j'connais le succès cagoulé Braque le fourgon de la gloire, l'amour m'a refoulé J'me suis foulé l'poignet, mon brolique est trop chargé J'ai trop défouraillé, j'ai une ardoise chez l'armurier Mon gilet pare-balles, c'est mon gilet d'sauvetage Si j'me noie dans le crime, une balle me réanime Et si celle-ci atteint son but, mon buffet ou mon torse Que j'ai raison et que j'ai tort, c'est pour toi que ça se corse Oui pour toi, man, quoi ? Tu veux jouer au you-voi toi ? Ça se voit que tu m'connais pas, j'vais te cramer sous ton toît Toi toi, oui toi, t'as voulu jouer avec moi ? J'vais t'allumer dans ta gova, ou venir te soulever chez toi J'ai une morale de hagar pour ces bâtards de kouffar Jouez avec nos nerfs et vous vous mangerez une rafale Rouge sang, noir de la peau, bouge quand tu sens qu'la lice-po Descend dans ton ghetto, pour avoir plus de gens Les jeunes jouent avec l'agent-gent J'roule avec des caisses sans jantes Gênés par des kahba sans argent, je n'ai Toujours pas pris l'habitude, elle s'barre dès l'déjeuner C'est plutôt 93 Etendard qui va t'dégainer Longtemps, s'il faut, inshallah sans défauts Moi, je suis plutôt contre ces pédés qui s'prennent pour des fous T'as ma parole, bien sûr que l'équipe la trouve dans un bon rôle Le rôle de bicrave dans les cités, moi j'évite la taule Et mes potes m'épaulent et moi, j'décolle Plus loin, que tu crois mon ami, que les halls nous ont baisé Comme la taule nous fait la bise, de toutes façons j'ai rien à miser Viser l'Etat, c'est qui nous intéresse depuis longtemps Le temps de respirer un bon moment Maroc stick, casse des dents Mamene, trop d'MC s'croivent aux states mamene, tous ces MC esquivent Les têtes à têtes trop de prétexte, mamene tous ces MC ils vivent C'est Alpha, negro, Tupac, negro Sécurité sociale deux flingues, négro Balastik, Uzi, la rafale Larsen Lik-Ma sort du bled et ton rap s'fait ken Alpha, negro, Tupac, negro Sécurité sociale deux flingues, négro Balastik, Uzi, la rafale Larsen Lik-Ma Bledoss et l'rap s'fait ken Moi et la paix, du 7e art, mate le départ Côté sauvage d'Afrique faut pas lui en vouloir a ce con Complotaient, tapis dans l'ombre, mais vont y rester S'acharnent comme des Guignols sur sa Majesté Kakou, j'ai pas le temps de perdre avec ta jalousie Lik-Ma le Bledoss Dakar teranga Demande à la Familia au ter-téranga Mes baye fall, te fument comme un bocal de ganja On carbure au plein les veines Les miens sont dangereux comme de la kérosène Mais la France se cherche comme un ado qui se touche Si tu veux la guerre avec nous, il t'faudra les missions de Bush On marche toujours avec la première et deuxième force Boy Dakar, la plaque, l'emblème gravé sur le torse Plaidoyer de la banlieue, on paye pas le loyer L'industrie on la noyée, qu'est-ce que tu croyais ? All Eyez on Me, je suis pas démuni Moi je vais à la banque pour la brinks money Des guetteurs postés à chaque coin d'ma rue Des tueurs m'attendent, juste en bas de l'avenue J'ai crié, pleuré, caché mes larmes sous la pluie J'irai pas pour te plaindre, si j'me fais tirer d'ssus Les MC sont tristes, j'suis encore en vie J'les traite, puis j'dis Venez me voir à Clicli Et la rue m'rappelle, j'ai arrêté de bibi Trois meufs à la semaine ? Maintenant, c'est easy Planète Rap, chez Sky, ils m'appellent E.T Je les ai vu défourailler, sur Tupac et Biggie Easy-E, Jay-Z, Lino et Daddy Lord C Dans le 93, Alpha Master P J'ai du pain sur la planche, faut que j'retourne au marché Ressusciter la voix du peuple comme les Democrates D C'est Alpha, negro, Tupac, negro Sécurité sociale deux flingues, négro Balastik, Uzi, la rafale Larsen Lik-Ma sort du bled et ton rap s'fait ken Alpha, negro, Tupac, negro Sécurité sociale deux flingues, négro Balastik, Uzi, la rafale Larsen Lik-Ma Bledoss et l'rap s'fait ken Yeah, la puissance des nègres Blackjack Democrates, en puissance et en force 5.20, Balastik, Larsen, Bledoss Yeah, Bosquets, Montfermeil, Clichy-sous Yeah, que personne ne bouge sinon, t'entends simplement</t>
         </is>
       </c>
     </row>
@@ -2766,12 +2766,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Sans cesse</t>
+          <t>Si Je Dois Partir</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>J'aimerais bien décompresser, verser des larmes, pleurer Mais je narrive pas, mon ego ne me lâche pas, j'suis un tueur né Les frères ... faire gaffe à mon train de vie Ainsi va la vie jusqu'à la fin bientôt pour moi cest fini Prise de conscience d'un démon qui aurait préféré être un ange Triste est ma vision de l'avenir, rancunier je punirai tous ceux qui me dérangent Agir sans réfléchir, suivre son instinct comm cet animal Qui ne s'est pas nourri pndant plusieurs jours ... Le diable est là se frotte les mains en espérant que je passe à l'acte Tout en m'insufflant tellement de conneries ... Mon coeur blessé depuis tellement d'années ... La douleur est toujours intense ... Cahier sur la table stylo à la main je ne fais que décrire et dire la vérité Sans cesse en moi s'agite le démon Il me nuit comme toutes ces clopes qui me niquent les poumons Il est dans ma tête, chante à tue tête toutes sortes de conneries Il envahit mon esprit en ayant but de gâcher ma vie Mes démons parlent dans ma tête frère je veux voir du sang Mexploser la cervelle me réduire à néant Les négros les vrais nhommebos nont pas besoin de cagoule ni gants Quand il s'agit de meurtres jsuis dans mon élément Vas y tente ta chance viens tester les gladiators De l'asphalte cité rose Bondy Hood Banlieue Nord Arrache les négros de leur planque, montre moi le coffre fort Je veux la maille ou ta vie, récompenser mes efforts Je m'approche de ta fille, la peur dans son regard Sa vie entre mes mains ça doit lui faire bizarre Mais pas le temps de réfléchir dans ma tête des pensées gores Comme violer ta femme là où ton fiston dort Puisse Dieu me pardonner frère ... J'ai du pour assouvir mes pulsions pas le ventre vide Face à la maille jsuis cupide, la vie est trop rigide J'ai pris mon teint de bain négro dans une pluie acide Sans cesse en moi s'agite le démon Il me nuit comme toutes ces clopes qui me niquent les poumons Il est dans ma tête, chante à tue tête toutes sortes de conneries Il envahit mon esprit en ayant but de gâcher ma vie Et les négros savent ce qu'on cache frère dans nos boîtes à gants Ils arrivent la tête haute mais repartent les pieds devant Démons parlent dans ma tête frère je peux ... J'ai envie de commettre un meurtre, je veux voir du sang Et les négros savent ce qu'on cache frère dans nos boîtes à gants Ils arrivent la tête haute mais repartent les pieds devant Démons parlent dans ma tête frère je peux ... J'ai envie de commettre un meurtre, je veux voir du sang Je vivrai jusqu'à que l'Ange de la mort vienne me chercher ... Je ne vois pas je n'entends pas mais je ressens qu'ils me grondent Sans cesse en moi s'agite le démon Il me nuit comme toutes ces clopes qui me niquent les poumons Il est dans ma tête, chante à tue tête toutes sortes de conneries Il envahit mon esprit en ayant but de gâcher ma vie</t>
+          <t>Limpide et froid, igloo négro Je peux vendre de la glace à des esquimaux Face à la maille j'suis un daltonien Je vois pas de couleur, je sens pas d'odeur Flaire la mort à des pas d'ici Des appels au secours, cris d'agonie La vie de ma mère boy tu fais pitié hey Brandir des flingues usés Quoi de neuf pédé ? Moi j'suis de retour Touche pas à mon pain ou je te fais le contour Cireur de pompes, suceur de zgegs Une menace fantôme comme dans Star Wars Porteur de virus, jeune négro meurt HIV positif, travelo fourreur Tourne pas le dos au vent de Dakar Tu vas l'avoir dans le cul, pénétration anale Je prie le Seigneur juste avant de dormir Dans un guet apens mes ennemis m'attirent Pas besoin d'une tess pour me protéger Si je dois partir boy je partirai Je prie le Seigneur juste avant de dormir Dans un guet apens mes ennemis m'attirent Pas besoin d'une tess pour me protéger Si je dois partir boy je partirai Mélancolique parce que j'ai soif et j'ai faim Je taffe trop c'est pour ça que je vois moins la famille ... Je prie le Seigneur juste avant de dormir Dans un guet apens mes ennemis m'attirent Pas besoin d'une tess pour me protéger Si je dois partir boy je partirai Je prie le Seigneur juste avant de dormir Dans un guet apens mes ennemis m'attirent Pas besoin d'une tess pour me protéger Si je dois partir boy je partirai</t>
         </is>
       </c>
     </row>
@@ -2783,12 +2783,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Sarcelles</t>
+          <t>Sois Hardcore (Remix)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Sarcelles C'est le bordel, c'est le bordel Alpha C'est le bordel Kody, c'est le bordel Sercom C'est le bordel Marega, c'est le bordel RCM C'est le bordel Ghetto Fab, c'est le bordel Je me présente c'est Kody Criminel Recherché par les niafs, qu'elles soient bells ou vilaines Ma voix dans tes baffes, c'st la rage ivoirienne En cours je n'ai la moyenne mais je veux mon Cayenne, hey hey Augmente le son c'est Sarcelles, on fout le boxon pour Sarcelles Chez nous y'a tout, des fous, des loups RCM Zoo, c'est Sarcelles Alpha dis leur qu'ici c'est mortel On ramène leurs tass à l'hôtel et on leur fout le bordel Pour Rakailles 4 j'arrive nickel Si ta rate kiffe, c'est simple, bah je la nique elle T'as plus de chances de me voir au Shtar qu'au Starter Même en All Star t'inquiète, je reste un gangster C'est pour les reur-ti, les leur-di, pas de timinique, je t'averti Les terres pour saigner l'instru, alors souhaite mi bon appétit Rester ou pas, rien à foutre de toutes ses conneries Bye RCM, on vient niquer en mode dirty En mode renoi, fait d'la maille et la famille fait la graille Voilà pourquoi faut qu'on braille pour faire avancer les bailles Aïe c'est 2007, on fou le bordel, ça sent la tâte-pa Sarcelles et Ghetto Fab, on est venu pour saigner les tar-ba Bienvenu dans les blocs Ou les p'tits sort le glock Ou les p'tits frères parlent, parlent que de clope C'est le son de notre époque, argent, sexe et drogue On vit qu'une fois donc il faut qu'on croke C'est mes guns, c'est mes guns, c'est mes guns, sont mes amies Les ghetto Fab, Ghetto Fab Sarcelles, c'est la famille Je reviens donner de la gouache Ramasser un max de cash N'est pas peur te cache pas On vient faire les tar-ba les carna Parle pas mal ou tu finis très mal Fait pas l'animal ou tu finis avec une balle Toujours la même dalle Toujours avec Allah Les trou d'balle on les recal C'est Al-Qaeda qui t'parle C'est rafale là Tu vas la sentir man Ta salive ravale là parce que tu vas pas t'en sortir man Yeah Toujours vrai, c'est frai pour les vrai frères Envoie les billets parce qu'on doit faire graille</t>
+          <t>... Eh James K Page ... ... Pose la cagoule t'as rien compris chien Si t'es pour les insoumis terroristes antillais Tu chiales tout le temps pédé T'as des fafs, va chercher des hertz négro 3 types d'hommes glissent partout pédé Les travs, les savants et les guerriers pédé J'viens court-circuiter la transmission de vos conneries dans les oreilles des petits Bim bim aux chiottes les bling bling C'est hardcore la France m'a coté en chute libre Depuis que Guy Georges leur a écarté les beujs de force Journal du hard avec Bardot et Hillary Duff Tu kiffes pas je te donne un zgeg de négro tout neuf ... ... ... ... ... Ben laden musique et mon coeur palpite Quand je parle le soleil et la lune se gravite Man .. coup sec lucifer au paradis Mes armes sont célèstes moi je tire sur belzebuth La vérité negro c'est que la bicrave me manque Ça fait bizarre de rentrer sans cagoule a la banque Les majors ont peur de moi je les ai rendu amnésique Moi j'ai violé leurs terres dévalisé leur boutiques Solidaire dans mon ame dans le rap j'ai pas d'égal J'entends pas les negros je suis dans air senegal Entre vents et marées ghetto fab Hardcore L'état veut nous faire croire que Ben laden est mort ... Sous le soleil du diable y'a pas d'ombre y'a pas de gilet ... C'est nord sud est ouest big up au pays On sera jamais intégrés avec nos boubous et nos wesh wesh Les treillis sont de sortie ...</t>
         </is>
       </c>
     </row>
@@ -2800,12 +2800,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Securité sociale</t>
+          <t>Sois Hardocre (Remix)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>93, Larsen, flow chromé métallique J't'allume au Uzi, j'm'arrache en tonnerre mécanique M'égaler ? Négatif, j'connais le succès cagoulé Braque le fourgon de la gloire, l'amour m'a refoulé J'me suis foulé l'poignet, mon brolique est trop chargé J'ai trop défouraillé, j'ai une ardoise chez l'armurier Mon gilet pare-balles, c'est mon gilet d'sauvetage Si j'me noie dans le crime, une balle me réanime Et si celle-ci atteint son but, mon buffet ou mon torse Que j'ai raison et que j'ai tort, c'est pour toi que ça se corse Oui pour toi, man, quoi ? Tu veux jouer au you-voi toi ? Ça se voit que tu m'connais pas, j'vais te cramer sous ton toît Toi toi, oui toi, t'as voulu jouer avec moi ? J'vais t'allumer dans ta gova, ou venir te soulever chez toi J'ai une morale de hagar pour ces bâtards de kouffar Jouez avec nos nerfs et vous vous mangerez une rafale Rouge sang, noir de la peau, bouge quand tu sens qu'la lice-po Descend dans ton ghetto, pour avoir plus de gens Les jeunes jouent avec l'agent-gent J'roule avec des caisses sans jantes Gênés par des kahba sans argent, je n'ai Toujours pas pris l'habitude, elle s'barre dès l'déjeuner C'est plutôt 93 Etendard qui va t'dégainer Longtemps, s'il faut, inshallah sans défauts Moi, je suis plutôt contre ces pédés qui s'prennent pour des fous T'as ma parole, bien sûr que l'équipe la trouve dans un bon rôle Le rôle de bicrave dans les cités, moi j'évite la taule Et mes potes m'épaulent et moi, j'décolle Plus loin, que tu crois mon ami, que les halls nous ont baisé Comme la taule nous fait la bise, de toutes façons j'ai rien à miser Viser l'Etat, c'est qui nous intéresse depuis longtemps Le temps de respirer un bon moment Maroc stick, casse des dents Mamene, trop d'MC s'croivent aux states mamene, tous ces MC esquivent Les têtes à têtes trop de prétexte, mamene tous ces MC ils vivent C'est Alpha, negro, Tupac, negro Sécurité sociale deux flingues, négro Balastik, Uzi, la rafale Larsen Lik-Ma sort du bled et ton rap s'fait ken Alpha, negro, Tupac, negro Sécurité sociale deux flingues, négro Balastik, Uzi, la rafale Larsen Lik-Ma Bledoss et l'rap s'fait ken Moi et la paix, du 7e art, mate le départ Côté sauvage d'Afrique faut pas lui en vouloir a ce con Complotaient, tapis dans l'ombre, mais vont y rester S'acharnent comme des Guignols sur sa Majesté Kakou, j'ai pas le temps de perdre avec ta jalousie Lik-Ma le Bledoss Dakar teranga Demande à la Familia au ter-téranga Mes baye fall, te fument comme un bocal de ganja On carbure au plein les veines Les miens sont dangereux comme de la kérosène Mais la France se cherche comme un ado qui se touche Si tu veux la guerre avec nous, il t'faudra les missions de Bush On marche toujours avec la première et deuxième force Boy Dakar, la plaque, l'emblème gravé sur le torse Plaidoyer de la banlieue, on paye pas le loyer L'industrie on la noyée, qu'est-ce que tu croyais ? All Eyez on Me, je suis pas démuni Moi je vais à la banque pour la brinks money Des guetteurs postés à chaque coin d'ma rue Des tueurs m'attendent, juste en bas de l'avenue J'ai crié, pleuré, caché mes larmes sous la pluie J'irai pas pour te plaindre, si j'me fais tirer d'ssus Les MC sont tristes, j'suis encore en vie J'les traite, puis j'dis Venez me voir à Clicli Et la rue m'rappelle, j'ai arrêté de bibi Trois meufs à la semaine ? Maintenant, c'est easy Planète Rap, chez Sky, ils m'appellent E.T Je les ai vu défourailler, sur Tupac et Biggie Easy-E, Jay-Z, Lino et Daddy Lord C Dans le 93, Alpha Master P J'ai du pain sur la planche, faut que j'retourne au marché Ressusciter la voix du peuple comme les Democrates D C'est Alpha, negro, Tupac, negro Sécurité sociale deux flingues, négro Balastik, Uzi, la rafale Larsen Lik-Ma sort du bled et ton rap s'fait ken Alpha, negro, Tupac, negro Sécurité sociale deux flingues, négro Balastik, Uzi, la rafale Larsen Lik-Ma Bledoss et l'rap s'fait ken Yeah, la puissance des nègres Blackjack Democrates, en puissance et en force 5.20, Balastik, Larsen, Bledoss Yeah, Bosquets, Montfermeil, Clichy-sous Yeah, que personne ne bouge sinon, t'entends simplement</t>
+          <t>... ... ... Pose la cagoule t'as rien compris chien Si t'es pour les insoumis terroristes antillais Tu chiales tout le temps pédé T'as des fafs, va chercher des hertz négro 3 types d'hommes glissent partout pédé Les travs, les savants et les guerriers pédé J'viens court-circuiter la transmission de vos conneries dans les oreilles des petits Bim bim aux chiottes les bling bling C'est hardcore la France m'a coté en chute libre Depuis que Guy Georges leur a écarté les beujs de force Journal du hard avec Bardot et Hillary Duff Tu kiffes pas je te donne un zgeg de négro tout neuf ... ... ... ... ... Ben laden musique et mon coeur palpite Quand je parle le soleil et la lune se gravite Man .. coup sec lucifer au paradis Mes armes sont célèstes moi je tire sur belzebuth La vérité negro c'est que la bicrave me manque Ça fait bizarre de rentrer sans cagoule a la banque Les majors ont peur de moi je les ai rendu amnésique Moi j'ai violé leurs terres dévalisé leur boutiques Solidaire dans mon ame dans le rap j'ai pas d'égal J'entend pas les negros je suis dans air senegal Entre vents et marées ghetto fab Hardcore L'état veut nous faire croire que Ben laden est mort ... ...</t>
         </is>
       </c>
     </row>
@@ -2817,12 +2817,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Si Je Dois Partir</t>
+          <t>Stars des HLM</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Limpide et froid, igloo négro Je peux vendre de la glace à des esquimaux Face à la maille j'suis un daltonien Je vois pas de couleur, je sens pas d'odeur Flaire la mort à des pas d'ici Des appels au secours, cris d'agonie La vie de ma mère boy tu fais pitié hey Brandir des flingues usés Quoi de neuf pédé ? Moi j'suis de retour Touche pas à mon pain ou je te fais le contour Cireur de pompes, suceur de zgegs Une menace fantôme comme dans Star Wars Porteur de virus, jeune négro meurt HIV positif, travelo fourreur Tourne pas le dos au vent de Dakar Tu vas l'avoir dans le cul, pénétration anale Je prie le Seigneur juste avant de dormir Dans un guet apens mes ennemis m'attirent Pas besoin d'une tess pour me protéger Si je dois partir boy je partirai Je prie le Seigneur juste avant de dormir Dans un guet apens mes ennemis m'attirent Pas besoin d'une tess pour me protéger Si je dois partir boy je partirai Mélancolique parce que j'ai soif et j'ai faim Je taffe trop c'est pour ça que je vois moins la famille ... Je prie le Seigneur juste avant de dormir Dans un guet apens mes ennemis m'attirent Pas besoin d'une tess pour me protéger Si je dois partir boy je partirai Je prie le Seigneur juste avant de dormir Dans un guet apens mes ennemis m'attirent Pas besoin d'une tess pour me protéger Si je dois partir boy je partirai</t>
+          <t>Mon son dans l'top 10 des maisons d'arrêt Des phases qui font marrer, mon blase tatoué sur tous les murs au cran d'arrêt Pose ma dédicace sur des feuilles d'OCB Oh, c'est bon, fais fonctionner la CB, ma gueule, wesh, c'est 10 euros l'CD J'ai jamais vu Batman sur l'toit d'nos bâtiments jamais Rien qu'des Partyman et des bolosses qui connaîtront tous le même châtiment Partout, ça bibi, élevés au MOP, Al Pacino, Takeshi Kitano et MOBB Le rap qui sent la pisse dans l'ascenseur, la pression ? C'est dans les pneus J'ai d'l'inspi', arrache-moi vite une feuille de classeur Sur l'prochain clip, j'suis là, j'potasse Y a une partouze de jalouses, des MC, des connasses, d'la merde sous la godasse On traîne des zoulettes qui ont l'même corps que Barbi Sur la moustache à Larbi, mon Gucci pue la crêpe chicken des frères Barbiche Le hip-hop, c'est notre propriété c'est à nous, ça Même en état d'ébriété, viens t'abriter dans la tess des célébrités Du matos dans les boîtes aux lettres, clé PTT La BAC vient rouspéter, y a un concert privé dans les caves à VTT C'est la musique des guesh tout plein à fond dans l'tuning Des Maghrébos du terter, des Bamboulas balèzes comme Mouss Diouf dans les movings Voici les stars des HLM Fais flipper les chtars comme le FLNC, Burberry et pas HM Être violent et faire du cash, elle aime Quand Escobar Macson et Alpha 5.20 parlent de haches et d'haine Voici les stars des HLM Fais flipper les chtars comme le FLNC, Burberry et pas HM Être violent et faire du cash, elle aime Quand Escobar Macson et Alpha 5.20 parlent de haches et d'haine C'est un manque de respect quand un négro nie Ton investissement même, c'est pas qu'des prix Déclenche le mal en moi comme le 666 Démons parlent dans ma tête, je vois des crucifix J'suis musulman et je crois au Christ Mais je tends pas la joue si quelqu'un m'offusque J'aime voir à terre le corps de mes ennemis Et j'm'en fous qu'après, leur mère pousse des cris Si si, négro, le Diable m'attendait Et j't'avoue que parfois, moi, j'ai dû céder Évacuer de mon cur tout l'amour que j'avais Mémoire d'esclave, j'suis qu'un rancunier Grossiers propos avant la négociation Yes we can, papa, comme l'a dit Patson Faire du mal à ta mère comme avorter son rejeton Épinay, Villetaneuse, capitale des démons Foyer de rébellion, textile en teflon Les cuirs sont pleins d'négros quand y a plus de gibier Drogues dures et armes à feu, c'est chez nous le vivier, frère ! Voici les stars des HLM Fais flipper les chtars comme le FLNC, Burberry et pas HM Être violent et faire du cash, elle aime Quand Escobar Macson et Alpha 5.20 parlent de haches et d'haine Voici les stars des HLM Fais flipper les chtars comme le FLNC, Burberry et pas HM Être violent et faire du cash, elle aime Quand Escobar Macson et Alpha 5.20 parlent de haches et d'haine Yeah, flingue sous l'abdomen, naturel phénomène La vie de rêve nous tente, le Sheitan nous malmène Flingue sous l'abdomen, naturel phénomène La vie de rêve nous tente, le Sheitan nous malmène, hey</t>
         </is>
       </c>
     </row>
@@ -2834,12 +2834,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Sois Hardcore (Remix)</t>
+          <t>Street Credibility</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>... Eh James K Page ... ... Pose la cagoule t'as rien compris chien Si t'es pour les insoumis terroristes antillais Tu chiales tout le temps pédé T'as des fafs, va chercher des hertz négro 3 types d'hommes glissent partout pédé Les travs, les savants et les guerriers pédé J'viens court-circuiter la transmission de vos conneries dans les oreilles des petits Bim bim aux chiottes les bling bling C'est hardcore la France m'a coté en chute libre Depuis que Guy Georges leur a écarté les beujs de force Journal du hard avec Bardot et Hillary Duff Tu kiffes pas je te donne un zgeg de négro tout neuf ... ... ... ... ... Ben laden musique et mon coeur palpite Quand je parle le soleil et la lune se gravite Man .. coup sec lucifer au paradis Mes armes sont célèstes moi je tire sur belzebuth La vérité negro c'est que la bicrave me manque Ça fait bizarre de rentrer sans cagoule a la banque Les majors ont peur de moi je les ai rendu amnésique Moi j'ai violé leurs terres dévalisé leur boutiques Solidaire dans mon ame dans le rap j'ai pas d'égal J'entends pas les negros je suis dans air senegal Entre vents et marées ghetto fab Hardcore L'état veut nous faire croire que Ben laden est mort ... Sous le soleil du diable y'a pas d'ombre y'a pas de gilet ... C'est nord sud est ouest big up au pays On sera jamais intégrés avec nos boubous et nos wesh wesh Les treillis sont de sortie ...</t>
+          <t>Jveux percer, lyrics en silex quon taille dans le ciment Dès que ça clash, les mcs se cachent pour die en silence Cest triste ! La thune rime avec bitume, plumes Tu nseras pas célèbre si tu me tues Mc gilet pare balles, cet mcs nest pas moi Chili Chili Bang Bang, juste un ciné, pas moi Hors scène les vrais négros vivent-ils comme Cent Fifty ? Emmerdant danciennes victimes La tragédie Biggie, Tupac naura pas lieu ici On passe souvent du soft au racailleux Non ! Tu veux tester, pour ta fête, tes pas prêt Jai pas le temps pour un tête à tête, peut être après Quartiers sales, négros affamés Cherche pas il y a mon négro Alpha, yeah ! Crédible ? Cest bien !! Faire du fric ? Ce s'rait pas du luxe... Té-ma Sky The Limit, Ghetto Faboulous ! Street life, face à nous renoi, tes pas crédible Conseil reste tranquille et reste dans ta ville Street life et sur le CD je ne fais pas de crédits Boss de panam, représente à vie bis Boss de panam, Dakar hustler - Dans la rue ? Cest moi ! - Dans le block ? Cest moi ! 5.20, Alpha, 47 AKA Matricule D.K., 5.20, le retour Si tu kiffes pas mes renois, frère, me dit pas bonjour A part la rue fiston, tes loin dêtre comme nous Nous on est des gangsters avec des grands boubous Coupe ! Coupe ! jpavane dans les rues de Yarakh Et Dakar cest la jungle, nègro, matte limpact Mafia Africaine comme les mecs de Vitry Sauf que nous cest Sous Bois, Aulnay, Clichy Mecs braves, finests, mecs dEpinay-sur-Seine Après la bricrave, on va te piner sur scène De lautre côté de la rue quelques-uns mont trahi Renoi si tes pas ébahi, moi je dors avec mes ennemis La rue cest danger, plein de contre-sens Accent de Dakar, cest le bled en France Street life, face à nous renoi, tes pas crédible Conseil reste tranquille et reste dans ta ville Street life et sur le CD je ne fais pas de crédits Boss de panam, représente à vie bis Boss de panam, Dakar hustler Rentre dans le ghetto, mot de passe 9.3 Depuis Rimes et Gloire, tous rappent comme moi Breitling au poignet, plus une graine-de-café Vide tout mon stock négro, matte le pavé Pars le premier car le rap cest du sport On vient de braquer, play boy si tu dors Tony l'a rêvé, Alpha va le faire Je nai pas à prouver, tout mon gang est vé-nér Crédible ? Du plus petit au plus grand malfra Je me présente DIOMAY pour les quelques rares fois Que je représente. Hommage à ceux qui en bavent trop Quand ça part en freestyle, eux, ils partent en live, yo ! Street life, face à nous renoi, tes pas crédible Conseil reste tranquille et reste dans ta ville Street life et sur le CD je ne fais pas de crédits Boss de panam, représente à vie bis Boss de panam, Dakar hustler</t>
         </is>
       </c>
     </row>
@@ -2851,12 +2851,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Sois Hardocre (Remix)</t>
+          <t>Tape sur les nerfs</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>... ... ... Pose la cagoule t'as rien compris chien Si t'es pour les insoumis terroristes antillais Tu chiales tout le temps pédé T'as des fafs, va chercher des hertz négro 3 types d'hommes glissent partout pédé Les travs, les savants et les guerriers pédé J'viens court-circuiter la transmission de vos conneries dans les oreilles des petits Bim bim aux chiottes les bling bling C'est hardcore la France m'a coté en chute libre Depuis que Guy Georges leur a écarté les beujs de force Journal du hard avec Bardot et Hillary Duff Tu kiffes pas je te donne un zgeg de négro tout neuf ... ... ... ... ... Ben laden musique et mon coeur palpite Quand je parle le soleil et la lune se gravite Man .. coup sec lucifer au paradis Mes armes sont célèstes moi je tire sur belzebuth La vérité negro c'est que la bicrave me manque Ça fait bizarre de rentrer sans cagoule a la banque Les majors ont peur de moi je les ai rendu amnésique Moi j'ai violé leurs terres dévalisé leur boutiques Solidaire dans mon ame dans le rap j'ai pas d'égal J'entend pas les negros je suis dans air senegal Entre vents et marées ghetto fab Hardcore L'état veut nous faire croire que Ben laden est mort ... ...</t>
+          <t>Je conte le message, tu sens la patate 9.3 mentalité de Bagdad D'humeur kamikaze, sors de gardav' Gladiator du bitume et de l'asphalte Boit le sang des ennemis dans des carafes Baise des tasspés naines ou des girafes Sors en balade avec mes macaques Je parle peu négro mais je balafre Cours même pas quand ça pétarde Scarface d'Afrique, j'suis en promenade Ne parle pas de flingue si tu tires pas Si t'es pas muslim frère ne jure pas Sur le Coran dis pas W'Allah Pour des futilités man ici bas Blasphèmes tasspés et des garres-ba C'est l'ignorance de la tess que je combats 92 leur-dea 93 vénère La concurrence est meurtrie Un son lourd qui tape sur les nerfs 92 leur-dea 93 vénère Pas le temps pour les broutilles Sors l'outil et puis nique sa mère Je crève leur rêve, j'achève Ecoute bien, j't'observe, même ta tte-ch' j'ai niqué ses lèvres J'suis trop chaud peut être qu'un jour je serais célèbre Non j'm'en régale ouais j'ai bien commencé mon seize Sultan t'es non, pousse-toi de là Je nique tout de là, se repentir avant l'au-delà Trop déter' trop sévère quand, j'kick avec Alpha Mort pas à l'appât mais sort l'hameçon tah les J't'bouscule c'est la sur moi t'es canalisé Avec mon flow j't'ai visé, t'as du mal à réaliser Car on boss, car on shoot, car on pousse, les carotte tous Trop de-spee pour toi négro tu vois y a pas de poussin Je les défie, je les enfile, je me les fais Une doudoune car les regards sont froids et divers sont les faits Les prétentieux tombent de haut, c'est bien fait Quartiers Cuverons, Ter', Bagneux, le reste c'est pour les faibles 92 leur-dea 93 vénère La concurrence est meurtrie Un son lourd qui tape sur les nerfs 92 leur-dea 93 vénère Pas le temps pour les broutilles Sors l'outil et puis nique sa mère Ils sont aveugles tant que Sultan n'est pas dans l'écran Le rap c'est carnivore y a plus de petit y a plus de grand Tu pétes un câble, moi c'est pépère comme d'hab' Dakar, Moroni, C4 Clan, Ghetto Fab' C'est pour tous les territoires hostiles Tilleuls, Blanc-Mesnil, la Courneuve, les 4000 T'as le aux sse-fe non, c'est pas du bluff 92 la me-me et la haine pour les keufs Des sous les palmiers Crapules sont nos avocats et banquiers Hors la loi, Ghetto Fab' Family Discriminé comme dans le Tennessee Héritier de Tupac nos ennemis Sans pitié on les baise comme Kennedy Killer, killer, Seine-Saint-Denis Bagneux, Hauts-de-Seine jusqu'à Moroni 92 leur-dea 93 vénère La concurrence est meurtrie Un son lourd qui tape sur les nerfs 92 leur-dea 93 vénère Pas le temps pour les broutilles Sors l'outil et puis nique sa mère</t>
         </is>
       </c>
     </row>
@@ -2868,12 +2868,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Stars des HLM</t>
+          <t>Tel un prophète</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Mon son dans l'top 10 des maisons d'arrêt Des phases qui font marrer, mon blase tatoué sur tous les murs au cran d'arrêt Pose ma dédicace sur des feuilles d'OCB Oh, c'est bon, fais fonctionner la CB, ma gueule, wesh, c'est 10 euros l'CD J'ai jamais vu Batman sur l'toit d'nos bâtiments jamais Rien qu'des Partyman et des bolosses qui connaîtront tous le même châtiment Partout, ça bibi, élevés au MOP, Al Pacino, Takeshi Kitano et MOBB Le rap qui sent la pisse dans l'ascenseur, la pression ? C'est dans les pneus J'ai d'l'inspi', arrache-moi vite une feuille de classeur Sur l'prochain clip, j'suis là, j'potasse Y a une partouze de jalouses, des MC, des connasses, d'la merde sous la godasse On traîne des zoulettes qui ont l'même corps que Barbi Sur la moustache à Larbi, mon Gucci pue la crêpe chicken des frères Barbiche Le hip-hop, c'est notre propriété c'est à nous, ça Même en état d'ébriété, viens t'abriter dans la tess des célébrités Du matos dans les boîtes aux lettres, clé PTT La BAC vient rouspéter, y a un concert privé dans les caves à VTT C'est la musique des guesh tout plein à fond dans l'tuning Des Maghrébos du terter, des Bamboulas balèzes comme Mouss Diouf dans les movings Voici les stars des HLM Fais flipper les chtars comme le FLNC, Burberry et pas HM Être violent et faire du cash, elle aime Quand Escobar Macson et Alpha 5.20 parlent de haches et d'haine Voici les stars des HLM Fais flipper les chtars comme le FLNC, Burberry et pas HM Être violent et faire du cash, elle aime Quand Escobar Macson et Alpha 5.20 parlent de haches et d'haine C'est un manque de respect quand un négro nie Ton investissement même, c'est pas qu'des prix Déclenche le mal en moi comme le 666 Démons parlent dans ma tête, je vois des crucifix J'suis musulman et je crois au Christ Mais je tends pas la joue si quelqu'un m'offusque J'aime voir à terre le corps de mes ennemis Et j'm'en fous qu'après, leur mère pousse des cris Si si, négro, le Diable m'attendait Et j't'avoue que parfois, moi, j'ai dû céder Évacuer de mon cur tout l'amour que j'avais Mémoire d'esclave, j'suis qu'un rancunier Grossiers propos avant la négociation Yes we can, papa, comme l'a dit Patson Faire du mal à ta mère comme avorter son rejeton Épinay, Villetaneuse, capitale des démons Foyer de rébellion, textile en teflon Les cuirs sont pleins d'négros quand y a plus de gibier Drogues dures et armes à feu, c'est chez nous le vivier, frère ! Voici les stars des HLM Fais flipper les chtars comme le FLNC, Burberry et pas HM Être violent et faire du cash, elle aime Quand Escobar Macson et Alpha 5.20 parlent de haches et d'haine Voici les stars des HLM Fais flipper les chtars comme le FLNC, Burberry et pas HM Être violent et faire du cash, elle aime Quand Escobar Macson et Alpha 5.20 parlent de haches et d'haine Yeah, flingue sous l'abdomen, naturel phénomène La vie de rêve nous tente, le Sheitan nous malmène Flingue sous l'abdomen, naturel phénomène La vie de rêve nous tente, le Sheitan nous malmène, hey</t>
+          <t>J'ouvre la porte, j'entrevois des flammes Ma masse corporel a perdu 21 grammes L'Homme est fait de poussière, se réduit en cendre J'crois pas c'que j'vois mais c'qu'j'peux entendre Yeah négro, la rue m'a rendu ignoble Tel un ange déchu j'suis venu, j'ai vu Des femmes toutes nues devant l'argent s'prosternent J'leur en veux même pas en c'qui me concerne Une vie d'chacal sous un ciel gris de France Frère les larmes de ta mère traduisent ma souffrance Conserve mon calme et j'prêche que l'bien Si j't'ai fait du mal frère c'était nécessaire On peut être riche, avoir une vie précaire Quand tu danses avec le diable frère c'est lui qui te gère Combien ont amassés des fortunes mais pas atteint la trentaine Le corps froid dans un cercueil mis en quarantaine Et toute ma vie dans ce Rap j'ai écrit Frère de l'embryon jusqu'à la scène d'autopsie Réalisé des miracles, j'ai marché sur l'eau Boy tel un prophète, frère dans mon ghetto Et toute ma vie dans ce Rap j'ai écrit Frère de l'embryon jusqu'à la scène d'autopsie Réalisé des miracles, j'ai marché sur l'eau Boy tel un prophète, frère dans mon ghetto C'est sur un fil que j'suis né, défouraillais à l'imparfait Appelle le diable au combiné qu'on puisse dans l'éternité OG Doyen j'ai l'cur brisé depuis qu'mon fils et mort-né J'me sens seul abandonné, Lucifer me rit au nez J'ai l'impression j'vais griller, embourbé dans mes pêchés J'ai un bon cur, des fois violent ça j'l'ai jamais jamais caché J'suis motivé pas zombifié même si la roue n'a pas tournée Déterminé Doyen terrien pour les miennes et les miens J'suis sur l'terrain, j'veux pas les miettes, ma vie s'pose pas sur un appui-tête J'entends les sirènes de l'Enfer quand j'pense au mal que j'ai fait Quand j'serai dead me regrette pas, j'm'en bats les couilles de qui t'es La illasse-ca, canon scié y'a qu'avec ça qu'j'me suis marié J'ai plus d'amour dans mon cur, j'me suis renfermé Assis tout seul sur mon canapé à penser qui j'étais J'ai l'goût d'la haine, devenue aigris depuis d'la perte d'mon ls-fi M'en veux pas si j'te parle pas, tout n'est pas si facile Hein ! Et toute ma vie dans ce Rap j'ai écrit Frère de l'embryon jusqu'à la scène d'autopsie Réalisé des miracles, j'ai marché sur l'eau Boy tel un prophète, frère dans mon ghetto Et toute ma vie dans ce Rap j'ai écrit Frère de l'embryon jusqu'à la scène d'autopsie Réalisé des miracles, j'ai marché sur l'eau Boy tel un prophète, frère dans mon ghetto Yo je prête plus attention à ce qu'les négros disent C'est que d'la calomnie, jaloux, et traîtrise M'en bats les couilles de ton ghetto, c'est africain G'z M'en bats les couilles de ton ghetto, c'est africain G'z Je prête plus attention à ce qu'les négros disent C'est que d'la calomnie, jaloux, et traîtrise M'en bats les couilles de ton ghetto, c'est africain G'z M'en bats les couilles de ton ghetto, c'est africain G'z</t>
         </is>
       </c>
     </row>
@@ -2885,12 +2885,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Street Credibility</t>
+          <t>Terre des braves</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Jveux percer, lyrics en silex quon taille dans le ciment Dès que ça clash, les mcs se cachent pour die en silence Cest triste ! La thune rime avec bitume, plumes Tu nseras pas célèbre si tu me tues Mc gilet pare balles, cet mcs nest pas moi Chili Chili Bang Bang, juste un ciné, pas moi Hors scène les vrais négros vivent-ils comme Cent Fifty ? Emmerdant danciennes victimes La tragédie Biggie, Tupac naura pas lieu ici On passe souvent du soft au racailleux Non ! Tu veux tester, pour ta fête, tes pas prêt Jai pas le temps pour un tête à tête, peut être après Quartiers sales, négros affamés Cherche pas il y a mon négro Alpha, yeah ! Crédible ? Cest bien !! Faire du fric ? Ce s'rait pas du luxe... Té-ma Sky The Limit, Ghetto Faboulous ! Street life, face à nous renoi, tes pas crédible Conseil reste tranquille et reste dans ta ville Street life et sur le CD je ne fais pas de crédits Boss de panam, représente à vie bis Boss de panam, Dakar hustler - Dans la rue ? Cest moi ! - Dans le block ? Cest moi ! 5.20, Alpha, 47 AKA Matricule D.K., 5.20, le retour Si tu kiffes pas mes renois, frère, me dit pas bonjour A part la rue fiston, tes loin dêtre comme nous Nous on est des gangsters avec des grands boubous Coupe ! Coupe ! jpavane dans les rues de Yarakh Et Dakar cest la jungle, nègro, matte limpact Mafia Africaine comme les mecs de Vitry Sauf que nous cest Sous Bois, Aulnay, Clichy Mecs braves, finests, mecs dEpinay-sur-Seine Après la bricrave, on va te piner sur scène De lautre côté de la rue quelques-uns mont trahi Renoi si tes pas ébahi, moi je dors avec mes ennemis La rue cest danger, plein de contre-sens Accent de Dakar, cest le bled en France Street life, face à nous renoi, tes pas crédible Conseil reste tranquille et reste dans ta ville Street life et sur le CD je ne fais pas de crédits Boss de panam, représente à vie bis Boss de panam, Dakar hustler Rentre dans le ghetto, mot de passe 9.3 Depuis Rimes et Gloire, tous rappent comme moi Breitling au poignet, plus une graine-de-café Vide tout mon stock négro, matte le pavé Pars le premier car le rap cest du sport On vient de braquer, play boy si tu dors Tony l'a rêvé, Alpha va le faire Je nai pas à prouver, tout mon gang est vé-nér Crédible ? Du plus petit au plus grand malfra Je me présente DIOMAY pour les quelques rares fois Que je représente. Hommage à ceux qui en bavent trop Quand ça part en freestyle, eux, ils partent en live, yo ! Street life, face à nous renoi, tes pas crédible Conseil reste tranquille et reste dans ta ville Street life et sur le CD je ne fais pas de crédits Boss de panam, représente à vie bis Boss de panam, Dakar hustler</t>
+          <t>Yo les fleurs ne poussent pas, que du béton armé Juste la maille de Alpha, gangster incarné Balise ma route, maintenant savent à qui se tater Peut mourir à la seconde parce qu'on s'est maté Jette des pierres aux keufs comme à l'Intifada Tout mon gang est réuni Afrique et Gwada Toute la maille c'est rien négro puis le respect c'est tout Si t'entends des coups de fu mec c'est que t's chez nous ... Gaze ap bâtard moi je viens de Dakar ... négro ça m'est égal Pour mes gens au placard qui poussent derrière des barreaux Et tous mes gens dehors qui font péter des carreaux Écoute ça renoi c'est Alpha j'suis vénère Et si y'a embrouille je bouge pas je t'envoie Shone et KER ... Gaze ap bâtard moi je viens de Dakar ... négro ça m'est égal Pour mes gens au placard qui poussent derrière des barreaux Et tous mes gens dehors qui font péter des carreaux</t>
         </is>
       </c>
     </row>
@@ -2902,12 +2902,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Tape sur les nerfs</t>
+          <t>Thugz</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Je conte le message, tu sens la patate 9.3 mentalité de Bagdad D'humeur kamikaze, sors de gardav' Gladiator du bitume et de l'asphalte Boit le sang des ennemis dans des carafes Baise des tasspés naines ou des girafes Sors en balade avec mes macaques Je parle peu négro mais je balafre Cours même pas quand ça pétarde Scarface d'Afrique, j'suis en promenade Ne parle pas de flingue si tu tires pas Si t'es pas muslim frère ne jure pas Sur le Coran dis pas W'Allah Pour des futilités man ici bas Blasphèmes tasspés et des garres-ba C'est l'ignorance de la tess que je combats 92 leur-dea 93 vénère La concurrence est meurtrie Un son lourd qui tape sur les nerfs 92 leur-dea 93 vénère Pas le temps pour les broutilles Sors l'outil et puis nique sa mère Je crève leur rêve, j'achève Ecoute bien, j't'observe, même ta tte-ch' j'ai niqué ses lèvres J'suis trop chaud peut être qu'un jour je serais célèbre Non j'm'en régale ouais j'ai bien commencé mon seize Sultan t'es non, pousse-toi de là Je nique tout de là, se repentir avant l'au-delà Trop déter' trop sévère quand, j'kick avec Alpha Mort pas à l'appât mais sort l'hameçon tah les J't'bouscule c'est la sur moi t'es canalisé Avec mon flow j't'ai visé, t'as du mal à réaliser Car on boss, car on shoot, car on pousse, les carotte tous Trop de-spee pour toi négro tu vois y a pas de poussin Je les défie, je les enfile, je me les fais Une doudoune car les regards sont froids et divers sont les faits Les prétentieux tombent de haut, c'est bien fait Quartiers Cuverons, Ter', Bagneux, le reste c'est pour les faibles 92 leur-dea 93 vénère La concurrence est meurtrie Un son lourd qui tape sur les nerfs 92 leur-dea 93 vénère Pas le temps pour les broutilles Sors l'outil et puis nique sa mère Ils sont aveugles tant que Sultan n'est pas dans l'écran Le rap c'est carnivore y a plus de petit y a plus de grand Tu pétes un câble, moi c'est pépère comme d'hab' Dakar, Moroni, C4 Clan, Ghetto Fab' C'est pour tous les territoires hostiles Tilleuls, Blanc-Mesnil, la Courneuve, les 4000 T'as le aux sse-fe non, c'est pas du bluff 92 la me-me et la haine pour les keufs Des sous les palmiers Crapules sont nos avocats et banquiers Hors la loi, Ghetto Fab' Family Discriminé comme dans le Tennessee Héritier de Tupac nos ennemis Sans pitié on les baise comme Kennedy Killer, killer, Seine-Saint-Denis Bagneux, Hauts-de-Seine jusqu'à Moroni 92 leur-dea 93 vénère La concurrence est meurtrie Un son lourd qui tape sur les nerfs 92 leur-dea 93 vénère Pas le temps pour les broutilles Sors l'outil et puis nique sa mère</t>
+          <t>Yeah ! Seth Gueko, Alpha, M.O.D.I.T Mets la tête dans un étau, si tu paies pas très tôt les modalités Yo Thugz ! On fout lzbeul dans les soirées players Thugz, Thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Devant les schmits aucune frayeur On porte les flingues les meilleurs, les fringues les meilleures Yo thugz ! Fout lzbeul dans les soirées players Thugz, thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Sur lter-ter à nimporte quelle heure Si tu crois que les keufs ont du cur, tu fais erreur Primo ! Je ferai du cash avant dêtre vieux-jeu Deuzio ! On fait pas dcocard sans casser des yeux Trois ! Pour une facture impayée on tfracture les ossements Quatre ! Si tu crois quModit mon soss ment, tu te trompes faussement Cinq ! Jai lchien dla caissière à la beuj Car depuis gamin dans les sins-ga-ma Jai la main balladeuse Ttrouveras pt-être la loi n 6 odieuse Car, Seth opère à la scie sauteuse Ya pas ddifférence entre un ke-fli et un âne Entre un porc et Koffi Annan Khalass ! Il mfaut du ke-fri un max yo ! Masta, tes vraiment trop stupide stu tconfies à oim Rap maudit, on tfait les poches pendant qutapplaudis On ssert dans lreservoir dla pape-mobile pour faire nos cocktails Molotov On trinque à la Smirnoff, pour la mort aux profs Jaime pas recevoir dordres Que Dieu mpréserve dla drogue et des poucaves, comme dans Reservoir Dogs Ne jamais décevoir le boss - yo Masta ! Ou tu vas recevoir des bosses Yo Thugz ! On fout lzbeul dans les soirées players Thugz, Thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Devant les schmits aucune frayeur On porte les flingues les meilleurs, les fringues les meilleures Yo thugz ! Fout lzbeul dans les soirées players Thugz, thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Sur lter-ter à nimporte quelle heure Si tu crois que les keufs ont du cur, tu fais erreur Première lettre Alpha, paré pour le combat Lui il garde lil du tigre à la Rocky Balboa À quoi sert petit con de clasher un boa Tu vas mourir étouffé juste en bas dchez toi Fais flipper ldocteur, ligne droite à lécran Plus une veuve qui pleure, battements de cur, néant Un géant qui spavane au milieu des nabots Moi jsuis un ancien, le rap cest pour les ados Mais bande de bâtards ! Envers vous jétais tolérant Arrête de mentir, jurer sur lCoran ! Plein dchiens errants, frère, se mettent à rêver Croient trouver une femelle, mais en fait se branlaient Tourne pas à droite, tu vas tfaire violer À Clichy-sous-Bois, mes renois vont tétaler À lancienne, Arsenik, viens manger lgoudron On balance les poucaves, boy, du haut des avions La vérité absolue, rap de France caneurs Jai la rime K-1 à la Jérôme Le Banner Ils disent qulargent ne change pas un vrai renoi Moi je porte mon flingue, jsuis encore un vrai renoi Fait que tu piges déjà, comme le temps quil mreste Comme mon pote O'rosko, jai quune vie à vivre Jvais baiser des 'tasses, jvais tirer mon flingue Si un renoi parle mal, jensanglante ses fringues De plus, aucune tess ne peut niquer Dakar Des mes-ar et des bolides cachés sous lhangar Renoi renoi renoi renoi renoi Yo Thugz ! On fout lzbeul dans les soirées players Thugz, Thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Devant les schmits aucune frayeur On porte les flingues les meilleurs, les fringues les meilleures Yo thugz ! Fout lzbeul dans les soirées players Thugz, thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Sur lter-ter à nimporte quelle heure Si tu crois que les keufs ont du cur, tu fais erreur Jsuis vnu pour lcash Papi Yo Thugz ! On fout lzbeul dans les soirées players Thugz, Thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Devant les schmits aucune frayeur On porte les flingues les meilleurs, les fringues les meilleures Yo thugz ! Fout lzbeul dans les soirées players Thugz, thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Sur lter-ter à nimporte quelle heure Si tu crois que les keufs ont du cur, tu fais erreur</t>
         </is>
       </c>
     </row>
@@ -2919,12 +2919,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Tel un prophète</t>
+          <t>Tous les quartiers</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>J'ouvre la porte, j'entrevois des flammes Ma masse corporel a perdu 21 grammes L'Homme est fait de poussière, se réduit en cendre J'crois pas c'que j'vois mais c'qu'j'peux entendre Yeah négro, la rue m'a rendu ignoble Tel un ange déchu j'suis venu, j'ai vu Des femmes toutes nues devant l'argent s'prosternent J'leur en veux même pas en c'qui me concerne Une vie d'chacal sous un ciel gris de France Frère les larmes de ta mère traduisent ma souffrance Conserve mon calme et j'prêche que l'bien Si j't'ai fait du mal frère c'était nécessaire On peut être riche, avoir une vie précaire Quand tu danses avec le diable frère c'est lui qui te gère Combien ont amassés des fortunes mais pas atteint la trentaine Le corps froid dans un cercueil mis en quarantaine Et toute ma vie dans ce Rap j'ai écrit Frère de l'embryon jusqu'à la scène d'autopsie Réalisé des miracles, j'ai marché sur l'eau Boy tel un prophète, frère dans mon ghetto Et toute ma vie dans ce Rap j'ai écrit Frère de l'embryon jusqu'à la scène d'autopsie Réalisé des miracles, j'ai marché sur l'eau Boy tel un prophète, frère dans mon ghetto C'est sur un fil que j'suis né, défouraillais à l'imparfait Appelle le diable au combiné qu'on puisse dans l'éternité OG Doyen j'ai l'cur brisé depuis qu'mon fils et mort-né J'me sens seul abandonné, Lucifer me rit au nez J'ai l'impression j'vais griller, embourbé dans mes pêchés J'ai un bon cur, des fois violent ça j'l'ai jamais jamais caché J'suis motivé pas zombifié même si la roue n'a pas tournée Déterminé Doyen terrien pour les miennes et les miens J'suis sur l'terrain, j'veux pas les miettes, ma vie s'pose pas sur un appui-tête J'entends les sirènes de l'Enfer quand j'pense au mal que j'ai fait Quand j'serai dead me regrette pas, j'm'en bats les couilles de qui t'es La illasse-ca, canon scié y'a qu'avec ça qu'j'me suis marié J'ai plus d'amour dans mon cur, j'me suis renfermé Assis tout seul sur mon canapé à penser qui j'étais J'ai l'goût d'la haine, devenue aigris depuis d'la perte d'mon ls-fi M'en veux pas si j'te parle pas, tout n'est pas si facile Hein ! Et toute ma vie dans ce Rap j'ai écrit Frère de l'embryon jusqu'à la scène d'autopsie Réalisé des miracles, j'ai marché sur l'eau Boy tel un prophète, frère dans mon ghetto Et toute ma vie dans ce Rap j'ai écrit Frère de l'embryon jusqu'à la scène d'autopsie Réalisé des miracles, j'ai marché sur l'eau Boy tel un prophète, frère dans mon ghetto Yo je prête plus attention à ce qu'les négros disent C'est que d'la calomnie, jaloux, et traîtrise M'en bats les couilles de ton ghetto, c'est africain G'z M'en bats les couilles de ton ghetto, c'est africain G'z Je prête plus attention à ce qu'les négros disent C'est que d'la calomnie, jaloux, et traîtrise M'en bats les couilles de ton ghetto, c'est africain G'z M'en bats les couilles de ton ghetto, c'est africain G'z</t>
+          <t>Tu sais déjà, Ghetto Fab Alpha 5.20, Holocost O'Rosko, pour tous les quartiers que l'Etat délaisse Ghetto Fabulous, Ghetto Fabulous En bas du bloc frère, j'ai de la maille sous mon jean, j'ai un holster Ghetto Fabulous Gang, que des gangsters Tu feras rien à part déchirer le poster 93, les grandes gueules vont se taire Tous mes négros smokent la 'indo De Dakar à 77 Et les tasspés s'accrochent aux pénis J'ai les couilles grosses comme une balle de tennis Dess-dess roule 38 silhouette Carats 24 Graine caf gourmette Qui nous voient mais marchent à téco Raconte pas ta life comme Al Peco On fonce dans le mur AyrtonSenna Orgemont, 3 keus et Clichy Sous Bois C'est pour mes thugs qui crient West Side 93 Ça c'est un truc pour tous les quartiers que l'état délaisse Où y'a trop de biz et y'a trop de leust Négro monte le son si t'as un K de luxe Alpha, Holocost, Ghetto Fabulous Pour tous les quartiers que l'état délaisse Où y'a trop de biz et y'a trop de leust Négro monte le son si t'as un K de luxe Alpha, Holocost, Ghetto Fabulous Putain d'famille du ghetto, loin d'Kadigeta La cité ou au card-pla pour les reufrés pas acquittés Rien que ça parle dans le B9 parle de dièzes pour le bénéf Tout ça sponsorisé par Leffe J'vais pas te mentir boy rarement en boîte Au sky je me pète pas la boîte pour que le dimanche ça boîte Pas de Paname by night la BAC bonhomme Maglite dans ta gueule à côté de ton reuf dégueule Tu connais notre ambiance Forest Foss Hall Teum teum bédo cool-al bédave Délinquance pour les badauds du lundi au manche-di 2-3 euros je fais péter à Aldi sisi Avec mes soss ça parle de CC 206 De pèze mec ou de 116 de biz coupé 406 320D fils, ambiance illicite Ah shit, ça smoke ton smic Ça c'est un truc pour tous les quartiers que l'état délaisse Où y'a trop de biz et y'a trop de leust Négro monte le son si t'as un K de luxe Alpha, Holocost, Ghetto Fabulous Pour tous les quartiers que l'état délaisse Où y'a trop de biz et y'a trop de leust Négro monte le son si t'as un K de luxe Alpha, Holocost, Ghetto Fabulous le monde te fais signe qui arrivent au week-end Après les coups de feu tu sais tous envie de ken Mais si t'as pas de plan c'est soirée bâtiment Plein évidemment plein a l'Heineken, et nickel est l'ambiance qui règne Pas de mecs qui portent plainte juste des mecs qui se plaignent pas Qui partagent le même pain Opel opinel Ghetto Fabulous Gang descend les femelles Roule à 200 dans leurs tunnels Et ça tourne et t'es bien pour péter le mic' Si t'es out si t'es mort enlève moi ce mec T'es blessé parce que je rappe sec Ke-ba la maitrise pas au bloc Bref, c'est juste une aparté d'la soirée Maintenant on passe aux choses sérieuses Pétasse pose mon blouson, mon bloc sous la table, mes feuilles Mon portable dans la ve-ca, l'équipe port d'arme Ça c'est un truc pour tous les quartiers que l'état délaisse Où y'a trop de biz et y'a trop de leust Négro monte le son si t'as un K de luxe Alpha, Holocost, Ghetto Fabulous Pour tous les quartiers que l'état délaisse Où y'a trop de biz et y'a trop de leust Négro monte le son si t'as un K de luxe Alpha, Holocost, Ghetto Fabulous</t>
         </is>
       </c>
     </row>
@@ -2936,12 +2936,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Terre des braves</t>
+          <t>Tout ce que je veux</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Yo les fleurs ne poussent pas, que du béton armé Juste la maille de Alpha, gangster incarné Balise ma route, maintenant savent à qui se tater Peut mourir à la seconde parce qu'on s'est maté Jette des pierres aux keufs comme à l'Intifada Tout mon gang est réuni Afrique et Gwada Toute la maille c'est rien négro puis le respect c'est tout Si t'entends des coups de fu mec c'est que t's chez nous ... Gaze ap bâtard moi je viens de Dakar ... négro ça m'est égal Pour mes gens au placard qui poussent derrière des barreaux Et tous mes gens dehors qui font péter des carreaux Écoute ça renoi c'est Alpha j'suis vénère Et si y'a embrouille je bouge pas je t'envoie Shone et KER ... Gaze ap bâtard moi je viens de Dakar ... négro ça m'est égal Pour mes gens au placard qui poussent derrière des barreaux Et tous mes gens dehors qui font péter des carreaux</t>
+          <t>C'est pour ma family mes OG à l'attitude de la Californie Doyen OG bandit, un 16 crimes je brandis Plus je m'exprime plus ma rime grandit Sexe, crimes la rue m'a vu grandir Tu sais que je tire des taffes, mets des baffes, des barres au vestiaire Investis dans un label, fais rapper la taule bâtard Sortez les poils, les pelles, préparez le cimetière J'viens grailler enterrer ce putain de rap français Cadenasser le M.I.C te sens pas offensé ... Tout ce que je veux négro c'est faire de la maille Serre des tass, Eazy-E dans ma ride Tout ce que je veux négro blanchir mes thunes Rouler sans permis avec les mecs de ma street Tout ce que je veux négro c'est faire de la maille Serre des tass, Eazy-E dans ma ride Tout ce que je veux négro blanchir mes thunes Rouler sans permis avec les mecs de ma street Ile de France négro drive by music Comme les rues de Compton en 8.7 s'applique Man les keufs et les traîtres veulent gêner le trafic Tant qu'y'a pas de gros sous moi je dirai pas dig West Coast chronic paix à Eazy E Sans limite bicrave frère comme Master P Au delà de la tess Alpha est soldat Venu baiser les charts comme Prose Combat Après les sapes et les immeubles moi j'aurai des sodas Ghetto Fabulous Gang baise Coca Cola Et t'as beau critiquer Dakar va briller Nos ennemis arrivent debout puis repartent pliés Priez que le ciel soit toujours avec vous La hagra ... le sol Seine Saint Denis zoo C'est du gangsta rap musique d'insomniaques Les indés qui baisent tout même Planète rap Tout ce que je veux négro c'est faire de la maille Serre des tass, Eazy-E dans ma ride Tout ce que je veux négro blanchir mes thunes Rouler sans permis avec les mecs de ma street Tout ce que je veux négro c'est faire de la maille Serre des tass, Eazy-E dans ma ride Tout ce que je veux négro blanchir mes thunes Rouler sans permis avec les mecs de ma street</t>
         </is>
       </c>
     </row>
@@ -2953,12 +2953,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Thugz</t>
+          <t>Tout ce qui me tue pas</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Yeah ! Seth Gueko, Alpha, M.O.D.I.T Mets la tête dans un étau, si tu paies pas très tôt les modalités Yo Thugz ! On fout lzbeul dans les soirées players Thugz, Thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Devant les schmits aucune frayeur On porte les flingues les meilleurs, les fringues les meilleures Yo thugz ! Fout lzbeul dans les soirées players Thugz, thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Sur lter-ter à nimporte quelle heure Si tu crois que les keufs ont du cur, tu fais erreur Primo ! Je ferai du cash avant dêtre vieux-jeu Deuzio ! On fait pas dcocard sans casser des yeux Trois ! Pour une facture impayée on tfracture les ossements Quatre ! Si tu crois quModit mon soss ment, tu te trompes faussement Cinq ! Jai lchien dla caissière à la beuj Car depuis gamin dans les sins-ga-ma Jai la main balladeuse Ttrouveras pt-être la loi n 6 odieuse Car, Seth opère à la scie sauteuse Ya pas ddifférence entre un ke-fli et un âne Entre un porc et Koffi Annan Khalass ! Il mfaut du ke-fri un max yo ! Masta, tes vraiment trop stupide stu tconfies à oim Rap maudit, on tfait les poches pendant qutapplaudis On ssert dans lreservoir dla pape-mobile pour faire nos cocktails Molotov On trinque à la Smirnoff, pour la mort aux profs Jaime pas recevoir dordres Que Dieu mpréserve dla drogue et des poucaves, comme dans Reservoir Dogs Ne jamais décevoir le boss - yo Masta ! Ou tu vas recevoir des bosses Yo Thugz ! On fout lzbeul dans les soirées players Thugz, Thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Devant les schmits aucune frayeur On porte les flingues les meilleurs, les fringues les meilleures Yo thugz ! Fout lzbeul dans les soirées players Thugz, thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Sur lter-ter à nimporte quelle heure Si tu crois que les keufs ont du cur, tu fais erreur Première lettre Alpha, paré pour le combat Lui il garde lil du tigre à la Rocky Balboa À quoi sert petit con de clasher un boa Tu vas mourir étouffé juste en bas dchez toi Fais flipper ldocteur, ligne droite à lécran Plus une veuve qui pleure, battements de cur, néant Un géant qui spavane au milieu des nabots Moi jsuis un ancien, le rap cest pour les ados Mais bande de bâtards ! Envers vous jétais tolérant Arrête de mentir, jurer sur lCoran ! Plein dchiens errants, frère, se mettent à rêver Croient trouver une femelle, mais en fait se branlaient Tourne pas à droite, tu vas tfaire violer À Clichy-sous-Bois, mes renois vont tétaler À lancienne, Arsenik, viens manger lgoudron On balance les poucaves, boy, du haut des avions La vérité absolue, rap de France caneurs Jai la rime K-1 à la Jérôme Le Banner Ils disent qulargent ne change pas un vrai renoi Moi je porte mon flingue, jsuis encore un vrai renoi Fait que tu piges déjà, comme le temps quil mreste Comme mon pote O'rosko, jai quune vie à vivre Jvais baiser des 'tasses, jvais tirer mon flingue Si un renoi parle mal, jensanglante ses fringues De plus, aucune tess ne peut niquer Dakar Des mes-ar et des bolides cachés sous lhangar Renoi renoi renoi renoi renoi Yo Thugz ! On fout lzbeul dans les soirées players Thugz, Thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Devant les schmits aucune frayeur On porte les flingues les meilleurs, les fringues les meilleures Yo thugz ! Fout lzbeul dans les soirées players Thugz, thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Sur lter-ter à nimporte quelle heure Si tu crois que les keufs ont du cur, tu fais erreur Jsuis vnu pour lcash Papi Yo Thugz ! On fout lzbeul dans les soirées players Thugz, Thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Devant les schmits aucune frayeur On porte les flingues les meilleurs, les fringues les meilleures Yo thugz ! Fout lzbeul dans les soirées players Thugz, thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Sur lter-ter à nimporte quelle heure Si tu crois que les keufs ont du cur, tu fais erreur</t>
+          <t>Boy tout ce qui ne tue pas négro me rend plus fort Petits frères sont blessés et les autres à la morgue Ils veulent nous voir dans le rouge, ils veulent savoir quand on morfle Alors fuck Nicolas, négro fuck Nicolas Boy tout ce qui ne tue pas négro me rend plus fort Petits frères sont blessés et les autres à la morgue Ils veulent nous voir dans le rouge, ils veulent savoir quand on morfle Alors fuck Nicolas, boy fuck Nicolas Négro je t'ai dit tout ce qui brille n'est pas or Puis rgarde dans mes yeux tout c que tu vois c'est la mort C'est le retour du patron derrière moi c'est Raricim ... Ghetto Fabulous Gang nous on met la patate ... Ta vie ne tient qu'à un fil suspendu à un pont ... Boy tout ce qui ne tue pas négro me rend plus fort Petits frères sont blessés et les autres à la morgue Ils veulent nous voir dans le rouge, ils veulent savoir quand on morfle Alors fuck Nicolas, négro fuck Nicolas Boy tout ce qui ne tue pas négro me rend plus fort Petits frères sont blessés et les autres à la morgue Ils veulent nous voir dans le rouge, ils veulent savoir quand on morfle Alors fuck Nicolas, boy fuck Nicolas ...</t>
         </is>
       </c>
     </row>
@@ -2970,12 +2970,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Tous les quartiers</t>
+          <t>Trucs sales</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Tu sais déjà, Ghetto Fab Alpha 5.20, Holocost O'Rosko, pour tous les quartiers que l'Etat délaisse Ghetto Fabulous, Ghetto Fabulous En bas du bloc frère, j'ai de la maille sous mon jean, j'ai un holster Ghetto Fabulous Gang, que des gangsters Tu feras rien à part déchirer le poster 93, les grandes gueules vont se taire Tous mes négros smokent la 'indo De Dakar à 77 Et les tasspés s'accrochent aux pénis J'ai les couilles grosses comme une balle de tennis Dess-dess roule 38 silhouette Carats 24 Graine caf gourmette Qui nous voient mais marchent à téco Raconte pas ta life comme Al Peco On fonce dans le mur AyrtonSenna Orgemont, 3 keus et Clichy Sous Bois C'est pour mes thugs qui crient West Side 93 Ça c'est un truc pour tous les quartiers que l'état délaisse Où y'a trop de biz et y'a trop de leust Négro monte le son si t'as un K de luxe Alpha, Holocost, Ghetto Fabulous Pour tous les quartiers que l'état délaisse Où y'a trop de biz et y'a trop de leust Négro monte le son si t'as un K de luxe Alpha, Holocost, Ghetto Fabulous Putain d'famille du ghetto, loin d'Kadigeta La cité ou au card-pla pour les reufrés pas acquittés Rien que ça parle dans le B9 parle de dièzes pour le bénéf Tout ça sponsorisé par Leffe J'vais pas te mentir boy rarement en boîte Au sky je me pète pas la boîte pour que le dimanche ça boîte Pas de Paname by night la BAC bonhomme Maglite dans ta gueule à côté de ton reuf dégueule Tu connais notre ambiance Forest Foss Hall Teum teum bédo cool-al bédave Délinquance pour les badauds du lundi au manche-di 2-3 euros je fais péter à Aldi sisi Avec mes soss ça parle de CC 206 De pèze mec ou de 116 de biz coupé 406 320D fils, ambiance illicite Ah shit, ça smoke ton smic Ça c'est un truc pour tous les quartiers que l'état délaisse Où y'a trop de biz et y'a trop de leust Négro monte le son si t'as un K de luxe Alpha, Holocost, Ghetto Fabulous Pour tous les quartiers que l'état délaisse Où y'a trop de biz et y'a trop de leust Négro monte le son si t'as un K de luxe Alpha, Holocost, Ghetto Fabulous le monde te fais signe qui arrivent au week-end Après les coups de feu tu sais tous envie de ken Mais si t'as pas de plan c'est soirée bâtiment Plein évidemment plein a l'Heineken, et nickel est l'ambiance qui règne Pas de mecs qui portent plainte juste des mecs qui se plaignent pas Qui partagent le même pain Opel opinel Ghetto Fabulous Gang descend les femelles Roule à 200 dans leurs tunnels Et ça tourne et t'es bien pour péter le mic' Si t'es out si t'es mort enlève moi ce mec T'es blessé parce que je rappe sec Ke-ba la maitrise pas au bloc Bref, c'est juste une aparté d'la soirée Maintenant on passe aux choses sérieuses Pétasse pose mon blouson, mon bloc sous la table, mes feuilles Mon portable dans la ve-ca, l'équipe port d'arme Ça c'est un truc pour tous les quartiers que l'état délaisse Où y'a trop de biz et y'a trop de leust Négro monte le son si t'as un K de luxe Alpha, Holocost, Ghetto Fabulous Pour tous les quartiers que l'état délaisse Où y'a trop de biz et y'a trop de leust Négro monte le son si t'as un K de luxe Alpha, Holocost, Ghetto Fabulous</t>
+          <t>Ça fait des années que je répète ça. L'enfoiré qui l'entend, il meurt aussitôt. J'avais jamais cherché à comprendre, je trouvais seulement que ça en jetait de dire ça avant de flinguer un mec. Et puis ce matin j'ai vu quelque chose qui m'a fait réfléchir. D'un seul coup je me dis, que ça pourrait bien vouloir dire que tu es l'oeuvre du malin, et que l'homme vertueux c'est moi, et que mon joli 9mm ce serait mon protecteur, mon berger dans la vallée de l'angoisse et des larmes. Ou encore mieux, c'est moi le berger, et toi l'homme vertueux, et que c'est l'oeuvre du monde qui est l'oeuvre de Lucifer Mais Dieu merci négro, je suis plus dans la daube Maintenant que les trafiquants, pour les flics sont des taupes Et tu sais, tu sais négro, on fait des trucs sales De mon balcon je pisse, arrose les fleurs du mal Inhale de l'oxygène, crache des glaires de haine Et sur le trottoir frère, j'ai placé des reines Du plaisir charnel peau ébène et caramel Tu sens le Diable en toi, dès que tu touches leurs mamelles Lucifer est dans ma rue, le mal est dans ma vie Plein de Judas à ma table, je vois le bout du crucifix Des païens qui prit que Ghetto Fab soit fini Je pense au sacrilège puis comment je l'ai puni Hante mon esprit, les démons ricanent J'y crois au Tout-Puissant, mais je suis au bord du Sheitan Fièvre dans la jungle, idée sacrée ou profane Comment parler aux djinns comme le prophète Suleyman La haine est dans mes yeux, la mort est sur mes lèvres Je pense à mes ennemis, je pense à mes ennemis Je pense à tous ces frères qui ont voulu me trahir Pourtant je les ai nourris, pourtant je les ai nourris La haine est dans mes yeux, la mort est sur mes lèvres Je pense à mes ennemis, je pense à mes ennemis Je pense à tous ces frères qui ont voulu me trahir Pourtant je les ai nourris, pourtant je les ai nourris Quatrième dimension, je maîtrise le vent Il me manque dans la vie que l'cinquième élément Et ma musique s'écoute frère, au fond des cimetières Ambiance outre-tombe, y a du sang dans mon verre J'arrive pas à voir clair, c'est le trou noir Couloir de la mort, j'ai perdu tous mes pouvoirs Maléfique, satanique, retour en Afrique, pour me laver A force de vivre en France boy, on finit encrassé Passer devant les sorciers, confectionner des grigris Mutilant les albinos, et ceux qui ont la trisomie L'empire maudit, le prince des Ténèbres Des sacrifices humains, en bas d'ma fenêtre Je te lai dit négro, on fait des trucs sales De mon balcon je pisse, arrose les fleurs du mal Et si j'meurs qu'on m'enterre avec mon argent Qu'on se rappelle qu'à moi seul, j'ai niqué tous les agents La haine est dans mes yeux, la mort est sur mes lèvres Je pense à mes ennemis, je pense à mes ennemis Je pense à tous ces frères qui ont voulu me trahir Pourtant je les ai nourris, pourtant je les ai nourris La haine est dans mes yeux, la mort est sur mes lèvres Je pense à mes ennemis, je pense à mes ennemis Je pense à tous ces frères qui ont voulu me trahir Pourtant je les ai nourris, pourtant je les ai nourris Et tu sais, tu sais négro, on fait des trucs sales La vie de rêve nous tend, on cotoît le mal Je suis sur l'autoroute, je suis déjà gé-char Et j'arrive de l'au-delà, envahir la capitale Et tu sais, tu sais négro, on fait des trucs sales La vie de rêve nous tend, on cotoît le mal Je suis sur l'autoroute, je suis déjà gé-char Et j'arrive de l'au-delà, envahir la capitale Calamité naturelle, moins de mois de misère Que Dieu protège l'Afrique de ses tremblements de terre Quand le Diable danse la nuit sur la terre de Haïti Décombres et gravats, c'est la mort qui m'envahit Une chair trop froide, les morts ne parlent pas La peur est dans tes yeux, eux ne mententt pas Une chair trop froide, les morts ne parlent pas La mort est dans tes yeux frère, eux ne mentent pas La haine est dans mes yeux, la mort est sur mes lèvres Je pense à mes ennemis, je pense à mes ennemis Je pense à tous ces frères qui ont voulu me trahir Pourtant je les ai nourris, pourtant je les ai nourris La haine est dans mes yeux, la mort est sur mes lèvres Je pense à mes ennemis, je pense à mes ennemis Je pense à tous ces frères qui ont voulu me trahir Pourtant je les ai nourris, pourtant je les ai nourris</t>
         </is>
       </c>
     </row>
@@ -2987,12 +2987,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Tout ce que je veux</t>
+          <t>Tupac est de retour</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>C'est pour ma family mes OG à l'attitude de la Californie Doyen OG bandit, un 16 crimes je brandis Plus je m'exprime plus ma rime grandit Sexe, crimes la rue m'a vu grandir Tu sais que je tire des taffes, mets des baffes, des barres au vestiaire Investis dans un label, fais rapper la taule bâtard Sortez les poils, les pelles, préparez le cimetière J'viens grailler enterrer ce putain de rap français Cadenasser le M.I.C te sens pas offensé ... Tout ce que je veux négro c'est faire de la maille Serre des tass, Eazy-E dans ma ride Tout ce que je veux négro blanchir mes thunes Rouler sans permis avec les mecs de ma street Tout ce que je veux négro c'est faire de la maille Serre des tass, Eazy-E dans ma ride Tout ce que je veux négro blanchir mes thunes Rouler sans permis avec les mecs de ma street Ile de France négro drive by music Comme les rues de Compton en 8.7 s'applique Man les keufs et les traîtres veulent gêner le trafic Tant qu'y'a pas de gros sous moi je dirai pas dig West Coast chronic paix à Eazy E Sans limite bicrave frère comme Master P Au delà de la tess Alpha est soldat Venu baiser les charts comme Prose Combat Après les sapes et les immeubles moi j'aurai des sodas Ghetto Fabulous Gang baise Coca Cola Et t'as beau critiquer Dakar va briller Nos ennemis arrivent debout puis repartent pliés Priez que le ciel soit toujours avec vous La hagra ... le sol Seine Saint Denis zoo C'est du gangsta rap musique d'insomniaques Les indés qui baisent tout même Planète rap Tout ce que je veux négro c'est faire de la maille Serre des tass, Eazy-E dans ma ride Tout ce que je veux négro blanchir mes thunes Rouler sans permis avec les mecs de ma street Tout ce que je veux négro c'est faire de la maille Serre des tass, Eazy-E dans ma ride Tout ce que je veux négro blanchir mes thunes Rouler sans permis avec les mecs de ma street</t>
+          <t>Le ciel montez-moi j'ai écrit mon destin Livré des combats un glaive à la main Arraché des terrains, fait pleurer des gangsters Mon récit est cruel, rempli de mystères Maman ne pleure pas, sois fière de moi Du nord au sud l'Afrique peut compter sur moi Violence héréditaire, Dakar est aux abois J'arrête pas d'envoyer des valises de CFA Makaveli Alpha toujours hors la loi J'attends juste qu'ils viennent pour me lire ms droits Les armes pleurnt puis après les coeurs deviennent froids Je parle trop de violence, en la paix j'ai foi Tends l'oreille négro les propos sont sulfureux La mort arrive en bécane, j'ai le regard ténébreux Calibré minimum, c'est du 11.43 A coup sûr frelon perfore ton estomac Viens avec moi Mec de tess c'est ton frère Alpha 20.25 caillera Jusqu'à la mort c'est Dakar soldat lalalala Viens avec moi Mec de tess c'est ton frère Alpha 20.25 caillera Jusqu'à la mort c'est Dakar soldat lalalala ... West Coast Dakar, jamais peur de la mort Mes prières vont droit au Sénégal d'abord Y'a t-il un paradis pour les gangsters frère ? 93 ma résidence à quelques pas de l'enfer West Coast Dakar, jamais peur de la mort Mes prières vont droit au Sénégal d'abord Y'a t-il un paradis pour les gangsters frère ? 93 ma résidence à quelques pas de l'enfer</t>
         </is>
       </c>
     </row>
@@ -3004,12 +3004,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Tout ce qui me tue pas</t>
+          <t>Un monde tout blanc</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Boy tout ce qui ne tue pas négro me rend plus fort Petits frères sont blessés et les autres à la morgue Ils veulent nous voir dans le rouge, ils veulent savoir quand on morfle Alors fuck Nicolas, négro fuck Nicolas Boy tout ce qui ne tue pas négro me rend plus fort Petits frères sont blessés et les autres à la morgue Ils veulent nous voir dans le rouge, ils veulent savoir quand on morfle Alors fuck Nicolas, boy fuck Nicolas Négro je t'ai dit tout ce qui brille n'est pas or Puis rgarde dans mes yeux tout c que tu vois c'est la mort C'est le retour du patron derrière moi c'est Raricim ... Ghetto Fabulous Gang nous on met la patate ... Ta vie ne tient qu'à un fil suspendu à un pont ... Boy tout ce qui ne tue pas négro me rend plus fort Petits frères sont blessés et les autres à la morgue Ils veulent nous voir dans le rouge, ils veulent savoir quand on morfle Alors fuck Nicolas, négro fuck Nicolas Boy tout ce qui ne tue pas négro me rend plus fort Petits frères sont blessés et les autres à la morgue Ils veulent nous voir dans le rouge, ils veulent savoir quand on morfle Alors fuck Nicolas, boy fuck Nicolas ...</t>
+          <t>J'suis qu'un noir dans un monde tout blanc J'utilise ma haine pour aller de l'avant Négro, j'ai pas d'potos, je préfère les animaux Je préfère rester seul, mon coeur bat pour le ghetto J'suis qu'un noir dans un monde tout blanc J'utilise ma haine pour aller de l'avant Négro, j'ai pas d'potos, je préfère les animaux Je préfère rester seul, mon coeur bat pour le ghetto Mec de tess couilles en fer, voiture d'Allemagne Je charclais un mulet, péage d'espagne Perpignan Montpellier, Viaduc de Millau Clermont, Vierzon, tape une pointe sur Orléans Péage de Dourdans, rentre dans l'Essonne Évite les pirates comme natif l'égyptien Qui va finir dans le coffre reniflé par les chiens Les miens abordent la vie à 180 Puisse dieu nous éloigner des pédophiles et consanguins J'suis qu'un noir dans un monde tout blanc J'utilise ma haine pour aller de l'avant Négro, j'ai pas d'potos, je préfère les animaux Je préfère rester seul, mon coeur bat pour le ghetto J'suis qu'un noir dans un monde tout blanc J'utilise ma haine pour aller de l'avant Négro, j'ai pas d'potos, je préfère les animaux Je préfère rester seul, mon coeur bat pour le ghetto Étrangement les amis tous deviennent ennemis Mais rien a foutre tant que j'ai une lame sous mon teddy Mon délire est démoniaque comme les fils Tennessee Three 6, Crunchy, Gangsta Boo and Pimp C Le soir je suis posté dans un hôtel à Bondy J'suis ready, j'suis armé j'peux plus monter au charbon Négro moi j'suis trop cramé, condamné à vivre la nuit Dans ma tête c'est le tsunami, idées sales trajectoire d'une balle Quand la peur s'installe, wesh négro décale sinon C'est la pierre tombale, festival du crime en gardav À l'A.P.J. fils de pute parle mal et maintenant il a péri J'suis cramé à la sécu assédic et R.M.I Thug thug Dakar blood, personne veut d'la Hennessy Hors la loi, vie de chacal vie de maboul illégal Animal du Sénégal agitateur du mal Que de la haine viscérale j'introduis ton ancéphale Des avocats à 15 000e relaxé au tribunal J'suis qu'un noir dans un monde tout blanc J'utilise ma haine pour aller de l'avant Négro, j'ai pas d'potos, je préfère les animaux Je préfère rester seul, mon coeur bat pour le ghetto J'suis qu'un noir dans un monde tout blanc J'utilise ma haine pour aller de l'avant Négro, j'ai pas d'potos, je préfère les animaux Je préfère rester seul, mon coeur bat pour le ghetto</t>
         </is>
       </c>
     </row>
@@ -3021,12 +3021,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Trucs sales</t>
+          <t>West Coast Dakar</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Ça fait des années que je répète ça. L'enfoiré qui l'entend, il meurt aussitôt. J'avais jamais cherché à comprendre, je trouvais seulement que ça en jetait de dire ça avant de flinguer un mec. Et puis ce matin j'ai vu quelque chose qui m'a fait réfléchir. D'un seul coup je me dis, que ça pourrait bien vouloir dire que tu es l'oeuvre du malin, et que l'homme vertueux c'est moi, et que mon joli 9mm ce serait mon protecteur, mon berger dans la vallée de l'angoisse et des larmes. Ou encore mieux, c'est moi le berger, et toi l'homme vertueux, et que c'est l'oeuvre du monde qui est l'oeuvre de Lucifer Mais Dieu merci négro, je suis plus dans la daube Maintenant que les trafiquants, pour les flics sont des taupes Et tu sais, tu sais négro, on fait des trucs sales De mon balcon je pisse, arrose les fleurs du mal Inhale de l'oxygène, crache des glaires de haine Et sur le trottoir frère, j'ai placé des reines Du plaisir charnel peau ébène et caramel Tu sens le Diable en toi, dès que tu touches leurs mamelles Lucifer est dans ma rue, le mal est dans ma vie Plein de Judas à ma table, je vois le bout du crucifix Des païens qui prit que Ghetto Fab soit fini Je pense au sacrilège puis comment je l'ai puni Hante mon esprit, les démons ricanent J'y crois au Tout-Puissant, mais je suis au bord du Sheitan Fièvre dans la jungle, idée sacrée ou profane Comment parler aux djinns comme le prophète Suleyman La haine est dans mes yeux, la mort est sur mes lèvres Je pense à mes ennemis, je pense à mes ennemis Je pense à tous ces frères qui ont voulu me trahir Pourtant je les ai nourris, pourtant je les ai nourris La haine est dans mes yeux, la mort est sur mes lèvres Je pense à mes ennemis, je pense à mes ennemis Je pense à tous ces frères qui ont voulu me trahir Pourtant je les ai nourris, pourtant je les ai nourris Quatrième dimension, je maîtrise le vent Il me manque dans la vie que l'cinquième élément Et ma musique s'écoute frère, au fond des cimetières Ambiance outre-tombe, y a du sang dans mon verre J'arrive pas à voir clair, c'est le trou noir Couloir de la mort, j'ai perdu tous mes pouvoirs Maléfique, satanique, retour en Afrique, pour me laver A force de vivre en France boy, on finit encrassé Passer devant les sorciers, confectionner des grigris Mutilant les albinos, et ceux qui ont la trisomie L'empire maudit, le prince des Ténèbres Des sacrifices humains, en bas d'ma fenêtre Je te lai dit négro, on fait des trucs sales De mon balcon je pisse, arrose les fleurs du mal Et si j'meurs qu'on m'enterre avec mon argent Qu'on se rappelle qu'à moi seul, j'ai niqué tous les agents La haine est dans mes yeux, la mort est sur mes lèvres Je pense à mes ennemis, je pense à mes ennemis Je pense à tous ces frères qui ont voulu me trahir Pourtant je les ai nourris, pourtant je les ai nourris La haine est dans mes yeux, la mort est sur mes lèvres Je pense à mes ennemis, je pense à mes ennemis Je pense à tous ces frères qui ont voulu me trahir Pourtant je les ai nourris, pourtant je les ai nourris Et tu sais, tu sais négro, on fait des trucs sales La vie de rêve nous tend, on cotoît le mal Je suis sur l'autoroute, je suis déjà gé-char Et j'arrive de l'au-delà, envahir la capitale Et tu sais, tu sais négro, on fait des trucs sales La vie de rêve nous tend, on cotoît le mal Je suis sur l'autoroute, je suis déjà gé-char Et j'arrive de l'au-delà, envahir la capitale Calamité naturelle, moins de mois de misère Que Dieu protège l'Afrique de ses tremblements de terre Quand le Diable danse la nuit sur la terre de Haïti Décombres et gravats, c'est la mort qui m'envahit Une chair trop froide, les morts ne parlent pas La peur est dans tes yeux, eux ne mententt pas Une chair trop froide, les morts ne parlent pas La mort est dans tes yeux frère, eux ne mentent pas La haine est dans mes yeux, la mort est sur mes lèvres Je pense à mes ennemis, je pense à mes ennemis Je pense à tous ces frères qui ont voulu me trahir Pourtant je les ai nourris, pourtant je les ai nourris La haine est dans mes yeux, la mort est sur mes lèvres Je pense à mes ennemis, je pense à mes ennemis Je pense à tous ces frères qui ont voulu me trahir Pourtant je les ai nourris, pourtant je les ai nourris</t>
+          <t>West Coast Dakar jamais peur de la mort Mes prières vont droit au Sénégal d'abord Y'a t-il un paradis pour les gangsters frère ? 9.3 ma résidence à quelques pas de l'enfer West Coast Dakar jamais peur de la mort Mes prières vont droit au Sénégal d'abord Y'a t-il un paradis pour les gangsters frère ? 9.3 ma résidence à quelques pas de l'enfer Man à force d'avoir les schmitts sur le dos Les coups de fil et les flashs m'ont rendu parano Pop les guns négro et je tire à souhait Wst Side Dakar venu pour racailler Intimidr la concurrence c'est la mort assurée Chaque rime est un crime de plus dans mon casier Le restant de ma vie c'est sous les palmiers Je travaille même pas moi je signe les papiers Dakar Miami et peut-être L.A A Las Palmas je fais que siroter Piña colada danse la merengue Avec des meufs gitanes qui pensent qu'à déhancher Blood gun négro rouge ensanglanté Mais cours négro cours la mort est arrivée Et je prie que le shit soit pas légalisé Sinon à coup sûr le bénéfice sera niqué Puisse Dieu me pardonner la violence que j'ai semé Dans la tête des petits j'suis idolâtré Dévaliser la banque et puis après se barrer Les rappeurs brassent de l'air moi je vais me marrer Me marier à la haine je vais jamais divorcer Un îlotier tout seul moi je vais le planter Dakar baise les traîtres sans remords ni pitié Nique la résurrection on va les déterrer Dans les rues de Mantes la je suis pas étranger Crédible alpoular comme l'union HP Et t'inquiète pour le rap quand je vais me retirer VF Gang et Holocost vont venir tout baiser West Coast Dakar jamais peur de la mort Mes prières vont droit au Sénégal d'abord Y'a t-il un paradis pour les gangsters frère ? 9.3 ma résidence à quelques pas de l'enfer West Coast Dakar jamais peur de la mort Mes prières vont droit au Sénégal d'abord Y'a t-il un paradis pour les gangsters frère ? 9.3 ma résidence à quelques pas de l'enfer</t>
         </is>
       </c>
     </row>
@@ -3038,12 +3038,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Tupac est de retour</t>
+          <t>Woah</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Le ciel montez-moi j'ai écrit mon destin Livré des combats un glaive à la main Arraché des terrains, fait pleurer des gangsters Mon récit est cruel, rempli de mystères Maman ne pleure pas, sois fière de moi Du nord au sud l'Afrique peut compter sur moi Violence héréditaire, Dakar est aux abois J'arrête pas d'envoyer des valises de CFA Makaveli Alpha toujours hors la loi J'attends juste qu'ils viennent pour me lire ms droits Les armes pleurnt puis après les coeurs deviennent froids Je parle trop de violence, en la paix j'ai foi Tends l'oreille négro les propos sont sulfureux La mort arrive en bécane, j'ai le regard ténébreux Calibré minimum, c'est du 11.43 A coup sûr frelon perfore ton estomac Viens avec moi Mec de tess c'est ton frère Alpha 20.25 caillera Jusqu'à la mort c'est Dakar soldat lalalala Viens avec moi Mec de tess c'est ton frère Alpha 20.25 caillera Jusqu'à la mort c'est Dakar soldat lalalala ... West Coast Dakar, jamais peur de la mort Mes prières vont droit au Sénégal d'abord Y'a t-il un paradis pour les gangsters frère ? 93 ma résidence à quelques pas de l'enfer West Coast Dakar, jamais peur de la mort Mes prières vont droit au Sénégal d'abord Y'a t-il un paradis pour les gangsters frère ? 93 ma résidence à quelques pas de l'enfer</t>
+          <t>Rien n'a changé à part que jai plus de maille Tout Dakar me soutient négro j'ai plus de caille Balise ma route nègres savent maintenant à qui se tâter Peuvent mourir à la seconde parce qu'on sest maté Rase le sol comme une hirondelle en temps d'orage Bas d'escalier ... juste moi et Nous sommes des bandits puis on porte des bandanas ... On les pointe du doigt mes potes diront c'st eux là Pas des intrus on se branch entre renois Fais tourner la bonne parole contrôle la rumeur ... Rien ne sert de jouer les nerveux rude boy Si ça tourne au vinaigre on sera tous des soundboys On meurt comme des soldats si on vit pas comme des rois Et fleurs sur ma tombe frère si telle était leur loi Dakar jusqu'à Paris fils en état de sursis Petit à petit après l'esprit s'est endurci Comme Olivia Stone entre ciel et terre suspendu N'aie pas confiance en eux cest tout ce que jai entendu Écoute ça renoi ... Écoute ça renoi Ghetto Fab à contresens Écoute ça renoi nous on nique tout en France Écoute ça renoi moi je te dis ce que je pense yeah Ghetto Fabulous fait de la maille like WOAH Et Aulnay 3keus ont de la maille like WOAH Epinay Orgemont ça bicrave like WOAH Négro qu'est ce tu dis hein ? Yo ma rue cest danger comme les marécages en Floride Sous nos écailles de caïman nique les shtars torride Mieux avaler son sang négro avoir sa fierté Vu que le bloc c'est la jungle nous on reste groupé Tasspés t'étouffent puis t'achèvent comme des piranhas Dors avec un seul oeil flingue sous nos pyjamas Tardsba veulent le pactole sévissent comme des pillards Résistent mieux quà Bagdad une grosse boule de billard Négro je viens de Dakar nul de nous est trouillard Taillés comme nos bastos une floppée de sale gosses Sale flic pourri, kilos de shit saisis Nicolas Sarkozy priorité à droite Moi je grille leurs stops puis je fonce au squat Nos frères dans des charters goument les keufs à Bamako Sous le ciel de Dakar mon gang achève le boulot C'est une époque de fou frère et dehors c'est la guerre La haine se lit dans mes yeux du chlore dans les artères Les genoux par terre je loue le Tout Puissant Ghetto Fabulous Gang négro t'es qu'un bidon Mantes la Jolie ...</t>
         </is>
       </c>
     </row>
@@ -3055,61 +3055,10 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Un monde tout blanc</t>
+          <t>Y a qu’une vie</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
-        <is>
-          <t>J'suis qu'un noir dans un monde tout blanc J'utilise ma haine pour aller de l'avant Négro, j'ai pas d'potos, je préfère les animaux Je préfère rester seul, mon coeur bat pour le ghetto J'suis qu'un noir dans un monde tout blanc J'utilise ma haine pour aller de l'avant Négro, j'ai pas d'potos, je préfère les animaux Je préfère rester seul, mon coeur bat pour le ghetto Mec de tess couilles en fer, voiture d'Allemagne Je charclais un mulet, péage d'espagne Perpignan Montpellier, Viaduc de Millau Clermont, Vierzon, tape une pointe sur Orléans Péage de Dourdans, rentre dans l'Essonne Évite les pirates comme natif l'égyptien Qui va finir dans le coffre reniflé par les chiens Les miens abordent la vie à 180 Puisse dieu nous éloigner des pédophiles et consanguins J'suis qu'un noir dans un monde tout blanc J'utilise ma haine pour aller de l'avant Négro, j'ai pas d'potos, je préfère les animaux Je préfère rester seul, mon coeur bat pour le ghetto J'suis qu'un noir dans un monde tout blanc J'utilise ma haine pour aller de l'avant Négro, j'ai pas d'potos, je préfère les animaux Je préfère rester seul, mon coeur bat pour le ghetto Étrangement les amis tous deviennent ennemis Mais rien a foutre tant que j'ai une lame sous mon teddy Mon délire est démoniaque comme les fils Tennessee Three 6, Crunchy, Gangsta Boo and Pimp C Le soir je suis posté dans un hôtel à Bondy J'suis ready, j'suis armé j'peux plus monter au charbon Négro moi j'suis trop cramé, condamné à vivre la nuit Dans ma tête c'est le tsunami, idées sales trajectoire d'une balle Quand la peur s'installe, wesh négro décale sinon C'est la pierre tombale, festival du crime en gardav À l'A.P.J. fils de pute parle mal et maintenant il a péri J'suis cramé à la sécu assédic et R.M.I Thug thug Dakar blood, personne veut d'la Hennessy Hors la loi, vie de chacal vie de maboul illégal Animal du Sénégal agitateur du mal Que de la haine viscérale j'introduis ton ancéphale Des avocats à 15 000e relaxé au tribunal J'suis qu'un noir dans un monde tout blanc J'utilise ma haine pour aller de l'avant Négro, j'ai pas d'potos, je préfère les animaux Je préfère rester seul, mon coeur bat pour le ghetto J'suis qu'un noir dans un monde tout blanc J'utilise ma haine pour aller de l'avant Négro, j'ai pas d'potos, je préfère les animaux Je préfère rester seul, mon coeur bat pour le ghetto</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Alpha 5.20</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>West Coast Dakar</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>West Coast Dakar jamais peur de la mort Mes prières vont droit au Sénégal d'abord Y'a t-il un paradis pour les gangsters frère ? 9.3 ma résidence à quelques pas de l'enfer West Coast Dakar jamais peur de la mort Mes prières vont droit au Sénégal d'abord Y'a t-il un paradis pour les gangsters frère ? 9.3 ma résidence à quelques pas de l'enfer Man à force d'avoir les schmitts sur le dos Les coups de fil et les flashs m'ont rendu parano Pop les guns négro et je tire à souhait Wst Side Dakar venu pour racailler Intimidr la concurrence c'est la mort assurée Chaque rime est un crime de plus dans mon casier Le restant de ma vie c'est sous les palmiers Je travaille même pas moi je signe les papiers Dakar Miami et peut-être L.A A Las Palmas je fais que siroter Piña colada danse la merengue Avec des meufs gitanes qui pensent qu'à déhancher Blood gun négro rouge ensanglanté Mais cours négro cours la mort est arrivée Et je prie que le shit soit pas légalisé Sinon à coup sûr le bénéfice sera niqué Puisse Dieu me pardonner la violence que j'ai semé Dans la tête des petits j'suis idolâtré Dévaliser la banque et puis après se barrer Les rappeurs brassent de l'air moi je vais me marrer Me marier à la haine je vais jamais divorcer Un îlotier tout seul moi je vais le planter Dakar baise les traîtres sans remords ni pitié Nique la résurrection on va les déterrer Dans les rues de Mantes la je suis pas étranger Crédible alpoular comme l'union HP Et t'inquiète pour le rap quand je vais me retirer VF Gang et Holocost vont venir tout baiser West Coast Dakar jamais peur de la mort Mes prières vont droit au Sénégal d'abord Y'a t-il un paradis pour les gangsters frère ? 9.3 ma résidence à quelques pas de l'enfer West Coast Dakar jamais peur de la mort Mes prières vont droit au Sénégal d'abord Y'a t-il un paradis pour les gangsters frère ? 9.3 ma résidence à quelques pas de l'enfer</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Alpha 5.20</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Woah</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Rien n'a changé à part que jai plus de maille Tout Dakar me soutient négro j'ai plus de caille Balise ma route nègres savent maintenant à qui se tâter Peuvent mourir à la seconde parce qu'on sest maté Rase le sol comme une hirondelle en temps d'orage Bas d'escalier ... juste moi et Nous sommes des bandits puis on porte des bandanas ... On les pointe du doigt mes potes diront c'st eux là Pas des intrus on se branch entre renois Fais tourner la bonne parole contrôle la rumeur ... Rien ne sert de jouer les nerveux rude boy Si ça tourne au vinaigre on sera tous des soundboys On meurt comme des soldats si on vit pas comme des rois Et fleurs sur ma tombe frère si telle était leur loi Dakar jusqu'à Paris fils en état de sursis Petit à petit après l'esprit s'est endurci Comme Olivia Stone entre ciel et terre suspendu N'aie pas confiance en eux cest tout ce que jai entendu Écoute ça renoi ... Écoute ça renoi Ghetto Fab à contresens Écoute ça renoi nous on nique tout en France Écoute ça renoi moi je te dis ce que je pense yeah Ghetto Fabulous fait de la maille like WOAH Et Aulnay 3keus ont de la maille like WOAH Epinay Orgemont ça bicrave like WOAH Négro qu'est ce tu dis hein ? Yo ma rue cest danger comme les marécages en Floride Sous nos écailles de caïman nique les shtars torride Mieux avaler son sang négro avoir sa fierté Vu que le bloc c'est la jungle nous on reste groupé Tasspés t'étouffent puis t'achèvent comme des piranhas Dors avec un seul oeil flingue sous nos pyjamas Tardsba veulent le pactole sévissent comme des pillards Résistent mieux quà Bagdad une grosse boule de billard Négro je viens de Dakar nul de nous est trouillard Taillés comme nos bastos une floppée de sale gosses Sale flic pourri, kilos de shit saisis Nicolas Sarkozy priorité à droite Moi je grille leurs stops puis je fonce au squat Nos frères dans des charters goument les keufs à Bamako Sous le ciel de Dakar mon gang achève le boulot C'est une époque de fou frère et dehors c'est la guerre La haine se lit dans mes yeux du chlore dans les artères Les genoux par terre je loue le Tout Puissant Ghetto Fabulous Gang négro t'es qu'un bidon Mantes la Jolie ...</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Alpha 5.20</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Y a qu’une vie</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
         <is>
           <t>Ghetto Fabulous Gang frère Dakar Yarakh Bing bing 93 One Beat renoi ! Y a qu'une vie à vivre, moi j'la vis pleinement Dehors pleins de poucaves j'peux pas être clément Ghetto Fabulous Gang, boy à quoi tu t'attends ? Viens pas tout blanc, on est déjà rouge-sang La cité en personne, Dakar au mieux de sa forme Une jeunesse passée à haïr tout c'qui est uniforme J'peux plus dormir car la tess' m'appelle Une fausse plaque négro, les keufs sont juste derrière Ils voient rien dans mes yeux, essayent d'infiltrer mon coeur De plus l'Ange d'la Mort nettoie mon rétroviseur S'il te plait négro, me racontes pas ta vie Moi je crible ta caisse comme 2pac et Biggie C'est Alpha 5.20 en direct des toilettes Où je doigte la Joconde et Marie-Antoinette Et les cris qu'elles poussent ressemblent à ceux des macaques Avec lesquels j'ai grandis dans ma jungle natale Boy Dakar Dakar, les arènes de la mort Sacrifie les taureaux, moi j'suis un matador Tempère mon attitude, écoute les paroles divines En dehors du peu-ra mes paroles sont minimes ! Y a qu'une vie à vivre, moi j'la vis pleinement Dehors pleins de poucaves j'peux pas être clément Ghetto Fabulous Gang, boy à quoi tu t'attends ? Viens pas tout blanc, on est déjà rouge-sang J'suis venu, j'ai vu puis après j'ai vaincu Ton rappeur favoris pour moi n'est qu'une groupie biatch ! Et j'pris le Seigneur, tête baissée, coeur humble Conversation intime Aide moi s'il te plait ! Parfois moi je pense que c'est mieux de mourir 29 piges ma vie, le 28 était triste J'étais mort mille fois j'veux renaître maintenant Avoir plein de sentiments, j'viens avec des enfants Mais c'est dur de résister aux tentations de l'argent Toute ma vie les poings liés, négro tu me comprends Un animal dans la jungle, un cannibale avec un flingue Au point de non-retour comme la racaille d'Afrique Négros pensent qu'leur cité peuvent heurter mes finances Négros pensent qu'leurs flingues peuvent adoucir mes tendances Suicidaire et esseulé j'maîtrise l'art de Guerre L'art de manier les armes, l'art de repérer les traîtres frère ! Y a qu'une vie à vivre, moi j'la vis pleinement Dehors pleins de poucaves j'peux pas être clément Ghetto Fabulous Gang, boy à quoi tu t'attends ? Viens pas tout blanc, on est déjà rouge-sang Et tu parles, et tu parles Ghetto Fabulous Gang Et bicrave, et bicrave, viens nous voir bolosse Et tu parles, et tu parles Ghetto Fabulous Gang Et bicrave, et bicrave, viens nous voir bolosse Shoot les MC mec One Beat mon frère, c'est l'projet frère J'suis en compétition qu'avec moi-même mon frère L'excellence mon frère Quand il s'agit de Gangsta Shit mon frère Tu peux pas faire mieux qu'la Pharmacie Drugstore, Spike Miller, Deadline frère ! Ghetto Fabulous Gang Et tu parles, et tu parles Ghetto Fabulous Gang Et bicrave, et bicrave, viens nous voir bolosse Et tu parles, et tu parles Fermes ta gueule ! Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
